--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10932A99-7C15-4AC2-9053-60A5957CF4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499885F2-5A50-44D2-86BA-851F75C2247B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Sayfa3" sheetId="5" r:id="rId5"/>
     <sheet name="Sayfa1" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -2030,11 +2030,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>255011.23766499999</v>
+        <v>252815.69096500007</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2043,11 +2043,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>157.60892315512979</v>
+        <v>155.77060441466423</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2080,24 +2080,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I37)</f>
-        <v>736743.27683999995</v>
+        <v>734604.78014000005</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K38)</f>
-        <v>236168.52931999997</v>
+        <v>233972.98262000005</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.48344017348957746</v>
+        <v>0.47894585970184056</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-4.0425609833655202E-2</v>
+        <v>-6.1916589312387207E-2</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-4.110014221836622E-2</v>
+        <v>-5.1609235413479594E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2252,7 +2252,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O38)</f>
-        <v>236168.52931999997</v>
+        <v>233972.98262000005</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2282,31 +2282,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>1220</v>
+        <v>1208</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>0</v>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>0</v>
+        <v>-12.000000000000028</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M15" s="67">
         <f>K15/E15</f>
-        <v>0</v>
+        <v>-9.8360655737705152E-3</v>
       </c>
       <c r="N15" s="67">
         <f>M15/L15*30</f>
-        <v>0</v>
+        <v>-2.1077283372365387E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2336,31 +2336,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>1309</v>
+        <v>1255.0999999999999</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>9.9999999999980105E-3</v>
+        <v>-1.5300000000000011</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>0.34999999999993037</v>
+        <v>-53.55000000000004</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M16" s="67">
         <f>K16/E16</f>
-        <v>2.67451190157743E-4</v>
+        <v>-4.0920032094142848E-2</v>
       </c>
       <c r="N16" s="67">
         <f>M16/L16*30</f>
-        <v>8.9150396719247659E-4</v>
+        <v>-8.7685783058877531E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2390,31 +2390,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1274</v>
+        <v>1201</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-7.5999999999999943</v>
+        <v>-14.900000000000006</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-75.999999999999943</v>
+        <v>-149.00000000000006</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M17" s="67">
         <f>K17/E17</f>
-        <v>-5.6296296296296254E-2</v>
+        <v>-0.11037037037037041</v>
       </c>
       <c r="N17" s="117">
         <f>M17/L17*30</f>
-        <v>-9.9346405228758095E-2</v>
+        <v>-0.15050505050505056</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="F20" s="62">
         <f>$B$2</f>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G20" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2445,31 +2445,31 @@
       </c>
       <c r="H20" s="64">
         <f>Sayfa4!K5</f>
-        <v>622.84294799999998</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="I20" s="51">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>18685.28844</v>
+        <v>19049.512619999998</v>
       </c>
       <c r="J20" s="46">
         <f>H20-D20</f>
-        <v>0</v>
+        <v>12.140805999999998</v>
       </c>
       <c r="K20" s="65">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>0</v>
+        <v>364.22417999999993</v>
       </c>
       <c r="L20" s="66">
         <f>F20-B20</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M20" s="67">
         <f>K20/E20</f>
-        <v>0</v>
+        <v>1.9492563958514945E-2</v>
       </c>
       <c r="N20" s="67">
         <f>M20/L20*30</f>
-        <v>0</v>
+        <v>4.176977991110345E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2499,31 +2499,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.39</v>
+        <v>24.41</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>60975</v>
+        <v>61025</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>-0.32000000000000028</v>
+        <v>-0.30000000000000071</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>-800.00000000000068</v>
+        <v>-750.00000000000182</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="M21" s="67">
         <f>K21/E21</f>
-        <v>-1.2950222581950638E-2</v>
+        <v>-1.2140833670578742E-2</v>
       </c>
       <c r="N21" s="67">
         <f>M21/L21*30</f>
-        <v>-4.3167408606502124E-2</v>
+        <v>-2.6016072151240164E-2</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2580,31 +2580,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.39</v>
+        <v>24.41</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>60975</v>
+        <v>61025</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>-0.51999999999999957</v>
+        <v>-0.5</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>-1299.9999999999989</v>
+        <v>-1250</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>-2.0875150541951007E-2</v>
+        <v>-2.0072260136491368E-2</v>
       </c>
       <c r="N23" s="117">
         <f>M23/L23*30</f>
-        <v>-6.2625451625853021E-2</v>
+        <v>-4.0144520272982737E-2</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2661,31 +2661,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.39</v>
+        <v>24.41</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>60975</v>
+        <v>61025</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-0.73000000000000043</v>
+        <v>-0.71000000000000085</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-1825.0000000000011</v>
+        <v>-1775.000000000002</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-2.9060509554140145E-2</v>
+        <v>-2.8264331210191115E-2</v>
       </c>
       <c r="N25" s="117">
         <f>M25/L25*30</f>
-        <v>-6.7062714355708028E-2</v>
+        <v>-4.7107218683651857E-2</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2742,31 +2742,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.90642500000000004</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>67981.875</v>
+        <v>63712.5</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.15800999999999998</v>
+        <v>-0.21493499999999999</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-11850.749999999998</v>
+        <v>-16120.124999999998</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.14844494966813376</v>
+        <v>-0.20192402542193744</v>
       </c>
       <c r="N27" s="117">
         <f>M27/L27*30</f>
-        <v>-6.1004773836219356E-2</v>
+        <v>-7.7663086700745176E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2797,35 +2797,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.90642500000000004</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>45321.25</v>
+        <v>42475</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-9.6779999999999866E-2</v>
+        <v>-0.15370499999999987</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-4838.9999999999936</v>
+        <v>-7685.2499999999936</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-9.6470811050582764E-2</v>
+        <v>-0.15321394929251739</v>
       </c>
       <c r="N28" s="117">
         <f>M28/L28*30</f>
-        <v>-3.7586030279447832E-2</v>
+        <v>-5.6053883887506359E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-21082.789999999994</v>
+        <v>-27823.090819999994</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2864,50 +2864,50 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F37" si="0">$B$2</f>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
         <f>Sayfa4!G10</f>
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="I30" s="51">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
-        <v>116658</v>
+        <v>117228.50000000001</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ref="J30:J37" si="1">H30-D30</f>
-        <v>506.62999999999988</v>
+        <v>518.04000000000019</v>
       </c>
       <c r="K30" s="65">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>22798.349999999995</v>
+        <v>23311.80000000001</v>
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L37" si="2">F30-B30</f>
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M37" si="3">K30/E30</f>
-        <v>0.27737294213618163</v>
+        <v>0.28361975987254529</v>
       </c>
       <c r="N30" s="117">
         <f t="shared" ref="N30:N37" si="4">M30/L30*30</f>
-        <v>4.1194001307353706E-2</v>
+        <v>4.1104313025006563E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>116658</v>
+        <v>117228.50000000001</v>
       </c>
       <c r="Q30" s="1">
         <v>2000</v>
       </c>
       <c r="R30" s="1">
         <f>P30/Q30</f>
-        <v>58.329000000000001</v>
+        <v>58.614250000000006</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2929,50 +2929,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
       </c>
       <c r="H31" s="64">
         <f>H30</f>
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>25664.76</v>
+        <v>25790.27</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>1931.06</v>
+        <v>1942.4700000000003</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>21241.66</v>
+        <v>21367.170000000002</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1177</v>
+        <v>1182</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
-        <v>4.8024372046754538</v>
+        <v>4.8308132305396665</v>
       </c>
       <c r="N31" s="117">
         <f t="shared" si="4"/>
-        <v>0.12240706553973119</v>
+        <v>0.12260947285633671</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25664.76</v>
+        <v>25790.27</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>12.832379999999999</v>
+        <v>12.895135</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2994,50 +2994,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>116658</v>
+        <v>117228.50000000001</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1864.2999999999997</v>
+        <v>1875.71</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>93214.999999999985</v>
+        <v>93785.5</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1337</v>
+        <v>1342</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>3.9762402422898089</v>
+        <v>4.0005758648637118</v>
       </c>
       <c r="N32" s="117">
         <f t="shared" si="4"/>
-        <v>8.9220050313159507E-2</v>
+        <v>8.9431651226461517E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>116658</v>
+        <v>117228.50000000001</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>58.329000000000001</v>
+        <v>58.614250000000006</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3067,36 +3067,36 @@
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>58329</v>
+        <v>58614.250000000007</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>1933.29</v>
+        <v>1944.7000000000003</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>48332.25</v>
+        <v>48617.500000000007</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>4.8347963088003603</v>
+        <v>4.8633305824392936</v>
       </c>
       <c r="N33" s="117">
         <f t="shared" si="4"/>
-        <v>0.10352882888223471</v>
+        <v>0.10376950033654253</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
         <f>SUM(R30:R32)</f>
-        <v>129.49037999999999</v>
+        <v>130.12363500000001</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3126,31 +3126,31 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>55995.839999999997</v>
+        <v>56269.680000000008</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>2059.35</v>
+        <v>2070.7600000000002</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>49424.399999999994</v>
+        <v>49698.240000000005</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>7.5210912676673587</v>
+        <v>7.5627624995434797</v>
       </c>
       <c r="N34" s="117">
         <f t="shared" si="4"/>
-        <v>0.13945163042646525</v>
+        <v>0.1397922828011734</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3181,40 +3181,40 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2095.5699999999997</v>
+        <v>2106.98</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>2095.5699999999997</v>
+        <v>2106.98</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1618</v>
+        <v>1623</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>8.8201102740014292</v>
+        <v>8.8681341807315128</v>
       </c>
       <c r="N35" s="117">
         <f t="shared" si="4"/>
-        <v>0.16353727331275827</v>
+        <v>0.1639211493665714</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
         <f>SUM(P30:P34)</f>
-        <v>258980.76</v>
+        <v>260247.27000000002</v>
       </c>
       <c r="R35" s="1">
         <f>P35/2220.32</f>
-        <v>116.64118685594869</v>
+        <v>117.21160463356634</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3244,36 +3244,36 @@
       </c>
       <c r="H36" s="64">
         <f>Sayfa4!E5</f>
-        <v>24.055499999999999</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>7187.7834000000003</v>
+        <v>10160.813520000002</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>5.3338999999999999</v>
+        <v>15.283800000000003</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>1593.7693200000001</v>
+        <v>4566.7994400000007</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>0.28490620459789762</v>
+        <v>0.81637253226219997</v>
       </c>
       <c r="N36" s="117">
         <f t="shared" si="4"/>
-        <v>1.3417874627844472E-2</v>
+        <v>3.8148249171130841E-2</v>
       </c>
       <c r="O36" s="68"/>
       <c r="P36" s="1">
         <f>P35*Q36</f>
-        <v>25898.076000000001</v>
+        <v>26024.727000000003</v>
       </c>
       <c r="Q36" s="75">
         <v>0.1</v>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="F37" s="62">
         <f t="shared" si="0"/>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="G37" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3309,47 +3309,47 @@
       </c>
       <c r="H37" s="64">
         <f>Sayfa4!C5</f>
-        <v>31.712</v>
+        <v>31.5244</v>
       </c>
       <c r="I37" s="51">
         <f>Sayfa2!$H37*Sayfa2!$G37</f>
-        <v>35200.32</v>
+        <v>34992.084000000003</v>
       </c>
       <c r="J37" s="46">
         <f t="shared" si="1"/>
-        <v>16.712</v>
+        <v>16.5244</v>
       </c>
       <c r="K37" s="65">
         <f>Sayfa2!$J37*Sayfa2!$C37</f>
-        <v>18550.32</v>
+        <v>18342.083999999999</v>
       </c>
       <c r="L37" s="66">
         <f t="shared" si="2"/>
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="M37" s="67">
         <f t="shared" si="3"/>
-        <v>1.1141333333333334</v>
+        <v>1.1016266666666665</v>
       </c>
       <c r="N37" s="117">
         <f t="shared" si="4"/>
-        <v>5.1659969088098924E-2</v>
+        <v>5.0688343558282202E-2</v>
       </c>
       <c r="O37" s="70">
         <f>SUM(K30:K37)</f>
-        <v>257251.31931999998</v>
+        <v>261796.07344000004</v>
       </c>
       <c r="P37" s="6">
         <f>SUM(P35:P36)</f>
-        <v>284878.83600000001</v>
+        <v>286271.99700000003</v>
       </c>
       <c r="R37" s="1">
         <f>P37/2000</f>
-        <v>142.43941800000002</v>
+        <v>143.13599850000003</v>
       </c>
       <c r="T37" s="1">
         <f>P35/T36</f>
-        <v>112.60033043478261</v>
+        <v>113.15098695652175</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3391,7 +3391,7 @@
       <c r="N40" s="117"/>
       <c r="R40" s="1">
         <f>R37*2220.32</f>
-        <v>316261.08857376006</v>
+        <v>317807.7201895201</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5556,12 +5556,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM60"/>
+  <dimension ref="A4:AM62"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="J14" sqref="J14"/>
+      <selection pane="topRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5577,8 +5577,8 @@
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" style="114" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" customWidth="1"/>
     <col min="17" max="17" width="9" customWidth="1"/>
@@ -5613,51 +5613,51 @@
     <row r="5" spans="1:39">
       <c r="A5" s="118">
         <f>A10</f>
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="C5">
         <f>C10</f>
-        <v>31.712</v>
+        <v>31.5244</v>
       </c>
       <c r="E5">
         <f>E10</f>
-        <v>24.055499999999999</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="G5">
         <f>G10</f>
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="I5">
         <f>I10</f>
-        <v>24.39</v>
+        <v>24.41</v>
       </c>
       <c r="K5">
         <f>K10</f>
-        <v>622.84294799999998</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="M5">
         <f>M10</f>
-        <v>0.90642500000000004</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="O5" s="116">
         <f>Sayfa2!D3</f>
-        <v>157.60892315512979</v>
+        <v>155.77060441466423</v>
       </c>
       <c r="P5" s="119">
         <f>Sayfa2!K2</f>
-        <v>255011.23766499999</v>
+        <v>252815.69096500007</v>
       </c>
       <c r="Y5" s="116">
         <f>Y10</f>
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="AA5" s="116">
         <f>AA10</f>
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AC5" s="116">
         <f>AC10</f>
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
       <c r="AE5">
         <f>AE10</f>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM35</f>
+        <f>AM37</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -5765,956 +5765,990 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="118">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B10">
-        <f>B47</f>
+        <f>B49</f>
         <v>1110</v>
       </c>
       <c r="C10">
-        <v>31.712</v>
+        <v>31.5244</v>
       </c>
       <c r="D10">
-        <f>D47</f>
+        <f>D49</f>
         <v>321.99</v>
       </c>
       <c r="E10">
-        <v>24.055499999999999</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F10" s="113">
         <v>156</v>
       </c>
       <c r="G10">
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H10" s="200">
         <v>7500</v>
       </c>
       <c r="I10" s="200">
-        <v>24.39</v>
+        <v>24.41</v>
       </c>
       <c r="J10">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>622.84294799999998</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L10">
-        <f>L47</f>
+        <f>L49</f>
         <v>125000</v>
       </c>
       <c r="M10">
-        <v>0.90642500000000004</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N10" s="114">
         <f>(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>721832.32388500008</v>
+        <v>720006.41536600015</v>
       </c>
       <c r="O10">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P10">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q10" s="116">
-        <v>10082.77</v>
+        <v>10200</v>
       </c>
       <c r="R10" s="128">
         <f>(1-(Q12/Q10))</f>
-        <v>1.6577785668025702E-2</v>
+        <v>-6.7235294117646838E-3</v>
       </c>
       <c r="S10" s="117">
-        <f t="shared" ref="S10:S41" si="0">(N10/$N$41)-1</f>
-        <v>0.36080556663296148</v>
+        <f>(N10/$N$43)-1</f>
+        <v>0.35736334550403681</v>
       </c>
       <c r="T10" s="115">
-        <f t="shared" ref="T10:T41" si="1">(A10-$A$41)</f>
-        <v>59</v>
+        <f>(A10-$A$43)</f>
+        <v>64</v>
       </c>
       <c r="U10" s="117">
-        <f>((N10/$N$41)-1)/T10*30</f>
-        <v>0.18346045760998042</v>
+        <f>((N10/$N$43)-1)/T10*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V10" s="117"/>
       <c r="W10" s="117"/>
       <c r="X10" s="135"/>
       <c r="Y10" s="135">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z10" s="135"/>
       <c r="AA10" s="135">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB10">
         <v>10</v>
       </c>
       <c r="AC10" s="116">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="118">
-        <v>45412</v>
+        <v>45425</v>
       </c>
       <c r="B11">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C11">
-        <v>31.771699999999999</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D11">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E11">
-        <v>34.014699999999998</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F11" s="113">
         <v>156</v>
       </c>
       <c r="G11">
-        <v>2341.2800000000002</v>
+        <v>2341.31</v>
       </c>
       <c r="H11" s="200">
         <v>7500</v>
       </c>
       <c r="I11" s="200">
-        <v>24.71</v>
+        <v>24.47</v>
       </c>
       <c r="J11">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L11">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M11">
-        <v>0.90242599999999995</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N11" s="114">
-        <f>(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
-        <v>769379.83326099999</v>
+        <f t="shared" ref="N11:N19" si="0">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
+        <v>724161.16908100003</v>
       </c>
       <c r="O11">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P11">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q11" s="116">
-        <v>10082.77</v>
+        <v>10200</v>
       </c>
       <c r="R11" s="128">
         <f>(1-(Q13/Q11))</f>
-        <v>4.1488598867176374E-2</v>
+        <v>1.5123529411764758E-2</v>
       </c>
       <c r="S11" s="117">
-        <f t="shared" ref="S11" si="2">(N11/$N$41)-1</f>
-        <v>0.45044261016428133</v>
+        <f>(N11/$N$43)-1</f>
+        <v>0.36519592905049159</v>
       </c>
       <c r="T11" s="115">
-        <f t="shared" ref="T11" si="3">(A11-$A$41)</f>
-        <v>50</v>
+        <f>(A11-$A$43)</f>
+        <v>63</v>
       </c>
       <c r="U11" s="117">
-        <f>((N11/$N$41)-1)/T11*30</f>
-        <v>0.27026556609856883</v>
+        <f>((N11/$N$43)-1)/T11*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V11" s="117"/>
       <c r="W11" s="117"/>
       <c r="X11" s="135"/>
       <c r="Y11" s="135">
-        <v>37.39</v>
+        <v>35.86</v>
       </c>
       <c r="Z11" s="135"/>
       <c r="AA11" s="135">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB11">
         <v>10</v>
       </c>
       <c r="AC11" s="116">
-        <v>125.1</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="118">
-        <v>45411</v>
+        <v>45421</v>
       </c>
       <c r="B12">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.948</v>
+        <v>31.712</v>
       </c>
       <c r="D12">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>34.280099999999997</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F12" s="113">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2384.1799999999998</v>
+        <v>2333.16</v>
       </c>
       <c r="H12" s="200">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I12" s="200">
-        <v>24.91</v>
+        <v>24.39</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
+        <v>622.84294799999998</v>
       </c>
       <c r="L12">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.89855499999999999</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N12" s="114">
-        <f>(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)</f>
-        <v>655301.58439900004</v>
+        <f t="shared" si="0"/>
+        <v>725052.22388499998</v>
       </c>
       <c r="O12">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P12">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q12" s="116">
-        <v>9915.6200000000008</v>
+        <v>10268.58</v>
       </c>
       <c r="R12" s="128">
-        <f t="shared" ref="R12:R52" si="4">(1-(Q13/Q12))</f>
-        <v>2.5330740790792672E-2</v>
+        <f t="shared" ref="R12:R22" si="1">(1-(Q13/Q12))</f>
+        <v>2.1701150499874422E-2</v>
       </c>
       <c r="S12" s="117">
-        <f t="shared" si="0"/>
-        <v>0.23538114651627517</v>
+        <f>(N12/$N$43)-1</f>
+        <v>0.36687575454089361</v>
       </c>
       <c r="T12" s="115">
-        <f t="shared" si="1"/>
-        <v>49</v>
+        <f>(A12-$A$43)</f>
+        <v>59</v>
       </c>
       <c r="U12" s="117">
-        <f>((N12/$N$41)-1)/T12*30</f>
-        <v>0.14411090603037255</v>
+        <f>((N12/$N$43)-1)/T12*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V12" s="117"/>
       <c r="W12" s="117"/>
-      <c r="X12" s="113">
-        <v>35</v>
-      </c>
-      <c r="Y12" s="129">
-        <f>Y15</f>
-        <v>37.39</v>
-      </c>
-      <c r="Z12" s="113">
-        <v>40</v>
-      </c>
-      <c r="AA12" s="129">
-        <f>AA15</f>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135">
+        <v>37.4</v>
+      </c>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135">
         <v>30.5</v>
       </c>
-      <c r="AB12"/>
+      <c r="AB12">
+        <v>10</v>
+      </c>
+      <c r="AC12" s="116">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="118">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="B13">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C13">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D13">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E13">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F13" s="113">
         <v>156</v>
       </c>
       <c r="G13">
-        <v>2384.1799999999998</v>
+        <v>2341.2800000000002</v>
       </c>
       <c r="H13" s="200">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="I13" s="200">
-        <v>25.11</v>
+        <v>24.71</v>
+      </c>
+      <c r="J13">
+        <v>96</v>
+      </c>
+      <c r="K13">
+        <v>622.84294799999998</v>
       </c>
       <c r="L13">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M13">
-        <v>0.89607400000000004</v>
+        <v>0.90242599999999995</v>
       </c>
       <c r="N13" s="114">
-        <f>(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)</f>
-        <v>593216.45939900004</v>
+        <f t="shared" si="0"/>
+        <v>769379.83326099999</v>
       </c>
       <c r="O13">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P13">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q13" s="116">
-        <v>9664.4500000000007</v>
+        <v>10045.74</v>
       </c>
       <c r="R13" s="128">
-        <f t="shared" si="4"/>
-        <v>-5.7478697701369708E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.2952754102733999E-2</v>
       </c>
       <c r="S13" s="117">
-        <f t="shared" si="0"/>
-        <v>0.11833764360082077</v>
+        <f t="shared" ref="S13" si="2">(N13/$N$43)-1</f>
+        <v>0.45044261016428133</v>
       </c>
       <c r="T13" s="115">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <f t="shared" ref="T13" si="3">(A13-$A$43)</f>
+        <v>50</v>
       </c>
       <c r="U13" s="117">
-        <f>((N13/$N$41)-1)/T13*30</f>
-        <v>7.7176724087491808E-2</v>
+        <f>((N13/$N$43)-1)/T13*30</f>
+        <v>0.27026556609856883</v>
       </c>
       <c r="V13" s="117"/>
       <c r="W13" s="117"/>
-      <c r="X13" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y13" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z13" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA13" s="130" t="s">
-        <v>69</v>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135">
+        <v>37.39</v>
+      </c>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135">
+        <v>30.5</v>
       </c>
       <c r="AB13">
         <v>10</v>
       </c>
       <c r="AC13" s="116">
-        <v>148.5</v>
+        <v>125.1</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="118">
-        <v>45407</v>
+        <v>45411</v>
       </c>
       <c r="B14">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C14">
-        <v>32.0291</v>
+        <v>31.948</v>
       </c>
       <c r="D14">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E14">
-        <v>34.322299999999998</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F14" s="113">
         <v>156</v>
       </c>
       <c r="G14">
-        <v>2368.4699999999998</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H14" s="200">
+        <v>5000</v>
+      </c>
+      <c r="I14" s="200">
+        <v>24.91</v>
       </c>
       <c r="L14">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M14">
-        <v>0.90609700000000004</v>
+        <v>0.89855499999999999</v>
       </c>
       <c r="N14" s="114">
-        <f>(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)</f>
-        <v>529347.18337699992</v>
+        <f t="shared" si="0"/>
+        <v>655301.58439900004</v>
       </c>
       <c r="O14">
-        <v>167.13</v>
+        <v>167.61</v>
       </c>
       <c r="P14">
-        <v>268083.81</v>
+        <v>269021.68</v>
       </c>
       <c r="Q14" s="116">
-        <v>9720</v>
+        <v>9915.6200000000008</v>
       </c>
       <c r="R14" s="128">
-        <f t="shared" si="4"/>
-        <v>-2.1502057613176362E-4</v>
+        <f t="shared" si="1"/>
+        <v>2.5330740790792672E-2</v>
       </c>
       <c r="S14" s="117">
-        <f t="shared" si="0"/>
-        <v>-2.0693587896702947E-3</v>
+        <f t="shared" ref="S14:S43" si="4">(N14/$N$43)-1</f>
+        <v>0.23538114651627517</v>
       </c>
       <c r="T14" s="115">
-        <f t="shared" si="1"/>
-        <v>45</v>
+        <f t="shared" ref="T14:T43" si="5">(A14-$A$43)</f>
+        <v>49</v>
       </c>
       <c r="U14" s="117">
-        <f>((N14/$N$41)-1)/T14*30</f>
-        <v>-1.379572526446863E-3</v>
+        <f>((N14/$N$43)-1)/T14*30</f>
+        <v>0.14411090603037255</v>
       </c>
       <c r="V14" s="117"/>
       <c r="W14" s="117"/>
-      <c r="X14" s="113"/>
-      <c r="Y14" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z14" s="113"/>
-      <c r="AA14" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB14">
-        <v>10</v>
-      </c>
-      <c r="AC14" s="116">
-        <v>135</v>
-      </c>
+      <c r="X14" s="113">
+        <v>35</v>
+      </c>
+      <c r="Y14" s="129">
+        <f>Y17</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z14" s="113">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="129">
+        <f>AA17</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB14"/>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="118">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="B15">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.928699999999999</v>
+        <v>31.948</v>
       </c>
       <c r="D15">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>33.972000000000001</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F15" s="113">
         <v>156</v>
       </c>
       <c r="G15">
-        <v>2380.13</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H15" s="200">
+        <v>2500</v>
+      </c>
+      <c r="I15" s="200">
+        <v>25.11</v>
       </c>
       <c r="L15">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M15">
-        <v>0.88805999999999996</v>
+        <v>0.89607400000000004</v>
       </c>
       <c r="N15" s="114">
-        <f>(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)</f>
-        <v>528687.28128</v>
+        <f t="shared" si="0"/>
+        <v>593216.45939900004</v>
       </c>
       <c r="O15">
-        <v>166.96</v>
+        <v>167.61</v>
       </c>
       <c r="P15">
-        <v>267307.03000000003</v>
+        <v>269021.68</v>
       </c>
       <c r="Q15" s="116">
-        <v>9722.09</v>
+        <v>9664.4500000000007</v>
       </c>
       <c r="R15" s="128">
+        <f t="shared" si="1"/>
+        <v>-5.7478697701369708E-3</v>
+      </c>
+      <c r="S15" s="117">
         <f t="shared" si="4"/>
-        <v>7.927307811386175E-3</v>
-      </c>
-      <c r="S15" s="117">
-        <f t="shared" si="0"/>
-        <v>-3.3134128688740994E-3</v>
+        <v>0.11833764360082077</v>
       </c>
       <c r="T15" s="115">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <f t="shared" si="5"/>
+        <v>46</v>
       </c>
       <c r="U15" s="117">
-        <f>((N15/$N$41)-1)/T15*30</f>
-        <v>-2.259145137868704E-3</v>
+        <f>((N15/$N$43)-1)/T15*30</f>
+        <v>7.7176724087491808E-2</v>
       </c>
       <c r="V15" s="117"/>
       <c r="W15" s="117"/>
       <c r="X15" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y15" s="132">
-        <v>37.39</v>
+        <v>68</v>
+      </c>
+      <c r="Y15" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="Z15" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA15" s="132">
-        <v>30.5</v>
+        <v>68</v>
+      </c>
+      <c r="AA15" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="AB15">
         <v>10</v>
       </c>
       <c r="AC15" s="116">
-        <v>135</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="118">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B16">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C16">
-        <v>31.928699999999999</v>
+        <v>32.0291</v>
       </c>
       <c r="D16">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E16">
-        <v>33.972000000000001</v>
+        <v>34.322299999999998</v>
       </c>
       <c r="F16" s="113">
         <v>156</v>
       </c>
       <c r="G16">
-        <v>2380.13</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="L16">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M16">
-        <v>0.88805999999999996</v>
+        <v>0.90609700000000004</v>
       </c>
       <c r="N16" s="114">
-        <f>(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)</f>
-        <v>528687.28128</v>
+        <f t="shared" si="0"/>
+        <v>529347.18337699992</v>
       </c>
       <c r="O16">
-        <v>166.96</v>
+        <v>167.13</v>
       </c>
       <c r="P16">
-        <v>267307.03000000003</v>
+        <v>268083.81</v>
       </c>
       <c r="Q16" s="116">
-        <v>9645.02</v>
+        <v>9720</v>
       </c>
       <c r="R16" s="128">
+        <f t="shared" si="1"/>
+        <v>-2.1502057613176362E-4</v>
+      </c>
+      <c r="S16" s="117">
         <f t="shared" si="4"/>
-        <v>-5.0222809283961833E-3</v>
-      </c>
-      <c r="S16" s="117">
-        <f t="shared" si="0"/>
-        <v>-3.3134128688740994E-3</v>
+        <v>-2.0693587896702947E-3</v>
       </c>
       <c r="T16" s="115">
-        <f t="shared" si="1"/>
-        <v>42</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="U16" s="117">
-        <f>((N16/$N$41)-1)/T16*30</f>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N16/$N$43)-1)/T16*30</f>
+        <v>-1.379572526446863E-3</v>
       </c>
       <c r="V16" s="117"/>
       <c r="W16" s="117"/>
       <c r="X16" s="113"/>
-      <c r="Y16" s="117" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
+      <c r="Y16" s="131" t="s">
+        <v>70</v>
       </c>
       <c r="Z16" s="113"/>
-      <c r="AA16" s="117" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB16" s="113">
+      <c r="AA16" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB16">
         <v>10</v>
       </c>
-      <c r="AC16" s="129">
+      <c r="AC16" s="116">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="118">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B17">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C17">
-        <v>31.803999999999998</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D17">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E17">
-        <v>33.928400000000003</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F17" s="113">
         <v>156</v>
       </c>
       <c r="G17">
-        <v>2427.62</v>
+        <v>2380.13</v>
       </c>
       <c r="L17">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M17">
-        <v>0.87351800000000002</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N17" s="114">
-        <f>(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)</f>
-        <v>534125.51551599998</v>
+        <f t="shared" si="0"/>
+        <v>528687.28128</v>
       </c>
       <c r="O17">
-        <v>170.57</v>
+        <v>166.96</v>
       </c>
       <c r="P17">
-        <v>272736.27</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q17" s="116">
-        <v>9693.4599999999991</v>
+        <v>9722.09</v>
       </c>
       <c r="R17" s="128">
+        <f t="shared" si="1"/>
+        <v>7.927307811386175E-3</v>
+      </c>
+      <c r="S17" s="117">
         <f t="shared" si="4"/>
-        <v>1.4091975414350921E-3</v>
-      </c>
-      <c r="S17" s="117">
-        <f t="shared" si="0"/>
-        <v>6.9388010818296486E-3</v>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T17" s="115">
-        <f t="shared" si="1"/>
-        <v>39</v>
+        <f t="shared" si="5"/>
+        <v>44</v>
       </c>
       <c r="U17" s="117">
-        <f>((N17/$N$41)-1)/T17*30</f>
-        <v>5.3375392937151144E-3</v>
+        <f>((N17/$N$43)-1)/T17*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V17" s="117"/>
       <c r="W17" s="117"/>
       <c r="X17" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y17" s="116">
-        <f>Y15*X12</f>
-        <v>1308.6500000000001</v>
+        <v>71</v>
+      </c>
+      <c r="Y17" s="132">
+        <v>37.39</v>
       </c>
       <c r="Z17" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA17" s="116">
-        <f>AA15*Z12</f>
-        <v>1220</v>
-      </c>
-      <c r="AB17" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC17" s="130" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="AA17" s="132">
+        <v>30.5</v>
+      </c>
+      <c r="AB17">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="116">
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="118">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="B18">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>31.863399999999999</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D18">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>33.963099999999997</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F18" s="113">
         <v>156</v>
       </c>
       <c r="G18">
-        <v>2387.5100000000002</v>
+        <v>2380.13</v>
       </c>
       <c r="L18">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M18">
-        <v>0.89791399999999999</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N18" s="114">
-        <f>(F18*G18)+(B18*C18)+(D18*E18)+(L18*M18)+(H18*I18)</f>
-        <v>530994.96256900008</v>
+        <f t="shared" si="0"/>
+        <v>528687.28128</v>
       </c>
       <c r="O18">
-        <v>169.14</v>
+        <v>166.96</v>
       </c>
       <c r="P18">
-        <v>269604.92</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q18" s="116">
-        <v>9679.7999999999993</v>
+        <v>9645.02</v>
       </c>
       <c r="R18" s="128">
+        <f t="shared" si="1"/>
+        <v>-5.0222809283961833E-3</v>
+      </c>
+      <c r="S18" s="117">
         <f t="shared" si="4"/>
-        <v>-1.3880452075456073E-2</v>
-      </c>
-      <c r="S18" s="117">
-        <f t="shared" si="0"/>
-        <v>1.0370511380362046E-3</v>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T18" s="115">
-        <f t="shared" si="1"/>
-        <v>35</v>
+        <f t="shared" si="5"/>
+        <v>42</v>
       </c>
       <c r="U18" s="117">
-        <f>((N18/$N$41)-1)/T18*30</f>
-        <v>8.8890097545960402E-4</v>
+        <f>((N18/$N$43)-1)/T18*30</f>
+        <v>-2.3667234777672141E-3</v>
       </c>
       <c r="V18" s="117"/>
       <c r="W18" s="117"/>
-      <c r="X18" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y18" s="133">
-        <f>(X12*Y5)-(X12*Y15)</f>
-        <v>0.34999999999990905</v>
-      </c>
-      <c r="Z18" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA18" s="133">
-        <f>(Z12*AA5)-(Z12*AA15)</f>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="131" t="s">
-        <v>70</v>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="117" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="117" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB18" s="113">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="129">
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="118">
-        <v>45391</v>
+        <v>45401</v>
       </c>
       <c r="B19">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>31.412299999999998</v>
+        <v>31.803999999999998</v>
       </c>
       <c r="D19">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>34.091799999999999</v>
+        <v>33.928400000000003</v>
       </c>
       <c r="F19" s="113">
         <v>156</v>
       </c>
       <c r="G19">
-        <v>2352.21</v>
+        <v>2427.62</v>
       </c>
       <c r="L19">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M19">
-        <v>0.89529800000000004</v>
+        <v>0.87351800000000002</v>
       </c>
       <c r="N19" s="114">
-        <f>(F19*G19)+(B19*C19)+(D19*E19)+(L19*M19)+(H19*I19)</f>
-        <v>524701.88168200001</v>
+        <f t="shared" si="0"/>
+        <v>534125.51551599998</v>
       </c>
       <c r="O19">
-        <v>165.81</v>
+        <v>170.57</v>
       </c>
       <c r="P19">
-        <v>263308.84999999998</v>
+        <v>272736.27</v>
       </c>
       <c r="Q19" s="116">
-        <v>9814.16</v>
+        <v>9693.4599999999991</v>
       </c>
       <c r="R19" s="128">
+        <f t="shared" si="1"/>
+        <v>1.4091975414350921E-3</v>
+      </c>
+      <c r="S19" s="117">
         <f t="shared" si="4"/>
-        <v>5.8558246452063978E-3</v>
-      </c>
-      <c r="S19" s="117">
-        <f t="shared" si="0"/>
-        <v>-1.0826728328378388E-2</v>
+        <v>6.9388010818296486E-3</v>
       </c>
       <c r="T19" s="115">
-        <f t="shared" si="1"/>
-        <v>29</v>
+        <f t="shared" si="5"/>
+        <v>39</v>
       </c>
       <c r="U19" s="117">
-        <f>((N19/$N$41)-1)/T19*30</f>
-        <v>-1.1200063787977641E-2</v>
+        <f>((N19/$N$43)-1)/T19*30</f>
+        <v>5.3375392937151144E-3</v>
       </c>
       <c r="V19" s="117"/>
       <c r="W19" s="117"/>
-      <c r="X19" s="117"/>
-      <c r="Y19" s="117"/>
-      <c r="Z19" s="117"/>
-      <c r="AA19" s="117"/>
+      <c r="X19" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y19" s="116">
+        <f>Y17*X14</f>
+        <v>1308.6500000000001</v>
+      </c>
+      <c r="Z19" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA19" s="116">
+        <f>AA17*Z14</f>
+        <v>1220</v>
+      </c>
       <c r="AB19" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC19" s="132">
-        <v>135</v>
+        <v>68</v>
+      </c>
+      <c r="AC19" s="130" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="118">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="B20">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.5198</v>
+        <v>31.863399999999999</v>
       </c>
       <c r="D20">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>34.154899999999998</v>
+        <v>33.963099999999997</v>
       </c>
       <c r="F20" s="113">
         <v>156</v>
       </c>
       <c r="G20">
-        <v>2344.37</v>
+        <v>2387.5100000000002</v>
       </c>
       <c r="L20">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M20">
-        <v>0.818581</v>
+        <v>0.89791399999999999</v>
       </c>
       <c r="N20" s="114">
-        <f>(F20*G20)+(B20*C20)+(D20*E20)+(L20*M20)+(H20*I20)</f>
-        <v>514028.85925099999</v>
+        <f t="shared" ref="N14:N55" si="6">(F20*G20)+(B20*C20)+(D20*E20)+(L20*M20)+(H20*I20)</f>
+        <v>530994.96256900008</v>
       </c>
       <c r="O20">
-        <v>159.19</v>
+        <v>169.14</v>
       </c>
       <c r="P20">
-        <v>252634.37</v>
+        <v>269604.92</v>
       </c>
       <c r="Q20" s="116">
-        <v>9756.69</v>
+        <v>9679.7999999999993</v>
       </c>
       <c r="R20" s="128">
+        <f t="shared" si="1"/>
+        <v>-1.3880452075456073E-2</v>
+      </c>
+      <c r="S20" s="117">
         <f t="shared" si="4"/>
-        <v>1.4129791968382821E-2</v>
-      </c>
-      <c r="S20" s="117">
-        <f t="shared" si="0"/>
-        <v>-3.0947617704367603E-2</v>
+        <v>1.0370511380362046E-3</v>
       </c>
       <c r="T20" s="115">
-        <f t="shared" si="1"/>
-        <v>28</v>
+        <f t="shared" si="5"/>
+        <v>35</v>
       </c>
       <c r="U20" s="117">
-        <f>((N20/$N$41)-1)/T20*30</f>
-        <v>-3.3158161826108146E-2</v>
+        <f>((N20/$N$43)-1)/T20*30</f>
+        <v>8.8890097545960402E-4</v>
       </c>
       <c r="V20" s="117"/>
       <c r="W20" s="117"/>
-      <c r="X20" s="117"/>
-      <c r="Y20" s="117"/>
-      <c r="Z20" s="117"/>
-      <c r="AA20" s="117"/>
-      <c r="AC20" s="117">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
+      <c r="X20" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y20" s="133">
+        <f>(X14*Y5)-(X14*Y17)</f>
+        <v>-53.550000000000182</v>
+      </c>
+      <c r="Z20" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA20" s="133">
+        <f>(Z14*AA5)-(Z14*AA17)</f>
+        <v>-12</v>
+      </c>
+      <c r="AC20" s="131" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="118">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B21">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.407</v>
+        <v>31.412299999999998</v>
       </c>
       <c r="D21">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.038899999999998</v>
+        <v>34.091799999999999</v>
       </c>
       <c r="F21" s="113">
         <v>156</v>
       </c>
       <c r="G21">
-        <v>2289.27</v>
+        <v>2352.21</v>
       </c>
       <c r="L21">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M21">
-        <v>0.82424600000000003</v>
+        <v>0.89529800000000004</v>
       </c>
       <c r="N21" s="114">
-        <f>(F21*G21)+(B21*C21)+(D21*E21)+(L21*M21)+(H21*I21)</f>
-        <v>505978.825411</v>
+        <f t="shared" si="6"/>
+        <v>524701.88168200001</v>
       </c>
       <c r="O21">
-        <v>154.41</v>
+        <v>165.81</v>
       </c>
       <c r="P21">
-        <v>244587.02</v>
+        <v>263308.84999999998</v>
       </c>
       <c r="Q21" s="116">
-        <v>9618.83</v>
+        <v>9814.16</v>
       </c>
       <c r="R21" s="128">
+        <f t="shared" si="1"/>
+        <v>5.8558246452063978E-3</v>
+      </c>
+      <c r="S21" s="117">
         <f t="shared" si="4"/>
-        <v>5.0921993631241946E-2</v>
-      </c>
-      <c r="S21" s="117">
-        <f t="shared" si="0"/>
-        <v>-4.6123622572225242E-2</v>
+        <v>-1.0826728328378388E-2</v>
       </c>
       <c r="T21" s="115">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" si="5"/>
+        <v>29</v>
       </c>
       <c r="U21" s="117">
-        <f>((N21/$N$41)-1)/T21*30</f>
-        <v>-5.5348347086670288E-2</v>
+        <f>((N21/$N$43)-1)/T21*30</f>
+        <v>-1.1200063787977641E-2</v>
       </c>
       <c r="V21" s="117"/>
       <c r="W21" s="117"/>
@@ -6723,72 +6757,71 @@
       <c r="Z21" s="117"/>
       <c r="AA21" s="117"/>
       <c r="AB21" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC21" s="116">
-        <f>AC19*AB16</f>
-        <v>1350</v>
+        <v>71</v>
+      </c>
+      <c r="AC21" s="132">
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="118">
-        <v>45386</v>
+        <v>45390</v>
       </c>
       <c r="B22">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.399799999999999</v>
+        <v>31.5198</v>
       </c>
       <c r="D22">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>34.053100000000001</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F22" s="113">
         <v>156</v>
       </c>
       <c r="G22">
-        <v>2292.5700000000002</v>
+        <v>2344.37</v>
       </c>
       <c r="L22">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M22">
-        <v>0.82913899999999996</v>
+        <v>0.818581</v>
       </c>
       <c r="N22" s="114">
-        <f>(F22*G22)+(B22*C22)+(D22*E22)+(L22*M22)+(H22*I22)</f>
-        <v>507101.83066900005</v>
+        <f t="shared" si="6"/>
+        <v>514028.85925099999</v>
       </c>
       <c r="O22">
-        <v>155.22</v>
+        <v>159.19</v>
       </c>
       <c r="P22">
-        <v>245709.7</v>
+        <v>252634.37</v>
       </c>
       <c r="Q22" s="116">
-        <v>9129.02</v>
+        <v>9756.69</v>
       </c>
       <c r="R22" s="128">
+        <f t="shared" si="1"/>
+        <v>1.4129791968382821E-2</v>
+      </c>
+      <c r="S22" s="117">
         <f t="shared" si="4"/>
-        <v>2.0070062284889389E-2</v>
-      </c>
-      <c r="S22" s="117">
-        <f t="shared" si="0"/>
-        <v>-4.4006521749946126E-2</v>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T22" s="115">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
       <c r="U22" s="117">
-        <f>((N22/$N$41)-1)/T22*30</f>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N22/$N$43)-1)/T22*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V22" s="117"/>
       <c r="W22" s="117"/>
@@ -6796,73 +6829,70 @@
       <c r="Y22" s="117"/>
       <c r="Z22" s="117"/>
       <c r="AA22" s="117"/>
-      <c r="AB22" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC22" s="133">
-        <f>(AB10*AC5)-(AB10*AC19)</f>
-        <v>-76</v>
+      <c r="AC22" s="117">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="118">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B23">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D23">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F23" s="113">
         <v>156</v>
       </c>
       <c r="G23">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L23">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N23" s="114">
-        <f>(F23*G23)+(B23*C23)+(D23*E23)+(L23*M23)+(H23*I23)</f>
-        <v>507101.83066900005</v>
+        <f t="shared" si="6"/>
+        <v>505978.825411</v>
       </c>
       <c r="O23">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="P23">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="Q23" s="116">
-        <v>8945.7999999999993</v>
+        <v>9618.83</v>
       </c>
       <c r="R23" s="128">
+        <f t="shared" ref="R23:R54" si="7">(1-(Q24/Q23))</f>
+        <v>5.0921993631241946E-2</v>
+      </c>
+      <c r="S23" s="117">
         <f t="shared" si="4"/>
-        <v>-1.0627333497283731E-2</v>
-      </c>
-      <c r="S23" s="117">
-        <f t="shared" si="0"/>
-        <v>-4.4006521749946126E-2</v>
+        <v>-4.6123622572225242E-2</v>
       </c>
       <c r="T23" s="115">
-        <f t="shared" si="1"/>
-        <v>23</v>
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="U23" s="117">
-        <f>((N23/$N$41)-1)/T23*30</f>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N23/$N$43)-1)/T23*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V23" s="117"/>
       <c r="W23" s="117"/>
@@ -6870,68 +6900,73 @@
       <c r="Y23" s="117"/>
       <c r="Z23" s="117"/>
       <c r="AA23" s="117"/>
-      <c r="AB23" s="134"/>
-      <c r="AC23" s="135"/>
+      <c r="AB23" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC23" s="116">
+        <f>AC21*AB18</f>
+        <v>1350</v>
+      </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="118">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B24">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D24">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F24" s="113">
         <v>156</v>
       </c>
       <c r="G24">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L24">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M24">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N24" s="114">
-        <f>(F24*G24)+(B24*C24)+(D24*E24)+(L24*M24)+(H24*I24)</f>
-        <v>509777.60801200004</v>
+        <f t="shared" si="6"/>
+        <v>507101.83066900005</v>
       </c>
       <c r="O24">
-        <v>157.11000000000001</v>
+        <v>155.22</v>
       </c>
       <c r="P24">
-        <v>248387.66</v>
+        <v>245709.7</v>
       </c>
       <c r="Q24" s="116">
-        <v>9040.8700000000008</v>
+        <v>9129.02</v>
       </c>
       <c r="R24" s="128">
+        <f t="shared" si="7"/>
+        <v>2.0070062284889389E-2</v>
+      </c>
+      <c r="S24" s="117">
         <f t="shared" si="4"/>
-        <v>-1.2904731513670775E-2</v>
-      </c>
-      <c r="S24" s="117">
-        <f t="shared" si="0"/>
-        <v>-3.8962119354903346E-2</v>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T24" s="115">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f t="shared" si="5"/>
+        <v>24</v>
       </c>
       <c r="U24" s="117">
-        <f>((N24/$N$41)-1)/T24*30</f>
-        <v>-5.3130162756686382E-2</v>
+        <f>((N24/$N$43)-1)/T24*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V24" s="117"/>
       <c r="W24" s="117"/>
@@ -6939,68 +6974,73 @@
       <c r="Y24" s="117"/>
       <c r="Z24" s="117"/>
       <c r="AA24" s="117"/>
-      <c r="AB24" s="134"/>
-      <c r="AC24" s="135"/>
+      <c r="AB24" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC24" s="133">
+        <f>(AB10*AC5)-(AB10*AC21)</f>
+        <v>-149</v>
+      </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="118">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B25">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>31.879300000000001</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D25">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>34.391399999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F25" s="113">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G25">
-        <v>2308.4299999999998</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L25">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M25">
-        <v>0.88097599999999998</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N25" s="114">
-        <f>(F25*G25)+(B25*C25)+(D25*E25)+(L25*M25)+(H25*I25)</f>
-        <v>528238.93988600001</v>
+        <f t="shared" si="6"/>
+        <v>507101.83066900005</v>
       </c>
       <c r="O25">
-        <v>161.66</v>
+        <v>155.22</v>
       </c>
       <c r="P25">
-        <v>255424.81</v>
+        <v>245709.7</v>
       </c>
       <c r="Q25" s="116">
-        <v>9157.5400000000009</v>
+        <v>8945.7999999999993</v>
       </c>
       <c r="R25" s="128">
+        <f t="shared" si="7"/>
+        <v>-1.0627333497283731E-2</v>
+      </c>
+      <c r="S25" s="117">
         <f t="shared" si="4"/>
-        <v>1.6532824317448958E-3</v>
-      </c>
-      <c r="S25" s="117">
-        <f t="shared" si="0"/>
-        <v>-4.1586305801334378E-3</v>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T25" s="115">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>23</v>
       </c>
       <c r="U25" s="117">
-        <f>((N25/$N$41)-1)/T25*30</f>
-        <v>-5.9409008287620545E-3</v>
+        <f>((N25/$N$43)-1)/T25*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V25" s="117"/>
       <c r="W25" s="117"/>
@@ -7013,63 +7053,63 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="118">
-        <v>45381</v>
+        <v>45384</v>
       </c>
       <c r="B26">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D26">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F26" s="113">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G26">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L26">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M26">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N26" s="114">
-        <f>(F26*G26)+(B26*C26)+(D26*E26)+(L26*M26)+(H26*I26)</f>
-        <v>528238.93988600001</v>
+        <f t="shared" si="6"/>
+        <v>509777.60801200004</v>
       </c>
       <c r="O26">
-        <v>161.66</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="P26">
-        <v>255424.81</v>
+        <v>248387.66</v>
       </c>
       <c r="Q26" s="116">
-        <v>9142.4</v>
+        <v>9040.8700000000008</v>
       </c>
       <c r="R26" s="128">
+        <f t="shared" si="7"/>
+        <v>-1.2904731513670775E-2</v>
+      </c>
+      <c r="S26" s="117">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="117">
-        <f t="shared" si="0"/>
-        <v>-4.1586305801334378E-3</v>
+        <v>-3.8962119354903346E-2</v>
       </c>
       <c r="T26" s="115">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>22</v>
       </c>
       <c r="U26" s="117">
-        <f>((N26/$N$41)-1)/T26*30</f>
-        <v>-6.5662588107370072E-3</v>
+        <f>((N26/$N$43)-1)/T26*30</f>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V26" s="117"/>
       <c r="W26" s="117"/>
@@ -7082,63 +7122,63 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="118">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B27">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D27">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F27" s="113">
         <v>161</v>
       </c>
       <c r="G27">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L27">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M27">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N27" s="114">
-        <f>(F27*G27)+(B27*C27)+(D27*E27)+(L27*M27)+(H27*I27)</f>
-        <v>518957.34710100002</v>
+        <f t="shared" si="6"/>
+        <v>528238.93988600001</v>
       </c>
       <c r="O27">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="P27">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="Q27" s="116">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="R27" s="128">
+        <f t="shared" si="7"/>
+        <v>1.6532824317448958E-3</v>
+      </c>
+      <c r="S27" s="117">
         <f t="shared" si="4"/>
-        <v>6.8286226811340445E-3</v>
-      </c>
-      <c r="S27" s="117">
-        <f t="shared" si="0"/>
-        <v>-2.165638277425741E-2</v>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T27" s="115">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>21</v>
       </c>
       <c r="U27" s="117">
-        <f>((N27/$N$41)-1)/T27*30</f>
-        <v>-3.6093971290429017E-2</v>
+        <f>((N27/$N$43)-1)/T27*30</f>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V27" s="117"/>
       <c r="W27" s="117"/>
@@ -7151,63 +7191,63 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="118">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B28">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C28">
-        <v>31.870699999999999</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D28">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E28">
-        <v>34.480800000000002</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F28" s="113">
         <v>161</v>
       </c>
       <c r="G28">
-        <v>2240.09</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L28">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M28">
-        <v>0.86473199999999995</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N28" s="114">
-        <f>(F28*G28)+(B28*C28)+(D28*E28)+(L28*M28)+(H28*I28)</f>
-        <v>515224.93979200005</v>
+        <f t="shared" si="6"/>
+        <v>528238.93988600001</v>
       </c>
       <c r="O28">
-        <v>153.81</v>
+        <v>161.66</v>
       </c>
       <c r="P28">
-        <v>242408.74</v>
+        <v>255424.81</v>
       </c>
       <c r="Q28" s="116">
-        <v>9079.9699999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R28" s="128">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="117">
         <f t="shared" si="4"/>
-        <v>3.0093711763364839E-2</v>
-      </c>
-      <c r="S28" s="117">
-        <f t="shared" si="0"/>
-        <v>-2.8692754622628547E-2</v>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T28" s="115">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>19</v>
       </c>
       <c r="U28" s="117">
-        <f>((N28/$N$41)-1)/T28*30</f>
-        <v>-5.0634272863462143E-2</v>
+        <f>((N28/$N$43)-1)/T28*30</f>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V28" s="117"/>
       <c r="W28" s="117"/>
@@ -7220,63 +7260,63 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="118">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B29">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C29">
-        <v>31.821999999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D29">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E29">
-        <v>34.5045</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F29" s="113">
         <v>161</v>
       </c>
       <c r="G29">
-        <v>2227.25</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L29">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M29">
-        <v>0.85899999999999999</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N29" s="114">
-        <f>(F29*G29)+(B29*C29)+(D29*E29)+(L29*M29)+(H29*I29)</f>
-        <v>512394.77395499998</v>
+        <f t="shared" si="6"/>
+        <v>518957.34710100002</v>
       </c>
       <c r="O29">
-        <v>154.24</v>
+        <v>156.08000000000001</v>
       </c>
       <c r="P29">
-        <v>242616.68</v>
+        <v>246143.72</v>
       </c>
       <c r="Q29" s="116">
-        <v>8806.7199999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R29" s="128">
+        <f t="shared" si="7"/>
+        <v>6.8286226811340445E-3</v>
+      </c>
+      <c r="S29" s="117">
         <f t="shared" si="4"/>
-        <v>-7.4942770974972817E-5</v>
-      </c>
-      <c r="S29" s="117">
-        <f t="shared" si="0"/>
-        <v>-3.4028211761422011E-2</v>
+        <v>-2.165638277425741E-2</v>
       </c>
       <c r="T29" s="115">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>18</v>
       </c>
       <c r="U29" s="117">
-        <f>((N29/$N$41)-1)/T29*30</f>
-        <v>-6.3802897052666271E-2</v>
+        <f>((N29/$N$43)-1)/T29*30</f>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V29" s="117"/>
       <c r="W29" s="117"/>
@@ -7289,63 +7329,63 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="118">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B30">
-        <f>B49</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>31.530999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D30">
-        <f>D49</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>34.125900000000001</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F30" s="113">
         <v>161</v>
       </c>
       <c r="G30">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L30">
-        <f>L49</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M30">
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N30" s="114">
-        <f>(F30*G30)+(B30*C30)+(D30*E30)+(L30*M30)+(H30*I30)</f>
-        <v>515864.35854099999</v>
+        <f t="shared" si="6"/>
+        <v>515224.93979200005</v>
       </c>
       <c r="O30">
-        <v>154.24</v>
+        <v>153.81</v>
       </c>
       <c r="P30">
-        <v>242616.68</v>
+        <v>242408.74</v>
       </c>
       <c r="Q30" s="116">
-        <v>8807.3799999999992</v>
+        <v>9079.9699999999993</v>
       </c>
       <c r="R30" s="128">
+        <f t="shared" si="7"/>
+        <v>3.0093711763364839E-2</v>
+      </c>
+      <c r="S30" s="117">
         <f t="shared" si="4"/>
-        <v>-2.5206133946758191E-2</v>
-      </c>
-      <c r="S30" s="117">
-        <f t="shared" si="0"/>
-        <v>-2.7487315957364089E-2</v>
+        <v>-2.8692754622628547E-2</v>
       </c>
       <c r="T30" s="115">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>17</v>
       </c>
       <c r="U30" s="117">
-        <f>((N30/$N$41)-1)/T30*30</f>
-        <v>-5.4974631914728178E-2</v>
+        <f>((N30/$N$43)-1)/T30*30</f>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V30" s="117"/>
       <c r="W30" s="117"/>
@@ -7358,63 +7398,63 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="118">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B31">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>31.786200000000001</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D31">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>34.386299999999999</v>
+        <v>34.5045</v>
       </c>
       <c r="F31" s="113">
         <v>161</v>
       </c>
       <c r="G31">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L31">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.91889100000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N31" s="114">
-        <f>(F31*G31)+(B31*C31)+(D31*E31)+(L31*M31)+(H31*I31)</f>
-        <v>517720.01173699996</v>
+        <f t="shared" si="6"/>
+        <v>512394.77395499998</v>
       </c>
       <c r="O31">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="P31">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="Q31" s="116">
-        <v>9029.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="R31" s="128">
+        <f t="shared" si="7"/>
+        <v>-7.4942770974972817E-5</v>
+      </c>
+      <c r="S31" s="117">
         <f t="shared" si="4"/>
-        <v>-9.0947551216142841E-3</v>
-      </c>
-      <c r="S31" s="117">
-        <f t="shared" si="0"/>
-        <v>-2.3989019863797534E-2</v>
+        <v>-3.4028211761422011E-2</v>
       </c>
       <c r="T31" s="115">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="U31" s="117">
-        <f>((N31/$N$41)-1)/T31*30</f>
-        <v>-5.1405042565280425E-2</v>
+        <f>((N31/$N$43)-1)/T31*30</f>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V31" s="117"/>
       <c r="W31" s="117"/>
@@ -7427,63 +7467,63 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="118">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B32">
-        <f>B48</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C32">
-        <v>31.710699999999999</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D32">
-        <f>D48</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E32">
-        <v>34.336300000000001</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F32" s="113">
         <v>161</v>
       </c>
       <c r="G32">
-        <v>2212.11</v>
+        <v>2227.25</v>
       </c>
       <c r="L32">
-        <f>L48</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M32">
-        <v>0.93062100000000003</v>
+        <v>0.890316</v>
       </c>
       <c r="N32" s="114">
-        <f>(F32*G32)+(B32*C32)+(D32*E32)+(L32*M32)+(H32*I32)</f>
-        <v>518732.15723700001</v>
+        <f t="shared" si="6"/>
+        <v>515864.35854099999</v>
       </c>
       <c r="O32">
-        <v>156.63999999999999</v>
+        <v>154.24</v>
       </c>
       <c r="P32">
-        <v>245919.31</v>
-      </c>
-      <c r="Q32">
-        <v>9111.5</v>
+        <v>242616.68</v>
+      </c>
+      <c r="Q32" s="116">
+        <v>8807.3799999999992</v>
       </c>
       <c r="R32" s="128">
+        <f t="shared" si="7"/>
+        <v>-2.5206133946758191E-2</v>
+      </c>
+      <c r="S32" s="117">
         <f t="shared" si="4"/>
-        <v>-3.2047412610438641E-3</v>
-      </c>
-      <c r="S32" s="117">
-        <f t="shared" si="0"/>
-        <v>-2.2080912973779676E-2</v>
+        <v>-2.7487315957364089E-2</v>
       </c>
       <c r="T32" s="115">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="U32" s="117">
-        <f>((N32/$N$41)-1)/T32*30</f>
-        <v>-6.0220671746671839E-2</v>
+        <f>((N32/$N$43)-1)/T32*30</f>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V32" s="117"/>
       <c r="W32" s="117"/>
@@ -7496,63 +7536,63 @@
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="118">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B33">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C33">
-        <v>32.063899999999997</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D33">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E33">
-        <v>35.065100000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F33" s="113">
         <v>161</v>
       </c>
       <c r="G33">
-        <v>2267.61</v>
+        <v>2214.31</v>
       </c>
       <c r="L33">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M33">
-        <v>0.94166499999999997</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N33" s="114">
-        <f>(F33*G33)+(B33*C33)+(D33*E33)+(L33*M33)+(H33*I33)</f>
-        <v>529674.87554899999</v>
+        <f t="shared" si="6"/>
+        <v>517720.01173699996</v>
       </c>
       <c r="O33">
-        <v>163.91</v>
+        <v>155.99</v>
       </c>
       <c r="P33">
-        <v>256845.12</v>
+        <v>244906</v>
       </c>
       <c r="Q33" s="116">
-        <v>9140.7000000000007</v>
+        <v>9029.3799999999992</v>
       </c>
       <c r="R33" s="128">
+        <f t="shared" si="7"/>
+        <v>-9.0947551216142841E-3</v>
+      </c>
+      <c r="S33" s="117">
         <f t="shared" si="4"/>
-        <v>2.0302602645311585E-2</v>
-      </c>
-      <c r="S33" s="117">
-        <f t="shared" si="0"/>
-        <v>-1.4515902067954167E-3</v>
+        <v>-2.3989019863797534E-2</v>
       </c>
       <c r="T33" s="115">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="U33" s="117">
-        <f>((N33/$N$41)-1)/T33*30</f>
-        <v>-4.3547706203862502E-3</v>
+        <f>((N33/$N$43)-1)/T33*30</f>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V33" s="117"/>
       <c r="W33" s="117"/>
@@ -7565,63 +7605,63 @@
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="118">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B34">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C34">
-        <v>32.028799999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D34">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E34">
-        <v>34.808799999999998</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F34" s="113">
         <v>161</v>
       </c>
       <c r="G34">
-        <v>2220.92</v>
+        <v>2212.11</v>
       </c>
       <c r="L34">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M34">
-        <v>0.93470600000000004</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N34" s="114">
-        <f>(F34*G34)+(B34*C34)+(D34*E34)+(L34*M34)+(H34*I34)</f>
-        <v>521166.42351200001</v>
+        <f t="shared" si="6"/>
+        <v>518732.15723700001</v>
       </c>
       <c r="O34">
-        <v>158.47999999999999</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="P34">
-        <v>248342.62</v>
-      </c>
-      <c r="Q34" s="116">
-        <v>8955.1200000000008</v>
+        <v>245919.31</v>
+      </c>
+      <c r="Q34">
+        <v>9111.5</v>
       </c>
       <c r="R34" s="128">
+        <f t="shared" si="7"/>
+        <v>-3.2047412610438641E-3</v>
+      </c>
+      <c r="S34" s="117">
         <f t="shared" si="4"/>
-        <v>2.8184993612594411E-3</v>
-      </c>
-      <c r="S34" s="117">
-        <f t="shared" si="0"/>
-        <v>-1.7491809676412506E-2</v>
+        <v>-2.2080912973779676E-2</v>
       </c>
       <c r="T34" s="115">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
       <c r="U34" s="117">
-        <f>((N34/$N$41)-1)/T34*30</f>
-        <v>-5.8306032254708352E-2</v>
+        <f>((N34/$N$43)-1)/T34*30</f>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V34" s="117"/>
       <c r="W34" s="117"/>
@@ -7634,63 +7674,63 @@
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="118">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B35">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C35">
-        <v>32.087800000000001</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D35">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E35">
-        <v>34.799100000000003</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F35" s="113">
         <v>161</v>
       </c>
       <c r="G35">
-        <v>2219.02</v>
+        <v>2267.61</v>
       </c>
       <c r="L35">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M35">
-        <v>0.90033600000000003</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N35" s="114">
-        <f>(F35*G35)+(B35*C35)+(D35*E35)+(L35*M35)+(H35*I35)</f>
-        <v>516626.64020899998</v>
+        <f t="shared" si="6"/>
+        <v>529674.87554899999</v>
       </c>
       <c r="O35">
-        <v>155.59</v>
+        <v>163.91</v>
       </c>
       <c r="P35">
-        <v>243803.06</v>
+        <v>256845.12</v>
       </c>
       <c r="Q35" s="116">
-        <v>8929.8799999999992</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="R35" s="128">
+        <f t="shared" si="7"/>
+        <v>2.0302602645311585E-2</v>
+      </c>
+      <c r="S35" s="117">
         <f t="shared" si="4"/>
-        <v>2.3714764364134666E-2</v>
-      </c>
-      <c r="S35" s="117">
-        <f t="shared" si="0"/>
-        <v>-2.6050254879836254E-2</v>
+        <v>-1.4515902067954167E-3</v>
       </c>
       <c r="T35" s="115">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="U35" s="117">
-        <f>((N35/$N$41)-1)/T35*30</f>
-        <v>-9.7688455799385954E-2</v>
+        <f>((N35/$N$43)-1)/T35*30</f>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V35" s="117"/>
       <c r="W35" s="117"/>
@@ -7700,72 +7740,66 @@
       <c r="AA35" s="117"/>
       <c r="AB35" s="134"/>
       <c r="AC35" s="135"/>
-      <c r="AL35">
-        <v>68</v>
-      </c>
-      <c r="AM35">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="118">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B36">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C36">
-        <v>31.9499</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D36">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E36">
-        <v>34.8125</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F36" s="113">
         <v>161</v>
       </c>
       <c r="G36">
-        <v>2212.35</v>
+        <v>2220.92</v>
       </c>
       <c r="L36">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M36">
-        <v>0.93887900000000002</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N36" s="114">
-        <f>(F36*G36)+(B36*C36)+(D36*E36)+(L36*M36)+(H36*I36)</f>
-        <v>520221.89087499998</v>
+        <f t="shared" si="6"/>
+        <v>521166.42351200001</v>
       </c>
       <c r="O36">
-        <v>155.44</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="P36">
-        <v>247623.17</v>
+        <v>248342.62</v>
       </c>
       <c r="Q36" s="116">
-        <v>8718.11</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="R36" s="128">
+        <f t="shared" si="7"/>
+        <v>2.8184993612594411E-3</v>
+      </c>
+      <c r="S36" s="117">
         <f t="shared" si="4"/>
-        <v>-1.2685088855267868E-2</v>
-      </c>
-      <c r="S36" s="117">
-        <f t="shared" si="0"/>
-        <v>-1.9272452116166794E-2</v>
+        <v>-1.7491809676412506E-2</v>
       </c>
       <c r="T36" s="115">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="U36" s="117">
-        <f>((N36/$N$41)-1)/T36*30</f>
-        <v>-8.2596223355000553E-2</v>
+        <f>((N36/$N$43)-1)/T36*30</f>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V36" s="117"/>
       <c r="W36" s="117"/>
@@ -7775,72 +7809,66 @@
       <c r="AA36" s="117"/>
       <c r="AB36" s="134"/>
       <c r="AC36" s="135"/>
-      <c r="AL36">
-        <v>68</v>
-      </c>
-      <c r="AM36">
-        <v>22.96</v>
-      </c>
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="118">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B37">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C37">
-        <v>31.796299999999999</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D37">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E37">
-        <v>34.619700000000002</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F37" s="113">
         <v>161</v>
       </c>
       <c r="G37">
-        <v>2213.54</v>
+        <v>2219.02</v>
       </c>
       <c r="L37">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M37">
-        <v>0.94838599999999995</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N37" s="114">
-        <f>(F37*G37)+(B37*C37)+(D37*E37)+(L37*M37)+(H37*I37)</f>
-        <v>521369.280203</v>
+        <f t="shared" si="6"/>
+        <v>516626.64020899998</v>
       </c>
       <c r="O37">
-        <v>156.13</v>
+        <v>155.59</v>
       </c>
       <c r="P37">
-        <v>248712.47</v>
+        <v>243803.06</v>
       </c>
       <c r="Q37" s="116">
-        <v>8828.7000000000007</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="R37" s="128">
+        <f t="shared" si="7"/>
+        <v>2.3714764364134666E-2</v>
+      </c>
+      <c r="S37" s="117">
         <f t="shared" si="4"/>
-        <v>-6.2092946866469934E-3</v>
-      </c>
-      <c r="S37" s="117">
-        <f t="shared" si="0"/>
-        <v>-1.7109382199549383E-2</v>
+        <v>-2.6050254879836254E-2</v>
       </c>
       <c r="T37" s="115">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="5"/>
+        <v>8</v>
       </c>
       <c r="U37" s="117">
-        <f>((N37/$N$41)-1)/T37*30</f>
-        <v>-0.12832036649662037</v>
+        <f>((N37/$N$43)-1)/T37*30</f>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V37" s="117"/>
       <c r="W37" s="117"/>
@@ -7854,68 +7882,68 @@
         <v>68</v>
       </c>
       <c r="AM37">
-        <v>22.04</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="118">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B38">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C38">
-        <v>31.775700000000001</v>
+        <v>31.9499</v>
       </c>
       <c r="D38">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E38">
-        <v>34.762500000000003</v>
+        <v>34.8125</v>
       </c>
       <c r="F38" s="113">
         <v>161</v>
       </c>
       <c r="G38">
-        <v>2222.88</v>
+        <v>2212.35</v>
       </c>
       <c r="L38">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M38">
-        <v>0.95100700000000005</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N38" s="114">
-        <f>(F38*G38)+(B38*C38)+(D38*E38)+(L38*M38)+(H38*I38)</f>
-        <v>523223.75937500002</v>
+        <f t="shared" si="6"/>
+        <v>520221.89087499998</v>
       </c>
       <c r="O38">
-        <v>157.21</v>
+        <v>155.44</v>
       </c>
       <c r="P38">
-        <v>250427.64</v>
+        <v>247623.17</v>
       </c>
       <c r="Q38" s="116">
-        <v>8883.52</v>
+        <v>8718.11</v>
       </c>
       <c r="R38" s="128">
+        <f t="shared" si="7"/>
+        <v>-1.2685088855267868E-2</v>
+      </c>
+      <c r="S38" s="117">
         <f t="shared" si="4"/>
-        <v>-3.0066910413888426E-3</v>
-      </c>
-      <c r="S38" s="117">
-        <f t="shared" si="0"/>
-        <v>-1.3613299387851274E-2</v>
+        <v>-1.9272452116166794E-2</v>
       </c>
       <c r="T38" s="115">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>7</v>
       </c>
       <c r="U38" s="117">
-        <f>((N38/$N$41)-1)/T38*30</f>
-        <v>-0.13613299387851274</v>
+        <f>((N38/$N$43)-1)/T38*30</f>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V38" s="117"/>
       <c r="W38" s="117"/>
@@ -7929,68 +7957,68 @@
         <v>68</v>
       </c>
       <c r="AM38">
-        <v>20.399999999999999</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="118">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B39">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D39">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E39">
-        <v>35</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F39" s="113">
         <v>161</v>
       </c>
       <c r="G39">
-        <v>2220.3200000000002</v>
+        <v>2213.54</v>
       </c>
       <c r="L39">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M39">
-        <v>0.957233</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N39" s="114">
-        <f>(F39*G39)+(B39*C39)+(D39*E39)+(L39*M39)+(H39*I39)</f>
-        <v>523915.29500000004</v>
+        <f t="shared" si="6"/>
+        <v>521369.280203</v>
       </c>
       <c r="O39">
-        <v>160.79</v>
+        <v>156.13</v>
       </c>
       <c r="P39">
-        <v>250989.9</v>
+        <v>248712.47</v>
       </c>
       <c r="Q39" s="116">
-        <v>8910.23</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="R39" s="128">
+        <f t="shared" si="7"/>
+        <v>-6.2092946866469934E-3</v>
+      </c>
+      <c r="S39" s="117">
         <f t="shared" si="4"/>
-        <v>-1.7822211098927898E-2</v>
-      </c>
-      <c r="S39" s="117">
-        <f t="shared" si="0"/>
-        <v>-1.2309609463077242E-2</v>
+        <v>-1.7109382199549383E-2</v>
       </c>
       <c r="T39" s="115">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="U39" s="117">
-        <f>((N39/$N$41)-1)/T39*30</f>
-        <v>-0.18464414194615864</v>
+        <f>((N39/$N$43)-1)/T39*30</f>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V39" s="117"/>
       <c r="W39" s="117"/>
@@ -8004,68 +8032,68 @@
         <v>68</v>
       </c>
       <c r="AM39">
-        <v>18.22</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="118">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B40">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>31.516400000000001</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D40">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>34.463200000000001</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F40" s="113">
         <v>161</v>
       </c>
       <c r="G40">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L40">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.979213</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N40" s="114">
-        <f>(F40*G40)+(B40*C40)+(D40*E40)+(L40*M40)+(H40*I40)</f>
-        <v>525953.15476800012</v>
+        <f t="shared" si="6"/>
+        <v>523223.75937500002</v>
       </c>
       <c r="O40">
-        <v>161.94999999999999</v>
+        <v>157.21</v>
       </c>
       <c r="P40">
-        <v>252645.61</v>
+        <v>250427.64</v>
       </c>
       <c r="Q40" s="116">
-        <v>9069.0300000000007</v>
+        <v>8883.52</v>
       </c>
       <c r="R40" s="128">
+        <f t="shared" si="7"/>
+        <v>-3.0066910413888426E-3</v>
+      </c>
+      <c r="S40" s="117">
         <f t="shared" si="4"/>
-        <v>-6.8684302510850781E-3</v>
-      </c>
-      <c r="S40" s="117">
-        <f t="shared" si="0"/>
-        <v>-8.4678157049555836E-3</v>
+        <v>-1.3613299387851274E-2</v>
       </c>
       <c r="T40" s="115">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="U40" s="117">
-        <f>((N40/$N$41)-1)/T40*30</f>
-        <v>-0.25403447114866751</v>
+        <f>((N40/$N$43)-1)/T40*30</f>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V40" s="117"/>
       <c r="W40" s="117"/>
@@ -8079,66 +8107,69 @@
         <v>68</v>
       </c>
       <c r="AM40">
-        <v>16.57</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="A41" s="118">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B41">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>31.571400000000001</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>34.558100000000003</v>
+        <v>35</v>
       </c>
       <c r="F41" s="113">
         <v>161</v>
       </c>
       <c r="G41">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L41">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N41" s="201">
-        <f>(F41*G41)+(B41*C41)+(D41*E41)+(L41*M41)+(H41*I41)</f>
-        <v>530444.86411900003</v>
+        <v>0.957233</v>
+      </c>
+      <c r="N41" s="114">
+        <f t="shared" si="6"/>
+        <v>523915.29500000004</v>
       </c>
       <c r="O41">
-        <v>164.91</v>
+        <v>160.79</v>
       </c>
       <c r="P41">
-        <v>257088.48</v>
+        <v>250989.9</v>
       </c>
       <c r="Q41" s="116">
-        <v>9131.32</v>
+        <v>8910.23</v>
       </c>
       <c r="R41" s="128">
+        <f t="shared" si="7"/>
+        <v>-1.7822211098927898E-2</v>
+      </c>
+      <c r="S41" s="117">
         <f t="shared" si="4"/>
-        <v>-2.6283166070184549E-3</v>
-      </c>
-      <c r="S41" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.2309609463077242E-2</v>
       </c>
       <c r="T41" s="115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U41" s="117"/>
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="U41" s="117">
+        <f>((N41/$N$43)-1)/T41*30</f>
+        <v>-0.18464414194615864</v>
+      </c>
       <c r="V41" s="117"/>
       <c r="W41" s="117"/>
       <c r="X41" s="117"/>
@@ -8147,73 +8178,73 @@
       <c r="AA41" s="117"/>
       <c r="AB41" s="134"/>
       <c r="AC41" s="135"/>
-      <c r="AH41">
-        <v>12</v>
-      </c>
-      <c r="AI41">
-        <v>41.58</v>
-      </c>
-      <c r="AJ41">
-        <f>AJ48</f>
-        <v>15</v>
-      </c>
-      <c r="AK41">
-        <v>55.55</v>
-      </c>
       <c r="AL41">
         <v>68</v>
       </c>
       <c r="AM41">
-        <v>15.07</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="118">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B42">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C42">
-        <v>31.402999999999999</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D42">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E42">
-        <v>34.3643</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F42" s="113">
         <v>161</v>
       </c>
       <c r="G42">
-        <v>2198.16</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L42">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M42">
-        <v>0.99115900000000001</v>
+        <v>0.979213</v>
       </c>
       <c r="N42" s="114">
-        <f>(F42*G42)+(B42*C42)+(D42*E42)+(L42*M42)+(H42*I42)</f>
-        <v>523720.92595699994</v>
+        <f t="shared" si="6"/>
+        <v>525953.15476800012</v>
       </c>
       <c r="O42">
-        <v>160.9</v>
+        <v>161.94999999999999</v>
+      </c>
+      <c r="P42">
+        <v>252645.61</v>
       </c>
       <c r="Q42" s="116">
-        <v>9155.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="R42" s="128">
+        <f t="shared" si="7"/>
+        <v>-6.8684302510850781E-3</v>
+      </c>
+      <c r="S42" s="117">
         <f t="shared" si="4"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S42" s="117"/>
-      <c r="U42" s="117"/>
+        <v>-8.4678157049555836E-3</v>
+      </c>
+      <c r="T42" s="115">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U42" s="117">
+        <f>((N42/$N$43)-1)/T42*30</f>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V42" s="117"/>
       <c r="W42" s="117"/>
       <c r="X42" s="117"/>
@@ -8222,72 +8253,69 @@
       <c r="AA42" s="117"/>
       <c r="AB42" s="134"/>
       <c r="AC42" s="135"/>
-      <c r="AH42">
-        <v>12</v>
-      </c>
-      <c r="AI42">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="AJ42">
-        <f>AJ48</f>
-        <v>15</v>
-      </c>
-      <c r="AK42">
-        <v>57.75</v>
-      </c>
       <c r="AL42">
         <v>68</v>
       </c>
       <c r="AM42">
-        <v>13.7</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="118">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B43">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>31.297000000000001</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D43">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>34.110599999999998</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F43" s="113">
         <v>161</v>
       </c>
       <c r="G43">
-        <v>2184.79</v>
+        <v>2232.66</v>
       </c>
       <c r="L43">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.945214</v>
-      </c>
-      <c r="N43" s="114">
-        <f>(F43*G43)+(B43*C43)+(D43*E43)+(L43*M43)+(H43*I43)</f>
-        <v>515625.882094</v>
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N43" s="201">
+        <f t="shared" si="6"/>
+        <v>530444.86411900003</v>
       </c>
       <c r="O43">
-        <v>155.75</v>
+        <v>164.91</v>
+      </c>
+      <c r="P43">
+        <v>257088.48</v>
       </c>
       <c r="Q43" s="116">
-        <v>9054.18</v>
+        <v>9131.32</v>
       </c>
       <c r="R43" s="128">
+        <f t="shared" si="7"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S43" s="117">
         <f t="shared" si="4"/>
-        <v>3.4194151209717583E-2</v>
-      </c>
-      <c r="S43" s="117"/>
+        <v>0</v>
+      </c>
+      <c r="T43" s="115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="U43" s="117"/>
       <c r="V43" s="117"/>
       <c r="W43" s="117"/>
@@ -8301,66 +8329,66 @@
         <v>12</v>
       </c>
       <c r="AI43">
-        <v>34.380000000000003</v>
+        <v>41.58</v>
       </c>
       <c r="AJ43">
-        <f>AJ48</f>
+        <f>AJ50</f>
         <v>15</v>
       </c>
       <c r="AK43">
-        <v>63.1</v>
+        <v>55.55</v>
       </c>
       <c r="AL43">
         <v>68</v>
       </c>
       <c r="AM43">
-        <v>12.46</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="118">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B44">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C44">
-        <v>31.293399999999998</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D44">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E44">
-        <v>34.006500000000003</v>
+        <v>34.3643</v>
       </c>
       <c r="F44" s="113">
         <v>161</v>
       </c>
       <c r="G44">
-        <v>2150.9</v>
+        <v>2198.16</v>
       </c>
       <c r="L44">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M44">
-        <v>0.99397100000000005</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N44" s="114">
-        <f>(F44*G44)+(B44*C44)+(D44*E44)+(L44*M44)+(H44*I44)</f>
-        <v>516226.70193500002</v>
+        <f t="shared" si="6"/>
+        <v>523720.92595699994</v>
       </c>
       <c r="O44">
-        <v>156.16</v>
+        <v>160.9</v>
       </c>
       <c r="Q44" s="116">
-        <v>8744.58</v>
+        <v>9155.32</v>
       </c>
       <c r="R44" s="128">
-        <f t="shared" si="4"/>
-        <v>-1.3258498407013208E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S44" s="117"/>
       <c r="U44" s="117"/>
@@ -8372,77 +8400,70 @@
       <c r="AA44" s="117"/>
       <c r="AB44" s="134"/>
       <c r="AC44" s="135"/>
-      <c r="AF44">
-        <f>AF48</f>
-        <v>57</v>
-      </c>
-      <c r="AG44">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH44">
         <v>12</v>
       </c>
       <c r="AI44">
-        <v>31.26</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ44">
-        <f>AJ48</f>
+        <f>AJ50</f>
         <v>15</v>
       </c>
       <c r="AK44">
-        <v>57.4</v>
+        <v>57.75</v>
       </c>
       <c r="AL44">
         <v>68</v>
       </c>
       <c r="AM44">
-        <v>11.33</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="45" spans="1:39">
       <c r="A45" s="118">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B45">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>31.079899999999999</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D45">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>33.721699999999998</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F45" s="113">
         <v>161</v>
       </c>
       <c r="G45">
-        <v>2116.34</v>
+        <v>2184.79</v>
       </c>
       <c r="L45">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>1.0160309999999999</v>
+        <v>0.945214</v>
       </c>
       <c r="N45" s="114">
-        <f>(F45*G45)+(B45*C45)+(D45*E45)+(L45*M45)+(H45*I45)</f>
-        <v>513091.35418300005</v>
+        <f t="shared" si="6"/>
+        <v>515625.882094</v>
       </c>
       <c r="O45">
-        <v>154.22999999999999</v>
+        <v>155.75</v>
       </c>
       <c r="Q45" s="116">
-        <v>8860.52</v>
+        <v>9054.18</v>
       </c>
       <c r="R45" s="128">
-        <f t="shared" si="4"/>
-        <v>-5.319100910555985E-3</v>
+        <f t="shared" si="7"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S45" s="117"/>
       <c r="U45" s="117"/>
@@ -8454,82 +8475,70 @@
       <c r="AA45" s="117"/>
       <c r="AB45" s="134"/>
       <c r="AC45" s="135"/>
-      <c r="AD45">
-        <f>AD48</f>
-        <v>36</v>
-      </c>
-      <c r="AE45" s="136">
-        <v>38.15</v>
-      </c>
-      <c r="AF45">
-        <f>AF48</f>
-        <v>57</v>
-      </c>
-      <c r="AG45">
-        <v>579.361718</v>
-      </c>
       <c r="AH45">
-        <f>AH48</f>
         <v>12</v>
       </c>
       <c r="AI45">
-        <v>28.42</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ45">
-        <f>AJ48</f>
+        <f>AJ50</f>
         <v>15</v>
       </c>
       <c r="AK45">
-        <v>52.2</v>
+        <v>63.1</v>
       </c>
       <c r="AL45">
         <v>68</v>
       </c>
       <c r="AM45">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="118">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B46">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>30.905999999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D46">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>33.542299999999997</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F46" s="113">
         <v>161</v>
       </c>
       <c r="G46">
-        <v>2072.52</v>
+        <v>2150.9</v>
       </c>
       <c r="L46">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N46" s="114">
-        <f>(F46*G46)+(B46*C46)+(D46*E46)+(L46*M46)+(H46*I46)</f>
-        <v>509025.91517699993</v>
+        <f t="shared" si="6"/>
+        <v>516226.70193500002</v>
+      </c>
+      <c r="O46">
+        <v>156.16</v>
       </c>
       <c r="Q46" s="116">
-        <v>8907.65</v>
+        <v>8744.58</v>
       </c>
       <c r="R46" s="128">
-        <f t="shared" si="4"/>
-        <v>-2.1273848882702007E-2</v>
+        <f t="shared" si="7"/>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S46" s="117"/>
       <c r="U46" s="117"/>
@@ -8541,33 +8550,25 @@
       <c r="AA46" s="117"/>
       <c r="AB46" s="134"/>
       <c r="AC46" s="135"/>
-      <c r="AD46">
-        <f>AD48</f>
-        <v>36</v>
-      </c>
-      <c r="AE46">
-        <v>34.659999999999997</v>
-      </c>
       <c r="AF46">
-        <f>AF48</f>
+        <f>AF50</f>
         <v>57</v>
       </c>
       <c r="AG46">
-        <v>578.66060300000004</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH46">
-        <f>AH48</f>
         <v>12</v>
       </c>
       <c r="AI46">
-        <v>25.84</v>
+        <v>31.26</v>
       </c>
       <c r="AJ46">
-        <f>AJ48</f>
+        <f>AJ50</f>
         <v>15</v>
       </c>
       <c r="AK46">
-        <v>47.46</v>
+        <v>57.4</v>
       </c>
       <c r="AL46">
         <v>68</v>
@@ -8578,45 +8579,48 @@
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="118">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B47">
-        <f>B48</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C47">
-        <v>30.7361</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D47">
-        <f>D48</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E47">
-        <v>33.225700000000003</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F47" s="113">
         <v>161</v>
       </c>
       <c r="G47">
-        <v>2018.91</v>
+        <v>2116.34</v>
       </c>
       <c r="L47">
-        <f>L48</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M47">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N47" s="114">
-        <f>(F47*G47)+(B47*C47)+(D47*E47)+(L47*M47)+(H47*I47)</f>
-        <v>499114.42414299998</v>
+        <f t="shared" si="6"/>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O47">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q47" s="116">
-        <v>9097.15</v>
+        <v>8860.52</v>
       </c>
       <c r="R47" s="128">
-        <f t="shared" si="4"/>
-        <v>-1.0612114783201454E-2</v>
+        <f t="shared" si="7"/>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S47" s="117"/>
       <c r="U47" s="117"/>
@@ -8629,32 +8633,32 @@
       <c r="AB47" s="134"/>
       <c r="AC47" s="135"/>
       <c r="AD47">
-        <f>AD48</f>
+        <f>AD50</f>
         <v>36</v>
       </c>
-      <c r="AE47">
-        <v>31.52</v>
+      <c r="AE47" s="136">
+        <v>38.15</v>
       </c>
       <c r="AF47">
-        <f>AF48</f>
+        <f>AF50</f>
         <v>57</v>
       </c>
       <c r="AG47">
-        <v>576.58807100000001</v>
+        <v>579.361718</v>
       </c>
       <c r="AH47">
-        <f>AH48</f>
+        <f>AH50</f>
         <v>12</v>
       </c>
       <c r="AI47">
-        <v>23.5</v>
+        <v>28.42</v>
       </c>
       <c r="AJ47">
-        <f>AJ48</f>
+        <f>AJ50</f>
         <v>15</v>
       </c>
       <c r="AK47">
-        <v>43.16</v>
+        <v>52.2</v>
       </c>
       <c r="AL47">
         <v>68</v>
@@ -8665,90 +8669,104 @@
     </row>
     <row r="48" spans="1:39">
       <c r="A48" s="118">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B48">
-        <f>B49</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D48">
-        <f>D49</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F48" s="113">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L48">
-        <f>L49</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="N48" s="114">
-        <f>(F48*G48)+(B48*C48)+(D48*E48)+(L48*M48)+(H48*I48)</f>
-        <v>496152.04914299998</v>
+        <f t="shared" si="6"/>
+        <v>509025.91517699993</v>
       </c>
       <c r="Q48" s="116">
-        <v>9193.69</v>
+        <v>8907.65</v>
       </c>
       <c r="R48" s="128">
-        <f t="shared" si="4"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S48" s="128"/>
+        <f t="shared" si="7"/>
+        <v>-2.1273848882702007E-2</v>
+      </c>
+      <c r="S48" s="117"/>
+      <c r="U48" s="117"/>
+      <c r="V48" s="117"/>
+      <c r="W48" s="117"/>
+      <c r="X48" s="117"/>
+      <c r="Y48" s="117"/>
+      <c r="Z48" s="117"/>
+      <c r="AA48" s="117"/>
+      <c r="AB48" s="134"/>
+      <c r="AC48" s="135"/>
       <c r="AD48">
-        <f>AD49</f>
+        <f>AD50</f>
         <v>36</v>
       </c>
       <c r="AE48">
-        <v>28.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF48">
-        <f>AF49</f>
+        <f>AF50</f>
         <v>57</v>
       </c>
       <c r="AG48">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH48">
-        <f>AH49</f>
+        <f>AH50</f>
         <v>12</v>
       </c>
       <c r="AI48">
-        <v>21.38</v>
+        <v>25.84</v>
       </c>
       <c r="AJ48">
+        <f>AJ50</f>
         <v>15</v>
       </c>
       <c r="AK48">
-        <v>39.24</v>
-      </c>
-      <c r="AM48" s="130">
-        <f>AM47</f>
+        <v>47.46</v>
+      </c>
+      <c r="AL48">
+        <v>68</v>
+      </c>
+      <c r="AM48">
         <v>11.33</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="118">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B49">
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C49">
         <v>30.7361</v>
       </c>
       <c r="D49">
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E49">
@@ -8761,61 +8779,81 @@
         <v>2018.91</v>
       </c>
       <c r="L49">
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="N49" s="114">
-        <f>(F49*G49)+(B49*C49)+(D49*E49)+(L49*M49)+(H49*I49)</f>
-        <v>503322.92414299998</v>
+        <f t="shared" si="6"/>
+        <v>499114.42414299998</v>
       </c>
       <c r="Q49" s="116">
-        <v>9062.36</v>
+        <v>9097.15</v>
       </c>
       <c r="R49" s="128">
-        <f t="shared" si="4"/>
-        <v>-1.292378585710563E-2</v>
-      </c>
-      <c r="S49" s="128"/>
+        <f t="shared" si="7"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S49" s="117"/>
+      <c r="U49" s="117"/>
+      <c r="V49" s="117"/>
+      <c r="W49" s="117"/>
+      <c r="X49" s="117"/>
+      <c r="Y49" s="117"/>
+      <c r="Z49" s="117"/>
+      <c r="AA49" s="117"/>
+      <c r="AB49" s="134"/>
+      <c r="AC49" s="135"/>
       <c r="AD49">
         <f>AD50</f>
         <v>36</v>
       </c>
       <c r="AE49">
-        <v>26.06</v>
+        <v>31.52</v>
       </c>
       <c r="AF49">
+        <f>AF50</f>
         <v>57</v>
       </c>
       <c r="AG49">
         <v>576.58807100000001</v>
       </c>
       <c r="AH49">
+        <f>AH50</f>
         <v>12</v>
       </c>
       <c r="AI49">
-        <v>19.45</v>
-      </c>
-      <c r="AK49" s="130">
-        <f>AK48</f>
-        <v>39.24</v>
-      </c>
-      <c r="AM49" s="130" t="s">
-        <v>70</v>
+        <v>23.5</v>
+      </c>
+      <c r="AJ49">
+        <f>AJ50</f>
+        <v>15</v>
+      </c>
+      <c r="AK49">
+        <v>43.16</v>
+      </c>
+      <c r="AL49">
+        <v>68</v>
+      </c>
+      <c r="AM49">
+        <v>11.33</v>
       </c>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="118">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B50">
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C50">
         <v>30.7361</v>
       </c>
       <c r="D50">
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E50">
@@ -8827,50 +8865,60 @@
       <c r="G50">
         <v>2018.91</v>
       </c>
-      <c r="L50" s="200">
-        <v>75000</v>
+      <c r="L50">
+        <f>L51</f>
+        <v>125000</v>
       </c>
       <c r="M50">
-        <v>1.064435</v>
+        <v>1.010337</v>
       </c>
       <c r="N50" s="114">
-        <f>(F50*G50)+(B50*C50)+(D50*E50)+(L50*M50)+(H50*I50)</f>
-        <v>449692.54914299998</v>
+        <f t="shared" si="6"/>
+        <v>496152.04914299998</v>
       </c>
       <c r="Q50" s="116">
-        <v>9179.48</v>
+        <v>9193.69</v>
       </c>
       <c r="R50" s="128">
-        <f t="shared" si="4"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="7"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S50" s="128"/>
       <c r="AD50">
+        <f>AD51</f>
         <v>36</v>
       </c>
       <c r="AE50">
-        <v>23.7</v>
+        <v>28.66</v>
       </c>
       <c r="AF50">
+        <f>AF51</f>
         <v>57</v>
       </c>
       <c r="AG50">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI50" s="130">
-        <f>AI49</f>
-        <v>19.45</v>
-      </c>
-      <c r="AK50" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM50" s="131" t="s">
-        <v>69</v>
+      <c r="AH50">
+        <f>AH51</f>
+        <v>12</v>
+      </c>
+      <c r="AI50">
+        <v>21.38</v>
+      </c>
+      <c r="AJ50">
+        <v>15</v>
+      </c>
+      <c r="AK50">
+        <v>39.24</v>
+      </c>
+      <c r="AM50" s="130">
+        <f>AM49</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="118">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B51">
         <v>1110</v>
@@ -8891,29 +8939,29 @@
         <v>2018.91</v>
       </c>
       <c r="L51">
-        <f>L52</f>
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="M51">
-        <v>1.0192399999999999</v>
+        <v>1.067704</v>
       </c>
       <c r="N51" s="114">
-        <f>(F51*G51)+(B51*C51)+(D51*E51)+(L51*M51)+(H51*I51)</f>
-        <v>420821.92414299998</v>
+        <f t="shared" si="6"/>
+        <v>503322.92414299998</v>
       </c>
       <c r="Q51" s="116">
-        <v>9334.1299999999992</v>
+        <v>9062.36</v>
       </c>
       <c r="R51" s="128">
-        <f t="shared" si="4"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="7"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S51" s="128"/>
       <c r="AD51">
+        <f>AD52</f>
         <v>36</v>
       </c>
       <c r="AE51">
-        <v>21.56</v>
+        <v>26.06</v>
       </c>
       <c r="AF51">
         <v>57</v>
@@ -8921,20 +8969,23 @@
       <c r="AG51">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI51" s="130" t="s">
+      <c r="AH51">
+        <v>12</v>
+      </c>
+      <c r="AI51">
+        <v>19.45</v>
+      </c>
+      <c r="AK51" s="130">
+        <f>AK50</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM51" s="130" t="s">
         <v>70</v>
-      </c>
-      <c r="AK51" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM51" s="131">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="118">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B52">
         <v>1110</v>
@@ -8954,29 +9005,29 @@
       <c r="G52">
         <v>2018.91</v>
       </c>
-      <c r="L52">
-        <v>50000</v>
+      <c r="L52" s="200">
+        <v>75000</v>
       </c>
       <c r="M52">
-        <v>1.0032049999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N52" s="114">
-        <f>(F52*G52)+(B52*C52)+(D52*E52)+(L52*M52)+(H52*I52)</f>
-        <v>420020.17414299998</v>
+        <f t="shared" si="6"/>
+        <v>449692.54914299998</v>
       </c>
       <c r="Q52" s="116">
-        <v>9374.2000000000007</v>
+        <v>9179.48</v>
       </c>
       <c r="R52" s="128">
-        <f t="shared" si="4"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="7"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S52" s="128"/>
       <c r="AD52">
         <v>36</v>
       </c>
       <c r="AE52">
-        <v>19.600000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="AF52">
         <v>57</v>
@@ -8984,132 +9035,259 @@
       <c r="AG52">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI52" s="131" t="s">
+      <c r="AI52" s="130">
+        <f>AI51</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK52" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM52" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AK52" s="131">
-        <v>55.5</v>
-      </c>
-      <c r="AM52" s="117">
-        <f>(AM51-AM47)/AM47</f>
-        <v>0.73786407766990303</v>
-      </c>
     </row>
     <row r="53" spans="1:39">
-      <c r="A53" s="199">
-        <v>45344</v>
-      </c>
-      <c r="L53" s="200">
+      <c r="A53" s="118">
+        <v>45348</v>
+      </c>
+      <c r="B53">
+        <v>1110</v>
+      </c>
+      <c r="C53">
+        <v>30.7361</v>
+      </c>
+      <c r="D53">
+        <v>321.99</v>
+      </c>
+      <c r="E53">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F53" s="113">
+        <v>161</v>
+      </c>
+      <c r="G53">
+        <v>2018.91</v>
+      </c>
+      <c r="L53">
+        <f>L54</f>
         <v>50000</v>
       </c>
       <c r="M53">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N53" s="114">
-        <f>(F53*G53)+(B53*C53)+(D53*E53)+(L53*M53)+(H53*I53)</f>
-        <v>50160.249999999993</v>
+        <f t="shared" si="6"/>
+        <v>420821.92414299998</v>
       </c>
       <c r="Q53" s="116">
-        <v>9347.17</v>
-      </c>
+        <v>9334.1299999999992</v>
+      </c>
+      <c r="R53" s="128">
+        <f t="shared" si="7"/>
+        <v>-4.2928478604864484E-3</v>
+      </c>
+      <c r="S53" s="128"/>
       <c r="AD53">
         <v>36</v>
       </c>
       <c r="AE53">
-        <v>17.82</v>
-      </c>
-      <c r="AI53" s="131">
-        <v>45.72</v>
-      </c>
-      <c r="AK53" s="117">
-        <f>(AK52-AK48)/AK48</f>
-        <v>0.41437308868501521</v>
+        <v>21.56</v>
+      </c>
+      <c r="AF53">
+        <v>57</v>
+      </c>
+      <c r="AG53">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI53" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK53" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM53" s="131">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:39">
+      <c r="A54" s="118">
+        <v>45345</v>
+      </c>
+      <c r="B54">
+        <v>1110</v>
+      </c>
+      <c r="C54">
+        <v>30.7361</v>
+      </c>
+      <c r="D54">
+        <v>321.99</v>
+      </c>
+      <c r="E54">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F54" s="113">
+        <v>161</v>
+      </c>
+      <c r="G54">
+        <v>2018.91</v>
+      </c>
+      <c r="L54">
+        <v>50000</v>
+      </c>
       <c r="M54">
-        <v>0.93849000000000005</v>
-      </c>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N54" s="114">
+        <f t="shared" si="6"/>
+        <v>420020.17414299998</v>
+      </c>
+      <c r="Q54" s="116">
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R54" s="128">
+        <f t="shared" si="7"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S54" s="128"/>
       <c r="AD54">
         <v>36</v>
       </c>
-      <c r="AE54" s="130">
-        <v>15.3</v>
-      </c>
-      <c r="AI54" s="117">
-        <f>(AI53-AI49)/AI49</f>
-        <v>1.3506426735218509</v>
-      </c>
-      <c r="AM54" s="133">
-        <f>(AL47*AM51)-(AL35*AM47)</f>
-        <v>568.48</v>
+      <c r="AE54">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF54">
+        <v>57</v>
+      </c>
+      <c r="AG54">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI54" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK54" s="131">
+        <v>55.5</v>
+      </c>
+      <c r="AM54" s="117">
+        <f>(AM53-AM49)/AM49</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="55" spans="1:39">
+      <c r="A55" s="199">
+        <v>45344</v>
+      </c>
+      <c r="L55" s="200">
+        <v>50000</v>
+      </c>
       <c r="M55">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="R55" s="137">
-        <f>SUM(R10:R54)</f>
-        <v>0.11180645986127746</v>
-      </c>
-      <c r="S55" s="137"/>
-      <c r="AE55" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ55" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK55" s="133">
-        <f>(AJ48*AK52)-(AJ10*AK48)</f>
-        <v>832.5</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N55" s="114">
+        <f t="shared" si="6"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q55" s="116">
+        <v>9347.17</v>
+      </c>
+      <c r="AD55">
+        <v>36</v>
+      </c>
+      <c r="AE55">
+        <v>17.82</v>
+      </c>
+      <c r="AI55" s="131">
+        <v>45.72</v>
+      </c>
+      <c r="AK55" s="117">
+        <f>(AK54-AK50)/AK50</f>
+        <v>0.41437308868501521</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="M56">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="AE56" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH56" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI56" s="133">
-        <f>(AH49*AI53)-(AH10*AI49)</f>
-        <v>548.64</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD56">
+        <v>36</v>
+      </c>
+      <c r="AE56" s="130">
+        <v>15.3</v>
+      </c>
+      <c r="AI56" s="117">
+        <f>(AI55-AI51)/AI51</f>
+        <v>1.3506426735218509</v>
+      </c>
+      <c r="AM56" s="133">
+        <f>(AL49*AM53)-(AL37*AM49)</f>
+        <v>568.48</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="M57">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE57" s="131">
-        <v>38</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="R57" s="137">
+        <f>SUM(R10:R56)</f>
+        <v>9.6793979928683882E-2</v>
+      </c>
+      <c r="S57" s="137"/>
+      <c r="AE57" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ57" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK57" s="133">
+        <f>(AJ50*AK54)-(AJ10*AK50)</f>
+        <v>832.5</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="M58">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="AE58" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH58" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI58" s="133">
+        <f>(AH51*AI55)-(AH10*AI51)</f>
+        <v>548.64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39">
+      <c r="M59">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE59" s="131">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39">
+      <c r="M60">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE58" s="117">
+      <c r="AE60" s="117">
         <f>Sayfa2!M54</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
-      <c r="M59">
+    <row r="61" spans="1:39">
+      <c r="M61">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
-      <c r="AD60" s="133" t="s">
+    <row r="62" spans="1:39">
+      <c r="AD62" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="AE60" s="133">
+      <c r="AE62" s="133">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499885F2-5A50-44D2-86BA-851F75C2247B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E8472E-4D24-4882-B569-354ADA554E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2030,11 +2030,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>252815.69096500007</v>
+        <v>269993.23046500003</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2043,11 +2043,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1623</v>
+        <v>1630</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>155.77060441466423</v>
+        <v>165.64001869018406</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2080,24 +2080,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I37)</f>
-        <v>734604.78014000005</v>
+        <v>752144.06964</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K38)</f>
-        <v>233972.98262000005</v>
+        <v>251150.52212000004</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.47894585970184056</v>
+        <v>0.51410851536944646</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-6.1916589312387207E-2</v>
+        <v>-5.7115748621107527E-2</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-5.1609235413479594E-2</v>
+        <v>-3.8738978794123045E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2252,7 +2252,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O38)</f>
-        <v>233972.98262000005</v>
+        <v>251150.52212000004</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2282,31 +2282,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>1208</v>
+        <v>1140.8</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-0.30000000000000071</v>
+        <v>-1.9800000000000004</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-12.000000000000028</v>
+        <v>-79.200000000000017</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M15" s="67">
         <f>K15/E15</f>
-        <v>-9.8360655737705152E-3</v>
+        <v>-6.4918032786885266E-2</v>
       </c>
       <c r="N15" s="67">
         <f>M15/L15*30</f>
-        <v>-2.1077283372365387E-2</v>
+        <v>-9.2740046838407517E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2336,31 +2336,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>1255.0999999999999</v>
+        <v>1218</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-1.5300000000000011</v>
+        <v>-2.5900000000000034</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-53.55000000000004</v>
+        <v>-90.650000000000119</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M16" s="67">
         <f>K16/E16</f>
-        <v>-4.0920032094142848E-2</v>
+        <v>-6.9269858250869301E-2</v>
       </c>
       <c r="N16" s="67">
         <f>M16/L16*30</f>
-        <v>-8.7685783058877531E-2</v>
+        <v>-9.8956940358384718E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2390,31 +2390,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1201</v>
+        <v>1235</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-14.900000000000006</v>
+        <v>-11.5</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-149.00000000000006</v>
+        <v>-115</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M17" s="67">
         <f>K17/E17</f>
-        <v>-0.11037037037037041</v>
+        <v>-8.5185185185185183E-2</v>
       </c>
       <c r="N17" s="117">
         <f>M17/L17*30</f>
-        <v>-0.15050505050505056</v>
+        <v>-8.8122605363984668E-2</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="F20" s="62">
         <f>$B$2</f>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G20" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2445,31 +2445,31 @@
       </c>
       <c r="H20" s="64">
         <f>Sayfa4!K5</f>
-        <v>634.98375399999998</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="I20" s="51">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>19049.512619999998</v>
+        <v>19230.26988</v>
       </c>
       <c r="J20" s="46">
         <f>H20-D20</f>
-        <v>12.140805999999998</v>
+        <v>18.166048000000046</v>
       </c>
       <c r="K20" s="65">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>364.22417999999993</v>
+        <v>544.98144000000138</v>
       </c>
       <c r="L20" s="66">
         <f>F20-B20</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M20" s="67">
         <f>K20/E20</f>
-        <v>1.9492563958514945E-2</v>
+        <v>2.9166338092664806E-2</v>
       </c>
       <c r="N20" s="67">
         <f>M20/L20*30</f>
-        <v>4.176977991110345E-2</v>
+        <v>4.1666197275235434E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2499,31 +2499,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.41</v>
+        <v>24.91</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>61025</v>
+        <v>62275</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>-0.30000000000000071</v>
+        <v>0.19999999999999929</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>-750.00000000000182</v>
+        <v>499.99999999999824</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M21" s="67">
         <f>K21/E21</f>
-        <v>-1.2140833670578742E-2</v>
+        <v>8.0938891137191139E-3</v>
       </c>
       <c r="N21" s="67">
         <f>M21/L21*30</f>
-        <v>-2.6016072151240164E-2</v>
+        <v>1.1562698733884448E-2</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2580,31 +2580,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.41</v>
+        <v>24.91</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>61025</v>
+        <v>62275</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>-1250</v>
+        <v>0</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>-2.0072260136491368E-2</v>
+        <v>0</v>
       </c>
       <c r="N23" s="117">
         <f>M23/L23*30</f>
-        <v>-4.0144520272982737E-2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2661,31 +2661,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.41</v>
+        <v>24.91</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>61025</v>
+        <v>62275</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-0.71000000000000085</v>
+        <v>-0.21000000000000085</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-1775.000000000002</v>
+        <v>-525.00000000000216</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-2.8264331210191115E-2</v>
+        <v>-8.3598726114650027E-3</v>
       </c>
       <c r="N25" s="117">
         <f>M25/L25*30</f>
-        <v>-4.7107218683651857E-2</v>
+        <v>-1.0031847133758003E-2</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2742,31 +2742,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.84950000000000003</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>63712.5</v>
+        <v>64935.3</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.21493499999999999</v>
+        <v>-0.198631</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-16120.124999999998</v>
+        <v>-14897.325000000001</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.20192402542193744</v>
+        <v>-0.18660697928948222</v>
       </c>
       <c r="N27" s="117">
         <f>M27/L27*30</f>
-        <v>-7.7663086700745176E-2</v>
+        <v>-6.5861286808052547E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2797,35 +2797,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.84950000000000003</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>42475</v>
+        <v>43290.200000000004</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.15370499999999987</v>
+        <v>-0.13740099999999988</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-7685.2499999999936</v>
+        <v>-6870.0499999999938</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.15321394929251739</v>
+        <v>-0.13696203667246465</v>
       </c>
       <c r="N28" s="117">
         <f>M28/L28*30</f>
-        <v>-5.6053883887506359E-2</v>
+        <v>-4.6166978653639772E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-27823.090819999994</v>
+        <v>-21924.633559999995</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2864,50 +2864,50 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F37" si="0">$B$2</f>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
         <f>Sayfa4!G10</f>
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="I30" s="51">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
-        <v>117228.50000000001</v>
+        <v>120846</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ref="J30:J37" si="1">H30-D30</f>
-        <v>518.04000000000019</v>
+        <v>590.3900000000001</v>
       </c>
       <c r="K30" s="65">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>23311.80000000001</v>
+        <v>26567.550000000003</v>
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L37" si="2">F30-B30</f>
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M37" si="3">K30/E30</f>
-        <v>0.28361975987254529</v>
+        <v>0.32323038767499029</v>
       </c>
       <c r="N30" s="117">
         <f t="shared" ref="N30:N37" si="4">M30/L30*30</f>
-        <v>4.1104313025006563E-2</v>
+        <v>4.531267116939116E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>117228.50000000001</v>
+        <v>120846</v>
       </c>
       <c r="Q30" s="1">
         <v>2000</v>
       </c>
       <c r="R30" s="1">
         <f>P30/Q30</f>
-        <v>58.614250000000006</v>
+        <v>60.423000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2929,50 +2929,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
       </c>
       <c r="H31" s="64">
         <f>H30</f>
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>25790.27</v>
+        <v>26586.120000000003</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>1942.4700000000003</v>
+        <v>2014.8200000000002</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>21367.170000000002</v>
+        <v>22163.02</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1182</v>
+        <v>1189</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
-        <v>4.8308132305396665</v>
+        <v>5.0107435961203679</v>
       </c>
       <c r="N31" s="117">
         <f t="shared" si="4"/>
-        <v>0.12260947285633671</v>
+        <v>0.12642750873306227</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25790.27</v>
+        <v>26586.120000000003</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>12.895135</v>
+        <v>13.293060000000001</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2994,50 +2994,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>117228.50000000001</v>
+        <v>120846</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1875.71</v>
+        <v>1948.06</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>93785.5</v>
+        <v>97403</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1342</v>
+        <v>1349</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>4.0005758648637118</v>
+        <v>4.1548863200102373</v>
       </c>
       <c r="N32" s="117">
         <f t="shared" si="4"/>
-        <v>8.9431651226461517E-2</v>
+        <v>9.2399251000968963E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>117228.50000000001</v>
+        <v>120846</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>58.614250000000006</v>
+        <v>60.423000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3067,36 +3067,36 @@
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>58614.250000000007</v>
+        <v>60423</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>1944.7000000000003</v>
+        <v>2017.0500000000002</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>48617.500000000007</v>
+        <v>50426.250000000007</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1406</v>
+        <v>1413</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>4.8633305824392936</v>
+        <v>5.0442643859254268</v>
       </c>
       <c r="N33" s="117">
         <f t="shared" si="4"/>
-        <v>0.10376950033654253</v>
+        <v>0.10709690840606001</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
         <f>SUM(R30:R32)</f>
-        <v>130.12363500000001</v>
+        <v>134.13906</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3126,31 +3126,31 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>56269.680000000008</v>
+        <v>58006.080000000002</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>2070.7600000000002</v>
+        <v>2143.11</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>49698.240000000005</v>
+        <v>51434.64</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1623</v>
+        <v>1630</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>7.5627624995434797</v>
+        <v>7.8269968226142206</v>
       </c>
       <c r="N34" s="117">
         <f t="shared" si="4"/>
-        <v>0.1397922828011734</v>
+        <v>0.14405515624443352</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3181,40 +3181,40 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2106.98</v>
+        <v>2179.33</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>2106.98</v>
+        <v>2179.33</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1623</v>
+        <v>1630</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>8.8681341807315128</v>
+        <v>9.1726503640725614</v>
       </c>
       <c r="N35" s="117">
         <f t="shared" si="4"/>
-        <v>0.1639211493665714</v>
+        <v>0.16882178584182628</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
         <f>SUM(P30:P34)</f>
-        <v>260247.27000000002</v>
+        <v>268278.12</v>
       </c>
       <c r="R35" s="1">
         <f>P35/2220.32</f>
-        <v>117.21160463356634</v>
+        <v>120.82858326727678</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3244,36 +3244,36 @@
       </c>
       <c r="H36" s="64">
         <f>Sayfa4!E5</f>
-        <v>34.005400000000002</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>10160.813520000002</v>
+        <v>10213.79076</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>15.283800000000003</v>
+        <v>15.461099999999998</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>4566.7994400000007</v>
+        <v>4619.7766799999999</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>0.81637253226219997</v>
+        <v>0.82584287667720713</v>
       </c>
       <c r="N36" s="117">
         <f t="shared" si="4"/>
-        <v>3.8148249171130841E-2</v>
+        <v>3.8174555162274602E-2</v>
       </c>
       <c r="O36" s="68"/>
       <c r="P36" s="1">
         <f>P35*Q36</f>
-        <v>26024.727000000003</v>
+        <v>26827.812000000002</v>
       </c>
       <c r="Q36" s="75">
         <v>0.1</v>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="F37" s="62">
         <f t="shared" si="0"/>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="G37" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3309,47 +3309,47 @@
       </c>
       <c r="H37" s="64">
         <f>Sayfa4!C5</f>
-        <v>31.5244</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="I37" s="51">
         <f>Sayfa2!$H37*Sayfa2!$G37</f>
-        <v>34992.084000000003</v>
+        <v>34931.589</v>
       </c>
       <c r="J37" s="46">
         <f t="shared" si="1"/>
-        <v>16.5244</v>
+        <v>16.469899999999999</v>
       </c>
       <c r="K37" s="65">
         <f>Sayfa2!$J37*Sayfa2!$C37</f>
-        <v>18342.083999999999</v>
+        <v>18281.589</v>
       </c>
       <c r="L37" s="66">
         <f t="shared" si="2"/>
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="M37" s="67">
         <f t="shared" si="3"/>
-        <v>1.1016266666666665</v>
+        <v>1.0979933333333334</v>
       </c>
       <c r="N37" s="117">
         <f t="shared" si="4"/>
-        <v>5.0688343558282202E-2</v>
+        <v>4.9984522003034909E-2</v>
       </c>
       <c r="O37" s="70">
         <f>SUM(K30:K37)</f>
-        <v>261796.07344000004</v>
+        <v>273075.15568000003</v>
       </c>
       <c r="P37" s="6">
         <f>SUM(P35:P36)</f>
-        <v>286271.99700000003</v>
+        <v>295105.93199999997</v>
       </c>
       <c r="R37" s="1">
         <f>P37/2000</f>
-        <v>143.13599850000003</v>
+        <v>147.552966</v>
       </c>
       <c r="T37" s="1">
         <f>P35/T36</f>
-        <v>113.15098695652175</v>
+        <v>116.64266086956522</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3370,7 +3370,7 @@
       <c r="O38" s="32"/>
       <c r="R38" s="67">
         <f>1-(R37/R35)</f>
-        <v>-0.22117600000000026</v>
+        <v>-0.22117600000000004</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3391,7 +3391,7 @@
       <c r="N40" s="117"/>
       <c r="R40" s="1">
         <f>R37*2220.32</f>
-        <v>317807.7201895201</v>
+        <v>327614.80146912002</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5556,12 +5556,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM62"/>
+  <dimension ref="A4:AM63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="M2" sqref="M2"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5613,51 +5613,51 @@
     <row r="5" spans="1:39">
       <c r="A5" s="118">
         <f>A10</f>
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="C5">
         <f>C10</f>
-        <v>31.5244</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="E5">
         <f>E10</f>
-        <v>34.005400000000002</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="G5">
         <f>G10</f>
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="I5">
         <f>I10</f>
-        <v>24.41</v>
+        <v>24.91</v>
       </c>
       <c r="K5">
         <f>K10</f>
-        <v>634.98375399999998</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="M5">
         <f>M10</f>
-        <v>0.84950000000000003</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="O5" s="116">
         <f>Sayfa2!D3</f>
-        <v>155.77060441466423</v>
+        <v>165.64001869018406</v>
       </c>
       <c r="P5" s="119">
         <f>Sayfa2!K2</f>
-        <v>252815.69096500007</v>
+        <v>269993.23046500003</v>
       </c>
       <c r="Y5" s="116">
         <f>Y10</f>
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="AA5" s="116">
         <f>AA10</f>
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AC5" s="116">
         <f>AC10</f>
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
       <c r="AE5">
         <f>AE10</f>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM37</f>
+        <f>AM38</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -5765,139 +5765,139 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="118">
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="B10">
-        <f>B49</f>
+        <f>B50</f>
         <v>1110</v>
       </c>
       <c r="C10">
-        <v>31.5244</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="D10">
-        <f>D49</f>
+        <f>D50</f>
         <v>321.99</v>
       </c>
       <c r="E10">
-        <v>34.005400000000002</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="F10" s="113">
         <v>156</v>
       </c>
       <c r="G10">
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="H10" s="200">
         <v>7500</v>
       </c>
       <c r="I10" s="200">
-        <v>24.41</v>
+        <v>24.91</v>
       </c>
       <c r="J10">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>634.98375399999998</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="L10">
-        <f>L49</f>
+        <f>L50</f>
         <v>125000</v>
       </c>
       <c r="M10">
-        <v>0.84950000000000003</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="N10" s="114">
         <f>(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>720006.41536600015</v>
+        <v>737258.36645300011</v>
       </c>
       <c r="O10">
-        <v>158.43</v>
+        <v>165.69</v>
       </c>
       <c r="P10">
-        <v>256973.54</v>
+        <v>269993.23</v>
       </c>
       <c r="Q10" s="116">
         <v>10200</v>
       </c>
       <c r="R10" s="128">
-        <f>(1-(Q12/Q10))</f>
+        <f>(1-(Q13/Q10))</f>
         <v>-6.7235294117646838E-3</v>
       </c>
       <c r="S10" s="117">
-        <f>(N10/$N$43)-1</f>
-        <v>0.35736334550403681</v>
+        <f>(N10/$N$44)-1</f>
+        <v>0.38988689743936056</v>
       </c>
       <c r="T10" s="115">
-        <f>(A10-$A$43)</f>
-        <v>64</v>
+        <f>(A10-$A$44)</f>
+        <v>71</v>
       </c>
       <c r="U10" s="117">
-        <f>((N10/$N$43)-1)/T10*30</f>
-        <v>0.16751406820501724</v>
+        <f>((N10/$N$44)-1)/T10*30</f>
+        <v>0.16474094258001151</v>
       </c>
       <c r="V10" s="117"/>
       <c r="W10" s="117"/>
       <c r="X10" s="135"/>
       <c r="Y10" s="135">
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Z10" s="135"/>
       <c r="AA10" s="135">
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AB10">
         <v>10</v>
       </c>
       <c r="AC10" s="116">
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="118">
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="B11">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C11">
-        <v>31.371600000000001</v>
+        <v>31.5244</v>
       </c>
       <c r="D11">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E11">
-        <v>33.871899999999997</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F11" s="113">
         <v>156</v>
       </c>
       <c r="G11">
-        <v>2341.31</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H11" s="200">
         <v>7500</v>
       </c>
       <c r="I11" s="200">
-        <v>24.47</v>
+        <v>24.41</v>
       </c>
       <c r="J11">
         <v>30</v>
       </c>
       <c r="K11">
-        <v>634.10149999999999</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L11">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M11">
-        <v>0.88511899999999999</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N11" s="114">
-        <f t="shared" ref="N11:N19" si="0">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
-        <v>724161.16908100003</v>
+        <f>(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
+        <v>720006.41536600015</v>
       </c>
       <c r="O11">
         <v>158.43</v>
@@ -5906,23 +5906,23 @@
         <v>256973.54</v>
       </c>
       <c r="Q11" s="116">
-        <v>10200</v>
+        <v>10739.57</v>
       </c>
       <c r="R11" s="128">
-        <f>(1-(Q13/Q11))</f>
-        <v>1.5123529411764758E-2</v>
+        <f>(1-(Q14/Q11))</f>
+        <v>6.4605007463054864E-2</v>
       </c>
       <c r="S11" s="117">
-        <f>(N11/$N$43)-1</f>
-        <v>0.36519592905049159</v>
+        <f>(N11/$N$44)-1</f>
+        <v>0.35736334550403681</v>
       </c>
       <c r="T11" s="115">
-        <f>(A11-$A$43)</f>
-        <v>63</v>
+        <f>(A11-$A$44)</f>
+        <v>64</v>
       </c>
       <c r="U11" s="117">
-        <f>((N11/$N$43)-1)/T11*30</f>
-        <v>0.17390282335737695</v>
+        <f>((N11/$N$44)-1)/T11*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V11" s="117"/>
       <c r="W11" s="117"/>
@@ -5943,139 +5943,139 @@
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="118">
-        <v>45421</v>
+        <v>45425</v>
       </c>
       <c r="B12">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.712</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D12">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>34.055500000000002</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F12" s="113">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2333.16</v>
+        <v>2341.31</v>
       </c>
       <c r="H12" s="200">
         <v>7500</v>
       </c>
       <c r="I12" s="200">
-        <v>24.39</v>
+        <v>24.47</v>
       </c>
       <c r="J12">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L12">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.90642500000000004</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N12" s="114">
-        <f t="shared" si="0"/>
-        <v>725052.22388499998</v>
+        <f t="shared" ref="N12:N20" si="0">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
+        <v>724161.16908100003</v>
       </c>
       <c r="O12">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P12">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q12" s="116">
-        <v>10268.58</v>
+        <v>10200</v>
       </c>
       <c r="R12" s="128">
-        <f t="shared" ref="R12:R22" si="1">(1-(Q13/Q12))</f>
-        <v>2.1701150499874422E-2</v>
+        <f>(1-(Q14/Q12))</f>
+        <v>1.5123529411764758E-2</v>
       </c>
       <c r="S12" s="117">
-        <f>(N12/$N$43)-1</f>
-        <v>0.36687575454089361</v>
+        <f>(N12/$N$44)-1</f>
+        <v>0.36519592905049159</v>
       </c>
       <c r="T12" s="115">
-        <f>(A12-$A$43)</f>
-        <v>59</v>
+        <f>(A12-$A$44)</f>
+        <v>63</v>
       </c>
       <c r="U12" s="117">
-        <f>((N12/$N$43)-1)/T12*30</f>
-        <v>0.18654699383435269</v>
+        <f>((N12/$N$44)-1)/T12*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V12" s="117"/>
       <c r="W12" s="117"/>
       <c r="X12" s="135"/>
       <c r="Y12" s="135">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z12" s="135"/>
       <c r="AA12" s="135">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB12">
         <v>10</v>
       </c>
       <c r="AC12" s="116">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="118">
-        <v>45412</v>
+        <v>45421</v>
       </c>
       <c r="B13">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C13">
-        <v>31.771699999999999</v>
+        <v>31.712</v>
       </c>
       <c r="D13">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E13">
-        <v>34.014699999999998</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F13" s="113">
         <v>156</v>
       </c>
       <c r="G13">
-        <v>2341.2800000000002</v>
+        <v>2333.16</v>
       </c>
       <c r="H13" s="200">
         <v>7500</v>
       </c>
       <c r="I13" s="200">
-        <v>24.71</v>
+        <v>24.39</v>
       </c>
       <c r="J13">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K13">
         <v>622.84294799999998</v>
       </c>
       <c r="L13">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M13">
-        <v>0.90242599999999995</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N13" s="114">
         <f t="shared" si="0"/>
-        <v>769379.83326099999</v>
+        <v>725052.22388499998</v>
       </c>
       <c r="O13">
         <v>167.1</v>
@@ -6084,29 +6084,29 @@
         <v>268201.53000000003</v>
       </c>
       <c r="Q13" s="116">
-        <v>10045.74</v>
+        <v>10268.58</v>
       </c>
       <c r="R13" s="128">
-        <f t="shared" si="1"/>
-        <v>1.2952754102733999E-2</v>
+        <f t="shared" ref="R13:R23" si="1">(1-(Q14/Q13))</f>
+        <v>2.1701150499874422E-2</v>
       </c>
       <c r="S13" s="117">
-        <f t="shared" ref="S13" si="2">(N13/$N$43)-1</f>
-        <v>0.45044261016428133</v>
+        <f>(N13/$N$44)-1</f>
+        <v>0.36687575454089361</v>
       </c>
       <c r="T13" s="115">
-        <f t="shared" ref="T13" si="3">(A13-$A$43)</f>
-        <v>50</v>
+        <f>(A13-$A$44)</f>
+        <v>59</v>
       </c>
       <c r="U13" s="117">
-        <f>((N13/$N$43)-1)/T13*30</f>
-        <v>0.27026556609856883</v>
+        <f>((N13/$N$44)-1)/T13*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V13" s="117"/>
       <c r="W13" s="117"/>
       <c r="X13" s="135"/>
       <c r="Y13" s="135">
-        <v>37.39</v>
+        <v>37.4</v>
       </c>
       <c r="Z13" s="135"/>
       <c r="AA13" s="135">
@@ -6116,106 +6116,111 @@
         <v>10</v>
       </c>
       <c r="AC13" s="116">
-        <v>125.1</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="118">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B14">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C14">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D14">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E14">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F14" s="113">
         <v>156</v>
       </c>
       <c r="G14">
-        <v>2384.1799999999998</v>
+        <v>2341.2800000000002</v>
       </c>
       <c r="H14" s="200">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I14" s="200">
-        <v>24.91</v>
+        <v>24.71</v>
+      </c>
+      <c r="J14">
+        <v>96</v>
+      </c>
+      <c r="K14">
+        <v>622.84294799999998</v>
       </c>
       <c r="L14">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M14">
-        <v>0.89855499999999999</v>
+        <v>0.90242599999999995</v>
       </c>
       <c r="N14" s="114">
         <f t="shared" si="0"/>
-        <v>655301.58439900004</v>
+        <v>769379.83326099999</v>
       </c>
       <c r="O14">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P14">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q14" s="116">
-        <v>9915.6200000000008</v>
+        <v>10045.74</v>
       </c>
       <c r="R14" s="128">
         <f t="shared" si="1"/>
-        <v>2.5330740790792672E-2</v>
+        <v>1.2952754102733999E-2</v>
       </c>
       <c r="S14" s="117">
-        <f t="shared" ref="S14:S43" si="4">(N14/$N$43)-1</f>
-        <v>0.23538114651627517</v>
+        <f t="shared" ref="S14" si="2">(N14/$N$44)-1</f>
+        <v>0.45044261016428133</v>
       </c>
       <c r="T14" s="115">
-        <f t="shared" ref="T14:T43" si="5">(A14-$A$43)</f>
-        <v>49</v>
+        <f t="shared" ref="T14" si="3">(A14-$A$44)</f>
+        <v>50</v>
       </c>
       <c r="U14" s="117">
-        <f>((N14/$N$43)-1)/T14*30</f>
-        <v>0.14411090603037255</v>
+        <f>((N14/$N$44)-1)/T14*30</f>
+        <v>0.27026556609856883</v>
       </c>
       <c r="V14" s="117"/>
       <c r="W14" s="117"/>
-      <c r="X14" s="113">
-        <v>35</v>
-      </c>
-      <c r="Y14" s="129">
-        <f>Y17</f>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135">
         <v>37.39</v>
       </c>
-      <c r="Z14" s="113">
-        <v>40</v>
-      </c>
-      <c r="AA14" s="129">
-        <f>AA17</f>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135">
         <v>30.5</v>
       </c>
-      <c r="AB14"/>
+      <c r="AB14">
+        <v>10</v>
+      </c>
+      <c r="AC14" s="116">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="118">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B15">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C15">
         <v>31.948</v>
       </c>
       <c r="D15">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E15">
@@ -6228,21 +6233,21 @@
         <v>2384.1799999999998</v>
       </c>
       <c r="H15" s="200">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="I15" s="200">
-        <v>25.11</v>
+        <v>24.91</v>
       </c>
       <c r="L15">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M15">
-        <v>0.89607400000000004</v>
+        <v>0.89855499999999999</v>
       </c>
       <c r="N15" s="114">
         <f t="shared" si="0"/>
-        <v>593216.45939900004</v>
+        <v>655301.58439900004</v>
       </c>
       <c r="O15">
         <v>167.61</v>
@@ -6251,195 +6256,198 @@
         <v>269021.68</v>
       </c>
       <c r="Q15" s="116">
-        <v>9664.4500000000007</v>
+        <v>9915.6200000000008</v>
       </c>
       <c r="R15" s="128">
         <f t="shared" si="1"/>
+        <v>2.5330740790792672E-2</v>
+      </c>
+      <c r="S15" s="117">
+        <f t="shared" ref="S15:S44" si="4">(N15/$N$44)-1</f>
+        <v>0.23538114651627517</v>
+      </c>
+      <c r="T15" s="115">
+        <f t="shared" ref="T15:T44" si="5">(A15-$A$44)</f>
+        <v>49</v>
+      </c>
+      <c r="U15" s="117">
+        <f>((N15/$N$44)-1)/T15*30</f>
+        <v>0.14411090603037255</v>
+      </c>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="113">
+        <v>35</v>
+      </c>
+      <c r="Y15" s="129">
+        <f>Y18</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z15" s="113">
+        <v>40</v>
+      </c>
+      <c r="AA15" s="129">
+        <f>AA18</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="1:39">
+      <c r="A16" s="118">
+        <v>45408</v>
+      </c>
+      <c r="B16">
+        <f>B51</f>
+        <v>1110</v>
+      </c>
+      <c r="C16">
+        <v>31.948</v>
+      </c>
+      <c r="D16">
+        <f>D51</f>
+        <v>321.99</v>
+      </c>
+      <c r="E16">
+        <v>34.280099999999997</v>
+      </c>
+      <c r="F16" s="113">
+        <v>156</v>
+      </c>
+      <c r="G16">
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H16" s="200">
+        <v>2500</v>
+      </c>
+      <c r="I16" s="200">
+        <v>25.11</v>
+      </c>
+      <c r="L16">
+        <f>L51</f>
+        <v>125000</v>
+      </c>
+      <c r="M16">
+        <v>0.89607400000000004</v>
+      </c>
+      <c r="N16" s="114">
+        <f t="shared" si="0"/>
+        <v>593216.45939900004</v>
+      </c>
+      <c r="O16">
+        <v>167.61</v>
+      </c>
+      <c r="P16">
+        <v>269021.68</v>
+      </c>
+      <c r="Q16" s="116">
+        <v>9664.4500000000007</v>
+      </c>
+      <c r="R16" s="128">
+        <f t="shared" si="1"/>
         <v>-5.7478697701369708E-3</v>
       </c>
-      <c r="S15" s="117">
+      <c r="S16" s="117">
         <f t="shared" si="4"/>
         <v>0.11833764360082077</v>
       </c>
-      <c r="T15" s="115">
+      <c r="T16" s="115">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="U15" s="117">
-        <f>((N15/$N$43)-1)/T15*30</f>
+      <c r="U16" s="117">
+        <f>((N16/$N$44)-1)/T16*30</f>
         <v>7.7176724087491808E-2</v>
       </c>
-      <c r="V15" s="117"/>
-      <c r="W15" s="117"/>
-      <c r="X15" s="113" t="s">
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="Y15" s="130" t="s">
+      <c r="Y16" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="Z15" s="113" t="s">
+      <c r="Z16" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="130" t="s">
+      <c r="AA16" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="AB15">
+      <c r="AB16">
         <v>10</v>
       </c>
-      <c r="AC15" s="116">
+      <c r="AC16" s="116">
         <v>148.5</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" s="118">
+    <row r="17" spans="1:29">
+      <c r="A17" s="118">
         <v>45407</v>
       </c>
-      <c r="B16">
-        <f>B50</f>
+      <c r="B17">
+        <f>B51</f>
         <v>1110</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>32.0291</v>
       </c>
-      <c r="D16">
-        <f>D50</f>
+      <c r="D17">
+        <f>D51</f>
         <v>321.99</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>34.322299999999998</v>
       </c>
-      <c r="F16" s="113">
+      <c r="F17" s="113">
         <v>156</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>2368.4699999999998</v>
       </c>
-      <c r="L16">
-        <f>L50</f>
+      <c r="L17">
+        <f>L51</f>
         <v>125000</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>0.90609700000000004</v>
       </c>
-      <c r="N16" s="114">
+      <c r="N17" s="114">
         <f t="shared" si="0"/>
         <v>529347.18337699992</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <v>167.13</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <v>268083.81</v>
       </c>
-      <c r="Q16" s="116">
+      <c r="Q17" s="116">
         <v>9720</v>
       </c>
-      <c r="R16" s="128">
+      <c r="R17" s="128">
         <f t="shared" si="1"/>
         <v>-2.1502057613176362E-4</v>
       </c>
-      <c r="S16" s="117">
+      <c r="S17" s="117">
         <f t="shared" si="4"/>
         <v>-2.0693587896702947E-3</v>
       </c>
-      <c r="T16" s="115">
+      <c r="T17" s="115">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="U16" s="117">
-        <f>((N16/$N$43)-1)/T16*30</f>
+      <c r="U17" s="117">
+        <f>((N17/$N$44)-1)/T17*30</f>
         <v>-1.379572526446863E-3</v>
-      </c>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB16">
-        <v>10</v>
-      </c>
-      <c r="AC16" s="116">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
-      <c r="A17" s="118">
-        <v>45406</v>
-      </c>
-      <c r="B17">
-        <f>B50</f>
-        <v>1110</v>
-      </c>
-      <c r="C17">
-        <v>31.928699999999999</v>
-      </c>
-      <c r="D17">
-        <f>D50</f>
-        <v>321.99</v>
-      </c>
-      <c r="E17">
-        <v>33.972000000000001</v>
-      </c>
-      <c r="F17" s="113">
-        <v>156</v>
-      </c>
-      <c r="G17">
-        <v>2380.13</v>
-      </c>
-      <c r="L17">
-        <f>L50</f>
-        <v>125000</v>
-      </c>
-      <c r="M17">
-        <v>0.88805999999999996</v>
-      </c>
-      <c r="N17" s="114">
-        <f t="shared" si="0"/>
-        <v>528687.28128</v>
-      </c>
-      <c r="O17">
-        <v>166.96</v>
-      </c>
-      <c r="P17">
-        <v>267307.03000000003</v>
-      </c>
-      <c r="Q17" s="116">
-        <v>9722.09</v>
-      </c>
-      <c r="R17" s="128">
-        <f t="shared" si="1"/>
-        <v>7.927307811386175E-3</v>
-      </c>
-      <c r="S17" s="117">
-        <f t="shared" si="4"/>
-        <v>-3.3134128688740994E-3</v>
-      </c>
-      <c r="T17" s="115">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="U17" s="117">
-        <f>((N17/$N$43)-1)/T17*30</f>
-        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V17" s="117"/>
       <c r="W17" s="117"/>
-      <c r="X17" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y17" s="132">
-        <v>37.39</v>
-      </c>
-      <c r="Z17" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA17" s="132">
-        <v>30.5</v>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="131" t="s">
+        <v>70</v>
       </c>
       <c r="AB17">
         <v>10</v>
@@ -6450,17 +6458,17 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="118">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="B18">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C18">
         <v>31.928699999999999</v>
       </c>
       <c r="D18">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E18">
@@ -6473,7 +6481,7 @@
         <v>2380.13</v>
       </c>
       <c r="L18">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M18">
@@ -6490,11 +6498,11 @@
         <v>267307.03000000003</v>
       </c>
       <c r="Q18" s="116">
-        <v>9645.02</v>
+        <v>9722.09</v>
       </c>
       <c r="R18" s="128">
         <f t="shared" si="1"/>
-        <v>-5.0222809283961833E-3</v>
+        <v>7.927307811386175E-3</v>
       </c>
       <c r="S18" s="117">
         <f t="shared" si="4"/>
@@ -6502,326 +6510,334 @@
       </c>
       <c r="T18" s="115">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U18" s="117">
-        <f>((N18/$N$43)-1)/T18*30</f>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N18/$N$44)-1)/T18*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V18" s="117"/>
       <c r="W18" s="117"/>
-      <c r="X18" s="113"/>
-      <c r="Y18" s="117" t="e">
+      <c r="X18" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y18" s="132">
+        <v>37.39</v>
+      </c>
+      <c r="Z18" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA18" s="132">
+        <v>30.5</v>
+      </c>
+      <c r="AB18">
+        <v>10</v>
+      </c>
+      <c r="AC18" s="116">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" s="118">
+        <v>45404</v>
+      </c>
+      <c r="B19">
+        <f>B51</f>
+        <v>1110</v>
+      </c>
+      <c r="C19">
+        <v>31.928699999999999</v>
+      </c>
+      <c r="D19">
+        <f>D51</f>
+        <v>321.99</v>
+      </c>
+      <c r="E19">
+        <v>33.972000000000001</v>
+      </c>
+      <c r="F19" s="113">
+        <v>156</v>
+      </c>
+      <c r="G19">
+        <v>2380.13</v>
+      </c>
+      <c r="L19">
+        <f>L51</f>
+        <v>125000</v>
+      </c>
+      <c r="M19">
+        <v>0.88805999999999996</v>
+      </c>
+      <c r="N19" s="114">
+        <f t="shared" si="0"/>
+        <v>528687.28128</v>
+      </c>
+      <c r="O19">
+        <v>166.96</v>
+      </c>
+      <c r="P19">
+        <v>267307.03000000003</v>
+      </c>
+      <c r="Q19" s="116">
+        <v>9645.02</v>
+      </c>
+      <c r="R19" s="128">
+        <f t="shared" si="1"/>
+        <v>-5.0222809283961833E-3</v>
+      </c>
+      <c r="S19" s="117">
+        <f t="shared" si="4"/>
+        <v>-3.3134128688740994E-3</v>
+      </c>
+      <c r="T19" s="115">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="U19" s="117">
+        <f>((N19/$N$44)-1)/T19*30</f>
+        <v>-2.3667234777672141E-3</v>
+      </c>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="117" t="e">
         <f>Sayfa2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="117" t="e">
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="117" t="e">
         <f>Sayfa2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB18" s="113">
+      <c r="AB19" s="113">
         <v>10</v>
       </c>
-      <c r="AC18" s="129">
+      <c r="AC19" s="129">
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
-      <c r="A19" s="118">
+    <row r="20" spans="1:29">
+      <c r="A20" s="118">
         <v>45401</v>
       </c>
-      <c r="B19">
-        <f>B50</f>
+      <c r="B20">
+        <f>B51</f>
         <v>1110</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>31.803999999999998</v>
       </c>
-      <c r="D19">
-        <f>D50</f>
+      <c r="D20">
+        <f>D51</f>
         <v>321.99</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>33.928400000000003</v>
       </c>
-      <c r="F19" s="113">
+      <c r="F20" s="113">
         <v>156</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>2427.62</v>
       </c>
-      <c r="L19">
-        <f>L50</f>
+      <c r="L20">
+        <f>L51</f>
         <v>125000</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>0.87351800000000002</v>
       </c>
-      <c r="N19" s="114">
+      <c r="N20" s="114">
         <f t="shared" si="0"/>
         <v>534125.51551599998</v>
       </c>
-      <c r="O19">
+      <c r="O20">
         <v>170.57</v>
       </c>
-      <c r="P19">
+      <c r="P20">
         <v>272736.27</v>
       </c>
-      <c r="Q19" s="116">
+      <c r="Q20" s="116">
         <v>9693.4599999999991</v>
       </c>
-      <c r="R19" s="128">
+      <c r="R20" s="128">
         <f t="shared" si="1"/>
         <v>1.4091975414350921E-3</v>
       </c>
-      <c r="S19" s="117">
+      <c r="S20" s="117">
         <f t="shared" si="4"/>
         <v>6.9388010818296486E-3</v>
       </c>
-      <c r="T19" s="115">
+      <c r="T20" s="115">
         <f t="shared" si="5"/>
         <v>39</v>
       </c>
-      <c r="U19" s="117">
-        <f>((N19/$N$43)-1)/T19*30</f>
+      <c r="U20" s="117">
+        <f>((N20/$N$44)-1)/T20*30</f>
         <v>5.3375392937151144E-3</v>
       </c>
-      <c r="V19" s="117"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="113" t="s">
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="Y19" s="116">
-        <f>Y17*X14</f>
+      <c r="Y20" s="116">
+        <f>Y18*X15</f>
         <v>1308.6500000000001</v>
       </c>
-      <c r="Z19" s="113" t="s">
+      <c r="Z20" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="AA19" s="116">
-        <f>AA17*Z14</f>
+      <c r="AA20" s="116">
+        <f>AA18*Z15</f>
         <v>1220</v>
       </c>
-      <c r="AB19" s="113" t="s">
+      <c r="AB20" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="AC19" s="130" t="s">
+      <c r="AC20" s="130" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
-      <c r="A20" s="118">
+    <row r="21" spans="1:29">
+      <c r="A21" s="118">
         <v>45397</v>
       </c>
-      <c r="B20">
-        <f>B50</f>
+      <c r="B21">
+        <f>B51</f>
         <v>1110</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>31.863399999999999</v>
       </c>
-      <c r="D20">
-        <f>D50</f>
+      <c r="D21">
+        <f>D51</f>
         <v>321.99</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>33.963099999999997</v>
       </c>
-      <c r="F20" s="113">
+      <c r="F21" s="113">
         <v>156</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>2387.5100000000002</v>
       </c>
-      <c r="L20">
-        <f>L50</f>
+      <c r="L21">
+        <f>L51</f>
         <v>125000</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>0.89791399999999999</v>
       </c>
-      <c r="N20" s="114">
-        <f t="shared" ref="N14:N55" si="6">(F20*G20)+(B20*C20)+(D20*E20)+(L20*M20)+(H20*I20)</f>
+      <c r="N21" s="114">
+        <f t="shared" ref="N21:N56" si="6">(F21*G21)+(B21*C21)+(D21*E21)+(L21*M21)+(H21*I21)</f>
         <v>530994.96256900008</v>
       </c>
-      <c r="O20">
+      <c r="O21">
         <v>169.14</v>
       </c>
-      <c r="P20">
+      <c r="P21">
         <v>269604.92</v>
       </c>
-      <c r="Q20" s="116">
+      <c r="Q21" s="116">
         <v>9679.7999999999993</v>
       </c>
-      <c r="R20" s="128">
+      <c r="R21" s="128">
         <f t="shared" si="1"/>
         <v>-1.3880452075456073E-2</v>
       </c>
-      <c r="S20" s="117">
+      <c r="S21" s="117">
         <f t="shared" si="4"/>
         <v>1.0370511380362046E-3</v>
       </c>
-      <c r="T20" s="115">
+      <c r="T21" s="115">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="U20" s="117">
-        <f>((N20/$N$43)-1)/T20*30</f>
+      <c r="U21" s="117">
+        <f>((N21/$N$44)-1)/T21*30</f>
         <v>8.8890097545960402E-4</v>
       </c>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="133" t="s">
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="Y20" s="133">
-        <f>(X14*Y5)-(X14*Y17)</f>
-        <v>-53.550000000000182</v>
-      </c>
-      <c r="Z20" s="133" t="s">
+      <c r="Y21" s="133">
+        <f>(X15*Y5)-(X15*Y18)</f>
+        <v>-90.650000000000091</v>
+      </c>
+      <c r="Z21" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="AA20" s="133">
-        <f>(Z14*AA5)-(Z14*AA17)</f>
-        <v>-12</v>
-      </c>
-      <c r="AC20" s="131" t="s">
+      <c r="AA21" s="133">
+        <f>(Z15*AA5)-(Z15*AA18)</f>
+        <v>-79.200000000000045</v>
+      </c>
+      <c r="AC21" s="131" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
-      <c r="A21" s="118">
+    <row r="22" spans="1:29">
+      <c r="A22" s="118">
         <v>45391</v>
       </c>
-      <c r="B21">
-        <f>B50</f>
+      <c r="B22">
+        <f>B51</f>
         <v>1110</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>31.412299999999998</v>
       </c>
-      <c r="D21">
-        <f>D50</f>
+      <c r="D22">
+        <f>D51</f>
         <v>321.99</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>34.091799999999999</v>
       </c>
-      <c r="F21" s="113">
+      <c r="F22" s="113">
         <v>156</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>2352.21</v>
       </c>
-      <c r="L21">
-        <f>L50</f>
+      <c r="L22">
+        <f>L51</f>
         <v>125000</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>0.89529800000000004</v>
       </c>
-      <c r="N21" s="114">
+      <c r="N22" s="114">
         <f t="shared" si="6"/>
         <v>524701.88168200001</v>
       </c>
-      <c r="O21">
+      <c r="O22">
         <v>165.81</v>
       </c>
-      <c r="P21">
+      <c r="P22">
         <v>263308.84999999998</v>
       </c>
-      <c r="Q21" s="116">
+      <c r="Q22" s="116">
         <v>9814.16</v>
       </c>
-      <c r="R21" s="128">
+      <c r="R22" s="128">
         <f t="shared" si="1"/>
         <v>5.8558246452063978E-3</v>
       </c>
-      <c r="S21" s="117">
+      <c r="S22" s="117">
         <f t="shared" si="4"/>
         <v>-1.0826728328378388E-2</v>
       </c>
-      <c r="T21" s="115">
+      <c r="T22" s="115">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="U21" s="117">
-        <f>((N21/$N$43)-1)/T21*30</f>
+      <c r="U22" s="117">
+        <f>((N22/$N$44)-1)/T22*30</f>
         <v>-1.1200063787977641E-2</v>
-      </c>
-      <c r="V21" s="117"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="117"/>
-      <c r="Y21" s="117"/>
-      <c r="Z21" s="117"/>
-      <c r="AA21" s="117"/>
-      <c r="AB21" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC21" s="132">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
-      <c r="A22" s="118">
-        <v>45390</v>
-      </c>
-      <c r="B22">
-        <f>B50</f>
-        <v>1110</v>
-      </c>
-      <c r="C22">
-        <v>31.5198</v>
-      </c>
-      <c r="D22">
-        <f>D50</f>
-        <v>321.99</v>
-      </c>
-      <c r="E22">
-        <v>34.154899999999998</v>
-      </c>
-      <c r="F22" s="113">
-        <v>156</v>
-      </c>
-      <c r="G22">
-        <v>2344.37</v>
-      </c>
-      <c r="L22">
-        <f>L50</f>
-        <v>125000</v>
-      </c>
-      <c r="M22">
-        <v>0.818581</v>
-      </c>
-      <c r="N22" s="114">
-        <f t="shared" si="6"/>
-        <v>514028.85925099999</v>
-      </c>
-      <c r="O22">
-        <v>159.19</v>
-      </c>
-      <c r="P22">
-        <v>252634.37</v>
-      </c>
-      <c r="Q22" s="116">
-        <v>9756.69</v>
-      </c>
-      <c r="R22" s="128">
-        <f t="shared" si="1"/>
-        <v>1.4129791968382821E-2</v>
-      </c>
-      <c r="S22" s="117">
-        <f t="shared" si="4"/>
-        <v>-3.0947617704367603E-2</v>
-      </c>
-      <c r="T22" s="115">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="U22" s="117">
-        <f>((N22/$N$43)-1)/T22*30</f>
-        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V22" s="117"/>
       <c r="W22" s="117"/>
@@ -6829,70 +6845,72 @@
       <c r="Y22" s="117"/>
       <c r="Z22" s="117"/>
       <c r="AA22" s="117"/>
-      <c r="AC22" s="117">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
+      <c r="AB22" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC22" s="132">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="118">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B23">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.407</v>
+        <v>31.5198</v>
       </c>
       <c r="D23">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>34.038899999999998</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F23" s="113">
         <v>156</v>
       </c>
       <c r="G23">
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="L23">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.82424600000000003</v>
+        <v>0.818581</v>
       </c>
       <c r="N23" s="114">
         <f t="shared" si="6"/>
-        <v>505978.825411</v>
+        <v>514028.85925099999</v>
       </c>
       <c r="O23">
-        <v>154.41</v>
+        <v>159.19</v>
       </c>
       <c r="P23">
-        <v>244587.02</v>
+        <v>252634.37</v>
       </c>
       <c r="Q23" s="116">
-        <v>9618.83</v>
+        <v>9756.69</v>
       </c>
       <c r="R23" s="128">
-        <f t="shared" ref="R23:R54" si="7">(1-(Q24/Q23))</f>
-        <v>5.0921993631241946E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4129791968382821E-2</v>
       </c>
       <c r="S23" s="117">
         <f t="shared" si="4"/>
-        <v>-4.6123622572225242E-2</v>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T23" s="115">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U23" s="117">
-        <f>((N23/$N$43)-1)/T23*30</f>
-        <v>-5.5348347086670288E-2</v>
+        <f>((N23/$N$44)-1)/T23*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V23" s="117"/>
       <c r="W23" s="117"/>
@@ -6900,73 +6918,70 @@
       <c r="Y23" s="117"/>
       <c r="Z23" s="117"/>
       <c r="AA23" s="117"/>
-      <c r="AB23" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC23" s="116">
-        <f>AC21*AB18</f>
-        <v>1350</v>
+      <c r="AC23" s="117">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="118">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B24">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D24">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F24" s="113">
         <v>156</v>
       </c>
       <c r="G24">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L24">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M24">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N24" s="114">
         <f t="shared" si="6"/>
-        <v>507101.83066900005</v>
+        <v>505978.825411</v>
       </c>
       <c r="O24">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="P24">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="Q24" s="116">
-        <v>9129.02</v>
+        <v>9618.83</v>
       </c>
       <c r="R24" s="128">
-        <f t="shared" si="7"/>
-        <v>2.0070062284889389E-2</v>
+        <f t="shared" ref="R24:R55" si="7">(1-(Q25/Q24))</f>
+        <v>5.0921993631241946E-2</v>
       </c>
       <c r="S24" s="117">
         <f t="shared" si="4"/>
-        <v>-4.4006521749946126E-2</v>
+        <v>-4.6123622572225242E-2</v>
       </c>
       <c r="T24" s="115">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U24" s="117">
-        <f>((N24/$N$43)-1)/T24*30</f>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N24/$N$44)-1)/T24*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V24" s="117"/>
       <c r="W24" s="117"/>
@@ -6974,27 +6989,27 @@
       <c r="Y24" s="117"/>
       <c r="Z24" s="117"/>
       <c r="AA24" s="117"/>
-      <c r="AB24" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC24" s="133">
-        <f>(AB10*AC5)-(AB10*AC21)</f>
-        <v>-149</v>
+      <c r="AB24" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC24" s="116">
+        <f>AC22*AB19</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="118">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B25">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C25">
         <v>31.399799999999999</v>
       </c>
       <c r="D25">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E25">
@@ -7007,7 +7022,7 @@
         <v>2292.5700000000002</v>
       </c>
       <c r="L25">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M25">
@@ -7024,11 +7039,11 @@
         <v>245709.7</v>
       </c>
       <c r="Q25" s="116">
-        <v>8945.7999999999993</v>
+        <v>9129.02</v>
       </c>
       <c r="R25" s="128">
         <f t="shared" si="7"/>
-        <v>-1.0627333497283731E-2</v>
+        <v>2.0070062284889389E-2</v>
       </c>
       <c r="S25" s="117">
         <f t="shared" si="4"/>
@@ -7036,11 +7051,11 @@
       </c>
       <c r="T25" s="115">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U25" s="117">
-        <f>((N25/$N$43)-1)/T25*30</f>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N25/$N$44)-1)/T25*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V25" s="117"/>
       <c r="W25" s="117"/>
@@ -7048,68 +7063,73 @@
       <c r="Y25" s="117"/>
       <c r="Z25" s="117"/>
       <c r="AA25" s="117"/>
-      <c r="AB25" s="134"/>
-      <c r="AC25" s="135"/>
+      <c r="AB25" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC25" s="133">
+        <f>(AB10*AC5)-(AB10*AC22)</f>
+        <v>-115</v>
+      </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="118">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B26">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D26">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F26" s="113">
         <v>156</v>
       </c>
       <c r="G26">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L26">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M26">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N26" s="114">
         <f t="shared" si="6"/>
-        <v>509777.60801200004</v>
+        <v>507101.83066900005</v>
       </c>
       <c r="O26">
-        <v>157.11000000000001</v>
+        <v>155.22</v>
       </c>
       <c r="P26">
-        <v>248387.66</v>
+        <v>245709.7</v>
       </c>
       <c r="Q26" s="116">
-        <v>9040.8700000000008</v>
+        <v>8945.7999999999993</v>
       </c>
       <c r="R26" s="128">
         <f t="shared" si="7"/>
-        <v>-1.2904731513670775E-2</v>
+        <v>-1.0627333497283731E-2</v>
       </c>
       <c r="S26" s="117">
         <f t="shared" si="4"/>
-        <v>-3.8962119354903346E-2</v>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T26" s="115">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U26" s="117">
-        <f>((N26/$N$43)-1)/T26*30</f>
-        <v>-5.3130162756686382E-2</v>
+        <f>((N26/$N$44)-1)/T26*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V26" s="117"/>
       <c r="W26" s="117"/>
@@ -7122,63 +7142,63 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="118">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="B27">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D27">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F27" s="113">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G27">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L27">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M27">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N27" s="114">
         <f t="shared" si="6"/>
-        <v>528238.93988600001</v>
+        <v>509777.60801200004</v>
       </c>
       <c r="O27">
-        <v>161.66</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="P27">
-        <v>255424.81</v>
+        <v>248387.66</v>
       </c>
       <c r="Q27" s="116">
-        <v>9157.5400000000009</v>
+        <v>9040.8700000000008</v>
       </c>
       <c r="R27" s="128">
         <f t="shared" si="7"/>
-        <v>1.6532824317448958E-3</v>
+        <v>-1.2904731513670775E-2</v>
       </c>
       <c r="S27" s="117">
         <f t="shared" si="4"/>
-        <v>-4.1586305801334378E-3</v>
+        <v>-3.8962119354903346E-2</v>
       </c>
       <c r="T27" s="115">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U27" s="117">
-        <f>((N27/$N$43)-1)/T27*30</f>
-        <v>-5.9409008287620545E-3</v>
+        <f>((N27/$N$44)-1)/T27*30</f>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V27" s="117"/>
       <c r="W27" s="117"/>
@@ -7191,17 +7211,17 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="118">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B28">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C28">
         <v>31.879300000000001</v>
       </c>
       <c r="D28">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E28">
@@ -7214,7 +7234,7 @@
         <v>2308.4299999999998</v>
       </c>
       <c r="L28">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M28">
@@ -7231,11 +7251,11 @@
         <v>255424.81</v>
       </c>
       <c r="Q28" s="116">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="R28" s="128">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.6532824317448958E-3</v>
       </c>
       <c r="S28" s="117">
         <f t="shared" si="4"/>
@@ -7243,11 +7263,11 @@
       </c>
       <c r="T28" s="115">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U28" s="117">
-        <f>((N28/$N$43)-1)/T28*30</f>
-        <v>-6.5662588107370072E-3</v>
+        <f>((N28/$N$44)-1)/T28*30</f>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V28" s="117"/>
       <c r="W28" s="117"/>
@@ -7260,63 +7280,63 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="118">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="B29">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C29">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D29">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E29">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F29" s="113">
         <v>161</v>
       </c>
       <c r="G29">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L29">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M29">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N29" s="114">
         <f t="shared" si="6"/>
-        <v>518957.34710100002</v>
+        <v>528238.93988600001</v>
       </c>
       <c r="O29">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="P29">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="Q29" s="116">
         <v>9142.4</v>
       </c>
       <c r="R29" s="128">
         <f t="shared" si="7"/>
-        <v>6.8286226811340445E-3</v>
+        <v>0</v>
       </c>
       <c r="S29" s="117">
         <f t="shared" si="4"/>
-        <v>-2.165638277425741E-2</v>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T29" s="115">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U29" s="117">
-        <f>((N29/$N$43)-1)/T29*30</f>
-        <v>-3.6093971290429017E-2</v>
+        <f>((N29/$N$44)-1)/T29*30</f>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V29" s="117"/>
       <c r="W29" s="117"/>
@@ -7329,63 +7349,63 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="118">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="B30">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>31.870699999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D30">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>34.480800000000002</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F30" s="113">
         <v>161</v>
       </c>
       <c r="G30">
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L30">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M30">
-        <v>0.86473199999999995</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N30" s="114">
         <f t="shared" si="6"/>
-        <v>515224.93979200005</v>
+        <v>518957.34710100002</v>
       </c>
       <c r="O30">
-        <v>153.81</v>
+        <v>156.08000000000001</v>
       </c>
       <c r="P30">
-        <v>242408.74</v>
+        <v>246143.72</v>
       </c>
       <c r="Q30" s="116">
-        <v>9079.9699999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R30" s="128">
         <f t="shared" si="7"/>
-        <v>3.0093711763364839E-2</v>
+        <v>6.8286226811340445E-3</v>
       </c>
       <c r="S30" s="117">
         <f t="shared" si="4"/>
-        <v>-2.8692754622628547E-2</v>
+        <v>-2.165638277425741E-2</v>
       </c>
       <c r="T30" s="115">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U30" s="117">
-        <f>((N30/$N$43)-1)/T30*30</f>
-        <v>-5.0634272863462143E-2</v>
+        <f>((N30/$N$44)-1)/T30*30</f>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V30" s="117"/>
       <c r="W30" s="117"/>
@@ -7398,63 +7418,63 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="118">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B31">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>31.821999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D31">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>34.5045</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F31" s="113">
         <v>161</v>
       </c>
       <c r="G31">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L31">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.85899999999999999</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N31" s="114">
         <f t="shared" si="6"/>
-        <v>512394.77395499998</v>
+        <v>515224.93979200005</v>
       </c>
       <c r="O31">
-        <v>154.24</v>
+        <v>153.81</v>
       </c>
       <c r="P31">
-        <v>242616.68</v>
+        <v>242408.74</v>
       </c>
       <c r="Q31" s="116">
-        <v>8806.7199999999993</v>
+        <v>9079.9699999999993</v>
       </c>
       <c r="R31" s="128">
         <f t="shared" si="7"/>
-        <v>-7.4942770974972817E-5</v>
+        <v>3.0093711763364839E-2</v>
       </c>
       <c r="S31" s="117">
         <f t="shared" si="4"/>
-        <v>-3.4028211761422011E-2</v>
+        <v>-2.8692754622628547E-2</v>
       </c>
       <c r="T31" s="115">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U31" s="117">
-        <f>((N31/$N$43)-1)/T31*30</f>
-        <v>-6.3802897052666271E-2</v>
+        <f>((N31/$N$44)-1)/T31*30</f>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V31" s="117"/>
       <c r="W31" s="117"/>
@@ -7467,21 +7487,21 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="118">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B32">
         <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C32">
-        <v>31.530999999999999</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D32">
         <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E32">
-        <v>34.125900000000001</v>
+        <v>34.5045</v>
       </c>
       <c r="F32" s="113">
         <v>161</v>
@@ -7494,11 +7514,11 @@
         <v>125000</v>
       </c>
       <c r="M32">
-        <v>0.890316</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N32" s="114">
         <f t="shared" si="6"/>
-        <v>515864.35854099999</v>
+        <v>512394.77395499998</v>
       </c>
       <c r="O32">
         <v>154.24</v>
@@ -7507,23 +7527,23 @@
         <v>242616.68</v>
       </c>
       <c r="Q32" s="116">
-        <v>8807.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="R32" s="128">
         <f t="shared" si="7"/>
-        <v>-2.5206133946758191E-2</v>
+        <v>-7.4942770974972817E-5</v>
       </c>
       <c r="S32" s="117">
         <f t="shared" si="4"/>
-        <v>-2.7487315957364089E-2</v>
+        <v>-3.4028211761422011E-2</v>
       </c>
       <c r="T32" s="115">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U32" s="117">
-        <f>((N32/$N$43)-1)/T32*30</f>
-        <v>-5.4974631914728178E-2</v>
+        <f>((N32/$N$44)-1)/T32*30</f>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V32" s="117"/>
       <c r="W32" s="117"/>
@@ -7536,63 +7556,63 @@
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="118">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B33">
-        <f>B50</f>
+        <f>B52</f>
         <v>1110</v>
       </c>
       <c r="C33">
-        <v>31.786200000000001</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D33">
-        <f>D50</f>
+        <f>D52</f>
         <v>321.99</v>
       </c>
       <c r="E33">
-        <v>34.386299999999999</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F33" s="113">
         <v>161</v>
       </c>
       <c r="G33">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L33">
-        <f>L50</f>
+        <f>L52</f>
         <v>125000</v>
       </c>
       <c r="M33">
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="N33" s="114">
         <f t="shared" si="6"/>
-        <v>517720.01173699996</v>
+        <v>515864.35854099999</v>
       </c>
       <c r="O33">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="P33">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="Q33" s="116">
-        <v>9029.3799999999992</v>
+        <v>8807.3799999999992</v>
       </c>
       <c r="R33" s="128">
         <f t="shared" si="7"/>
-        <v>-9.0947551216142841E-3</v>
+        <v>-2.5206133946758191E-2</v>
       </c>
       <c r="S33" s="117">
         <f t="shared" si="4"/>
-        <v>-2.3989019863797534E-2</v>
+        <v>-2.7487315957364089E-2</v>
       </c>
       <c r="T33" s="115">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U33" s="117">
-        <f>((N33/$N$43)-1)/T33*30</f>
-        <v>-5.1405042565280425E-2</v>
+        <f>((N33/$N$44)-1)/T33*30</f>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V33" s="117"/>
       <c r="W33" s="117"/>
@@ -7605,63 +7625,63 @@
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="118">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B34">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C34">
-        <v>31.710699999999999</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D34">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E34">
-        <v>34.336300000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F34" s="113">
         <v>161</v>
       </c>
       <c r="G34">
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="L34">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M34">
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N34" s="114">
         <f t="shared" si="6"/>
-        <v>518732.15723700001</v>
+        <v>517720.01173699996</v>
       </c>
       <c r="O34">
-        <v>156.63999999999999</v>
+        <v>155.99</v>
       </c>
       <c r="P34">
-        <v>245919.31</v>
-      </c>
-      <c r="Q34">
-        <v>9111.5</v>
+        <v>244906</v>
+      </c>
+      <c r="Q34" s="116">
+        <v>9029.3799999999992</v>
       </c>
       <c r="R34" s="128">
         <f t="shared" si="7"/>
-        <v>-3.2047412610438641E-3</v>
+        <v>-9.0947551216142841E-3</v>
       </c>
       <c r="S34" s="117">
         <f t="shared" si="4"/>
-        <v>-2.2080912973779676E-2</v>
+        <v>-2.3989019863797534E-2</v>
       </c>
       <c r="T34" s="115">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U34" s="117">
-        <f>((N34/$N$43)-1)/T34*30</f>
-        <v>-6.0220671746671839E-2</v>
+        <f>((N34/$N$44)-1)/T34*30</f>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V34" s="117"/>
       <c r="W34" s="117"/>
@@ -7674,63 +7694,63 @@
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="118">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B35">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C35">
-        <v>32.063899999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D35">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E35">
-        <v>35.065100000000001</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F35" s="113">
         <v>161</v>
       </c>
       <c r="G35">
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="L35">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M35">
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N35" s="114">
         <f t="shared" si="6"/>
-        <v>529674.87554899999</v>
+        <v>518732.15723700001</v>
       </c>
       <c r="O35">
-        <v>163.91</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="P35">
-        <v>256845.12</v>
-      </c>
-      <c r="Q35" s="116">
-        <v>9140.7000000000007</v>
+        <v>245919.31</v>
+      </c>
+      <c r="Q35">
+        <v>9111.5</v>
       </c>
       <c r="R35" s="128">
         <f t="shared" si="7"/>
-        <v>2.0302602645311585E-2</v>
+        <v>-3.2047412610438641E-3</v>
       </c>
       <c r="S35" s="117">
         <f t="shared" si="4"/>
-        <v>-1.4515902067954167E-3</v>
+        <v>-2.2080912973779676E-2</v>
       </c>
       <c r="T35" s="115">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U35" s="117">
-        <f>((N35/$N$43)-1)/T35*30</f>
-        <v>-4.3547706203862502E-3</v>
+        <f>((N35/$N$44)-1)/T35*30</f>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V35" s="117"/>
       <c r="W35" s="117"/>
@@ -7743,63 +7763,63 @@
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="118">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B36">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C36">
-        <v>32.028799999999997</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D36">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E36">
-        <v>34.808799999999998</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F36" s="113">
         <v>161</v>
       </c>
       <c r="G36">
-        <v>2220.92</v>
+        <v>2267.61</v>
       </c>
       <c r="L36">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M36">
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N36" s="114">
         <f t="shared" si="6"/>
-        <v>521166.42351200001</v>
+        <v>529674.87554899999</v>
       </c>
       <c r="O36">
-        <v>158.47999999999999</v>
+        <v>163.91</v>
       </c>
       <c r="P36">
-        <v>248342.62</v>
+        <v>256845.12</v>
       </c>
       <c r="Q36" s="116">
-        <v>8955.1200000000008</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="R36" s="128">
         <f t="shared" si="7"/>
-        <v>2.8184993612594411E-3</v>
+        <v>2.0302602645311585E-2</v>
       </c>
       <c r="S36" s="117">
         <f t="shared" si="4"/>
-        <v>-1.7491809676412506E-2</v>
+        <v>-1.4515902067954167E-3</v>
       </c>
       <c r="T36" s="115">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U36" s="117">
-        <f>((N36/$N$43)-1)/T36*30</f>
-        <v>-5.8306032254708352E-2</v>
+        <f>((N36/$N$44)-1)/T36*30</f>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V36" s="117"/>
       <c r="W36" s="117"/>
@@ -7812,63 +7832,63 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="118">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B37">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C37">
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D37">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E37">
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F37" s="113">
         <v>161</v>
       </c>
       <c r="G37">
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="L37">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M37">
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N37" s="114">
         <f t="shared" si="6"/>
-        <v>516626.64020899998</v>
+        <v>521166.42351200001</v>
       </c>
       <c r="O37">
-        <v>155.59</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="P37">
-        <v>243803.06</v>
+        <v>248342.62</v>
       </c>
       <c r="Q37" s="116">
-        <v>8929.8799999999992</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="R37" s="128">
         <f t="shared" si="7"/>
-        <v>2.3714764364134666E-2</v>
+        <v>2.8184993612594411E-3</v>
       </c>
       <c r="S37" s="117">
         <f t="shared" si="4"/>
-        <v>-2.6050254879836254E-2</v>
+        <v>-1.7491809676412506E-2</v>
       </c>
       <c r="T37" s="115">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U37" s="117">
-        <f>((N37/$N$43)-1)/T37*30</f>
-        <v>-9.7688455799385954E-2</v>
+        <f>((N37/$N$44)-1)/T37*30</f>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V37" s="117"/>
       <c r="W37" s="117"/>
@@ -7878,72 +7898,66 @@
       <c r="AA37" s="117"/>
       <c r="AB37" s="134"/>
       <c r="AC37" s="135"/>
-      <c r="AL37">
-        <v>68</v>
-      </c>
-      <c r="AM37">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="118">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B38">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C38">
-        <v>31.9499</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D38">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E38">
-        <v>34.8125</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F38" s="113">
         <v>161</v>
       </c>
       <c r="G38">
-        <v>2212.35</v>
+        <v>2219.02</v>
       </c>
       <c r="L38">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M38">
-        <v>0.93887900000000002</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N38" s="114">
         <f t="shared" si="6"/>
-        <v>520221.89087499998</v>
+        <v>516626.64020899998</v>
       </c>
       <c r="O38">
-        <v>155.44</v>
+        <v>155.59</v>
       </c>
       <c r="P38">
-        <v>247623.17</v>
+        <v>243803.06</v>
       </c>
       <c r="Q38" s="116">
-        <v>8718.11</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="R38" s="128">
         <f t="shared" si="7"/>
-        <v>-1.2685088855267868E-2</v>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="S38" s="117">
         <f t="shared" si="4"/>
-        <v>-1.9272452116166794E-2</v>
+        <v>-2.6050254879836254E-2</v>
       </c>
       <c r="T38" s="115">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U38" s="117">
-        <f>((N38/$N$43)-1)/T38*30</f>
-        <v>-8.2596223355000553E-2</v>
+        <f>((N38/$N$44)-1)/T38*30</f>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V38" s="117"/>
       <c r="W38" s="117"/>
@@ -7957,68 +7971,68 @@
         <v>68</v>
       </c>
       <c r="AM38">
-        <v>22.96</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="118">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B39">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C39">
-        <v>31.796299999999999</v>
+        <v>31.9499</v>
       </c>
       <c r="D39">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E39">
-        <v>34.619700000000002</v>
+        <v>34.8125</v>
       </c>
       <c r="F39" s="113">
         <v>161</v>
       </c>
       <c r="G39">
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="L39">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M39">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N39" s="114">
         <f t="shared" si="6"/>
-        <v>521369.280203</v>
+        <v>520221.89087499998</v>
       </c>
       <c r="O39">
-        <v>156.13</v>
+        <v>155.44</v>
       </c>
       <c r="P39">
-        <v>248712.47</v>
+        <v>247623.17</v>
       </c>
       <c r="Q39" s="116">
-        <v>8828.7000000000007</v>
+        <v>8718.11</v>
       </c>
       <c r="R39" s="128">
         <f t="shared" si="7"/>
-        <v>-6.2092946866469934E-3</v>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="S39" s="117">
         <f t="shared" si="4"/>
-        <v>-1.7109382199549383E-2</v>
+        <v>-1.9272452116166794E-2</v>
       </c>
       <c r="T39" s="115">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U39" s="117">
-        <f>((N39/$N$43)-1)/T39*30</f>
-        <v>-0.12832036649662037</v>
+        <f>((N39/$N$44)-1)/T39*30</f>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V39" s="117"/>
       <c r="W39" s="117"/>
@@ -8032,68 +8046,68 @@
         <v>68</v>
       </c>
       <c r="AM39">
-        <v>22.04</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="118">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B40">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D40">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F40" s="113">
         <v>161</v>
       </c>
       <c r="G40">
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="L40">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N40" s="114">
         <f t="shared" si="6"/>
-        <v>523223.75937500002</v>
+        <v>521369.280203</v>
       </c>
       <c r="O40">
-        <v>157.21</v>
+        <v>156.13</v>
       </c>
       <c r="P40">
-        <v>250427.64</v>
+        <v>248712.47</v>
       </c>
       <c r="Q40" s="116">
-        <v>8883.52</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="R40" s="128">
         <f t="shared" si="7"/>
-        <v>-3.0066910413888426E-3</v>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="S40" s="117">
         <f t="shared" si="4"/>
-        <v>-1.3613299387851274E-2</v>
+        <v>-1.7109382199549383E-2</v>
       </c>
       <c r="T40" s="115">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U40" s="117">
-        <f>((N40/$N$43)-1)/T40*30</f>
-        <v>-0.13613299387851274</v>
+        <f>((N40/$N$44)-1)/T40*30</f>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V40" s="117"/>
       <c r="W40" s="117"/>
@@ -8107,68 +8121,68 @@
         <v>68</v>
       </c>
       <c r="AM40">
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="A41" s="118">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B41">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>32</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D41">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>35</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F41" s="113">
         <v>161</v>
       </c>
       <c r="G41">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L41">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.957233</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N41" s="114">
         <f t="shared" si="6"/>
-        <v>523915.29500000004</v>
+        <v>523223.75937500002</v>
       </c>
       <c r="O41">
-        <v>160.79</v>
+        <v>157.21</v>
       </c>
       <c r="P41">
-        <v>250989.9</v>
+        <v>250427.64</v>
       </c>
       <c r="Q41" s="116">
-        <v>8910.23</v>
+        <v>8883.52</v>
       </c>
       <c r="R41" s="128">
         <f t="shared" si="7"/>
-        <v>-1.7822211098927898E-2</v>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="S41" s="117">
         <f t="shared" si="4"/>
-        <v>-1.2309609463077242E-2</v>
+        <v>-1.3613299387851274E-2</v>
       </c>
       <c r="T41" s="115">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U41" s="117">
-        <f>((N41/$N$43)-1)/T41*30</f>
-        <v>-0.18464414194615864</v>
+        <f>((N41/$N$44)-1)/T41*30</f>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V41" s="117"/>
       <c r="W41" s="117"/>
@@ -8182,26 +8196,26 @@
         <v>68</v>
       </c>
       <c r="AM41">
-        <v>18.22</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="118">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B42">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C42">
-        <v>31.516400000000001</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E42">
-        <v>34.463200000000001</v>
+        <v>35</v>
       </c>
       <c r="F42" s="113">
         <v>161</v>
@@ -8210,40 +8224,40 @@
         <v>2220.3200000000002</v>
       </c>
       <c r="L42">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M42">
-        <v>0.979213</v>
+        <v>0.957233</v>
       </c>
       <c r="N42" s="114">
         <f t="shared" si="6"/>
-        <v>525953.15476800012</v>
+        <v>523915.29500000004</v>
       </c>
       <c r="O42">
-        <v>161.94999999999999</v>
+        <v>160.79</v>
       </c>
       <c r="P42">
-        <v>252645.61</v>
+        <v>250989.9</v>
       </c>
       <c r="Q42" s="116">
-        <v>9069.0300000000007</v>
+        <v>8910.23</v>
       </c>
       <c r="R42" s="128">
         <f t="shared" si="7"/>
-        <v>-6.8684302510850781E-3</v>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="S42" s="117">
         <f t="shared" si="4"/>
-        <v>-8.4678157049555836E-3</v>
+        <v>-1.2309609463077242E-2</v>
       </c>
       <c r="T42" s="115">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U42" s="117">
-        <f>((N42/$N$43)-1)/T42*30</f>
-        <v>-0.25403447114866751</v>
+        <f>((N42/$N$44)-1)/T42*30</f>
+        <v>-0.18464414194615864</v>
       </c>
       <c r="V42" s="117"/>
       <c r="W42" s="117"/>
@@ -8257,66 +8271,69 @@
         <v>68</v>
       </c>
       <c r="AM42">
-        <v>16.57</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="118">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B43">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>31.571400000000001</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D43">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>34.558100000000003</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F43" s="113">
         <v>161</v>
       </c>
       <c r="G43">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L43">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N43" s="201">
+        <v>0.979213</v>
+      </c>
+      <c r="N43" s="114">
         <f t="shared" si="6"/>
-        <v>530444.86411900003</v>
+        <v>525953.15476800012</v>
       </c>
       <c r="O43">
-        <v>164.91</v>
+        <v>161.94999999999999</v>
       </c>
       <c r="P43">
-        <v>257088.48</v>
+        <v>252645.61</v>
       </c>
       <c r="Q43" s="116">
-        <v>9131.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="R43" s="128">
         <f t="shared" si="7"/>
-        <v>-2.6283166070184549E-3</v>
+        <v>-6.8684302510850781E-3</v>
       </c>
       <c r="S43" s="117">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-8.4678157049555836E-3</v>
       </c>
       <c r="T43" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U43" s="117"/>
+        <v>1</v>
+      </c>
+      <c r="U43" s="117">
+        <f>((N43/$N$44)-1)/T43*30</f>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V43" s="117"/>
       <c r="W43" s="117"/>
       <c r="X43" s="117"/>
@@ -8325,72 +8342,69 @@
       <c r="AA43" s="117"/>
       <c r="AB43" s="134"/>
       <c r="AC43" s="135"/>
-      <c r="AH43">
-        <v>12</v>
-      </c>
-      <c r="AI43">
-        <v>41.58</v>
-      </c>
-      <c r="AJ43">
-        <f>AJ50</f>
-        <v>15</v>
-      </c>
-      <c r="AK43">
-        <v>55.55</v>
-      </c>
       <c r="AL43">
         <v>68</v>
       </c>
       <c r="AM43">
-        <v>15.07</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="118">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B44">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C44">
-        <v>31.402999999999999</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D44">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E44">
-        <v>34.3643</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F44" s="113">
         <v>161</v>
       </c>
       <c r="G44">
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="L44">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M44">
-        <v>0.99115900000000001</v>
-      </c>
-      <c r="N44" s="114">
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N44" s="201">
         <f t="shared" si="6"/>
-        <v>523720.92595699994</v>
+        <v>530444.86411900003</v>
       </c>
       <c r="O44">
-        <v>160.9</v>
+        <v>164.91</v>
+      </c>
+      <c r="P44">
+        <v>257088.48</v>
       </c>
       <c r="Q44" s="116">
-        <v>9155.32</v>
+        <v>9131.32</v>
       </c>
       <c r="R44" s="128">
         <f t="shared" si="7"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S44" s="117"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S44" s="117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T44" s="115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="U44" s="117"/>
       <c r="V44" s="117"/>
       <c r="W44" s="117"/>
@@ -8404,66 +8418,66 @@
         <v>12</v>
       </c>
       <c r="AI44">
-        <v>37.799999999999997</v>
+        <v>41.58</v>
       </c>
       <c r="AJ44">
-        <f>AJ50</f>
+        <f>AJ51</f>
         <v>15</v>
       </c>
       <c r="AK44">
-        <v>57.75</v>
+        <v>55.55</v>
       </c>
       <c r="AL44">
         <v>68</v>
       </c>
       <c r="AM44">
-        <v>13.7</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="45" spans="1:39">
       <c r="A45" s="118">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B45">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>31.297000000000001</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D45">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>34.110599999999998</v>
+        <v>34.3643</v>
       </c>
       <c r="F45" s="113">
         <v>161</v>
       </c>
       <c r="G45">
-        <v>2184.79</v>
+        <v>2198.16</v>
       </c>
       <c r="L45">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>0.945214</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N45" s="114">
         <f t="shared" si="6"/>
-        <v>515625.882094</v>
+        <v>523720.92595699994</v>
       </c>
       <c r="O45">
-        <v>155.75</v>
+        <v>160.9</v>
       </c>
       <c r="Q45" s="116">
-        <v>9054.18</v>
+        <v>9155.32</v>
       </c>
       <c r="R45" s="128">
         <f t="shared" si="7"/>
-        <v>3.4194151209717583E-2</v>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S45" s="117"/>
       <c r="U45" s="117"/>
@@ -8479,66 +8493,66 @@
         <v>12</v>
       </c>
       <c r="AI45">
-        <v>34.380000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ45">
-        <f>AJ50</f>
+        <f>AJ51</f>
         <v>15</v>
       </c>
       <c r="AK45">
-        <v>63.1</v>
+        <v>57.75</v>
       </c>
       <c r="AL45">
         <v>68</v>
       </c>
       <c r="AM45">
-        <v>12.46</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="118">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B46">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>31.293399999999998</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D46">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>34.006500000000003</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F46" s="113">
         <v>161</v>
       </c>
       <c r="G46">
-        <v>2150.9</v>
+        <v>2184.79</v>
       </c>
       <c r="L46">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>0.99397100000000005</v>
+        <v>0.945214</v>
       </c>
       <c r="N46" s="114">
         <f t="shared" si="6"/>
-        <v>516226.70193500002</v>
+        <v>515625.882094</v>
       </c>
       <c r="O46">
-        <v>156.16</v>
+        <v>155.75</v>
       </c>
       <c r="Q46" s="116">
-        <v>8744.58</v>
+        <v>9054.18</v>
       </c>
       <c r="R46" s="128">
         <f t="shared" si="7"/>
-        <v>-1.3258498407013208E-2</v>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S46" s="117"/>
       <c r="U46" s="117"/>
@@ -8550,77 +8564,70 @@
       <c r="AA46" s="117"/>
       <c r="AB46" s="134"/>
       <c r="AC46" s="135"/>
-      <c r="AF46">
-        <f>AF50</f>
-        <v>57</v>
-      </c>
-      <c r="AG46">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH46">
         <v>12</v>
       </c>
       <c r="AI46">
-        <v>31.26</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ46">
-        <f>AJ50</f>
+        <f>AJ51</f>
         <v>15</v>
       </c>
       <c r="AK46">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="AL46">
         <v>68</v>
       </c>
       <c r="AM46">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="118">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B47">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C47">
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D47">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E47">
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F47" s="113">
         <v>161</v>
       </c>
       <c r="G47">
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="L47">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M47">
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N47" s="114">
         <f t="shared" si="6"/>
-        <v>513091.35418300005</v>
+        <v>516226.70193500002</v>
       </c>
       <c r="O47">
-        <v>154.22999999999999</v>
+        <v>156.16</v>
       </c>
       <c r="Q47" s="116">
-        <v>8860.52</v>
+        <v>8744.58</v>
       </c>
       <c r="R47" s="128">
         <f t="shared" si="7"/>
-        <v>-5.319100910555985E-3</v>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S47" s="117"/>
       <c r="U47" s="117"/>
@@ -8632,33 +8639,25 @@
       <c r="AA47" s="117"/>
       <c r="AB47" s="134"/>
       <c r="AC47" s="135"/>
-      <c r="AD47">
-        <f>AD50</f>
-        <v>36</v>
-      </c>
-      <c r="AE47" s="136">
-        <v>38.15</v>
-      </c>
       <c r="AF47">
-        <f>AF50</f>
+        <f>AF51</f>
         <v>57</v>
       </c>
       <c r="AG47">
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH47">
-        <f>AH50</f>
         <v>12</v>
       </c>
       <c r="AI47">
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="AJ47">
-        <f>AJ50</f>
+        <f>AJ51</f>
         <v>15</v>
       </c>
       <c r="AK47">
-        <v>52.2</v>
+        <v>57.4</v>
       </c>
       <c r="AL47">
         <v>68</v>
@@ -8669,45 +8668,48 @@
     </row>
     <row r="48" spans="1:39">
       <c r="A48" s="118">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B48">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>30.905999999999999</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D48">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>33.542299999999997</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F48" s="113">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2072.52</v>
+        <v>2116.34</v>
       </c>
       <c r="L48">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>1.041954</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N48" s="114">
         <f t="shared" si="6"/>
-        <v>509025.91517699993</v>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O48">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q48" s="116">
-        <v>8907.65</v>
+        <v>8860.52</v>
       </c>
       <c r="R48" s="128">
         <f t="shared" si="7"/>
-        <v>-2.1273848882702007E-2</v>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S48" s="117"/>
       <c r="U48" s="117"/>
@@ -8720,32 +8722,32 @@
       <c r="AB48" s="134"/>
       <c r="AC48" s="135"/>
       <c r="AD48">
-        <f>AD50</f>
+        <f>AD51</f>
         <v>36</v>
       </c>
-      <c r="AE48">
-        <v>34.659999999999997</v>
+      <c r="AE48" s="136">
+        <v>38.15</v>
       </c>
       <c r="AF48">
-        <f>AF50</f>
+        <f>AF51</f>
         <v>57</v>
       </c>
       <c r="AG48">
-        <v>578.66060300000004</v>
+        <v>579.361718</v>
       </c>
       <c r="AH48">
-        <f>AH50</f>
+        <f>AH51</f>
         <v>12</v>
       </c>
       <c r="AI48">
-        <v>25.84</v>
+        <v>28.42</v>
       </c>
       <c r="AJ48">
-        <f>AJ50</f>
+        <f>AJ51</f>
         <v>15</v>
       </c>
       <c r="AK48">
-        <v>47.46</v>
+        <v>52.2</v>
       </c>
       <c r="AL48">
         <v>68</v>
@@ -8756,45 +8758,45 @@
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="118">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B49">
-        <f>B50</f>
+        <f>B51</f>
         <v>1110</v>
       </c>
       <c r="C49">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D49">
-        <f>D50</f>
+        <f>D51</f>
         <v>321.99</v>
       </c>
       <c r="E49">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F49" s="113">
         <v>161</v>
       </c>
       <c r="G49">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L49">
-        <f>L50</f>
+        <f>L51</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="N49" s="114">
         <f t="shared" si="6"/>
-        <v>499114.42414299998</v>
+        <v>509025.91517699993</v>
       </c>
       <c r="Q49" s="116">
-        <v>9097.15</v>
+        <v>8907.65</v>
       </c>
       <c r="R49" s="128">
         <f t="shared" si="7"/>
-        <v>-1.0612114783201454E-2</v>
+        <v>-2.1273848882702007E-2</v>
       </c>
       <c r="S49" s="117"/>
       <c r="U49" s="117"/>
@@ -8807,32 +8809,32 @@
       <c r="AB49" s="134"/>
       <c r="AC49" s="135"/>
       <c r="AD49">
-        <f>AD50</f>
+        <f>AD51</f>
         <v>36</v>
       </c>
       <c r="AE49">
-        <v>31.52</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF49">
-        <f>AF50</f>
+        <f>AF51</f>
         <v>57</v>
       </c>
       <c r="AG49">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH49">
-        <f>AH50</f>
+        <f>AH51</f>
         <v>12</v>
       </c>
       <c r="AI49">
-        <v>23.5</v>
+        <v>25.84</v>
       </c>
       <c r="AJ49">
-        <f>AJ50</f>
+        <f>AJ51</f>
         <v>15</v>
       </c>
       <c r="AK49">
-        <v>43.16</v>
+        <v>47.46</v>
       </c>
       <c r="AL49">
         <v>68</v>
@@ -8843,7 +8845,7 @@
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="118">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B50">
         <f>B51</f>
@@ -8870,26 +8872,35 @@
         <v>125000</v>
       </c>
       <c r="M50">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="N50" s="114">
         <f t="shared" si="6"/>
-        <v>496152.04914299998</v>
+        <v>499114.42414299998</v>
       </c>
       <c r="Q50" s="116">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="R50" s="128">
         <f t="shared" si="7"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S50" s="128"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S50" s="117"/>
+      <c r="U50" s="117"/>
+      <c r="V50" s="117"/>
+      <c r="W50" s="117"/>
+      <c r="X50" s="117"/>
+      <c r="Y50" s="117"/>
+      <c r="Z50" s="117"/>
+      <c r="AA50" s="117"/>
+      <c r="AB50" s="134"/>
+      <c r="AC50" s="135"/>
       <c r="AD50">
         <f>AD51</f>
         <v>36</v>
       </c>
       <c r="AE50">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="AF50">
         <f>AF51</f>
@@ -8903,30 +8914,35 @@
         <v>12</v>
       </c>
       <c r="AI50">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="AJ50">
+        <f>AJ51</f>
         <v>15</v>
       </c>
       <c r="AK50">
-        <v>39.24</v>
-      </c>
-      <c r="AM50" s="130">
-        <f>AM49</f>
+        <v>43.16</v>
+      </c>
+      <c r="AL50">
+        <v>68</v>
+      </c>
+      <c r="AM50">
         <v>11.33</v>
       </c>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="118">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B51">
+        <f>B52</f>
         <v>1110</v>
       </c>
       <c r="C51">
         <v>30.7361</v>
       </c>
       <c r="D51">
+        <f>D52</f>
         <v>321.99</v>
       </c>
       <c r="E51">
@@ -8939,21 +8955,22 @@
         <v>2018.91</v>
       </c>
       <c r="L51">
+        <f>L52</f>
         <v>125000</v>
       </c>
       <c r="M51">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="N51" s="114">
         <f t="shared" si="6"/>
-        <v>503322.92414299998</v>
+        <v>496152.04914299998</v>
       </c>
       <c r="Q51" s="116">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="R51" s="128">
         <f t="shared" si="7"/>
-        <v>-1.292378585710563E-2</v>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S51" s="128"/>
       <c r="AD51">
@@ -8961,31 +8978,36 @@
         <v>36</v>
       </c>
       <c r="AE51">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="AF51">
+        <f>AF52</f>
         <v>57</v>
       </c>
       <c r="AG51">
         <v>576.58807100000001</v>
       </c>
       <c r="AH51">
+        <f>AH52</f>
         <v>12</v>
       </c>
       <c r="AI51">
-        <v>19.45</v>
-      </c>
-      <c r="AK51" s="130">
-        <f>AK50</f>
+        <v>21.38</v>
+      </c>
+      <c r="AJ51">
+        <v>15</v>
+      </c>
+      <c r="AK51">
         <v>39.24</v>
       </c>
-      <c r="AM51" s="130" t="s">
-        <v>70</v>
+      <c r="AM51" s="130">
+        <f>AM50</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="118">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B52">
         <v>1110</v>
@@ -9005,29 +9027,30 @@
       <c r="G52">
         <v>2018.91</v>
       </c>
-      <c r="L52" s="200">
-        <v>75000</v>
+      <c r="L52">
+        <v>125000</v>
       </c>
       <c r="M52">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="N52" s="114">
         <f t="shared" si="6"/>
-        <v>449692.54914299998</v>
+        <v>503322.92414299998</v>
       </c>
       <c r="Q52" s="116">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="R52" s="128">
         <f t="shared" si="7"/>
-        <v>-1.6847359545420826E-2</v>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S52" s="128"/>
       <c r="AD52">
+        <f>AD53</f>
         <v>36</v>
       </c>
       <c r="AE52">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="AF52">
         <v>57</v>
@@ -9035,20 +9058,23 @@
       <c r="AG52">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI52" s="130">
-        <f>AI51</f>
+      <c r="AH52">
+        <v>12</v>
+      </c>
+      <c r="AI52">
         <v>19.45</v>
       </c>
-      <c r="AK52" s="130" t="s">
+      <c r="AK52" s="130">
+        <f>AK51</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM52" s="130" t="s">
         <v>70</v>
-      </c>
-      <c r="AM52" s="131" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="118">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B53">
         <v>1110</v>
@@ -9068,30 +9094,29 @@
       <c r="G53">
         <v>2018.91</v>
       </c>
-      <c r="L53">
-        <f>L54</f>
-        <v>50000</v>
+      <c r="L53" s="200">
+        <v>75000</v>
       </c>
       <c r="M53">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N53" s="114">
         <f t="shared" si="6"/>
-        <v>420821.92414299998</v>
+        <v>449692.54914299998</v>
       </c>
       <c r="Q53" s="116">
-        <v>9334.1299999999992</v>
+        <v>9179.48</v>
       </c>
       <c r="R53" s="128">
         <f t="shared" si="7"/>
-        <v>-4.2928478604864484E-3</v>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S53" s="128"/>
       <c r="AD53">
         <v>36</v>
       </c>
       <c r="AE53">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="AF53">
         <v>57</v>
@@ -9099,20 +9124,20 @@
       <c r="AG53">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI53" s="130" t="s">
+      <c r="AI53" s="130">
+        <f>AI52</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK53" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="AK53" s="131" t="s">
+      <c r="AM53" s="131" t="s">
         <v>69</v>
-      </c>
-      <c r="AM53" s="131">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="118">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B54">
         <v>1110</v>
@@ -9133,28 +9158,29 @@
         <v>2018.91</v>
       </c>
       <c r="L54">
+        <f>L55</f>
         <v>50000</v>
       </c>
       <c r="M54">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N54" s="114">
         <f t="shared" si="6"/>
-        <v>420020.17414299998</v>
+        <v>420821.92414299998</v>
       </c>
       <c r="Q54" s="116">
-        <v>9374.2000000000007</v>
+        <v>9334.1299999999992</v>
       </c>
       <c r="R54" s="128">
         <f t="shared" si="7"/>
-        <v>2.8834460540633211E-3</v>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="S54" s="128"/>
       <c r="AD54">
         <v>36</v>
       </c>
       <c r="AE54">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="AF54">
         <v>57</v>
@@ -9162,22 +9188,40 @@
       <c r="AG54">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI54" s="131" t="s">
+      <c r="AI54" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK54" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AK54" s="131">
-        <v>55.5</v>
-      </c>
-      <c r="AM54" s="117">
-        <f>(AM53-AM49)/AM49</f>
-        <v>0.73786407766990303</v>
+      <c r="AM54" s="131">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:39">
-      <c r="A55" s="199">
-        <v>45344</v>
-      </c>
-      <c r="L55" s="200">
+      <c r="A55" s="118">
+        <v>45345</v>
+      </c>
+      <c r="B55">
+        <v>1110</v>
+      </c>
+      <c r="C55">
+        <v>30.7361</v>
+      </c>
+      <c r="D55">
+        <v>321.99</v>
+      </c>
+      <c r="E55">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F55" s="113">
+        <v>161</v>
+      </c>
+      <c r="G55">
+        <v>2018.91</v>
+      </c>
+      <c r="L55">
         <v>50000</v>
       </c>
       <c r="M55">
@@ -9185,109 +9229,154 @@
       </c>
       <c r="N55" s="114">
         <f t="shared" si="6"/>
-        <v>50160.249999999993</v>
+        <v>420020.17414299998</v>
       </c>
       <c r="Q55" s="116">
-        <v>9347.17</v>
-      </c>
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R55" s="128">
+        <f t="shared" si="7"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S55" s="128"/>
       <c r="AD55">
         <v>36</v>
       </c>
       <c r="AE55">
-        <v>17.82</v>
-      </c>
-      <c r="AI55" s="131">
-        <v>45.72</v>
-      </c>
-      <c r="AK55" s="117">
-        <f>(AK54-AK50)/AK50</f>
-        <v>0.41437308868501521</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF55">
+        <v>57</v>
+      </c>
+      <c r="AG55">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI55" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK55" s="131">
+        <v>55.5</v>
+      </c>
+      <c r="AM55" s="117">
+        <f>(AM54-AM50)/AM50</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="56" spans="1:39">
+      <c r="A56" s="199">
+        <v>45344</v>
+      </c>
+      <c r="L56" s="200">
+        <v>50000</v>
+      </c>
       <c r="M56">
-        <v>0.93849000000000005</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N56" s="114">
+        <f t="shared" si="6"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q56" s="116">
+        <v>9347.17</v>
       </c>
       <c r="AD56">
         <v>36</v>
       </c>
-      <c r="AE56" s="130">
-        <v>15.3</v>
-      </c>
-      <c r="AI56" s="117">
-        <f>(AI55-AI51)/AI51</f>
-        <v>1.3506426735218509</v>
-      </c>
-      <c r="AM56" s="133">
-        <f>(AL49*AM53)-(AL37*AM49)</f>
-        <v>568.48</v>
+      <c r="AE56">
+        <v>17.82</v>
+      </c>
+      <c r="AI56" s="131">
+        <v>45.72</v>
+      </c>
+      <c r="AK56" s="117">
+        <f>(AK55-AK51)/AK51</f>
+        <v>0.41437308868501521</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="M57">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="R57" s="137">
-        <f>SUM(R10:R56)</f>
-        <v>9.6793979928683882E-2</v>
-      </c>
-      <c r="S57" s="137"/>
-      <c r="AE57" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ57" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK57" s="133">
-        <f>(AJ50*AK54)-(AJ10*AK50)</f>
-        <v>832.5</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD57">
+        <v>36</v>
+      </c>
+      <c r="AE57" s="130">
+        <v>15.3</v>
+      </c>
+      <c r="AI57" s="117">
+        <f>(AI56-AI52)/AI52</f>
+        <v>1.3506426735218509</v>
+      </c>
+      <c r="AM57" s="133">
+        <f>(AL50*AM54)-(AL38*AM50)</f>
+        <v>568.48</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="M58">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="AE58" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH58" s="133" t="s">
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="R58" s="137">
+        <f>SUM(R10:R57)</f>
+        <v>0.16139898739173875</v>
+      </c>
+      <c r="S58" s="137"/>
+      <c r="AE58" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ58" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="AI58" s="133">
-        <f>(AH51*AI55)-(AH10*AI51)</f>
-        <v>548.64</v>
+      <c r="AK58" s="133">
+        <f>(AJ51*AK55)-(AJ10*AK51)</f>
+        <v>832.5</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="M59">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="AD59" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE59" s="131">
-        <v>38</v>
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="AE59" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH59" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI59" s="133">
+        <f>(AH52*AI56)-(AH10*AI52)</f>
+        <v>548.64</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="M60">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE60" s="131">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39">
+      <c r="M61">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE60" s="117">
+      <c r="AE61" s="117">
         <f>Sayfa2!M54</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
-      <c r="M61">
+    <row r="62" spans="1:39">
+      <c r="M62">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
-      <c r="AD62" s="133" t="s">
+    <row r="63" spans="1:39">
+      <c r="AD63" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="AE62" s="133">
+      <c r="AE63" s="133">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E8472E-4D24-4882-B569-354ADA554E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDC6973-4EA5-41D3-BB6E-7AA71EF5675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -2007,8 +2007,7 @@
     <col min="10" max="10" width="8" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" style="1" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="7" customWidth="1"/>
+    <col min="13" max="14" width="8.5703125" style="7" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.85546875" style="1" customWidth="1"/>
     <col min="17" max="1024" width="8.5703125" style="1"/>
@@ -2030,11 +2029,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>269993.23046500003</v>
+        <v>251476.74217499999</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2043,11 +2042,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>165.64001869018406</v>
+        <v>153.71439008251832</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2080,24 +2079,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I37)</f>
-        <v>752144.06964</v>
+        <v>733200.03134999995</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K38)</f>
-        <v>251150.52212000004</v>
+        <v>232634.03382999997</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.51410851536944646</v>
+        <v>0.47620501342060623</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-5.7115748621107527E-2</v>
+        <v>-9.1670242829884466E-2</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-3.8738978794123045E-2</v>
+        <v>-6.9891912264086239E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2252,7 +2251,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O38)</f>
-        <v>251150.52212000004</v>
+        <v>232634.03382999997</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2274,7 +2273,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2282,31 +2281,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>28.52</v>
+        <v>23.08</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>1140.8</v>
+        <v>923.19999999999993</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-1.9800000000000004</v>
+        <v>-7.4200000000000017</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-79.200000000000017</v>
+        <v>-296.80000000000007</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>21</v>
-      </c>
-      <c r="M15" s="67">
+        <v>27</v>
+      </c>
+      <c r="M15" s="117">
         <f>K15/E15</f>
-        <v>-6.4918032786885266E-2</v>
-      </c>
-      <c r="N15" s="67">
+        <v>-0.24327868852459023</v>
+      </c>
+      <c r="N15" s="117">
         <f>M15/L15*30</f>
-        <v>-9.2740046838407517E-2</v>
+        <v>-0.27030965391621137</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2328,7 +2327,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2336,31 +2335,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>34.799999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>1218</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-2.5900000000000034</v>
+        <v>-5.0300000000000011</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-90.650000000000119</v>
+        <v>-176.05000000000004</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>21</v>
-      </c>
-      <c r="M16" s="67">
+        <v>27</v>
+      </c>
+      <c r="M16" s="117">
         <f>K16/E16</f>
-        <v>-6.9269858250869301E-2</v>
-      </c>
-      <c r="N16" s="67">
+        <v>-0.13452794864937151</v>
+      </c>
+      <c r="N16" s="117">
         <f>M16/L16*30</f>
-        <v>-9.8956940358384718E-2</v>
+        <v>-0.14947549849930167</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2382,7 +2381,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2390,33 +2389,41 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>123.5</v>
+        <v>124</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1235</v>
+        <v>1240</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-11.5</v>
+        <v>-11</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-115</v>
+        <v>-110</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>29</v>
-      </c>
-      <c r="M17" s="67">
+        <v>35</v>
+      </c>
+      <c r="M17" s="117">
         <f>K17/E17</f>
-        <v>-8.5185185185185183E-2</v>
+        <v>-8.1481481481481488E-2</v>
       </c>
       <c r="N17" s="117">
         <f>M17/L17*30</f>
-        <v>-8.8122605363984668E-2</v>
+        <v>-6.9841269841269843E-2</v>
       </c>
       <c r="O17" s="68"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="M18" s="203"/>
+      <c r="N18" s="203"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
@@ -2437,7 +2444,7 @@
       </c>
       <c r="F20" s="62">
         <f>$B$2</f>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G20" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2445,31 +2452,31 @@
       </c>
       <c r="H20" s="64">
         <f>Sayfa4!K5</f>
-        <v>641.00899600000002</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="I20" s="51">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>19230.26988</v>
+        <v>19389.121589999999</v>
       </c>
       <c r="J20" s="46">
         <f>H20-D20</f>
-        <v>18.166048000000046</v>
+        <v>23.461104999999975</v>
       </c>
       <c r="K20" s="65">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>544.98144000000138</v>
+        <v>703.83314999999925</v>
       </c>
       <c r="L20" s="66">
         <f>F20-B20</f>
-        <v>21</v>
-      </c>
-      <c r="M20" s="67">
+        <v>27</v>
+      </c>
+      <c r="M20" s="117">
         <f>K20/E20</f>
-        <v>2.9166338092664806E-2</v>
-      </c>
-      <c r="N20" s="67">
+        <v>3.7667770142273446E-2</v>
+      </c>
+      <c r="N20" s="117">
         <f>M20/L20*30</f>
-        <v>4.1666197275235434E-2</v>
+        <v>4.1853077935859379E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2491,7 +2498,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2499,31 +2506,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.91</v>
+        <v>24.32</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>62275</v>
+        <v>60800</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>0.19999999999999929</v>
+        <v>-0.39000000000000057</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>499.99999999999824</v>
+        <v>-975.00000000000136</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>21</v>
-      </c>
-      <c r="M21" s="67">
+        <v>27</v>
+      </c>
+      <c r="M21" s="117">
         <f>K21/E21</f>
-        <v>8.0938891137191139E-3</v>
-      </c>
-      <c r="N21" s="67">
+        <v>-1.5783083771752349E-2</v>
+      </c>
+      <c r="N21" s="117">
         <f>M21/L21*30</f>
-        <v>1.1562698733884448E-2</v>
+        <v>-1.7536759746391496E-2</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2546,8 +2553,8 @@
         <v>-129.72999999999999</v>
       </c>
       <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="67"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
       <c r="O22" s="68"/>
       <c r="P22" s="69">
         <v>240429000806114</v>
@@ -2572,7 +2579,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2580,31 +2587,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.91</v>
+        <v>24.32</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>62275</v>
+        <v>60800</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>0</v>
+        <v>-0.58999999999999986</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>0</v>
+        <v>-1474.9999999999995</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>0</v>
+        <v>-2.3685266961059808E-2</v>
       </c>
       <c r="N23" s="117">
         <f>M23/L23*30</f>
-        <v>0</v>
+        <v>-2.5377071743992653E-2</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2653,7 +2660,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2661,31 +2668,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.91</v>
+        <v>24.32</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>62275</v>
+        <v>60800</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-0.21000000000000085</v>
+        <v>-0.80000000000000071</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-525.00000000000216</v>
+        <v>-2000.0000000000018</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-8.3598726114650027E-3</v>
+        <v>-3.1847133757961811E-2</v>
       </c>
       <c r="N25" s="117">
         <f>M25/L25*30</f>
-        <v>-1.0031847133758003E-2</v>
+        <v>-3.0819806862543687E-2</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2734,7 +2741,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2742,31 +2749,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.86580400000000002</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>64935.3</v>
+        <v>64605.000000000007</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.198631</v>
+        <v>-0.20303499999999997</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-14897.325000000001</v>
+        <v>-15227.624999999998</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.18660697928948222</v>
+        <v>-0.19074438551907819</v>
       </c>
       <c r="N27" s="117">
         <f>M27/L27*30</f>
-        <v>-6.5861286808052547E-2</v>
+        <v>-6.2882764456838963E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2789,7 +2796,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2797,35 +2804,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.86580400000000002</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>43290.200000000004</v>
+        <v>43070</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.13740099999999988</v>
+        <v>-0.14180499999999985</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-6870.0499999999938</v>
+        <v>-7090.2499999999927</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.13696203667246465</v>
+        <v>-0.14135196694593816</v>
       </c>
       <c r="N28" s="117">
         <f>M28/L28*30</f>
-        <v>-4.6166978653639772E-2</v>
+        <v>-4.463746324608573E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-21924.633559999995</v>
+        <v>-27039.281849999996</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2864,50 +2871,50 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F37" si="0">$B$2</f>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
         <f>Sayfa4!G10</f>
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="I30" s="51">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
-        <v>120846</v>
+        <v>116570.5</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ref="J30:J37" si="1">H30-D30</f>
-        <v>590.3900000000001</v>
+        <v>504.87999999999988</v>
       </c>
       <c r="K30" s="65">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>26567.550000000003</v>
+        <v>22719.599999999995</v>
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L37" si="2">F30-B30</f>
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M37" si="3">K30/E30</f>
-        <v>0.32323038767499029</v>
+        <v>0.27641484125637128</v>
       </c>
       <c r="N30" s="117">
         <f t="shared" ref="N30:N37" si="4">M30/L30*30</f>
-        <v>4.531267116939116E-2</v>
+        <v>3.7692932898596078E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>120846</v>
+        <v>116570.5</v>
       </c>
       <c r="Q30" s="1">
         <v>2000</v>
       </c>
       <c r="R30" s="1">
         <f>P30/Q30</f>
-        <v>60.423000000000002</v>
+        <v>58.285249999999998</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2929,50 +2936,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
       </c>
       <c r="H31" s="64">
         <f>H30</f>
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>26586.120000000003</v>
+        <v>25645.51</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>2014.8200000000002</v>
+        <v>1929.31</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>22163.02</v>
+        <v>21222.41</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
-        <v>5.0107435961203679</v>
+        <v>4.7980850534692854</v>
       </c>
       <c r="N31" s="117">
         <f t="shared" si="4"/>
-        <v>0.12642750873306227</v>
+        <v>0.12045401807872684</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>26586.120000000003</v>
+        <v>25645.51</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>13.293060000000001</v>
+        <v>12.822754999999999</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2994,50 +3001,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>120846</v>
+        <v>116570.5</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1948.06</v>
+        <v>1862.5499999999997</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>97403</v>
+        <v>93127.499999999985</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>4.1548863200102373</v>
+        <v>3.9725077848398236</v>
       </c>
       <c r="N32" s="117">
         <f t="shared" si="4"/>
-        <v>9.2399251000968963E-2</v>
+        <v>8.795220187837248E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>120846</v>
+        <v>116570.5</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>60.423000000000002</v>
+        <v>58.285249999999998</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3059,7 +3066,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3067,36 +3074,36 @@
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>60423</v>
+        <v>58285.25</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>2017.0500000000002</v>
+        <v>1931.54</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>50426.250000000007</v>
+        <v>48288.5</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1413</v>
+        <v>1419</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>5.0442643859254268</v>
+        <v>4.8304198864631003</v>
       </c>
       <c r="N33" s="117">
         <f t="shared" si="4"/>
-        <v>0.10709690840606001</v>
+        <v>0.10212304199710572</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
         <f>SUM(R30:R32)</f>
-        <v>134.13906</v>
+        <v>129.39325499999998</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3118,7 +3125,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3126,31 +3133,31 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>58006.080000000002</v>
+        <v>55953.84</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>2143.11</v>
+        <v>2057.6</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>51434.64</v>
+        <v>49382.399999999994</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>7.8269968226142206</v>
+        <v>7.5146999744348255</v>
       </c>
       <c r="N34" s="117">
         <f t="shared" si="4"/>
-        <v>0.14405515624443352</v>
+        <v>0.1378001217805897</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3173,7 +3180,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3181,40 +3188,40 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2179.33</v>
+        <v>2093.8199999999997</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>2179.33</v>
+        <v>2093.8199999999997</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1630</v>
+        <v>1636</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>9.1726503640725614</v>
+        <v>8.8127446441348525</v>
       </c>
       <c r="N35" s="117">
         <f t="shared" si="4"/>
-        <v>0.16882178584182628</v>
+        <v>0.16160289689733839</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
         <f>SUM(P30:P34)</f>
-        <v>268278.12</v>
+        <v>258786.51</v>
       </c>
       <c r="R35" s="1">
         <f>P35/2220.32</f>
-        <v>120.82858326727678</v>
+        <v>116.55369946674352</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3236,7 +3243,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3244,36 +3251,36 @@
       </c>
       <c r="H36" s="64">
         <f>Sayfa4!E5</f>
-        <v>34.182699999999997</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>10213.79076</v>
+        <v>10189.13976</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>15.461099999999998</v>
+        <v>15.378600000000002</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>4619.7766799999999</v>
+        <v>4595.125680000001</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>0.82584287667720713</v>
+        <v>0.82143620203401435</v>
       </c>
       <c r="N36" s="117">
         <f t="shared" si="4"/>
-        <v>3.8174555162274602E-2</v>
+        <v>3.7623032154229664E-2</v>
       </c>
       <c r="O36" s="68"/>
       <c r="P36" s="1">
         <f>P35*Q36</f>
-        <v>26827.812000000002</v>
+        <v>25878.651000000002</v>
       </c>
       <c r="Q36" s="75">
         <v>0.1</v>
@@ -3301,7 +3308,7 @@
       </c>
       <c r="F37" s="62">
         <f t="shared" si="0"/>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="G37" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3309,47 +3316,47 @@
       </c>
       <c r="H37" s="64">
         <f>Sayfa4!C5</f>
-        <v>31.469899999999999</v>
+        <v>31.436</v>
       </c>
       <c r="I37" s="51">
         <f>Sayfa2!$H37*Sayfa2!$G37</f>
-        <v>34931.589</v>
+        <v>34893.96</v>
       </c>
       <c r="J37" s="46">
         <f t="shared" si="1"/>
-        <v>16.469899999999999</v>
+        <v>16.436</v>
       </c>
       <c r="K37" s="65">
         <f>Sayfa2!$J37*Sayfa2!$C37</f>
-        <v>18281.589</v>
+        <v>18243.96</v>
       </c>
       <c r="L37" s="66">
         <f t="shared" si="2"/>
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="M37" s="67">
         <f t="shared" si="3"/>
-        <v>1.0979933333333334</v>
+        <v>1.0957333333333332</v>
       </c>
       <c r="N37" s="117">
         <f t="shared" si="4"/>
-        <v>4.9984522003034909E-2</v>
+        <v>4.9431578947368417E-2</v>
       </c>
       <c r="O37" s="70">
         <f>SUM(K30:K37)</f>
-        <v>273075.15568000003</v>
+        <v>259673.31567999997</v>
       </c>
       <c r="P37" s="6">
         <f>SUM(P35:P36)</f>
-        <v>295105.93199999997</v>
+        <v>284665.16100000002</v>
       </c>
       <c r="R37" s="1">
         <f>P37/2000</f>
-        <v>147.552966</v>
+        <v>142.33258050000001</v>
       </c>
       <c r="T37" s="1">
         <f>P35/T36</f>
-        <v>116.64266086956522</v>
+        <v>112.51587391304348</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3391,7 +3398,7 @@
       <c r="N40" s="117"/>
       <c r="R40" s="1">
         <f>R37*2220.32</f>
-        <v>327614.80146912002</v>
+        <v>316023.87513576006</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5556,12 +5563,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM63"/>
+  <dimension ref="A4:AM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5613,51 +5620,51 @@
     <row r="5" spans="1:39">
       <c r="A5" s="118">
         <f>A10</f>
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="C5">
         <f>C10</f>
-        <v>31.469899999999999</v>
+        <v>31.436</v>
       </c>
       <c r="E5">
         <f>E10</f>
-        <v>34.182699999999997</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="G5">
         <f>G10</f>
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="I5">
         <f>I10</f>
-        <v>24.91</v>
+        <v>24.32</v>
       </c>
       <c r="K5">
         <f>K10</f>
-        <v>641.00899600000002</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="M5">
         <f>M10</f>
-        <v>0.86580400000000002</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="O5" s="116">
         <f>Sayfa2!D3</f>
-        <v>165.64001869018406</v>
+        <v>153.71439008251832</v>
       </c>
       <c r="P5" s="119">
         <f>Sayfa2!K2</f>
-        <v>269993.23046500003</v>
+        <v>251476.74217499999</v>
       </c>
       <c r="Y5" s="116">
         <f>Y10</f>
-        <v>34.799999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="AA5" s="116">
         <f>AA10</f>
-        <v>28.52</v>
+        <v>23.08</v>
       </c>
       <c r="AC5" s="116">
         <f>AC10</f>
-        <v>123.5</v>
+        <v>124</v>
       </c>
       <c r="AE5">
         <f>AE10</f>
@@ -5676,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM38</f>
+        <f>AM40</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -5765,1223 +5772,1255 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="118">
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="B10">
-        <f>B50</f>
+        <f>B52</f>
         <v>1110</v>
       </c>
       <c r="C10">
-        <v>31.469899999999999</v>
+        <v>31.436</v>
       </c>
       <c r="D10">
-        <f>D50</f>
+        <f>D52</f>
         <v>321.99</v>
       </c>
       <c r="E10">
-        <v>34.182699999999997</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="F10" s="113">
         <v>156</v>
       </c>
       <c r="G10">
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="H10" s="200">
         <v>7500</v>
       </c>
       <c r="I10" s="200">
-        <v>24.91</v>
+        <v>24.32</v>
       </c>
       <c r="J10">
         <v>30</v>
       </c>
       <c r="K10">
-        <v>641.00899600000002</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="L10">
-        <f>L50</f>
+        <f>L52</f>
         <v>125000</v>
       </c>
       <c r="M10">
-        <v>0.86580400000000002</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N10" s="114">
         <f>(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>737258.36645300011</v>
+        <v>719037.96498799999</v>
       </c>
       <c r="O10">
-        <v>165.69</v>
+        <v>153.71</v>
       </c>
       <c r="P10">
-        <v>269993.23</v>
-      </c>
-      <c r="Q10" s="116">
-        <v>10200</v>
-      </c>
-      <c r="R10" s="128">
-        <f>(1-(Q13/Q10))</f>
-        <v>-6.7235294117646838E-3</v>
+        <v>251476.74</v>
+      </c>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="128" t="e">
+        <f>(1-(Q12/Q10))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="S10" s="117">
-        <f>(N10/$N$44)-1</f>
-        <v>0.38988689743936056</v>
+        <f>(N10/$N$46)-1</f>
+        <v>0.35553761309807119</v>
       </c>
       <c r="T10" s="115">
-        <f>(A10-$A$44)</f>
-        <v>71</v>
+        <f>(A10-$A$46)</f>
+        <v>77</v>
       </c>
       <c r="U10" s="117">
-        <f>((N10/$N$44)-1)/T10*30</f>
-        <v>0.16474094258001151</v>
+        <f>((N10/$N$46)-1)/T10*30</f>
+        <v>0.13852114796028747</v>
       </c>
       <c r="V10" s="117"/>
       <c r="W10" s="117"/>
       <c r="X10" s="135"/>
       <c r="Y10" s="135">
-        <v>34.799999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="Z10" s="135"/>
       <c r="AA10" s="135">
-        <v>28.52</v>
+        <v>23.08</v>
       </c>
       <c r="AB10">
         <v>10</v>
       </c>
       <c r="AC10" s="116">
-        <v>123.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="118">
-        <v>45426</v>
+        <v>45435</v>
       </c>
       <c r="B11">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C11">
-        <v>31.5244</v>
+        <v>31.4588</v>
       </c>
       <c r="D11">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E11">
-        <v>34.005400000000002</v>
+        <v>34.044699999999999</v>
       </c>
       <c r="F11" s="113">
         <v>156</v>
       </c>
       <c r="G11">
-        <v>2344.5700000000002</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="H11" s="200">
         <v>7500</v>
       </c>
       <c r="I11" s="200">
-        <v>24.41</v>
+        <v>24.45</v>
       </c>
       <c r="J11">
         <v>30</v>
       </c>
       <c r="K11">
-        <v>634.98375399999998</v>
+        <v>642.69199700000001</v>
       </c>
       <c r="L11">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M11">
-        <v>0.84950000000000003</v>
+        <v>0.87326400000000004</v>
       </c>
       <c r="N11" s="114">
         <f>(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
-        <v>720006.41536600015</v>
+        <v>726447.88086300006</v>
       </c>
       <c r="O11">
-        <v>158.43</v>
+        <v>158.78</v>
       </c>
       <c r="P11">
-        <v>256973.54</v>
+        <v>259129.45</v>
       </c>
       <c r="Q11" s="116">
-        <v>10739.57</v>
+        <v>10676.65</v>
       </c>
       <c r="R11" s="128">
-        <f>(1-(Q14/Q11))</f>
-        <v>6.4605007463054864E-2</v>
+        <f>(1-(Q13/Q11))</f>
+        <v>-5.8932343010213994E-3</v>
       </c>
       <c r="S11" s="117">
-        <f>(N11/$N$44)-1</f>
-        <v>0.35736334550403681</v>
+        <f>(N11/$N$46)-1</f>
+        <v>0.36950686113161924</v>
       </c>
       <c r="T11" s="115">
-        <f>(A11-$A$44)</f>
-        <v>64</v>
+        <f>(A11-$A$46)</f>
+        <v>73</v>
       </c>
       <c r="U11" s="117">
-        <f>((N11/$N$44)-1)/T11*30</f>
-        <v>0.16751406820501724</v>
+        <f>((N11/$N$46)-1)/T11*30</f>
+        <v>0.15185213471162434</v>
       </c>
       <c r="V11" s="117"/>
       <c r="W11" s="117"/>
       <c r="X11" s="135"/>
       <c r="Y11" s="135">
-        <v>35.86</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z11" s="135"/>
       <c r="AA11" s="135">
-        <v>30.2</v>
+        <v>27.92</v>
       </c>
       <c r="AB11">
         <v>10</v>
       </c>
       <c r="AC11" s="116">
-        <v>120.1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="118">
-        <v>45425</v>
+        <v>45433</v>
       </c>
       <c r="B12">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.371600000000001</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="D12">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>33.871899999999997</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="F12" s="113">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2341.31</v>
+        <v>2416.92</v>
       </c>
       <c r="H12" s="200">
         <v>7500</v>
       </c>
       <c r="I12" s="200">
-        <v>24.47</v>
+        <v>24.91</v>
       </c>
       <c r="J12">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>634.10149999999999</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="L12">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.88511899999999999</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="N12" s="114">
-        <f t="shared" ref="N12:N20" si="0">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
-        <v>724161.16908100003</v>
+        <f>(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
+        <v>737258.36645300011</v>
       </c>
       <c r="O12">
-        <v>158.43</v>
+        <v>165.69</v>
       </c>
       <c r="P12">
-        <v>256973.54</v>
+        <v>269993.23</v>
       </c>
       <c r="Q12" s="116">
-        <v>10200</v>
+        <v>10829.64</v>
       </c>
       <c r="R12" s="128">
-        <f>(1-(Q14/Q12))</f>
-        <v>1.5123529411764758E-2</v>
+        <f t="shared" ref="R12:R19" si="0">(1-(Q13/Q12))</f>
+        <v>8.3169892997366768E-3</v>
       </c>
       <c r="S12" s="117">
-        <f>(N12/$N$44)-1</f>
-        <v>0.36519592905049159</v>
+        <f>(N12/$N$46)-1</f>
+        <v>0.38988689743936056</v>
       </c>
       <c r="T12" s="115">
-        <f>(A12-$A$44)</f>
-        <v>63</v>
+        <f>(A12-$A$46)</f>
+        <v>71</v>
       </c>
       <c r="U12" s="117">
-        <f>((N12/$N$44)-1)/T12*30</f>
-        <v>0.17390282335737695</v>
+        <f>((N12/$N$46)-1)/T12*30</f>
+        <v>0.16474094258001151</v>
       </c>
       <c r="V12" s="117"/>
       <c r="W12" s="117"/>
       <c r="X12" s="135"/>
       <c r="Y12" s="135">
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Z12" s="135"/>
       <c r="AA12" s="135">
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AB12">
         <v>10</v>
       </c>
       <c r="AC12" s="116">
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="118">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B13">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C13">
-        <v>31.712</v>
+        <v>31.5244</v>
       </c>
       <c r="D13">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E13">
-        <v>34.055500000000002</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F13" s="113">
         <v>156</v>
       </c>
       <c r="G13">
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H13" s="200">
         <v>7500</v>
       </c>
       <c r="I13" s="200">
-        <v>24.39</v>
+        <v>24.41</v>
       </c>
       <c r="J13">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>622.84294799999998</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L13">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M13">
-        <v>0.90642500000000004</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N13" s="114">
+        <f>(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
+        <v>720006.41536600015</v>
+      </c>
+      <c r="O13">
+        <v>158.43</v>
+      </c>
+      <c r="P13">
+        <v>256973.54</v>
+      </c>
+      <c r="Q13" s="116">
+        <v>10739.57</v>
+      </c>
+      <c r="R13" s="128">
         <f t="shared" si="0"/>
-        <v>725052.22388499998</v>
-      </c>
-      <c r="O13">
-        <v>167.1</v>
-      </c>
-      <c r="P13">
-        <v>268201.53000000003</v>
-      </c>
-      <c r="Q13" s="116">
-        <v>10268.58</v>
-      </c>
-      <c r="R13" s="128">
-        <f t="shared" ref="R13:R23" si="1">(1-(Q14/Q13))</f>
-        <v>2.1701150499874422E-2</v>
+        <v>5.0241303888330702E-2</v>
       </c>
       <c r="S13" s="117">
-        <f>(N13/$N$44)-1</f>
-        <v>0.36687575454089361</v>
+        <f>(N13/$N$46)-1</f>
+        <v>0.35736334550403681</v>
       </c>
       <c r="T13" s="115">
-        <f>(A13-$A$44)</f>
-        <v>59</v>
+        <f>(A13-$A$46)</f>
+        <v>64</v>
       </c>
       <c r="U13" s="117">
-        <f>((N13/$N$44)-1)/T13*30</f>
-        <v>0.18654699383435269</v>
+        <f>((N13/$N$46)-1)/T13*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V13" s="117"/>
       <c r="W13" s="117"/>
       <c r="X13" s="135"/>
       <c r="Y13" s="135">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z13" s="135"/>
       <c r="AA13" s="135">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB13">
         <v>10</v>
       </c>
       <c r="AC13" s="116">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="118">
-        <v>45412</v>
+        <v>45425</v>
       </c>
       <c r="B14">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C14">
-        <v>31.771699999999999</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D14">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E14">
-        <v>34.014699999999998</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F14" s="113">
         <v>156</v>
       </c>
       <c r="G14">
-        <v>2341.2800000000002</v>
+        <v>2341.31</v>
       </c>
       <c r="H14" s="200">
         <v>7500</v>
       </c>
       <c r="I14" s="200">
-        <v>24.71</v>
+        <v>24.47</v>
       </c>
       <c r="J14">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K14">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L14">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M14">
-        <v>0.90242599999999995</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N14" s="114">
+        <f t="shared" ref="N14:N22" si="1">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
+        <v>724161.16908100003</v>
+      </c>
+      <c r="O14">
+        <v>158.43</v>
+      </c>
+      <c r="P14">
+        <v>256973.54</v>
+      </c>
+      <c r="Q14" s="116">
+        <v>10200</v>
+      </c>
+      <c r="R14" s="128">
         <f t="shared" si="0"/>
-        <v>769379.83326099999</v>
-      </c>
-      <c r="O14">
-        <v>167.1</v>
-      </c>
-      <c r="P14">
-        <v>268201.53000000003</v>
-      </c>
-      <c r="Q14" s="116">
-        <v>10045.74</v>
-      </c>
-      <c r="R14" s="128">
-        <f t="shared" si="1"/>
-        <v>1.2952754102733999E-2</v>
+        <v>-6.7235294117646838E-3</v>
       </c>
       <c r="S14" s="117">
-        <f t="shared" ref="S14" si="2">(N14/$N$44)-1</f>
-        <v>0.45044261016428133</v>
+        <f>(N14/$N$46)-1</f>
+        <v>0.36519592905049159</v>
       </c>
       <c r="T14" s="115">
-        <f t="shared" ref="T14" si="3">(A14-$A$44)</f>
-        <v>50</v>
+        <f>(A14-$A$46)</f>
+        <v>63</v>
       </c>
       <c r="U14" s="117">
-        <f>((N14/$N$44)-1)/T14*30</f>
-        <v>0.27026556609856883</v>
+        <f>((N14/$N$46)-1)/T14*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V14" s="117"/>
       <c r="W14" s="117"/>
       <c r="X14" s="135"/>
       <c r="Y14" s="135">
-        <v>37.39</v>
+        <v>35.86</v>
       </c>
       <c r="Z14" s="135"/>
       <c r="AA14" s="135">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB14">
         <v>10</v>
       </c>
       <c r="AC14" s="116">
-        <v>125.1</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="118">
-        <v>45411</v>
+        <v>45421</v>
       </c>
       <c r="B15">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.948</v>
+        <v>31.712</v>
       </c>
       <c r="D15">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>34.280099999999997</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F15" s="113">
         <v>156</v>
       </c>
       <c r="G15">
-        <v>2384.1799999999998</v>
+        <v>2333.16</v>
       </c>
       <c r="H15" s="200">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I15" s="200">
-        <v>24.91</v>
+        <v>24.39</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15">
+        <v>622.84294799999998</v>
       </c>
       <c r="L15">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M15">
-        <v>0.89855499999999999</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N15" s="114">
+        <f t="shared" si="1"/>
+        <v>725052.22388499998</v>
+      </c>
+      <c r="O15">
+        <v>167.1</v>
+      </c>
+      <c r="P15">
+        <v>268201.53000000003</v>
+      </c>
+      <c r="Q15" s="116">
+        <v>10268.58</v>
+      </c>
+      <c r="R15" s="128">
         <f t="shared" si="0"/>
-        <v>655301.58439900004</v>
-      </c>
-      <c r="O15">
-        <v>167.61</v>
-      </c>
-      <c r="P15">
-        <v>269021.68</v>
-      </c>
-      <c r="Q15" s="116">
-        <v>9915.6200000000008</v>
-      </c>
-      <c r="R15" s="128">
-        <f t="shared" si="1"/>
-        <v>2.5330740790792672E-2</v>
+        <v>2.1701150499874422E-2</v>
       </c>
       <c r="S15" s="117">
-        <f t="shared" ref="S15:S44" si="4">(N15/$N$44)-1</f>
-        <v>0.23538114651627517</v>
+        <f>(N15/$N$46)-1</f>
+        <v>0.36687575454089361</v>
       </c>
       <c r="T15" s="115">
-        <f t="shared" ref="T15:T44" si="5">(A15-$A$44)</f>
-        <v>49</v>
+        <f>(A15-$A$46)</f>
+        <v>59</v>
       </c>
       <c r="U15" s="117">
-        <f>((N15/$N$44)-1)/T15*30</f>
-        <v>0.14411090603037255</v>
+        <f>((N15/$N$46)-1)/T15*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V15" s="117"/>
       <c r="W15" s="117"/>
-      <c r="X15" s="113">
-        <v>35</v>
-      </c>
-      <c r="Y15" s="129">
-        <f>Y18</f>
-        <v>37.39</v>
-      </c>
-      <c r="Z15" s="113">
-        <v>40</v>
-      </c>
-      <c r="AA15" s="129">
-        <f>AA18</f>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135">
+        <v>37.4</v>
+      </c>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135">
         <v>30.5</v>
       </c>
-      <c r="AB15"/>
+      <c r="AB15">
+        <v>10</v>
+      </c>
+      <c r="AC15" s="116">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="118">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="B16">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C16">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D16">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E16">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F16" s="113">
         <v>156</v>
       </c>
       <c r="G16">
+        <v>2341.2800000000002</v>
+      </c>
+      <c r="H16" s="200">
+        <v>7500</v>
+      </c>
+      <c r="I16" s="200">
+        <v>24.71</v>
+      </c>
+      <c r="J16">
+        <v>96</v>
+      </c>
+      <c r="K16">
+        <v>622.84294799999998</v>
+      </c>
+      <c r="L16">
+        <f>L53</f>
+        <v>125000</v>
+      </c>
+      <c r="M16">
+        <v>0.90242599999999995</v>
+      </c>
+      <c r="N16" s="114">
+        <f t="shared" si="1"/>
+        <v>769379.83326099999</v>
+      </c>
+      <c r="O16">
+        <v>167.1</v>
+      </c>
+      <c r="P16">
+        <v>268201.53000000003</v>
+      </c>
+      <c r="Q16" s="116">
+        <v>10045.74</v>
+      </c>
+      <c r="R16" s="128">
+        <f t="shared" si="0"/>
+        <v>1.2952754102733999E-2</v>
+      </c>
+      <c r="S16" s="117">
+        <f t="shared" ref="S16" si="2">(N16/$N$46)-1</f>
+        <v>0.45044261016428133</v>
+      </c>
+      <c r="T16" s="115">
+        <f t="shared" ref="T16" si="3">(A16-$A$46)</f>
+        <v>50</v>
+      </c>
+      <c r="U16" s="117">
+        <f>((N16/$N$46)-1)/T16*30</f>
+        <v>0.27026556609856883</v>
+      </c>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135">
+        <v>37.39</v>
+      </c>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135">
+        <v>30.5</v>
+      </c>
+      <c r="AB16">
+        <v>10</v>
+      </c>
+      <c r="AC16" s="116">
+        <v>125.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29">
+      <c r="A17" s="118">
+        <v>45411</v>
+      </c>
+      <c r="B17">
+        <f>B53</f>
+        <v>1110</v>
+      </c>
+      <c r="C17">
+        <v>31.948</v>
+      </c>
+      <c r="D17">
+        <f>D53</f>
+        <v>321.99</v>
+      </c>
+      <c r="E17">
+        <v>34.280099999999997</v>
+      </c>
+      <c r="F17" s="113">
+        <v>156</v>
+      </c>
+      <c r="G17">
         <v>2384.1799999999998</v>
       </c>
-      <c r="H16" s="200">
+      <c r="H17" s="200">
+        <v>5000</v>
+      </c>
+      <c r="I17" s="200">
+        <v>24.91</v>
+      </c>
+      <c r="L17">
+        <f>L53</f>
+        <v>125000</v>
+      </c>
+      <c r="M17">
+        <v>0.89855499999999999</v>
+      </c>
+      <c r="N17" s="114">
+        <f t="shared" si="1"/>
+        <v>655301.58439900004</v>
+      </c>
+      <c r="O17">
+        <v>167.61</v>
+      </c>
+      <c r="P17">
+        <v>269021.68</v>
+      </c>
+      <c r="Q17" s="116">
+        <v>9915.6200000000008</v>
+      </c>
+      <c r="R17" s="128">
+        <f t="shared" si="0"/>
+        <v>2.5330740790792672E-2</v>
+      </c>
+      <c r="S17" s="117">
+        <f t="shared" ref="S17:S46" si="4">(N17/$N$46)-1</f>
+        <v>0.23538114651627517</v>
+      </c>
+      <c r="T17" s="115">
+        <f t="shared" ref="T17:T46" si="5">(A17-$A$46)</f>
+        <v>49</v>
+      </c>
+      <c r="U17" s="117">
+        <f>((N17/$N$46)-1)/T17*30</f>
+        <v>0.14411090603037255</v>
+      </c>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="113">
+        <v>35</v>
+      </c>
+      <c r="Y17" s="129">
+        <f>Y20</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z17" s="113">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="129">
+        <f>AA20</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="A18" s="118">
+        <v>45408</v>
+      </c>
+      <c r="B18">
+        <f>B53</f>
+        <v>1110</v>
+      </c>
+      <c r="C18">
+        <v>31.948</v>
+      </c>
+      <c r="D18">
+        <f>D53</f>
+        <v>321.99</v>
+      </c>
+      <c r="E18">
+        <v>34.280099999999997</v>
+      </c>
+      <c r="F18" s="113">
+        <v>156</v>
+      </c>
+      <c r="G18">
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H18" s="200">
         <v>2500</v>
       </c>
-      <c r="I16" s="200">
+      <c r="I18" s="200">
         <v>25.11</v>
       </c>
-      <c r="L16">
-        <f>L51</f>
+      <c r="L18">
+        <f>L53</f>
         <v>125000</v>
       </c>
-      <c r="M16">
+      <c r="M18">
         <v>0.89607400000000004</v>
       </c>
-      <c r="N16" s="114">
+      <c r="N18" s="114">
+        <f t="shared" si="1"/>
+        <v>593216.45939900004</v>
+      </c>
+      <c r="O18">
+        <v>167.61</v>
+      </c>
+      <c r="P18">
+        <v>269021.68</v>
+      </c>
+      <c r="Q18" s="116">
+        <v>9664.4500000000007</v>
+      </c>
+      <c r="R18" s="128">
         <f t="shared" si="0"/>
-        <v>593216.45939900004</v>
-      </c>
-      <c r="O16">
-        <v>167.61</v>
-      </c>
-      <c r="P16">
-        <v>269021.68</v>
-      </c>
-      <c r="Q16" s="116">
-        <v>9664.4500000000007</v>
-      </c>
-      <c r="R16" s="128">
-        <f t="shared" si="1"/>
         <v>-5.7478697701369708E-3</v>
       </c>
-      <c r="S16" s="117">
+      <c r="S18" s="117">
         <f t="shared" si="4"/>
         <v>0.11833764360082077</v>
       </c>
-      <c r="T16" s="115">
+      <c r="T18" s="115">
         <f t="shared" si="5"/>
         <v>46</v>
       </c>
-      <c r="U16" s="117">
-        <f>((N16/$N$44)-1)/T16*30</f>
+      <c r="U18" s="117">
+        <f>((N18/$N$46)-1)/T18*30</f>
         <v>7.7176724087491808E-2</v>
-      </c>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y16" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z16" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA16" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB16">
-        <v>10</v>
-      </c>
-      <c r="AC16" s="116">
-        <v>148.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29">
-      <c r="A17" s="118">
-        <v>45407</v>
-      </c>
-      <c r="B17">
-        <f>B51</f>
-        <v>1110</v>
-      </c>
-      <c r="C17">
-        <v>32.0291</v>
-      </c>
-      <c r="D17">
-        <f>D51</f>
-        <v>321.99</v>
-      </c>
-      <c r="E17">
-        <v>34.322299999999998</v>
-      </c>
-      <c r="F17" s="113">
-        <v>156</v>
-      </c>
-      <c r="G17">
-        <v>2368.4699999999998</v>
-      </c>
-      <c r="L17">
-        <f>L51</f>
-        <v>125000</v>
-      </c>
-      <c r="M17">
-        <v>0.90609700000000004</v>
-      </c>
-      <c r="N17" s="114">
-        <f t="shared" si="0"/>
-        <v>529347.18337699992</v>
-      </c>
-      <c r="O17">
-        <v>167.13</v>
-      </c>
-      <c r="P17">
-        <v>268083.81</v>
-      </c>
-      <c r="Q17" s="116">
-        <v>9720</v>
-      </c>
-      <c r="R17" s="128">
-        <f t="shared" si="1"/>
-        <v>-2.1502057613176362E-4</v>
-      </c>
-      <c r="S17" s="117">
-        <f t="shared" si="4"/>
-        <v>-2.0693587896702947E-3</v>
-      </c>
-      <c r="T17" s="115">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="U17" s="117">
-        <f>((N17/$N$44)-1)/T17*30</f>
-        <v>-1.379572526446863E-3</v>
-      </c>
-      <c r="V17" s="117"/>
-      <c r="W17" s="117"/>
-      <c r="X17" s="113"/>
-      <c r="Y17" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB17">
-        <v>10</v>
-      </c>
-      <c r="AC17" s="116">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
-      <c r="A18" s="118">
-        <v>45406</v>
-      </c>
-      <c r="B18">
-        <f>B51</f>
-        <v>1110</v>
-      </c>
-      <c r="C18">
-        <v>31.928699999999999</v>
-      </c>
-      <c r="D18">
-        <f>D51</f>
-        <v>321.99</v>
-      </c>
-      <c r="E18">
-        <v>33.972000000000001</v>
-      </c>
-      <c r="F18" s="113">
-        <v>156</v>
-      </c>
-      <c r="G18">
-        <v>2380.13</v>
-      </c>
-      <c r="L18">
-        <f>L51</f>
-        <v>125000</v>
-      </c>
-      <c r="M18">
-        <v>0.88805999999999996</v>
-      </c>
-      <c r="N18" s="114">
-        <f t="shared" si="0"/>
-        <v>528687.28128</v>
-      </c>
-      <c r="O18">
-        <v>166.96</v>
-      </c>
-      <c r="P18">
-        <v>267307.03000000003</v>
-      </c>
-      <c r="Q18" s="116">
-        <v>9722.09</v>
-      </c>
-      <c r="R18" s="128">
-        <f t="shared" si="1"/>
-        <v>7.927307811386175E-3</v>
-      </c>
-      <c r="S18" s="117">
-        <f t="shared" si="4"/>
-        <v>-3.3134128688740994E-3</v>
-      </c>
-      <c r="T18" s="115">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="U18" s="117">
-        <f>((N18/$N$44)-1)/T18*30</f>
-        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V18" s="117"/>
       <c r="W18" s="117"/>
       <c r="X18" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y18" s="132">
-        <v>37.39</v>
+        <v>68</v>
+      </c>
+      <c r="Y18" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="Z18" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA18" s="132">
-        <v>30.5</v>
+        <v>68</v>
+      </c>
+      <c r="AA18" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="AB18">
         <v>10</v>
       </c>
       <c r="AC18" s="116">
-        <v>135</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="118">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B19">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>31.928699999999999</v>
+        <v>32.0291</v>
       </c>
       <c r="D19">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>33.972000000000001</v>
+        <v>34.322299999999998</v>
       </c>
       <c r="F19" s="113">
         <v>156</v>
       </c>
       <c r="G19">
-        <v>2380.13</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="L19">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M19">
-        <v>0.88805999999999996</v>
+        <v>0.90609700000000004</v>
       </c>
       <c r="N19" s="114">
+        <f t="shared" si="1"/>
+        <v>529347.18337699992</v>
+      </c>
+      <c r="O19">
+        <v>167.13</v>
+      </c>
+      <c r="P19">
+        <v>268083.81</v>
+      </c>
+      <c r="Q19" s="116">
+        <v>9720</v>
+      </c>
+      <c r="R19" s="128">
         <f t="shared" si="0"/>
-        <v>528687.28128</v>
-      </c>
-      <c r="O19">
-        <v>166.96</v>
-      </c>
-      <c r="P19">
-        <v>267307.03000000003</v>
-      </c>
-      <c r="Q19" s="116">
-        <v>9645.02</v>
-      </c>
-      <c r="R19" s="128">
-        <f t="shared" si="1"/>
-        <v>-5.0222809283961833E-3</v>
+        <v>-2.1502057613176362E-4</v>
       </c>
       <c r="S19" s="117">
         <f t="shared" si="4"/>
-        <v>-3.3134128688740994E-3</v>
+        <v>-2.0693587896702947E-3</v>
       </c>
       <c r="T19" s="115">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U19" s="117">
-        <f>((N19/$N$44)-1)/T19*30</f>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N19/$N$46)-1)/T19*30</f>
+        <v>-1.379572526446863E-3</v>
       </c>
       <c r="V19" s="117"/>
       <c r="W19" s="117"/>
       <c r="X19" s="113"/>
-      <c r="Y19" s="117" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
+      <c r="Y19" s="131" t="s">
+        <v>70</v>
       </c>
       <c r="Z19" s="113"/>
-      <c r="AA19" s="117" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB19" s="113">
+      <c r="AA19" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB19">
         <v>10</v>
       </c>
-      <c r="AC19" s="129">
+      <c r="AC19" s="116">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="118">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B20">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.803999999999998</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D20">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>33.928400000000003</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F20" s="113">
         <v>156</v>
       </c>
       <c r="G20">
-        <v>2427.62</v>
+        <v>2380.13</v>
       </c>
       <c r="L20">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M20">
-        <v>0.87351800000000002</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N20" s="114">
-        <f t="shared" si="0"/>
-        <v>534125.51551599998</v>
+        <f t="shared" si="1"/>
+        <v>528687.28128</v>
       </c>
       <c r="O20">
-        <v>170.57</v>
+        <v>166.96</v>
       </c>
       <c r="P20">
-        <v>272736.27</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q20" s="116">
-        <v>9693.4599999999991</v>
+        <v>9722.09</v>
       </c>
       <c r="R20" s="128">
-        <f t="shared" si="1"/>
-        <v>1.4091975414350921E-3</v>
+        <f t="shared" ref="R20:R25" si="6">(1-(Q21/Q20))</f>
+        <v>7.927307811386175E-3</v>
       </c>
       <c r="S20" s="117">
         <f t="shared" si="4"/>
-        <v>6.9388010818296486E-3</v>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T20" s="115">
         <f t="shared" si="5"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="U20" s="117">
-        <f>((N20/$N$44)-1)/T20*30</f>
-        <v>5.3375392937151144E-3</v>
+        <f>((N20/$N$46)-1)/T20*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V20" s="117"/>
       <c r="W20" s="117"/>
       <c r="X20" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y20" s="116">
-        <f>Y18*X15</f>
-        <v>1308.6500000000001</v>
+        <v>71</v>
+      </c>
+      <c r="Y20" s="132">
+        <v>37.39</v>
       </c>
       <c r="Z20" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA20" s="116">
-        <f>AA18*Z15</f>
-        <v>1220</v>
-      </c>
-      <c r="AB20" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC20" s="130" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="AA20" s="132">
+        <v>30.5</v>
+      </c>
+      <c r="AB20">
+        <v>10</v>
+      </c>
+      <c r="AC20" s="116">
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="118">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="B21">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.863399999999999</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D21">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>33.963099999999997</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F21" s="113">
         <v>156</v>
       </c>
       <c r="G21">
-        <v>2387.5100000000002</v>
+        <v>2380.13</v>
       </c>
       <c r="L21">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M21">
-        <v>0.89791399999999999</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N21" s="114">
-        <f t="shared" ref="N21:N56" si="6">(F21*G21)+(B21*C21)+(D21*E21)+(L21*M21)+(H21*I21)</f>
-        <v>530994.96256900008</v>
+        <f t="shared" si="1"/>
+        <v>528687.28128</v>
       </c>
       <c r="O21">
-        <v>169.14</v>
+        <v>166.96</v>
       </c>
       <c r="P21">
-        <v>269604.92</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q21" s="116">
-        <v>9679.7999999999993</v>
+        <v>9645.02</v>
       </c>
       <c r="R21" s="128">
-        <f t="shared" si="1"/>
-        <v>-1.3880452075456073E-2</v>
+        <f t="shared" si="6"/>
+        <v>-5.0222809283961833E-3</v>
       </c>
       <c r="S21" s="117">
         <f t="shared" si="4"/>
-        <v>1.0370511380362046E-3</v>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T21" s="115">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="U21" s="117">
-        <f>((N21/$N$44)-1)/T21*30</f>
-        <v>8.8890097545960402E-4</v>
+        <f>((N21/$N$46)-1)/T21*30</f>
+        <v>-2.3667234777672141E-3</v>
       </c>
       <c r="V21" s="117"/>
       <c r="W21" s="117"/>
-      <c r="X21" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y21" s="133">
-        <f>(X15*Y5)-(X15*Y18)</f>
-        <v>-90.650000000000091</v>
-      </c>
-      <c r="Z21" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA21" s="133">
-        <f>(Z15*AA5)-(Z15*AA18)</f>
-        <v>-79.200000000000045</v>
-      </c>
-      <c r="AC21" s="131" t="s">
-        <v>70</v>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="117" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="117" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB21" s="113">
+        <v>10</v>
+      </c>
+      <c r="AC21" s="129">
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="118">
-        <v>45391</v>
+        <v>45401</v>
       </c>
       <c r="B22">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.412299999999998</v>
+        <v>31.803999999999998</v>
       </c>
       <c r="D22">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>34.091799999999999</v>
+        <v>33.928400000000003</v>
       </c>
       <c r="F22" s="113">
         <v>156</v>
       </c>
       <c r="G22">
-        <v>2352.21</v>
+        <v>2427.62</v>
       </c>
       <c r="L22">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M22">
-        <v>0.89529800000000004</v>
+        <v>0.87351800000000002</v>
       </c>
       <c r="N22" s="114">
+        <f t="shared" si="1"/>
+        <v>534125.51551599998</v>
+      </c>
+      <c r="O22">
+        <v>170.57</v>
+      </c>
+      <c r="P22">
+        <v>272736.27</v>
+      </c>
+      <c r="Q22" s="116">
+        <v>9693.4599999999991</v>
+      </c>
+      <c r="R22" s="128">
         <f t="shared" si="6"/>
-        <v>524701.88168200001</v>
-      </c>
-      <c r="O22">
-        <v>165.81</v>
-      </c>
-      <c r="P22">
-        <v>263308.84999999998</v>
-      </c>
-      <c r="Q22" s="116">
-        <v>9814.16</v>
-      </c>
-      <c r="R22" s="128">
-        <f t="shared" si="1"/>
-        <v>5.8558246452063978E-3</v>
+        <v>1.4091975414350921E-3</v>
       </c>
       <c r="S22" s="117">
         <f t="shared" si="4"/>
-        <v>-1.0826728328378388E-2</v>
+        <v>6.9388010818296486E-3</v>
       </c>
       <c r="T22" s="115">
         <f t="shared" si="5"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="U22" s="117">
-        <f>((N22/$N$44)-1)/T22*30</f>
-        <v>-1.1200063787977641E-2</v>
+        <f>((N22/$N$46)-1)/T22*30</f>
+        <v>5.3375392937151144E-3</v>
       </c>
       <c r="V22" s="117"/>
       <c r="W22" s="117"/>
-      <c r="X22" s="117"/>
-      <c r="Y22" s="117"/>
-      <c r="Z22" s="117"/>
-      <c r="AA22" s="117"/>
+      <c r="X22" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y22" s="116">
+        <f>Y20*X17</f>
+        <v>1308.6500000000001</v>
+      </c>
+      <c r="Z22" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA22" s="116">
+        <f>AA20*Z17</f>
+        <v>1220</v>
+      </c>
       <c r="AB22" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC22" s="132">
-        <v>135</v>
+        <v>68</v>
+      </c>
+      <c r="AC22" s="130" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="118">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="B23">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.5198</v>
+        <v>31.863399999999999</v>
       </c>
       <c r="D23">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>34.154899999999998</v>
+        <v>33.963099999999997</v>
       </c>
       <c r="F23" s="113">
         <v>156</v>
       </c>
       <c r="G23">
-        <v>2344.37</v>
+        <v>2387.5100000000002</v>
       </c>
       <c r="L23">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.818581</v>
+        <v>0.89791399999999999</v>
       </c>
       <c r="N23" s="114">
+        <f t="shared" ref="N23:N58" si="7">(F23*G23)+(B23*C23)+(D23*E23)+(L23*M23)+(H23*I23)</f>
+        <v>530994.96256900008</v>
+      </c>
+      <c r="O23">
+        <v>169.14</v>
+      </c>
+      <c r="P23">
+        <v>269604.92</v>
+      </c>
+      <c r="Q23" s="116">
+        <v>9679.7999999999993</v>
+      </c>
+      <c r="R23" s="128">
         <f t="shared" si="6"/>
-        <v>514028.85925099999</v>
-      </c>
-      <c r="O23">
-        <v>159.19</v>
-      </c>
-      <c r="P23">
-        <v>252634.37</v>
-      </c>
-      <c r="Q23" s="116">
-        <v>9756.69</v>
-      </c>
-      <c r="R23" s="128">
-        <f t="shared" si="1"/>
-        <v>1.4129791968382821E-2</v>
+        <v>-1.3880452075456073E-2</v>
       </c>
       <c r="S23" s="117">
         <f t="shared" si="4"/>
-        <v>-3.0947617704367603E-2</v>
+        <v>1.0370511380362046E-3</v>
       </c>
       <c r="T23" s="115">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="U23" s="117">
-        <f>((N23/$N$44)-1)/T23*30</f>
-        <v>-3.3158161826108146E-2</v>
+        <f>((N23/$N$46)-1)/T23*30</f>
+        <v>8.8890097545960402E-4</v>
       </c>
       <c r="V23" s="117"/>
       <c r="W23" s="117"/>
-      <c r="X23" s="117"/>
-      <c r="Y23" s="117"/>
-      <c r="Z23" s="117"/>
-      <c r="AA23" s="117"/>
-      <c r="AC23" s="117">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
+      <c r="X23" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y23" s="133">
+        <f>(X17*Y5)-(X17*Y20)</f>
+        <v>-176.05000000000018</v>
+      </c>
+      <c r="Z23" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA23" s="133">
+        <f>(Z17*AA5)-(Z17*AA20)</f>
+        <v>-296.80000000000007</v>
+      </c>
+      <c r="AC23" s="131" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="118">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B24">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.407</v>
+        <v>31.412299999999998</v>
       </c>
       <c r="D24">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>34.038899999999998</v>
+        <v>34.091799999999999</v>
       </c>
       <c r="F24" s="113">
         <v>156</v>
       </c>
       <c r="G24">
-        <v>2289.27</v>
+        <v>2352.21</v>
       </c>
       <c r="L24">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M24">
-        <v>0.82424600000000003</v>
+        <v>0.89529800000000004</v>
       </c>
       <c r="N24" s="114">
+        <f t="shared" si="7"/>
+        <v>524701.88168200001</v>
+      </c>
+      <c r="O24">
+        <v>165.81</v>
+      </c>
+      <c r="P24">
+        <v>263308.84999999998</v>
+      </c>
+      <c r="Q24" s="116">
+        <v>9814.16</v>
+      </c>
+      <c r="R24" s="128">
         <f t="shared" si="6"/>
-        <v>505978.825411</v>
-      </c>
-      <c r="O24">
-        <v>154.41</v>
-      </c>
-      <c r="P24">
-        <v>244587.02</v>
-      </c>
-      <c r="Q24" s="116">
-        <v>9618.83</v>
-      </c>
-      <c r="R24" s="128">
-        <f t="shared" ref="R24:R55" si="7">(1-(Q25/Q24))</f>
-        <v>5.0921993631241946E-2</v>
+        <v>5.8558246452063978E-3</v>
       </c>
       <c r="S24" s="117">
         <f t="shared" si="4"/>
-        <v>-4.6123622572225242E-2</v>
+        <v>-1.0826728328378388E-2</v>
       </c>
       <c r="T24" s="115">
         <f t="shared" si="5"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U24" s="117">
-        <f>((N24/$N$44)-1)/T24*30</f>
-        <v>-5.5348347086670288E-2</v>
+        <f>((N24/$N$46)-1)/T24*30</f>
+        <v>-1.1200063787977641E-2</v>
       </c>
       <c r="V24" s="117"/>
       <c r="W24" s="117"/>
@@ -6990,72 +7029,71 @@
       <c r="Z24" s="117"/>
       <c r="AA24" s="117"/>
       <c r="AB24" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC24" s="116">
-        <f>AC22*AB19</f>
-        <v>1350</v>
+        <v>71</v>
+      </c>
+      <c r="AC24" s="132">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="118">
-        <v>45386</v>
+        <v>45390</v>
       </c>
       <c r="B25">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>31.399799999999999</v>
+        <v>31.5198</v>
       </c>
       <c r="D25">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>34.053100000000001</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F25" s="113">
         <v>156</v>
       </c>
       <c r="G25">
-        <v>2292.5700000000002</v>
+        <v>2344.37</v>
       </c>
       <c r="L25">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M25">
-        <v>0.82913899999999996</v>
+        <v>0.818581</v>
       </c>
       <c r="N25" s="114">
+        <f t="shared" si="7"/>
+        <v>514028.85925099999</v>
+      </c>
+      <c r="O25">
+        <v>159.19</v>
+      </c>
+      <c r="P25">
+        <v>252634.37</v>
+      </c>
+      <c r="Q25" s="116">
+        <v>9756.69</v>
+      </c>
+      <c r="R25" s="128">
         <f t="shared" si="6"/>
-        <v>507101.83066900005</v>
-      </c>
-      <c r="O25">
-        <v>155.22</v>
-      </c>
-      <c r="P25">
-        <v>245709.7</v>
-      </c>
-      <c r="Q25" s="116">
-        <v>9129.02</v>
-      </c>
-      <c r="R25" s="128">
-        <f t="shared" si="7"/>
-        <v>2.0070062284889389E-2</v>
+        <v>1.4129791968382821E-2</v>
       </c>
       <c r="S25" s="117">
         <f t="shared" si="4"/>
-        <v>-4.4006521749946126E-2</v>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T25" s="115">
         <f t="shared" si="5"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U25" s="117">
-        <f>((N25/$N$44)-1)/T25*30</f>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N25/$N$46)-1)/T25*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V25" s="117"/>
       <c r="W25" s="117"/>
@@ -7063,73 +7101,70 @@
       <c r="Y25" s="117"/>
       <c r="Z25" s="117"/>
       <c r="AA25" s="117"/>
-      <c r="AB25" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC25" s="133">
-        <f>(AB10*AC5)-(AB10*AC22)</f>
-        <v>-115</v>
+      <c r="AC25" s="117">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="118">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B26">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D26">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F26" s="113">
         <v>156</v>
       </c>
       <c r="G26">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L26">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M26">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N26" s="114">
-        <f t="shared" si="6"/>
-        <v>507101.83066900005</v>
+        <f t="shared" si="7"/>
+        <v>505978.825411</v>
       </c>
       <c r="O26">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="P26">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="Q26" s="116">
-        <v>8945.7999999999993</v>
+        <v>9618.83</v>
       </c>
       <c r="R26" s="128">
-        <f t="shared" si="7"/>
-        <v>-1.0627333497283731E-2</v>
+        <f t="shared" ref="R26:R57" si="8">(1-(Q27/Q26))</f>
+        <v>5.0921993631241946E-2</v>
       </c>
       <c r="S26" s="117">
         <f t="shared" si="4"/>
-        <v>-4.4006521749946126E-2</v>
+        <v>-4.6123622572225242E-2</v>
       </c>
       <c r="T26" s="115">
         <f t="shared" si="5"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U26" s="117">
-        <f>((N26/$N$44)-1)/T26*30</f>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N26/$N$46)-1)/T26*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V26" s="117"/>
       <c r="W26" s="117"/>
@@ -7137,68 +7172,73 @@
       <c r="Y26" s="117"/>
       <c r="Z26" s="117"/>
       <c r="AA26" s="117"/>
-      <c r="AB26" s="134"/>
-      <c r="AC26" s="135"/>
+      <c r="AB26" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC26" s="116">
+        <f>AC24*AB21</f>
+        <v>1350</v>
+      </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="118">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B27">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D27">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F27" s="113">
         <v>156</v>
       </c>
       <c r="G27">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L27">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M27">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N27" s="114">
-        <f t="shared" si="6"/>
-        <v>509777.60801200004</v>
+        <f t="shared" si="7"/>
+        <v>507101.83066900005</v>
       </c>
       <c r="O27">
-        <v>157.11000000000001</v>
+        <v>155.22</v>
       </c>
       <c r="P27">
-        <v>248387.66</v>
+        <v>245709.7</v>
       </c>
       <c r="Q27" s="116">
-        <v>9040.8700000000008</v>
+        <v>9129.02</v>
       </c>
       <c r="R27" s="128">
-        <f t="shared" si="7"/>
-        <v>-1.2904731513670775E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.0070062284889389E-2</v>
       </c>
       <c r="S27" s="117">
         <f t="shared" si="4"/>
-        <v>-3.8962119354903346E-2</v>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T27" s="115">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U27" s="117">
-        <f>((N27/$N$44)-1)/T27*30</f>
-        <v>-5.3130162756686382E-2</v>
+        <f>((N27/$N$46)-1)/T27*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V27" s="117"/>
       <c r="W27" s="117"/>
@@ -7206,68 +7246,73 @@
       <c r="Y27" s="117"/>
       <c r="Z27" s="117"/>
       <c r="AA27" s="117"/>
-      <c r="AB27" s="134"/>
-      <c r="AC27" s="135"/>
+      <c r="AB27" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC27" s="133">
+        <f>(AB10*AC5)-(AB10*AC24)</f>
+        <v>-110</v>
+      </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="118">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B28">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C28">
-        <v>31.879300000000001</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D28">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E28">
-        <v>34.391399999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F28" s="113">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G28">
-        <v>2308.4299999999998</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L28">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M28">
-        <v>0.88097599999999998</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N28" s="114">
-        <f t="shared" si="6"/>
-        <v>528238.93988600001</v>
+        <f t="shared" si="7"/>
+        <v>507101.83066900005</v>
       </c>
       <c r="O28">
-        <v>161.66</v>
+        <v>155.22</v>
       </c>
       <c r="P28">
-        <v>255424.81</v>
+        <v>245709.7</v>
       </c>
       <c r="Q28" s="116">
-        <v>9157.5400000000009</v>
+        <v>8945.7999999999993</v>
       </c>
       <c r="R28" s="128">
-        <f t="shared" si="7"/>
-        <v>1.6532824317448958E-3</v>
+        <f t="shared" si="8"/>
+        <v>-1.0627333497283731E-2</v>
       </c>
       <c r="S28" s="117">
         <f t="shared" si="4"/>
-        <v>-4.1586305801334378E-3</v>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T28" s="115">
         <f t="shared" si="5"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U28" s="117">
-        <f>((N28/$N$44)-1)/T28*30</f>
-        <v>-5.9409008287620545E-3</v>
+        <f>((N28/$N$46)-1)/T28*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V28" s="117"/>
       <c r="W28" s="117"/>
@@ -7280,63 +7325,63 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="118">
-        <v>45381</v>
+        <v>45384</v>
       </c>
       <c r="B29">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C29">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D29">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E29">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F29" s="113">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G29">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L29">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M29">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N29" s="114">
-        <f t="shared" si="6"/>
-        <v>528238.93988600001</v>
+        <f t="shared" si="7"/>
+        <v>509777.60801200004</v>
       </c>
       <c r="O29">
-        <v>161.66</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="P29">
-        <v>255424.81</v>
+        <v>248387.66</v>
       </c>
       <c r="Q29" s="116">
-        <v>9142.4</v>
+        <v>9040.8700000000008</v>
       </c>
       <c r="R29" s="128">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>-1.2904731513670775E-2</v>
       </c>
       <c r="S29" s="117">
         <f t="shared" si="4"/>
-        <v>-4.1586305801334378E-3</v>
+        <v>-3.8962119354903346E-2</v>
       </c>
       <c r="T29" s="115">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U29" s="117">
-        <f>((N29/$N$44)-1)/T29*30</f>
-        <v>-6.5662588107370072E-3</v>
+        <f>((N29/$N$46)-1)/T29*30</f>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V29" s="117"/>
       <c r="W29" s="117"/>
@@ -7349,63 +7394,63 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="118">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B30">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D30">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F30" s="113">
         <v>161</v>
       </c>
       <c r="G30">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L30">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M30">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N30" s="114">
-        <f t="shared" si="6"/>
-        <v>518957.34710100002</v>
+        <f t="shared" si="7"/>
+        <v>528238.93988600001</v>
       </c>
       <c r="O30">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="P30">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="Q30" s="116">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="R30" s="128">
-        <f t="shared" si="7"/>
-        <v>6.8286226811340445E-3</v>
+        <f t="shared" si="8"/>
+        <v>1.6532824317448958E-3</v>
       </c>
       <c r="S30" s="117">
         <f t="shared" si="4"/>
-        <v>-2.165638277425741E-2</v>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T30" s="115">
         <f t="shared" si="5"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U30" s="117">
-        <f>((N30/$N$44)-1)/T30*30</f>
-        <v>-3.6093971290429017E-2</v>
+        <f>((N30/$N$46)-1)/T30*30</f>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V30" s="117"/>
       <c r="W30" s="117"/>
@@ -7418,63 +7463,63 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="118">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B31">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>31.870699999999999</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D31">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>34.480800000000002</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F31" s="113">
         <v>161</v>
       </c>
       <c r="G31">
-        <v>2240.09</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L31">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.86473199999999995</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N31" s="114">
-        <f t="shared" si="6"/>
-        <v>515224.93979200005</v>
+        <f t="shared" si="7"/>
+        <v>528238.93988600001</v>
       </c>
       <c r="O31">
-        <v>153.81</v>
+        <v>161.66</v>
       </c>
       <c r="P31">
-        <v>242408.74</v>
+        <v>255424.81</v>
       </c>
       <c r="Q31" s="116">
-        <v>9079.9699999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R31" s="128">
-        <f t="shared" si="7"/>
-        <v>3.0093711763364839E-2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="S31" s="117">
         <f t="shared" si="4"/>
-        <v>-2.8692754622628547E-2</v>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T31" s="115">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U31" s="117">
-        <f>((N31/$N$44)-1)/T31*30</f>
-        <v>-5.0634272863462143E-2</v>
+        <f>((N31/$N$46)-1)/T31*30</f>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V31" s="117"/>
       <c r="W31" s="117"/>
@@ -7487,63 +7532,63 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="118">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B32">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C32">
-        <v>31.821999999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D32">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E32">
-        <v>34.5045</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F32" s="113">
         <v>161</v>
       </c>
       <c r="G32">
-        <v>2227.25</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L32">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M32">
-        <v>0.85899999999999999</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N32" s="114">
-        <f t="shared" si="6"/>
-        <v>512394.77395499998</v>
+        <f t="shared" si="7"/>
+        <v>518957.34710100002</v>
       </c>
       <c r="O32">
-        <v>154.24</v>
+        <v>156.08000000000001</v>
       </c>
       <c r="P32">
-        <v>242616.68</v>
+        <v>246143.72</v>
       </c>
       <c r="Q32" s="116">
-        <v>8806.7199999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R32" s="128">
-        <f t="shared" si="7"/>
-        <v>-7.4942770974972817E-5</v>
+        <f t="shared" si="8"/>
+        <v>6.8286226811340445E-3</v>
       </c>
       <c r="S32" s="117">
         <f t="shared" si="4"/>
-        <v>-3.4028211761422011E-2</v>
+        <v>-2.165638277425741E-2</v>
       </c>
       <c r="T32" s="115">
         <f t="shared" si="5"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U32" s="117">
-        <f>((N32/$N$44)-1)/T32*30</f>
-        <v>-6.3802897052666271E-2</v>
+        <f>((N32/$N$46)-1)/T32*30</f>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V32" s="117"/>
       <c r="W32" s="117"/>
@@ -7556,63 +7601,63 @@
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="118">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B33">
-        <f>B52</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C33">
-        <v>31.530999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D33">
-        <f>D52</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E33">
-        <v>34.125900000000001</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F33" s="113">
         <v>161</v>
       </c>
       <c r="G33">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L33">
-        <f>L52</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M33">
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N33" s="114">
-        <f t="shared" si="6"/>
-        <v>515864.35854099999</v>
+        <f t="shared" si="7"/>
+        <v>515224.93979200005</v>
       </c>
       <c r="O33">
-        <v>154.24</v>
+        <v>153.81</v>
       </c>
       <c r="P33">
-        <v>242616.68</v>
+        <v>242408.74</v>
       </c>
       <c r="Q33" s="116">
-        <v>8807.3799999999992</v>
+        <v>9079.9699999999993</v>
       </c>
       <c r="R33" s="128">
-        <f t="shared" si="7"/>
-        <v>-2.5206133946758191E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.0093711763364839E-2</v>
       </c>
       <c r="S33" s="117">
         <f t="shared" si="4"/>
-        <v>-2.7487315957364089E-2</v>
+        <v>-2.8692754622628547E-2</v>
       </c>
       <c r="T33" s="115">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U33" s="117">
-        <f>((N33/$N$44)-1)/T33*30</f>
-        <v>-5.4974631914728178E-2</v>
+        <f>((N33/$N$46)-1)/T33*30</f>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V33" s="117"/>
       <c r="W33" s="117"/>
@@ -7625,63 +7670,63 @@
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="118">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B34">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C34">
-        <v>31.786200000000001</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D34">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E34">
-        <v>34.386299999999999</v>
+        <v>34.5045</v>
       </c>
       <c r="F34" s="113">
         <v>161</v>
       </c>
       <c r="G34">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L34">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M34">
-        <v>0.91889100000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N34" s="114">
-        <f t="shared" si="6"/>
-        <v>517720.01173699996</v>
+        <f t="shared" si="7"/>
+        <v>512394.77395499998</v>
       </c>
       <c r="O34">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="P34">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="Q34" s="116">
-        <v>9029.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="R34" s="128">
-        <f t="shared" si="7"/>
-        <v>-9.0947551216142841E-3</v>
+        <f t="shared" si="8"/>
+        <v>-7.4942770974972817E-5</v>
       </c>
       <c r="S34" s="117">
         <f t="shared" si="4"/>
-        <v>-2.3989019863797534E-2</v>
+        <v>-3.4028211761422011E-2</v>
       </c>
       <c r="T34" s="115">
         <f t="shared" si="5"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U34" s="117">
-        <f>((N34/$N$44)-1)/T34*30</f>
-        <v>-5.1405042565280425E-2</v>
+        <f>((N34/$N$46)-1)/T34*30</f>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V34" s="117"/>
       <c r="W34" s="117"/>
@@ -7694,63 +7739,63 @@
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="118">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B35">
-        <f>B51</f>
+        <f>B54</f>
         <v>1110</v>
       </c>
       <c r="C35">
-        <v>31.710699999999999</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D35">
-        <f>D51</f>
+        <f>D54</f>
         <v>321.99</v>
       </c>
       <c r="E35">
-        <v>34.336300000000001</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F35" s="113">
         <v>161</v>
       </c>
       <c r="G35">
-        <v>2212.11</v>
+        <v>2227.25</v>
       </c>
       <c r="L35">
-        <f>L51</f>
+        <f>L54</f>
         <v>125000</v>
       </c>
       <c r="M35">
-        <v>0.93062100000000003</v>
+        <v>0.890316</v>
       </c>
       <c r="N35" s="114">
-        <f t="shared" si="6"/>
-        <v>518732.15723700001</v>
+        <f t="shared" si="7"/>
+        <v>515864.35854099999</v>
       </c>
       <c r="O35">
-        <v>156.63999999999999</v>
+        <v>154.24</v>
       </c>
       <c r="P35">
-        <v>245919.31</v>
-      </c>
-      <c r="Q35">
-        <v>9111.5</v>
+        <v>242616.68</v>
+      </c>
+      <c r="Q35" s="116">
+        <v>8807.3799999999992</v>
       </c>
       <c r="R35" s="128">
-        <f t="shared" si="7"/>
-        <v>-3.2047412610438641E-3</v>
+        <f t="shared" si="8"/>
+        <v>-2.5206133946758191E-2</v>
       </c>
       <c r="S35" s="117">
         <f t="shared" si="4"/>
-        <v>-2.2080912973779676E-2</v>
+        <v>-2.7487315957364089E-2</v>
       </c>
       <c r="T35" s="115">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U35" s="117">
-        <f>((N35/$N$44)-1)/T35*30</f>
-        <v>-6.0220671746671839E-2</v>
+        <f>((N35/$N$46)-1)/T35*30</f>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V35" s="117"/>
       <c r="W35" s="117"/>
@@ -7763,63 +7808,63 @@
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="118">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B36">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C36">
-        <v>32.063899999999997</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D36">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E36">
-        <v>35.065100000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F36" s="113">
         <v>161</v>
       </c>
       <c r="G36">
-        <v>2267.61</v>
+        <v>2214.31</v>
       </c>
       <c r="L36">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M36">
-        <v>0.94166499999999997</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N36" s="114">
-        <f t="shared" si="6"/>
-        <v>529674.87554899999</v>
+        <f t="shared" si="7"/>
+        <v>517720.01173699996</v>
       </c>
       <c r="O36">
-        <v>163.91</v>
+        <v>155.99</v>
       </c>
       <c r="P36">
-        <v>256845.12</v>
+        <v>244906</v>
       </c>
       <c r="Q36" s="116">
-        <v>9140.7000000000007</v>
+        <v>9029.3799999999992</v>
       </c>
       <c r="R36" s="128">
-        <f t="shared" si="7"/>
-        <v>2.0302602645311585E-2</v>
+        <f t="shared" si="8"/>
+        <v>-9.0947551216142841E-3</v>
       </c>
       <c r="S36" s="117">
         <f t="shared" si="4"/>
-        <v>-1.4515902067954167E-3</v>
+        <v>-2.3989019863797534E-2</v>
       </c>
       <c r="T36" s="115">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U36" s="117">
-        <f>((N36/$N$44)-1)/T36*30</f>
-        <v>-4.3547706203862502E-3</v>
+        <f>((N36/$N$46)-1)/T36*30</f>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V36" s="117"/>
       <c r="W36" s="117"/>
@@ -7832,63 +7877,63 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="118">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B37">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C37">
-        <v>32.028799999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D37">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E37">
-        <v>34.808799999999998</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F37" s="113">
         <v>161</v>
       </c>
       <c r="G37">
-        <v>2220.92</v>
+        <v>2212.11</v>
       </c>
       <c r="L37">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M37">
-        <v>0.93470600000000004</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N37" s="114">
-        <f t="shared" si="6"/>
-        <v>521166.42351200001</v>
+        <f t="shared" si="7"/>
+        <v>518732.15723700001</v>
       </c>
       <c r="O37">
-        <v>158.47999999999999</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="P37">
-        <v>248342.62</v>
-      </c>
-      <c r="Q37" s="116">
-        <v>8955.1200000000008</v>
+        <v>245919.31</v>
+      </c>
+      <c r="Q37">
+        <v>9111.5</v>
       </c>
       <c r="R37" s="128">
-        <f t="shared" si="7"/>
-        <v>2.8184993612594411E-3</v>
+        <f t="shared" si="8"/>
+        <v>-3.2047412610438641E-3</v>
       </c>
       <c r="S37" s="117">
         <f t="shared" si="4"/>
-        <v>-1.7491809676412506E-2</v>
+        <v>-2.2080912973779676E-2</v>
       </c>
       <c r="T37" s="115">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U37" s="117">
-        <f>((N37/$N$44)-1)/T37*30</f>
-        <v>-5.8306032254708352E-2</v>
+        <f>((N37/$N$46)-1)/T37*30</f>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V37" s="117"/>
       <c r="W37" s="117"/>
@@ -7901,63 +7946,63 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="118">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B38">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C38">
-        <v>32.087800000000001</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D38">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E38">
-        <v>34.799100000000003</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F38" s="113">
         <v>161</v>
       </c>
       <c r="G38">
-        <v>2219.02</v>
+        <v>2267.61</v>
       </c>
       <c r="L38">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M38">
-        <v>0.90033600000000003</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N38" s="114">
-        <f t="shared" si="6"/>
-        <v>516626.64020899998</v>
+        <f t="shared" si="7"/>
+        <v>529674.87554899999</v>
       </c>
       <c r="O38">
-        <v>155.59</v>
+        <v>163.91</v>
       </c>
       <c r="P38">
-        <v>243803.06</v>
+        <v>256845.12</v>
       </c>
       <c r="Q38" s="116">
-        <v>8929.8799999999992</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="R38" s="128">
-        <f t="shared" si="7"/>
-        <v>2.3714764364134666E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.0302602645311585E-2</v>
       </c>
       <c r="S38" s="117">
         <f t="shared" si="4"/>
-        <v>-2.6050254879836254E-2</v>
+        <v>-1.4515902067954167E-3</v>
       </c>
       <c r="T38" s="115">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U38" s="117">
-        <f>((N38/$N$44)-1)/T38*30</f>
-        <v>-9.7688455799385954E-2</v>
+        <f>((N38/$N$46)-1)/T38*30</f>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V38" s="117"/>
       <c r="W38" s="117"/>
@@ -7967,72 +8012,66 @@
       <c r="AA38" s="117"/>
       <c r="AB38" s="134"/>
       <c r="AC38" s="135"/>
-      <c r="AL38">
-        <v>68</v>
-      </c>
-      <c r="AM38">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="118">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B39">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C39">
-        <v>31.9499</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D39">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E39">
-        <v>34.8125</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F39" s="113">
         <v>161</v>
       </c>
       <c r="G39">
-        <v>2212.35</v>
+        <v>2220.92</v>
       </c>
       <c r="L39">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M39">
-        <v>0.93887900000000002</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N39" s="114">
-        <f t="shared" si="6"/>
-        <v>520221.89087499998</v>
+        <f t="shared" si="7"/>
+        <v>521166.42351200001</v>
       </c>
       <c r="O39">
-        <v>155.44</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="P39">
-        <v>247623.17</v>
+        <v>248342.62</v>
       </c>
       <c r="Q39" s="116">
-        <v>8718.11</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="R39" s="128">
-        <f t="shared" si="7"/>
-        <v>-1.2685088855267868E-2</v>
+        <f t="shared" si="8"/>
+        <v>2.8184993612594411E-3</v>
       </c>
       <c r="S39" s="117">
         <f t="shared" si="4"/>
-        <v>-1.9272452116166794E-2</v>
+        <v>-1.7491809676412506E-2</v>
       </c>
       <c r="T39" s="115">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U39" s="117">
-        <f>((N39/$N$44)-1)/T39*30</f>
-        <v>-8.2596223355000553E-2</v>
+        <f>((N39/$N$46)-1)/T39*30</f>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V39" s="117"/>
       <c r="W39" s="117"/>
@@ -8042,72 +8081,66 @@
       <c r="AA39" s="117"/>
       <c r="AB39" s="134"/>
       <c r="AC39" s="135"/>
-      <c r="AL39">
-        <v>68</v>
-      </c>
-      <c r="AM39">
-        <v>22.96</v>
-      </c>
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="118">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B40">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>31.796299999999999</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D40">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>34.619700000000002</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F40" s="113">
         <v>161</v>
       </c>
       <c r="G40">
-        <v>2213.54</v>
+        <v>2219.02</v>
       </c>
       <c r="L40">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.94838599999999995</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N40" s="114">
-        <f t="shared" si="6"/>
-        <v>521369.280203</v>
+        <f t="shared" si="7"/>
+        <v>516626.64020899998</v>
       </c>
       <c r="O40">
-        <v>156.13</v>
+        <v>155.59</v>
       </c>
       <c r="P40">
-        <v>248712.47</v>
+        <v>243803.06</v>
       </c>
       <c r="Q40" s="116">
-        <v>8828.7000000000007</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="R40" s="128">
-        <f t="shared" si="7"/>
-        <v>-6.2092946866469934E-3</v>
+        <f t="shared" si="8"/>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="S40" s="117">
         <f t="shared" si="4"/>
-        <v>-1.7109382199549383E-2</v>
+        <v>-2.6050254879836254E-2</v>
       </c>
       <c r="T40" s="115">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U40" s="117">
-        <f>((N40/$N$44)-1)/T40*30</f>
-        <v>-0.12832036649662037</v>
+        <f>((N40/$N$46)-1)/T40*30</f>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V40" s="117"/>
       <c r="W40" s="117"/>
@@ -8121,68 +8154,68 @@
         <v>68</v>
       </c>
       <c r="AM40">
-        <v>22.04</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:39">
       <c r="A41" s="118">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B41">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>31.775700000000001</v>
+        <v>31.9499</v>
       </c>
       <c r="D41">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>34.762500000000003</v>
+        <v>34.8125</v>
       </c>
       <c r="F41" s="113">
         <v>161</v>
       </c>
       <c r="G41">
-        <v>2222.88</v>
+        <v>2212.35</v>
       </c>
       <c r="L41">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.95100700000000005</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N41" s="114">
-        <f t="shared" si="6"/>
-        <v>523223.75937500002</v>
+        <f t="shared" si="7"/>
+        <v>520221.89087499998</v>
       </c>
       <c r="O41">
-        <v>157.21</v>
+        <v>155.44</v>
       </c>
       <c r="P41">
-        <v>250427.64</v>
+        <v>247623.17</v>
       </c>
       <c r="Q41" s="116">
-        <v>8883.52</v>
+        <v>8718.11</v>
       </c>
       <c r="R41" s="128">
-        <f t="shared" si="7"/>
-        <v>-3.0066910413888426E-3</v>
+        <f t="shared" si="8"/>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="S41" s="117">
         <f t="shared" si="4"/>
-        <v>-1.3613299387851274E-2</v>
+        <v>-1.9272452116166794E-2</v>
       </c>
       <c r="T41" s="115">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U41" s="117">
-        <f>((N41/$N$44)-1)/T41*30</f>
-        <v>-0.13613299387851274</v>
+        <f>((N41/$N$46)-1)/T41*30</f>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V41" s="117"/>
       <c r="W41" s="117"/>
@@ -8196,68 +8229,68 @@
         <v>68</v>
       </c>
       <c r="AM41">
-        <v>20.399999999999999</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="118">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B42">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C42">
-        <v>32</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D42">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E42">
-        <v>35</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F42" s="113">
         <v>161</v>
       </c>
       <c r="G42">
-        <v>2220.3200000000002</v>
+        <v>2213.54</v>
       </c>
       <c r="L42">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M42">
-        <v>0.957233</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N42" s="114">
-        <f t="shared" si="6"/>
-        <v>523915.29500000004</v>
+        <f t="shared" si="7"/>
+        <v>521369.280203</v>
       </c>
       <c r="O42">
-        <v>160.79</v>
+        <v>156.13</v>
       </c>
       <c r="P42">
-        <v>250989.9</v>
+        <v>248712.47</v>
       </c>
       <c r="Q42" s="116">
-        <v>8910.23</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="R42" s="128">
-        <f t="shared" si="7"/>
-        <v>-1.7822211098927898E-2</v>
+        <f t="shared" si="8"/>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="S42" s="117">
         <f t="shared" si="4"/>
-        <v>-1.2309609463077242E-2</v>
+        <v>-1.7109382199549383E-2</v>
       </c>
       <c r="T42" s="115">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U42" s="117">
-        <f>((N42/$N$44)-1)/T42*30</f>
-        <v>-0.18464414194615864</v>
+        <f>((N42/$N$46)-1)/T42*30</f>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V42" s="117"/>
       <c r="W42" s="117"/>
@@ -8271,68 +8304,68 @@
         <v>68</v>
       </c>
       <c r="AM42">
-        <v>18.22</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="118">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B43">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>31.516400000000001</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D43">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>34.463200000000001</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F43" s="113">
         <v>161</v>
       </c>
       <c r="G43">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L43">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.979213</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N43" s="114">
-        <f t="shared" si="6"/>
-        <v>525953.15476800012</v>
+        <f t="shared" si="7"/>
+        <v>523223.75937500002</v>
       </c>
       <c r="O43">
-        <v>161.94999999999999</v>
+        <v>157.21</v>
       </c>
       <c r="P43">
-        <v>252645.61</v>
+        <v>250427.64</v>
       </c>
       <c r="Q43" s="116">
-        <v>9069.0300000000007</v>
+        <v>8883.52</v>
       </c>
       <c r="R43" s="128">
-        <f t="shared" si="7"/>
-        <v>-6.8684302510850781E-3</v>
+        <f t="shared" si="8"/>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="S43" s="117">
         <f t="shared" si="4"/>
-        <v>-8.4678157049555836E-3</v>
+        <v>-1.3613299387851274E-2</v>
       </c>
       <c r="T43" s="115">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U43" s="117">
-        <f>((N43/$N$44)-1)/T43*30</f>
-        <v>-0.25403447114866751</v>
+        <f>((N43/$N$46)-1)/T43*30</f>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V43" s="117"/>
       <c r="W43" s="117"/>
@@ -8346,66 +8379,69 @@
         <v>68</v>
       </c>
       <c r="AM43">
-        <v>16.57</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="118">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B44">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C44">
-        <v>31.571400000000001</v>
+        <v>32</v>
       </c>
       <c r="D44">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E44">
-        <v>34.558100000000003</v>
+        <v>35</v>
       </c>
       <c r="F44" s="113">
         <v>161</v>
       </c>
       <c r="G44">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L44">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M44">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N44" s="201">
-        <f t="shared" si="6"/>
-        <v>530444.86411900003</v>
+        <v>0.957233</v>
+      </c>
+      <c r="N44" s="114">
+        <f t="shared" si="7"/>
+        <v>523915.29500000004</v>
       </c>
       <c r="O44">
-        <v>164.91</v>
+        <v>160.79</v>
       </c>
       <c r="P44">
-        <v>257088.48</v>
+        <v>250989.9</v>
       </c>
       <c r="Q44" s="116">
-        <v>9131.32</v>
+        <v>8910.23</v>
       </c>
       <c r="R44" s="128">
-        <f t="shared" si="7"/>
-        <v>-2.6283166070184549E-3</v>
+        <f t="shared" si="8"/>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="S44" s="117">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-1.2309609463077242E-2</v>
       </c>
       <c r="T44" s="115">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U44" s="117"/>
+        <v>2</v>
+      </c>
+      <c r="U44" s="117">
+        <f>((N44/$N$46)-1)/T44*30</f>
+        <v>-0.18464414194615864</v>
+      </c>
       <c r="V44" s="117"/>
       <c r="W44" s="117"/>
       <c r="X44" s="117"/>
@@ -8414,73 +8450,73 @@
       <c r="AA44" s="117"/>
       <c r="AB44" s="134"/>
       <c r="AC44" s="135"/>
-      <c r="AH44">
-        <v>12</v>
-      </c>
-      <c r="AI44">
-        <v>41.58</v>
-      </c>
-      <c r="AJ44">
-        <f>AJ51</f>
-        <v>15</v>
-      </c>
-      <c r="AK44">
-        <v>55.55</v>
-      </c>
       <c r="AL44">
         <v>68</v>
       </c>
       <c r="AM44">
-        <v>15.07</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="45" spans="1:39">
       <c r="A45" s="118">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B45">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>31.402999999999999</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D45">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>34.3643</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F45" s="113">
         <v>161</v>
       </c>
       <c r="G45">
-        <v>2198.16</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L45">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>0.99115900000000001</v>
+        <v>0.979213</v>
       </c>
       <c r="N45" s="114">
-        <f t="shared" si="6"/>
-        <v>523720.92595699994</v>
+        <f t="shared" si="7"/>
+        <v>525953.15476800012</v>
       </c>
       <c r="O45">
-        <v>160.9</v>
+        <v>161.94999999999999</v>
+      </c>
+      <c r="P45">
+        <v>252645.61</v>
       </c>
       <c r="Q45" s="116">
-        <v>9155.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="R45" s="128">
-        <f t="shared" si="7"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S45" s="117"/>
-      <c r="U45" s="117"/>
+        <f t="shared" si="8"/>
+        <v>-6.8684302510850781E-3</v>
+      </c>
+      <c r="S45" s="117">
+        <f t="shared" si="4"/>
+        <v>-8.4678157049555836E-3</v>
+      </c>
+      <c r="T45" s="115">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U45" s="117">
+        <f>((N45/$N$46)-1)/T45*30</f>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V45" s="117"/>
       <c r="W45" s="117"/>
       <c r="X45" s="117"/>
@@ -8489,72 +8525,69 @@
       <c r="AA45" s="117"/>
       <c r="AB45" s="134"/>
       <c r="AC45" s="135"/>
-      <c r="AH45">
-        <v>12</v>
-      </c>
-      <c r="AI45">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="AJ45">
-        <f>AJ51</f>
-        <v>15</v>
-      </c>
-      <c r="AK45">
-        <v>57.75</v>
-      </c>
       <c r="AL45">
         <v>68</v>
       </c>
       <c r="AM45">
-        <v>13.7</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="118">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B46">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>31.297000000000001</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D46">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>34.110599999999998</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F46" s="113">
         <v>161</v>
       </c>
       <c r="G46">
-        <v>2184.79</v>
+        <v>2232.66</v>
       </c>
       <c r="L46">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>0.945214</v>
-      </c>
-      <c r="N46" s="114">
-        <f t="shared" si="6"/>
-        <v>515625.882094</v>
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N46" s="201">
+        <f t="shared" si="7"/>
+        <v>530444.86411900003</v>
       </c>
       <c r="O46">
-        <v>155.75</v>
+        <v>164.91</v>
+      </c>
+      <c r="P46">
+        <v>257088.48</v>
       </c>
       <c r="Q46" s="116">
-        <v>9054.18</v>
+        <v>9131.32</v>
       </c>
       <c r="R46" s="128">
-        <f t="shared" si="7"/>
-        <v>3.4194151209717583E-2</v>
-      </c>
-      <c r="S46" s="117"/>
+        <f t="shared" si="8"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S46" s="117">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T46" s="115">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="U46" s="117"/>
       <c r="V46" s="117"/>
       <c r="W46" s="117"/>
@@ -8568,66 +8601,66 @@
         <v>12</v>
       </c>
       <c r="AI46">
-        <v>34.380000000000003</v>
+        <v>41.58</v>
       </c>
       <c r="AJ46">
-        <f>AJ51</f>
+        <f>AJ53</f>
         <v>15</v>
       </c>
       <c r="AK46">
-        <v>63.1</v>
+        <v>55.55</v>
       </c>
       <c r="AL46">
         <v>68</v>
       </c>
       <c r="AM46">
-        <v>12.46</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="118">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B47">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C47">
-        <v>31.293399999999998</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D47">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E47">
-        <v>34.006500000000003</v>
+        <v>34.3643</v>
       </c>
       <c r="F47" s="113">
         <v>161</v>
       </c>
       <c r="G47">
-        <v>2150.9</v>
+        <v>2198.16</v>
       </c>
       <c r="L47">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M47">
-        <v>0.99397100000000005</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N47" s="114">
-        <f t="shared" si="6"/>
-        <v>516226.70193500002</v>
+        <f t="shared" si="7"/>
+        <v>523720.92595699994</v>
       </c>
       <c r="O47">
-        <v>156.16</v>
+        <v>160.9</v>
       </c>
       <c r="Q47" s="116">
-        <v>8744.58</v>
+        <v>9155.32</v>
       </c>
       <c r="R47" s="128">
-        <f t="shared" si="7"/>
-        <v>-1.3258498407013208E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S47" s="117"/>
       <c r="U47" s="117"/>
@@ -8639,77 +8672,70 @@
       <c r="AA47" s="117"/>
       <c r="AB47" s="134"/>
       <c r="AC47" s="135"/>
-      <c r="AF47">
-        <f>AF51</f>
-        <v>57</v>
-      </c>
-      <c r="AG47">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH47">
         <v>12</v>
       </c>
       <c r="AI47">
-        <v>31.26</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ47">
-        <f>AJ51</f>
+        <f>AJ53</f>
         <v>15</v>
       </c>
       <c r="AK47">
-        <v>57.4</v>
+        <v>57.75</v>
       </c>
       <c r="AL47">
         <v>68</v>
       </c>
       <c r="AM47">
-        <v>11.33</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="A48" s="118">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B48">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>31.079899999999999</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D48">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>33.721699999999998</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F48" s="113">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2116.34</v>
+        <v>2184.79</v>
       </c>
       <c r="L48">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>1.0160309999999999</v>
+        <v>0.945214</v>
       </c>
       <c r="N48" s="114">
-        <f t="shared" si="6"/>
-        <v>513091.35418300005</v>
+        <f t="shared" si="7"/>
+        <v>515625.882094</v>
       </c>
       <c r="O48">
-        <v>154.22999999999999</v>
+        <v>155.75</v>
       </c>
       <c r="Q48" s="116">
-        <v>8860.52</v>
+        <v>9054.18</v>
       </c>
       <c r="R48" s="128">
-        <f t="shared" si="7"/>
-        <v>-5.319100910555985E-3</v>
+        <f t="shared" si="8"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S48" s="117"/>
       <c r="U48" s="117"/>
@@ -8721,82 +8747,70 @@
       <c r="AA48" s="117"/>
       <c r="AB48" s="134"/>
       <c r="AC48" s="135"/>
-      <c r="AD48">
-        <f>AD51</f>
-        <v>36</v>
-      </c>
-      <c r="AE48" s="136">
-        <v>38.15</v>
-      </c>
-      <c r="AF48">
-        <f>AF51</f>
-        <v>57</v>
-      </c>
-      <c r="AG48">
-        <v>579.361718</v>
-      </c>
       <c r="AH48">
-        <f>AH51</f>
         <v>12</v>
       </c>
       <c r="AI48">
-        <v>28.42</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ48">
-        <f>AJ51</f>
+        <f>AJ53</f>
         <v>15</v>
       </c>
       <c r="AK48">
-        <v>52.2</v>
+        <v>63.1</v>
       </c>
       <c r="AL48">
         <v>68</v>
       </c>
       <c r="AM48">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="118">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B49">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C49">
-        <v>30.905999999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D49">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E49">
-        <v>33.542299999999997</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F49" s="113">
         <v>161</v>
       </c>
       <c r="G49">
-        <v>2072.52</v>
+        <v>2150.9</v>
       </c>
       <c r="L49">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N49" s="114">
-        <f t="shared" si="6"/>
-        <v>509025.91517699993</v>
+        <f t="shared" si="7"/>
+        <v>516226.70193500002</v>
+      </c>
+      <c r="O49">
+        <v>156.16</v>
       </c>
       <c r="Q49" s="116">
-        <v>8907.65</v>
+        <v>8744.58</v>
       </c>
       <c r="R49" s="128">
-        <f t="shared" si="7"/>
-        <v>-2.1273848882702007E-2</v>
+        <f t="shared" si="8"/>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S49" s="117"/>
       <c r="U49" s="117"/>
@@ -8808,33 +8822,25 @@
       <c r="AA49" s="117"/>
       <c r="AB49" s="134"/>
       <c r="AC49" s="135"/>
-      <c r="AD49">
-        <f>AD51</f>
-        <v>36</v>
-      </c>
-      <c r="AE49">
-        <v>34.659999999999997</v>
-      </c>
       <c r="AF49">
-        <f>AF51</f>
+        <f>AF53</f>
         <v>57</v>
       </c>
       <c r="AG49">
-        <v>578.66060300000004</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH49">
-        <f>AH51</f>
         <v>12</v>
       </c>
       <c r="AI49">
-        <v>25.84</v>
+        <v>31.26</v>
       </c>
       <c r="AJ49">
-        <f>AJ51</f>
+        <f>AJ53</f>
         <v>15</v>
       </c>
       <c r="AK49">
-        <v>47.46</v>
+        <v>57.4</v>
       </c>
       <c r="AL49">
         <v>68</v>
@@ -8845,45 +8851,48 @@
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="118">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B50">
-        <f>B51</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C50">
-        <v>30.7361</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D50">
-        <f>D51</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E50">
-        <v>33.225700000000003</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F50" s="113">
         <v>161</v>
       </c>
       <c r="G50">
-        <v>2018.91</v>
+        <v>2116.34</v>
       </c>
       <c r="L50">
-        <f>L51</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M50">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N50" s="114">
-        <f t="shared" si="6"/>
-        <v>499114.42414299998</v>
+        <f t="shared" si="7"/>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O50">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q50" s="116">
-        <v>9097.15</v>
+        <v>8860.52</v>
       </c>
       <c r="R50" s="128">
-        <f t="shared" si="7"/>
-        <v>-1.0612114783201454E-2</v>
+        <f t="shared" si="8"/>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S50" s="117"/>
       <c r="U50" s="117"/>
@@ -8896,32 +8905,32 @@
       <c r="AB50" s="134"/>
       <c r="AC50" s="135"/>
       <c r="AD50">
-        <f>AD51</f>
+        <f>AD53</f>
         <v>36</v>
       </c>
-      <c r="AE50">
-        <v>31.52</v>
+      <c r="AE50" s="136">
+        <v>38.15</v>
       </c>
       <c r="AF50">
-        <f>AF51</f>
+        <f>AF53</f>
         <v>57</v>
       </c>
       <c r="AG50">
-        <v>576.58807100000001</v>
+        <v>579.361718</v>
       </c>
       <c r="AH50">
-        <f>AH51</f>
+        <f>AH53</f>
         <v>12</v>
       </c>
       <c r="AI50">
-        <v>23.5</v>
+        <v>28.42</v>
       </c>
       <c r="AJ50">
-        <f>AJ51</f>
+        <f>AJ53</f>
         <v>15</v>
       </c>
       <c r="AK50">
-        <v>43.16</v>
+        <v>52.2</v>
       </c>
       <c r="AL50">
         <v>68</v>
@@ -8932,90 +8941,104 @@
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="118">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B51">
-        <f>B52</f>
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C51">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D51">
-        <f>D52</f>
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E51">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F51" s="113">
         <v>161</v>
       </c>
       <c r="G51">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L51">
-        <f>L52</f>
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M51">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="N51" s="114">
-        <f t="shared" si="6"/>
-        <v>496152.04914299998</v>
+        <f t="shared" si="7"/>
+        <v>509025.91517699993</v>
       </c>
       <c r="Q51" s="116">
-        <v>9193.69</v>
+        <v>8907.65</v>
       </c>
       <c r="R51" s="128">
-        <f t="shared" si="7"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S51" s="128"/>
+        <f t="shared" si="8"/>
+        <v>-2.1273848882702007E-2</v>
+      </c>
+      <c r="S51" s="117"/>
+      <c r="U51" s="117"/>
+      <c r="V51" s="117"/>
+      <c r="W51" s="117"/>
+      <c r="X51" s="117"/>
+      <c r="Y51" s="117"/>
+      <c r="Z51" s="117"/>
+      <c r="AA51" s="117"/>
+      <c r="AB51" s="134"/>
+      <c r="AC51" s="135"/>
       <c r="AD51">
-        <f>AD52</f>
+        <f>AD53</f>
         <v>36</v>
       </c>
       <c r="AE51">
-        <v>28.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF51">
-        <f>AF52</f>
+        <f>AF53</f>
         <v>57</v>
       </c>
       <c r="AG51">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH51">
-        <f>AH52</f>
+        <f>AH53</f>
         <v>12</v>
       </c>
       <c r="AI51">
-        <v>21.38</v>
+        <v>25.84</v>
       </c>
       <c r="AJ51">
+        <f>AJ53</f>
         <v>15</v>
       </c>
       <c r="AK51">
-        <v>39.24</v>
-      </c>
-      <c r="AM51" s="130">
-        <f>AM50</f>
+        <v>47.46</v>
+      </c>
+      <c r="AL51">
+        <v>68</v>
+      </c>
+      <c r="AM51">
         <v>11.33</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="118">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B52">
+        <f>B53</f>
         <v>1110</v>
       </c>
       <c r="C52">
         <v>30.7361</v>
       </c>
       <c r="D52">
+        <f>D53</f>
         <v>321.99</v>
       </c>
       <c r="E52">
@@ -9028,61 +9051,81 @@
         <v>2018.91</v>
       </c>
       <c r="L52">
+        <f>L53</f>
         <v>125000</v>
       </c>
       <c r="M52">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="N52" s="114">
-        <f t="shared" si="6"/>
-        <v>503322.92414299998</v>
+        <f t="shared" si="7"/>
+        <v>499114.42414299998</v>
       </c>
       <c r="Q52" s="116">
-        <v>9062.36</v>
+        <v>9097.15</v>
       </c>
       <c r="R52" s="128">
-        <f t="shared" si="7"/>
-        <v>-1.292378585710563E-2</v>
-      </c>
-      <c r="S52" s="128"/>
+        <f t="shared" si="8"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S52" s="117"/>
+      <c r="U52" s="117"/>
+      <c r="V52" s="117"/>
+      <c r="W52" s="117"/>
+      <c r="X52" s="117"/>
+      <c r="Y52" s="117"/>
+      <c r="Z52" s="117"/>
+      <c r="AA52" s="117"/>
+      <c r="AB52" s="134"/>
+      <c r="AC52" s="135"/>
       <c r="AD52">
         <f>AD53</f>
         <v>36</v>
       </c>
       <c r="AE52">
-        <v>26.06</v>
+        <v>31.52</v>
       </c>
       <c r="AF52">
+        <f>AF53</f>
         <v>57</v>
       </c>
       <c r="AG52">
         <v>576.58807100000001</v>
       </c>
       <c r="AH52">
+        <f>AH53</f>
         <v>12</v>
       </c>
       <c r="AI52">
-        <v>19.45</v>
-      </c>
-      <c r="AK52" s="130">
-        <f>AK51</f>
-        <v>39.24</v>
-      </c>
-      <c r="AM52" s="130" t="s">
-        <v>70</v>
+        <v>23.5</v>
+      </c>
+      <c r="AJ52">
+        <f>AJ53</f>
+        <v>15</v>
+      </c>
+      <c r="AK52">
+        <v>43.16</v>
+      </c>
+      <c r="AL52">
+        <v>68</v>
+      </c>
+      <c r="AM52">
+        <v>11.33</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="118">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B53">
+        <f>B54</f>
         <v>1110</v>
       </c>
       <c r="C53">
         <v>30.7361</v>
       </c>
       <c r="D53">
+        <f>D54</f>
         <v>321.99</v>
       </c>
       <c r="E53">
@@ -9094,50 +9137,60 @@
       <c r="G53">
         <v>2018.91</v>
       </c>
-      <c r="L53" s="200">
-        <v>75000</v>
+      <c r="L53">
+        <f>L54</f>
+        <v>125000</v>
       </c>
       <c r="M53">
-        <v>1.064435</v>
+        <v>1.010337</v>
       </c>
       <c r="N53" s="114">
-        <f t="shared" si="6"/>
-        <v>449692.54914299998</v>
+        <f t="shared" si="7"/>
+        <v>496152.04914299998</v>
       </c>
       <c r="Q53" s="116">
-        <v>9179.48</v>
+        <v>9193.69</v>
       </c>
       <c r="R53" s="128">
-        <f t="shared" si="7"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="8"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S53" s="128"/>
       <c r="AD53">
+        <f>AD54</f>
         <v>36</v>
       </c>
       <c r="AE53">
-        <v>23.7</v>
+        <v>28.66</v>
       </c>
       <c r="AF53">
+        <f>AF54</f>
         <v>57</v>
       </c>
       <c r="AG53">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI53" s="130">
-        <f>AI52</f>
-        <v>19.45</v>
-      </c>
-      <c r="AK53" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM53" s="131" t="s">
-        <v>69</v>
+      <c r="AH53">
+        <f>AH54</f>
+        <v>12</v>
+      </c>
+      <c r="AI53">
+        <v>21.38</v>
+      </c>
+      <c r="AJ53">
+        <v>15</v>
+      </c>
+      <c r="AK53">
+        <v>39.24</v>
+      </c>
+      <c r="AM53" s="130">
+        <f>AM52</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="118">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B54">
         <v>1110</v>
@@ -9158,29 +9211,29 @@
         <v>2018.91</v>
       </c>
       <c r="L54">
-        <f>L55</f>
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="M54">
-        <v>1.0192399999999999</v>
+        <v>1.067704</v>
       </c>
       <c r="N54" s="114">
-        <f t="shared" si="6"/>
-        <v>420821.92414299998</v>
+        <f t="shared" si="7"/>
+        <v>503322.92414299998</v>
       </c>
       <c r="Q54" s="116">
-        <v>9334.1299999999992</v>
+        <v>9062.36</v>
       </c>
       <c r="R54" s="128">
-        <f t="shared" si="7"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="8"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S54" s="128"/>
       <c r="AD54">
+        <f>AD55</f>
         <v>36</v>
       </c>
       <c r="AE54">
-        <v>21.56</v>
+        <v>26.06</v>
       </c>
       <c r="AF54">
         <v>57</v>
@@ -9188,20 +9241,23 @@
       <c r="AG54">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI54" s="130" t="s">
+      <c r="AH54">
+        <v>12</v>
+      </c>
+      <c r="AI54">
+        <v>19.45</v>
+      </c>
+      <c r="AK54" s="130">
+        <f>AK53</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM54" s="130" t="s">
         <v>70</v>
-      </c>
-      <c r="AK54" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM54" s="131">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="118">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B55">
         <v>1110</v>
@@ -9221,29 +9277,29 @@
       <c r="G55">
         <v>2018.91</v>
       </c>
-      <c r="L55">
-        <v>50000</v>
+      <c r="L55" s="200">
+        <v>75000</v>
       </c>
       <c r="M55">
-        <v>1.0032049999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N55" s="114">
-        <f t="shared" si="6"/>
-        <v>420020.17414299998</v>
+        <f t="shared" si="7"/>
+        <v>449692.54914299998</v>
       </c>
       <c r="Q55" s="116">
-        <v>9374.2000000000007</v>
+        <v>9179.48</v>
       </c>
       <c r="R55" s="128">
-        <f t="shared" si="7"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="8"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S55" s="128"/>
       <c r="AD55">
         <v>36</v>
       </c>
       <c r="AE55">
-        <v>19.600000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="AF55">
         <v>57</v>
@@ -9251,132 +9307,259 @@
       <c r="AG55">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI55" s="131" t="s">
+      <c r="AI55" s="130">
+        <f>AI54</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK55" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM55" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AK55" s="131">
-        <v>55.5</v>
-      </c>
-      <c r="AM55" s="117">
-        <f>(AM54-AM50)/AM50</f>
-        <v>0.73786407766990303</v>
-      </c>
     </row>
     <row r="56" spans="1:39">
-      <c r="A56" s="199">
-        <v>45344</v>
-      </c>
-      <c r="L56" s="200">
+      <c r="A56" s="118">
+        <v>45348</v>
+      </c>
+      <c r="B56">
+        <v>1110</v>
+      </c>
+      <c r="C56">
+        <v>30.7361</v>
+      </c>
+      <c r="D56">
+        <v>321.99</v>
+      </c>
+      <c r="E56">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F56" s="113">
+        <v>161</v>
+      </c>
+      <c r="G56">
+        <v>2018.91</v>
+      </c>
+      <c r="L56">
+        <f>L57</f>
         <v>50000</v>
       </c>
       <c r="M56">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N56" s="114">
-        <f t="shared" si="6"/>
-        <v>50160.249999999993</v>
+        <f t="shared" si="7"/>
+        <v>420821.92414299998</v>
       </c>
       <c r="Q56" s="116">
-        <v>9347.17</v>
-      </c>
+        <v>9334.1299999999992</v>
+      </c>
+      <c r="R56" s="128">
+        <f t="shared" si="8"/>
+        <v>-4.2928478604864484E-3</v>
+      </c>
+      <c r="S56" s="128"/>
       <c r="AD56">
         <v>36</v>
       </c>
       <c r="AE56">
-        <v>17.82</v>
-      </c>
-      <c r="AI56" s="131">
-        <v>45.72</v>
-      </c>
-      <c r="AK56" s="117">
-        <f>(AK55-AK51)/AK51</f>
-        <v>0.41437308868501521</v>
+        <v>21.56</v>
+      </c>
+      <c r="AF56">
+        <v>57</v>
+      </c>
+      <c r="AG56">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI56" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK56" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM56" s="131">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:39">
+      <c r="A57" s="118">
+        <v>45345</v>
+      </c>
+      <c r="B57">
+        <v>1110</v>
+      </c>
+      <c r="C57">
+        <v>30.7361</v>
+      </c>
+      <c r="D57">
+        <v>321.99</v>
+      </c>
+      <c r="E57">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F57" s="113">
+        <v>161</v>
+      </c>
+      <c r="G57">
+        <v>2018.91</v>
+      </c>
+      <c r="L57">
+        <v>50000</v>
+      </c>
       <c r="M57">
-        <v>0.93849000000000005</v>
-      </c>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N57" s="114">
+        <f t="shared" si="7"/>
+        <v>420020.17414299998</v>
+      </c>
+      <c r="Q57" s="116">
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R57" s="128">
+        <f t="shared" si="8"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S57" s="128"/>
       <c r="AD57">
         <v>36</v>
       </c>
-      <c r="AE57" s="130">
-        <v>15.3</v>
-      </c>
-      <c r="AI57" s="117">
-        <f>(AI56-AI52)/AI52</f>
-        <v>1.3506426735218509</v>
-      </c>
-      <c r="AM57" s="133">
-        <f>(AL50*AM54)-(AL38*AM50)</f>
-        <v>568.48</v>
+      <c r="AE57">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF57">
+        <v>57</v>
+      </c>
+      <c r="AG57">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI57" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK57" s="131">
+        <v>55.5</v>
+      </c>
+      <c r="AM57" s="117">
+        <f>(AM56-AM52)/AM52</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="58" spans="1:39">
+      <c r="A58" s="199">
+        <v>45344</v>
+      </c>
+      <c r="L58" s="200">
+        <v>50000</v>
+      </c>
       <c r="M58">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="R58" s="137">
-        <f>SUM(R10:R57)</f>
-        <v>0.16139898739173875</v>
-      </c>
-      <c r="S58" s="137"/>
-      <c r="AE58" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ58" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK58" s="133">
-        <f>(AJ51*AK55)-(AJ10*AK51)</f>
-        <v>832.5</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N58" s="114">
+        <f t="shared" si="7"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q58" s="116">
+        <v>9347.17</v>
+      </c>
+      <c r="AD58">
+        <v>36</v>
+      </c>
+      <c r="AE58">
+        <v>17.82</v>
+      </c>
+      <c r="AI58" s="131">
+        <v>45.72</v>
+      </c>
+      <c r="AK58" s="117">
+        <f>(AK57-AK53)/AK53</f>
+        <v>0.41437308868501521</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="M59">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="AE59" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH59" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI59" s="133">
-        <f>(AH52*AI56)-(AH10*AI52)</f>
-        <v>548.64</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD59">
+        <v>36</v>
+      </c>
+      <c r="AE59" s="130">
+        <v>15.3</v>
+      </c>
+      <c r="AI59" s="117">
+        <f>(AI58-AI54)/AI54</f>
+        <v>1.3506426735218509</v>
+      </c>
+      <c r="AM59" s="133">
+        <f>(AL52*AM56)-(AL40*AM52)</f>
+        <v>568.48</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="M60">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="AD60" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE60" s="131">
-        <v>38</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="R60" s="137" t="e">
+        <f>SUM(R10:R59)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S60" s="137"/>
+      <c r="AE60" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ60" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK60" s="133">
+        <f>(AJ53*AK57)-(AJ10*AK53)</f>
+        <v>832.5</v>
       </c>
     </row>
     <row r="61" spans="1:39">
       <c r="M61">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="AE61" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH61" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI61" s="133">
+        <f>(AH54*AI58)-(AH10*AI54)</f>
+        <v>548.64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39">
+      <c r="M62">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE62" s="131">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39">
+      <c r="M63">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE61" s="117">
+      <c r="AE63" s="117">
         <f>Sayfa2!M54</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
-      <c r="M62">
+    <row r="64" spans="1:39">
+      <c r="M64">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
-      <c r="AD63" s="133" t="s">
+    <row r="65" spans="30:31">
+      <c r="AD65" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="AE63" s="133">
+      <c r="AE65" s="133">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDC6973-4EA5-41D3-BB6E-7AA71EF5675F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B369D685-68A1-4119-A5E5-1BDAADBAB3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="245">
   <si>
     <t>Toplam Yatırım</t>
   </si>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -2029,11 +2029,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>251476.74217499999</v>
+        <v>243375.90349500001</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>153.71439008251832</v>
+        <v>148.58113766483518</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2072,31 +2072,31 @@
       </c>
       <c r="E5" s="25">
         <f>SUBTOTAL(109,E10:E38)</f>
-        <v>488516.55752000003</v>
+        <v>605022.63409999991</v>
       </c>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I37)</f>
-        <v>733200.03134999995</v>
+        <v>841607.16924999992</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K38)</f>
-        <v>232634.03382999997</v>
+        <v>224533.19514999999</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.47620501342060623</v>
+        <v>0.37111536411196228</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-9.1670242829884466E-2</v>
+        <v>-0.10378075269034126</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-6.9891912264086239E-2</v>
+        <v>-6.9827740103176536E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2251,7 +2251,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O38)</f>
-        <v>232634.03382999997</v>
+        <v>224533.19515000001</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2281,31 +2281,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>23.08</v>
+        <v>24.8</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>923.19999999999993</v>
+        <v>992</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-7.4200000000000017</v>
+        <v>-5.6999999999999993</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-296.80000000000007</v>
+        <v>-227.99999999999997</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="117">
         <f>K15/E15</f>
-        <v>-0.24327868852459023</v>
+        <v>-0.18688524590163932</v>
       </c>
       <c r="N15" s="117">
         <f>M15/L15*30</f>
-        <v>-0.27030965391621137</v>
+        <v>-0.19332956472583379</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2335,31 +2335,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>32.36</v>
+        <v>28.18</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>1132.5999999999999</v>
+        <v>986.3</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-5.0300000000000011</v>
+        <v>-9.2100000000000009</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-176.05000000000004</v>
+        <v>-322.35000000000002</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M16" s="117">
         <f>K16/E16</f>
-        <v>-0.13452794864937151</v>
+        <v>-0.24632254613533031</v>
       </c>
       <c r="N16" s="117">
         <f>M16/L16*30</f>
-        <v>-0.14947549849930167</v>
+        <v>-0.25481642703654861</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2389,31 +2389,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>124</v>
+        <v>119.6</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1240</v>
+        <v>1196</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-11</v>
+        <v>-15.400000000000006</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-110</v>
+        <v>-154.00000000000006</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M17" s="117">
         <f>K17/E17</f>
-        <v>-8.1481481481481488E-2</v>
+        <v>-0.11407407407407412</v>
       </c>
       <c r="N17" s="117">
         <f>M17/L17*30</f>
-        <v>-6.9841269841269843E-2</v>
+        <v>-9.2492492492492528E-2</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2422,8 +2422,58 @@
       <c r="N18" s="203"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
+      <c r="A19" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45440</v>
+      </c>
+      <c r="C19" s="3">
+        <v>180</v>
+      </c>
+      <c r="D19" s="1">
+        <v>647.25598100000002</v>
+      </c>
+      <c r="E19" s="61">
+        <f>Sayfa2!$D19*Sayfa2!$C19</f>
+        <v>116506.07658000001</v>
+      </c>
+      <c r="F19" s="62">
+        <f>$B$2</f>
+        <v>45441</v>
+      </c>
+      <c r="G19" s="63">
+        <f>Tablo2[[#This Row],[adet]]</f>
+        <v>180</v>
+      </c>
+      <c r="H19" s="64">
+        <f>H20</f>
+        <v>648.15704900000003</v>
+      </c>
+      <c r="I19" s="51">
+        <f>Sayfa2!$H19*Sayfa2!$G19</f>
+        <v>116668.26882000001</v>
+      </c>
+      <c r="J19" s="46">
+        <f>H19-D19</f>
+        <v>0.90106800000000931</v>
+      </c>
+      <c r="K19" s="65">
+        <f>Sayfa2!$J19*Sayfa2!$C19</f>
+        <v>162.19224000000168</v>
+      </c>
+      <c r="L19" s="66">
+        <f>F19-B19</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="117">
+        <f>K19/E19</f>
+        <v>1.3921354556011576E-3</v>
+      </c>
+      <c r="N19" s="117">
+        <f>M19/L19*30</f>
+        <v>4.1764063668034729E-2</v>
+      </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
@@ -2444,7 +2494,7 @@
       </c>
       <c r="F20" s="62">
         <f>$B$2</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G20" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2452,31 +2502,31 @@
       </c>
       <c r="H20" s="64">
         <f>Sayfa4!K5</f>
-        <v>646.30405299999995</v>
+        <v>648.15704900000003</v>
       </c>
       <c r="I20" s="51">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>19389.121589999999</v>
+        <v>19444.711470000002</v>
       </c>
       <c r="J20" s="46">
         <f>H20-D20</f>
-        <v>23.461104999999975</v>
+        <v>25.314101000000051</v>
       </c>
       <c r="K20" s="65">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>703.83314999999925</v>
+        <v>759.42303000000152</v>
       </c>
       <c r="L20" s="66">
         <f>F20-B20</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M20" s="117">
         <f>K20/E20</f>
-        <v>3.7667770142273446E-2</v>
+        <v>4.0642831521631118E-2</v>
       </c>
       <c r="N20" s="117">
         <f>M20/L20*30</f>
-        <v>4.1853077935859379E-2</v>
+        <v>4.204430847065288E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2498,7 +2548,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2506,31 +2556,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>60800</v>
+        <v>59974.999999999993</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>-0.39000000000000057</v>
+        <v>-0.72000000000000242</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>-975.00000000000136</v>
+        <v>-1800.0000000000061</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M21" s="117">
         <f>K21/E21</f>
-        <v>-1.5783083771752349E-2</v>
+        <v>-2.9138000809389011E-2</v>
       </c>
       <c r="N21" s="117">
         <f>M21/L21*30</f>
-        <v>-1.7536759746391496E-2</v>
+        <v>-3.0142759457988635E-2</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2579,7 +2629,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2587,31 +2637,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>60800</v>
+        <v>59974.999999999993</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>-0.58999999999999986</v>
+        <v>-0.92000000000000171</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>-1474.9999999999995</v>
+        <v>-2300.0000000000041</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>-2.3685266961059808E-2</v>
+        <v>-3.6932958651144182E-2</v>
       </c>
       <c r="N23" s="117">
         <f>M23/L23*30</f>
-        <v>-2.5377071743992653E-2</v>
+        <v>-3.6932958651144182E-2</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2660,7 +2710,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2668,31 +2718,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>60800</v>
+        <v>59974.999999999993</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-0.80000000000000071</v>
+        <v>-1.1300000000000026</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-2000.0000000000018</v>
+        <v>-2825.0000000000064</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-3.1847133757961811E-2</v>
+        <v>-4.498407643312112E-2</v>
       </c>
       <c r="N25" s="117">
         <f>M25/L25*30</f>
-        <v>-3.0819806862543687E-2</v>
+        <v>-4.0894614939201018E-2</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2741,7 +2791,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2749,31 +2799,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>64605.000000000007</v>
+        <v>61141.799999999996</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.20303499999999997</v>
+        <v>-0.24921100000000007</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-15227.624999999998</v>
+        <v>-18690.825000000004</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.19074438551907819</v>
+        <v>-0.23412514620432442</v>
       </c>
       <c r="N27" s="117">
         <f>M27/L27*30</f>
-        <v>-6.2882764456838963E-2</v>
+        <v>-7.5524240711072388E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2796,7 +2846,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2804,35 +2854,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>43070</v>
+        <v>40761.199999999997</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.14180499999999985</v>
+        <v>-0.18798099999999995</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-7090.2499999999927</v>
+        <v>-9399.0499999999975</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.14135196694593816</v>
+        <v>-0.18738044567162243</v>
       </c>
       <c r="N28" s="117">
         <f>M28/L28*30</f>
-        <v>-4.463746324608573E-2</v>
+        <v>-5.7952715156171883E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-27039.281849999996</v>
+        <v>-35189.999730000018</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2871,50 +2921,50 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F37" si="0">$B$2</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
         <f>Sayfa4!G10</f>
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="I30" s="51">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
-        <v>116570.5</v>
+        <v>116589.5</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ref="J30:J37" si="1">H30-D30</f>
-        <v>504.87999999999988</v>
+        <v>505.26</v>
       </c>
       <c r="K30" s="65">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>22719.599999999995</v>
+        <v>22736.7</v>
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L37" si="2">F30-B30</f>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M37" si="3">K30/E30</f>
-        <v>0.27641484125637128</v>
+        <v>0.27662288601884444</v>
       </c>
       <c r="N30" s="117">
         <f t="shared" ref="N30:N37" si="4">M30/L30*30</f>
-        <v>3.7692932898596078E-2</v>
+        <v>3.7381471083627625E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>116570.5</v>
+        <v>116589.5</v>
       </c>
       <c r="Q30" s="1">
         <v>2000</v>
       </c>
       <c r="R30" s="1">
         <f>P30/Q30</f>
-        <v>58.285249999999998</v>
+        <v>58.294750000000001</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2936,50 +2986,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
       </c>
       <c r="H31" s="64">
         <f>H30</f>
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>25645.51</v>
+        <v>25649.69</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>1929.31</v>
+        <v>1929.69</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>21222.41</v>
+        <v>21226.59</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
-        <v>4.7980850534692854</v>
+        <v>4.7990300920169107</v>
       </c>
       <c r="N31" s="117">
         <f t="shared" si="4"/>
-        <v>0.12045401807872684</v>
+        <v>0.12027644340894514</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25645.51</v>
+        <v>25649.69</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>12.822754999999999</v>
+        <v>12.824845</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3001,50 +3051,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>116570.5</v>
+        <v>116589.5</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1862.5499999999997</v>
+        <v>1862.9299999999998</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>93127.499999999985</v>
+        <v>93146.499999999985</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>3.9725077848398236</v>
+        <v>3.9733182613146774</v>
       </c>
       <c r="N32" s="117">
         <f t="shared" si="4"/>
-        <v>8.795220187837248E-2</v>
+        <v>8.7840492144023813E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>116570.5</v>
+        <v>116589.5</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>58.285249999999998</v>
+        <v>58.294750000000001</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3066,7 +3116,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3074,36 +3124,36 @@
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>58285.25</v>
+        <v>58294.75</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>1931.54</v>
+        <v>1931.92</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>48288.5</v>
+        <v>48298</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>4.8304198864631003</v>
+        <v>4.8313701953134771</v>
       </c>
       <c r="N33" s="117">
         <f t="shared" si="4"/>
-        <v>0.10212304199710572</v>
+        <v>0.10199937076664624</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
         <f>SUM(R30:R32)</f>
-        <v>129.39325499999998</v>
+        <v>129.414345</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3125,7 +3175,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3133,31 +3183,31 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>55953.84</v>
+        <v>55962.96</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>2057.6</v>
+        <v>2057.98</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>49382.399999999994</v>
+        <v>49391.520000000004</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>7.5146999744348255</v>
+        <v>7.5160877981081775</v>
       </c>
       <c r="N34" s="117">
         <f t="shared" si="4"/>
-        <v>0.1378001217805897</v>
+        <v>0.13765728567963695</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3180,7 +3230,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3188,40 +3238,40 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2093.8199999999997</v>
+        <v>2094.1999999999998</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>2093.8199999999997</v>
+        <v>2094.1999999999998</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>8.8127446441348525</v>
+        <v>8.8143440380487377</v>
       </c>
       <c r="N35" s="117">
         <f t="shared" si="4"/>
-        <v>0.16160289689733839</v>
+        <v>0.16143487249173513</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
         <f>SUM(P30:P34)</f>
-        <v>258786.51</v>
+        <v>258828.69</v>
       </c>
       <c r="R35" s="1">
         <f>P35/2220.32</f>
-        <v>116.55369946674352</v>
+        <v>116.57269672839951</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3243,7 +3293,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3251,36 +3301,36 @@
       </c>
       <c r="H36" s="64">
         <f>Sayfa4!E5</f>
-        <v>34.100200000000001</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>10189.13976</v>
+        <v>10161.20196</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>15.378600000000002</v>
+        <v>15.285100000000003</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>4595.125680000001</v>
+        <v>4567.1878800000013</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>0.82143620203401435</v>
+        <v>0.8164419707717292</v>
       </c>
       <c r="N36" s="117">
         <f t="shared" si="4"/>
-        <v>3.7623032154229664E-2</v>
+        <v>3.7280455286380326E-2</v>
       </c>
       <c r="O36" s="68"/>
       <c r="P36" s="1">
         <f>P35*Q36</f>
-        <v>25878.651000000002</v>
+        <v>25882.869000000002</v>
       </c>
       <c r="Q36" s="75">
         <v>0.1</v>
@@ -3308,7 +3358,7 @@
       </c>
       <c r="F37" s="62">
         <f t="shared" si="0"/>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="G37" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3316,47 +3366,47 @@
       </c>
       <c r="H37" s="64">
         <f>Sayfa4!C5</f>
-        <v>31.436</v>
+        <v>31.4527</v>
       </c>
       <c r="I37" s="51">
         <f>Sayfa2!$H37*Sayfa2!$G37</f>
-        <v>34893.96</v>
+        <v>34912.497000000003</v>
       </c>
       <c r="J37" s="46">
         <f t="shared" si="1"/>
-        <v>16.436</v>
+        <v>16.4527</v>
       </c>
       <c r="K37" s="65">
         <f>Sayfa2!$J37*Sayfa2!$C37</f>
-        <v>18243.96</v>
+        <v>18262.496999999999</v>
       </c>
       <c r="L37" s="66">
         <f t="shared" si="2"/>
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="M37" s="67">
         <f t="shared" si="3"/>
-        <v>1.0957333333333332</v>
+        <v>1.0968466666666665</v>
       </c>
       <c r="N37" s="117">
         <f t="shared" si="4"/>
-        <v>4.9431578947368417E-2</v>
+        <v>4.9333433283358319E-2</v>
       </c>
       <c r="O37" s="70">
         <f>SUM(K30:K37)</f>
-        <v>259673.31567999997</v>
+        <v>259723.19488000002</v>
       </c>
       <c r="P37" s="6">
         <f>SUM(P35:P36)</f>
-        <v>284665.16100000002</v>
+        <v>284711.55900000001</v>
       </c>
       <c r="R37" s="1">
         <f>P37/2000</f>
-        <v>142.33258050000001</v>
+        <v>142.35577950000001</v>
       </c>
       <c r="T37" s="1">
         <f>P35/T36</f>
-        <v>112.51587391304348</v>
+        <v>112.53421304347826</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3398,7 +3448,7 @@
       <c r="N40" s="117"/>
       <c r="R40" s="1">
         <f>R37*2220.32</f>
-        <v>316023.87513576006</v>
+        <v>316075.38433944003</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5563,9 +5613,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM65"/>
+  <dimension ref="A4:AM67"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="P11" sqref="P11"/>
@@ -5582,7 +5632,7 @@
     <col min="7" max="7" width="8.42578125" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
-    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.42578125" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
@@ -5620,51 +5670,51 @@
     <row r="5" spans="1:39">
       <c r="A5" s="118">
         <f>A10</f>
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="C5">
         <f>C10</f>
-        <v>31.436</v>
+        <v>31.4527</v>
       </c>
       <c r="E5">
         <f>E10</f>
-        <v>34.100200000000001</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="G5">
         <f>G10</f>
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="I5">
         <f>I10</f>
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="K5">
         <f>K10</f>
-        <v>646.30405299999995</v>
+        <v>648.15704900000003</v>
       </c>
       <c r="M5">
         <f>M10</f>
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="O5" s="116">
         <f>Sayfa2!D3</f>
-        <v>153.71439008251832</v>
+        <v>148.58113766483518</v>
       </c>
       <c r="P5" s="119">
         <f>Sayfa2!K2</f>
-        <v>251476.74217499999</v>
+        <v>243375.90349500001</v>
       </c>
       <c r="Y5" s="116">
         <f>Y10</f>
-        <v>32.36</v>
+        <v>28.18</v>
       </c>
       <c r="AA5" s="116">
         <f>AA10</f>
-        <v>23.08</v>
+        <v>24.8</v>
       </c>
       <c r="AC5" s="116">
         <f>AC10</f>
-        <v>124</v>
+        <v>119.6</v>
       </c>
       <c r="AE5">
         <f>AE10</f>
@@ -5683,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM40</f>
+        <f>AM42</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -5772,1399 +5822,1435 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="118">
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="B10">
-        <f>B52</f>
+        <f>B54</f>
         <v>1110</v>
       </c>
       <c r="C10">
-        <v>31.436</v>
+        <v>31.4527</v>
       </c>
       <c r="D10">
-        <f>D52</f>
+        <f>D54</f>
         <v>321.99</v>
       </c>
       <c r="E10">
-        <v>34.100200000000001</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F10" s="113">
         <v>156</v>
       </c>
       <c r="G10">
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="H10" s="200">
         <v>7500</v>
       </c>
       <c r="I10" s="200">
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="J10">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K10">
-        <v>646.30405299999995</v>
+        <v>648.15704900000003</v>
       </c>
       <c r="L10">
-        <f>L52</f>
+        <f>L54</f>
         <v>125000</v>
       </c>
       <c r="M10">
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="N10" s="114">
         <f>(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>719037.96498799999</v>
+        <v>827562.53462299996</v>
       </c>
       <c r="O10">
-        <v>153.71</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="P10">
-        <v>251476.74</v>
-      </c>
-      <c r="Q10" s="116"/>
-      <c r="R10" s="128" t="e">
-        <f>(1-(Q12/Q10))</f>
-        <v>#DIV/0!</v>
+        <v>243375.9</v>
+      </c>
+      <c r="Q10" s="116">
+        <v>10514.86</v>
+      </c>
+      <c r="R10" s="128">
+        <f>(1-(Q11/Q10))</f>
+        <v>-1.5466682390445463E-2</v>
       </c>
       <c r="S10" s="117">
-        <f>(N10/$N$46)-1</f>
-        <v>0.35553761309807119</v>
+        <f t="shared" ref="S10:S17" si="0">(N10/$N$48)-1</f>
+        <v>0.56012922473568239</v>
       </c>
       <c r="T10" s="115">
-        <f>(A10-$A$46)</f>
-        <v>77</v>
+        <f t="shared" ref="T10:T17" si="1">(A10-$A$48)</f>
+        <v>79</v>
       </c>
       <c r="U10" s="117">
-        <f>((N10/$N$46)-1)/T10*30</f>
-        <v>0.13852114796028747</v>
+        <f>((N10/$N$48)-1)/T10*30</f>
+        <v>0.21270730053253761</v>
       </c>
       <c r="V10" s="117"/>
       <c r="W10" s="117"/>
       <c r="X10" s="135"/>
       <c r="Y10" s="135">
-        <v>32.36</v>
+        <v>28.18</v>
       </c>
       <c r="Z10" s="135"/>
       <c r="AA10" s="135">
-        <v>23.08</v>
+        <v>24.8</v>
       </c>
       <c r="AB10">
         <v>10</v>
       </c>
       <c r="AC10" s="116">
-        <v>124</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="118">
-        <v>45435</v>
+        <v>45440</v>
       </c>
       <c r="B11">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C11">
-        <v>31.4588</v>
+        <v>31.4527</v>
       </c>
       <c r="D11">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E11">
-        <v>34.044699999999999</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F11" s="113">
         <v>156</v>
       </c>
       <c r="G11">
-        <v>2363.8000000000002</v>
+        <v>2331.79</v>
       </c>
       <c r="H11" s="200">
         <v>7500</v>
       </c>
       <c r="I11" s="200">
-        <v>24.45</v>
+        <v>23.99</v>
       </c>
       <c r="J11">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K11">
-        <v>642.69199700000001</v>
+        <v>647.25598100000002</v>
       </c>
       <c r="L11">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M11">
-        <v>0.87326400000000004</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N11" s="114">
         <f>(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
-        <v>726447.88086300006</v>
+        <v>833145.31034299999</v>
       </c>
       <c r="O11">
-        <v>158.78</v>
+        <v>153.71</v>
       </c>
       <c r="P11">
-        <v>259129.45</v>
+        <v>251476.74</v>
       </c>
       <c r="Q11" s="116">
-        <v>10676.65</v>
+        <v>10677.49</v>
       </c>
       <c r="R11" s="128">
-        <f>(1-(Q13/Q11))</f>
-        <v>-5.8932343010213994E-3</v>
+        <f t="shared" ref="R11:R25" si="2">(1-(Q12/Q11))</f>
+        <v>1.9227365232841187E-3</v>
       </c>
       <c r="S11" s="117">
-        <f>(N11/$N$46)-1</f>
-        <v>0.36950686113161924</v>
+        <f t="shared" ref="S11" si="3">(N11/$N$48)-1</f>
+        <v>0.57065392974771467</v>
       </c>
       <c r="T11" s="115">
-        <f>(A11-$A$46)</f>
-        <v>73</v>
+        <f t="shared" ref="T11" si="4">(A11-$A$48)</f>
+        <v>78</v>
       </c>
       <c r="U11" s="117">
-        <f>((N11/$N$46)-1)/T11*30</f>
-        <v>0.15185213471162434</v>
+        <f>((N11/$N$48)-1)/T11*30</f>
+        <v>0.21948228067219797</v>
       </c>
       <c r="V11" s="117"/>
       <c r="W11" s="117"/>
       <c r="X11" s="135"/>
       <c r="Y11" s="135">
-        <v>34.299999999999997</v>
+        <v>28.18</v>
       </c>
       <c r="Z11" s="135"/>
       <c r="AA11" s="135">
-        <v>27.92</v>
+        <v>24.8</v>
       </c>
       <c r="AB11">
         <v>10</v>
       </c>
       <c r="AC11" s="116">
-        <v>122</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="118">
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="B12">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.469899999999999</v>
+        <v>31.436</v>
       </c>
       <c r="D12">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>34.182699999999997</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="F12" s="113">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="H12" s="200">
         <v>7500</v>
       </c>
       <c r="I12" s="200">
-        <v>24.91</v>
+        <v>24.32</v>
       </c>
       <c r="J12">
         <v>30</v>
       </c>
       <c r="K12">
-        <v>641.00899600000002</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="L12">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.86580400000000002</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N12" s="114">
         <f>(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
-        <v>737258.36645300011</v>
+        <v>719037.96498799999</v>
       </c>
       <c r="O12">
-        <v>165.69</v>
+        <v>153.71</v>
       </c>
       <c r="P12">
-        <v>269993.23</v>
+        <v>251476.74</v>
       </c>
       <c r="Q12" s="116">
-        <v>10829.64</v>
+        <v>10656.96</v>
       </c>
       <c r="R12" s="128">
-        <f t="shared" ref="R12:R19" si="0">(1-(Q13/Q12))</f>
-        <v>8.3169892997366768E-3</v>
+        <f t="shared" si="2"/>
+        <v>-1.8476188331382204E-3</v>
       </c>
       <c r="S12" s="117">
-        <f>(N12/$N$46)-1</f>
-        <v>0.38988689743936056</v>
+        <f t="shared" ref="S12" si="5">(N12/$N$48)-1</f>
+        <v>0.35553761309807119</v>
       </c>
       <c r="T12" s="115">
-        <f>(A12-$A$46)</f>
-        <v>71</v>
+        <f t="shared" ref="T12" si="6">(A12-$A$48)</f>
+        <v>77</v>
       </c>
       <c r="U12" s="117">
-        <f>((N12/$N$46)-1)/T12*30</f>
-        <v>0.16474094258001151</v>
+        <f>((N12/$N$48)-1)/T12*30</f>
+        <v>0.13852114796028747</v>
       </c>
       <c r="V12" s="117"/>
       <c r="W12" s="117"/>
       <c r="X12" s="135"/>
       <c r="Y12" s="135">
-        <v>34.799999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="Z12" s="135"/>
       <c r="AA12" s="135">
-        <v>28.52</v>
+        <v>23.08</v>
       </c>
       <c r="AB12">
         <v>10</v>
       </c>
       <c r="AC12" s="116">
-        <v>123.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="118">
-        <v>45426</v>
+        <v>45435</v>
       </c>
       <c r="B13">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C13">
-        <v>31.5244</v>
+        <v>31.4588</v>
       </c>
       <c r="D13">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E13">
-        <v>34.005400000000002</v>
+        <v>34.044699999999999</v>
       </c>
       <c r="F13" s="113">
         <v>156</v>
       </c>
       <c r="G13">
-        <v>2344.5700000000002</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="H13" s="200">
         <v>7500</v>
       </c>
       <c r="I13" s="200">
-        <v>24.41</v>
+        <v>24.45</v>
       </c>
       <c r="J13">
         <v>30</v>
       </c>
       <c r="K13">
-        <v>634.98375399999998</v>
+        <v>642.69199700000001</v>
       </c>
       <c r="L13">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M13">
-        <v>0.84950000000000003</v>
+        <v>0.87326400000000004</v>
       </c>
       <c r="N13" s="114">
         <f>(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
-        <v>720006.41536600015</v>
+        <v>726447.88086300006</v>
       </c>
       <c r="O13">
-        <v>158.43</v>
+        <v>158.78</v>
       </c>
       <c r="P13">
-        <v>256973.54</v>
+        <v>259129.45</v>
       </c>
       <c r="Q13" s="116">
-        <v>10739.57</v>
+        <v>10676.65</v>
       </c>
       <c r="R13" s="128">
+        <f t="shared" si="2"/>
+        <v>-1.4329401076180304E-2</v>
+      </c>
+      <c r="S13" s="117">
         <f t="shared" si="0"/>
-        <v>5.0241303888330702E-2</v>
-      </c>
-      <c r="S13" s="117">
-        <f>(N13/$N$46)-1</f>
-        <v>0.35736334550403681</v>
+        <v>0.36950686113161924</v>
       </c>
       <c r="T13" s="115">
-        <f>(A13-$A$46)</f>
-        <v>64</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="U13" s="117">
-        <f>((N13/$N$46)-1)/T13*30</f>
-        <v>0.16751406820501724</v>
+        <f>((N13/$N$48)-1)/T13*30</f>
+        <v>0.15185213471162434</v>
       </c>
       <c r="V13" s="117"/>
       <c r="W13" s="117"/>
       <c r="X13" s="135"/>
       <c r="Y13" s="135">
-        <v>35.86</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z13" s="135"/>
       <c r="AA13" s="135">
-        <v>30.2</v>
+        <v>27.92</v>
       </c>
       <c r="AB13">
         <v>10</v>
       </c>
       <c r="AC13" s="116">
-        <v>120.1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="118">
-        <v>45425</v>
+        <v>45433</v>
       </c>
       <c r="B14">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C14">
-        <v>31.371600000000001</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="D14">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E14">
-        <v>33.871899999999997</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="F14" s="113">
         <v>156</v>
       </c>
       <c r="G14">
-        <v>2341.31</v>
+        <v>2416.92</v>
       </c>
       <c r="H14" s="200">
         <v>7500</v>
       </c>
       <c r="I14" s="200">
-        <v>24.47</v>
+        <v>24.91</v>
       </c>
       <c r="J14">
         <v>30</v>
       </c>
       <c r="K14">
-        <v>634.10149999999999</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="L14">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M14">
-        <v>0.88511899999999999</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="N14" s="114">
-        <f t="shared" ref="N14:N22" si="1">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
-        <v>724161.16908100003</v>
+        <f>(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
+        <v>737258.36645300011</v>
       </c>
       <c r="O14">
-        <v>158.43</v>
+        <v>165.69</v>
       </c>
       <c r="P14">
-        <v>256973.54</v>
+        <v>269993.23</v>
       </c>
       <c r="Q14" s="116">
-        <v>10200</v>
+        <v>10829.64</v>
       </c>
       <c r="R14" s="128">
+        <f t="shared" si="2"/>
+        <v>8.3169892997366768E-3</v>
+      </c>
+      <c r="S14" s="117">
         <f t="shared" si="0"/>
-        <v>-6.7235294117646838E-3</v>
-      </c>
-      <c r="S14" s="117">
-        <f>(N14/$N$46)-1</f>
-        <v>0.36519592905049159</v>
+        <v>0.38988689743936056</v>
       </c>
       <c r="T14" s="115">
-        <f>(A14-$A$46)</f>
-        <v>63</v>
+        <f t="shared" si="1"/>
+        <v>71</v>
       </c>
       <c r="U14" s="117">
-        <f>((N14/$N$46)-1)/T14*30</f>
-        <v>0.17390282335737695</v>
+        <f>((N14/$N$48)-1)/T14*30</f>
+        <v>0.16474094258001151</v>
       </c>
       <c r="V14" s="117"/>
       <c r="W14" s="117"/>
       <c r="X14" s="135"/>
       <c r="Y14" s="135">
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Z14" s="135"/>
       <c r="AA14" s="135">
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AB14">
         <v>10</v>
       </c>
       <c r="AC14" s="116">
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="118">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B15">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.712</v>
+        <v>31.5244</v>
       </c>
       <c r="D15">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>34.055500000000002</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F15" s="113">
         <v>156</v>
       </c>
       <c r="G15">
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H15" s="200">
         <v>7500</v>
       </c>
       <c r="I15" s="200">
-        <v>24.39</v>
+        <v>24.41</v>
       </c>
       <c r="J15">
         <v>30</v>
       </c>
       <c r="K15">
-        <v>622.84294799999998</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L15">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M15">
-        <v>0.90642500000000004</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N15" s="114">
+        <f>(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
+        <v>720006.41536600015</v>
+      </c>
+      <c r="O15">
+        <v>158.43</v>
+      </c>
+      <c r="P15">
+        <v>256973.54</v>
+      </c>
+      <c r="Q15" s="116">
+        <v>10739.57</v>
+      </c>
+      <c r="R15" s="128">
+        <f t="shared" si="2"/>
+        <v>5.0241303888330702E-2</v>
+      </c>
+      <c r="S15" s="117">
+        <f t="shared" si="0"/>
+        <v>0.35736334550403681</v>
+      </c>
+      <c r="T15" s="115">
         <f t="shared" si="1"/>
-        <v>725052.22388499998</v>
-      </c>
-      <c r="O15">
-        <v>167.1</v>
-      </c>
-      <c r="P15">
-        <v>268201.53000000003</v>
-      </c>
-      <c r="Q15" s="116">
-        <v>10268.58</v>
-      </c>
-      <c r="R15" s="128">
-        <f t="shared" si="0"/>
-        <v>2.1701150499874422E-2</v>
-      </c>
-      <c r="S15" s="117">
-        <f>(N15/$N$46)-1</f>
-        <v>0.36687575454089361</v>
-      </c>
-      <c r="T15" s="115">
-        <f>(A15-$A$46)</f>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="U15" s="117">
-        <f>((N15/$N$46)-1)/T15*30</f>
-        <v>0.18654699383435269</v>
+        <f>((N15/$N$48)-1)/T15*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V15" s="117"/>
       <c r="W15" s="117"/>
       <c r="X15" s="135"/>
       <c r="Y15" s="135">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z15" s="135"/>
       <c r="AA15" s="135">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB15">
         <v>10</v>
       </c>
       <c r="AC15" s="116">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="118">
-        <v>45412</v>
+        <v>45425</v>
       </c>
       <c r="B16">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C16">
-        <v>31.771699999999999</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D16">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E16">
-        <v>34.014699999999998</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F16" s="113">
         <v>156</v>
       </c>
       <c r="G16">
-        <v>2341.2800000000002</v>
+        <v>2341.31</v>
       </c>
       <c r="H16" s="200">
         <v>7500</v>
       </c>
       <c r="I16" s="200">
-        <v>24.71</v>
+        <v>24.47</v>
       </c>
       <c r="J16">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L16">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M16">
-        <v>0.90242599999999995</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N16" s="114">
+        <f t="shared" ref="N16:N24" si="7">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
+        <v>724161.16908100003</v>
+      </c>
+      <c r="O16">
+        <v>158.43</v>
+      </c>
+      <c r="P16">
+        <v>256973.54</v>
+      </c>
+      <c r="Q16" s="116">
+        <v>10200</v>
+      </c>
+      <c r="R16" s="128">
+        <f t="shared" si="2"/>
+        <v>-6.7235294117646838E-3</v>
+      </c>
+      <c r="S16" s="117">
+        <f t="shared" si="0"/>
+        <v>0.36519592905049159</v>
+      </c>
+      <c r="T16" s="115">
         <f t="shared" si="1"/>
-        <v>769379.83326099999</v>
-      </c>
-      <c r="O16">
-        <v>167.1</v>
-      </c>
-      <c r="P16">
-        <v>268201.53000000003</v>
-      </c>
-      <c r="Q16" s="116">
-        <v>10045.74</v>
-      </c>
-      <c r="R16" s="128">
-        <f t="shared" si="0"/>
-        <v>1.2952754102733999E-2</v>
-      </c>
-      <c r="S16" s="117">
-        <f t="shared" ref="S16" si="2">(N16/$N$46)-1</f>
-        <v>0.45044261016428133</v>
-      </c>
-      <c r="T16" s="115">
-        <f t="shared" ref="T16" si="3">(A16-$A$46)</f>
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="U16" s="117">
-        <f>((N16/$N$46)-1)/T16*30</f>
-        <v>0.27026556609856883</v>
+        <f>((N16/$N$48)-1)/T16*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V16" s="117"/>
       <c r="W16" s="117"/>
       <c r="X16" s="135"/>
       <c r="Y16" s="135">
-        <v>37.39</v>
+        <v>35.86</v>
       </c>
       <c r="Z16" s="135"/>
       <c r="AA16" s="135">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB16">
         <v>10</v>
       </c>
       <c r="AC16" s="116">
-        <v>125.1</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="118">
-        <v>45411</v>
+        <v>45421</v>
       </c>
       <c r="B17">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C17">
-        <v>31.948</v>
+        <v>31.712</v>
       </c>
       <c r="D17">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E17">
-        <v>34.280099999999997</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F17" s="113">
         <v>156</v>
       </c>
       <c r="G17">
-        <v>2384.1799999999998</v>
+        <v>2333.16</v>
       </c>
       <c r="H17" s="200">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I17" s="200">
-        <v>24.91</v>
+        <v>24.39</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>622.84294799999998</v>
       </c>
       <c r="L17">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M17">
-        <v>0.89855499999999999</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N17" s="114">
+        <f t="shared" si="7"/>
+        <v>725052.22388499998</v>
+      </c>
+      <c r="O17">
+        <v>167.1</v>
+      </c>
+      <c r="P17">
+        <v>268201.53000000003</v>
+      </c>
+      <c r="Q17" s="116">
+        <v>10268.58</v>
+      </c>
+      <c r="R17" s="128">
+        <f t="shared" si="2"/>
+        <v>2.1701150499874422E-2</v>
+      </c>
+      <c r="S17" s="117">
+        <f t="shared" si="0"/>
+        <v>0.36687575454089361</v>
+      </c>
+      <c r="T17" s="115">
         <f t="shared" si="1"/>
-        <v>655301.58439900004</v>
-      </c>
-      <c r="O17">
-        <v>167.61</v>
-      </c>
-      <c r="P17">
-        <v>269021.68</v>
-      </c>
-      <c r="Q17" s="116">
-        <v>9915.6200000000008</v>
-      </c>
-      <c r="R17" s="128">
-        <f t="shared" si="0"/>
-        <v>2.5330740790792672E-2</v>
-      </c>
-      <c r="S17" s="117">
-        <f t="shared" ref="S17:S46" si="4">(N17/$N$46)-1</f>
-        <v>0.23538114651627517</v>
-      </c>
-      <c r="T17" s="115">
-        <f t="shared" ref="T17:T46" si="5">(A17-$A$46)</f>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="U17" s="117">
-        <f>((N17/$N$46)-1)/T17*30</f>
-        <v>0.14411090603037255</v>
+        <f>((N17/$N$48)-1)/T17*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V17" s="117"/>
       <c r="W17" s="117"/>
-      <c r="X17" s="113">
-        <v>35</v>
-      </c>
-      <c r="Y17" s="129">
-        <f>Y20</f>
-        <v>37.39</v>
-      </c>
-      <c r="Z17" s="113">
-        <v>40</v>
-      </c>
-      <c r="AA17" s="129">
-        <f>AA20</f>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135">
+        <v>37.4</v>
+      </c>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135">
         <v>30.5</v>
       </c>
-      <c r="AB17"/>
+      <c r="AB17">
+        <v>10</v>
+      </c>
+      <c r="AC17" s="116">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="118">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="B18">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D18">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F18" s="113">
         <v>156</v>
       </c>
       <c r="G18">
-        <v>2384.1799999999998</v>
+        <v>2341.2800000000002</v>
       </c>
       <c r="H18" s="200">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="I18" s="200">
-        <v>25.11</v>
+        <v>24.71</v>
+      </c>
+      <c r="J18">
+        <v>96</v>
+      </c>
+      <c r="K18">
+        <v>622.84294799999998</v>
       </c>
       <c r="L18">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M18">
-        <v>0.89607400000000004</v>
+        <v>0.90242599999999995</v>
       </c>
       <c r="N18" s="114">
-        <f t="shared" si="1"/>
-        <v>593216.45939900004</v>
+        <f t="shared" si="7"/>
+        <v>769379.83326099999</v>
       </c>
       <c r="O18">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P18">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q18" s="116">
-        <v>9664.4500000000007</v>
+        <v>10045.74</v>
       </c>
       <c r="R18" s="128">
-        <f t="shared" si="0"/>
-        <v>-5.7478697701369708E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.2952754102733999E-2</v>
       </c>
       <c r="S18" s="117">
-        <f t="shared" si="4"/>
-        <v>0.11833764360082077</v>
+        <f t="shared" ref="S18" si="8">(N18/$N$48)-1</f>
+        <v>0.45044261016428133</v>
       </c>
       <c r="T18" s="115">
-        <f t="shared" si="5"/>
-        <v>46</v>
+        <f t="shared" ref="T18" si="9">(A18-$A$48)</f>
+        <v>50</v>
       </c>
       <c r="U18" s="117">
-        <f>((N18/$N$46)-1)/T18*30</f>
-        <v>7.7176724087491808E-2</v>
+        <f>((N18/$N$48)-1)/T18*30</f>
+        <v>0.27026556609856883</v>
       </c>
       <c r="V18" s="117"/>
       <c r="W18" s="117"/>
-      <c r="X18" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y18" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z18" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA18" s="130" t="s">
-        <v>69</v>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135">
+        <v>37.39</v>
+      </c>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135">
+        <v>30.5</v>
       </c>
       <c r="AB18">
         <v>10</v>
       </c>
       <c r="AC18" s="116">
-        <v>148.5</v>
+        <v>125.1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="118">
-        <v>45407</v>
+        <v>45411</v>
       </c>
       <c r="B19">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>32.0291</v>
+        <v>31.948</v>
       </c>
       <c r="D19">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>34.322299999999998</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F19" s="113">
         <v>156</v>
       </c>
       <c r="G19">
-        <v>2368.4699999999998</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H19" s="200">
+        <v>5000</v>
+      </c>
+      <c r="I19" s="200">
+        <v>24.91</v>
       </c>
       <c r="L19">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M19">
-        <v>0.90609700000000004</v>
+        <v>0.89855499999999999</v>
       </c>
       <c r="N19" s="114">
-        <f t="shared" si="1"/>
-        <v>529347.18337699992</v>
+        <f t="shared" si="7"/>
+        <v>655301.58439900004</v>
       </c>
       <c r="O19">
-        <v>167.13</v>
+        <v>167.61</v>
       </c>
       <c r="P19">
-        <v>268083.81</v>
+        <v>269021.68</v>
       </c>
       <c r="Q19" s="116">
-        <v>9720</v>
+        <v>9915.6200000000008</v>
       </c>
       <c r="R19" s="128">
-        <f t="shared" si="0"/>
-        <v>-2.1502057613176362E-4</v>
+        <f t="shared" si="2"/>
+        <v>2.5330740790792672E-2</v>
       </c>
       <c r="S19" s="117">
-        <f t="shared" si="4"/>
-        <v>-2.0693587896702947E-3</v>
+        <f t="shared" ref="S19:S48" si="10">(N19/$N$48)-1</f>
+        <v>0.23538114651627517</v>
       </c>
       <c r="T19" s="115">
-        <f t="shared" si="5"/>
-        <v>45</v>
+        <f t="shared" ref="T19:T48" si="11">(A19-$A$48)</f>
+        <v>49</v>
       </c>
       <c r="U19" s="117">
-        <f>((N19/$N$46)-1)/T19*30</f>
-        <v>-1.379572526446863E-3</v>
+        <f>((N19/$N$48)-1)/T19*30</f>
+        <v>0.14411090603037255</v>
       </c>
       <c r="V19" s="117"/>
       <c r="W19" s="117"/>
-      <c r="X19" s="113"/>
-      <c r="Y19" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB19">
-        <v>10</v>
-      </c>
-      <c r="AC19" s="116">
-        <v>135</v>
-      </c>
+      <c r="X19" s="113">
+        <v>35</v>
+      </c>
+      <c r="Y19" s="129">
+        <f>Y22</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z19" s="113">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="129">
+        <f>AA22</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB19"/>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="118">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="B20">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.928699999999999</v>
+        <v>31.948</v>
       </c>
       <c r="D20">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>33.972000000000001</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F20" s="113">
         <v>156</v>
       </c>
       <c r="G20">
-        <v>2380.13</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H20" s="200">
+        <v>2500</v>
+      </c>
+      <c r="I20" s="200">
+        <v>25.11</v>
       </c>
       <c r="L20">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M20">
-        <v>0.88805999999999996</v>
+        <v>0.89607400000000004</v>
       </c>
       <c r="N20" s="114">
-        <f t="shared" si="1"/>
-        <v>528687.28128</v>
+        <f t="shared" si="7"/>
+        <v>593216.45939900004</v>
       </c>
       <c r="O20">
-        <v>166.96</v>
+        <v>167.61</v>
       </c>
       <c r="P20">
-        <v>267307.03000000003</v>
+        <v>269021.68</v>
       </c>
       <c r="Q20" s="116">
-        <v>9722.09</v>
+        <v>9664.4500000000007</v>
       </c>
       <c r="R20" s="128">
-        <f t="shared" ref="R20:R25" si="6">(1-(Q21/Q20))</f>
-        <v>7.927307811386175E-3</v>
+        <f t="shared" si="2"/>
+        <v>-5.7478697701369708E-3</v>
       </c>
       <c r="S20" s="117">
-        <f t="shared" si="4"/>
-        <v>-3.3134128688740994E-3</v>
+        <f t="shared" si="10"/>
+        <v>0.11833764360082077</v>
       </c>
       <c r="T20" s="115">
-        <f t="shared" si="5"/>
-        <v>44</v>
+        <f t="shared" si="11"/>
+        <v>46</v>
       </c>
       <c r="U20" s="117">
-        <f>((N20/$N$46)-1)/T20*30</f>
-        <v>-2.259145137868704E-3</v>
+        <f>((N20/$N$48)-1)/T20*30</f>
+        <v>7.7176724087491808E-2</v>
       </c>
       <c r="V20" s="117"/>
       <c r="W20" s="117"/>
       <c r="X20" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y20" s="132">
-        <v>37.39</v>
+        <v>68</v>
+      </c>
+      <c r="Y20" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="Z20" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA20" s="132">
-        <v>30.5</v>
+        <v>68</v>
+      </c>
+      <c r="AA20" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="AB20">
         <v>10</v>
       </c>
       <c r="AC20" s="116">
-        <v>135</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="118">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B21">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.928699999999999</v>
+        <v>32.0291</v>
       </c>
       <c r="D21">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>33.972000000000001</v>
+        <v>34.322299999999998</v>
       </c>
       <c r="F21" s="113">
         <v>156</v>
       </c>
       <c r="G21">
-        <v>2380.13</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="L21">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M21">
-        <v>0.88805999999999996</v>
+        <v>0.90609700000000004</v>
       </c>
       <c r="N21" s="114">
-        <f t="shared" si="1"/>
-        <v>528687.28128</v>
+        <f t="shared" si="7"/>
+        <v>529347.18337699992</v>
       </c>
       <c r="O21">
-        <v>166.96</v>
+        <v>167.13</v>
       </c>
       <c r="P21">
-        <v>267307.03000000003</v>
+        <v>268083.81</v>
       </c>
       <c r="Q21" s="116">
-        <v>9645.02</v>
+        <v>9720</v>
       </c>
       <c r="R21" s="128">
-        <f t="shared" si="6"/>
-        <v>-5.0222809283961833E-3</v>
+        <f t="shared" si="2"/>
+        <v>-2.1502057613176362E-4</v>
       </c>
       <c r="S21" s="117">
-        <f t="shared" si="4"/>
-        <v>-3.3134128688740994E-3</v>
+        <f t="shared" si="10"/>
+        <v>-2.0693587896702947E-3</v>
       </c>
       <c r="T21" s="115">
-        <f t="shared" si="5"/>
-        <v>42</v>
+        <f t="shared" si="11"/>
+        <v>45</v>
       </c>
       <c r="U21" s="117">
-        <f>((N21/$N$46)-1)/T21*30</f>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N21/$N$48)-1)/T21*30</f>
+        <v>-1.379572526446863E-3</v>
       </c>
       <c r="V21" s="117"/>
       <c r="W21" s="117"/>
       <c r="X21" s="113"/>
-      <c r="Y21" s="117" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
+      <c r="Y21" s="131" t="s">
+        <v>70</v>
       </c>
       <c r="Z21" s="113"/>
-      <c r="AA21" s="117" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB21" s="113">
+      <c r="AA21" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB21">
         <v>10</v>
       </c>
-      <c r="AC21" s="129">
+      <c r="AC21" s="116">
         <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="118">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B22">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.803999999999998</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D22">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>33.928400000000003</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F22" s="113">
         <v>156</v>
       </c>
       <c r="G22">
-        <v>2427.62</v>
+        <v>2380.13</v>
       </c>
       <c r="L22">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M22">
-        <v>0.87351800000000002</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N22" s="114">
-        <f t="shared" si="1"/>
-        <v>534125.51551599998</v>
+        <f t="shared" si="7"/>
+        <v>528687.28128</v>
       </c>
       <c r="O22">
-        <v>170.57</v>
+        <v>166.96</v>
       </c>
       <c r="P22">
-        <v>272736.27</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q22" s="116">
-        <v>9693.4599999999991</v>
+        <v>9722.09</v>
       </c>
       <c r="R22" s="128">
-        <f t="shared" si="6"/>
-        <v>1.4091975414350921E-3</v>
+        <f t="shared" si="2"/>
+        <v>7.927307811386175E-3</v>
       </c>
       <c r="S22" s="117">
-        <f t="shared" si="4"/>
-        <v>6.9388010818296486E-3</v>
+        <f t="shared" si="10"/>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T22" s="115">
-        <f t="shared" si="5"/>
-        <v>39</v>
+        <f t="shared" si="11"/>
+        <v>44</v>
       </c>
       <c r="U22" s="117">
-        <f>((N22/$N$46)-1)/T22*30</f>
-        <v>5.3375392937151144E-3</v>
+        <f>((N22/$N$48)-1)/T22*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V22" s="117"/>
       <c r="W22" s="117"/>
       <c r="X22" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y22" s="116">
-        <f>Y20*X17</f>
-        <v>1308.6500000000001</v>
+        <v>71</v>
+      </c>
+      <c r="Y22" s="132">
+        <v>37.39</v>
       </c>
       <c r="Z22" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA22" s="116">
-        <f>AA20*Z17</f>
-        <v>1220</v>
-      </c>
-      <c r="AB22" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC22" s="130" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="AA22" s="132">
+        <v>30.5</v>
+      </c>
+      <c r="AB22">
+        <v>10</v>
+      </c>
+      <c r="AC22" s="116">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="118">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="B23">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.863399999999999</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D23">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>33.963099999999997</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F23" s="113">
         <v>156</v>
       </c>
       <c r="G23">
-        <v>2387.5100000000002</v>
+        <v>2380.13</v>
       </c>
       <c r="L23">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.89791399999999999</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N23" s="114">
-        <f t="shared" ref="N23:N58" si="7">(F23*G23)+(B23*C23)+(D23*E23)+(L23*M23)+(H23*I23)</f>
-        <v>530994.96256900008</v>
+        <f t="shared" si="7"/>
+        <v>528687.28128</v>
       </c>
       <c r="O23">
-        <v>169.14</v>
+        <v>166.96</v>
       </c>
       <c r="P23">
-        <v>269604.92</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q23" s="116">
-        <v>9679.7999999999993</v>
+        <v>9645.02</v>
       </c>
       <c r="R23" s="128">
-        <f t="shared" si="6"/>
-        <v>-1.3880452075456073E-2</v>
+        <f t="shared" si="2"/>
+        <v>-5.0222809283961833E-3</v>
       </c>
       <c r="S23" s="117">
-        <f t="shared" si="4"/>
-        <v>1.0370511380362046E-3</v>
+        <f t="shared" si="10"/>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T23" s="115">
-        <f t="shared" si="5"/>
-        <v>35</v>
+        <f t="shared" si="11"/>
+        <v>42</v>
       </c>
       <c r="U23" s="117">
-        <f>((N23/$N$46)-1)/T23*30</f>
-        <v>8.8890097545960402E-4</v>
+        <f>((N23/$N$48)-1)/T23*30</f>
+        <v>-2.3667234777672141E-3</v>
       </c>
       <c r="V23" s="117"/>
       <c r="W23" s="117"/>
-      <c r="X23" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y23" s="133">
-        <f>(X17*Y5)-(X17*Y20)</f>
-        <v>-176.05000000000018</v>
-      </c>
-      <c r="Z23" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA23" s="133">
-        <f>(Z17*AA5)-(Z17*AA20)</f>
-        <v>-296.80000000000007</v>
-      </c>
-      <c r="AC23" s="131" t="s">
-        <v>70</v>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="117" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="117" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB23" s="113">
+        <v>10</v>
+      </c>
+      <c r="AC23" s="129">
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="118">
-        <v>45391</v>
+        <v>45401</v>
       </c>
       <c r="B24">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.412299999999998</v>
+        <v>31.803999999999998</v>
       </c>
       <c r="D24">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>34.091799999999999</v>
+        <v>33.928400000000003</v>
       </c>
       <c r="F24" s="113">
         <v>156</v>
       </c>
       <c r="G24">
-        <v>2352.21</v>
+        <v>2427.62</v>
       </c>
       <c r="L24">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M24">
-        <v>0.89529800000000004</v>
+        <v>0.87351800000000002</v>
       </c>
       <c r="N24" s="114">
         <f t="shared" si="7"/>
-        <v>524701.88168200001</v>
+        <v>534125.51551599998</v>
       </c>
       <c r="O24">
-        <v>165.81</v>
+        <v>170.57</v>
       </c>
       <c r="P24">
-        <v>263308.84999999998</v>
+        <v>272736.27</v>
       </c>
       <c r="Q24" s="116">
-        <v>9814.16</v>
+        <v>9693.4599999999991</v>
       </c>
       <c r="R24" s="128">
-        <f t="shared" si="6"/>
-        <v>5.8558246452063978E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.4091975414350921E-3</v>
       </c>
       <c r="S24" s="117">
-        <f t="shared" si="4"/>
-        <v>-1.0826728328378388E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.9388010818296486E-3</v>
       </c>
       <c r="T24" s="115">
-        <f t="shared" si="5"/>
-        <v>29</v>
+        <f t="shared" si="11"/>
+        <v>39</v>
       </c>
       <c r="U24" s="117">
-        <f>((N24/$N$46)-1)/T24*30</f>
-        <v>-1.1200063787977641E-2</v>
+        <f>((N24/$N$48)-1)/T24*30</f>
+        <v>5.3375392937151144E-3</v>
       </c>
       <c r="V24" s="117"/>
       <c r="W24" s="117"/>
-      <c r="X24" s="117"/>
-      <c r="Y24" s="117"/>
-      <c r="Z24" s="117"/>
-      <c r="AA24" s="117"/>
+      <c r="X24" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y24" s="116">
+        <f>Y22*X19</f>
+        <v>1308.6500000000001</v>
+      </c>
+      <c r="Z24" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA24" s="116">
+        <f>AA22*Z19</f>
+        <v>1220</v>
+      </c>
       <c r="AB24" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC24" s="132">
-        <v>135</v>
+        <v>68</v>
+      </c>
+      <c r="AC24" s="130" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="118">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="B25">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>31.5198</v>
+        <v>31.863399999999999</v>
       </c>
       <c r="D25">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>34.154899999999998</v>
+        <v>33.963099999999997</v>
       </c>
       <c r="F25" s="113">
         <v>156</v>
       </c>
       <c r="G25">
-        <v>2344.37</v>
+        <v>2387.5100000000002</v>
       </c>
       <c r="L25">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M25">
-        <v>0.818581</v>
+        <v>0.89791399999999999</v>
       </c>
       <c r="N25" s="114">
-        <f t="shared" si="7"/>
-        <v>514028.85925099999</v>
+        <f t="shared" ref="N25:N60" si="12">(F25*G25)+(B25*C25)+(D25*E25)+(L25*M25)+(H25*I25)</f>
+        <v>530994.96256900008</v>
       </c>
       <c r="O25">
-        <v>159.19</v>
+        <v>169.14</v>
       </c>
       <c r="P25">
-        <v>252634.37</v>
+        <v>269604.92</v>
       </c>
       <c r="Q25" s="116">
-        <v>9756.69</v>
+        <v>9679.7999999999993</v>
       </c>
       <c r="R25" s="128">
-        <f t="shared" si="6"/>
-        <v>1.4129791968382821E-2</v>
+        <f t="shared" si="2"/>
+        <v>-1.3880452075456073E-2</v>
       </c>
       <c r="S25" s="117">
-        <f t="shared" si="4"/>
-        <v>-3.0947617704367603E-2</v>
+        <f t="shared" si="10"/>
+        <v>1.0370511380362046E-3</v>
       </c>
       <c r="T25" s="115">
-        <f t="shared" si="5"/>
-        <v>28</v>
+        <f t="shared" si="11"/>
+        <v>35</v>
       </c>
       <c r="U25" s="117">
-        <f>((N25/$N$46)-1)/T25*30</f>
-        <v>-3.3158161826108146E-2</v>
+        <f>((N25/$N$48)-1)/T25*30</f>
+        <v>8.8890097545960402E-4</v>
       </c>
       <c r="V25" s="117"/>
       <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AC25" s="117">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
+      <c r="X25" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y25" s="133">
+        <f>(X19*Y5)-(X19*Y22)</f>
+        <v>-322.35000000000014</v>
+      </c>
+      <c r="Z25" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA25" s="133">
+        <f>(Z19*AA5)-(Z19*AA22)</f>
+        <v>-228</v>
+      </c>
+      <c r="AC25" s="131" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="118">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B26">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.407</v>
+        <v>31.412299999999998</v>
       </c>
       <c r="D26">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>34.038899999999998</v>
+        <v>34.091799999999999</v>
       </c>
       <c r="F26" s="113">
         <v>156</v>
       </c>
       <c r="G26">
-        <v>2289.27</v>
+        <v>2352.21</v>
       </c>
       <c r="L26">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M26">
-        <v>0.82424600000000003</v>
+        <v>0.89529800000000004</v>
       </c>
       <c r="N26" s="114">
-        <f t="shared" si="7"/>
-        <v>505978.825411</v>
+        <f t="shared" si="12"/>
+        <v>524701.88168200001</v>
       </c>
       <c r="O26">
-        <v>154.41</v>
+        <v>165.81</v>
       </c>
       <c r="P26">
-        <v>244587.02</v>
+        <v>263308.84999999998</v>
       </c>
       <c r="Q26" s="116">
-        <v>9618.83</v>
+        <v>9814.16</v>
       </c>
       <c r="R26" s="128">
-        <f t="shared" ref="R26:R57" si="8">(1-(Q27/Q26))</f>
-        <v>5.0921993631241946E-2</v>
+        <f t="shared" ref="R22:R27" si="13">(1-(Q27/Q26))</f>
+        <v>5.8558246452063978E-3</v>
       </c>
       <c r="S26" s="117">
-        <f t="shared" si="4"/>
-        <v>-4.6123622572225242E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.0826728328378388E-2</v>
       </c>
       <c r="T26" s="115">
-        <f t="shared" si="5"/>
-        <v>25</v>
+        <f t="shared" si="11"/>
+        <v>29</v>
       </c>
       <c r="U26" s="117">
-        <f>((N26/$N$46)-1)/T26*30</f>
-        <v>-5.5348347086670288E-2</v>
+        <f>((N26/$N$48)-1)/T26*30</f>
+        <v>-1.1200063787977641E-2</v>
       </c>
       <c r="V26" s="117"/>
       <c r="W26" s="117"/>
@@ -7173,72 +7259,71 @@
       <c r="Z26" s="117"/>
       <c r="AA26" s="117"/>
       <c r="AB26" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC26" s="116">
-        <f>AC24*AB21</f>
-        <v>1350</v>
+        <v>71</v>
+      </c>
+      <c r="AC26" s="132">
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="118">
-        <v>45386</v>
+        <v>45390</v>
       </c>
       <c r="B27">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>31.399799999999999</v>
+        <v>31.5198</v>
       </c>
       <c r="D27">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>34.053100000000001</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F27" s="113">
         <v>156</v>
       </c>
       <c r="G27">
-        <v>2292.5700000000002</v>
+        <v>2344.37</v>
       </c>
       <c r="L27">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M27">
-        <v>0.82913899999999996</v>
+        <v>0.818581</v>
       </c>
       <c r="N27" s="114">
-        <f t="shared" si="7"/>
-        <v>507101.83066900005</v>
+        <f t="shared" si="12"/>
+        <v>514028.85925099999</v>
       </c>
       <c r="O27">
-        <v>155.22</v>
+        <v>159.19</v>
       </c>
       <c r="P27">
-        <v>245709.7</v>
+        <v>252634.37</v>
       </c>
       <c r="Q27" s="116">
-        <v>9129.02</v>
+        <v>9756.69</v>
       </c>
       <c r="R27" s="128">
-        <f t="shared" si="8"/>
-        <v>2.0070062284889389E-2</v>
+        <f t="shared" si="13"/>
+        <v>1.4129791968382821E-2</v>
       </c>
       <c r="S27" s="117">
-        <f t="shared" si="4"/>
-        <v>-4.4006521749946126E-2</v>
+        <f t="shared" si="10"/>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T27" s="115">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f t="shared" si="11"/>
+        <v>28</v>
       </c>
       <c r="U27" s="117">
-        <f>((N27/$N$46)-1)/T27*30</f>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N27/$N$48)-1)/T27*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V27" s="117"/>
       <c r="W27" s="117"/>
@@ -7246,73 +7331,70 @@
       <c r="Y27" s="117"/>
       <c r="Z27" s="117"/>
       <c r="AA27" s="117"/>
-      <c r="AB27" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC27" s="133">
-        <f>(AB10*AC5)-(AB10*AC24)</f>
-        <v>-110</v>
+      <c r="AC27" s="117">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="118">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B28">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C28">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D28">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E28">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F28" s="113">
         <v>156</v>
       </c>
       <c r="G28">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L28">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M28">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N28" s="114">
-        <f t="shared" si="7"/>
-        <v>507101.83066900005</v>
+        <f t="shared" si="12"/>
+        <v>505978.825411</v>
       </c>
       <c r="O28">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="P28">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="Q28" s="116">
-        <v>8945.7999999999993</v>
+        <v>9618.83</v>
       </c>
       <c r="R28" s="128">
-        <f t="shared" si="8"/>
-        <v>-1.0627333497283731E-2</v>
+        <f t="shared" ref="R28:R59" si="14">(1-(Q29/Q28))</f>
+        <v>5.0921993631241946E-2</v>
       </c>
       <c r="S28" s="117">
-        <f t="shared" si="4"/>
-        <v>-4.4006521749946126E-2</v>
+        <f t="shared" si="10"/>
+        <v>-4.6123622572225242E-2</v>
       </c>
       <c r="T28" s="115">
-        <f t="shared" si="5"/>
-        <v>23</v>
+        <f t="shared" si="11"/>
+        <v>25</v>
       </c>
       <c r="U28" s="117">
-        <f>((N28/$N$46)-1)/T28*30</f>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N28/$N$48)-1)/T28*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V28" s="117"/>
       <c r="W28" s="117"/>
@@ -7320,68 +7402,73 @@
       <c r="Y28" s="117"/>
       <c r="Z28" s="117"/>
       <c r="AA28" s="117"/>
-      <c r="AB28" s="134"/>
-      <c r="AC28" s="135"/>
+      <c r="AB28" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC28" s="116">
+        <f>AC26*AB23</f>
+        <v>1350</v>
+      </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="118">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B29">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C29">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D29">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E29">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F29" s="113">
         <v>156</v>
       </c>
       <c r="G29">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L29">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M29">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N29" s="114">
-        <f t="shared" si="7"/>
-        <v>509777.60801200004</v>
+        <f t="shared" si="12"/>
+        <v>507101.83066900005</v>
       </c>
       <c r="O29">
-        <v>157.11000000000001</v>
+        <v>155.22</v>
       </c>
       <c r="P29">
-        <v>248387.66</v>
+        <v>245709.7</v>
       </c>
       <c r="Q29" s="116">
-        <v>9040.8700000000008</v>
+        <v>9129.02</v>
       </c>
       <c r="R29" s="128">
-        <f t="shared" si="8"/>
-        <v>-1.2904731513670775E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.0070062284889389E-2</v>
       </c>
       <c r="S29" s="117">
-        <f t="shared" si="4"/>
-        <v>-3.8962119354903346E-2</v>
+        <f t="shared" si="10"/>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T29" s="115">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f t="shared" si="11"/>
+        <v>24</v>
       </c>
       <c r="U29" s="117">
-        <f>((N29/$N$46)-1)/T29*30</f>
-        <v>-5.3130162756686382E-2</v>
+        <f>((N29/$N$48)-1)/T29*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V29" s="117"/>
       <c r="W29" s="117"/>
@@ -7389,68 +7476,73 @@
       <c r="Y29" s="117"/>
       <c r="Z29" s="117"/>
       <c r="AA29" s="117"/>
-      <c r="AB29" s="134"/>
-      <c r="AC29" s="135"/>
+      <c r="AB29" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC29" s="133">
+        <f>(AB10*AC5)-(AB10*AC26)</f>
+        <v>-154</v>
+      </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="118">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B30">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>31.879300000000001</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D30">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>34.391399999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F30" s="113">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G30">
-        <v>2308.4299999999998</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L30">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M30">
-        <v>0.88097599999999998</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N30" s="114">
-        <f t="shared" si="7"/>
-        <v>528238.93988600001</v>
+        <f t="shared" si="12"/>
+        <v>507101.83066900005</v>
       </c>
       <c r="O30">
-        <v>161.66</v>
+        <v>155.22</v>
       </c>
       <c r="P30">
-        <v>255424.81</v>
+        <v>245709.7</v>
       </c>
       <c r="Q30" s="116">
-        <v>9157.5400000000009</v>
+        <v>8945.7999999999993</v>
       </c>
       <c r="R30" s="128">
-        <f t="shared" si="8"/>
-        <v>1.6532824317448958E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.0627333497283731E-2</v>
       </c>
       <c r="S30" s="117">
-        <f t="shared" si="4"/>
-        <v>-4.1586305801334378E-3</v>
+        <f t="shared" si="10"/>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T30" s="115">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="11"/>
+        <v>23</v>
       </c>
       <c r="U30" s="117">
-        <f>((N30/$N$46)-1)/T30*30</f>
-        <v>-5.9409008287620545E-3</v>
+        <f>((N30/$N$48)-1)/T30*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V30" s="117"/>
       <c r="W30" s="117"/>
@@ -7463,63 +7555,63 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="118">
-        <v>45381</v>
+        <v>45384</v>
       </c>
       <c r="B31">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D31">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F31" s="113">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G31">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L31">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N31" s="114">
-        <f t="shared" si="7"/>
-        <v>528238.93988600001</v>
+        <f t="shared" si="12"/>
+        <v>509777.60801200004</v>
       </c>
       <c r="O31">
-        <v>161.66</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="P31">
-        <v>255424.81</v>
+        <v>248387.66</v>
       </c>
       <c r="Q31" s="116">
-        <v>9142.4</v>
+        <v>9040.8700000000008</v>
       </c>
       <c r="R31" s="128">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>-1.2904731513670775E-2</v>
       </c>
       <c r="S31" s="117">
-        <f t="shared" si="4"/>
-        <v>-4.1586305801334378E-3</v>
+        <f t="shared" si="10"/>
+        <v>-3.8962119354903346E-2</v>
       </c>
       <c r="T31" s="115">
-        <f t="shared" si="5"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>22</v>
       </c>
       <c r="U31" s="117">
-        <f>((N31/$N$46)-1)/T31*30</f>
-        <v>-6.5662588107370072E-3</v>
+        <f>((N31/$N$48)-1)/T31*30</f>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V31" s="117"/>
       <c r="W31" s="117"/>
@@ -7532,63 +7624,63 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="118">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B32">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C32">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D32">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E32">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F32" s="113">
         <v>161</v>
       </c>
       <c r="G32">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L32">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M32">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N32" s="114">
-        <f t="shared" si="7"/>
-        <v>518957.34710100002</v>
+        <f t="shared" si="12"/>
+        <v>528238.93988600001</v>
       </c>
       <c r="O32">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="P32">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="Q32" s="116">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="R32" s="128">
-        <f t="shared" si="8"/>
-        <v>6.8286226811340445E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.6532824317448958E-3</v>
       </c>
       <c r="S32" s="117">
-        <f t="shared" si="4"/>
-        <v>-2.165638277425741E-2</v>
+        <f t="shared" si="10"/>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T32" s="115">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f t="shared" si="11"/>
+        <v>21</v>
       </c>
       <c r="U32" s="117">
-        <f>((N32/$N$46)-1)/T32*30</f>
-        <v>-3.6093971290429017E-2</v>
+        <f>((N32/$N$48)-1)/T32*30</f>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V32" s="117"/>
       <c r="W32" s="117"/>
@@ -7601,63 +7693,63 @@
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="118">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B33">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C33">
-        <v>31.870699999999999</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D33">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E33">
-        <v>34.480800000000002</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F33" s="113">
         <v>161</v>
       </c>
       <c r="G33">
-        <v>2240.09</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L33">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M33">
-        <v>0.86473199999999995</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N33" s="114">
-        <f t="shared" si="7"/>
-        <v>515224.93979200005</v>
+        <f t="shared" si="12"/>
+        <v>528238.93988600001</v>
       </c>
       <c r="O33">
-        <v>153.81</v>
+        <v>161.66</v>
       </c>
       <c r="P33">
-        <v>242408.74</v>
+        <v>255424.81</v>
       </c>
       <c r="Q33" s="116">
-        <v>9079.9699999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R33" s="128">
-        <f t="shared" si="8"/>
-        <v>3.0093711763364839E-2</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="S33" s="117">
-        <f t="shared" si="4"/>
-        <v>-2.8692754622628547E-2</v>
+        <f t="shared" si="10"/>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T33" s="115">
-        <f t="shared" si="5"/>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>19</v>
       </c>
       <c r="U33" s="117">
-        <f>((N33/$N$46)-1)/T33*30</f>
-        <v>-5.0634272863462143E-2</v>
+        <f>((N33/$N$48)-1)/T33*30</f>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V33" s="117"/>
       <c r="W33" s="117"/>
@@ -7670,63 +7762,63 @@
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="118">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B34">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C34">
-        <v>31.821999999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D34">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E34">
-        <v>34.5045</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F34" s="113">
         <v>161</v>
       </c>
       <c r="G34">
-        <v>2227.25</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L34">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M34">
-        <v>0.85899999999999999</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N34" s="114">
-        <f t="shared" si="7"/>
-        <v>512394.77395499998</v>
+        <f t="shared" si="12"/>
+        <v>518957.34710100002</v>
       </c>
       <c r="O34">
-        <v>154.24</v>
+        <v>156.08000000000001</v>
       </c>
       <c r="P34">
-        <v>242616.68</v>
+        <v>246143.72</v>
       </c>
       <c r="Q34" s="116">
-        <v>8806.7199999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R34" s="128">
-        <f t="shared" si="8"/>
-        <v>-7.4942770974972817E-5</v>
+        <f t="shared" si="14"/>
+        <v>6.8286226811340445E-3</v>
       </c>
       <c r="S34" s="117">
-        <f t="shared" si="4"/>
-        <v>-3.4028211761422011E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.165638277425741E-2</v>
       </c>
       <c r="T34" s="115">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
       <c r="U34" s="117">
-        <f>((N34/$N$46)-1)/T34*30</f>
-        <v>-6.3802897052666271E-2</v>
+        <f>((N34/$N$48)-1)/T34*30</f>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V34" s="117"/>
       <c r="W34" s="117"/>
@@ -7739,63 +7831,63 @@
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="118">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B35">
-        <f>B54</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C35">
-        <v>31.530999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D35">
-        <f>D54</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E35">
-        <v>34.125900000000001</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F35" s="113">
         <v>161</v>
       </c>
       <c r="G35">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L35">
-        <f>L54</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M35">
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N35" s="114">
-        <f t="shared" si="7"/>
-        <v>515864.35854099999</v>
+        <f t="shared" si="12"/>
+        <v>515224.93979200005</v>
       </c>
       <c r="O35">
-        <v>154.24</v>
+        <v>153.81</v>
       </c>
       <c r="P35">
-        <v>242616.68</v>
+        <v>242408.74</v>
       </c>
       <c r="Q35" s="116">
-        <v>8807.3799999999992</v>
+        <v>9079.9699999999993</v>
       </c>
       <c r="R35" s="128">
-        <f t="shared" si="8"/>
-        <v>-2.5206133946758191E-2</v>
+        <f t="shared" si="14"/>
+        <v>3.0093711763364839E-2</v>
       </c>
       <c r="S35" s="117">
-        <f t="shared" si="4"/>
-        <v>-2.7487315957364089E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.8692754622628547E-2</v>
       </c>
       <c r="T35" s="115">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="11"/>
+        <v>17</v>
       </c>
       <c r="U35" s="117">
-        <f>((N35/$N$46)-1)/T35*30</f>
-        <v>-5.4974631914728178E-2</v>
+        <f>((N35/$N$48)-1)/T35*30</f>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V35" s="117"/>
       <c r="W35" s="117"/>
@@ -7808,63 +7900,63 @@
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="118">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B36">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C36">
-        <v>31.786200000000001</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D36">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E36">
-        <v>34.386299999999999</v>
+        <v>34.5045</v>
       </c>
       <c r="F36" s="113">
         <v>161</v>
       </c>
       <c r="G36">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L36">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M36">
-        <v>0.91889100000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N36" s="114">
-        <f t="shared" si="7"/>
-        <v>517720.01173699996</v>
+        <f t="shared" si="12"/>
+        <v>512394.77395499998</v>
       </c>
       <c r="O36">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="P36">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="Q36" s="116">
-        <v>9029.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="R36" s="128">
-        <f t="shared" si="8"/>
-        <v>-9.0947551216142841E-3</v>
+        <f t="shared" si="14"/>
+        <v>-7.4942770974972817E-5</v>
       </c>
       <c r="S36" s="117">
-        <f t="shared" si="4"/>
-        <v>-2.3989019863797534E-2</v>
+        <f t="shared" si="10"/>
+        <v>-3.4028211761422011E-2</v>
       </c>
       <c r="T36" s="115">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>16</v>
       </c>
       <c r="U36" s="117">
-        <f>((N36/$N$46)-1)/T36*30</f>
-        <v>-5.1405042565280425E-2</v>
+        <f>((N36/$N$48)-1)/T36*30</f>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V36" s="117"/>
       <c r="W36" s="117"/>
@@ -7877,63 +7969,63 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="118">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B37">
-        <f>B53</f>
+        <f>B56</f>
         <v>1110</v>
       </c>
       <c r="C37">
-        <v>31.710699999999999</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D37">
-        <f>D53</f>
+        <f>D56</f>
         <v>321.99</v>
       </c>
       <c r="E37">
-        <v>34.336300000000001</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F37" s="113">
         <v>161</v>
       </c>
       <c r="G37">
-        <v>2212.11</v>
+        <v>2227.25</v>
       </c>
       <c r="L37">
-        <f>L53</f>
+        <f>L56</f>
         <v>125000</v>
       </c>
       <c r="M37">
-        <v>0.93062100000000003</v>
+        <v>0.890316</v>
       </c>
       <c r="N37" s="114">
-        <f t="shared" si="7"/>
-        <v>518732.15723700001</v>
+        <f t="shared" si="12"/>
+        <v>515864.35854099999</v>
       </c>
       <c r="O37">
-        <v>156.63999999999999</v>
+        <v>154.24</v>
       </c>
       <c r="P37">
-        <v>245919.31</v>
-      </c>
-      <c r="Q37">
-        <v>9111.5</v>
+        <v>242616.68</v>
+      </c>
+      <c r="Q37" s="116">
+        <v>8807.3799999999992</v>
       </c>
       <c r="R37" s="128">
-        <f t="shared" si="8"/>
-        <v>-3.2047412610438641E-3</v>
+        <f t="shared" si="14"/>
+        <v>-2.5206133946758191E-2</v>
       </c>
       <c r="S37" s="117">
-        <f t="shared" si="4"/>
-        <v>-2.2080912973779676E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.7487315957364089E-2</v>
       </c>
       <c r="T37" s="115">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="11"/>
+        <v>15</v>
       </c>
       <c r="U37" s="117">
-        <f>((N37/$N$46)-1)/T37*30</f>
-        <v>-6.0220671746671839E-2</v>
+        <f>((N37/$N$48)-1)/T37*30</f>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V37" s="117"/>
       <c r="W37" s="117"/>
@@ -7946,63 +8038,63 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="118">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B38">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C38">
-        <v>32.063899999999997</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D38">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E38">
-        <v>35.065100000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F38" s="113">
         <v>161</v>
       </c>
       <c r="G38">
-        <v>2267.61</v>
+        <v>2214.31</v>
       </c>
       <c r="L38">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M38">
-        <v>0.94166499999999997</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N38" s="114">
-        <f t="shared" si="7"/>
-        <v>529674.87554899999</v>
+        <f t="shared" si="12"/>
+        <v>517720.01173699996</v>
       </c>
       <c r="O38">
-        <v>163.91</v>
+        <v>155.99</v>
       </c>
       <c r="P38">
-        <v>256845.12</v>
+        <v>244906</v>
       </c>
       <c r="Q38" s="116">
-        <v>9140.7000000000007</v>
+        <v>9029.3799999999992</v>
       </c>
       <c r="R38" s="128">
-        <f t="shared" si="8"/>
-        <v>2.0302602645311585E-2</v>
+        <f t="shared" si="14"/>
+        <v>-9.0947551216142841E-3</v>
       </c>
       <c r="S38" s="117">
-        <f t="shared" si="4"/>
-        <v>-1.4515902067954167E-3</v>
+        <f t="shared" si="10"/>
+        <v>-2.3989019863797534E-2</v>
       </c>
       <c r="T38" s="115">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" si="11"/>
+        <v>14</v>
       </c>
       <c r="U38" s="117">
-        <f>((N38/$N$46)-1)/T38*30</f>
-        <v>-4.3547706203862502E-3</v>
+        <f>((N38/$N$48)-1)/T38*30</f>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V38" s="117"/>
       <c r="W38" s="117"/>
@@ -8015,63 +8107,63 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="118">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B39">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C39">
-        <v>32.028799999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D39">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E39">
-        <v>34.808799999999998</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F39" s="113">
         <v>161</v>
       </c>
       <c r="G39">
-        <v>2220.92</v>
+        <v>2212.11</v>
       </c>
       <c r="L39">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M39">
-        <v>0.93470600000000004</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N39" s="114">
-        <f t="shared" si="7"/>
-        <v>521166.42351200001</v>
+        <f t="shared" si="12"/>
+        <v>518732.15723700001</v>
       </c>
       <c r="O39">
-        <v>158.47999999999999</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="P39">
-        <v>248342.62</v>
-      </c>
-      <c r="Q39" s="116">
-        <v>8955.1200000000008</v>
+        <v>245919.31</v>
+      </c>
+      <c r="Q39">
+        <v>9111.5</v>
       </c>
       <c r="R39" s="128">
-        <f t="shared" si="8"/>
-        <v>2.8184993612594411E-3</v>
+        <f t="shared" si="14"/>
+        <v>-3.2047412610438641E-3</v>
       </c>
       <c r="S39" s="117">
-        <f t="shared" si="4"/>
-        <v>-1.7491809676412506E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.2080912973779676E-2</v>
       </c>
       <c r="T39" s="115">
-        <f t="shared" si="5"/>
-        <v>9</v>
+        <f t="shared" si="11"/>
+        <v>11</v>
       </c>
       <c r="U39" s="117">
-        <f>((N39/$N$46)-1)/T39*30</f>
-        <v>-5.8306032254708352E-2</v>
+        <f>((N39/$N$48)-1)/T39*30</f>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V39" s="117"/>
       <c r="W39" s="117"/>
@@ -8084,63 +8176,63 @@
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="118">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B40">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>32.087800000000001</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D40">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>34.799100000000003</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F40" s="113">
         <v>161</v>
       </c>
       <c r="G40">
-        <v>2219.02</v>
+        <v>2267.61</v>
       </c>
       <c r="L40">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.90033600000000003</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N40" s="114">
-        <f t="shared" si="7"/>
-        <v>516626.64020899998</v>
+        <f t="shared" si="12"/>
+        <v>529674.87554899999</v>
       </c>
       <c r="O40">
-        <v>155.59</v>
+        <v>163.91</v>
       </c>
       <c r="P40">
-        <v>243803.06</v>
+        <v>256845.12</v>
       </c>
       <c r="Q40" s="116">
-        <v>8929.8799999999992</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="R40" s="128">
-        <f t="shared" si="8"/>
-        <v>2.3714764364134666E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.0302602645311585E-2</v>
       </c>
       <c r="S40" s="117">
-        <f t="shared" si="4"/>
-        <v>-2.6050254879836254E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.4515902067954167E-3</v>
       </c>
       <c r="T40" s="115">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" si="11"/>
+        <v>10</v>
       </c>
       <c r="U40" s="117">
-        <f>((N40/$N$46)-1)/T40*30</f>
-        <v>-9.7688455799385954E-2</v>
+        <f>((N40/$N$48)-1)/T40*30</f>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V40" s="117"/>
       <c r="W40" s="117"/>
@@ -8150,72 +8242,66 @@
       <c r="AA40" s="117"/>
       <c r="AB40" s="134"/>
       <c r="AC40" s="135"/>
-      <c r="AL40">
-        <v>68</v>
-      </c>
-      <c r="AM40">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="41" spans="1:39">
       <c r="A41" s="118">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B41">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>31.9499</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D41">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>34.8125</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F41" s="113">
         <v>161</v>
       </c>
       <c r="G41">
-        <v>2212.35</v>
+        <v>2220.92</v>
       </c>
       <c r="L41">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.93887900000000002</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N41" s="114">
-        <f t="shared" si="7"/>
-        <v>520221.89087499998</v>
+        <f t="shared" si="12"/>
+        <v>521166.42351200001</v>
       </c>
       <c r="O41">
-        <v>155.44</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="P41">
-        <v>247623.17</v>
+        <v>248342.62</v>
       </c>
       <c r="Q41" s="116">
-        <v>8718.11</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="R41" s="128">
-        <f t="shared" si="8"/>
-        <v>-1.2685088855267868E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.8184993612594411E-3</v>
       </c>
       <c r="S41" s="117">
-        <f t="shared" si="4"/>
-        <v>-1.9272452116166794E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.7491809676412506E-2</v>
       </c>
       <c r="T41" s="115">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <f t="shared" si="11"/>
+        <v>9</v>
       </c>
       <c r="U41" s="117">
-        <f>((N41/$N$46)-1)/T41*30</f>
-        <v>-8.2596223355000553E-2</v>
+        <f>((N41/$N$48)-1)/T41*30</f>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V41" s="117"/>
       <c r="W41" s="117"/>
@@ -8225,72 +8311,66 @@
       <c r="AA41" s="117"/>
       <c r="AB41" s="134"/>
       <c r="AC41" s="135"/>
-      <c r="AL41">
-        <v>68</v>
-      </c>
-      <c r="AM41">
-        <v>22.96</v>
-      </c>
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="118">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B42">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C42">
-        <v>31.796299999999999</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D42">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E42">
-        <v>34.619700000000002</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F42" s="113">
         <v>161</v>
       </c>
       <c r="G42">
-        <v>2213.54</v>
+        <v>2219.02</v>
       </c>
       <c r="L42">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M42">
-        <v>0.94838599999999995</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N42" s="114">
-        <f t="shared" si="7"/>
-        <v>521369.280203</v>
+        <f t="shared" si="12"/>
+        <v>516626.64020899998</v>
       </c>
       <c r="O42">
-        <v>156.13</v>
+        <v>155.59</v>
       </c>
       <c r="P42">
-        <v>248712.47</v>
+        <v>243803.06</v>
       </c>
       <c r="Q42" s="116">
-        <v>8828.7000000000007</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="R42" s="128">
-        <f t="shared" si="8"/>
-        <v>-6.2092946866469934E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="S42" s="117">
-        <f t="shared" si="4"/>
-        <v>-1.7109382199549383E-2</v>
+        <f t="shared" si="10"/>
+        <v>-2.6050254879836254E-2</v>
       </c>
       <c r="T42" s="115">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>8</v>
       </c>
       <c r="U42" s="117">
-        <f>((N42/$N$46)-1)/T42*30</f>
-        <v>-0.12832036649662037</v>
+        <f>((N42/$N$48)-1)/T42*30</f>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V42" s="117"/>
       <c r="W42" s="117"/>
@@ -8304,68 +8384,68 @@
         <v>68</v>
       </c>
       <c r="AM42">
-        <v>22.04</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="118">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B43">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>31.775700000000001</v>
+        <v>31.9499</v>
       </c>
       <c r="D43">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>34.762500000000003</v>
+        <v>34.8125</v>
       </c>
       <c r="F43" s="113">
         <v>161</v>
       </c>
       <c r="G43">
-        <v>2222.88</v>
+        <v>2212.35</v>
       </c>
       <c r="L43">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.95100700000000005</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N43" s="114">
-        <f t="shared" si="7"/>
-        <v>523223.75937500002</v>
+        <f t="shared" si="12"/>
+        <v>520221.89087499998</v>
       </c>
       <c r="O43">
-        <v>157.21</v>
+        <v>155.44</v>
       </c>
       <c r="P43">
-        <v>250427.64</v>
+        <v>247623.17</v>
       </c>
       <c r="Q43" s="116">
-        <v>8883.52</v>
+        <v>8718.11</v>
       </c>
       <c r="R43" s="128">
-        <f t="shared" si="8"/>
-        <v>-3.0066910413888426E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="S43" s="117">
-        <f t="shared" si="4"/>
-        <v>-1.3613299387851274E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.9272452116166794E-2</v>
       </c>
       <c r="T43" s="115">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="U43" s="117">
-        <f>((N43/$N$46)-1)/T43*30</f>
-        <v>-0.13613299387851274</v>
+        <f>((N43/$N$48)-1)/T43*30</f>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V43" s="117"/>
       <c r="W43" s="117"/>
@@ -8379,68 +8459,68 @@
         <v>68</v>
       </c>
       <c r="AM43">
-        <v>20.399999999999999</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="118">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B44">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C44">
-        <v>32</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D44">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E44">
-        <v>35</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F44" s="113">
         <v>161</v>
       </c>
       <c r="G44">
-        <v>2220.3200000000002</v>
+        <v>2213.54</v>
       </c>
       <c r="L44">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M44">
-        <v>0.957233</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N44" s="114">
-        <f t="shared" si="7"/>
-        <v>523915.29500000004</v>
+        <f t="shared" si="12"/>
+        <v>521369.280203</v>
       </c>
       <c r="O44">
-        <v>160.79</v>
+        <v>156.13</v>
       </c>
       <c r="P44">
-        <v>250989.9</v>
+        <v>248712.47</v>
       </c>
       <c r="Q44" s="116">
-        <v>8910.23</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="R44" s="128">
-        <f t="shared" si="8"/>
-        <v>-1.7822211098927898E-2</v>
+        <f t="shared" si="14"/>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="S44" s="117">
-        <f t="shared" si="4"/>
-        <v>-1.2309609463077242E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.7109382199549383E-2</v>
       </c>
       <c r="T44" s="115">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>4</v>
       </c>
       <c r="U44" s="117">
-        <f>((N44/$N$46)-1)/T44*30</f>
-        <v>-0.18464414194615864</v>
+        <f>((N44/$N$48)-1)/T44*30</f>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V44" s="117"/>
       <c r="W44" s="117"/>
@@ -8454,68 +8534,68 @@
         <v>68</v>
       </c>
       <c r="AM44">
-        <v>18.22</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="45" spans="1:39">
       <c r="A45" s="118">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B45">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>31.516400000000001</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D45">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>34.463200000000001</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F45" s="113">
         <v>161</v>
       </c>
       <c r="G45">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L45">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>0.979213</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N45" s="114">
-        <f t="shared" si="7"/>
-        <v>525953.15476800012</v>
+        <f t="shared" si="12"/>
+        <v>523223.75937500002</v>
       </c>
       <c r="O45">
-        <v>161.94999999999999</v>
+        <v>157.21</v>
       </c>
       <c r="P45">
-        <v>252645.61</v>
+        <v>250427.64</v>
       </c>
       <c r="Q45" s="116">
-        <v>9069.0300000000007</v>
+        <v>8883.52</v>
       </c>
       <c r="R45" s="128">
-        <f t="shared" si="8"/>
-        <v>-6.8684302510850781E-3</v>
+        <f t="shared" si="14"/>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="S45" s="117">
-        <f t="shared" si="4"/>
-        <v>-8.4678157049555836E-3</v>
+        <f t="shared" si="10"/>
+        <v>-1.3613299387851274E-2</v>
       </c>
       <c r="T45" s="115">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>3</v>
       </c>
       <c r="U45" s="117">
-        <f>((N45/$N$46)-1)/T45*30</f>
-        <v>-0.25403447114866751</v>
+        <f>((N45/$N$48)-1)/T45*30</f>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V45" s="117"/>
       <c r="W45" s="117"/>
@@ -8529,66 +8609,69 @@
         <v>68</v>
       </c>
       <c r="AM45">
-        <v>16.57</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="118">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B46">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>31.571400000000001</v>
+        <v>32</v>
       </c>
       <c r="D46">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>34.558100000000003</v>
+        <v>35</v>
       </c>
       <c r="F46" s="113">
         <v>161</v>
       </c>
       <c r="G46">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L46">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N46" s="201">
-        <f t="shared" si="7"/>
-        <v>530444.86411900003</v>
+        <v>0.957233</v>
+      </c>
+      <c r="N46" s="114">
+        <f t="shared" si="12"/>
+        <v>523915.29500000004</v>
       </c>
       <c r="O46">
-        <v>164.91</v>
+        <v>160.79</v>
       </c>
       <c r="P46">
-        <v>257088.48</v>
+        <v>250989.9</v>
       </c>
       <c r="Q46" s="116">
-        <v>9131.32</v>
+        <v>8910.23</v>
       </c>
       <c r="R46" s="128">
-        <f t="shared" si="8"/>
-        <v>-2.6283166070184549E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="S46" s="117">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>-1.2309609463077242E-2</v>
       </c>
       <c r="T46" s="115">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U46" s="117"/>
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="U46" s="117">
+        <f>((N46/$N$48)-1)/T46*30</f>
+        <v>-0.18464414194615864</v>
+      </c>
       <c r="V46" s="117"/>
       <c r="W46" s="117"/>
       <c r="X46" s="117"/>
@@ -8597,73 +8680,73 @@
       <c r="AA46" s="117"/>
       <c r="AB46" s="134"/>
       <c r="AC46" s="135"/>
-      <c r="AH46">
-        <v>12</v>
-      </c>
-      <c r="AI46">
-        <v>41.58</v>
-      </c>
-      <c r="AJ46">
-        <f>AJ53</f>
-        <v>15</v>
-      </c>
-      <c r="AK46">
-        <v>55.55</v>
-      </c>
       <c r="AL46">
         <v>68</v>
       </c>
       <c r="AM46">
-        <v>15.07</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="118">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B47">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C47">
-        <v>31.402999999999999</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D47">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E47">
-        <v>34.3643</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F47" s="113">
         <v>161</v>
       </c>
       <c r="G47">
-        <v>2198.16</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L47">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M47">
-        <v>0.99115900000000001</v>
+        <v>0.979213</v>
       </c>
       <c r="N47" s="114">
-        <f t="shared" si="7"/>
-        <v>523720.92595699994</v>
+        <f t="shared" si="12"/>
+        <v>525953.15476800012</v>
       </c>
       <c r="O47">
-        <v>160.9</v>
+        <v>161.94999999999999</v>
+      </c>
+      <c r="P47">
+        <v>252645.61</v>
       </c>
       <c r="Q47" s="116">
-        <v>9155.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="R47" s="128">
-        <f t="shared" si="8"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S47" s="117"/>
-      <c r="U47" s="117"/>
+        <f t="shared" si="14"/>
+        <v>-6.8684302510850781E-3</v>
+      </c>
+      <c r="S47" s="117">
+        <f t="shared" si="10"/>
+        <v>-8.4678157049555836E-3</v>
+      </c>
+      <c r="T47" s="115">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U47" s="117">
+        <f>((N47/$N$48)-1)/T47*30</f>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V47" s="117"/>
       <c r="W47" s="117"/>
       <c r="X47" s="117"/>
@@ -8672,72 +8755,69 @@
       <c r="AA47" s="117"/>
       <c r="AB47" s="134"/>
       <c r="AC47" s="135"/>
-      <c r="AH47">
-        <v>12</v>
-      </c>
-      <c r="AI47">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="AJ47">
-        <f>AJ53</f>
-        <v>15</v>
-      </c>
-      <c r="AK47">
-        <v>57.75</v>
-      </c>
       <c r="AL47">
         <v>68</v>
       </c>
       <c r="AM47">
-        <v>13.7</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="A48" s="118">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B48">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>31.297000000000001</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D48">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>34.110599999999998</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F48" s="113">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2184.79</v>
+        <v>2232.66</v>
       </c>
       <c r="L48">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>0.945214</v>
-      </c>
-      <c r="N48" s="114">
-        <f t="shared" si="7"/>
-        <v>515625.882094</v>
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N48" s="201">
+        <f t="shared" si="12"/>
+        <v>530444.86411900003</v>
       </c>
       <c r="O48">
-        <v>155.75</v>
+        <v>164.91</v>
+      </c>
+      <c r="P48">
+        <v>257088.48</v>
       </c>
       <c r="Q48" s="116">
-        <v>9054.18</v>
+        <v>9131.32</v>
       </c>
       <c r="R48" s="128">
-        <f t="shared" si="8"/>
-        <v>3.4194151209717583E-2</v>
-      </c>
-      <c r="S48" s="117"/>
+        <f t="shared" si="14"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S48" s="117">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T48" s="115">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="U48" s="117"/>
       <c r="V48" s="117"/>
       <c r="W48" s="117"/>
@@ -8751,66 +8831,66 @@
         <v>12</v>
       </c>
       <c r="AI48">
-        <v>34.380000000000003</v>
+        <v>41.58</v>
       </c>
       <c r="AJ48">
-        <f>AJ53</f>
+        <f>AJ55</f>
         <v>15</v>
       </c>
       <c r="AK48">
-        <v>63.1</v>
+        <v>55.55</v>
       </c>
       <c r="AL48">
         <v>68</v>
       </c>
       <c r="AM48">
-        <v>12.46</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="118">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B49">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C49">
-        <v>31.293399999999998</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D49">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E49">
-        <v>34.006500000000003</v>
+        <v>34.3643</v>
       </c>
       <c r="F49" s="113">
         <v>161</v>
       </c>
       <c r="G49">
-        <v>2150.9</v>
+        <v>2198.16</v>
       </c>
       <c r="L49">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>0.99397100000000005</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N49" s="114">
-        <f t="shared" si="7"/>
-        <v>516226.70193500002</v>
+        <f t="shared" si="12"/>
+        <v>523720.92595699994</v>
       </c>
       <c r="O49">
-        <v>156.16</v>
+        <v>160.9</v>
       </c>
       <c r="Q49" s="116">
-        <v>8744.58</v>
+        <v>9155.32</v>
       </c>
       <c r="R49" s="128">
-        <f t="shared" si="8"/>
-        <v>-1.3258498407013208E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S49" s="117"/>
       <c r="U49" s="117"/>
@@ -8822,77 +8902,70 @@
       <c r="AA49" s="117"/>
       <c r="AB49" s="134"/>
       <c r="AC49" s="135"/>
-      <c r="AF49">
-        <f>AF53</f>
-        <v>57</v>
-      </c>
-      <c r="AG49">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH49">
         <v>12</v>
       </c>
       <c r="AI49">
-        <v>31.26</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ49">
-        <f>AJ53</f>
+        <f>AJ55</f>
         <v>15</v>
       </c>
       <c r="AK49">
-        <v>57.4</v>
+        <v>57.75</v>
       </c>
       <c r="AL49">
         <v>68</v>
       </c>
       <c r="AM49">
-        <v>11.33</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="118">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B50">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C50">
-        <v>31.079899999999999</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D50">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E50">
-        <v>33.721699999999998</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F50" s="113">
         <v>161</v>
       </c>
       <c r="G50">
-        <v>2116.34</v>
+        <v>2184.79</v>
       </c>
       <c r="L50">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M50">
-        <v>1.0160309999999999</v>
+        <v>0.945214</v>
       </c>
       <c r="N50" s="114">
-        <f t="shared" si="7"/>
-        <v>513091.35418300005</v>
+        <f t="shared" si="12"/>
+        <v>515625.882094</v>
       </c>
       <c r="O50">
-        <v>154.22999999999999</v>
+        <v>155.75</v>
       </c>
       <c r="Q50" s="116">
-        <v>8860.52</v>
+        <v>9054.18</v>
       </c>
       <c r="R50" s="128">
-        <f t="shared" si="8"/>
-        <v>-5.319100910555985E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S50" s="117"/>
       <c r="U50" s="117"/>
@@ -8904,82 +8977,70 @@
       <c r="AA50" s="117"/>
       <c r="AB50" s="134"/>
       <c r="AC50" s="135"/>
-      <c r="AD50">
-        <f>AD53</f>
-        <v>36</v>
-      </c>
-      <c r="AE50" s="136">
-        <v>38.15</v>
-      </c>
-      <c r="AF50">
-        <f>AF53</f>
-        <v>57</v>
-      </c>
-      <c r="AG50">
-        <v>579.361718</v>
-      </c>
       <c r="AH50">
-        <f>AH53</f>
         <v>12</v>
       </c>
       <c r="AI50">
-        <v>28.42</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ50">
-        <f>AJ53</f>
+        <f>AJ55</f>
         <v>15</v>
       </c>
       <c r="AK50">
-        <v>52.2</v>
+        <v>63.1</v>
       </c>
       <c r="AL50">
         <v>68</v>
       </c>
       <c r="AM50">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="118">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B51">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C51">
-        <v>30.905999999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D51">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E51">
-        <v>33.542299999999997</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F51" s="113">
         <v>161</v>
       </c>
       <c r="G51">
-        <v>2072.52</v>
+        <v>2150.9</v>
       </c>
       <c r="L51">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M51">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N51" s="114">
-        <f t="shared" si="7"/>
-        <v>509025.91517699993</v>
+        <f t="shared" si="12"/>
+        <v>516226.70193500002</v>
+      </c>
+      <c r="O51">
+        <v>156.16</v>
       </c>
       <c r="Q51" s="116">
-        <v>8907.65</v>
+        <v>8744.58</v>
       </c>
       <c r="R51" s="128">
-        <f t="shared" si="8"/>
-        <v>-2.1273848882702007E-2</v>
+        <f t="shared" si="14"/>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S51" s="117"/>
       <c r="U51" s="117"/>
@@ -8991,33 +9052,25 @@
       <c r="AA51" s="117"/>
       <c r="AB51" s="134"/>
       <c r="AC51" s="135"/>
-      <c r="AD51">
-        <f>AD53</f>
-        <v>36</v>
-      </c>
-      <c r="AE51">
-        <v>34.659999999999997</v>
-      </c>
       <c r="AF51">
-        <f>AF53</f>
+        <f>AF55</f>
         <v>57</v>
       </c>
       <c r="AG51">
-        <v>578.66060300000004</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH51">
-        <f>AH53</f>
         <v>12</v>
       </c>
       <c r="AI51">
-        <v>25.84</v>
+        <v>31.26</v>
       </c>
       <c r="AJ51">
-        <f>AJ53</f>
+        <f>AJ55</f>
         <v>15</v>
       </c>
       <c r="AK51">
-        <v>47.46</v>
+        <v>57.4</v>
       </c>
       <c r="AL51">
         <v>68</v>
@@ -9028,45 +9081,48 @@
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="118">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B52">
-        <f>B53</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C52">
-        <v>30.7361</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D52">
-        <f>D53</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E52">
-        <v>33.225700000000003</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F52" s="113">
         <v>161</v>
       </c>
       <c r="G52">
-        <v>2018.91</v>
+        <v>2116.34</v>
       </c>
       <c r="L52">
-        <f>L53</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M52">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N52" s="114">
-        <f t="shared" si="7"/>
-        <v>499114.42414299998</v>
+        <f t="shared" si="12"/>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O52">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q52" s="116">
-        <v>9097.15</v>
+        <v>8860.52</v>
       </c>
       <c r="R52" s="128">
-        <f t="shared" si="8"/>
-        <v>-1.0612114783201454E-2</v>
+        <f t="shared" si="14"/>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S52" s="117"/>
       <c r="U52" s="117"/>
@@ -9079,32 +9135,32 @@
       <c r="AB52" s="134"/>
       <c r="AC52" s="135"/>
       <c r="AD52">
-        <f>AD53</f>
+        <f>AD55</f>
         <v>36</v>
       </c>
-      <c r="AE52">
-        <v>31.52</v>
+      <c r="AE52" s="136">
+        <v>38.15</v>
       </c>
       <c r="AF52">
-        <f>AF53</f>
+        <f>AF55</f>
         <v>57</v>
       </c>
       <c r="AG52">
-        <v>576.58807100000001</v>
+        <v>579.361718</v>
       </c>
       <c r="AH52">
-        <f>AH53</f>
+        <f>AH55</f>
         <v>12</v>
       </c>
       <c r="AI52">
-        <v>23.5</v>
+        <v>28.42</v>
       </c>
       <c r="AJ52">
-        <f>AJ53</f>
+        <f>AJ55</f>
         <v>15</v>
       </c>
       <c r="AK52">
-        <v>43.16</v>
+        <v>52.2</v>
       </c>
       <c r="AL52">
         <v>68</v>
@@ -9115,90 +9171,104 @@
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="118">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B53">
-        <f>B54</f>
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C53">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D53">
-        <f>D54</f>
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E53">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F53" s="113">
         <v>161</v>
       </c>
       <c r="G53">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L53">
-        <f>L54</f>
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M53">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="N53" s="114">
-        <f t="shared" si="7"/>
-        <v>496152.04914299998</v>
+        <f t="shared" si="12"/>
+        <v>509025.91517699993</v>
       </c>
       <c r="Q53" s="116">
-        <v>9193.69</v>
+        <v>8907.65</v>
       </c>
       <c r="R53" s="128">
-        <f t="shared" si="8"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S53" s="128"/>
+        <f t="shared" si="14"/>
+        <v>-2.1273848882702007E-2</v>
+      </c>
+      <c r="S53" s="117"/>
+      <c r="U53" s="117"/>
+      <c r="V53" s="117"/>
+      <c r="W53" s="117"/>
+      <c r="X53" s="117"/>
+      <c r="Y53" s="117"/>
+      <c r="Z53" s="117"/>
+      <c r="AA53" s="117"/>
+      <c r="AB53" s="134"/>
+      <c r="AC53" s="135"/>
       <c r="AD53">
-        <f>AD54</f>
+        <f>AD55</f>
         <v>36</v>
       </c>
       <c r="AE53">
-        <v>28.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF53">
-        <f>AF54</f>
+        <f>AF55</f>
         <v>57</v>
       </c>
       <c r="AG53">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH53">
-        <f>AH54</f>
+        <f>AH55</f>
         <v>12</v>
       </c>
       <c r="AI53">
-        <v>21.38</v>
+        <v>25.84</v>
       </c>
       <c r="AJ53">
+        <f>AJ55</f>
         <v>15</v>
       </c>
       <c r="AK53">
-        <v>39.24</v>
-      </c>
-      <c r="AM53" s="130">
-        <f>AM52</f>
+        <v>47.46</v>
+      </c>
+      <c r="AL53">
+        <v>68</v>
+      </c>
+      <c r="AM53">
         <v>11.33</v>
       </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="118">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B54">
+        <f>B55</f>
         <v>1110</v>
       </c>
       <c r="C54">
         <v>30.7361</v>
       </c>
       <c r="D54">
+        <f>D55</f>
         <v>321.99</v>
       </c>
       <c r="E54">
@@ -9211,61 +9281,81 @@
         <v>2018.91</v>
       </c>
       <c r="L54">
+        <f>L55</f>
         <v>125000</v>
       </c>
       <c r="M54">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="N54" s="114">
-        <f t="shared" si="7"/>
-        <v>503322.92414299998</v>
+        <f t="shared" si="12"/>
+        <v>499114.42414299998</v>
       </c>
       <c r="Q54" s="116">
-        <v>9062.36</v>
+        <v>9097.15</v>
       </c>
       <c r="R54" s="128">
-        <f t="shared" si="8"/>
-        <v>-1.292378585710563E-2</v>
-      </c>
-      <c r="S54" s="128"/>
+        <f t="shared" si="14"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S54" s="117"/>
+      <c r="U54" s="117"/>
+      <c r="V54" s="117"/>
+      <c r="W54" s="117"/>
+      <c r="X54" s="117"/>
+      <c r="Y54" s="117"/>
+      <c r="Z54" s="117"/>
+      <c r="AA54" s="117"/>
+      <c r="AB54" s="134"/>
+      <c r="AC54" s="135"/>
       <c r="AD54">
         <f>AD55</f>
         <v>36</v>
       </c>
       <c r="AE54">
-        <v>26.06</v>
+        <v>31.52</v>
       </c>
       <c r="AF54">
+        <f>AF55</f>
         <v>57</v>
       </c>
       <c r="AG54">
         <v>576.58807100000001</v>
       </c>
       <c r="AH54">
+        <f>AH55</f>
         <v>12</v>
       </c>
       <c r="AI54">
-        <v>19.45</v>
-      </c>
-      <c r="AK54" s="130">
-        <f>AK53</f>
-        <v>39.24</v>
-      </c>
-      <c r="AM54" s="130" t="s">
-        <v>70</v>
+        <v>23.5</v>
+      </c>
+      <c r="AJ54">
+        <f>AJ55</f>
+        <v>15</v>
+      </c>
+      <c r="AK54">
+        <v>43.16</v>
+      </c>
+      <c r="AL54">
+        <v>68</v>
+      </c>
+      <c r="AM54">
+        <v>11.33</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="118">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B55">
+        <f>B56</f>
         <v>1110</v>
       </c>
       <c r="C55">
         <v>30.7361</v>
       </c>
       <c r="D55">
+        <f>D56</f>
         <v>321.99</v>
       </c>
       <c r="E55">
@@ -9277,50 +9367,60 @@
       <c r="G55">
         <v>2018.91</v>
       </c>
-      <c r="L55" s="200">
-        <v>75000</v>
+      <c r="L55">
+        <f>L56</f>
+        <v>125000</v>
       </c>
       <c r="M55">
-        <v>1.064435</v>
+        <v>1.010337</v>
       </c>
       <c r="N55" s="114">
-        <f t="shared" si="7"/>
-        <v>449692.54914299998</v>
+        <f t="shared" si="12"/>
+        <v>496152.04914299998</v>
       </c>
       <c r="Q55" s="116">
-        <v>9179.48</v>
+        <v>9193.69</v>
       </c>
       <c r="R55" s="128">
-        <f t="shared" si="8"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S55" s="128"/>
       <c r="AD55">
+        <f>AD56</f>
         <v>36</v>
       </c>
       <c r="AE55">
-        <v>23.7</v>
+        <v>28.66</v>
       </c>
       <c r="AF55">
+        <f>AF56</f>
         <v>57</v>
       </c>
       <c r="AG55">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI55" s="130">
-        <f>AI54</f>
-        <v>19.45</v>
-      </c>
-      <c r="AK55" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM55" s="131" t="s">
-        <v>69</v>
+      <c r="AH55">
+        <f>AH56</f>
+        <v>12</v>
+      </c>
+      <c r="AI55">
+        <v>21.38</v>
+      </c>
+      <c r="AJ55">
+        <v>15</v>
+      </c>
+      <c r="AK55">
+        <v>39.24</v>
+      </c>
+      <c r="AM55" s="130">
+        <f>AM54</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="A56" s="118">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B56">
         <v>1110</v>
@@ -9341,29 +9441,29 @@
         <v>2018.91</v>
       </c>
       <c r="L56">
-        <f>L57</f>
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="M56">
-        <v>1.0192399999999999</v>
+        <v>1.067704</v>
       </c>
       <c r="N56" s="114">
-        <f t="shared" si="7"/>
-        <v>420821.92414299998</v>
+        <f t="shared" si="12"/>
+        <v>503322.92414299998</v>
       </c>
       <c r="Q56" s="116">
-        <v>9334.1299999999992</v>
+        <v>9062.36</v>
       </c>
       <c r="R56" s="128">
-        <f t="shared" si="8"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S56" s="128"/>
       <c r="AD56">
+        <f>AD57</f>
         <v>36</v>
       </c>
       <c r="AE56">
-        <v>21.56</v>
+        <v>26.06</v>
       </c>
       <c r="AF56">
         <v>57</v>
@@ -9371,20 +9471,23 @@
       <c r="AG56">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI56" s="130" t="s">
+      <c r="AH56">
+        <v>12</v>
+      </c>
+      <c r="AI56">
+        <v>19.45</v>
+      </c>
+      <c r="AK56" s="130">
+        <f>AK55</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM56" s="130" t="s">
         <v>70</v>
-      </c>
-      <c r="AK56" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM56" s="131">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="118">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B57">
         <v>1110</v>
@@ -9404,29 +9507,29 @@
       <c r="G57">
         <v>2018.91</v>
       </c>
-      <c r="L57">
-        <v>50000</v>
+      <c r="L57" s="200">
+        <v>75000</v>
       </c>
       <c r="M57">
-        <v>1.0032049999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N57" s="114">
-        <f t="shared" si="7"/>
-        <v>420020.17414299998</v>
+        <f t="shared" si="12"/>
+        <v>449692.54914299998</v>
       </c>
       <c r="Q57" s="116">
-        <v>9374.2000000000007</v>
+        <v>9179.48</v>
       </c>
       <c r="R57" s="128">
-        <f t="shared" si="8"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S57" s="128"/>
       <c r="AD57">
         <v>36</v>
       </c>
       <c r="AE57">
-        <v>19.600000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="AF57">
         <v>57</v>
@@ -9434,132 +9537,259 @@
       <c r="AG57">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI57" s="131" t="s">
+      <c r="AI57" s="130">
+        <f>AI56</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK57" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM57" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AK57" s="131">
-        <v>55.5</v>
-      </c>
-      <c r="AM57" s="117">
-        <f>(AM56-AM52)/AM52</f>
-        <v>0.73786407766990303</v>
-      </c>
     </row>
     <row r="58" spans="1:39">
-      <c r="A58" s="199">
-        <v>45344</v>
-      </c>
-      <c r="L58" s="200">
+      <c r="A58" s="118">
+        <v>45348</v>
+      </c>
+      <c r="B58">
+        <v>1110</v>
+      </c>
+      <c r="C58">
+        <v>30.7361</v>
+      </c>
+      <c r="D58">
+        <v>321.99</v>
+      </c>
+      <c r="E58">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F58" s="113">
+        <v>161</v>
+      </c>
+      <c r="G58">
+        <v>2018.91</v>
+      </c>
+      <c r="L58">
+        <f>L59</f>
         <v>50000</v>
       </c>
       <c r="M58">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N58" s="114">
-        <f t="shared" si="7"/>
-        <v>50160.249999999993</v>
+        <f t="shared" si="12"/>
+        <v>420821.92414299998</v>
       </c>
       <c r="Q58" s="116">
-        <v>9347.17</v>
-      </c>
+        <v>9334.1299999999992</v>
+      </c>
+      <c r="R58" s="128">
+        <f t="shared" si="14"/>
+        <v>-4.2928478604864484E-3</v>
+      </c>
+      <c r="S58" s="128"/>
       <c r="AD58">
         <v>36</v>
       </c>
       <c r="AE58">
-        <v>17.82</v>
-      </c>
-      <c r="AI58" s="131">
-        <v>45.72</v>
-      </c>
-      <c r="AK58" s="117">
-        <f>(AK57-AK53)/AK53</f>
-        <v>0.41437308868501521</v>
+        <v>21.56</v>
+      </c>
+      <c r="AF58">
+        <v>57</v>
+      </c>
+      <c r="AG58">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI58" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK58" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM58" s="131">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:39">
+      <c r="A59" s="118">
+        <v>45345</v>
+      </c>
+      <c r="B59">
+        <v>1110</v>
+      </c>
+      <c r="C59">
+        <v>30.7361</v>
+      </c>
+      <c r="D59">
+        <v>321.99</v>
+      </c>
+      <c r="E59">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F59" s="113">
+        <v>161</v>
+      </c>
+      <c r="G59">
+        <v>2018.91</v>
+      </c>
+      <c r="L59">
+        <v>50000</v>
+      </c>
       <c r="M59">
-        <v>0.93849000000000005</v>
-      </c>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N59" s="114">
+        <f t="shared" si="12"/>
+        <v>420020.17414299998</v>
+      </c>
+      <c r="Q59" s="116">
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R59" s="128">
+        <f t="shared" si="14"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S59" s="128"/>
       <c r="AD59">
         <v>36</v>
       </c>
-      <c r="AE59" s="130">
-        <v>15.3</v>
-      </c>
-      <c r="AI59" s="117">
-        <f>(AI58-AI54)/AI54</f>
-        <v>1.3506426735218509</v>
-      </c>
-      <c r="AM59" s="133">
-        <f>(AL52*AM56)-(AL40*AM52)</f>
-        <v>568.48</v>
+      <c r="AE59">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF59">
+        <v>57</v>
+      </c>
+      <c r="AG59">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI59" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK59" s="131">
+        <v>55.5</v>
+      </c>
+      <c r="AM59" s="117">
+        <f>(AM58-AM54)/AM54</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="60" spans="1:39">
+      <c r="A60" s="199">
+        <v>45344</v>
+      </c>
+      <c r="L60" s="200">
+        <v>50000</v>
+      </c>
       <c r="M60">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="R60" s="137" t="e">
-        <f>SUM(R10:R59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S60" s="137"/>
-      <c r="AE60" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ60" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK60" s="133">
-        <f>(AJ53*AK57)-(AJ10*AK53)</f>
-        <v>832.5</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N60" s="114">
+        <f t="shared" si="12"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q60" s="116">
+        <v>9347.17</v>
+      </c>
+      <c r="AD60">
+        <v>36</v>
+      </c>
+      <c r="AE60">
+        <v>17.82</v>
+      </c>
+      <c r="AI60" s="131">
+        <v>45.72</v>
+      </c>
+      <c r="AK60" s="117">
+        <f>(AK59-AK55)/AK55</f>
+        <v>0.41437308868501521</v>
       </c>
     </row>
     <row r="61" spans="1:39">
       <c r="M61">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="AE61" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH61" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI61" s="133">
-        <f>(AH54*AI58)-(AH10*AI54)</f>
-        <v>548.64</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD61">
+        <v>36</v>
+      </c>
+      <c r="AE61" s="130">
+        <v>15.3</v>
+      </c>
+      <c r="AI61" s="117">
+        <f>(AI60-AI56)/AI56</f>
+        <v>1.3506426735218509</v>
+      </c>
+      <c r="AM61" s="133">
+        <f>(AL54*AM58)-(AL42*AM54)</f>
+        <v>568.48</v>
       </c>
     </row>
     <row r="62" spans="1:39">
       <c r="M62">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="AD62" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE62" s="131">
-        <v>38</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="R62" s="137">
+        <f>SUM(R10:R61)</f>
+        <v>0.11050777792850663</v>
+      </c>
+      <c r="S62" s="137"/>
+      <c r="AE62" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ62" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK62" s="133">
+        <f>(AJ55*AK59)-(AJ10*AK55)</f>
+        <v>832.5</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="M63">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="AE63" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH63" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI63" s="133">
+        <f>(AH56*AI60)-(AH10*AI56)</f>
+        <v>548.64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39">
+      <c r="M64">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE64" s="131">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="13:31">
+      <c r="M65">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE63" s="117">
+      <c r="AE65" s="117">
         <f>Sayfa2!M54</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
-      <c r="M64">
+    <row r="66" spans="13:31">
+      <c r="M66">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="65" spans="30:31">
-      <c r="AD65" s="133" t="s">
+    <row r="67" spans="13:31">
+      <c r="AD67" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="AE65" s="133">
+      <c r="AE67" s="133">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B369D685-68A1-4119-A5E5-1BDAADBAB3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BAA050-E917-46ED-8384-7D59FCBCF248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1989,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -2029,11 +2029,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>243375.90349500001</v>
+        <v>241854.58937500001</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2042,11 +2042,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>148.58113766483518</v>
+        <v>147.47231059451221</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2079,24 +2079,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I37)</f>
-        <v>841607.16924999992</v>
+        <v>840049.65512999997</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K38)</f>
-        <v>224533.19514999999</v>
+        <v>223011.88102999999</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.37111536411196228</v>
+        <v>0.36860088938943719</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-0.10378075269034126</v>
+        <v>-0.1102236436090033</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-6.9827740103176536E-2</v>
+        <v>-7.0514486056457243E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2251,7 +2251,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O38)</f>
-        <v>224533.19515000001</v>
+        <v>223011.88102999996</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2281,31 +2281,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>24.8</v>
+        <v>24.08</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>992</v>
+        <v>963.19999999999993</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-5.6999999999999993</v>
+        <v>-6.4200000000000017</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-227.99999999999997</v>
+        <v>-256.80000000000007</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M15" s="117">
         <f>K15/E15</f>
-        <v>-0.18688524590163932</v>
+        <v>-0.21049180327868858</v>
       </c>
       <c r="N15" s="117">
         <f>M15/L15*30</f>
-        <v>-0.19332956472583379</v>
+        <v>-0.2037017451084083</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2327,7 +2327,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2335,31 +2335,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>28.18</v>
+        <v>27.94</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>986.3</v>
+        <v>977.90000000000009</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-9.2100000000000009</v>
+        <v>-9.4499999999999993</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-322.35000000000002</v>
+        <v>-330.75</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M16" s="117">
         <f>K16/E16</f>
-        <v>-0.24632254613533031</v>
+        <v>-0.25274137469911739</v>
       </c>
       <c r="N16" s="117">
         <f>M16/L16*30</f>
-        <v>-0.25481642703654861</v>
+        <v>-0.2445884271281781</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2389,31 +2389,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>119.6</v>
+        <v>116</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1196</v>
+        <v>1160</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-15.400000000000006</v>
+        <v>-19</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-154.00000000000006</v>
+        <v>-190</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M17" s="117">
         <f>K17/E17</f>
-        <v>-0.11407407407407412</v>
+        <v>-0.14074074074074075</v>
       </c>
       <c r="N17" s="117">
         <f>M17/L17*30</f>
-        <v>-9.2492492492492528E-2</v>
+        <v>-0.10826210826210826</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="F19" s="62">
         <f>$B$2</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G19" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2448,31 +2448,31 @@
       </c>
       <c r="H19" s="64">
         <f>H20</f>
-        <v>648.15704900000003</v>
+        <v>649.96368099999995</v>
       </c>
       <c r="I19" s="51">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>116668.26882000001</v>
+        <v>116993.46257999999</v>
       </c>
       <c r="J19" s="46">
         <f>H19-D19</f>
-        <v>0.90106800000000931</v>
+        <v>2.7076999999999316</v>
       </c>
       <c r="K19" s="65">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>162.19224000000168</v>
+        <v>487.38599999998769</v>
       </c>
       <c r="L19" s="66">
         <f>F19-B19</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19" s="117">
         <f>K19/E19</f>
-        <v>1.3921354556011576E-3</v>
+        <v>4.1833526139327115E-3</v>
       </c>
       <c r="N19" s="117">
         <f>M19/L19*30</f>
-        <v>4.1764063668034729E-2</v>
+        <v>4.1833526139327115E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="F20" s="62">
         <f>$B$2</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G20" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2502,31 +2502,31 @@
       </c>
       <c r="H20" s="64">
         <f>Sayfa4!K5</f>
-        <v>648.15704900000003</v>
+        <v>649.96368099999995</v>
       </c>
       <c r="I20" s="51">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>19444.711470000002</v>
+        <v>19498.91043</v>
       </c>
       <c r="J20" s="46">
         <f>H20-D20</f>
-        <v>25.314101000000051</v>
+        <v>27.120732999999973</v>
       </c>
       <c r="K20" s="65">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>759.42303000000152</v>
+        <v>813.62198999999919</v>
       </c>
       <c r="L20" s="66">
         <f>F20-B20</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M20" s="117">
         <f>K20/E20</f>
-        <v>4.0642831521631118E-2</v>
+        <v>4.3543453589844565E-2</v>
       </c>
       <c r="N20" s="117">
         <f>M20/L20*30</f>
-        <v>4.204430847065288E-2</v>
+        <v>4.2138826054688293E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2556,31 +2556,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.99</v>
+        <v>24.04</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>59974.999999999993</v>
+        <v>60100</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>-0.72000000000000242</v>
+        <v>-0.67000000000000171</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>-1800.0000000000061</v>
+        <v>-1675.0000000000043</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M21" s="117">
         <f>K21/E21</f>
-        <v>-2.9138000809389011E-2</v>
+        <v>-2.7114528530959196E-2</v>
       </c>
       <c r="N21" s="117">
         <f>M21/L21*30</f>
-        <v>-3.0142759457988635E-2</v>
+        <v>-2.6239866320283092E-2</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2637,31 +2637,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.99</v>
+        <v>24.04</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>59974.999999999993</v>
+        <v>60100</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>-0.92000000000000171</v>
+        <v>-0.87000000000000099</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>-2300.0000000000041</v>
+        <v>-2175.0000000000023</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>-3.6932958651144182E-2</v>
+        <v>-3.4925732637495016E-2</v>
       </c>
       <c r="N23" s="117">
         <f>M23/L23*30</f>
-        <v>-3.6932958651144182E-2</v>
+        <v>-3.2742874347651579E-2</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2718,31 +2718,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.99</v>
+        <v>24.04</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>59974.999999999993</v>
+        <v>60100</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-1.1300000000000026</v>
+        <v>-1.0800000000000018</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-2825.0000000000064</v>
+        <v>-2700.0000000000045</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-4.498407643312112E-2</v>
+        <v>-4.2993630573248481E-2</v>
       </c>
       <c r="N25" s="117">
         <f>M25/L25*30</f>
-        <v>-4.0894614939201018E-2</v>
+        <v>-3.6851683348498698E-2</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2799,31 +2799,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.81522399999999995</v>
+        <v>0.80517899999999998</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>61141.799999999996</v>
+        <v>60388.424999999996</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.24921100000000007</v>
+        <v>-0.25925600000000004</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-18690.825000000004</v>
+        <v>-19444.200000000004</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.23412514620432442</v>
+        <v>-0.2435620775340909</v>
       </c>
       <c r="N27" s="117">
         <f>M27/L27*30</f>
-        <v>-7.5524240711072388E-2</v>
+        <v>-7.6914340273923451E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2846,7 +2846,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2854,35 +2854,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.81522399999999995</v>
+        <v>0.80517899999999998</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>40761.199999999997</v>
+        <v>40258.949999999997</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.18798099999999995</v>
+        <v>-0.19802599999999992</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-9399.0499999999975</v>
+        <v>-9901.2999999999956</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.18738044567162243</v>
+        <v>-0.19739335429947014</v>
       </c>
       <c r="N28" s="117">
         <f>M28/L28*30</f>
-        <v>-5.7952715156171883E-2</v>
+        <v>-5.9816167969536406E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-35189.999730000018</v>
+        <v>-35764.432010000026</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2921,50 +2921,50 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F37" si="0">$B$2</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
         <f>Sayfa4!G10</f>
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="I30" s="51">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
-        <v>116589.5</v>
+        <v>116227.50000000001</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ref="J30:J37" si="1">H30-D30</f>
-        <v>505.26</v>
+        <v>498.02000000000021</v>
       </c>
       <c r="K30" s="65">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>22736.7</v>
+        <v>22410.900000000009</v>
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L37" si="2">F30-B30</f>
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M37" si="3">K30/E30</f>
-        <v>0.27662288601884444</v>
+        <v>0.27265908580751486</v>
       </c>
       <c r="N30" s="117">
         <f t="shared" ref="N30:N37" si="4">M30/L30*30</f>
-        <v>3.7381471083627625E-2</v>
+        <v>3.6516841849220744E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>116589.5</v>
+        <v>116227.50000000001</v>
       </c>
       <c r="Q30" s="1">
         <v>2000</v>
       </c>
       <c r="R30" s="1">
         <f>P30/Q30</f>
-        <v>58.294750000000001</v>
+        <v>58.11375000000001</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2986,50 +2986,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
       </c>
       <c r="H31" s="64">
         <f>H30</f>
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>25649.69</v>
+        <v>25570.050000000003</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>1929.69</v>
+        <v>1922.4500000000003</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>21226.59</v>
+        <v>21146.950000000004</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
-        <v>4.7990300920169107</v>
+        <v>4.7810246207411096</v>
       </c>
       <c r="N31" s="117">
         <f t="shared" si="4"/>
-        <v>0.12027644340894514</v>
+        <v>0.11962530327125379</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25649.69</v>
+        <v>25570.050000000003</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>12.824845</v>
+        <v>12.785025000000001</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3051,50 +3051,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>116589.5</v>
+        <v>116227.50000000001</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1862.9299999999998</v>
+        <v>1855.69</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>93146.499999999985</v>
+        <v>92784.5</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>3.9733182613146774</v>
+        <v>3.9578765516358829</v>
       </c>
       <c r="N32" s="117">
         <f t="shared" si="4"/>
-        <v>8.7840492144023813E-2</v>
+        <v>8.7370343303220382E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>116589.5</v>
+        <v>116227.50000000001</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>58.294750000000001</v>
+        <v>58.11375000000001</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3116,7 +3116,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3124,36 +3124,36 @@
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>58294.75</v>
+        <v>58113.750000000007</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>1931.92</v>
+        <v>1924.6800000000003</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>48298</v>
+        <v>48117.000000000007</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>4.8313701953134771</v>
+        <v>4.8132643109010438</v>
       </c>
       <c r="N33" s="117">
         <f t="shared" si="4"/>
-        <v>0.10199937076664624</v>
+        <v>0.10147430030009227</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
         <f>SUM(R30:R32)</f>
-        <v>129.414345</v>
+        <v>129.01252500000004</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3183,31 +3183,31 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>55962.96</v>
+        <v>55789.200000000004</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>2057.98</v>
+        <v>2050.7400000000002</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>49391.520000000004</v>
+        <v>49217.760000000009</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>7.5160877981081775</v>
+        <v>7.4896461049632963</v>
       </c>
       <c r="N34" s="117">
         <f t="shared" si="4"/>
-        <v>0.13765728567963695</v>
+        <v>0.13700572143225542</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3238,40 +3238,40 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2094.1999999999998</v>
+        <v>2086.96</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>2094.1999999999998</v>
+        <v>2086.96</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>8.8143440380487377</v>
+        <v>8.7838713750578723</v>
       </c>
       <c r="N35" s="117">
         <f t="shared" si="4"/>
-        <v>0.16143487249173513</v>
+        <v>0.16068057393398547</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
         <f>SUM(P30:P34)</f>
-        <v>258828.69</v>
+        <v>258025.05000000005</v>
       </c>
       <c r="R35" s="1">
         <f>P35/2220.32</f>
-        <v>116.57269672839951</v>
+        <v>116.21074890105932</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3293,7 +3293,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3301,36 +3301,36 @@
       </c>
       <c r="H36" s="64">
         <f>Sayfa4!E5</f>
-        <v>34.006700000000002</v>
+        <v>34.157400000000003</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>10161.20196</v>
+        <v>10206.23112</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>15.285100000000003</v>
+        <v>15.435800000000004</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>4567.1878800000013</v>
+        <v>4612.2170400000014</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>0.8164419707717292</v>
+        <v>0.82449149645329489</v>
       </c>
       <c r="N36" s="117">
         <f t="shared" si="4"/>
-        <v>3.7280455286380326E-2</v>
+        <v>3.7533755528981555E-2</v>
       </c>
       <c r="O36" s="68"/>
       <c r="P36" s="1">
         <f>P35*Q36</f>
-        <v>25882.869000000002</v>
+        <v>25802.505000000005</v>
       </c>
       <c r="Q36" s="75">
         <v>0.1</v>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="F37" s="62">
         <f t="shared" si="0"/>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="G37" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3366,47 +3366,47 @@
       </c>
       <c r="H37" s="64">
         <f>Sayfa4!C5</f>
-        <v>31.4527</v>
+        <v>31.576599999999999</v>
       </c>
       <c r="I37" s="51">
         <f>Sayfa2!$H37*Sayfa2!$G37</f>
-        <v>34912.497000000003</v>
+        <v>35050.025999999998</v>
       </c>
       <c r="J37" s="46">
         <f t="shared" si="1"/>
-        <v>16.4527</v>
+        <v>16.576599999999999</v>
       </c>
       <c r="K37" s="65">
         <f>Sayfa2!$J37*Sayfa2!$C37</f>
-        <v>18262.496999999999</v>
+        <v>18400.025999999998</v>
       </c>
       <c r="L37" s="66">
         <f t="shared" si="2"/>
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="M37" s="67">
         <f t="shared" si="3"/>
-        <v>1.0968466666666665</v>
+        <v>1.1051066666666665</v>
       </c>
       <c r="N37" s="117">
         <f t="shared" si="4"/>
-        <v>4.9333433283358319E-2</v>
+        <v>4.9556352765321367E-2</v>
       </c>
       <c r="O37" s="70">
         <f>SUM(K30:K37)</f>
-        <v>259723.19488000002</v>
+        <v>258776.31303999998</v>
       </c>
       <c r="P37" s="6">
         <f>SUM(P35:P36)</f>
-        <v>284711.55900000001</v>
+        <v>283827.55500000005</v>
       </c>
       <c r="R37" s="1">
         <f>P37/2000</f>
-        <v>142.35577950000001</v>
+        <v>141.91377750000004</v>
       </c>
       <c r="T37" s="1">
         <f>P35/T36</f>
-        <v>112.53421304347826</v>
+        <v>112.1848043478261</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3427,7 +3427,7 @@
       <c r="O38" s="32"/>
       <c r="R38" s="67">
         <f>1-(R37/R35)</f>
-        <v>-0.22117600000000004</v>
+        <v>-0.22117600000000026</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -3448,7 +3448,7 @@
       <c r="N40" s="117"/>
       <c r="R40" s="1">
         <f>R37*2220.32</f>
-        <v>316075.38433944003</v>
+        <v>315093.99845880008</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -5613,7 +5613,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM67"/>
+  <dimension ref="A4:AM69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
@@ -5633,7 +5633,7 @@
     <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" style="114" customWidth="1"/>
@@ -5670,51 +5670,51 @@
     <row r="5" spans="1:39">
       <c r="A5" s="118">
         <f>A10</f>
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="C5">
         <f>C10</f>
-        <v>31.4527</v>
+        <v>31.576599999999999</v>
       </c>
       <c r="E5">
         <f>E10</f>
-        <v>34.006700000000002</v>
+        <v>34.157400000000003</v>
       </c>
       <c r="G5">
         <f>G10</f>
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="I5">
         <f>I10</f>
-        <v>23.99</v>
+        <v>24.04</v>
       </c>
       <c r="K5">
         <f>K10</f>
-        <v>648.15704900000003</v>
+        <v>649.96368099999995</v>
       </c>
       <c r="M5">
         <f>M10</f>
-        <v>0.81522399999999995</v>
+        <v>0.80517899999999998</v>
       </c>
       <c r="O5" s="116">
         <f>Sayfa2!D3</f>
-        <v>148.58113766483518</v>
+        <v>147.47231059451221</v>
       </c>
       <c r="P5" s="119">
         <f>Sayfa2!K2</f>
-        <v>243375.90349500001</v>
+        <v>241854.58937500001</v>
       </c>
       <c r="Y5" s="116">
         <f>Y10</f>
-        <v>28.18</v>
+        <v>27.94</v>
       </c>
       <c r="AA5" s="116">
         <f>AA10</f>
-        <v>24.8</v>
+        <v>24.08</v>
       </c>
       <c r="AC5" s="116">
         <f>AC10</f>
-        <v>119.6</v>
+        <v>116</v>
       </c>
       <c r="AE5">
         <f>AE10</f>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM42</f>
+        <f>AM44</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -5822,1579 +5822,1609 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="118">
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="B10">
-        <f>B54</f>
+        <f>B56</f>
         <v>1110</v>
       </c>
       <c r="C10">
-        <v>31.4527</v>
+        <v>31.576599999999999</v>
       </c>
       <c r="D10">
-        <f>D54</f>
+        <f>D56</f>
         <v>321.99</v>
       </c>
       <c r="E10">
-        <v>34.006700000000002</v>
+        <v>34.157400000000003</v>
       </c>
       <c r="F10" s="113">
         <v>156</v>
       </c>
       <c r="G10">
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="H10" s="200">
         <v>7500</v>
       </c>
       <c r="I10" s="200">
-        <v>23.99</v>
+        <v>24.04</v>
       </c>
       <c r="J10">
         <v>210</v>
       </c>
-      <c r="K10">
-        <v>648.15704900000003</v>
+      <c r="K10" s="138">
+        <v>649.96368099999995</v>
       </c>
       <c r="L10">
-        <f>L54</f>
+        <f>L56</f>
         <v>125000</v>
       </c>
       <c r="M10">
-        <v>0.81522399999999995</v>
+        <v>0.80517899999999998</v>
       </c>
       <c r="N10" s="114">
-        <f>(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>827562.53462299996</v>
+        <f t="shared" ref="N10:N17" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
+        <v>826117.91523599997</v>
       </c>
       <c r="O10">
-        <v>148.58000000000001</v>
+        <v>147.47</v>
       </c>
       <c r="P10">
-        <v>243375.9</v>
-      </c>
-      <c r="Q10" s="116">
-        <v>10514.86</v>
-      </c>
-      <c r="R10" s="128">
-        <f>(1-(Q11/Q10))</f>
-        <v>-1.5466682390445463E-2</v>
+        <v>241854.59</v>
+      </c>
+      <c r="Q10" s="116"/>
+      <c r="R10" s="128" t="e">
+        <f>(1-(Q13/Q10))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="S10" s="117">
-        <f t="shared" ref="S10:S17" si="0">(N10/$N$48)-1</f>
-        <v>0.56012922473568239</v>
+        <f>(N10/$N$50)-1</f>
+        <v>0.55740581371840481</v>
       </c>
       <c r="T10" s="115">
-        <f t="shared" ref="T10:T17" si="1">(A10-$A$48)</f>
-        <v>79</v>
+        <f>(A10-$A$50)</f>
+        <v>81</v>
       </c>
       <c r="U10" s="117">
-        <f>((N10/$N$48)-1)/T10*30</f>
-        <v>0.21270730053253761</v>
+        <f>((N10/$N$50)-1)/T10*30</f>
+        <v>0.20644659767348328</v>
       </c>
       <c r="V10" s="117"/>
       <c r="W10" s="117"/>
       <c r="X10" s="135"/>
       <c r="Y10" s="135">
-        <v>28.18</v>
+        <v>27.94</v>
       </c>
       <c r="Z10" s="135"/>
       <c r="AA10" s="135">
-        <v>24.8</v>
+        <v>24.08</v>
       </c>
       <c r="AB10">
         <v>10</v>
       </c>
       <c r="AC10" s="116">
-        <v>119.6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="118">
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="B11">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C11">
-        <v>31.4527</v>
+        <v>31.554500000000001</v>
       </c>
       <c r="D11">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E11">
-        <v>34.006700000000002</v>
+        <v>34.104100000000003</v>
       </c>
       <c r="F11" s="113">
         <v>156</v>
       </c>
       <c r="G11">
-        <v>2331.79</v>
+        <v>2317.36</v>
       </c>
       <c r="H11" s="200">
         <v>7500</v>
       </c>
       <c r="I11" s="200">
-        <v>23.99</v>
+        <v>24</v>
       </c>
       <c r="J11">
         <v>210</v>
       </c>
-      <c r="K11">
-        <v>647.25598100000002</v>
+      <c r="K11" s="138">
+        <v>649.05997200000002</v>
       </c>
       <c r="L11">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M11">
-        <v>0.86140000000000005</v>
+        <v>0.78746400000000005</v>
       </c>
       <c r="N11" s="114">
-        <f>(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
-        <v>833145.31034299999</v>
+        <f t="shared" ref="N11" si="1">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
+        <v>822250.4282790001</v>
       </c>
       <c r="O11">
-        <v>153.71</v>
+        <v>145.25</v>
       </c>
       <c r="P11">
-        <v>251476.74</v>
-      </c>
-      <c r="Q11" s="116">
-        <v>10677.49</v>
-      </c>
-      <c r="R11" s="128">
-        <f t="shared" ref="R11:R25" si="2">(1-(Q12/Q11))</f>
-        <v>1.9227365232841187E-3</v>
+        <v>238057.84</v>
+      </c>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="128" t="e">
+        <f>(1-(Q14/Q11))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="S11" s="117">
-        <f t="shared" ref="S11" si="3">(N11/$N$48)-1</f>
-        <v>0.57065392974771467</v>
+        <f>(N11/$N$50)-1</f>
+        <v>0.55011478835722394</v>
       </c>
       <c r="T11" s="115">
-        <f t="shared" ref="T11" si="4">(A11-$A$48)</f>
-        <v>78</v>
+        <f>(A11-$A$50)</f>
+        <v>80</v>
       </c>
       <c r="U11" s="117">
-        <f>((N11/$N$48)-1)/T11*30</f>
-        <v>0.21948228067219797</v>
+        <f>((N11/$N$50)-1)/T11*30</f>
+        <v>0.20629304563395898</v>
       </c>
       <c r="V11" s="117"/>
       <c r="W11" s="117"/>
       <c r="X11" s="135"/>
       <c r="Y11" s="135">
-        <v>28.18</v>
+        <v>28.24</v>
       </c>
       <c r="Z11" s="135"/>
       <c r="AA11" s="135">
-        <v>24.8</v>
+        <v>24.78</v>
       </c>
       <c r="AB11">
         <v>10</v>
       </c>
       <c r="AC11" s="116">
-        <v>119.6</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="118">
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="B12">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.436</v>
+        <v>31.4527</v>
       </c>
       <c r="D12">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>34.100200000000001</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F12" s="113">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="H12" s="200">
         <v>7500</v>
       </c>
       <c r="I12" s="200">
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="J12">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K12">
-        <v>646.30405299999995</v>
+        <v>648.15704900000003</v>
       </c>
       <c r="L12">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="N12" s="114">
-        <f>(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
-        <v>719037.96498799999</v>
+        <f t="shared" ref="N12" si="2">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
+        <v>827562.53462299996</v>
       </c>
       <c r="O12">
-        <v>153.71</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="P12">
-        <v>251476.74</v>
+        <v>243375.9</v>
       </c>
       <c r="Q12" s="116">
-        <v>10656.96</v>
+        <v>10514.86</v>
       </c>
       <c r="R12" s="128">
-        <f t="shared" si="2"/>
-        <v>-1.8476188331382204E-3</v>
+        <f>(1-(Q14/Q12))</f>
+        <v>-1.3514207512035137E-2</v>
       </c>
       <c r="S12" s="117">
-        <f t="shared" ref="S12" si="5">(N12/$N$48)-1</f>
-        <v>0.35553761309807119</v>
+        <f>(N12/$N$50)-1</f>
+        <v>0.56012922473568239</v>
       </c>
       <c r="T12" s="115">
-        <f t="shared" ref="T12" si="6">(A12-$A$48)</f>
-        <v>77</v>
+        <f>(A12-$A$50)</f>
+        <v>79</v>
       </c>
       <c r="U12" s="117">
-        <f>((N12/$N$48)-1)/T12*30</f>
-        <v>0.13852114796028747</v>
+        <f>((N12/$N$50)-1)/T12*30</f>
+        <v>0.21270730053253761</v>
       </c>
       <c r="V12" s="117"/>
       <c r="W12" s="117"/>
       <c r="X12" s="135"/>
       <c r="Y12" s="135">
-        <v>32.36</v>
+        <v>28.18</v>
       </c>
       <c r="Z12" s="135"/>
       <c r="AA12" s="135">
-        <v>23.08</v>
+        <v>24.8</v>
       </c>
       <c r="AB12">
         <v>10</v>
       </c>
       <c r="AC12" s="116">
-        <v>124</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="118">
-        <v>45435</v>
+        <v>45440</v>
       </c>
       <c r="B13">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C13">
-        <v>31.4588</v>
+        <v>31.4527</v>
       </c>
       <c r="D13">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E13">
-        <v>34.044699999999999</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F13" s="113">
         <v>156</v>
       </c>
       <c r="G13">
-        <v>2363.8000000000002</v>
+        <v>2331.79</v>
       </c>
       <c r="H13" s="200">
         <v>7500</v>
       </c>
       <c r="I13" s="200">
-        <v>24.45</v>
+        <v>23.99</v>
       </c>
       <c r="J13">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K13">
-        <v>642.69199700000001</v>
+        <v>647.25598100000002</v>
       </c>
       <c r="L13">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M13">
-        <v>0.87326400000000004</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N13" s="114">
-        <f>(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
-        <v>726447.88086300006</v>
+        <f t="shared" si="0"/>
+        <v>833145.31034299999</v>
       </c>
       <c r="O13">
-        <v>158.78</v>
+        <v>153.71</v>
       </c>
       <c r="P13">
-        <v>259129.45</v>
+        <v>251476.74</v>
       </c>
       <c r="Q13" s="116">
-        <v>10676.65</v>
+        <v>10677.49</v>
       </c>
       <c r="R13" s="128">
-        <f t="shared" si="2"/>
-        <v>-1.4329401076180304E-2</v>
+        <f t="shared" ref="R13:R27" si="3">(1-(Q14/Q13))</f>
+        <v>1.9227365232841187E-3</v>
       </c>
       <c r="S13" s="117">
-        <f t="shared" si="0"/>
-        <v>0.36950686113161924</v>
+        <f t="shared" ref="S13" si="4">(N13/$N$50)-1</f>
+        <v>0.57065392974771467</v>
       </c>
       <c r="T13" s="115">
-        <f t="shared" si="1"/>
-        <v>73</v>
+        <f t="shared" ref="T13" si="5">(A13-$A$50)</f>
+        <v>78</v>
       </c>
       <c r="U13" s="117">
-        <f>((N13/$N$48)-1)/T13*30</f>
-        <v>0.15185213471162434</v>
+        <f>((N13/$N$50)-1)/T13*30</f>
+        <v>0.21948228067219797</v>
       </c>
       <c r="V13" s="117"/>
       <c r="W13" s="117"/>
       <c r="X13" s="135"/>
       <c r="Y13" s="135">
-        <v>34.299999999999997</v>
+        <v>28.18</v>
       </c>
       <c r="Z13" s="135"/>
       <c r="AA13" s="135">
-        <v>27.92</v>
+        <v>24.8</v>
       </c>
       <c r="AB13">
         <v>10</v>
       </c>
       <c r="AC13" s="116">
-        <v>122</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="118">
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="B14">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C14">
-        <v>31.469899999999999</v>
+        <v>31.436</v>
       </c>
       <c r="D14">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E14">
-        <v>34.182699999999997</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="F14" s="113">
         <v>156</v>
       </c>
       <c r="G14">
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="H14" s="200">
         <v>7500</v>
       </c>
       <c r="I14" s="200">
-        <v>24.91</v>
+        <v>24.32</v>
       </c>
       <c r="J14">
         <v>30</v>
       </c>
       <c r="K14">
-        <v>641.00899600000002</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="L14">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M14">
-        <v>0.86580400000000002</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N14" s="114">
-        <f>(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
-        <v>737258.36645300011</v>
+        <f t="shared" si="0"/>
+        <v>719037.96498799999</v>
       </c>
       <c r="O14">
-        <v>165.69</v>
+        <v>153.71</v>
       </c>
       <c r="P14">
-        <v>269993.23</v>
+        <v>251476.74</v>
       </c>
       <c r="Q14" s="116">
-        <v>10829.64</v>
+        <v>10656.96</v>
       </c>
       <c r="R14" s="128">
-        <f t="shared" si="2"/>
-        <v>8.3169892997366768E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.8476188331382204E-3</v>
       </c>
       <c r="S14" s="117">
-        <f t="shared" si="0"/>
-        <v>0.38988689743936056</v>
+        <f t="shared" ref="S14" si="6">(N14/$N$50)-1</f>
+        <v>0.35553761309807119</v>
       </c>
       <c r="T14" s="115">
-        <f t="shared" si="1"/>
-        <v>71</v>
+        <f t="shared" ref="T14" si="7">(A14-$A$50)</f>
+        <v>77</v>
       </c>
       <c r="U14" s="117">
-        <f>((N14/$N$48)-1)/T14*30</f>
-        <v>0.16474094258001151</v>
+        <f>((N14/$N$50)-1)/T14*30</f>
+        <v>0.13852114796028747</v>
       </c>
       <c r="V14" s="117"/>
       <c r="W14" s="117"/>
       <c r="X14" s="135"/>
       <c r="Y14" s="135">
-        <v>34.799999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="Z14" s="135"/>
       <c r="AA14" s="135">
-        <v>28.52</v>
+        <v>23.08</v>
       </c>
       <c r="AB14">
         <v>10</v>
       </c>
       <c r="AC14" s="116">
-        <v>123.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="118">
-        <v>45426</v>
+        <v>45435</v>
       </c>
       <c r="B15">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.5244</v>
+        <v>31.4588</v>
       </c>
       <c r="D15">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>34.005400000000002</v>
+        <v>34.044699999999999</v>
       </c>
       <c r="F15" s="113">
         <v>156</v>
       </c>
       <c r="G15">
-        <v>2344.5700000000002</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="H15" s="200">
         <v>7500</v>
       </c>
       <c r="I15" s="200">
-        <v>24.41</v>
+        <v>24.45</v>
       </c>
       <c r="J15">
         <v>30</v>
       </c>
       <c r="K15">
-        <v>634.98375399999998</v>
+        <v>642.69199700000001</v>
       </c>
       <c r="L15">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M15">
-        <v>0.84950000000000003</v>
+        <v>0.87326400000000004</v>
       </c>
       <c r="N15" s="114">
-        <f>(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
-        <v>720006.41536600015</v>
+        <f t="shared" si="0"/>
+        <v>726447.88086300006</v>
       </c>
       <c r="O15">
-        <v>158.43</v>
+        <v>158.78</v>
       </c>
       <c r="P15">
-        <v>256973.54</v>
+        <v>259129.45</v>
       </c>
       <c r="Q15" s="116">
-        <v>10739.57</v>
+        <v>10676.65</v>
       </c>
       <c r="R15" s="128">
-        <f t="shared" si="2"/>
-        <v>5.0241303888330702E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.4329401076180304E-2</v>
       </c>
       <c r="S15" s="117">
-        <f t="shared" si="0"/>
-        <v>0.35736334550403681</v>
+        <f>(N15/$N$50)-1</f>
+        <v>0.36950686113161924</v>
       </c>
       <c r="T15" s="115">
-        <f t="shared" si="1"/>
-        <v>64</v>
+        <f>(A15-$A$50)</f>
+        <v>73</v>
       </c>
       <c r="U15" s="117">
-        <f>((N15/$N$48)-1)/T15*30</f>
-        <v>0.16751406820501724</v>
+        <f>((N15/$N$50)-1)/T15*30</f>
+        <v>0.15185213471162434</v>
       </c>
       <c r="V15" s="117"/>
       <c r="W15" s="117"/>
       <c r="X15" s="135"/>
       <c r="Y15" s="135">
-        <v>35.86</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z15" s="135"/>
       <c r="AA15" s="135">
-        <v>30.2</v>
+        <v>27.92</v>
       </c>
       <c r="AB15">
         <v>10</v>
       </c>
       <c r="AC15" s="116">
-        <v>120.1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="118">
-        <v>45425</v>
+        <v>45433</v>
       </c>
       <c r="B16">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C16">
-        <v>31.371600000000001</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="D16">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E16">
-        <v>33.871899999999997</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="F16" s="113">
         <v>156</v>
       </c>
       <c r="G16">
-        <v>2341.31</v>
+        <v>2416.92</v>
       </c>
       <c r="H16" s="200">
         <v>7500</v>
       </c>
       <c r="I16" s="200">
-        <v>24.47</v>
+        <v>24.91</v>
       </c>
       <c r="J16">
         <v>30</v>
       </c>
       <c r="K16">
-        <v>634.10149999999999</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="L16">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M16">
-        <v>0.88511899999999999</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="N16" s="114">
-        <f t="shared" ref="N16:N24" si="7">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
-        <v>724161.16908100003</v>
+        <f t="shared" si="0"/>
+        <v>737258.36645300011</v>
       </c>
       <c r="O16">
-        <v>158.43</v>
+        <v>165.69</v>
       </c>
       <c r="P16">
-        <v>256973.54</v>
+        <v>269993.23</v>
       </c>
       <c r="Q16" s="116">
-        <v>10200</v>
+        <v>10829.64</v>
       </c>
       <c r="R16" s="128">
-        <f t="shared" si="2"/>
-        <v>-6.7235294117646838E-3</v>
+        <f t="shared" si="3"/>
+        <v>8.3169892997366768E-3</v>
       </c>
       <c r="S16" s="117">
-        <f t="shared" si="0"/>
-        <v>0.36519592905049159</v>
+        <f>(N16/$N$50)-1</f>
+        <v>0.38988689743936056</v>
       </c>
       <c r="T16" s="115">
-        <f t="shared" si="1"/>
-        <v>63</v>
+        <f>(A16-$A$50)</f>
+        <v>71</v>
       </c>
       <c r="U16" s="117">
-        <f>((N16/$N$48)-1)/T16*30</f>
-        <v>0.17390282335737695</v>
+        <f>((N16/$N$50)-1)/T16*30</f>
+        <v>0.16474094258001151</v>
       </c>
       <c r="V16" s="117"/>
       <c r="W16" s="117"/>
       <c r="X16" s="135"/>
       <c r="Y16" s="135">
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Z16" s="135"/>
       <c r="AA16" s="135">
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AB16">
         <v>10</v>
       </c>
       <c r="AC16" s="116">
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="118">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B17">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C17">
-        <v>31.712</v>
+        <v>31.5244</v>
       </c>
       <c r="D17">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E17">
-        <v>34.055500000000002</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F17" s="113">
         <v>156</v>
       </c>
       <c r="G17">
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H17" s="200">
         <v>7500</v>
       </c>
       <c r="I17" s="200">
-        <v>24.39</v>
+        <v>24.41</v>
       </c>
       <c r="J17">
         <v>30</v>
       </c>
       <c r="K17">
-        <v>622.84294799999998</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L17">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M17">
-        <v>0.90642500000000004</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N17" s="114">
-        <f t="shared" si="7"/>
-        <v>725052.22388499998</v>
+        <f t="shared" si="0"/>
+        <v>720006.41536600015</v>
       </c>
       <c r="O17">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P17">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q17" s="116">
-        <v>10268.58</v>
+        <v>10739.57</v>
       </c>
       <c r="R17" s="128">
-        <f t="shared" si="2"/>
-        <v>2.1701150499874422E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.0241303888330702E-2</v>
       </c>
       <c r="S17" s="117">
-        <f t="shared" si="0"/>
-        <v>0.36687575454089361</v>
+        <f>(N17/$N$50)-1</f>
+        <v>0.35736334550403681</v>
       </c>
       <c r="T17" s="115">
-        <f t="shared" si="1"/>
-        <v>59</v>
+        <f>(A17-$A$50)</f>
+        <v>64</v>
       </c>
       <c r="U17" s="117">
-        <f>((N17/$N$48)-1)/T17*30</f>
-        <v>0.18654699383435269</v>
+        <f>((N17/$N$50)-1)/T17*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V17" s="117"/>
       <c r="W17" s="117"/>
       <c r="X17" s="135"/>
       <c r="Y17" s="135">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z17" s="135"/>
       <c r="AA17" s="135">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB17">
         <v>10</v>
       </c>
       <c r="AC17" s="116">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="118">
-        <v>45412</v>
+        <v>45425</v>
       </c>
       <c r="B18">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>31.771699999999999</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D18">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>34.014699999999998</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F18" s="113">
         <v>156</v>
       </c>
       <c r="G18">
-        <v>2341.2800000000002</v>
+        <v>2341.31</v>
       </c>
       <c r="H18" s="200">
         <v>7500</v>
       </c>
       <c r="I18" s="200">
-        <v>24.71</v>
+        <v>24.47</v>
       </c>
       <c r="J18">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L18">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M18">
-        <v>0.90242599999999995</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N18" s="114">
-        <f t="shared" si="7"/>
-        <v>769379.83326099999</v>
+        <f t="shared" ref="N18:N26" si="8">(F18*G18)+(B18*C18)+(D18*E18)+(L18*M18)+(H18*I18)+(J18*K18)</f>
+        <v>724161.16908100003</v>
       </c>
       <c r="O18">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P18">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q18" s="116">
-        <v>10045.74</v>
+        <v>10200</v>
       </c>
       <c r="R18" s="128">
-        <f t="shared" si="2"/>
-        <v>1.2952754102733999E-2</v>
+        <f t="shared" si="3"/>
+        <v>-6.7235294117646838E-3</v>
       </c>
       <c r="S18" s="117">
-        <f t="shared" ref="S18" si="8">(N18/$N$48)-1</f>
-        <v>0.45044261016428133</v>
+        <f>(N18/$N$50)-1</f>
+        <v>0.36519592905049159</v>
       </c>
       <c r="T18" s="115">
-        <f t="shared" ref="T18" si="9">(A18-$A$48)</f>
-        <v>50</v>
+        <f>(A18-$A$50)</f>
+        <v>63</v>
       </c>
       <c r="U18" s="117">
-        <f>((N18/$N$48)-1)/T18*30</f>
-        <v>0.27026556609856883</v>
+        <f>((N18/$N$50)-1)/T18*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V18" s="117"/>
       <c r="W18" s="117"/>
       <c r="X18" s="135"/>
       <c r="Y18" s="135">
-        <v>37.39</v>
+        <v>35.86</v>
       </c>
       <c r="Z18" s="135"/>
       <c r="AA18" s="135">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB18">
         <v>10</v>
       </c>
       <c r="AC18" s="116">
-        <v>125.1</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="118">
-        <v>45411</v>
+        <v>45421</v>
       </c>
       <c r="B19">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>31.948</v>
+        <v>31.712</v>
       </c>
       <c r="D19">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>34.280099999999997</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F19" s="113">
         <v>156</v>
       </c>
       <c r="G19">
-        <v>2384.1799999999998</v>
+        <v>2333.16</v>
       </c>
       <c r="H19" s="200">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I19" s="200">
-        <v>24.91</v>
+        <v>24.39</v>
+      </c>
+      <c r="J19">
+        <v>30</v>
+      </c>
+      <c r="K19">
+        <v>622.84294799999998</v>
       </c>
       <c r="L19">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M19">
-        <v>0.89855499999999999</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N19" s="114">
-        <f t="shared" si="7"/>
-        <v>655301.58439900004</v>
+        <f t="shared" si="8"/>
+        <v>725052.22388499998</v>
       </c>
       <c r="O19">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P19">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q19" s="116">
-        <v>9915.6200000000008</v>
+        <v>10268.58</v>
       </c>
       <c r="R19" s="128">
-        <f t="shared" si="2"/>
-        <v>2.5330740790792672E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.1701150499874422E-2</v>
       </c>
       <c r="S19" s="117">
-        <f t="shared" ref="S19:S48" si="10">(N19/$N$48)-1</f>
-        <v>0.23538114651627517</v>
+        <f>(N19/$N$50)-1</f>
+        <v>0.36687575454089361</v>
       </c>
       <c r="T19" s="115">
-        <f t="shared" ref="T19:T48" si="11">(A19-$A$48)</f>
-        <v>49</v>
+        <f>(A19-$A$50)</f>
+        <v>59</v>
       </c>
       <c r="U19" s="117">
-        <f>((N19/$N$48)-1)/T19*30</f>
-        <v>0.14411090603037255</v>
+        <f>((N19/$N$50)-1)/T19*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V19" s="117"/>
       <c r="W19" s="117"/>
-      <c r="X19" s="113">
-        <v>35</v>
-      </c>
-      <c r="Y19" s="129">
-        <f>Y22</f>
-        <v>37.39</v>
-      </c>
-      <c r="Z19" s="113">
-        <v>40</v>
-      </c>
-      <c r="AA19" s="129">
-        <f>AA22</f>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135">
+        <v>37.4</v>
+      </c>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135">
         <v>30.5</v>
       </c>
-      <c r="AB19"/>
+      <c r="AB19">
+        <v>10</v>
+      </c>
+      <c r="AC19" s="116">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="118">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="B20">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D20">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F20" s="113">
         <v>156</v>
       </c>
       <c r="G20">
-        <v>2384.1799999999998</v>
+        <v>2341.2800000000002</v>
       </c>
       <c r="H20" s="200">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="I20" s="200">
-        <v>25.11</v>
+        <v>24.71</v>
+      </c>
+      <c r="J20">
+        <v>96</v>
+      </c>
+      <c r="K20">
+        <v>622.84294799999998</v>
       </c>
       <c r="L20">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M20">
-        <v>0.89607400000000004</v>
+        <v>0.90242599999999995</v>
       </c>
       <c r="N20" s="114">
-        <f t="shared" si="7"/>
-        <v>593216.45939900004</v>
+        <f t="shared" si="8"/>
+        <v>769379.83326099999</v>
       </c>
       <c r="O20">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P20">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q20" s="116">
-        <v>9664.4500000000007</v>
+        <v>10045.74</v>
       </c>
       <c r="R20" s="128">
-        <f t="shared" si="2"/>
-        <v>-5.7478697701369708E-3</v>
+        <f t="shared" si="3"/>
+        <v>1.2952754102733999E-2</v>
       </c>
       <c r="S20" s="117">
-        <f t="shared" si="10"/>
-        <v>0.11833764360082077</v>
+        <f t="shared" ref="S20" si="9">(N20/$N$50)-1</f>
+        <v>0.45044261016428133</v>
       </c>
       <c r="T20" s="115">
-        <f t="shared" si="11"/>
-        <v>46</v>
+        <f t="shared" ref="T20" si="10">(A20-$A$50)</f>
+        <v>50</v>
       </c>
       <c r="U20" s="117">
-        <f>((N20/$N$48)-1)/T20*30</f>
-        <v>7.7176724087491808E-2</v>
+        <f>((N20/$N$50)-1)/T20*30</f>
+        <v>0.27026556609856883</v>
       </c>
       <c r="V20" s="117"/>
       <c r="W20" s="117"/>
-      <c r="X20" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y20" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z20" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA20" s="130" t="s">
-        <v>69</v>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135">
+        <v>37.39</v>
+      </c>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135">
+        <v>30.5</v>
       </c>
       <c r="AB20">
         <v>10</v>
       </c>
       <c r="AC20" s="116">
-        <v>148.5</v>
+        <v>125.1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="118">
-        <v>45407</v>
+        <v>45411</v>
       </c>
       <c r="B21">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>32.0291</v>
+        <v>31.948</v>
       </c>
       <c r="D21">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.322299999999998</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F21" s="113">
         <v>156</v>
       </c>
       <c r="G21">
-        <v>2368.4699999999998</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H21" s="200">
+        <v>5000</v>
+      </c>
+      <c r="I21" s="200">
+        <v>24.91</v>
       </c>
       <c r="L21">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M21">
-        <v>0.90609700000000004</v>
+        <v>0.89855499999999999</v>
       </c>
       <c r="N21" s="114">
-        <f t="shared" si="7"/>
-        <v>529347.18337699992</v>
+        <f t="shared" si="8"/>
+        <v>655301.58439900004</v>
       </c>
       <c r="O21">
-        <v>167.13</v>
+        <v>167.61</v>
       </c>
       <c r="P21">
-        <v>268083.81</v>
+        <v>269021.68</v>
       </c>
       <c r="Q21" s="116">
-        <v>9720</v>
+        <v>9915.6200000000008</v>
       </c>
       <c r="R21" s="128">
-        <f t="shared" si="2"/>
-        <v>-2.1502057613176362E-4</v>
+        <f t="shared" si="3"/>
+        <v>2.5330740790792672E-2</v>
       </c>
       <c r="S21" s="117">
-        <f t="shared" si="10"/>
-        <v>-2.0693587896702947E-3</v>
+        <f t="shared" ref="S21:S50" si="11">(N21/$N$50)-1</f>
+        <v>0.23538114651627517</v>
       </c>
       <c r="T21" s="115">
-        <f t="shared" si="11"/>
-        <v>45</v>
+        <f t="shared" ref="T21:T50" si="12">(A21-$A$50)</f>
+        <v>49</v>
       </c>
       <c r="U21" s="117">
-        <f>((N21/$N$48)-1)/T21*30</f>
-        <v>-1.379572526446863E-3</v>
+        <f>((N21/$N$50)-1)/T21*30</f>
+        <v>0.14411090603037255</v>
       </c>
       <c r="V21" s="117"/>
       <c r="W21" s="117"/>
-      <c r="X21" s="113"/>
-      <c r="Y21" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="131" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB21">
-        <v>10</v>
-      </c>
-      <c r="AC21" s="116">
-        <v>135</v>
-      </c>
+      <c r="X21" s="113">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="129">
+        <f>Y24</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z21" s="113">
+        <v>40</v>
+      </c>
+      <c r="AA21" s="129">
+        <f>AA24</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB21"/>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="118">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="B22">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.928699999999999</v>
+        <v>31.948</v>
       </c>
       <c r="D22">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>33.972000000000001</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F22" s="113">
         <v>156</v>
       </c>
       <c r="G22">
-        <v>2380.13</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H22" s="200">
+        <v>2500</v>
+      </c>
+      <c r="I22" s="200">
+        <v>25.11</v>
       </c>
       <c r="L22">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M22">
-        <v>0.88805999999999996</v>
+        <v>0.89607400000000004</v>
       </c>
       <c r="N22" s="114">
-        <f t="shared" si="7"/>
-        <v>528687.28128</v>
+        <f t="shared" si="8"/>
+        <v>593216.45939900004</v>
       </c>
       <c r="O22">
-        <v>166.96</v>
+        <v>167.61</v>
       </c>
       <c r="P22">
-        <v>267307.03000000003</v>
+        <v>269021.68</v>
       </c>
       <c r="Q22" s="116">
-        <v>9722.09</v>
+        <v>9664.4500000000007</v>
       </c>
       <c r="R22" s="128">
-        <f t="shared" si="2"/>
-        <v>7.927307811386175E-3</v>
+        <f t="shared" si="3"/>
+        <v>-5.7478697701369708E-3</v>
       </c>
       <c r="S22" s="117">
-        <f t="shared" si="10"/>
-        <v>-3.3134128688740994E-3</v>
+        <f t="shared" si="11"/>
+        <v>0.11833764360082077</v>
       </c>
       <c r="T22" s="115">
-        <f t="shared" si="11"/>
-        <v>44</v>
+        <f t="shared" si="12"/>
+        <v>46</v>
       </c>
       <c r="U22" s="117">
-        <f>((N22/$N$48)-1)/T22*30</f>
-        <v>-2.259145137868704E-3</v>
+        <f>((N22/$N$50)-1)/T22*30</f>
+        <v>7.7176724087491808E-2</v>
       </c>
       <c r="V22" s="117"/>
       <c r="W22" s="117"/>
       <c r="X22" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y22" s="132">
-        <v>37.39</v>
+        <v>68</v>
+      </c>
+      <c r="Y22" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="Z22" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA22" s="132">
-        <v>30.5</v>
+        <v>68</v>
+      </c>
+      <c r="AA22" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="AB22">
         <v>10</v>
       </c>
       <c r="AC22" s="116">
-        <v>135</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="118">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B23">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.928699999999999</v>
+        <v>32.0291</v>
       </c>
       <c r="D23">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>33.972000000000001</v>
+        <v>34.322299999999998</v>
       </c>
       <c r="F23" s="113">
         <v>156</v>
       </c>
       <c r="G23">
-        <v>2380.13</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="L23">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.88805999999999996</v>
+        <v>0.90609700000000004</v>
       </c>
       <c r="N23" s="114">
-        <f t="shared" si="7"/>
-        <v>528687.28128</v>
+        <f t="shared" si="8"/>
+        <v>529347.18337699992</v>
       </c>
       <c r="O23">
-        <v>166.96</v>
+        <v>167.13</v>
       </c>
       <c r="P23">
-        <v>267307.03000000003</v>
+        <v>268083.81</v>
       </c>
       <c r="Q23" s="116">
-        <v>9645.02</v>
+        <v>9720</v>
       </c>
       <c r="R23" s="128">
-        <f t="shared" si="2"/>
-        <v>-5.0222809283961833E-3</v>
+        <f t="shared" si="3"/>
+        <v>-2.1502057613176362E-4</v>
       </c>
       <c r="S23" s="117">
-        <f t="shared" si="10"/>
-        <v>-3.3134128688740994E-3</v>
+        <f t="shared" si="11"/>
+        <v>-2.0693587896702947E-3</v>
       </c>
       <c r="T23" s="115">
-        <f t="shared" si="11"/>
-        <v>42</v>
+        <f t="shared" si="12"/>
+        <v>45</v>
       </c>
       <c r="U23" s="117">
-        <f>((N23/$N$48)-1)/T23*30</f>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N23/$N$50)-1)/T23*30</f>
+        <v>-1.379572526446863E-3</v>
       </c>
       <c r="V23" s="117"/>
       <c r="W23" s="117"/>
       <c r="X23" s="113"/>
-      <c r="Y23" s="117" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
+      <c r="Y23" s="131" t="s">
+        <v>70</v>
       </c>
       <c r="Z23" s="113"/>
-      <c r="AA23" s="117" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB23" s="113">
+      <c r="AA23" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB23">
         <v>10</v>
       </c>
-      <c r="AC23" s="129">
+      <c r="AC23" s="116">
         <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="118">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B24">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.803999999999998</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D24">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>33.928400000000003</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F24" s="113">
         <v>156</v>
       </c>
       <c r="G24">
-        <v>2427.62</v>
+        <v>2380.13</v>
       </c>
       <c r="L24">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M24">
-        <v>0.87351800000000002</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N24" s="114">
-        <f t="shared" si="7"/>
-        <v>534125.51551599998</v>
+        <f t="shared" si="8"/>
+        <v>528687.28128</v>
       </c>
       <c r="O24">
-        <v>170.57</v>
+        <v>166.96</v>
       </c>
       <c r="P24">
-        <v>272736.27</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q24" s="116">
-        <v>9693.4599999999991</v>
+        <v>9722.09</v>
       </c>
       <c r="R24" s="128">
-        <f t="shared" si="2"/>
-        <v>1.4091975414350921E-3</v>
+        <f t="shared" si="3"/>
+        <v>7.927307811386175E-3</v>
       </c>
       <c r="S24" s="117">
-        <f t="shared" si="10"/>
-        <v>6.9388010818296486E-3</v>
+        <f t="shared" si="11"/>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T24" s="115">
-        <f t="shared" si="11"/>
-        <v>39</v>
+        <f t="shared" si="12"/>
+        <v>44</v>
       </c>
       <c r="U24" s="117">
-        <f>((N24/$N$48)-1)/T24*30</f>
-        <v>5.3375392937151144E-3</v>
+        <f>((N24/$N$50)-1)/T24*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V24" s="117"/>
       <c r="W24" s="117"/>
       <c r="X24" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y24" s="116">
-        <f>Y22*X19</f>
-        <v>1308.6500000000001</v>
+        <v>71</v>
+      </c>
+      <c r="Y24" s="132">
+        <v>37.39</v>
       </c>
       <c r="Z24" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA24" s="116">
-        <f>AA22*Z19</f>
-        <v>1220</v>
-      </c>
-      <c r="AB24" s="113" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC24" s="130" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="AA24" s="132">
+        <v>30.5</v>
+      </c>
+      <c r="AB24">
+        <v>10</v>
+      </c>
+      <c r="AC24" s="116">
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="118">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="B25">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>31.863399999999999</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D25">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>33.963099999999997</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F25" s="113">
         <v>156</v>
       </c>
       <c r="G25">
-        <v>2387.5100000000002</v>
+        <v>2380.13</v>
       </c>
       <c r="L25">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M25">
-        <v>0.89791399999999999</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N25" s="114">
-        <f t="shared" ref="N25:N60" si="12">(F25*G25)+(B25*C25)+(D25*E25)+(L25*M25)+(H25*I25)</f>
-        <v>530994.96256900008</v>
+        <f t="shared" si="8"/>
+        <v>528687.28128</v>
       </c>
       <c r="O25">
-        <v>169.14</v>
+        <v>166.96</v>
       </c>
       <c r="P25">
-        <v>269604.92</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q25" s="116">
-        <v>9679.7999999999993</v>
+        <v>9645.02</v>
       </c>
       <c r="R25" s="128">
-        <f t="shared" si="2"/>
-        <v>-1.3880452075456073E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.0222809283961833E-3</v>
       </c>
       <c r="S25" s="117">
-        <f t="shared" si="10"/>
-        <v>1.0370511380362046E-3</v>
+        <f t="shared" si="11"/>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T25" s="115">
-        <f t="shared" si="11"/>
-        <v>35</v>
+        <f t="shared" si="12"/>
+        <v>42</v>
       </c>
       <c r="U25" s="117">
-        <f>((N25/$N$48)-1)/T25*30</f>
-        <v>8.8890097545960402E-4</v>
+        <f>((N25/$N$50)-1)/T25*30</f>
+        <v>-2.3667234777672141E-3</v>
       </c>
       <c r="V25" s="117"/>
       <c r="W25" s="117"/>
-      <c r="X25" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y25" s="133">
-        <f>(X19*Y5)-(X19*Y22)</f>
-        <v>-322.35000000000014</v>
-      </c>
-      <c r="Z25" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA25" s="133">
-        <f>(Z19*AA5)-(Z19*AA22)</f>
-        <v>-228</v>
-      </c>
-      <c r="AC25" s="131" t="s">
-        <v>70</v>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="117" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="117" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB25" s="113">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="129">
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="118">
-        <v>45391</v>
+        <v>45401</v>
       </c>
       <c r="B26">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.412299999999998</v>
+        <v>31.803999999999998</v>
       </c>
       <c r="D26">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>34.091799999999999</v>
+        <v>33.928400000000003</v>
       </c>
       <c r="F26" s="113">
         <v>156</v>
       </c>
       <c r="G26">
-        <v>2352.21</v>
+        <v>2427.62</v>
       </c>
       <c r="L26">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M26">
-        <v>0.89529800000000004</v>
+        <v>0.87351800000000002</v>
       </c>
       <c r="N26" s="114">
+        <f t="shared" si="8"/>
+        <v>534125.51551599998</v>
+      </c>
+      <c r="O26">
+        <v>170.57</v>
+      </c>
+      <c r="P26">
+        <v>272736.27</v>
+      </c>
+      <c r="Q26" s="116">
+        <v>9693.4599999999991</v>
+      </c>
+      <c r="R26" s="128">
+        <f t="shared" si="3"/>
+        <v>1.4091975414350921E-3</v>
+      </c>
+      <c r="S26" s="117">
+        <f t="shared" si="11"/>
+        <v>6.9388010818296486E-3</v>
+      </c>
+      <c r="T26" s="115">
         <f t="shared" si="12"/>
-        <v>524701.88168200001</v>
-      </c>
-      <c r="O26">
-        <v>165.81</v>
-      </c>
-      <c r="P26">
-        <v>263308.84999999998</v>
-      </c>
-      <c r="Q26" s="116">
-        <v>9814.16</v>
-      </c>
-      <c r="R26" s="128">
-        <f t="shared" ref="R22:R27" si="13">(1-(Q27/Q26))</f>
-        <v>5.8558246452063978E-3</v>
-      </c>
-      <c r="S26" s="117">
-        <f t="shared" si="10"/>
-        <v>-1.0826728328378388E-2</v>
-      </c>
-      <c r="T26" s="115">
-        <f t="shared" si="11"/>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="U26" s="117">
-        <f>((N26/$N$48)-1)/T26*30</f>
-        <v>-1.1200063787977641E-2</v>
+        <f>((N26/$N$50)-1)/T26*30</f>
+        <v>5.3375392937151144E-3</v>
       </c>
       <c r="V26" s="117"/>
       <c r="W26" s="117"/>
-      <c r="X26" s="117"/>
-      <c r="Y26" s="117"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
+      <c r="X26" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y26" s="116">
+        <f>Y24*X21</f>
+        <v>1308.6500000000001</v>
+      </c>
+      <c r="Z26" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA26" s="116">
+        <f>AA24*Z21</f>
+        <v>1220</v>
+      </c>
       <c r="AB26" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC26" s="132">
-        <v>135</v>
+        <v>68</v>
+      </c>
+      <c r="AC26" s="130" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="118">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="B27">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>31.5198</v>
+        <v>31.863399999999999</v>
       </c>
       <c r="D27">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>34.154899999999998</v>
+        <v>33.963099999999997</v>
       </c>
       <c r="F27" s="113">
         <v>156</v>
       </c>
       <c r="G27">
-        <v>2344.37</v>
+        <v>2387.5100000000002</v>
       </c>
       <c r="L27">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M27">
-        <v>0.818581</v>
+        <v>0.89791399999999999</v>
       </c>
       <c r="N27" s="114">
+        <f t="shared" ref="N27:N62" si="13">(F27*G27)+(B27*C27)+(D27*E27)+(L27*M27)+(H27*I27)</f>
+        <v>530994.96256900008</v>
+      </c>
+      <c r="O27">
+        <v>169.14</v>
+      </c>
+      <c r="P27">
+        <v>269604.92</v>
+      </c>
+      <c r="Q27" s="116">
+        <v>9679.7999999999993</v>
+      </c>
+      <c r="R27" s="128">
+        <f t="shared" si="3"/>
+        <v>-1.3880452075456073E-2</v>
+      </c>
+      <c r="S27" s="117">
+        <f t="shared" si="11"/>
+        <v>1.0370511380362046E-3</v>
+      </c>
+      <c r="T27" s="115">
         <f t="shared" si="12"/>
-        <v>514028.85925099999</v>
-      </c>
-      <c r="O27">
-        <v>159.19</v>
-      </c>
-      <c r="P27">
-        <v>252634.37</v>
-      </c>
-      <c r="Q27" s="116">
-        <v>9756.69</v>
-      </c>
-      <c r="R27" s="128">
-        <f t="shared" si="13"/>
-        <v>1.4129791968382821E-2</v>
-      </c>
-      <c r="S27" s="117">
-        <f t="shared" si="10"/>
-        <v>-3.0947617704367603E-2</v>
-      </c>
-      <c r="T27" s="115">
-        <f t="shared" si="11"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="U27" s="117">
-        <f>((N27/$N$48)-1)/T27*30</f>
-        <v>-3.3158161826108146E-2</v>
+        <f>((N27/$N$50)-1)/T27*30</f>
+        <v>8.8890097545960402E-4</v>
       </c>
       <c r="V27" s="117"/>
       <c r="W27" s="117"/>
-      <c r="X27" s="117"/>
-      <c r="Y27" s="117"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="117"/>
-      <c r="AC27" s="117">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
+      <c r="X27" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y27" s="133">
+        <f>(X21*Y5)-(X21*Y24)</f>
+        <v>-330.75</v>
+      </c>
+      <c r="Z27" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA27" s="133">
+        <f>(Z21*AA5)-(Z21*AA24)</f>
+        <v>-256.80000000000007</v>
+      </c>
+      <c r="AC27" s="131" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="118">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B28">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C28">
-        <v>31.407</v>
+        <v>31.412299999999998</v>
       </c>
       <c r="D28">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E28">
-        <v>34.038899999999998</v>
+        <v>34.091799999999999</v>
       </c>
       <c r="F28" s="113">
         <v>156</v>
       </c>
       <c r="G28">
-        <v>2289.27</v>
+        <v>2352.21</v>
       </c>
       <c r="L28">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M28">
-        <v>0.82424600000000003</v>
+        <v>0.89529800000000004</v>
       </c>
       <c r="N28" s="114">
+        <f t="shared" si="13"/>
+        <v>524701.88168200001</v>
+      </c>
+      <c r="O28">
+        <v>165.81</v>
+      </c>
+      <c r="P28">
+        <v>263308.84999999998</v>
+      </c>
+      <c r="Q28" s="116">
+        <v>9814.16</v>
+      </c>
+      <c r="R28" s="128">
+        <f t="shared" ref="R28:R29" si="14">(1-(Q29/Q28))</f>
+        <v>5.8558246452063978E-3</v>
+      </c>
+      <c r="S28" s="117">
+        <f t="shared" si="11"/>
+        <v>-1.0826728328378388E-2</v>
+      </c>
+      <c r="T28" s="115">
         <f t="shared" si="12"/>
-        <v>505978.825411</v>
-      </c>
-      <c r="O28">
-        <v>154.41</v>
-      </c>
-      <c r="P28">
-        <v>244587.02</v>
-      </c>
-      <c r="Q28" s="116">
-        <v>9618.83</v>
-      </c>
-      <c r="R28" s="128">
-        <f t="shared" ref="R28:R59" si="14">(1-(Q29/Q28))</f>
-        <v>5.0921993631241946E-2</v>
-      </c>
-      <c r="S28" s="117">
-        <f t="shared" si="10"/>
-        <v>-4.6123622572225242E-2</v>
-      </c>
-      <c r="T28" s="115">
-        <f t="shared" si="11"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="U28" s="117">
-        <f>((N28/$N$48)-1)/T28*30</f>
-        <v>-5.5348347086670288E-2</v>
+        <f>((N28/$N$50)-1)/T28*30</f>
+        <v>-1.1200063787977641E-2</v>
       </c>
       <c r="V28" s="117"/>
       <c r="W28" s="117"/>
@@ -7403,72 +7433,71 @@
       <c r="Z28" s="117"/>
       <c r="AA28" s="117"/>
       <c r="AB28" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC28" s="116">
-        <f>AC26*AB23</f>
-        <v>1350</v>
+        <v>71</v>
+      </c>
+      <c r="AC28" s="132">
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="118">
-        <v>45386</v>
+        <v>45390</v>
       </c>
       <c r="B29">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C29">
-        <v>31.399799999999999</v>
+        <v>31.5198</v>
       </c>
       <c r="D29">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E29">
-        <v>34.053100000000001</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F29" s="113">
         <v>156</v>
       </c>
       <c r="G29">
-        <v>2292.5700000000002</v>
+        <v>2344.37</v>
       </c>
       <c r="L29">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M29">
-        <v>0.82913899999999996</v>
+        <v>0.818581</v>
       </c>
       <c r="N29" s="114">
-        <f t="shared" si="12"/>
-        <v>507101.83066900005</v>
+        <f t="shared" si="13"/>
+        <v>514028.85925099999</v>
       </c>
       <c r="O29">
-        <v>155.22</v>
+        <v>159.19</v>
       </c>
       <c r="P29">
-        <v>245709.7</v>
+        <v>252634.37</v>
       </c>
       <c r="Q29" s="116">
-        <v>9129.02</v>
+        <v>9756.69</v>
       </c>
       <c r="R29" s="128">
         <f t="shared" si="14"/>
-        <v>2.0070062284889389E-2</v>
+        <v>1.4129791968382821E-2</v>
       </c>
       <c r="S29" s="117">
-        <f t="shared" si="10"/>
-        <v>-4.4006521749946126E-2</v>
+        <f t="shared" si="11"/>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T29" s="115">
-        <f t="shared" si="11"/>
-        <v>24</v>
+        <f t="shared" si="12"/>
+        <v>28</v>
       </c>
       <c r="U29" s="117">
-        <f>((N29/$N$48)-1)/T29*30</f>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N29/$N$50)-1)/T29*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V29" s="117"/>
       <c r="W29" s="117"/>
@@ -7476,73 +7505,70 @@
       <c r="Y29" s="117"/>
       <c r="Z29" s="117"/>
       <c r="AA29" s="117"/>
-      <c r="AB29" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC29" s="133">
-        <f>(AB10*AC5)-(AB10*AC26)</f>
-        <v>-154</v>
+      <c r="AC29" s="117">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="118">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B30">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D30">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F30" s="113">
         <v>156</v>
       </c>
       <c r="G30">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L30">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M30">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N30" s="114">
+        <f t="shared" si="13"/>
+        <v>505978.825411</v>
+      </c>
+      <c r="O30">
+        <v>154.41</v>
+      </c>
+      <c r="P30">
+        <v>244587.02</v>
+      </c>
+      <c r="Q30" s="116">
+        <v>9618.83</v>
+      </c>
+      <c r="R30" s="128">
+        <f t="shared" ref="R30:R61" si="15">(1-(Q31/Q30))</f>
+        <v>5.0921993631241946E-2</v>
+      </c>
+      <c r="S30" s="117">
+        <f t="shared" si="11"/>
+        <v>-4.6123622572225242E-2</v>
+      </c>
+      <c r="T30" s="115">
         <f t="shared" si="12"/>
-        <v>507101.83066900005</v>
-      </c>
-      <c r="O30">
-        <v>155.22</v>
-      </c>
-      <c r="P30">
-        <v>245709.7</v>
-      </c>
-      <c r="Q30" s="116">
-        <v>8945.7999999999993</v>
-      </c>
-      <c r="R30" s="128">
-        <f t="shared" si="14"/>
-        <v>-1.0627333497283731E-2</v>
-      </c>
-      <c r="S30" s="117">
-        <f t="shared" si="10"/>
-        <v>-4.4006521749946126E-2</v>
-      </c>
-      <c r="T30" s="115">
-        <f t="shared" si="11"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U30" s="117">
-        <f>((N30/$N$48)-1)/T30*30</f>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N30/$N$50)-1)/T30*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V30" s="117"/>
       <c r="W30" s="117"/>
@@ -7550,68 +7576,73 @@
       <c r="Y30" s="117"/>
       <c r="Z30" s="117"/>
       <c r="AA30" s="117"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="135"/>
+      <c r="AB30" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC30" s="116">
+        <f>AC28*AB25</f>
+        <v>1350</v>
+      </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="118">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B31">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D31">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F31" s="113">
         <v>156</v>
       </c>
       <c r="G31">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L31">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N31" s="114">
+        <f t="shared" si="13"/>
+        <v>507101.83066900005</v>
+      </c>
+      <c r="O31">
+        <v>155.22</v>
+      </c>
+      <c r="P31">
+        <v>245709.7</v>
+      </c>
+      <c r="Q31" s="116">
+        <v>9129.02</v>
+      </c>
+      <c r="R31" s="128">
+        <f t="shared" si="15"/>
+        <v>2.0070062284889389E-2</v>
+      </c>
+      <c r="S31" s="117">
+        <f t="shared" si="11"/>
+        <v>-4.4006521749946126E-2</v>
+      </c>
+      <c r="T31" s="115">
         <f t="shared" si="12"/>
-        <v>509777.60801200004</v>
-      </c>
-      <c r="O31">
-        <v>157.11000000000001</v>
-      </c>
-      <c r="P31">
-        <v>248387.66</v>
-      </c>
-      <c r="Q31" s="116">
-        <v>9040.8700000000008</v>
-      </c>
-      <c r="R31" s="128">
-        <f t="shared" si="14"/>
-        <v>-1.2904731513670775E-2</v>
-      </c>
-      <c r="S31" s="117">
-        <f t="shared" si="10"/>
-        <v>-3.8962119354903346E-2</v>
-      </c>
-      <c r="T31" s="115">
-        <f t="shared" si="11"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U31" s="117">
-        <f>((N31/$N$48)-1)/T31*30</f>
-        <v>-5.3130162756686382E-2</v>
+        <f>((N31/$N$50)-1)/T31*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V31" s="117"/>
       <c r="W31" s="117"/>
@@ -7619,68 +7650,73 @@
       <c r="Y31" s="117"/>
       <c r="Z31" s="117"/>
       <c r="AA31" s="117"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="135"/>
+      <c r="AB31" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC31" s="133">
+        <f>(AB10*AC5)-(AB10*AC28)</f>
+        <v>-190</v>
+      </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="118">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B32">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C32">
-        <v>31.879300000000001</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D32">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E32">
-        <v>34.391399999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F32" s="113">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G32">
-        <v>2308.4299999999998</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L32">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M32">
-        <v>0.88097599999999998</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N32" s="114">
+        <f t="shared" si="13"/>
+        <v>507101.83066900005</v>
+      </c>
+      <c r="O32">
+        <v>155.22</v>
+      </c>
+      <c r="P32">
+        <v>245709.7</v>
+      </c>
+      <c r="Q32" s="116">
+        <v>8945.7999999999993</v>
+      </c>
+      <c r="R32" s="128">
+        <f t="shared" si="15"/>
+        <v>-1.0627333497283731E-2</v>
+      </c>
+      <c r="S32" s="117">
+        <f t="shared" si="11"/>
+        <v>-4.4006521749946126E-2</v>
+      </c>
+      <c r="T32" s="115">
         <f t="shared" si="12"/>
-        <v>528238.93988600001</v>
-      </c>
-      <c r="O32">
-        <v>161.66</v>
-      </c>
-      <c r="P32">
-        <v>255424.81</v>
-      </c>
-      <c r="Q32" s="116">
-        <v>9157.5400000000009</v>
-      </c>
-      <c r="R32" s="128">
-        <f t="shared" si="14"/>
-        <v>1.6532824317448958E-3</v>
-      </c>
-      <c r="S32" s="117">
-        <f t="shared" si="10"/>
-        <v>-4.1586305801334378E-3</v>
-      </c>
-      <c r="T32" s="115">
-        <f t="shared" si="11"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U32" s="117">
-        <f>((N32/$N$48)-1)/T32*30</f>
-        <v>-5.9409008287620545E-3</v>
+        <f>((N32/$N$50)-1)/T32*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V32" s="117"/>
       <c r="W32" s="117"/>
@@ -7693,63 +7729,63 @@
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="118">
-        <v>45381</v>
+        <v>45384</v>
       </c>
       <c r="B33">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C33">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D33">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E33">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F33" s="113">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G33">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L33">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M33">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N33" s="114">
+        <f t="shared" si="13"/>
+        <v>509777.60801200004</v>
+      </c>
+      <c r="O33">
+        <v>157.11000000000001</v>
+      </c>
+      <c r="P33">
+        <v>248387.66</v>
+      </c>
+      <c r="Q33" s="116">
+        <v>9040.8700000000008</v>
+      </c>
+      <c r="R33" s="128">
+        <f t="shared" si="15"/>
+        <v>-1.2904731513670775E-2</v>
+      </c>
+      <c r="S33" s="117">
+        <f t="shared" si="11"/>
+        <v>-3.8962119354903346E-2</v>
+      </c>
+      <c r="T33" s="115">
         <f t="shared" si="12"/>
-        <v>528238.93988600001</v>
-      </c>
-      <c r="O33">
-        <v>161.66</v>
-      </c>
-      <c r="P33">
-        <v>255424.81</v>
-      </c>
-      <c r="Q33" s="116">
-        <v>9142.4</v>
-      </c>
-      <c r="R33" s="128">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="117">
-        <f t="shared" si="10"/>
-        <v>-4.1586305801334378E-3</v>
-      </c>
-      <c r="T33" s="115">
-        <f t="shared" si="11"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U33" s="117">
-        <f>((N33/$N$48)-1)/T33*30</f>
-        <v>-6.5662588107370072E-3</v>
+        <f>((N33/$N$50)-1)/T33*30</f>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V33" s="117"/>
       <c r="W33" s="117"/>
@@ -7762,63 +7798,63 @@
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="118">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B34">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C34">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D34">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E34">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F34" s="113">
         <v>161</v>
       </c>
       <c r="G34">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L34">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M34">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N34" s="114">
+        <f t="shared" si="13"/>
+        <v>528238.93988600001</v>
+      </c>
+      <c r="O34">
+        <v>161.66</v>
+      </c>
+      <c r="P34">
+        <v>255424.81</v>
+      </c>
+      <c r="Q34" s="116">
+        <v>9157.5400000000009</v>
+      </c>
+      <c r="R34" s="128">
+        <f t="shared" si="15"/>
+        <v>1.6532824317448958E-3</v>
+      </c>
+      <c r="S34" s="117">
+        <f t="shared" si="11"/>
+        <v>-4.1586305801334378E-3</v>
+      </c>
+      <c r="T34" s="115">
         <f t="shared" si="12"/>
-        <v>518957.34710100002</v>
-      </c>
-      <c r="O34">
-        <v>156.08000000000001</v>
-      </c>
-      <c r="P34">
-        <v>246143.72</v>
-      </c>
-      <c r="Q34" s="116">
-        <v>9142.4</v>
-      </c>
-      <c r="R34" s="128">
-        <f t="shared" si="14"/>
-        <v>6.8286226811340445E-3</v>
-      </c>
-      <c r="S34" s="117">
-        <f t="shared" si="10"/>
-        <v>-2.165638277425741E-2</v>
-      </c>
-      <c r="T34" s="115">
-        <f t="shared" si="11"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U34" s="117">
-        <f>((N34/$N$48)-1)/T34*30</f>
-        <v>-3.6093971290429017E-2</v>
+        <f>((N34/$N$50)-1)/T34*30</f>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V34" s="117"/>
       <c r="W34" s="117"/>
@@ -7831,63 +7867,63 @@
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="118">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B35">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C35">
-        <v>31.870699999999999</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D35">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E35">
-        <v>34.480800000000002</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F35" s="113">
         <v>161</v>
       </c>
       <c r="G35">
-        <v>2240.09</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L35">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M35">
-        <v>0.86473199999999995</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N35" s="114">
+        <f t="shared" si="13"/>
+        <v>528238.93988600001</v>
+      </c>
+      <c r="O35">
+        <v>161.66</v>
+      </c>
+      <c r="P35">
+        <v>255424.81</v>
+      </c>
+      <c r="Q35" s="116">
+        <v>9142.4</v>
+      </c>
+      <c r="R35" s="128">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="117">
+        <f t="shared" si="11"/>
+        <v>-4.1586305801334378E-3</v>
+      </c>
+      <c r="T35" s="115">
         <f t="shared" si="12"/>
-        <v>515224.93979200005</v>
-      </c>
-      <c r="O35">
-        <v>153.81</v>
-      </c>
-      <c r="P35">
-        <v>242408.74</v>
-      </c>
-      <c r="Q35" s="116">
-        <v>9079.9699999999993</v>
-      </c>
-      <c r="R35" s="128">
-        <f t="shared" si="14"/>
-        <v>3.0093711763364839E-2</v>
-      </c>
-      <c r="S35" s="117">
-        <f t="shared" si="10"/>
-        <v>-2.8692754622628547E-2</v>
-      </c>
-      <c r="T35" s="115">
-        <f t="shared" si="11"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U35" s="117">
-        <f>((N35/$N$48)-1)/T35*30</f>
-        <v>-5.0634272863462143E-2</v>
+        <f>((N35/$N$50)-1)/T35*30</f>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V35" s="117"/>
       <c r="W35" s="117"/>
@@ -7900,63 +7936,63 @@
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="118">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B36">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C36">
-        <v>31.821999999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D36">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E36">
-        <v>34.5045</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F36" s="113">
         <v>161</v>
       </c>
       <c r="G36">
-        <v>2227.25</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L36">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M36">
-        <v>0.85899999999999999</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N36" s="114">
+        <f t="shared" si="13"/>
+        <v>518957.34710100002</v>
+      </c>
+      <c r="O36">
+        <v>156.08000000000001</v>
+      </c>
+      <c r="P36">
+        <v>246143.72</v>
+      </c>
+      <c r="Q36" s="116">
+        <v>9142.4</v>
+      </c>
+      <c r="R36" s="128">
+        <f t="shared" si="15"/>
+        <v>6.8286226811340445E-3</v>
+      </c>
+      <c r="S36" s="117">
+        <f t="shared" si="11"/>
+        <v>-2.165638277425741E-2</v>
+      </c>
+      <c r="T36" s="115">
         <f t="shared" si="12"/>
-        <v>512394.77395499998</v>
-      </c>
-      <c r="O36">
-        <v>154.24</v>
-      </c>
-      <c r="P36">
-        <v>242616.68</v>
-      </c>
-      <c r="Q36" s="116">
-        <v>8806.7199999999993</v>
-      </c>
-      <c r="R36" s="128">
-        <f t="shared" si="14"/>
-        <v>-7.4942770974972817E-5</v>
-      </c>
-      <c r="S36" s="117">
-        <f t="shared" si="10"/>
-        <v>-3.4028211761422011E-2</v>
-      </c>
-      <c r="T36" s="115">
-        <f t="shared" si="11"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U36" s="117">
-        <f>((N36/$N$48)-1)/T36*30</f>
-        <v>-6.3802897052666271E-2</v>
+        <f>((N36/$N$50)-1)/T36*30</f>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V36" s="117"/>
       <c r="W36" s="117"/>
@@ -7969,63 +8005,63 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="118">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B37">
-        <f>B56</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C37">
-        <v>31.530999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D37">
-        <f>D56</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E37">
-        <v>34.125900000000001</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F37" s="113">
         <v>161</v>
       </c>
       <c r="G37">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L37">
-        <f>L56</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M37">
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N37" s="114">
+        <f t="shared" si="13"/>
+        <v>515224.93979200005</v>
+      </c>
+      <c r="O37">
+        <v>153.81</v>
+      </c>
+      <c r="P37">
+        <v>242408.74</v>
+      </c>
+      <c r="Q37" s="116">
+        <v>9079.9699999999993</v>
+      </c>
+      <c r="R37" s="128">
+        <f t="shared" si="15"/>
+        <v>3.0093711763364839E-2</v>
+      </c>
+      <c r="S37" s="117">
+        <f t="shared" si="11"/>
+        <v>-2.8692754622628547E-2</v>
+      </c>
+      <c r="T37" s="115">
         <f t="shared" si="12"/>
-        <v>515864.35854099999</v>
-      </c>
-      <c r="O37">
-        <v>154.24</v>
-      </c>
-      <c r="P37">
-        <v>242616.68</v>
-      </c>
-      <c r="Q37" s="116">
-        <v>8807.3799999999992</v>
-      </c>
-      <c r="R37" s="128">
-        <f t="shared" si="14"/>
-        <v>-2.5206133946758191E-2</v>
-      </c>
-      <c r="S37" s="117">
-        <f t="shared" si="10"/>
-        <v>-2.7487315957364089E-2</v>
-      </c>
-      <c r="T37" s="115">
-        <f t="shared" si="11"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U37" s="117">
-        <f>((N37/$N$48)-1)/T37*30</f>
-        <v>-5.4974631914728178E-2</v>
+        <f>((N37/$N$50)-1)/T37*30</f>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V37" s="117"/>
       <c r="W37" s="117"/>
@@ -8038,63 +8074,63 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="118">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B38">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C38">
-        <v>31.786200000000001</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D38">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E38">
-        <v>34.386299999999999</v>
+        <v>34.5045</v>
       </c>
       <c r="F38" s="113">
         <v>161</v>
       </c>
       <c r="G38">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L38">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M38">
-        <v>0.91889100000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N38" s="114">
+        <f t="shared" si="13"/>
+        <v>512394.77395499998</v>
+      </c>
+      <c r="O38">
+        <v>154.24</v>
+      </c>
+      <c r="P38">
+        <v>242616.68</v>
+      </c>
+      <c r="Q38" s="116">
+        <v>8806.7199999999993</v>
+      </c>
+      <c r="R38" s="128">
+        <f t="shared" si="15"/>
+        <v>-7.4942770974972817E-5</v>
+      </c>
+      <c r="S38" s="117">
+        <f t="shared" si="11"/>
+        <v>-3.4028211761422011E-2</v>
+      </c>
+      <c r="T38" s="115">
         <f t="shared" si="12"/>
-        <v>517720.01173699996</v>
-      </c>
-      <c r="O38">
-        <v>155.99</v>
-      </c>
-      <c r="P38">
-        <v>244906</v>
-      </c>
-      <c r="Q38" s="116">
-        <v>9029.3799999999992</v>
-      </c>
-      <c r="R38" s="128">
-        <f t="shared" si="14"/>
-        <v>-9.0947551216142841E-3</v>
-      </c>
-      <c r="S38" s="117">
-        <f t="shared" si="10"/>
-        <v>-2.3989019863797534E-2</v>
-      </c>
-      <c r="T38" s="115">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U38" s="117">
-        <f>((N38/$N$48)-1)/T38*30</f>
-        <v>-5.1405042565280425E-2</v>
+        <f>((N38/$N$50)-1)/T38*30</f>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V38" s="117"/>
       <c r="W38" s="117"/>
@@ -8107,63 +8143,63 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="118">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B39">
-        <f>B55</f>
+        <f>B58</f>
         <v>1110</v>
       </c>
       <c r="C39">
-        <v>31.710699999999999</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D39">
-        <f>D55</f>
+        <f>D58</f>
         <v>321.99</v>
       </c>
       <c r="E39">
-        <v>34.336300000000001</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F39" s="113">
         <v>161</v>
       </c>
       <c r="G39">
-        <v>2212.11</v>
+        <v>2227.25</v>
       </c>
       <c r="L39">
-        <f>L55</f>
+        <f>L58</f>
         <v>125000</v>
       </c>
       <c r="M39">
-        <v>0.93062100000000003</v>
+        <v>0.890316</v>
       </c>
       <c r="N39" s="114">
+        <f t="shared" si="13"/>
+        <v>515864.35854099999</v>
+      </c>
+      <c r="O39">
+        <v>154.24</v>
+      </c>
+      <c r="P39">
+        <v>242616.68</v>
+      </c>
+      <c r="Q39" s="116">
+        <v>8807.3799999999992</v>
+      </c>
+      <c r="R39" s="128">
+        <f t="shared" si="15"/>
+        <v>-2.5206133946758191E-2</v>
+      </c>
+      <c r="S39" s="117">
+        <f t="shared" si="11"/>
+        <v>-2.7487315957364089E-2</v>
+      </c>
+      <c r="T39" s="115">
         <f t="shared" si="12"/>
-        <v>518732.15723700001</v>
-      </c>
-      <c r="O39">
-        <v>156.63999999999999</v>
-      </c>
-      <c r="P39">
-        <v>245919.31</v>
-      </c>
-      <c r="Q39">
-        <v>9111.5</v>
-      </c>
-      <c r="R39" s="128">
-        <f t="shared" si="14"/>
-        <v>-3.2047412610438641E-3</v>
-      </c>
-      <c r="S39" s="117">
-        <f t="shared" si="10"/>
-        <v>-2.2080912973779676E-2</v>
-      </c>
-      <c r="T39" s="115">
-        <f t="shared" si="11"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U39" s="117">
-        <f>((N39/$N$48)-1)/T39*30</f>
-        <v>-6.0220671746671839E-2</v>
+        <f>((N39/$N$50)-1)/T39*30</f>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V39" s="117"/>
       <c r="W39" s="117"/>
@@ -8176,63 +8212,63 @@
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="118">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B40">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>32.063899999999997</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D40">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>35.065100000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F40" s="113">
         <v>161</v>
       </c>
       <c r="G40">
-        <v>2267.61</v>
+        <v>2214.31</v>
       </c>
       <c r="L40">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.94166499999999997</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N40" s="114">
+        <f t="shared" si="13"/>
+        <v>517720.01173699996</v>
+      </c>
+      <c r="O40">
+        <v>155.99</v>
+      </c>
+      <c r="P40">
+        <v>244906</v>
+      </c>
+      <c r="Q40" s="116">
+        <v>9029.3799999999992</v>
+      </c>
+      <c r="R40" s="128">
+        <f t="shared" si="15"/>
+        <v>-9.0947551216142841E-3</v>
+      </c>
+      <c r="S40" s="117">
+        <f t="shared" si="11"/>
+        <v>-2.3989019863797534E-2</v>
+      </c>
+      <c r="T40" s="115">
         <f t="shared" si="12"/>
-        <v>529674.87554899999</v>
-      </c>
-      <c r="O40">
-        <v>163.91</v>
-      </c>
-      <c r="P40">
-        <v>256845.12</v>
-      </c>
-      <c r="Q40" s="116">
-        <v>9140.7000000000007</v>
-      </c>
-      <c r="R40" s="128">
-        <f t="shared" si="14"/>
-        <v>2.0302602645311585E-2</v>
-      </c>
-      <c r="S40" s="117">
-        <f t="shared" si="10"/>
-        <v>-1.4515902067954167E-3</v>
-      </c>
-      <c r="T40" s="115">
-        <f t="shared" si="11"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U40" s="117">
-        <f>((N40/$N$48)-1)/T40*30</f>
-        <v>-4.3547706203862502E-3</v>
+        <f>((N40/$N$50)-1)/T40*30</f>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V40" s="117"/>
       <c r="W40" s="117"/>
@@ -8245,63 +8281,63 @@
     </row>
     <row r="41" spans="1:39">
       <c r="A41" s="118">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B41">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>32.028799999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D41">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>34.808799999999998</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F41" s="113">
         <v>161</v>
       </c>
       <c r="G41">
-        <v>2220.92</v>
+        <v>2212.11</v>
       </c>
       <c r="L41">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.93470600000000004</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N41" s="114">
+        <f t="shared" si="13"/>
+        <v>518732.15723700001</v>
+      </c>
+      <c r="O41">
+        <v>156.63999999999999</v>
+      </c>
+      <c r="P41">
+        <v>245919.31</v>
+      </c>
+      <c r="Q41">
+        <v>9111.5</v>
+      </c>
+      <c r="R41" s="128">
+        <f t="shared" si="15"/>
+        <v>-3.2047412610438641E-3</v>
+      </c>
+      <c r="S41" s="117">
+        <f t="shared" si="11"/>
+        <v>-2.2080912973779676E-2</v>
+      </c>
+      <c r="T41" s="115">
         <f t="shared" si="12"/>
-        <v>521166.42351200001</v>
-      </c>
-      <c r="O41">
-        <v>158.47999999999999</v>
-      </c>
-      <c r="P41">
-        <v>248342.62</v>
-      </c>
-      <c r="Q41" s="116">
-        <v>8955.1200000000008</v>
-      </c>
-      <c r="R41" s="128">
-        <f t="shared" si="14"/>
-        <v>2.8184993612594411E-3</v>
-      </c>
-      <c r="S41" s="117">
-        <f t="shared" si="10"/>
-        <v>-1.7491809676412506E-2</v>
-      </c>
-      <c r="T41" s="115">
-        <f t="shared" si="11"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U41" s="117">
-        <f>((N41/$N$48)-1)/T41*30</f>
-        <v>-5.8306032254708352E-2</v>
+        <f>((N41/$N$50)-1)/T41*30</f>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V41" s="117"/>
       <c r="W41" s="117"/>
@@ -8314,63 +8350,63 @@
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="118">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B42">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C42">
-        <v>32.087800000000001</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D42">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E42">
-        <v>34.799100000000003</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F42" s="113">
         <v>161</v>
       </c>
       <c r="G42">
-        <v>2219.02</v>
+        <v>2267.61</v>
       </c>
       <c r="L42">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M42">
-        <v>0.90033600000000003</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N42" s="114">
+        <f t="shared" si="13"/>
+        <v>529674.87554899999</v>
+      </c>
+      <c r="O42">
+        <v>163.91</v>
+      </c>
+      <c r="P42">
+        <v>256845.12</v>
+      </c>
+      <c r="Q42" s="116">
+        <v>9140.7000000000007</v>
+      </c>
+      <c r="R42" s="128">
+        <f t="shared" si="15"/>
+        <v>2.0302602645311585E-2</v>
+      </c>
+      <c r="S42" s="117">
+        <f t="shared" si="11"/>
+        <v>-1.4515902067954167E-3</v>
+      </c>
+      <c r="T42" s="115">
         <f t="shared" si="12"/>
-        <v>516626.64020899998</v>
-      </c>
-      <c r="O42">
-        <v>155.59</v>
-      </c>
-      <c r="P42">
-        <v>243803.06</v>
-      </c>
-      <c r="Q42" s="116">
-        <v>8929.8799999999992</v>
-      </c>
-      <c r="R42" s="128">
-        <f t="shared" si="14"/>
-        <v>2.3714764364134666E-2</v>
-      </c>
-      <c r="S42" s="117">
-        <f t="shared" si="10"/>
-        <v>-2.6050254879836254E-2</v>
-      </c>
-      <c r="T42" s="115">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U42" s="117">
-        <f>((N42/$N$48)-1)/T42*30</f>
-        <v>-9.7688455799385954E-2</v>
+        <f>((N42/$N$50)-1)/T42*30</f>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V42" s="117"/>
       <c r="W42" s="117"/>
@@ -8380,72 +8416,66 @@
       <c r="AA42" s="117"/>
       <c r="AB42" s="134"/>
       <c r="AC42" s="135"/>
-      <c r="AL42">
-        <v>68</v>
-      </c>
-      <c r="AM42">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="118">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B43">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>31.9499</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D43">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>34.8125</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F43" s="113">
         <v>161</v>
       </c>
       <c r="G43">
-        <v>2212.35</v>
+        <v>2220.92</v>
       </c>
       <c r="L43">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.93887900000000002</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N43" s="114">
+        <f t="shared" si="13"/>
+        <v>521166.42351200001</v>
+      </c>
+      <c r="O43">
+        <v>158.47999999999999</v>
+      </c>
+      <c r="P43">
+        <v>248342.62</v>
+      </c>
+      <c r="Q43" s="116">
+        <v>8955.1200000000008</v>
+      </c>
+      <c r="R43" s="128">
+        <f t="shared" si="15"/>
+        <v>2.8184993612594411E-3</v>
+      </c>
+      <c r="S43" s="117">
+        <f t="shared" si="11"/>
+        <v>-1.7491809676412506E-2</v>
+      </c>
+      <c r="T43" s="115">
         <f t="shared" si="12"/>
-        <v>520221.89087499998</v>
-      </c>
-      <c r="O43">
-        <v>155.44</v>
-      </c>
-      <c r="P43">
-        <v>247623.17</v>
-      </c>
-      <c r="Q43" s="116">
-        <v>8718.11</v>
-      </c>
-      <c r="R43" s="128">
-        <f t="shared" si="14"/>
-        <v>-1.2685088855267868E-2</v>
-      </c>
-      <c r="S43" s="117">
-        <f t="shared" si="10"/>
-        <v>-1.9272452116166794E-2</v>
-      </c>
-      <c r="T43" s="115">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U43" s="117">
-        <f>((N43/$N$48)-1)/T43*30</f>
-        <v>-8.2596223355000553E-2</v>
+        <f>((N43/$N$50)-1)/T43*30</f>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V43" s="117"/>
       <c r="W43" s="117"/>
@@ -8455,72 +8485,66 @@
       <c r="AA43" s="117"/>
       <c r="AB43" s="134"/>
       <c r="AC43" s="135"/>
-      <c r="AL43">
-        <v>68</v>
-      </c>
-      <c r="AM43">
-        <v>22.96</v>
-      </c>
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="118">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B44">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C44">
-        <v>31.796299999999999</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D44">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E44">
-        <v>34.619700000000002</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F44" s="113">
         <v>161</v>
       </c>
       <c r="G44">
-        <v>2213.54</v>
+        <v>2219.02</v>
       </c>
       <c r="L44">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M44">
-        <v>0.94838599999999995</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N44" s="114">
+        <f t="shared" si="13"/>
+        <v>516626.64020899998</v>
+      </c>
+      <c r="O44">
+        <v>155.59</v>
+      </c>
+      <c r="P44">
+        <v>243803.06</v>
+      </c>
+      <c r="Q44" s="116">
+        <v>8929.8799999999992</v>
+      </c>
+      <c r="R44" s="128">
+        <f t="shared" si="15"/>
+        <v>2.3714764364134666E-2</v>
+      </c>
+      <c r="S44" s="117">
+        <f t="shared" si="11"/>
+        <v>-2.6050254879836254E-2</v>
+      </c>
+      <c r="T44" s="115">
         <f t="shared" si="12"/>
-        <v>521369.280203</v>
-      </c>
-      <c r="O44">
-        <v>156.13</v>
-      </c>
-      <c r="P44">
-        <v>248712.47</v>
-      </c>
-      <c r="Q44" s="116">
-        <v>8828.7000000000007</v>
-      </c>
-      <c r="R44" s="128">
-        <f t="shared" si="14"/>
-        <v>-6.2092946866469934E-3</v>
-      </c>
-      <c r="S44" s="117">
-        <f t="shared" si="10"/>
-        <v>-1.7109382199549383E-2</v>
-      </c>
-      <c r="T44" s="115">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U44" s="117">
-        <f>((N44/$N$48)-1)/T44*30</f>
-        <v>-0.12832036649662037</v>
+        <f>((N44/$N$50)-1)/T44*30</f>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V44" s="117"/>
       <c r="W44" s="117"/>
@@ -8534,68 +8558,68 @@
         <v>68</v>
       </c>
       <c r="AM44">
-        <v>22.04</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:39">
       <c r="A45" s="118">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B45">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>31.775700000000001</v>
+        <v>31.9499</v>
       </c>
       <c r="D45">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>34.762500000000003</v>
+        <v>34.8125</v>
       </c>
       <c r="F45" s="113">
         <v>161</v>
       </c>
       <c r="G45">
-        <v>2222.88</v>
+        <v>2212.35</v>
       </c>
       <c r="L45">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>0.95100700000000005</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N45" s="114">
+        <f t="shared" si="13"/>
+        <v>520221.89087499998</v>
+      </c>
+      <c r="O45">
+        <v>155.44</v>
+      </c>
+      <c r="P45">
+        <v>247623.17</v>
+      </c>
+      <c r="Q45" s="116">
+        <v>8718.11</v>
+      </c>
+      <c r="R45" s="128">
+        <f t="shared" si="15"/>
+        <v>-1.2685088855267868E-2</v>
+      </c>
+      <c r="S45" s="117">
+        <f t="shared" si="11"/>
+        <v>-1.9272452116166794E-2</v>
+      </c>
+      <c r="T45" s="115">
         <f t="shared" si="12"/>
-        <v>523223.75937500002</v>
-      </c>
-      <c r="O45">
-        <v>157.21</v>
-      </c>
-      <c r="P45">
-        <v>250427.64</v>
-      </c>
-      <c r="Q45" s="116">
-        <v>8883.52</v>
-      </c>
-      <c r="R45" s="128">
-        <f t="shared" si="14"/>
-        <v>-3.0066910413888426E-3</v>
-      </c>
-      <c r="S45" s="117">
-        <f t="shared" si="10"/>
-        <v>-1.3613299387851274E-2</v>
-      </c>
-      <c r="T45" s="115">
-        <f t="shared" si="11"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U45" s="117">
-        <f>((N45/$N$48)-1)/T45*30</f>
-        <v>-0.13613299387851274</v>
+        <f>((N45/$N$50)-1)/T45*30</f>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V45" s="117"/>
       <c r="W45" s="117"/>
@@ -8609,68 +8633,68 @@
         <v>68</v>
       </c>
       <c r="AM45">
-        <v>20.399999999999999</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="118">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B46">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>32</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D46">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>35</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F46" s="113">
         <v>161</v>
       </c>
       <c r="G46">
-        <v>2220.3200000000002</v>
+        <v>2213.54</v>
       </c>
       <c r="L46">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>0.957233</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N46" s="114">
+        <f t="shared" si="13"/>
+        <v>521369.280203</v>
+      </c>
+      <c r="O46">
+        <v>156.13</v>
+      </c>
+      <c r="P46">
+        <v>248712.47</v>
+      </c>
+      <c r="Q46" s="116">
+        <v>8828.7000000000007</v>
+      </c>
+      <c r="R46" s="128">
+        <f t="shared" si="15"/>
+        <v>-6.2092946866469934E-3</v>
+      </c>
+      <c r="S46" s="117">
+        <f t="shared" si="11"/>
+        <v>-1.7109382199549383E-2</v>
+      </c>
+      <c r="T46" s="115">
         <f t="shared" si="12"/>
-        <v>523915.29500000004</v>
-      </c>
-      <c r="O46">
-        <v>160.79</v>
-      </c>
-      <c r="P46">
-        <v>250989.9</v>
-      </c>
-      <c r="Q46" s="116">
-        <v>8910.23</v>
-      </c>
-      <c r="R46" s="128">
-        <f t="shared" si="14"/>
-        <v>-1.7822211098927898E-2</v>
-      </c>
-      <c r="S46" s="117">
-        <f t="shared" si="10"/>
-        <v>-1.2309609463077242E-2</v>
-      </c>
-      <c r="T46" s="115">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U46" s="117">
-        <f>((N46/$N$48)-1)/T46*30</f>
-        <v>-0.18464414194615864</v>
+        <f>((N46/$N$50)-1)/T46*30</f>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V46" s="117"/>
       <c r="W46" s="117"/>
@@ -8684,68 +8708,68 @@
         <v>68</v>
       </c>
       <c r="AM46">
-        <v>18.22</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="118">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B47">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C47">
-        <v>31.516400000000001</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D47">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E47">
-        <v>34.463200000000001</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F47" s="113">
         <v>161</v>
       </c>
       <c r="G47">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L47">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M47">
-        <v>0.979213</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N47" s="114">
+        <f t="shared" si="13"/>
+        <v>523223.75937500002</v>
+      </c>
+      <c r="O47">
+        <v>157.21</v>
+      </c>
+      <c r="P47">
+        <v>250427.64</v>
+      </c>
+      <c r="Q47" s="116">
+        <v>8883.52</v>
+      </c>
+      <c r="R47" s="128">
+        <f t="shared" si="15"/>
+        <v>-3.0066910413888426E-3</v>
+      </c>
+      <c r="S47" s="117">
+        <f t="shared" si="11"/>
+        <v>-1.3613299387851274E-2</v>
+      </c>
+      <c r="T47" s="115">
         <f t="shared" si="12"/>
-        <v>525953.15476800012</v>
-      </c>
-      <c r="O47">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="P47">
-        <v>252645.61</v>
-      </c>
-      <c r="Q47" s="116">
-        <v>9069.0300000000007</v>
-      </c>
-      <c r="R47" s="128">
-        <f t="shared" si="14"/>
-        <v>-6.8684302510850781E-3</v>
-      </c>
-      <c r="S47" s="117">
-        <f t="shared" si="10"/>
-        <v>-8.4678157049555836E-3</v>
-      </c>
-      <c r="T47" s="115">
-        <f t="shared" si="11"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U47" s="117">
-        <f>((N47/$N$48)-1)/T47*30</f>
-        <v>-0.25403447114866751</v>
+        <f>((N47/$N$50)-1)/T47*30</f>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V47" s="117"/>
       <c r="W47" s="117"/>
@@ -8759,66 +8783,69 @@
         <v>68</v>
       </c>
       <c r="AM47">
-        <v>16.57</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="A48" s="118">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B48">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>31.571400000000001</v>
+        <v>32</v>
       </c>
       <c r="D48">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>34.558100000000003</v>
+        <v>35</v>
       </c>
       <c r="F48" s="113">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L48">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N48" s="201">
+        <v>0.957233</v>
+      </c>
+      <c r="N48" s="114">
+        <f t="shared" si="13"/>
+        <v>523915.29500000004</v>
+      </c>
+      <c r="O48">
+        <v>160.79</v>
+      </c>
+      <c r="P48">
+        <v>250989.9</v>
+      </c>
+      <c r="Q48" s="116">
+        <v>8910.23</v>
+      </c>
+      <c r="R48" s="128">
+        <f t="shared" si="15"/>
+        <v>-1.7822211098927898E-2</v>
+      </c>
+      <c r="S48" s="117">
+        <f t="shared" si="11"/>
+        <v>-1.2309609463077242E-2</v>
+      </c>
+      <c r="T48" s="115">
         <f t="shared" si="12"/>
-        <v>530444.86411900003</v>
-      </c>
-      <c r="O48">
-        <v>164.91</v>
-      </c>
-      <c r="P48">
-        <v>257088.48</v>
-      </c>
-      <c r="Q48" s="116">
-        <v>9131.32</v>
-      </c>
-      <c r="R48" s="128">
-        <f t="shared" si="14"/>
-        <v>-2.6283166070184549E-3</v>
-      </c>
-      <c r="S48" s="117">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T48" s="115">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U48" s="117"/>
+        <v>2</v>
+      </c>
+      <c r="U48" s="117">
+        <f>((N48/$N$50)-1)/T48*30</f>
+        <v>-0.18464414194615864</v>
+      </c>
       <c r="V48" s="117"/>
       <c r="W48" s="117"/>
       <c r="X48" s="117"/>
@@ -8827,73 +8854,73 @@
       <c r="AA48" s="117"/>
       <c r="AB48" s="134"/>
       <c r="AC48" s="135"/>
-      <c r="AH48">
-        <v>12</v>
-      </c>
-      <c r="AI48">
-        <v>41.58</v>
-      </c>
-      <c r="AJ48">
-        <f>AJ55</f>
-        <v>15</v>
-      </c>
-      <c r="AK48">
-        <v>55.55</v>
-      </c>
       <c r="AL48">
         <v>68</v>
       </c>
       <c r="AM48">
-        <v>15.07</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="118">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B49">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C49">
-        <v>31.402999999999999</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D49">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E49">
-        <v>34.3643</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F49" s="113">
         <v>161</v>
       </c>
       <c r="G49">
-        <v>2198.16</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L49">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>0.99115900000000001</v>
+        <v>0.979213</v>
       </c>
       <c r="N49" s="114">
+        <f t="shared" si="13"/>
+        <v>525953.15476800012</v>
+      </c>
+      <c r="O49">
+        <v>161.94999999999999</v>
+      </c>
+      <c r="P49">
+        <v>252645.61</v>
+      </c>
+      <c r="Q49" s="116">
+        <v>9069.0300000000007</v>
+      </c>
+      <c r="R49" s="128">
+        <f t="shared" si="15"/>
+        <v>-6.8684302510850781E-3</v>
+      </c>
+      <c r="S49" s="117">
+        <f t="shared" si="11"/>
+        <v>-8.4678157049555836E-3</v>
+      </c>
+      <c r="T49" s="115">
         <f t="shared" si="12"/>
-        <v>523720.92595699994</v>
-      </c>
-      <c r="O49">
-        <v>160.9</v>
-      </c>
-      <c r="Q49" s="116">
-        <v>9155.32</v>
-      </c>
-      <c r="R49" s="128">
-        <f t="shared" si="14"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S49" s="117"/>
-      <c r="U49" s="117"/>
+        <v>1</v>
+      </c>
+      <c r="U49" s="117">
+        <f>((N49/$N$50)-1)/T49*30</f>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V49" s="117"/>
       <c r="W49" s="117"/>
       <c r="X49" s="117"/>
@@ -8902,72 +8929,69 @@
       <c r="AA49" s="117"/>
       <c r="AB49" s="134"/>
       <c r="AC49" s="135"/>
-      <c r="AH49">
-        <v>12</v>
-      </c>
-      <c r="AI49">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="AJ49">
-        <f>AJ55</f>
-        <v>15</v>
-      </c>
-      <c r="AK49">
-        <v>57.75</v>
-      </c>
       <c r="AL49">
         <v>68</v>
       </c>
       <c r="AM49">
-        <v>13.7</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="118">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B50">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C50">
-        <v>31.297000000000001</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D50">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E50">
-        <v>34.110599999999998</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F50" s="113">
         <v>161</v>
       </c>
       <c r="G50">
-        <v>2184.79</v>
+        <v>2232.66</v>
       </c>
       <c r="L50">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M50">
-        <v>0.945214</v>
-      </c>
-      <c r="N50" s="114">
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N50" s="201">
+        <f t="shared" si="13"/>
+        <v>530444.86411900003</v>
+      </c>
+      <c r="O50">
+        <v>164.91</v>
+      </c>
+      <c r="P50">
+        <v>257088.48</v>
+      </c>
+      <c r="Q50" s="116">
+        <v>9131.32</v>
+      </c>
+      <c r="R50" s="128">
+        <f t="shared" si="15"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S50" s="117">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T50" s="115">
         <f t="shared" si="12"/>
-        <v>515625.882094</v>
-      </c>
-      <c r="O50">
-        <v>155.75</v>
-      </c>
-      <c r="Q50" s="116">
-        <v>9054.18</v>
-      </c>
-      <c r="R50" s="128">
-        <f t="shared" si="14"/>
-        <v>3.4194151209717583E-2</v>
-      </c>
-      <c r="S50" s="117"/>
+        <v>0</v>
+      </c>
       <c r="U50" s="117"/>
       <c r="V50" s="117"/>
       <c r="W50" s="117"/>
@@ -8981,66 +9005,66 @@
         <v>12</v>
       </c>
       <c r="AI50">
-        <v>34.380000000000003</v>
+        <v>41.58</v>
       </c>
       <c r="AJ50">
-        <f>AJ55</f>
+        <f>AJ57</f>
         <v>15</v>
       </c>
       <c r="AK50">
-        <v>63.1</v>
+        <v>55.55</v>
       </c>
       <c r="AL50">
         <v>68</v>
       </c>
       <c r="AM50">
-        <v>12.46</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="118">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B51">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C51">
-        <v>31.293399999999998</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D51">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E51">
-        <v>34.006500000000003</v>
+        <v>34.3643</v>
       </c>
       <c r="F51" s="113">
         <v>161</v>
       </c>
       <c r="G51">
-        <v>2150.9</v>
+        <v>2198.16</v>
       </c>
       <c r="L51">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M51">
-        <v>0.99397100000000005</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N51" s="114">
-        <f t="shared" si="12"/>
-        <v>516226.70193500002</v>
+        <f t="shared" si="13"/>
+        <v>523720.92595699994</v>
       </c>
       <c r="O51">
-        <v>156.16</v>
+        <v>160.9</v>
       </c>
       <c r="Q51" s="116">
-        <v>8744.58</v>
+        <v>9155.32</v>
       </c>
       <c r="R51" s="128">
-        <f t="shared" si="14"/>
-        <v>-1.3258498407013208E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S51" s="117"/>
       <c r="U51" s="117"/>
@@ -9052,77 +9076,70 @@
       <c r="AA51" s="117"/>
       <c r="AB51" s="134"/>
       <c r="AC51" s="135"/>
-      <c r="AF51">
-        <f>AF55</f>
-        <v>57</v>
-      </c>
-      <c r="AG51">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH51">
         <v>12</v>
       </c>
       <c r="AI51">
-        <v>31.26</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ51">
-        <f>AJ55</f>
+        <f>AJ57</f>
         <v>15</v>
       </c>
       <c r="AK51">
-        <v>57.4</v>
+        <v>57.75</v>
       </c>
       <c r="AL51">
         <v>68</v>
       </c>
       <c r="AM51">
-        <v>11.33</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="118">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B52">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C52">
-        <v>31.079899999999999</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D52">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E52">
-        <v>33.721699999999998</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F52" s="113">
         <v>161</v>
       </c>
       <c r="G52">
-        <v>2116.34</v>
+        <v>2184.79</v>
       </c>
       <c r="L52">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M52">
-        <v>1.0160309999999999</v>
+        <v>0.945214</v>
       </c>
       <c r="N52" s="114">
-        <f t="shared" si="12"/>
-        <v>513091.35418300005</v>
+        <f t="shared" si="13"/>
+        <v>515625.882094</v>
       </c>
       <c r="O52">
-        <v>154.22999999999999</v>
+        <v>155.75</v>
       </c>
       <c r="Q52" s="116">
-        <v>8860.52</v>
+        <v>9054.18</v>
       </c>
       <c r="R52" s="128">
-        <f t="shared" si="14"/>
-        <v>-5.319100910555985E-3</v>
+        <f t="shared" si="15"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S52" s="117"/>
       <c r="U52" s="117"/>
@@ -9134,82 +9151,70 @@
       <c r="AA52" s="117"/>
       <c r="AB52" s="134"/>
       <c r="AC52" s="135"/>
-      <c r="AD52">
-        <f>AD55</f>
-        <v>36</v>
-      </c>
-      <c r="AE52" s="136">
-        <v>38.15</v>
-      </c>
-      <c r="AF52">
-        <f>AF55</f>
-        <v>57</v>
-      </c>
-      <c r="AG52">
-        <v>579.361718</v>
-      </c>
       <c r="AH52">
-        <f>AH55</f>
         <v>12</v>
       </c>
       <c r="AI52">
-        <v>28.42</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ52">
-        <f>AJ55</f>
+        <f>AJ57</f>
         <v>15</v>
       </c>
       <c r="AK52">
-        <v>52.2</v>
+        <v>63.1</v>
       </c>
       <c r="AL52">
         <v>68</v>
       </c>
       <c r="AM52">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="118">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B53">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C53">
-        <v>30.905999999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D53">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E53">
-        <v>33.542299999999997</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F53" s="113">
         <v>161</v>
       </c>
       <c r="G53">
-        <v>2072.52</v>
+        <v>2150.9</v>
       </c>
       <c r="L53">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M53">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N53" s="114">
-        <f t="shared" si="12"/>
-        <v>509025.91517699993</v>
+        <f t="shared" si="13"/>
+        <v>516226.70193500002</v>
+      </c>
+      <c r="O53">
+        <v>156.16</v>
       </c>
       <c r="Q53" s="116">
-        <v>8907.65</v>
+        <v>8744.58</v>
       </c>
       <c r="R53" s="128">
-        <f t="shared" si="14"/>
-        <v>-2.1273848882702007E-2</v>
+        <f t="shared" si="15"/>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S53" s="117"/>
       <c r="U53" s="117"/>
@@ -9221,33 +9226,25 @@
       <c r="AA53" s="117"/>
       <c r="AB53" s="134"/>
       <c r="AC53" s="135"/>
-      <c r="AD53">
-        <f>AD55</f>
-        <v>36</v>
-      </c>
-      <c r="AE53">
-        <v>34.659999999999997</v>
-      </c>
       <c r="AF53">
-        <f>AF55</f>
+        <f>AF57</f>
         <v>57</v>
       </c>
       <c r="AG53">
-        <v>578.66060300000004</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH53">
-        <f>AH55</f>
         <v>12</v>
       </c>
       <c r="AI53">
-        <v>25.84</v>
+        <v>31.26</v>
       </c>
       <c r="AJ53">
-        <f>AJ55</f>
+        <f>AJ57</f>
         <v>15</v>
       </c>
       <c r="AK53">
-        <v>47.46</v>
+        <v>57.4</v>
       </c>
       <c r="AL53">
         <v>68</v>
@@ -9258,45 +9255,48 @@
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="118">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B54">
-        <f>B55</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C54">
-        <v>30.7361</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D54">
-        <f>D55</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E54">
-        <v>33.225700000000003</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F54" s="113">
         <v>161</v>
       </c>
       <c r="G54">
-        <v>2018.91</v>
+        <v>2116.34</v>
       </c>
       <c r="L54">
-        <f>L55</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M54">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N54" s="114">
-        <f t="shared" si="12"/>
-        <v>499114.42414299998</v>
+        <f t="shared" si="13"/>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O54">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q54" s="116">
-        <v>9097.15</v>
+        <v>8860.52</v>
       </c>
       <c r="R54" s="128">
-        <f t="shared" si="14"/>
-        <v>-1.0612114783201454E-2</v>
+        <f t="shared" si="15"/>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S54" s="117"/>
       <c r="U54" s="117"/>
@@ -9309,32 +9309,32 @@
       <c r="AB54" s="134"/>
       <c r="AC54" s="135"/>
       <c r="AD54">
-        <f>AD55</f>
+        <f>AD57</f>
         <v>36</v>
       </c>
-      <c r="AE54">
-        <v>31.52</v>
+      <c r="AE54" s="136">
+        <v>38.15</v>
       </c>
       <c r="AF54">
-        <f>AF55</f>
+        <f>AF57</f>
         <v>57</v>
       </c>
       <c r="AG54">
-        <v>576.58807100000001</v>
+        <v>579.361718</v>
       </c>
       <c r="AH54">
-        <f>AH55</f>
+        <f>AH57</f>
         <v>12</v>
       </c>
       <c r="AI54">
-        <v>23.5</v>
+        <v>28.42</v>
       </c>
       <c r="AJ54">
-        <f>AJ55</f>
+        <f>AJ57</f>
         <v>15</v>
       </c>
       <c r="AK54">
-        <v>43.16</v>
+        <v>52.2</v>
       </c>
       <c r="AL54">
         <v>68</v>
@@ -9345,90 +9345,104 @@
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="118">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B55">
-        <f>B56</f>
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C55">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D55">
-        <f>D56</f>
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E55">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F55" s="113">
         <v>161</v>
       </c>
       <c r="G55">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L55">
-        <f>L56</f>
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M55">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="N55" s="114">
-        <f t="shared" si="12"/>
-        <v>496152.04914299998</v>
+        <f t="shared" si="13"/>
+        <v>509025.91517699993</v>
       </c>
       <c r="Q55" s="116">
-        <v>9193.69</v>
+        <v>8907.65</v>
       </c>
       <c r="R55" s="128">
-        <f t="shared" si="14"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S55" s="128"/>
+        <f t="shared" si="15"/>
+        <v>-2.1273848882702007E-2</v>
+      </c>
+      <c r="S55" s="117"/>
+      <c r="U55" s="117"/>
+      <c r="V55" s="117"/>
+      <c r="W55" s="117"/>
+      <c r="X55" s="117"/>
+      <c r="Y55" s="117"/>
+      <c r="Z55" s="117"/>
+      <c r="AA55" s="117"/>
+      <c r="AB55" s="134"/>
+      <c r="AC55" s="135"/>
       <c r="AD55">
-        <f>AD56</f>
+        <f>AD57</f>
         <v>36</v>
       </c>
       <c r="AE55">
-        <v>28.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF55">
-        <f>AF56</f>
+        <f>AF57</f>
         <v>57</v>
       </c>
       <c r="AG55">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH55">
-        <f>AH56</f>
+        <f>AH57</f>
         <v>12</v>
       </c>
       <c r="AI55">
-        <v>21.38</v>
+        <v>25.84</v>
       </c>
       <c r="AJ55">
+        <f>AJ57</f>
         <v>15</v>
       </c>
       <c r="AK55">
-        <v>39.24</v>
-      </c>
-      <c r="AM55" s="130">
-        <f>AM54</f>
+        <v>47.46</v>
+      </c>
+      <c r="AL55">
+        <v>68</v>
+      </c>
+      <c r="AM55">
         <v>11.33</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="A56" s="118">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B56">
+        <f>B57</f>
         <v>1110</v>
       </c>
       <c r="C56">
         <v>30.7361</v>
       </c>
       <c r="D56">
+        <f>D57</f>
         <v>321.99</v>
       </c>
       <c r="E56">
@@ -9441,61 +9455,81 @@
         <v>2018.91</v>
       </c>
       <c r="L56">
+        <f>L57</f>
         <v>125000</v>
       </c>
       <c r="M56">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="N56" s="114">
-        <f t="shared" si="12"/>
-        <v>503322.92414299998</v>
+        <f t="shared" si="13"/>
+        <v>499114.42414299998</v>
       </c>
       <c r="Q56" s="116">
-        <v>9062.36</v>
+        <v>9097.15</v>
       </c>
       <c r="R56" s="128">
-        <f t="shared" si="14"/>
-        <v>-1.292378585710563E-2</v>
-      </c>
-      <c r="S56" s="128"/>
+        <f t="shared" si="15"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S56" s="117"/>
+      <c r="U56" s="117"/>
+      <c r="V56" s="117"/>
+      <c r="W56" s="117"/>
+      <c r="X56" s="117"/>
+      <c r="Y56" s="117"/>
+      <c r="Z56" s="117"/>
+      <c r="AA56" s="117"/>
+      <c r="AB56" s="134"/>
+      <c r="AC56" s="135"/>
       <c r="AD56">
         <f>AD57</f>
         <v>36</v>
       </c>
       <c r="AE56">
-        <v>26.06</v>
+        <v>31.52</v>
       </c>
       <c r="AF56">
+        <f>AF57</f>
         <v>57</v>
       </c>
       <c r="AG56">
         <v>576.58807100000001</v>
       </c>
       <c r="AH56">
+        <f>AH57</f>
         <v>12</v>
       </c>
       <c r="AI56">
-        <v>19.45</v>
-      </c>
-      <c r="AK56" s="130">
-        <f>AK55</f>
-        <v>39.24</v>
-      </c>
-      <c r="AM56" s="130" t="s">
-        <v>70</v>
+        <v>23.5</v>
+      </c>
+      <c r="AJ56">
+        <f>AJ57</f>
+        <v>15</v>
+      </c>
+      <c r="AK56">
+        <v>43.16</v>
+      </c>
+      <c r="AL56">
+        <v>68</v>
+      </c>
+      <c r="AM56">
+        <v>11.33</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="118">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B57">
+        <f>B58</f>
         <v>1110</v>
       </c>
       <c r="C57">
         <v>30.7361</v>
       </c>
       <c r="D57">
+        <f>D58</f>
         <v>321.99</v>
       </c>
       <c r="E57">
@@ -9507,50 +9541,60 @@
       <c r="G57">
         <v>2018.91</v>
       </c>
-      <c r="L57" s="200">
-        <v>75000</v>
+      <c r="L57">
+        <f>L58</f>
+        <v>125000</v>
       </c>
       <c r="M57">
-        <v>1.064435</v>
+        <v>1.010337</v>
       </c>
       <c r="N57" s="114">
-        <f t="shared" si="12"/>
-        <v>449692.54914299998</v>
+        <f t="shared" si="13"/>
+        <v>496152.04914299998</v>
       </c>
       <c r="Q57" s="116">
-        <v>9179.48</v>
+        <v>9193.69</v>
       </c>
       <c r="R57" s="128">
-        <f t="shared" si="14"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S57" s="128"/>
       <c r="AD57">
+        <f>AD58</f>
         <v>36</v>
       </c>
       <c r="AE57">
-        <v>23.7</v>
+        <v>28.66</v>
       </c>
       <c r="AF57">
+        <f>AF58</f>
         <v>57</v>
       </c>
       <c r="AG57">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI57" s="130">
-        <f>AI56</f>
-        <v>19.45</v>
-      </c>
-      <c r="AK57" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM57" s="131" t="s">
-        <v>69</v>
+      <c r="AH57">
+        <f>AH58</f>
+        <v>12</v>
+      </c>
+      <c r="AI57">
+        <v>21.38</v>
+      </c>
+      <c r="AJ57">
+        <v>15</v>
+      </c>
+      <c r="AK57">
+        <v>39.24</v>
+      </c>
+      <c r="AM57" s="130">
+        <f>AM56</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="A58" s="118">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B58">
         <v>1110</v>
@@ -9571,29 +9615,29 @@
         <v>2018.91</v>
       </c>
       <c r="L58">
-        <f>L59</f>
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="M58">
-        <v>1.0192399999999999</v>
+        <v>1.067704</v>
       </c>
       <c r="N58" s="114">
-        <f t="shared" si="12"/>
-        <v>420821.92414299998</v>
+        <f t="shared" si="13"/>
+        <v>503322.92414299998</v>
       </c>
       <c r="Q58" s="116">
-        <v>9334.1299999999992</v>
+        <v>9062.36</v>
       </c>
       <c r="R58" s="128">
-        <f t="shared" si="14"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="15"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S58" s="128"/>
       <c r="AD58">
+        <f>AD59</f>
         <v>36</v>
       </c>
       <c r="AE58">
-        <v>21.56</v>
+        <v>26.06</v>
       </c>
       <c r="AF58">
         <v>57</v>
@@ -9601,20 +9645,23 @@
       <c r="AG58">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI58" s="130" t="s">
+      <c r="AH58">
+        <v>12</v>
+      </c>
+      <c r="AI58">
+        <v>19.45</v>
+      </c>
+      <c r="AK58" s="130">
+        <f>AK57</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM58" s="130" t="s">
         <v>70</v>
-      </c>
-      <c r="AK58" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM58" s="131">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="118">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B59">
         <v>1110</v>
@@ -9634,29 +9681,29 @@
       <c r="G59">
         <v>2018.91</v>
       </c>
-      <c r="L59">
-        <v>50000</v>
+      <c r="L59" s="200">
+        <v>75000</v>
       </c>
       <c r="M59">
-        <v>1.0032049999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N59" s="114">
-        <f t="shared" si="12"/>
-        <v>420020.17414299998</v>
+        <f t="shared" si="13"/>
+        <v>449692.54914299998</v>
       </c>
       <c r="Q59" s="116">
-        <v>9374.2000000000007</v>
+        <v>9179.48</v>
       </c>
       <c r="R59" s="128">
-        <f t="shared" si="14"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="15"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S59" s="128"/>
       <c r="AD59">
         <v>36</v>
       </c>
       <c r="AE59">
-        <v>19.600000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="AF59">
         <v>57</v>
@@ -9664,132 +9711,259 @@
       <c r="AG59">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI59" s="131" t="s">
+      <c r="AI59" s="130">
+        <f>AI58</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK59" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM59" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="AK59" s="131">
-        <v>55.5</v>
-      </c>
-      <c r="AM59" s="117">
-        <f>(AM58-AM54)/AM54</f>
-        <v>0.73786407766990303</v>
-      </c>
     </row>
     <row r="60" spans="1:39">
-      <c r="A60" s="199">
-        <v>45344</v>
-      </c>
-      <c r="L60" s="200">
+      <c r="A60" s="118">
+        <v>45348</v>
+      </c>
+      <c r="B60">
+        <v>1110</v>
+      </c>
+      <c r="C60">
+        <v>30.7361</v>
+      </c>
+      <c r="D60">
+        <v>321.99</v>
+      </c>
+      <c r="E60">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F60" s="113">
+        <v>161</v>
+      </c>
+      <c r="G60">
+        <v>2018.91</v>
+      </c>
+      <c r="L60">
+        <f>L61</f>
         <v>50000</v>
       </c>
       <c r="M60">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N60" s="114">
-        <f t="shared" si="12"/>
-        <v>50160.249999999993</v>
+        <f t="shared" si="13"/>
+        <v>420821.92414299998</v>
       </c>
       <c r="Q60" s="116">
-        <v>9347.17</v>
-      </c>
+        <v>9334.1299999999992</v>
+      </c>
+      <c r="R60" s="128">
+        <f t="shared" si="15"/>
+        <v>-4.2928478604864484E-3</v>
+      </c>
+      <c r="S60" s="128"/>
       <c r="AD60">
         <v>36</v>
       </c>
       <c r="AE60">
-        <v>17.82</v>
-      </c>
-      <c r="AI60" s="131">
-        <v>45.72</v>
-      </c>
-      <c r="AK60" s="117">
-        <f>(AK59-AK55)/AK55</f>
-        <v>0.41437308868501521</v>
+        <v>21.56</v>
+      </c>
+      <c r="AF60">
+        <v>57</v>
+      </c>
+      <c r="AG60">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI60" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK60" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM60" s="131">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:39">
+      <c r="A61" s="118">
+        <v>45345</v>
+      </c>
+      <c r="B61">
+        <v>1110</v>
+      </c>
+      <c r="C61">
+        <v>30.7361</v>
+      </c>
+      <c r="D61">
+        <v>321.99</v>
+      </c>
+      <c r="E61">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F61" s="113">
+        <v>161</v>
+      </c>
+      <c r="G61">
+        <v>2018.91</v>
+      </c>
+      <c r="L61">
+        <v>50000</v>
+      </c>
       <c r="M61">
-        <v>0.93849000000000005</v>
-      </c>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N61" s="114">
+        <f t="shared" si="13"/>
+        <v>420020.17414299998</v>
+      </c>
+      <c r="Q61" s="116">
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R61" s="128">
+        <f t="shared" si="15"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S61" s="128"/>
       <c r="AD61">
         <v>36</v>
       </c>
-      <c r="AE61" s="130">
-        <v>15.3</v>
-      </c>
-      <c r="AI61" s="117">
-        <f>(AI60-AI56)/AI56</f>
-        <v>1.3506426735218509</v>
-      </c>
-      <c r="AM61" s="133">
-        <f>(AL54*AM58)-(AL42*AM54)</f>
-        <v>568.48</v>
+      <c r="AE61">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF61">
+        <v>57</v>
+      </c>
+      <c r="AG61">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI61" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK61" s="131">
+        <v>55.5</v>
+      </c>
+      <c r="AM61" s="117">
+        <f>(AM60-AM56)/AM56</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="62" spans="1:39">
+      <c r="A62" s="199">
+        <v>45344</v>
+      </c>
+      <c r="L62" s="200">
+        <v>50000</v>
+      </c>
       <c r="M62">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="R62" s="137">
-        <f>SUM(R10:R61)</f>
-        <v>0.11050777792850663</v>
-      </c>
-      <c r="S62" s="137"/>
-      <c r="AE62" s="130" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ62" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK62" s="133">
-        <f>(AJ55*AK59)-(AJ10*AK55)</f>
-        <v>832.5</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N62" s="114">
+        <f t="shared" si="13"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q62" s="116">
+        <v>9347.17</v>
+      </c>
+      <c r="AD62">
+        <v>36</v>
+      </c>
+      <c r="AE62">
+        <v>17.82</v>
+      </c>
+      <c r="AI62" s="131">
+        <v>45.72</v>
+      </c>
+      <c r="AK62" s="117">
+        <f>(AK61-AK57)/AK57</f>
+        <v>0.41437308868501521</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="M63">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="AE63" s="131" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH63" s="133" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI63" s="133">
-        <f>(AH56*AI60)-(AH10*AI56)</f>
-        <v>548.64</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD63">
+        <v>36</v>
+      </c>
+      <c r="AE63" s="130">
+        <v>15.3</v>
+      </c>
+      <c r="AI63" s="117">
+        <f>(AI62-AI58)/AI58</f>
+        <v>1.3506426735218509</v>
+      </c>
+      <c r="AM63" s="133">
+        <f>(AL56*AM60)-(AL44*AM56)</f>
+        <v>568.48</v>
       </c>
     </row>
     <row r="64" spans="1:39">
       <c r="M64">
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="R64" s="137" t="e">
+        <f>SUM(R10:R63)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S64" s="137"/>
+      <c r="AE64" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ64" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK64" s="133">
+        <f>(AJ57*AK61)-(AJ10*AK57)</f>
+        <v>832.5</v>
+      </c>
+    </row>
+    <row r="65" spans="13:35">
+      <c r="M65">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="AE65" s="131" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH65" s="133" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI65" s="133">
+        <f>(AH58*AI62)-(AH10*AI58)</f>
+        <v>548.64</v>
+      </c>
+    </row>
+    <row r="66" spans="13:35">
+      <c r="M66">
         <v>0.89847999999999995</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AD66" t="s">
         <v>71</v>
       </c>
-      <c r="AE64" s="131">
+      <c r="AE66" s="131">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="13:31">
-      <c r="M65">
+    <row r="67" spans="13:35">
+      <c r="M67">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE65" s="117">
+      <c r="AE67" s="117">
         <f>Sayfa2!M54</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="66" spans="13:31">
-      <c r="M66">
+    <row r="68" spans="13:35">
+      <c r="M68">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="67" spans="13:31">
-      <c r="AD67" s="133" t="s">
+    <row r="69" spans="13:35">
+      <c r="AD69" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="AE67" s="133">
+      <c r="AE69" s="133">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547F076F-1C2A-4553-B48B-7A51AB36F89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A70245-6305-4039-95F6-4EC0C798F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -779,7 +779,7 @@
     <t>Euro kk</t>
   </si>
   <si>
-    <t>ALTIN.S1 peri dr184</t>
+    <t xml:space="preserve">ALTIN.S1 </t>
   </si>
 </sst>
 </file>
@@ -1994,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -2034,11 +2034,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>240473.134895</v>
+        <v>243565.64917799996</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2047,11 +2047,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>146.27319640815085</v>
+        <v>148.06422442431608</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2084,24 +2084,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I37)</f>
-        <v>810507.36415899999</v>
+        <v>813657.57844199997</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K38)</f>
-        <v>215906.16373499998</v>
+        <v>218998.67801799995</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.37058319337658652</v>
+        <v>0.37589121144671195</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M29)</f>
-        <v>-9.9275996406769165E-2</v>
+        <v>-0.10350887942462519</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N29)</f>
-        <v>-5.3468848617089559E-2</v>
+        <v>-5.6207851273756451E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2256,7 +2256,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O38)</f>
-        <v>215906.16373499998</v>
+        <v>218998.67801799995</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>26.14</v>
+        <v>24.48</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>1045.5999999999999</v>
+        <v>979.2</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-4.3599999999999994</v>
+        <v>-6.02</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-174.39999999999998</v>
+        <v>-240.79999999999998</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="116">
         <f>K15/E15</f>
-        <v>-0.14295081967213114</v>
+        <v>-0.19737704918032786</v>
       </c>
       <c r="N15" s="116">
         <f>M15/L15*30</f>
-        <v>-0.12252927400468383</v>
+        <v>-0.16448087431693989</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2340,31 +2340,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>30.58</v>
+        <v>29.06</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>1070.3</v>
+        <v>1017.0999999999999</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-6.8100000000000023</v>
+        <v>-8.3300000000000018</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-238.35000000000008</v>
+        <v>-291.55000000000007</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M16" s="116">
         <f>K16/E16</f>
-        <v>-0.18213426049745926</v>
+        <v>-0.22278684140144428</v>
       </c>
       <c r="N16" s="116">
         <f>M16/L16*30</f>
-        <v>-0.15611508042639366</v>
+        <v>-0.18565570116787022</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2394,31 +2394,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>114.6</v>
+        <v>119</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1146</v>
+        <v>1190</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-20.400000000000006</v>
+        <v>-16</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-204.00000000000006</v>
+        <v>-160</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M17" s="116">
         <f>K17/E17</f>
-        <v>-0.15111111111111114</v>
+        <v>-0.11851851851851852</v>
       </c>
       <c r="N17" s="116">
         <f>M17/L17*30</f>
-        <v>-0.10542635658914731</v>
+        <v>-8.0808080808080815E-2</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F19" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G19" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2453,31 +2453,31 @@
       </c>
       <c r="H19" s="64">
         <f>H20</f>
-        <v>653.60767299999998</v>
+        <v>654.52437399999997</v>
       </c>
       <c r="I19" s="51">
         <f>Sayfa2!$H19*Sayfa2!$G19</f>
-        <v>117649.38114</v>
+        <v>117814.38731999999</v>
       </c>
       <c r="J19" s="46">
         <f>H19-D19</f>
-        <v>6.3516919999999573</v>
+        <v>7.2683929999999464</v>
       </c>
       <c r="K19" s="65">
         <f>Sayfa2!$J19*Sayfa2!$C19</f>
-        <v>1143.3045599999923</v>
+        <v>1308.3107399999903</v>
       </c>
       <c r="L19" s="66">
         <f>F19-B19</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M19" s="116">
         <f>K19/E19</f>
-        <v>9.8132611925604695E-3</v>
+        <v>1.1229549379783862E-2</v>
       </c>
       <c r="N19" s="116">
         <f>M19/L19*30</f>
-        <v>4.2056833682402012E-2</v>
+        <v>4.2110810174189481E-2</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2499,38 +2499,38 @@
       </c>
       <c r="F20" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G20" s="63">
         <v>3</v>
       </c>
       <c r="H20" s="64">
         <f>Sayfa4!K5</f>
-        <v>653.60767299999998</v>
+        <v>654.52437399999997</v>
       </c>
       <c r="I20" s="51">
         <f>Sayfa2!$H20*Sayfa2!$G20</f>
-        <v>1960.8230189999999</v>
+        <v>1963.5731219999998</v>
       </c>
       <c r="J20" s="46">
         <f>H20-D20</f>
-        <v>30.764724999999999</v>
+        <v>31.681425999999988</v>
       </c>
       <c r="K20" s="65">
         <f>Sayfa2!$J20*Sayfa2!$C20</f>
-        <v>92.294174999999996</v>
+        <v>95.044277999999963</v>
       </c>
       <c r="L20" s="66">
         <f>F20-B20</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M20" s="116">
         <f>K20/E20</f>
-        <v>4.9394032795567588E-2</v>
+        <v>5.0865833998332416E-2</v>
       </c>
       <c r="N20" s="116">
         <f>M20/L20*30</f>
-        <v>4.2337742396200792E-2</v>
+        <v>4.2388194998610351E-2</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="F22" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G22" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2560,31 +2560,31 @@
       </c>
       <c r="H22" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.89</v>
+        <v>24.06</v>
       </c>
       <c r="I22" s="51">
         <f>Sayfa2!$H22*Sayfa2!$G22</f>
-        <v>59725</v>
+        <v>60150</v>
       </c>
       <c r="J22" s="46">
         <f>H22-D22</f>
-        <v>-0.82000000000000028</v>
+        <v>-0.65000000000000213</v>
       </c>
       <c r="K22" s="65">
         <f>Sayfa2!$J22*Sayfa2!$C22</f>
-        <v>-2050.0000000000009</v>
+        <v>-1625.0000000000052</v>
       </c>
       <c r="L22" s="66">
         <f>F22-B22</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M22" s="116">
         <f>K22/E22</f>
-        <v>-3.3184945366248497E-2</v>
+        <v>-2.6305139619587296E-2</v>
       </c>
       <c r="N22" s="116">
         <f>M22/L22*30</f>
-        <v>-2.8444238885355855E-2</v>
+        <v>-2.1920949682989414E-2</v>
       </c>
       <c r="O22" s="68"/>
       <c r="P22" s="69">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="F24" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G24" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2641,31 +2641,31 @@
       </c>
       <c r="H24" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.89</v>
+        <v>24.06</v>
       </c>
       <c r="I24" s="51">
         <f>Sayfa2!$H24*Sayfa2!$G24</f>
-        <v>59725</v>
+        <v>60150</v>
       </c>
       <c r="J24" s="46">
         <f>H24-D24</f>
-        <v>-1.0199999999999996</v>
+        <v>-0.85000000000000142</v>
       </c>
       <c r="K24" s="65">
         <f>Sayfa2!$J24*Sayfa2!$C24</f>
-        <v>-2549.9999999999991</v>
+        <v>-2125.0000000000036</v>
       </c>
       <c r="L24" s="66">
         <f>F24-B24</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M24" s="67">
         <f>K24/E24</f>
-        <v>-4.0947410678442375E-2</v>
+        <v>-3.4122842232035384E-2</v>
       </c>
       <c r="N24" s="116">
         <f>M24/L24*30</f>
-        <v>-3.4122842232035315E-2</v>
+        <v>-2.7667169377325985E-2</v>
       </c>
       <c r="O24" s="68"/>
       <c r="P24" s="69">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="F26" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G26" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2722,31 +2722,31 @@
       </c>
       <c r="H26" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.89</v>
+        <v>24.06</v>
       </c>
       <c r="I26" s="51">
         <f>Sayfa2!$H26*Sayfa2!$G26</f>
-        <v>59725</v>
+        <v>60150</v>
       </c>
       <c r="J26" s="46">
         <f>H26-D26</f>
-        <v>-1.2300000000000004</v>
+        <v>-1.0600000000000023</v>
       </c>
       <c r="K26" s="65">
         <f>Sayfa2!$J26*Sayfa2!$C26</f>
-        <v>-3075.0000000000009</v>
+        <v>-2650.0000000000055</v>
       </c>
       <c r="L26" s="66">
         <f>F26-B26</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M26" s="67">
         <f>K26/E26</f>
-        <v>-4.8964968152866259E-2</v>
+        <v>-4.2197452229299451E-2</v>
       </c>
       <c r="N26" s="116">
         <f>M26/L26*30</f>
-        <v>-3.7665360117589433E-2</v>
+        <v>-3.1648089171974585E-2</v>
       </c>
       <c r="O26" s="68"/>
       <c r="P26" s="69">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2803,31 +2803,31 @@
       </c>
       <c r="H28" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.79912700000000003</v>
+        <v>0.79747299999999999</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>59934.525000000001</v>
+        <v>59810.474999999999</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.26530799999999999</v>
+        <v>-0.26696200000000003</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-19898.099999999999</v>
+        <v>-20022.150000000001</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.24924772297040212</v>
+        <v>-0.25080159897034576</v>
       </c>
       <c r="N28" s="116">
         <f>M28/L28*30</f>
-        <v>-7.5529613021333972E-2</v>
+        <v>-7.5240479691103729E-2</v>
       </c>
       <c r="O28" s="68"/>
     </row>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="F29" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G29" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2858,35 +2858,35 @@
       </c>
       <c r="H29" s="64">
         <f>H28</f>
-        <v>0.79912700000000003</v>
+        <v>0.79747299999999999</v>
       </c>
       <c r="I29" s="51">
         <f>Sayfa2!$H29*Sayfa2!$G29</f>
-        <v>39956.35</v>
+        <v>39873.65</v>
       </c>
       <c r="J29" s="46">
         <f>H29-D29</f>
-        <v>-0.20407799999999987</v>
+        <v>-0.20573199999999991</v>
       </c>
       <c r="K29" s="65">
         <f>Sayfa2!$J29*Sayfa2!$C29</f>
-        <v>-10203.899999999994</v>
+        <v>-10286.599999999995</v>
       </c>
       <c r="L29" s="66">
         <f>F29-B29</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M29" s="67">
         <f>K29/E29</f>
-        <v>-0.20342601960715898</v>
+        <v>-0.20507473547280958</v>
       </c>
       <c r="N29" s="116">
         <f>M29/L29*30</f>
-        <v>-5.9250296972958923E-2</v>
+        <v>-5.9156173694079682E-2</v>
       </c>
       <c r="O29" s="70">
         <f>SUM(K13:K29)</f>
-        <v>-37550.541265</v>
+        <v>-36390.134982000018</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2925,50 +2925,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" ref="F31:F47" si="0">$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G31" s="63">
         <v>50</v>
       </c>
       <c r="H31" s="64">
         <f>Sayfa4!G10</f>
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>115969.5</v>
+        <v>116546.49999999999</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" ref="J31:J37" si="1">H31-D31</f>
-        <v>492.8599999999999</v>
+        <v>504.39999999999986</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>22178.699999999997</v>
+        <v>22697.999999999993</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" ref="L31:L37" si="2">F31-B31</f>
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" ref="M31:M37" si="3">K31/E31</f>
-        <v>0.26983405692761681</v>
+        <v>0.27615204787219472</v>
       </c>
       <c r="N31" s="116">
         <f t="shared" ref="N31:N37" si="4">M31/L31*30</f>
-        <v>3.5504481174686423E-2</v>
+        <v>3.6177124175396688E-2</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>115969.5</v>
+        <v>116546.49999999999</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>57.984749999999998</v>
+        <v>58.27324999999999</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2990,50 +2990,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G32" s="63">
         <v>11</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>25513.289999999997</v>
+        <v>25640.23</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1917.29</v>
+        <v>1928.83</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>21090.19</v>
+        <v>21217.129999999997</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>4.7681919920417801</v>
+        <v>4.7968913205670223</v>
       </c>
       <c r="N32" s="116">
         <f t="shared" si="4"/>
-        <v>0.11890753097361048</v>
+        <v>0.11952387011379625</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25513.289999999997</v>
+        <v>25640.23</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>12.756644999999999</v>
+        <v>12.820114999999999</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3055,50 +3055,50 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G33" s="63">
         <v>50</v>
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>115969.5</v>
+        <v>116546.49999999999</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>1850.5299999999997</v>
+        <v>1862.0699999999997</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>92526.499999999985</v>
+        <v>93103.499999999985</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>3.9468711342404976</v>
+        <v>3.9714840250821135</v>
       </c>
       <c r="N33" s="116">
         <f t="shared" si="4"/>
-        <v>8.6871705082329359E-2</v>
+        <v>8.734935539036906E-2</v>
       </c>
       <c r="O33" s="68"/>
       <c r="P33" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>115969.5</v>
+        <v>116546.49999999999</v>
       </c>
       <c r="Q33" s="1">
         <v>2000</v>
       </c>
       <c r="R33" s="1">
         <f>P33/Q33</f>
-        <v>57.984749999999998</v>
+        <v>58.27324999999999</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3128,36 +3128,36 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>57984.75</v>
+        <v>58273.249999999993</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>1919.52</v>
+        <v>1931.06</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>47988</v>
+        <v>48276.5</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>4.8003601170380374</v>
+        <v>4.8292194963363091</v>
       </c>
       <c r="N34" s="116">
         <f t="shared" si="4"/>
-        <v>0.10091857288797555</v>
+        <v>0.10145419109950229</v>
       </c>
       <c r="O34" s="68"/>
       <c r="R34" s="1">
         <f>SUM(R31:R33)</f>
-        <v>128.726145</v>
+        <v>129.36661499999997</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -3179,7 +3179,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3187,31 +3187,31 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>55665.36</v>
+        <v>55942.319999999992</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2045.58</v>
+        <v>2057.12</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>49093.919999999998</v>
+        <v>49370.879999999997</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>7.4708009203462247</v>
+        <v>7.5129469340053312</v>
       </c>
       <c r="N35" s="116">
         <f t="shared" si="4"/>
-        <v>0.1363284839479238</v>
+        <v>0.13701422979948932</v>
       </c>
       <c r="O35" s="68"/>
     </row>
@@ -3234,7 +3234,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3242,40 +3242,40 @@
       </c>
       <c r="H36" s="64">
         <f>H35</f>
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>2081.7999999999997</v>
+        <v>2093.3399999999997</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>2081.7999999999997</v>
+        <v>2093.3399999999997</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>8.7621532892798513</v>
+        <v>8.8107243570857339</v>
       </c>
       <c r="N36" s="116">
         <f t="shared" si="4"/>
-        <v>0.15989330819853742</v>
+        <v>0.16068190316873679</v>
       </c>
       <c r="O36" s="68"/>
       <c r="P36" s="6">
         <f>SUM(P31:P35)</f>
-        <v>257452.29</v>
+        <v>258733.22999999998</v>
       </c>
       <c r="R36" s="1">
         <f>P36/2220.32</f>
-        <v>115.95278608488866</v>
+        <v>116.52970292570438</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="F37" s="62">
         <f t="shared" si="0"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G37" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3305,43 +3305,43 @@
       </c>
       <c r="H37" s="64">
         <f>Sayfa4!C5</f>
-        <v>31.6645</v>
+        <v>31.783300000000001</v>
       </c>
       <c r="I37" s="51">
         <f>Sayfa2!$H37*Sayfa2!$G37</f>
-        <v>35147.595000000001</v>
+        <v>35279.463000000003</v>
       </c>
       <c r="J37" s="46">
         <f t="shared" si="1"/>
-        <v>16.6645</v>
+        <v>16.783300000000001</v>
       </c>
       <c r="K37" s="65">
         <f>Sayfa2!$J37*Sayfa2!$C37</f>
-        <v>18497.595000000001</v>
+        <v>18629.463</v>
       </c>
       <c r="L37" s="66">
         <f t="shared" si="2"/>
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M37" s="67">
         <f t="shared" si="3"/>
-        <v>1.1109666666666667</v>
+        <v>1.1188866666666666</v>
       </c>
       <c r="N37" s="116">
         <f t="shared" si="4"/>
-        <v>4.9523031203566124E-2</v>
+        <v>4.9802077151335306E-2</v>
       </c>
       <c r="O37" s="70">
         <f>SUM(K31:K37)</f>
-        <v>253456.70499999999</v>
+        <v>255388.81299999997</v>
       </c>
       <c r="P37" s="6">
         <f>SUM(P36:P36)</f>
-        <v>257452.29</v>
+        <v>258733.22999999998</v>
       </c>
       <c r="R37" s="1">
         <f>P37/2000</f>
-        <v>128.726145</v>
+        <v>129.366615</v>
       </c>
       <c r="T37" s="1" t="e">
         <f>P36/#REF!</f>
@@ -3387,7 +3387,7 @@
       <c r="N40" s="116"/>
       <c r="R40" s="1">
         <f>R37*2220.32</f>
-        <v>285813.23426640005</v>
+        <v>287235.28261679999</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="F45" s="62">
         <f t="shared" si="0"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G45" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="L45" s="66">
         <f t="shared" ref="L45" si="6">F45-B45</f>
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M45" s="67">
         <f t="shared" ref="M45" si="7">K45/E45</f>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="N45" s="116">
         <f t="shared" ref="N45" si="8">M45/L45*30</f>
-        <v>3.9343815994378806E-2</v>
+        <v>3.9284563259447514E-2</v>
       </c>
       <c r="O45" s="70"/>
     </row>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F46" s="62">
         <f t="shared" si="0"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G46" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="L46" s="66">
         <f>F46-B46</f>
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M46" s="67">
         <f>K46/E46</f>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="N46" s="116">
         <f>M46/L46*30</f>
-        <v>4.0561708961720032E-2</v>
+        <v>4.0500622050633102E-2</v>
       </c>
       <c r="O46" s="70"/>
     </row>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="F47" s="62">
         <f t="shared" si="0"/>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G47" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="L47" s="66">
         <f>F47-B47</f>
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M47" s="67">
         <f>K47/E47</f>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="F74" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G74" s="63">
         <v>12</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="L74" s="66">
         <f>F74-B74</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M74" s="116">
         <f>K74/E74</f>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="N74" s="116">
         <f>M74/L74*30</f>
-        <v>4.2337742396200792E-2</v>
+        <v>4.1161693996306328E-2</v>
       </c>
       <c r="O74" s="102"/>
     </row>
@@ -4645,7 +4645,7 @@
       </c>
       <c r="F75" s="62">
         <f>$B$2</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="G75" s="63">
         <v>15</v>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="L75" s="66">
         <f>F75-B75</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M75" s="116">
         <f>K75/E75</f>
@@ -4675,7 +4675,7 @@
       </c>
       <c r="N75" s="116">
         <f>M75/L75*30</f>
-        <v>4.2337742396200792E-2</v>
+        <v>4.1161693996306328E-2</v>
       </c>
       <c r="O75" s="102"/>
     </row>
@@ -5878,12 +5878,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM70"/>
+  <dimension ref="A4:AM71"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="topRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5935,51 +5935,51 @@
     <row r="5" spans="1:39">
       <c r="A5" s="117">
         <f>A10</f>
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="C5">
         <f>C10</f>
-        <v>31.6645</v>
+        <v>31.783300000000001</v>
       </c>
       <c r="E5">
         <f>E10</f>
-        <v>34.409799999999997</v>
+        <v>34.557899999999997</v>
       </c>
       <c r="G5">
         <f>G10</f>
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="I5">
         <f>I10</f>
-        <v>23.89</v>
+        <v>24.06</v>
       </c>
       <c r="K5">
         <f>K10</f>
-        <v>653.60767299999998</v>
+        <v>654.52437399999997</v>
       </c>
       <c r="M5">
         <f>M10</f>
-        <v>0.79912700000000003</v>
+        <v>0.79747299999999999</v>
       </c>
       <c r="O5" s="115">
         <f>Sayfa2!D3</f>
-        <v>146.27319640815085</v>
+        <v>148.06422442431608</v>
       </c>
       <c r="P5" s="118">
         <f>Sayfa2!K2</f>
-        <v>240473.134895</v>
+        <v>243565.64917799996</v>
       </c>
       <c r="Y5" s="115">
         <f>Y10</f>
-        <v>30.58</v>
+        <v>29.06</v>
       </c>
       <c r="AA5" s="115">
         <f>AA10</f>
-        <v>26.14</v>
+        <v>24.48</v>
       </c>
       <c r="AC5" s="115">
         <f>AC10</f>
-        <v>114.6</v>
+        <v>119</v>
       </c>
       <c r="AE5">
         <f>AE10</f>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM45</f>
+        <f>AM46</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -6087,371 +6087,369 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="117">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B10">
-        <f>B57</f>
+        <f>B58</f>
         <v>1110</v>
       </c>
       <c r="C10">
-        <v>31.6645</v>
+        <v>31.783300000000001</v>
       </c>
       <c r="D10">
-        <f>D57</f>
+        <f>D58</f>
         <v>321.99</v>
       </c>
       <c r="E10">
-        <v>34.409799999999997</v>
+        <v>34.557899999999997</v>
       </c>
       <c r="F10" s="112">
         <v>156</v>
       </c>
       <c r="G10">
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="H10" s="199">
         <v>7500</v>
       </c>
       <c r="I10" s="199">
-        <v>23.89</v>
+        <v>24.06</v>
       </c>
       <c r="J10">
         <v>210</v>
       </c>
       <c r="K10" s="137">
-        <v>653.60767299999998</v>
+        <v>654.52437399999997</v>
       </c>
       <c r="L10">
-        <f>L57</f>
+        <f>L58</f>
         <v>125000</v>
       </c>
       <c r="M10">
-        <v>0.79912700000000003</v>
+        <v>0.79747299999999999</v>
       </c>
       <c r="N10" s="113">
-        <f t="shared" ref="N10:N18" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>824375.53283199994</v>
+        <f t="shared" ref="N10:N19" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
+        <v>827616.08476100001</v>
       </c>
       <c r="O10">
-        <v>146.71</v>
+        <v>148.06</v>
       </c>
       <c r="P10">
-        <v>241190.1</v>
+        <v>243565.65</v>
       </c>
       <c r="Q10" s="115"/>
       <c r="R10" s="127" t="e">
-        <f>(1-(Q14/Q10))</f>
+        <f>(1-(Q15/Q10))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S10" s="116">
-        <f>(N10/$N$51)-1</f>
-        <v>0.55412105686267799</v>
+        <f>(N10/$N$52)-1</f>
+        <v>0.56023017799514885</v>
       </c>
       <c r="T10" s="114">
-        <f>(A10-$A$51)</f>
-        <v>85</v>
+        <f>(A10-$A$52)</f>
+        <v>86</v>
       </c>
       <c r="U10" s="116">
-        <f t="shared" ref="U10:U50" si="1">((N10/$N$51)-1)/T10*30</f>
-        <v>0.1955721377162393</v>
+        <f>((N10/$N$52)-1)/T10*30</f>
+        <v>0.19542913185877286</v>
       </c>
       <c r="V10" s="116"/>
       <c r="W10" s="116"/>
       <c r="X10" s="134"/>
       <c r="Y10" s="134">
-        <v>30.58</v>
+        <v>29.06</v>
       </c>
       <c r="Z10" s="134"/>
       <c r="AA10" s="134">
-        <v>26.14</v>
+        <v>24.48</v>
       </c>
       <c r="AB10">
         <v>10</v>
       </c>
       <c r="AC10" s="115">
-        <v>114.6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="117">
-        <v>45443</v>
+        <v>45447</v>
       </c>
       <c r="B11">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C11">
-        <v>31.576599999999999</v>
+        <v>31.6645</v>
       </c>
       <c r="D11">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E11">
-        <v>34.157400000000003</v>
+        <v>34.409799999999997</v>
       </c>
       <c r="F11" s="112">
         <v>156</v>
       </c>
       <c r="G11">
-        <v>2324.5500000000002</v>
+        <v>2319.39</v>
       </c>
       <c r="H11" s="199">
         <v>7500</v>
       </c>
       <c r="I11" s="199">
-        <v>24.04</v>
+        <v>23.89</v>
       </c>
       <c r="J11">
         <v>210</v>
       </c>
       <c r="K11" s="137">
-        <v>649.96368099999995</v>
+        <v>653.60767299999998</v>
       </c>
       <c r="L11">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M11">
-        <v>0.80517899999999998</v>
+        <v>0.79912700000000003</v>
       </c>
       <c r="N11" s="113">
-        <f t="shared" ref="N11" si="2">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
-        <v>826117.91523599997</v>
+        <f t="shared" ref="N11" si="1">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
+        <v>824375.53283199994</v>
       </c>
       <c r="O11">
-        <v>147.47</v>
+        <v>146.71</v>
       </c>
       <c r="P11">
-        <v>241854.59</v>
-      </c>
-      <c r="Q11" s="115">
-        <v>10400.48</v>
-      </c>
-      <c r="R11" s="127">
-        <f>(1-(Q15/Q11))</f>
-        <v>-2.4660400289217455E-2</v>
+        <v>241190.1</v>
+      </c>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="127" t="e">
+        <f>(1-(Q16/Q11))</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="S11" s="116">
-        <f>(N11/$N$51)-1</f>
-        <v>0.55740581371840481</v>
+        <f>(N11/$N$52)-1</f>
+        <v>0.55412105686267799</v>
       </c>
       <c r="T11" s="114">
-        <f>(A11-$A$51)</f>
-        <v>81</v>
+        <f>(A11-$A$52)</f>
+        <v>85</v>
       </c>
       <c r="U11" s="116">
-        <f t="shared" si="1"/>
-        <v>0.20644659767348328</v>
+        <f>((N11/$N$52)-1)/T11*30</f>
+        <v>0.1955721377162393</v>
       </c>
       <c r="V11" s="116"/>
       <c r="W11" s="116"/>
       <c r="X11" s="134"/>
       <c r="Y11" s="134">
-        <v>27.94</v>
+        <v>30.58</v>
       </c>
       <c r="Z11" s="134"/>
       <c r="AA11" s="134">
-        <v>24.08</v>
+        <v>26.14</v>
       </c>
       <c r="AB11">
         <v>10</v>
       </c>
       <c r="AC11" s="115">
-        <v>116</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="117">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B12">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.554500000000001</v>
+        <v>31.576599999999999</v>
       </c>
       <c r="D12">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>34.104100000000003</v>
+        <v>34.157400000000003</v>
       </c>
       <c r="F12" s="112">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2317.36</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="H12" s="199">
         <v>7500</v>
       </c>
       <c r="I12" s="199">
-        <v>24</v>
+        <v>24.04</v>
       </c>
       <c r="J12">
         <v>210</v>
       </c>
       <c r="K12" s="137">
-        <v>649.05997200000002</v>
+        <v>649.96368099999995</v>
       </c>
       <c r="L12">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.78746400000000005</v>
+        <v>0.80517899999999998</v>
       </c>
       <c r="N12" s="113">
-        <f t="shared" ref="N12" si="3">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
-        <v>822250.4282790001</v>
+        <f t="shared" ref="N12" si="2">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
+        <v>826117.91523599997</v>
       </c>
       <c r="O12">
-        <v>145.25</v>
+        <v>147.47</v>
       </c>
       <c r="P12">
-        <v>238057.84</v>
+        <v>241854.59</v>
       </c>
       <c r="Q12" s="115">
-        <v>10481.299999999999</v>
+        <v>10400.48</v>
       </c>
       <c r="R12" s="127">
-        <f>(1-(Q15/Q12))</f>
-        <v>-1.6759371452014449E-2</v>
+        <f>(1-(Q16/Q12))</f>
+        <v>-2.4660400289217455E-2</v>
       </c>
       <c r="S12" s="116">
-        <f>(N12/$N$51)-1</f>
-        <v>0.55011478835722394</v>
+        <f>(N12/$N$52)-1</f>
+        <v>0.55740581371840481</v>
       </c>
       <c r="T12" s="114">
-        <f>(A12-$A$51)</f>
-        <v>80</v>
+        <f>(A12-$A$52)</f>
+        <v>81</v>
       </c>
       <c r="U12" s="116">
-        <f t="shared" si="1"/>
-        <v>0.20629304563395898</v>
+        <f>((N12/$N$52)-1)/T12*30</f>
+        <v>0.20644659767348328</v>
       </c>
       <c r="V12" s="116"/>
       <c r="W12" s="116"/>
       <c r="X12" s="134"/>
       <c r="Y12" s="134">
-        <v>28.24</v>
+        <v>27.94</v>
       </c>
       <c r="Z12" s="134"/>
       <c r="AA12" s="134">
-        <v>24.78</v>
+        <v>24.08</v>
       </c>
       <c r="AB12">
         <v>10</v>
       </c>
       <c r="AC12" s="115">
-        <v>119.1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="117">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B13">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C13">
-        <v>31.4527</v>
+        <v>31.554500000000001</v>
       </c>
       <c r="D13">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E13">
-        <v>34.006700000000002</v>
+        <v>34.104100000000003</v>
       </c>
       <c r="F13" s="112">
         <v>156</v>
       </c>
       <c r="G13">
-        <v>2331.79</v>
+        <v>2317.36</v>
       </c>
       <c r="H13" s="199">
         <v>7500</v>
       </c>
       <c r="I13" s="199">
-        <v>23.99</v>
+        <v>24</v>
       </c>
       <c r="J13">
         <v>210</v>
       </c>
-      <c r="K13">
-        <v>648.15704900000003</v>
+      <c r="K13" s="137">
+        <v>649.05997200000002</v>
       </c>
       <c r="L13">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M13">
-        <v>0.81522399999999995</v>
+        <v>0.78746400000000005</v>
       </c>
       <c r="N13" s="113">
-        <f t="shared" ref="N13" si="4">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
-        <v>827562.53462299996</v>
+        <f t="shared" ref="N13" si="3">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
+        <v>822250.4282790001</v>
       </c>
       <c r="O13">
-        <v>148.58000000000001</v>
+        <v>145.25</v>
       </c>
       <c r="P13">
-        <v>243375.9</v>
+        <v>238057.84</v>
       </c>
       <c r="Q13" s="115">
-        <v>10514.86</v>
+        <v>10481.299999999999</v>
       </c>
       <c r="R13" s="127">
-        <f>(1-(Q15/Q13))</f>
-        <v>-1.3514207512035137E-2</v>
+        <f>(1-(Q16/Q13))</f>
+        <v>-1.6759371452014449E-2</v>
       </c>
       <c r="S13" s="116">
-        <f>(N13/$N$51)-1</f>
-        <v>0.56012922473568239</v>
+        <f>(N13/$N$52)-1</f>
+        <v>0.55011478835722394</v>
       </c>
       <c r="T13" s="114">
-        <f>(A13-$A$51)</f>
-        <v>79</v>
+        <f>(A13-$A$52)</f>
+        <v>80</v>
       </c>
       <c r="U13" s="116">
-        <f t="shared" si="1"/>
-        <v>0.21270730053253761</v>
+        <f>((N13/$N$52)-1)/T13*30</f>
+        <v>0.20629304563395898</v>
       </c>
       <c r="V13" s="116"/>
       <c r="W13" s="116"/>
       <c r="X13" s="134"/>
       <c r="Y13" s="134">
-        <v>28.18</v>
+        <v>28.24</v>
       </c>
       <c r="Z13" s="134"/>
       <c r="AA13" s="134">
-        <v>24.8</v>
+        <v>24.78</v>
       </c>
       <c r="AB13">
         <v>10</v>
       </c>
       <c r="AC13" s="115">
-        <v>119.6</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="117">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="B14">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C14">
         <v>31.4527</v>
       </c>
       <c r="D14">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E14">
@@ -6473,43 +6471,43 @@
         <v>210</v>
       </c>
       <c r="K14">
-        <v>647.25598100000002</v>
+        <v>648.15704900000003</v>
       </c>
       <c r="L14">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M14">
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="N14" s="113">
-        <f t="shared" si="0"/>
-        <v>833145.31034299999</v>
+        <f t="shared" ref="N14" si="4">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
+        <v>827562.53462299996</v>
       </c>
       <c r="O14">
-        <v>153.71</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="P14">
-        <v>251476.74</v>
+        <v>243375.9</v>
       </c>
       <c r="Q14" s="115">
-        <v>10677.49</v>
+        <v>10514.86</v>
       </c>
       <c r="R14" s="127">
-        <f t="shared" ref="R14:R28" si="5">(1-(Q15/Q14))</f>
-        <v>1.9227365232841187E-3</v>
+        <f>(1-(Q16/Q14))</f>
+        <v>-1.3514207512035137E-2</v>
       </c>
       <c r="S14" s="116">
-        <f t="shared" ref="S14" si="6">(N14/$N$51)-1</f>
-        <v>0.57065392974771467</v>
+        <f>(N14/$N$52)-1</f>
+        <v>0.56012922473568239</v>
       </c>
       <c r="T14" s="114">
-        <f t="shared" ref="T14" si="7">(A14-$A$51)</f>
-        <v>78</v>
+        <f>(A14-$A$52)</f>
+        <v>79</v>
       </c>
       <c r="U14" s="116">
-        <f t="shared" si="1"/>
-        <v>0.21948228067219797</v>
+        <f>((N14/$N$52)-1)/T14*30</f>
+        <v>0.21270730053253761</v>
       </c>
       <c r="V14" s="116"/>
       <c r="W14" s="116"/>
@@ -6530,42 +6528,42 @@
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="117">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="B15">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.436</v>
+        <v>31.4527</v>
       </c>
       <c r="D15">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>34.100200000000001</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F15" s="112">
         <v>156</v>
       </c>
       <c r="G15">
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="H15" s="199">
         <v>7500</v>
       </c>
       <c r="I15" s="199">
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="J15">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K15">
-        <v>646.30405299999995</v>
+        <v>647.25598100000002</v>
       </c>
       <c r="L15">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M15">
@@ -6573,7 +6571,7 @@
       </c>
       <c r="N15" s="113">
         <f t="shared" si="0"/>
-        <v>719037.96498799999</v>
+        <v>833145.31034299999</v>
       </c>
       <c r="O15">
         <v>153.71</v>
@@ -6582,354 +6580,354 @@
         <v>251476.74</v>
       </c>
       <c r="Q15" s="115">
-        <v>10656.96</v>
+        <v>10677.49</v>
       </c>
       <c r="R15" s="127">
-        <f t="shared" si="5"/>
-        <v>-1.8476188331382204E-3</v>
+        <f t="shared" ref="R15:R29" si="5">(1-(Q16/Q15))</f>
+        <v>1.9227365232841187E-3</v>
       </c>
       <c r="S15" s="116">
-        <f t="shared" ref="S15" si="8">(N15/$N$51)-1</f>
-        <v>0.35553761309807119</v>
+        <f t="shared" ref="S15" si="6">(N15/$N$52)-1</f>
+        <v>0.57065392974771467</v>
       </c>
       <c r="T15" s="114">
-        <f t="shared" ref="T15" si="9">(A15-$A$51)</f>
-        <v>77</v>
+        <f t="shared" ref="T15" si="7">(A15-$A$52)</f>
+        <v>78</v>
       </c>
       <c r="U15" s="116">
-        <f t="shared" si="1"/>
-        <v>0.13852114796028747</v>
+        <f>((N15/$N$52)-1)/T15*30</f>
+        <v>0.21948228067219797</v>
       </c>
       <c r="V15" s="116"/>
       <c r="W15" s="116"/>
       <c r="X15" s="134"/>
       <c r="Y15" s="134">
-        <v>32.36</v>
+        <v>28.18</v>
       </c>
       <c r="Z15" s="134"/>
       <c r="AA15" s="134">
-        <v>23.08</v>
+        <v>24.8</v>
       </c>
       <c r="AB15">
         <v>10</v>
       </c>
       <c r="AC15" s="115">
-        <v>124</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="117">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="B16">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C16">
-        <v>31.4588</v>
+        <v>31.436</v>
       </c>
       <c r="D16">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E16">
-        <v>34.044699999999999</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="F16" s="112">
         <v>156</v>
       </c>
       <c r="G16">
-        <v>2363.8000000000002</v>
+        <v>2331.41</v>
       </c>
       <c r="H16" s="199">
         <v>7500</v>
       </c>
       <c r="I16" s="199">
-        <v>24.45</v>
+        <v>24.32</v>
       </c>
       <c r="J16">
         <v>30</v>
       </c>
       <c r="K16">
-        <v>642.69199700000001</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="L16">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M16">
-        <v>0.87326400000000004</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N16" s="113">
         <f t="shared" si="0"/>
-        <v>726447.88086300006</v>
+        <v>719037.96498799999</v>
       </c>
       <c r="O16">
-        <v>158.78</v>
+        <v>153.71</v>
       </c>
       <c r="P16">
-        <v>259129.45</v>
+        <v>251476.74</v>
       </c>
       <c r="Q16" s="115">
-        <v>10676.65</v>
+        <v>10656.96</v>
       </c>
       <c r="R16" s="127">
         <f t="shared" si="5"/>
-        <v>-1.4329401076180304E-2</v>
+        <v>-1.8476188331382204E-3</v>
       </c>
       <c r="S16" s="116">
-        <f>(N16/$N$51)-1</f>
-        <v>0.36950686113161924</v>
+        <f t="shared" ref="S16" si="8">(N16/$N$52)-1</f>
+        <v>0.35553761309807119</v>
       </c>
       <c r="T16" s="114">
-        <f>(A16-$A$51)</f>
-        <v>73</v>
+        <f t="shared" ref="T16" si="9">(A16-$A$52)</f>
+        <v>77</v>
       </c>
       <c r="U16" s="116">
-        <f t="shared" si="1"/>
-        <v>0.15185213471162434</v>
+        <f>((N16/$N$52)-1)/T16*30</f>
+        <v>0.13852114796028747</v>
       </c>
       <c r="V16" s="116"/>
       <c r="W16" s="116"/>
       <c r="X16" s="134"/>
       <c r="Y16" s="134">
-        <v>34.299999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="Z16" s="134"/>
       <c r="AA16" s="134">
-        <v>27.92</v>
+        <v>23.08</v>
       </c>
       <c r="AB16">
         <v>10</v>
       </c>
       <c r="AC16" s="115">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="117">
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="B17">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C17">
-        <v>31.469899999999999</v>
+        <v>31.4588</v>
       </c>
       <c r="D17">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E17">
-        <v>34.182699999999997</v>
+        <v>34.044699999999999</v>
       </c>
       <c r="F17" s="112">
         <v>156</v>
       </c>
       <c r="G17">
-        <v>2416.92</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="H17" s="199">
         <v>7500</v>
       </c>
       <c r="I17" s="199">
-        <v>24.91</v>
+        <v>24.45</v>
       </c>
       <c r="J17">
         <v>30</v>
       </c>
       <c r="K17">
-        <v>641.00899600000002</v>
+        <v>642.69199700000001</v>
       </c>
       <c r="L17">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M17">
-        <v>0.86580400000000002</v>
+        <v>0.87326400000000004</v>
       </c>
       <c r="N17" s="113">
         <f t="shared" si="0"/>
-        <v>737258.36645300011</v>
+        <v>726447.88086300006</v>
       </c>
       <c r="O17">
-        <v>165.69</v>
+        <v>158.78</v>
       </c>
       <c r="P17">
-        <v>269993.23</v>
+        <v>259129.45</v>
       </c>
       <c r="Q17" s="115">
-        <v>10829.64</v>
+        <v>10676.65</v>
       </c>
       <c r="R17" s="127">
         <f t="shared" si="5"/>
-        <v>8.3169892997366768E-3</v>
+        <v>-1.4329401076180304E-2</v>
       </c>
       <c r="S17" s="116">
-        <f>(N17/$N$51)-1</f>
-        <v>0.38988689743936056</v>
+        <f>(N17/$N$52)-1</f>
+        <v>0.36950686113161924</v>
       </c>
       <c r="T17" s="114">
-        <f>(A17-$A$51)</f>
-        <v>71</v>
+        <f>(A17-$A$52)</f>
+        <v>73</v>
       </c>
       <c r="U17" s="116">
-        <f t="shared" si="1"/>
-        <v>0.16474094258001151</v>
+        <f>((N17/$N$52)-1)/T17*30</f>
+        <v>0.15185213471162434</v>
       </c>
       <c r="V17" s="116"/>
       <c r="W17" s="116"/>
       <c r="X17" s="134"/>
       <c r="Y17" s="134">
-        <v>34.799999999999997</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z17" s="134"/>
       <c r="AA17" s="134">
-        <v>28.52</v>
+        <v>27.92</v>
       </c>
       <c r="AB17">
         <v>10</v>
       </c>
       <c r="AC17" s="115">
-        <v>123.5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="117">
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="B18">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>31.5244</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="D18">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>34.005400000000002</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="F18" s="112">
         <v>156</v>
       </c>
       <c r="G18">
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="H18" s="199">
         <v>7500</v>
       </c>
       <c r="I18" s="199">
-        <v>24.41</v>
+        <v>24.91</v>
       </c>
       <c r="J18">
         <v>30</v>
       </c>
       <c r="K18">
-        <v>634.98375399999998</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="L18">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M18">
-        <v>0.84950000000000003</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="N18" s="113">
         <f t="shared" si="0"/>
-        <v>720006.41536600015</v>
+        <v>737258.36645300011</v>
       </c>
       <c r="O18">
-        <v>158.43</v>
+        <v>165.69</v>
       </c>
       <c r="P18">
-        <v>256973.54</v>
+        <v>269993.23</v>
       </c>
       <c r="Q18" s="115">
-        <v>10739.57</v>
+        <v>10829.64</v>
       </c>
       <c r="R18" s="127">
         <f t="shared" si="5"/>
-        <v>5.0241303888330702E-2</v>
+        <v>8.3169892997366768E-3</v>
       </c>
       <c r="S18" s="116">
-        <f>(N18/$N$51)-1</f>
-        <v>0.35736334550403681</v>
+        <f>(N18/$N$52)-1</f>
+        <v>0.38988689743936056</v>
       </c>
       <c r="T18" s="114">
-        <f>(A18-$A$51)</f>
-        <v>64</v>
+        <f>(A18-$A$52)</f>
+        <v>71</v>
       </c>
       <c r="U18" s="116">
-        <f t="shared" si="1"/>
-        <v>0.16751406820501724</v>
+        <f>((N18/$N$52)-1)/T18*30</f>
+        <v>0.16474094258001151</v>
       </c>
       <c r="V18" s="116"/>
       <c r="W18" s="116"/>
       <c r="X18" s="134"/>
       <c r="Y18" s="134">
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Z18" s="134"/>
       <c r="AA18" s="134">
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AB18">
         <v>10</v>
       </c>
       <c r="AC18" s="115">
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="117">
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="B19">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>31.371600000000001</v>
+        <v>31.5244</v>
       </c>
       <c r="D19">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>33.871899999999997</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F19" s="112">
         <v>156</v>
       </c>
       <c r="G19">
-        <v>2341.31</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H19" s="199">
         <v>7500</v>
       </c>
       <c r="I19" s="199">
-        <v>24.47</v>
+        <v>24.41</v>
       </c>
       <c r="J19">
         <v>30</v>
       </c>
       <c r="K19">
-        <v>634.10149999999999</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L19">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M19">
-        <v>0.88511899999999999</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N19" s="113">
-        <f t="shared" ref="N19:N27" si="10">(F19*G19)+(B19*C19)+(D19*E19)+(L19*M19)+(H19*I19)+(J19*K19)</f>
-        <v>724161.16908100003</v>
+        <f t="shared" si="0"/>
+        <v>720006.41536600015</v>
       </c>
       <c r="O19">
         <v>158.43</v>
@@ -6938,23 +6936,23 @@
         <v>256973.54</v>
       </c>
       <c r="Q19" s="115">
-        <v>10200</v>
+        <v>10739.57</v>
       </c>
       <c r="R19" s="127">
         <f t="shared" si="5"/>
-        <v>-6.7235294117646838E-3</v>
+        <v>5.0241303888330702E-2</v>
       </c>
       <c r="S19" s="116">
-        <f>(N19/$N$51)-1</f>
-        <v>0.36519592905049159</v>
+        <f>(N19/$N$52)-1</f>
+        <v>0.35736334550403681</v>
       </c>
       <c r="T19" s="114">
-        <f>(A19-$A$51)</f>
-        <v>63</v>
+        <f>(A19-$A$52)</f>
+        <v>64</v>
       </c>
       <c r="U19" s="116">
-        <f t="shared" si="1"/>
-        <v>0.17390282335737695</v>
+        <f>((N19/$N$52)-1)/T19*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V19" s="116"/>
       <c r="W19" s="116"/>
@@ -6975,139 +6973,139 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="117">
-        <v>45421</v>
+        <v>45425</v>
       </c>
       <c r="B20">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.712</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D20">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>34.055500000000002</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F20" s="112">
         <v>156</v>
       </c>
       <c r="G20">
-        <v>2333.16</v>
+        <v>2341.31</v>
       </c>
       <c r="H20" s="199">
         <v>7500</v>
       </c>
       <c r="I20" s="199">
-        <v>24.39</v>
+        <v>24.47</v>
       </c>
       <c r="J20">
         <v>30</v>
       </c>
       <c r="K20">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L20">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M20">
-        <v>0.90642500000000004</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N20" s="113">
-        <f t="shared" si="10"/>
-        <v>725052.22388499998</v>
+        <f t="shared" ref="N20:N28" si="10">(F20*G20)+(B20*C20)+(D20*E20)+(L20*M20)+(H20*I20)+(J20*K20)</f>
+        <v>724161.16908100003</v>
       </c>
       <c r="O20">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P20">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q20" s="115">
-        <v>10268.58</v>
+        <v>10200</v>
       </c>
       <c r="R20" s="127">
         <f t="shared" si="5"/>
-        <v>2.1701150499874422E-2</v>
+        <v>-6.7235294117646838E-3</v>
       </c>
       <c r="S20" s="116">
-        <f>(N20/$N$51)-1</f>
-        <v>0.36687575454089361</v>
+        <f>(N20/$N$52)-1</f>
+        <v>0.36519592905049159</v>
       </c>
       <c r="T20" s="114">
-        <f>(A20-$A$51)</f>
-        <v>59</v>
+        <f>(A20-$A$52)</f>
+        <v>63</v>
       </c>
       <c r="U20" s="116">
-        <f t="shared" si="1"/>
-        <v>0.18654699383435269</v>
+        <f>((N20/$N$52)-1)/T20*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V20" s="116"/>
       <c r="W20" s="116"/>
       <c r="X20" s="134"/>
       <c r="Y20" s="134">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z20" s="134"/>
       <c r="AA20" s="134">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB20">
         <v>10</v>
       </c>
       <c r="AC20" s="115">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="117">
-        <v>45412</v>
+        <v>45421</v>
       </c>
       <c r="B21">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.771699999999999</v>
+        <v>31.712</v>
       </c>
       <c r="D21">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.014699999999998</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F21" s="112">
         <v>156</v>
       </c>
       <c r="G21">
-        <v>2341.2800000000002</v>
+        <v>2333.16</v>
       </c>
       <c r="H21" s="199">
         <v>7500</v>
       </c>
       <c r="I21" s="199">
-        <v>24.71</v>
+        <v>24.39</v>
       </c>
       <c r="J21">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K21">
         <v>622.84294799999998</v>
       </c>
       <c r="L21">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M21">
-        <v>0.90242599999999995</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N21" s="113">
         <f t="shared" si="10"/>
-        <v>769379.83326099999</v>
+        <v>725052.22388499998</v>
       </c>
       <c r="O21">
         <v>167.1</v>
@@ -7116,29 +7114,29 @@
         <v>268201.53000000003</v>
       </c>
       <c r="Q21" s="115">
-        <v>10045.74</v>
+        <v>10268.58</v>
       </c>
       <c r="R21" s="127">
         <f t="shared" si="5"/>
-        <v>1.2952754102733999E-2</v>
+        <v>2.1701150499874422E-2</v>
       </c>
       <c r="S21" s="116">
-        <f t="shared" ref="S21" si="11">(N21/$N$51)-1</f>
-        <v>0.45044261016428133</v>
+        <f>(N21/$N$52)-1</f>
+        <v>0.36687575454089361</v>
       </c>
       <c r="T21" s="114">
-        <f t="shared" ref="T21" si="12">(A21-$A$51)</f>
-        <v>50</v>
+        <f>(A21-$A$52)</f>
+        <v>59</v>
       </c>
       <c r="U21" s="116">
-        <f t="shared" si="1"/>
-        <v>0.27026556609856883</v>
+        <f>((N21/$N$52)-1)/T21*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V21" s="116"/>
       <c r="W21" s="116"/>
       <c r="X21" s="134"/>
       <c r="Y21" s="134">
-        <v>37.39</v>
+        <v>37.4</v>
       </c>
       <c r="Z21" s="134"/>
       <c r="AA21" s="134">
@@ -7148,106 +7146,111 @@
         <v>10</v>
       </c>
       <c r="AC21" s="115">
-        <v>125.1</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="117">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B22">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D22">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F22" s="112">
         <v>156</v>
       </c>
       <c r="G22">
-        <v>2384.1799999999998</v>
+        <v>2341.2800000000002</v>
       </c>
       <c r="H22" s="199">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I22" s="199">
-        <v>24.91</v>
+        <v>24.71</v>
+      </c>
+      <c r="J22">
+        <v>96</v>
+      </c>
+      <c r="K22">
+        <v>622.84294799999998</v>
       </c>
       <c r="L22">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M22">
-        <v>0.89855499999999999</v>
+        <v>0.90242599999999995</v>
       </c>
       <c r="N22" s="113">
         <f t="shared" si="10"/>
-        <v>655301.58439900004</v>
+        <v>769379.83326099999</v>
       </c>
       <c r="O22">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P22">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q22" s="115">
-        <v>9915.6200000000008</v>
+        <v>10045.74</v>
       </c>
       <c r="R22" s="127">
         <f t="shared" si="5"/>
-        <v>2.5330740790792672E-2</v>
+        <v>1.2952754102733999E-2</v>
       </c>
       <c r="S22" s="116">
-        <f t="shared" ref="S22:S51" si="13">(N22/$N$51)-1</f>
-        <v>0.23538114651627517</v>
+        <f t="shared" ref="S22" si="11">(N22/$N$52)-1</f>
+        <v>0.45044261016428133</v>
       </c>
       <c r="T22" s="114">
-        <f t="shared" ref="T22:T51" si="14">(A22-$A$51)</f>
-        <v>49</v>
+        <f t="shared" ref="T22" si="12">(A22-$A$52)</f>
+        <v>50</v>
       </c>
       <c r="U22" s="116">
-        <f t="shared" si="1"/>
-        <v>0.14411090603037255</v>
+        <f>((N22/$N$52)-1)/T22*30</f>
+        <v>0.27026556609856883</v>
       </c>
       <c r="V22" s="116"/>
       <c r="W22" s="116"/>
-      <c r="X22" s="112">
-        <v>35</v>
-      </c>
-      <c r="Y22" s="128">
-        <f>Y25</f>
+      <c r="X22" s="134"/>
+      <c r="Y22" s="134">
         <v>37.39</v>
       </c>
-      <c r="Z22" s="112">
-        <v>40</v>
-      </c>
-      <c r="AA22" s="128">
-        <f>AA25</f>
+      <c r="Z22" s="134"/>
+      <c r="AA22" s="134">
         <v>30.5</v>
       </c>
-      <c r="AB22"/>
+      <c r="AB22">
+        <v>10</v>
+      </c>
+      <c r="AC22" s="115">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="117">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B23">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C23">
         <v>31.948</v>
       </c>
       <c r="D23">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E23">
@@ -7260,21 +7263,21 @@
         <v>2384.1799999999998</v>
       </c>
       <c r="H23" s="199">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="I23" s="199">
-        <v>25.11</v>
+        <v>24.91</v>
       </c>
       <c r="L23">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.89607400000000004</v>
+        <v>0.89855499999999999</v>
       </c>
       <c r="N23" s="113">
         <f t="shared" si="10"/>
-        <v>593216.45939900004</v>
+        <v>655301.58439900004</v>
       </c>
       <c r="O23">
         <v>167.61</v>
@@ -7283,195 +7286,198 @@
         <v>269021.68</v>
       </c>
       <c r="Q23" s="115">
-        <v>9664.4500000000007</v>
+        <v>9915.6200000000008</v>
       </c>
       <c r="R23" s="127">
         <f t="shared" si="5"/>
+        <v>2.5330740790792672E-2</v>
+      </c>
+      <c r="S23" s="116">
+        <f t="shared" ref="S23:S52" si="13">(N23/$N$52)-1</f>
+        <v>0.23538114651627517</v>
+      </c>
+      <c r="T23" s="114">
+        <f t="shared" ref="T23:T52" si="14">(A23-$A$52)</f>
+        <v>49</v>
+      </c>
+      <c r="U23" s="116">
+        <f>((N23/$N$52)-1)/T23*30</f>
+        <v>0.14411090603037255</v>
+      </c>
+      <c r="V23" s="116"/>
+      <c r="W23" s="116"/>
+      <c r="X23" s="112">
+        <v>35</v>
+      </c>
+      <c r="Y23" s="128">
+        <f>Y26</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z23" s="112">
+        <v>40</v>
+      </c>
+      <c r="AA23" s="128">
+        <f>AA26</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB23"/>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" s="117">
+        <v>45408</v>
+      </c>
+      <c r="B24">
+        <f>B59</f>
+        <v>1110</v>
+      </c>
+      <c r="C24">
+        <v>31.948</v>
+      </c>
+      <c r="D24">
+        <f>D59</f>
+        <v>321.99</v>
+      </c>
+      <c r="E24">
+        <v>34.280099999999997</v>
+      </c>
+      <c r="F24" s="112">
+        <v>156</v>
+      </c>
+      <c r="G24">
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H24" s="199">
+        <v>2500</v>
+      </c>
+      <c r="I24" s="199">
+        <v>25.11</v>
+      </c>
+      <c r="L24">
+        <f>L59</f>
+        <v>125000</v>
+      </c>
+      <c r="M24">
+        <v>0.89607400000000004</v>
+      </c>
+      <c r="N24" s="113">
+        <f t="shared" si="10"/>
+        <v>593216.45939900004</v>
+      </c>
+      <c r="O24">
+        <v>167.61</v>
+      </c>
+      <c r="P24">
+        <v>269021.68</v>
+      </c>
+      <c r="Q24" s="115">
+        <v>9664.4500000000007</v>
+      </c>
+      <c r="R24" s="127">
+        <f t="shared" si="5"/>
         <v>-5.7478697701369708E-3</v>
       </c>
-      <c r="S23" s="116">
+      <c r="S24" s="116">
         <f t="shared" si="13"/>
         <v>0.11833764360082077</v>
       </c>
-      <c r="T23" s="114">
+      <c r="T24" s="114">
         <f t="shared" si="14"/>
         <v>46</v>
       </c>
-      <c r="U23" s="116">
-        <f t="shared" si="1"/>
+      <c r="U24" s="116">
+        <f>((N24/$N$52)-1)/T24*30</f>
         <v>7.7176724087491808E-2</v>
       </c>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="112" t="s">
+      <c r="V24" s="116"/>
+      <c r="W24" s="116"/>
+      <c r="X24" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="Y23" s="129" t="s">
+      <c r="Y24" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="Z23" s="112" t="s">
+      <c r="Z24" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="AA23" s="129" t="s">
+      <c r="AA24" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="AB23">
+      <c r="AB24">
         <v>10</v>
       </c>
-      <c r="AC23" s="115">
+      <c r="AC24" s="115">
         <v>148.5</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
-      <c r="A24" s="117">
+    <row r="25" spans="1:29">
+      <c r="A25" s="117">
         <v>45407</v>
       </c>
-      <c r="B24">
-        <f>B58</f>
+      <c r="B25">
+        <f>B59</f>
         <v>1110</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>32.0291</v>
       </c>
-      <c r="D24">
-        <f>D58</f>
+      <c r="D25">
+        <f>D59</f>
         <v>321.99</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>34.322299999999998</v>
       </c>
-      <c r="F24" s="112">
+      <c r="F25" s="112">
         <v>156</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>2368.4699999999998</v>
       </c>
-      <c r="L24">
-        <f>L58</f>
+      <c r="L25">
+        <f>L59</f>
         <v>125000</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <v>0.90609700000000004</v>
       </c>
-      <c r="N24" s="113">
+      <c r="N25" s="113">
         <f t="shared" si="10"/>
         <v>529347.18337699992</v>
       </c>
-      <c r="O24">
+      <c r="O25">
         <v>167.13</v>
       </c>
-      <c r="P24">
+      <c r="P25">
         <v>268083.81</v>
       </c>
-      <c r="Q24" s="115">
+      <c r="Q25" s="115">
         <v>9720</v>
       </c>
-      <c r="R24" s="127">
+      <c r="R25" s="127">
         <f t="shared" si="5"/>
         <v>-2.1502057613176362E-4</v>
       </c>
-      <c r="S24" s="116">
+      <c r="S25" s="116">
         <f t="shared" si="13"/>
         <v>-2.0693587896702947E-3</v>
       </c>
-      <c r="T24" s="114">
+      <c r="T25" s="114">
         <f t="shared" si="14"/>
         <v>45</v>
       </c>
-      <c r="U24" s="116">
-        <f t="shared" si="1"/>
+      <c r="U25" s="116">
+        <f>((N25/$N$52)-1)/T25*30</f>
         <v>-1.379572526446863E-3</v>
-      </c>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="112"/>
-      <c r="Y24" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z24" s="112"/>
-      <c r="AA24" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB24">
-        <v>10</v>
-      </c>
-      <c r="AC24" s="115">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29">
-      <c r="A25" s="117">
-        <v>45406</v>
-      </c>
-      <c r="B25">
-        <f>B58</f>
-        <v>1110</v>
-      </c>
-      <c r="C25">
-        <v>31.928699999999999</v>
-      </c>
-      <c r="D25">
-        <f>D58</f>
-        <v>321.99</v>
-      </c>
-      <c r="E25">
-        <v>33.972000000000001</v>
-      </c>
-      <c r="F25" s="112">
-        <v>156</v>
-      </c>
-      <c r="G25">
-        <v>2380.13</v>
-      </c>
-      <c r="L25">
-        <f>L58</f>
-        <v>125000</v>
-      </c>
-      <c r="M25">
-        <v>0.88805999999999996</v>
-      </c>
-      <c r="N25" s="113">
-        <f t="shared" si="10"/>
-        <v>528687.28128</v>
-      </c>
-      <c r="O25">
-        <v>166.96</v>
-      </c>
-      <c r="P25">
-        <v>267307.03000000003</v>
-      </c>
-      <c r="Q25" s="115">
-        <v>9722.09</v>
-      </c>
-      <c r="R25" s="127">
-        <f t="shared" si="5"/>
-        <v>7.927307811386175E-3</v>
-      </c>
-      <c r="S25" s="116">
-        <f t="shared" si="13"/>
-        <v>-3.3134128688740994E-3</v>
-      </c>
-      <c r="T25" s="114">
-        <f t="shared" si="14"/>
-        <v>44</v>
-      </c>
-      <c r="U25" s="116">
-        <f t="shared" si="1"/>
-        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V25" s="116"/>
       <c r="W25" s="116"/>
-      <c r="X25" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y25" s="131">
-        <v>37.39</v>
-      </c>
-      <c r="Z25" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA25" s="131">
-        <v>30.5</v>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="AB25">
         <v>10</v>
@@ -7482,17 +7488,17 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="117">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="B26">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C26">
         <v>31.928699999999999</v>
       </c>
       <c r="D26">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E26">
@@ -7505,7 +7511,7 @@
         <v>2380.13</v>
       </c>
       <c r="L26">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M26">
@@ -7522,11 +7528,11 @@
         <v>267307.03000000003</v>
       </c>
       <c r="Q26" s="115">
-        <v>9645.02</v>
+        <v>9722.09</v>
       </c>
       <c r="R26" s="127">
         <f t="shared" si="5"/>
-        <v>-5.0222809283961833E-3</v>
+        <v>7.927307811386175E-3</v>
       </c>
       <c r="S26" s="116">
         <f t="shared" si="13"/>
@@ -7534,326 +7540,334 @@
       </c>
       <c r="T26" s="114">
         <f t="shared" si="14"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U26" s="116">
-        <f t="shared" si="1"/>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N26/$N$52)-1)/T26*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V26" s="116"/>
       <c r="W26" s="116"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="116" t="e">
+      <c r="X26" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y26" s="131">
+        <v>37.39</v>
+      </c>
+      <c r="Z26" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA26" s="131">
+        <v>30.5</v>
+      </c>
+      <c r="AB26">
+        <v>10</v>
+      </c>
+      <c r="AC26" s="115">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" s="117">
+        <v>45404</v>
+      </c>
+      <c r="B27">
+        <f>B59</f>
+        <v>1110</v>
+      </c>
+      <c r="C27">
+        <v>31.928699999999999</v>
+      </c>
+      <c r="D27">
+        <f>D59</f>
+        <v>321.99</v>
+      </c>
+      <c r="E27">
+        <v>33.972000000000001</v>
+      </c>
+      <c r="F27" s="112">
+        <v>156</v>
+      </c>
+      <c r="G27">
+        <v>2380.13</v>
+      </c>
+      <c r="L27">
+        <f>L59</f>
+        <v>125000</v>
+      </c>
+      <c r="M27">
+        <v>0.88805999999999996</v>
+      </c>
+      <c r="N27" s="113">
+        <f t="shared" si="10"/>
+        <v>528687.28128</v>
+      </c>
+      <c r="O27">
+        <v>166.96</v>
+      </c>
+      <c r="P27">
+        <v>267307.03000000003</v>
+      </c>
+      <c r="Q27" s="115">
+        <v>9645.02</v>
+      </c>
+      <c r="R27" s="127">
+        <f t="shared" si="5"/>
+        <v>-5.0222809283961833E-3</v>
+      </c>
+      <c r="S27" s="116">
+        <f t="shared" si="13"/>
+        <v>-3.3134128688740994E-3</v>
+      </c>
+      <c r="T27" s="114">
+        <f t="shared" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="U27" s="116">
+        <f>((N27/$N$52)-1)/T27*30</f>
+        <v>-2.3667234777672141E-3</v>
+      </c>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="116" t="e">
         <f>Sayfa2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="116" t="e">
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="116" t="e">
         <f>Sayfa2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB26" s="112">
+      <c r="AB27" s="112">
         <v>10</v>
       </c>
-      <c r="AC26" s="128">
+      <c r="AC27" s="128">
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
-      <c r="A27" s="117">
+    <row r="28" spans="1:29">
+      <c r="A28" s="117">
         <v>45401</v>
       </c>
-      <c r="B27">
-        <f>B58</f>
+      <c r="B28">
+        <f>B59</f>
         <v>1110</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>31.803999999999998</v>
       </c>
-      <c r="D27">
-        <f>D58</f>
+      <c r="D28">
+        <f>D59</f>
         <v>321.99</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>33.928400000000003</v>
       </c>
-      <c r="F27" s="112">
+      <c r="F28" s="112">
         <v>156</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>2427.62</v>
       </c>
-      <c r="L27">
-        <f>L58</f>
+      <c r="L28">
+        <f>L59</f>
         <v>125000</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>0.87351800000000002</v>
       </c>
-      <c r="N27" s="113">
+      <c r="N28" s="113">
         <f t="shared" si="10"/>
         <v>534125.51551599998</v>
       </c>
-      <c r="O27">
+      <c r="O28">
         <v>170.57</v>
       </c>
-      <c r="P27">
+      <c r="P28">
         <v>272736.27</v>
       </c>
-      <c r="Q27" s="115">
+      <c r="Q28" s="115">
         <v>9693.4599999999991</v>
       </c>
-      <c r="R27" s="127">
+      <c r="R28" s="127">
         <f t="shared" si="5"/>
         <v>1.4091975414350921E-3</v>
       </c>
-      <c r="S27" s="116">
+      <c r="S28" s="116">
         <f t="shared" si="13"/>
         <v>6.9388010818296486E-3</v>
       </c>
-      <c r="T27" s="114">
+      <c r="T28" s="114">
         <f t="shared" si="14"/>
         <v>39</v>
       </c>
-      <c r="U27" s="116">
-        <f t="shared" si="1"/>
+      <c r="U28" s="116">
+        <f>((N28/$N$52)-1)/T28*30</f>
         <v>5.3375392937151144E-3</v>
       </c>
-      <c r="V27" s="116"/>
-      <c r="W27" s="116"/>
-      <c r="X27" s="112" t="s">
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="Y27" s="115">
-        <f>Y25*X22</f>
+      <c r="Y28" s="115">
+        <f>Y26*X23</f>
         <v>1308.6500000000001</v>
       </c>
-      <c r="Z27" s="112" t="s">
+      <c r="Z28" s="112" t="s">
         <v>71</v>
       </c>
-      <c r="AA27" s="115">
-        <f>AA25*Z22</f>
+      <c r="AA28" s="115">
+        <f>AA26*Z23</f>
         <v>1220</v>
       </c>
-      <c r="AB27" s="112" t="s">
+      <c r="AB28" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="AC27" s="129" t="s">
+      <c r="AC28" s="129" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
-      <c r="A28" s="117">
+    <row r="29" spans="1:29">
+      <c r="A29" s="117">
         <v>45397</v>
       </c>
-      <c r="B28">
-        <f>B58</f>
+      <c r="B29">
+        <f>B59</f>
         <v>1110</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>31.863399999999999</v>
       </c>
-      <c r="D28">
-        <f>D58</f>
+      <c r="D29">
+        <f>D59</f>
         <v>321.99</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>33.963099999999997</v>
       </c>
-      <c r="F28" s="112">
+      <c r="F29" s="112">
         <v>156</v>
       </c>
-      <c r="G28">
+      <c r="G29">
         <v>2387.5100000000002</v>
       </c>
-      <c r="L28">
-        <f>L58</f>
+      <c r="L29">
+        <f>L59</f>
         <v>125000</v>
       </c>
-      <c r="M28">
+      <c r="M29">
         <v>0.89791399999999999</v>
       </c>
-      <c r="N28" s="113">
-        <f t="shared" ref="N28:N63" si="15">(F28*G28)+(B28*C28)+(D28*E28)+(L28*M28)+(H28*I28)</f>
+      <c r="N29" s="113">
+        <f t="shared" ref="N29:N64" si="15">(F29*G29)+(B29*C29)+(D29*E29)+(L29*M29)+(H29*I29)</f>
         <v>530994.96256900008</v>
       </c>
-      <c r="O28">
+      <c r="O29">
         <v>169.14</v>
       </c>
-      <c r="P28">
+      <c r="P29">
         <v>269604.92</v>
       </c>
-      <c r="Q28" s="115">
+      <c r="Q29" s="115">
         <v>9679.7999999999993</v>
       </c>
-      <c r="R28" s="127">
+      <c r="R29" s="127">
         <f t="shared" si="5"/>
         <v>-1.3880452075456073E-2</v>
       </c>
-      <c r="S28" s="116">
+      <c r="S29" s="116">
         <f t="shared" si="13"/>
         <v>1.0370511380362046E-3</v>
       </c>
-      <c r="T28" s="114">
+      <c r="T29" s="114">
         <f t="shared" si="14"/>
         <v>35</v>
       </c>
-      <c r="U28" s="116">
-        <f t="shared" si="1"/>
+      <c r="U29" s="116">
+        <f>((N29/$N$52)-1)/T29*30</f>
         <v>8.8890097545960402E-4</v>
       </c>
-      <c r="V28" s="116"/>
-      <c r="W28" s="116"/>
-      <c r="X28" s="132" t="s">
+      <c r="V29" s="116"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="Y28" s="132">
-        <f>(X22*Y5)-(X22*Y25)</f>
-        <v>-238.35000000000014</v>
-      </c>
-      <c r="Z28" s="132" t="s">
+      <c r="Y29" s="132">
+        <f>(X23*Y5)-(X23*Y26)</f>
+        <v>-291.55000000000018</v>
+      </c>
+      <c r="Z29" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AA28" s="132">
-        <f>(Z22*AA5)-(Z22*AA25)</f>
-        <v>-174.40000000000009</v>
-      </c>
-      <c r="AC28" s="130" t="s">
+      <c r="AA29" s="132">
+        <f>(Z23*AA5)-(Z23*AA26)</f>
+        <v>-240.79999999999995</v>
+      </c>
+      <c r="AC29" s="130" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
-      <c r="A29" s="117">
+    <row r="30" spans="1:29">
+      <c r="A30" s="117">
         <v>45391</v>
       </c>
-      <c r="B29">
-        <f>B58</f>
+      <c r="B30">
+        <f>B59</f>
         <v>1110</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>31.412299999999998</v>
       </c>
-      <c r="D29">
-        <f>D58</f>
+      <c r="D30">
+        <f>D59</f>
         <v>321.99</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>34.091799999999999</v>
       </c>
-      <c r="F29" s="112">
+      <c r="F30" s="112">
         <v>156</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>2352.21</v>
       </c>
-      <c r="L29">
-        <f>L58</f>
+      <c r="L30">
+        <f>L59</f>
         <v>125000</v>
       </c>
-      <c r="M29">
+      <c r="M30">
         <v>0.89529800000000004</v>
       </c>
-      <c r="N29" s="113">
+      <c r="N30" s="113">
         <f t="shared" si="15"/>
         <v>524701.88168200001</v>
       </c>
-      <c r="O29">
+      <c r="O30">
         <v>165.81</v>
       </c>
-      <c r="P29">
+      <c r="P30">
         <v>263308.84999999998</v>
       </c>
-      <c r="Q29" s="115">
+      <c r="Q30" s="115">
         <v>9814.16</v>
       </c>
-      <c r="R29" s="127">
-        <f t="shared" ref="R29:R30" si="16">(1-(Q30/Q29))</f>
+      <c r="R30" s="127">
+        <f t="shared" ref="R30:R31" si="16">(1-(Q31/Q30))</f>
         <v>5.8558246452063978E-3</v>
       </c>
-      <c r="S29" s="116">
+      <c r="S30" s="116">
         <f t="shared" si="13"/>
         <v>-1.0826728328378388E-2</v>
       </c>
-      <c r="T29" s="114">
+      <c r="T30" s="114">
         <f t="shared" si="14"/>
         <v>29</v>
       </c>
-      <c r="U29" s="116">
-        <f t="shared" si="1"/>
+      <c r="U30" s="116">
+        <f>((N30/$N$52)-1)/T30*30</f>
         <v>-1.1200063787977641E-2</v>
-      </c>
-      <c r="V29" s="116"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="116"/>
-      <c r="Y29" s="116"/>
-      <c r="Z29" s="116"/>
-      <c r="AA29" s="116"/>
-      <c r="AB29" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC29" s="131">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
-      <c r="A30" s="117">
-        <v>45390</v>
-      </c>
-      <c r="B30">
-        <f>B58</f>
-        <v>1110</v>
-      </c>
-      <c r="C30">
-        <v>31.5198</v>
-      </c>
-      <c r="D30">
-        <f>D58</f>
-        <v>321.99</v>
-      </c>
-      <c r="E30">
-        <v>34.154899999999998</v>
-      </c>
-      <c r="F30" s="112">
-        <v>156</v>
-      </c>
-      <c r="G30">
-        <v>2344.37</v>
-      </c>
-      <c r="L30">
-        <f>L58</f>
-        <v>125000</v>
-      </c>
-      <c r="M30">
-        <v>0.818581</v>
-      </c>
-      <c r="N30" s="113">
-        <f t="shared" si="15"/>
-        <v>514028.85925099999</v>
-      </c>
-      <c r="O30">
-        <v>159.19</v>
-      </c>
-      <c r="P30">
-        <v>252634.37</v>
-      </c>
-      <c r="Q30" s="115">
-        <v>9756.69</v>
-      </c>
-      <c r="R30" s="127">
-        <f t="shared" si="16"/>
-        <v>1.4129791968382821E-2</v>
-      </c>
-      <c r="S30" s="116">
-        <f t="shared" si="13"/>
-        <v>-3.0947617704367603E-2</v>
-      </c>
-      <c r="T30" s="114">
-        <f t="shared" si="14"/>
-        <v>28</v>
-      </c>
-      <c r="U30" s="116">
-        <f t="shared" si="1"/>
-        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V30" s="116"/>
       <c r="W30" s="116"/>
@@ -7861,70 +7875,72 @@
       <c r="Y30" s="116"/>
       <c r="Z30" s="116"/>
       <c r="AA30" s="116"/>
-      <c r="AC30" s="116">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
+      <c r="AB30" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC30" s="131">
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="117">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B31">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>31.407</v>
+        <v>31.5198</v>
       </c>
       <c r="D31">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>34.038899999999998</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F31" s="112">
         <v>156</v>
       </c>
       <c r="G31">
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="L31">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.82424600000000003</v>
+        <v>0.818581</v>
       </c>
       <c r="N31" s="113">
         <f t="shared" si="15"/>
-        <v>505978.825411</v>
+        <v>514028.85925099999</v>
       </c>
       <c r="O31">
-        <v>154.41</v>
+        <v>159.19</v>
       </c>
       <c r="P31">
-        <v>244587.02</v>
+        <v>252634.37</v>
       </c>
       <c r="Q31" s="115">
-        <v>9618.83</v>
+        <v>9756.69</v>
       </c>
       <c r="R31" s="127">
-        <f t="shared" ref="R31:R62" si="17">(1-(Q32/Q31))</f>
-        <v>5.0921993631241946E-2</v>
+        <f t="shared" si="16"/>
+        <v>1.4129791968382821E-2</v>
       </c>
       <c r="S31" s="116">
         <f t="shared" si="13"/>
-        <v>-4.6123622572225242E-2</v>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T31" s="114">
         <f t="shared" si="14"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="U31" s="116">
-        <f t="shared" si="1"/>
-        <v>-5.5348347086670288E-2</v>
+        <f>((N31/$N$52)-1)/T31*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V31" s="116"/>
       <c r="W31" s="116"/>
@@ -7932,73 +7948,70 @@
       <c r="Y31" s="116"/>
       <c r="Z31" s="116"/>
       <c r="AA31" s="116"/>
-      <c r="AB31" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC31" s="115">
-        <f>AC29*AB26</f>
-        <v>1350</v>
+      <c r="AC31" s="116">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="117">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B32">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C32">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D32">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E32">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F32" s="112">
         <v>156</v>
       </c>
       <c r="G32">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L32">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M32">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N32" s="113">
         <f t="shared" si="15"/>
-        <v>507101.83066900005</v>
+        <v>505978.825411</v>
       </c>
       <c r="O32">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="P32">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="Q32" s="115">
-        <v>9129.02</v>
+        <v>9618.83</v>
       </c>
       <c r="R32" s="127">
-        <f t="shared" si="17"/>
-        <v>2.0070062284889389E-2</v>
+        <f t="shared" ref="R32:R63" si="17">(1-(Q33/Q32))</f>
+        <v>5.0921993631241946E-2</v>
       </c>
       <c r="S32" s="116">
         <f t="shared" si="13"/>
-        <v>-4.4006521749946126E-2</v>
+        <v>-4.6123622572225242E-2</v>
       </c>
       <c r="T32" s="114">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U32" s="116">
-        <f t="shared" si="1"/>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N32/$N$52)-1)/T32*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V32" s="116"/>
       <c r="W32" s="116"/>
@@ -8006,27 +8019,27 @@
       <c r="Y32" s="116"/>
       <c r="Z32" s="116"/>
       <c r="AA32" s="116"/>
-      <c r="AB32" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC32" s="132">
-        <f>(AB10*AC5)-(AB10*AC29)</f>
-        <v>-204</v>
+      <c r="AB32" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC32" s="115">
+        <f>AC30*AB27</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="33" spans="1:39">
       <c r="A33" s="117">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B33">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C33">
         <v>31.399799999999999</v>
       </c>
       <c r="D33">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E33">
@@ -8039,7 +8052,7 @@
         <v>2292.5700000000002</v>
       </c>
       <c r="L33">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M33">
@@ -8056,11 +8069,11 @@
         <v>245709.7</v>
       </c>
       <c r="Q33" s="115">
-        <v>8945.7999999999993</v>
+        <v>9129.02</v>
       </c>
       <c r="R33" s="127">
         <f t="shared" si="17"/>
-        <v>-1.0627333497283731E-2</v>
+        <v>2.0070062284889389E-2</v>
       </c>
       <c r="S33" s="116">
         <f t="shared" si="13"/>
@@ -8068,11 +8081,11 @@
       </c>
       <c r="T33" s="114">
         <f t="shared" si="14"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U33" s="116">
-        <f t="shared" si="1"/>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N33/$N$52)-1)/T33*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V33" s="116"/>
       <c r="W33" s="116"/>
@@ -8080,68 +8093,73 @@
       <c r="Y33" s="116"/>
       <c r="Z33" s="116"/>
       <c r="AA33" s="116"/>
-      <c r="AB33" s="133"/>
-      <c r="AC33" s="134"/>
+      <c r="AB33" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC33" s="132">
+        <f>(AB10*AC5)-(AB10*AC30)</f>
+        <v>-160</v>
+      </c>
     </row>
     <row r="34" spans="1:39">
       <c r="A34" s="117">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B34">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C34">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D34">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E34">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F34" s="112">
         <v>156</v>
       </c>
       <c r="G34">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L34">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M34">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N34" s="113">
         <f t="shared" si="15"/>
-        <v>509777.60801200004</v>
+        <v>507101.83066900005</v>
       </c>
       <c r="O34">
-        <v>157.11000000000001</v>
+        <v>155.22</v>
       </c>
       <c r="P34">
-        <v>248387.66</v>
+        <v>245709.7</v>
       </c>
       <c r="Q34" s="115">
-        <v>9040.8700000000008</v>
+        <v>8945.7999999999993</v>
       </c>
       <c r="R34" s="127">
         <f t="shared" si="17"/>
-        <v>-1.2904731513670775E-2</v>
+        <v>-1.0627333497283731E-2</v>
       </c>
       <c r="S34" s="116">
         <f t="shared" si="13"/>
-        <v>-3.8962119354903346E-2</v>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T34" s="114">
         <f t="shared" si="14"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U34" s="116">
-        <f t="shared" si="1"/>
-        <v>-5.3130162756686382E-2</v>
+        <f>((N34/$N$52)-1)/T34*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V34" s="116"/>
       <c r="W34" s="116"/>
@@ -8154,63 +8172,63 @@
     </row>
     <row r="35" spans="1:39">
       <c r="A35" s="117">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="B35">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C35">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D35">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E35">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F35" s="112">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G35">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L35">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M35">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N35" s="113">
         <f t="shared" si="15"/>
-        <v>528238.93988600001</v>
+        <v>509777.60801200004</v>
       </c>
       <c r="O35">
-        <v>161.66</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="P35">
-        <v>255424.81</v>
+        <v>248387.66</v>
       </c>
       <c r="Q35" s="115">
-        <v>9157.5400000000009</v>
+        <v>9040.8700000000008</v>
       </c>
       <c r="R35" s="127">
         <f t="shared" si="17"/>
-        <v>1.6532824317448958E-3</v>
+        <v>-1.2904731513670775E-2</v>
       </c>
       <c r="S35" s="116">
         <f t="shared" si="13"/>
-        <v>-4.1586305801334378E-3</v>
+        <v>-3.8962119354903346E-2</v>
       </c>
       <c r="T35" s="114">
         <f t="shared" si="14"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U35" s="116">
-        <f t="shared" si="1"/>
-        <v>-5.9409008287620545E-3</v>
+        <f>((N35/$N$52)-1)/T35*30</f>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V35" s="116"/>
       <c r="W35" s="116"/>
@@ -8223,17 +8241,17 @@
     </row>
     <row r="36" spans="1:39">
       <c r="A36" s="117">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B36">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C36">
         <v>31.879300000000001</v>
       </c>
       <c r="D36">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E36">
@@ -8246,7 +8264,7 @@
         <v>2308.4299999999998</v>
       </c>
       <c r="L36">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M36">
@@ -8263,11 +8281,11 @@
         <v>255424.81</v>
       </c>
       <c r="Q36" s="115">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="R36" s="127">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.6532824317448958E-3</v>
       </c>
       <c r="S36" s="116">
         <f t="shared" si="13"/>
@@ -8275,11 +8293,11 @@
       </c>
       <c r="T36" s="114">
         <f t="shared" si="14"/>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U36" s="116">
-        <f t="shared" si="1"/>
-        <v>-6.5662588107370072E-3</v>
+        <f>((N36/$N$52)-1)/T36*30</f>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V36" s="116"/>
       <c r="W36" s="116"/>
@@ -8292,63 +8310,63 @@
     </row>
     <row r="37" spans="1:39">
       <c r="A37" s="117">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="B37">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C37">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D37">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E37">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F37" s="112">
         <v>161</v>
       </c>
       <c r="G37">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L37">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M37">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N37" s="113">
         <f t="shared" si="15"/>
-        <v>518957.34710100002</v>
+        <v>528238.93988600001</v>
       </c>
       <c r="O37">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="P37">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="Q37" s="115">
         <v>9142.4</v>
       </c>
       <c r="R37" s="127">
         <f t="shared" si="17"/>
-        <v>6.8286226811340445E-3</v>
+        <v>0</v>
       </c>
       <c r="S37" s="116">
         <f t="shared" si="13"/>
-        <v>-2.165638277425741E-2</v>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T37" s="114">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U37" s="116">
-        <f t="shared" si="1"/>
-        <v>-3.6093971290429017E-2</v>
+        <f>((N37/$N$52)-1)/T37*30</f>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V37" s="116"/>
       <c r="W37" s="116"/>
@@ -8361,63 +8379,63 @@
     </row>
     <row r="38" spans="1:39">
       <c r="A38" s="117">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="B38">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C38">
-        <v>31.870699999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D38">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E38">
-        <v>34.480800000000002</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F38" s="112">
         <v>161</v>
       </c>
       <c r="G38">
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L38">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M38">
-        <v>0.86473199999999995</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N38" s="113">
         <f t="shared" si="15"/>
-        <v>515224.93979200005</v>
+        <v>518957.34710100002</v>
       </c>
       <c r="O38">
-        <v>153.81</v>
+        <v>156.08000000000001</v>
       </c>
       <c r="P38">
-        <v>242408.74</v>
+        <v>246143.72</v>
       </c>
       <c r="Q38" s="115">
-        <v>9079.9699999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R38" s="127">
         <f t="shared" si="17"/>
-        <v>3.0093711763364839E-2</v>
+        <v>6.8286226811340445E-3</v>
       </c>
       <c r="S38" s="116">
         <f t="shared" si="13"/>
-        <v>-2.8692754622628547E-2</v>
+        <v>-2.165638277425741E-2</v>
       </c>
       <c r="T38" s="114">
         <f t="shared" si="14"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U38" s="116">
-        <f t="shared" si="1"/>
-        <v>-5.0634272863462143E-2</v>
+        <f>((N38/$N$52)-1)/T38*30</f>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V38" s="116"/>
       <c r="W38" s="116"/>
@@ -8430,63 +8448,63 @@
     </row>
     <row r="39" spans="1:39">
       <c r="A39" s="117">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B39">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C39">
-        <v>31.821999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D39">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E39">
-        <v>34.5045</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F39" s="112">
         <v>161</v>
       </c>
       <c r="G39">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L39">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M39">
-        <v>0.85899999999999999</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N39" s="113">
         <f t="shared" si="15"/>
-        <v>512394.77395499998</v>
+        <v>515224.93979200005</v>
       </c>
       <c r="O39">
-        <v>154.24</v>
+        <v>153.81</v>
       </c>
       <c r="P39">
-        <v>242616.68</v>
+        <v>242408.74</v>
       </c>
       <c r="Q39" s="115">
-        <v>8806.7199999999993</v>
+        <v>9079.9699999999993</v>
       </c>
       <c r="R39" s="127">
         <f t="shared" si="17"/>
-        <v>-7.4942770974972817E-5</v>
+        <v>3.0093711763364839E-2</v>
       </c>
       <c r="S39" s="116">
         <f t="shared" si="13"/>
-        <v>-3.4028211761422011E-2</v>
+        <v>-2.8692754622628547E-2</v>
       </c>
       <c r="T39" s="114">
         <f t="shared" si="14"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U39" s="116">
-        <f t="shared" si="1"/>
-        <v>-6.3802897052666271E-2</v>
+        <f>((N39/$N$52)-1)/T39*30</f>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V39" s="116"/>
       <c r="W39" s="116"/>
@@ -8499,21 +8517,21 @@
     </row>
     <row r="40" spans="1:39">
       <c r="A40" s="117">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B40">
         <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>31.530999999999999</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D40">
         <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>34.125900000000001</v>
+        <v>34.5045</v>
       </c>
       <c r="F40" s="112">
         <v>161</v>
@@ -8526,11 +8544,11 @@
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.890316</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N40" s="113">
         <f t="shared" si="15"/>
-        <v>515864.35854099999</v>
+        <v>512394.77395499998</v>
       </c>
       <c r="O40">
         <v>154.24</v>
@@ -8539,23 +8557,23 @@
         <v>242616.68</v>
       </c>
       <c r="Q40" s="115">
-        <v>8807.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="R40" s="127">
         <f t="shared" si="17"/>
-        <v>-2.5206133946758191E-2</v>
+        <v>-7.4942770974972817E-5</v>
       </c>
       <c r="S40" s="116">
         <f t="shared" si="13"/>
-        <v>-2.7487315957364089E-2</v>
+        <v>-3.4028211761422011E-2</v>
       </c>
       <c r="T40" s="114">
         <f t="shared" si="14"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U40" s="116">
-        <f t="shared" si="1"/>
-        <v>-5.4974631914728178E-2</v>
+        <f>((N40/$N$52)-1)/T40*30</f>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V40" s="116"/>
       <c r="W40" s="116"/>
@@ -8568,63 +8586,63 @@
     </row>
     <row r="41" spans="1:39">
       <c r="A41" s="117">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B41">
-        <f>B58</f>
+        <f>B60</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>31.786200000000001</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D41">
-        <f>D58</f>
+        <f>D60</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>34.386299999999999</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F41" s="112">
         <v>161</v>
       </c>
       <c r="G41">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L41">
-        <f>L58</f>
+        <f>L60</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="N41" s="113">
         <f t="shared" si="15"/>
-        <v>517720.01173699996</v>
+        <v>515864.35854099999</v>
       </c>
       <c r="O41">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="P41">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="Q41" s="115">
-        <v>9029.3799999999992</v>
+        <v>8807.3799999999992</v>
       </c>
       <c r="R41" s="127">
         <f t="shared" si="17"/>
-        <v>-9.0947551216142841E-3</v>
+        <v>-2.5206133946758191E-2</v>
       </c>
       <c r="S41" s="116">
         <f t="shared" si="13"/>
-        <v>-2.3989019863797534E-2</v>
+        <v>-2.7487315957364089E-2</v>
       </c>
       <c r="T41" s="114">
         <f t="shared" si="14"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U41" s="116">
-        <f t="shared" si="1"/>
-        <v>-5.1405042565280425E-2</v>
+        <f>((N41/$N$52)-1)/T41*30</f>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V41" s="116"/>
       <c r="W41" s="116"/>
@@ -8637,63 +8655,63 @@
     </row>
     <row r="42" spans="1:39">
       <c r="A42" s="117">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B42">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C42">
-        <v>31.710699999999999</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D42">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E42">
-        <v>34.336300000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F42" s="112">
         <v>161</v>
       </c>
       <c r="G42">
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="L42">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M42">
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N42" s="113">
         <f t="shared" si="15"/>
-        <v>518732.15723700001</v>
+        <v>517720.01173699996</v>
       </c>
       <c r="O42">
-        <v>156.63999999999999</v>
+        <v>155.99</v>
       </c>
       <c r="P42">
-        <v>245919.31</v>
-      </c>
-      <c r="Q42">
-        <v>9111.5</v>
+        <v>244906</v>
+      </c>
+      <c r="Q42" s="115">
+        <v>9029.3799999999992</v>
       </c>
       <c r="R42" s="127">
         <f t="shared" si="17"/>
-        <v>-3.2047412610438641E-3</v>
+        <v>-9.0947551216142841E-3</v>
       </c>
       <c r="S42" s="116">
         <f t="shared" si="13"/>
-        <v>-2.2080912973779676E-2</v>
+        <v>-2.3989019863797534E-2</v>
       </c>
       <c r="T42" s="114">
         <f t="shared" si="14"/>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U42" s="116">
-        <f t="shared" si="1"/>
-        <v>-6.0220671746671839E-2</v>
+        <f>((N42/$N$52)-1)/T42*30</f>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V42" s="116"/>
       <c r="W42" s="116"/>
@@ -8706,63 +8724,63 @@
     </row>
     <row r="43" spans="1:39">
       <c r="A43" s="117">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B43">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>32.063899999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D43">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>35.065100000000001</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F43" s="112">
         <v>161</v>
       </c>
       <c r="G43">
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="L43">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N43" s="113">
         <f t="shared" si="15"/>
-        <v>529674.87554899999</v>
+        <v>518732.15723700001</v>
       </c>
       <c r="O43">
-        <v>163.91</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="P43">
-        <v>256845.12</v>
-      </c>
-      <c r="Q43" s="115">
-        <v>9140.7000000000007</v>
+        <v>245919.31</v>
+      </c>
+      <c r="Q43">
+        <v>9111.5</v>
       </c>
       <c r="R43" s="127">
         <f t="shared" si="17"/>
-        <v>2.0302602645311585E-2</v>
+        <v>-3.2047412610438641E-3</v>
       </c>
       <c r="S43" s="116">
         <f t="shared" si="13"/>
-        <v>-1.4515902067954167E-3</v>
+        <v>-2.2080912973779676E-2</v>
       </c>
       <c r="T43" s="114">
         <f t="shared" si="14"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U43" s="116">
-        <f t="shared" si="1"/>
-        <v>-4.3547706203862502E-3</v>
+        <f>((N43/$N$52)-1)/T43*30</f>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V43" s="116"/>
       <c r="W43" s="116"/>
@@ -8775,63 +8793,63 @@
     </row>
     <row r="44" spans="1:39">
       <c r="A44" s="117">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B44">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C44">
-        <v>32.028799999999997</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D44">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E44">
-        <v>34.808799999999998</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F44" s="112">
         <v>161</v>
       </c>
       <c r="G44">
-        <v>2220.92</v>
+        <v>2267.61</v>
       </c>
       <c r="L44">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M44">
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N44" s="113">
         <f t="shared" si="15"/>
-        <v>521166.42351200001</v>
+        <v>529674.87554899999</v>
       </c>
       <c r="O44">
-        <v>158.47999999999999</v>
+        <v>163.91</v>
       </c>
       <c r="P44">
-        <v>248342.62</v>
+        <v>256845.12</v>
       </c>
       <c r="Q44" s="115">
-        <v>8955.1200000000008</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="R44" s="127">
         <f t="shared" si="17"/>
-        <v>2.8184993612594411E-3</v>
+        <v>2.0302602645311585E-2</v>
       </c>
       <c r="S44" s="116">
         <f t="shared" si="13"/>
-        <v>-1.7491809676412506E-2</v>
+        <v>-1.4515902067954167E-3</v>
       </c>
       <c r="T44" s="114">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U44" s="116">
-        <f t="shared" si="1"/>
-        <v>-5.8306032254708352E-2</v>
+        <f>((N44/$N$52)-1)/T44*30</f>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V44" s="116"/>
       <c r="W44" s="116"/>
@@ -8844,63 +8862,63 @@
     </row>
     <row r="45" spans="1:39">
       <c r="A45" s="117">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B45">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D45">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F45" s="112">
         <v>161</v>
       </c>
       <c r="G45">
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="L45">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N45" s="113">
         <f t="shared" si="15"/>
-        <v>516626.64020899998</v>
+        <v>521166.42351200001</v>
       </c>
       <c r="O45">
-        <v>155.59</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="P45">
-        <v>243803.06</v>
+        <v>248342.62</v>
       </c>
       <c r="Q45" s="115">
-        <v>8929.8799999999992</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="R45" s="127">
         <f t="shared" si="17"/>
-        <v>2.3714764364134666E-2</v>
+        <v>2.8184993612594411E-3</v>
       </c>
       <c r="S45" s="116">
         <f t="shared" si="13"/>
-        <v>-2.6050254879836254E-2</v>
+        <v>-1.7491809676412506E-2</v>
       </c>
       <c r="T45" s="114">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U45" s="116">
-        <f t="shared" si="1"/>
-        <v>-9.7688455799385954E-2</v>
+        <f>((N45/$N$52)-1)/T45*30</f>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V45" s="116"/>
       <c r="W45" s="116"/>
@@ -8910,72 +8928,66 @@
       <c r="AA45" s="116"/>
       <c r="AB45" s="133"/>
       <c r="AC45" s="134"/>
-      <c r="AL45">
-        <v>68</v>
-      </c>
-      <c r="AM45">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="46" spans="1:39">
       <c r="A46" s="117">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B46">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>31.9499</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D46">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>34.8125</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F46" s="112">
         <v>161</v>
       </c>
       <c r="G46">
-        <v>2212.35</v>
+        <v>2219.02</v>
       </c>
       <c r="L46">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>0.93887900000000002</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N46" s="113">
         <f t="shared" si="15"/>
-        <v>520221.89087499998</v>
+        <v>516626.64020899998</v>
       </c>
       <c r="O46">
-        <v>155.44</v>
+        <v>155.59</v>
       </c>
       <c r="P46">
-        <v>247623.17</v>
+        <v>243803.06</v>
       </c>
       <c r="Q46" s="115">
-        <v>8718.11</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="R46" s="127">
         <f t="shared" si="17"/>
-        <v>-1.2685088855267868E-2</v>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="S46" s="116">
         <f t="shared" si="13"/>
-        <v>-1.9272452116166794E-2</v>
+        <v>-2.6050254879836254E-2</v>
       </c>
       <c r="T46" s="114">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U46" s="116">
-        <f t="shared" si="1"/>
-        <v>-8.2596223355000553E-2</v>
+        <f>((N46/$N$52)-1)/T46*30</f>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V46" s="116"/>
       <c r="W46" s="116"/>
@@ -8989,68 +9001,68 @@
         <v>68</v>
       </c>
       <c r="AM46">
-        <v>22.96</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:39">
       <c r="A47" s="117">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B47">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C47">
-        <v>31.796299999999999</v>
+        <v>31.9499</v>
       </c>
       <c r="D47">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E47">
-        <v>34.619700000000002</v>
+        <v>34.8125</v>
       </c>
       <c r="F47" s="112">
         <v>161</v>
       </c>
       <c r="G47">
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="L47">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M47">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N47" s="113">
         <f t="shared" si="15"/>
-        <v>521369.280203</v>
+        <v>520221.89087499998</v>
       </c>
       <c r="O47">
-        <v>156.13</v>
+        <v>155.44</v>
       </c>
       <c r="P47">
-        <v>248712.47</v>
+        <v>247623.17</v>
       </c>
       <c r="Q47" s="115">
-        <v>8828.7000000000007</v>
+        <v>8718.11</v>
       </c>
       <c r="R47" s="127">
         <f t="shared" si="17"/>
-        <v>-6.2092946866469934E-3</v>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="S47" s="116">
         <f t="shared" si="13"/>
-        <v>-1.7109382199549383E-2</v>
+        <v>-1.9272452116166794E-2</v>
       </c>
       <c r="T47" s="114">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U47" s="116">
-        <f t="shared" si="1"/>
-        <v>-0.12832036649662037</v>
+        <f>((N47/$N$52)-1)/T47*30</f>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V47" s="116"/>
       <c r="W47" s="116"/>
@@ -9064,68 +9076,68 @@
         <v>68</v>
       </c>
       <c r="AM47">
-        <v>22.04</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="48" spans="1:39">
       <c r="A48" s="117">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B48">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D48">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F48" s="112">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="L48">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N48" s="113">
         <f t="shared" si="15"/>
-        <v>523223.75937500002</v>
+        <v>521369.280203</v>
       </c>
       <c r="O48">
-        <v>157.21</v>
+        <v>156.13</v>
       </c>
       <c r="P48">
-        <v>250427.64</v>
+        <v>248712.47</v>
       </c>
       <c r="Q48" s="115">
-        <v>8883.52</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="R48" s="127">
         <f t="shared" si="17"/>
-        <v>-3.0066910413888426E-3</v>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="S48" s="116">
         <f t="shared" si="13"/>
-        <v>-1.3613299387851274E-2</v>
+        <v>-1.7109382199549383E-2</v>
       </c>
       <c r="T48" s="114">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U48" s="116">
-        <f t="shared" si="1"/>
-        <v>-0.13613299387851274</v>
+        <f>((N48/$N$52)-1)/T48*30</f>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V48" s="116"/>
       <c r="W48" s="116"/>
@@ -9139,68 +9151,68 @@
         <v>68</v>
       </c>
       <c r="AM48">
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="117">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B49">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D49">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E49">
-        <v>35</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F49" s="112">
         <v>161</v>
       </c>
       <c r="G49">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L49">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>0.957233</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N49" s="113">
         <f t="shared" si="15"/>
-        <v>523915.29500000004</v>
+        <v>523223.75937500002</v>
       </c>
       <c r="O49">
-        <v>160.79</v>
+        <v>157.21</v>
       </c>
       <c r="P49">
-        <v>250989.9</v>
+        <v>250427.64</v>
       </c>
       <c r="Q49" s="115">
-        <v>8910.23</v>
+        <v>8883.52</v>
       </c>
       <c r="R49" s="127">
         <f t="shared" si="17"/>
-        <v>-1.7822211098927898E-2</v>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="S49" s="116">
         <f t="shared" si="13"/>
-        <v>-1.2309609463077242E-2</v>
+        <v>-1.3613299387851274E-2</v>
       </c>
       <c r="T49" s="114">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U49" s="116">
-        <f t="shared" si="1"/>
-        <v>-0.18464414194615864</v>
+        <f>((N49/$N$52)-1)/T49*30</f>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V49" s="116"/>
       <c r="W49" s="116"/>
@@ -9214,26 +9226,26 @@
         <v>68</v>
       </c>
       <c r="AM49">
-        <v>18.22</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="117">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B50">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C50">
-        <v>31.516400000000001</v>
+        <v>32</v>
       </c>
       <c r="D50">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E50">
-        <v>34.463200000000001</v>
+        <v>35</v>
       </c>
       <c r="F50" s="112">
         <v>161</v>
@@ -9242,40 +9254,40 @@
         <v>2220.3200000000002</v>
       </c>
       <c r="L50">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M50">
-        <v>0.979213</v>
+        <v>0.957233</v>
       </c>
       <c r="N50" s="113">
         <f t="shared" si="15"/>
-        <v>525953.15476800012</v>
+        <v>523915.29500000004</v>
       </c>
       <c r="O50">
-        <v>161.94999999999999</v>
+        <v>160.79</v>
       </c>
       <c r="P50">
-        <v>252645.61</v>
+        <v>250989.9</v>
       </c>
       <c r="Q50" s="115">
-        <v>9069.0300000000007</v>
+        <v>8910.23</v>
       </c>
       <c r="R50" s="127">
         <f t="shared" si="17"/>
-        <v>-6.8684302510850781E-3</v>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="S50" s="116">
         <f t="shared" si="13"/>
-        <v>-8.4678157049555836E-3</v>
+        <v>-1.2309609463077242E-2</v>
       </c>
       <c r="T50" s="114">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" s="116">
-        <f t="shared" si="1"/>
-        <v>-0.25403447114866751</v>
+        <f>((N50/$N$52)-1)/T50*30</f>
+        <v>-0.18464414194615864</v>
       </c>
       <c r="V50" s="116"/>
       <c r="W50" s="116"/>
@@ -9289,66 +9301,69 @@
         <v>68</v>
       </c>
       <c r="AM50">
-        <v>16.57</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="117">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B51">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C51">
-        <v>31.571400000000001</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D51">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E51">
-        <v>34.558100000000003</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F51" s="112">
         <v>161</v>
       </c>
       <c r="G51">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L51">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M51">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N51" s="200">
+        <v>0.979213</v>
+      </c>
+      <c r="N51" s="113">
         <f t="shared" si="15"/>
-        <v>530444.86411900003</v>
+        <v>525953.15476800012</v>
       </c>
       <c r="O51">
-        <v>164.91</v>
+        <v>161.94999999999999</v>
       </c>
       <c r="P51">
-        <v>257088.48</v>
+        <v>252645.61</v>
       </c>
       <c r="Q51" s="115">
-        <v>9131.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="R51" s="127">
         <f t="shared" si="17"/>
-        <v>-2.6283166070184549E-3</v>
+        <v>-6.8684302510850781E-3</v>
       </c>
       <c r="S51" s="116">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>-8.4678157049555836E-3</v>
       </c>
       <c r="T51" s="114">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="U51" s="116"/>
+        <v>1</v>
+      </c>
+      <c r="U51" s="116">
+        <f>((N51/$N$52)-1)/T51*30</f>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V51" s="116"/>
       <c r="W51" s="116"/>
       <c r="X51" s="116"/>
@@ -9357,72 +9372,69 @@
       <c r="AA51" s="116"/>
       <c r="AB51" s="133"/>
       <c r="AC51" s="134"/>
-      <c r="AH51">
-        <v>12</v>
-      </c>
-      <c r="AI51">
-        <v>41.58</v>
-      </c>
-      <c r="AJ51">
-        <f>AJ58</f>
-        <v>15</v>
-      </c>
-      <c r="AK51">
-        <v>55.55</v>
-      </c>
       <c r="AL51">
         <v>68</v>
       </c>
       <c r="AM51">
-        <v>15.07</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="117">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B52">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C52">
-        <v>31.402999999999999</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D52">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E52">
-        <v>34.3643</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F52" s="112">
         <v>161</v>
       </c>
       <c r="G52">
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="L52">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M52">
-        <v>0.99115900000000001</v>
-      </c>
-      <c r="N52" s="113">
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N52" s="200">
         <f t="shared" si="15"/>
-        <v>523720.92595699994</v>
+        <v>530444.86411900003</v>
       </c>
       <c r="O52">
-        <v>160.9</v>
+        <v>164.91</v>
+      </c>
+      <c r="P52">
+        <v>257088.48</v>
       </c>
       <c r="Q52" s="115">
-        <v>9155.32</v>
+        <v>9131.32</v>
       </c>
       <c r="R52" s="127">
         <f t="shared" si="17"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S52" s="116"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S52" s="116">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T52" s="114">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="U52" s="116"/>
       <c r="V52" s="116"/>
       <c r="W52" s="116"/>
@@ -9436,66 +9448,66 @@
         <v>12</v>
       </c>
       <c r="AI52">
-        <v>37.799999999999997</v>
+        <v>41.58</v>
       </c>
       <c r="AJ52">
-        <f>AJ58</f>
+        <f>AJ59</f>
         <v>15</v>
       </c>
       <c r="AK52">
-        <v>57.75</v>
+        <v>55.55</v>
       </c>
       <c r="AL52">
         <v>68</v>
       </c>
       <c r="AM52">
-        <v>13.7</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="117">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B53">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C53">
-        <v>31.297000000000001</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D53">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E53">
-        <v>34.110599999999998</v>
+        <v>34.3643</v>
       </c>
       <c r="F53" s="112">
         <v>161</v>
       </c>
       <c r="G53">
-        <v>2184.79</v>
+        <v>2198.16</v>
       </c>
       <c r="L53">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M53">
-        <v>0.945214</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N53" s="113">
         <f t="shared" si="15"/>
-        <v>515625.882094</v>
+        <v>523720.92595699994</v>
       </c>
       <c r="O53">
-        <v>155.75</v>
+        <v>160.9</v>
       </c>
       <c r="Q53" s="115">
-        <v>9054.18</v>
+        <v>9155.32</v>
       </c>
       <c r="R53" s="127">
         <f t="shared" si="17"/>
-        <v>3.4194151209717583E-2</v>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S53" s="116"/>
       <c r="U53" s="116"/>
@@ -9511,66 +9523,66 @@
         <v>12</v>
       </c>
       <c r="AI53">
-        <v>34.380000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ53">
-        <f>AJ58</f>
+        <f>AJ59</f>
         <v>15</v>
       </c>
       <c r="AK53">
-        <v>63.1</v>
+        <v>57.75</v>
       </c>
       <c r="AL53">
         <v>68</v>
       </c>
       <c r="AM53">
-        <v>12.46</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="117">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B54">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C54">
-        <v>31.293399999999998</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D54">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E54">
-        <v>34.006500000000003</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F54" s="112">
         <v>161</v>
       </c>
       <c r="G54">
-        <v>2150.9</v>
+        <v>2184.79</v>
       </c>
       <c r="L54">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M54">
-        <v>0.99397100000000005</v>
+        <v>0.945214</v>
       </c>
       <c r="N54" s="113">
         <f t="shared" si="15"/>
-        <v>516226.70193500002</v>
+        <v>515625.882094</v>
       </c>
       <c r="O54">
-        <v>156.16</v>
+        <v>155.75</v>
       </c>
       <c r="Q54" s="115">
-        <v>8744.58</v>
+        <v>9054.18</v>
       </c>
       <c r="R54" s="127">
         <f t="shared" si="17"/>
-        <v>-1.3258498407013208E-2</v>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S54" s="116"/>
       <c r="U54" s="116"/>
@@ -9582,77 +9594,70 @@
       <c r="AA54" s="116"/>
       <c r="AB54" s="133"/>
       <c r="AC54" s="134"/>
-      <c r="AF54">
-        <f>AF58</f>
-        <v>57</v>
-      </c>
-      <c r="AG54">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH54">
         <v>12</v>
       </c>
       <c r="AI54">
-        <v>31.26</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ54">
-        <f>AJ58</f>
+        <f>AJ59</f>
         <v>15</v>
       </c>
       <c r="AK54">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="AL54">
         <v>68</v>
       </c>
       <c r="AM54">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="117">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B55">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C55">
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D55">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E55">
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F55" s="112">
         <v>161</v>
       </c>
       <c r="G55">
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="L55">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M55">
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N55" s="113">
         <f t="shared" si="15"/>
-        <v>513091.35418300005</v>
+        <v>516226.70193500002</v>
       </c>
       <c r="O55">
-        <v>154.22999999999999</v>
+        <v>156.16</v>
       </c>
       <c r="Q55" s="115">
-        <v>8860.52</v>
+        <v>8744.58</v>
       </c>
       <c r="R55" s="127">
         <f t="shared" si="17"/>
-        <v>-5.319100910555985E-3</v>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S55" s="116"/>
       <c r="U55" s="116"/>
@@ -9664,33 +9669,25 @@
       <c r="AA55" s="116"/>
       <c r="AB55" s="133"/>
       <c r="AC55" s="134"/>
-      <c r="AD55">
-        <f>AD58</f>
-        <v>36</v>
-      </c>
-      <c r="AE55" s="135">
-        <v>38.15</v>
-      </c>
       <c r="AF55">
-        <f>AF58</f>
+        <f>AF59</f>
         <v>57</v>
       </c>
       <c r="AG55">
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH55">
-        <f>AH58</f>
         <v>12</v>
       </c>
       <c r="AI55">
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="AJ55">
-        <f>AJ58</f>
+        <f>AJ59</f>
         <v>15</v>
       </c>
       <c r="AK55">
-        <v>52.2</v>
+        <v>57.4</v>
       </c>
       <c r="AL55">
         <v>68</v>
@@ -9701,45 +9698,48 @@
     </row>
     <row r="56" spans="1:39">
       <c r="A56" s="117">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B56">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C56">
-        <v>30.905999999999999</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D56">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E56">
-        <v>33.542299999999997</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F56" s="112">
         <v>161</v>
       </c>
       <c r="G56">
-        <v>2072.52</v>
+        <v>2116.34</v>
       </c>
       <c r="L56">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M56">
-        <v>1.041954</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N56" s="113">
         <f t="shared" si="15"/>
-        <v>509025.91517699993</v>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O56">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q56" s="115">
-        <v>8907.65</v>
+        <v>8860.52</v>
       </c>
       <c r="R56" s="127">
         <f t="shared" si="17"/>
-        <v>-2.1273848882702007E-2</v>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S56" s="116"/>
       <c r="U56" s="116"/>
@@ -9752,32 +9752,32 @@
       <c r="AB56" s="133"/>
       <c r="AC56" s="134"/>
       <c r="AD56">
-        <f>AD58</f>
+        <f>AD59</f>
         <v>36</v>
       </c>
-      <c r="AE56">
-        <v>34.659999999999997</v>
+      <c r="AE56" s="135">
+        <v>38.15</v>
       </c>
       <c r="AF56">
-        <f>AF58</f>
+        <f>AF59</f>
         <v>57</v>
       </c>
       <c r="AG56">
-        <v>578.66060300000004</v>
+        <v>579.361718</v>
       </c>
       <c r="AH56">
-        <f>AH58</f>
+        <f>AH59</f>
         <v>12</v>
       </c>
       <c r="AI56">
-        <v>25.84</v>
+        <v>28.42</v>
       </c>
       <c r="AJ56">
-        <f>AJ58</f>
+        <f>AJ59</f>
         <v>15</v>
       </c>
       <c r="AK56">
-        <v>47.46</v>
+        <v>52.2</v>
       </c>
       <c r="AL56">
         <v>68</v>
@@ -9788,45 +9788,45 @@
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="117">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B57">
-        <f>B58</f>
+        <f>B59</f>
         <v>1110</v>
       </c>
       <c r="C57">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D57">
-        <f>D58</f>
+        <f>D59</f>
         <v>321.99</v>
       </c>
       <c r="E57">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F57" s="112">
         <v>161</v>
       </c>
       <c r="G57">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L57">
-        <f>L58</f>
+        <f>L59</f>
         <v>125000</v>
       </c>
       <c r="M57">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="N57" s="113">
         <f t="shared" si="15"/>
-        <v>499114.42414299998</v>
+        <v>509025.91517699993</v>
       </c>
       <c r="Q57" s="115">
-        <v>9097.15</v>
+        <v>8907.65</v>
       </c>
       <c r="R57" s="127">
         <f t="shared" si="17"/>
-        <v>-1.0612114783201454E-2</v>
+        <v>-2.1273848882702007E-2</v>
       </c>
       <c r="S57" s="116"/>
       <c r="U57" s="116"/>
@@ -9839,32 +9839,32 @@
       <c r="AB57" s="133"/>
       <c r="AC57" s="134"/>
       <c r="AD57">
-        <f>AD58</f>
+        <f>AD59</f>
         <v>36</v>
       </c>
       <c r="AE57">
-        <v>31.52</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF57">
-        <f>AF58</f>
+        <f>AF59</f>
         <v>57</v>
       </c>
       <c r="AG57">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH57">
-        <f>AH58</f>
+        <f>AH59</f>
         <v>12</v>
       </c>
       <c r="AI57">
-        <v>23.5</v>
+        <v>25.84</v>
       </c>
       <c r="AJ57">
-        <f>AJ58</f>
+        <f>AJ59</f>
         <v>15</v>
       </c>
       <c r="AK57">
-        <v>43.16</v>
+        <v>47.46</v>
       </c>
       <c r="AL57">
         <v>68</v>
@@ -9875,7 +9875,7 @@
     </row>
     <row r="58" spans="1:39">
       <c r="A58" s="117">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B58">
         <f>B59</f>
@@ -9902,26 +9902,35 @@
         <v>125000</v>
       </c>
       <c r="M58">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="N58" s="113">
         <f t="shared" si="15"/>
-        <v>496152.04914299998</v>
+        <v>499114.42414299998</v>
       </c>
       <c r="Q58" s="115">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="R58" s="127">
         <f t="shared" si="17"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S58" s="127"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S58" s="116"/>
+      <c r="U58" s="116"/>
+      <c r="V58" s="116"/>
+      <c r="W58" s="116"/>
+      <c r="X58" s="116"/>
+      <c r="Y58" s="116"/>
+      <c r="Z58" s="116"/>
+      <c r="AA58" s="116"/>
+      <c r="AB58" s="133"/>
+      <c r="AC58" s="134"/>
       <c r="AD58">
         <f>AD59</f>
         <v>36</v>
       </c>
       <c r="AE58">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="AF58">
         <f>AF59</f>
@@ -9935,30 +9944,35 @@
         <v>12</v>
       </c>
       <c r="AI58">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="AJ58">
+        <f>AJ59</f>
         <v>15</v>
       </c>
       <c r="AK58">
-        <v>39.24</v>
-      </c>
-      <c r="AM58" s="129">
-        <f>AM57</f>
+        <v>43.16</v>
+      </c>
+      <c r="AL58">
+        <v>68</v>
+      </c>
+      <c r="AM58">
         <v>11.33</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="117">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B59">
+        <f>B60</f>
         <v>1110</v>
       </c>
       <c r="C59">
         <v>30.7361</v>
       </c>
       <c r="D59">
+        <f>D60</f>
         <v>321.99</v>
       </c>
       <c r="E59">
@@ -9971,21 +9985,22 @@
         <v>2018.91</v>
       </c>
       <c r="L59">
+        <f>L60</f>
         <v>125000</v>
       </c>
       <c r="M59">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="N59" s="113">
         <f t="shared" si="15"/>
-        <v>503322.92414299998</v>
+        <v>496152.04914299998</v>
       </c>
       <c r="Q59" s="115">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="R59" s="127">
         <f t="shared" si="17"/>
-        <v>-1.292378585710563E-2</v>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S59" s="127"/>
       <c r="AD59">
@@ -9993,31 +10008,36 @@
         <v>36</v>
       </c>
       <c r="AE59">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="AF59">
+        <f>AF60</f>
         <v>57</v>
       </c>
       <c r="AG59">
         <v>576.58807100000001</v>
       </c>
       <c r="AH59">
+        <f>AH60</f>
         <v>12</v>
       </c>
       <c r="AI59">
-        <v>19.45</v>
-      </c>
-      <c r="AK59" s="129">
-        <f>AK58</f>
+        <v>21.38</v>
+      </c>
+      <c r="AJ59">
+        <v>15</v>
+      </c>
+      <c r="AK59">
         <v>39.24</v>
       </c>
-      <c r="AM59" s="129" t="s">
-        <v>69</v>
+      <c r="AM59" s="129">
+        <f>AM58</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" s="117">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B60">
         <v>1110</v>
@@ -10037,29 +10057,30 @@
       <c r="G60">
         <v>2018.91</v>
       </c>
-      <c r="L60" s="199">
-        <v>75000</v>
+      <c r="L60">
+        <v>125000</v>
       </c>
       <c r="M60">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="N60" s="113">
         <f t="shared" si="15"/>
-        <v>449692.54914299998</v>
+        <v>503322.92414299998</v>
       </c>
       <c r="Q60" s="115">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="R60" s="127">
         <f t="shared" si="17"/>
-        <v>-1.6847359545420826E-2</v>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S60" s="127"/>
       <c r="AD60">
+        <f>AD61</f>
         <v>36</v>
       </c>
       <c r="AE60">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="AF60">
         <v>57</v>
@@ -10067,20 +10088,23 @@
       <c r="AG60">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI60" s="129">
-        <f>AI59</f>
+      <c r="AH60">
+        <v>12</v>
+      </c>
+      <c r="AI60">
         <v>19.45</v>
       </c>
-      <c r="AK60" s="129" t="s">
+      <c r="AK60" s="129">
+        <f>AK59</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM60" s="129" t="s">
         <v>69</v>
-      </c>
-      <c r="AM60" s="130" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:39">
       <c r="A61" s="117">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B61">
         <v>1110</v>
@@ -10100,30 +10124,29 @@
       <c r="G61">
         <v>2018.91</v>
       </c>
-      <c r="L61">
-        <f>L62</f>
-        <v>50000</v>
+      <c r="L61" s="199">
+        <v>75000</v>
       </c>
       <c r="M61">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N61" s="113">
         <f t="shared" si="15"/>
-        <v>420821.92414299998</v>
+        <v>449692.54914299998</v>
       </c>
       <c r="Q61" s="115">
-        <v>9334.1299999999992</v>
+        <v>9179.48</v>
       </c>
       <c r="R61" s="127">
         <f t="shared" si="17"/>
-        <v>-4.2928478604864484E-3</v>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S61" s="127"/>
       <c r="AD61">
         <v>36</v>
       </c>
       <c r="AE61">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="AF61">
         <v>57</v>
@@ -10131,20 +10154,20 @@
       <c r="AG61">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI61" s="129" t="s">
+      <c r="AI61" s="129">
+        <f>AI60</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK61" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="AK61" s="130" t="s">
+      <c r="AM61" s="130" t="s">
         <v>68</v>
-      </c>
-      <c r="AM61" s="130">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:39">
       <c r="A62" s="117">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B62">
         <v>1110</v>
@@ -10165,28 +10188,29 @@
         <v>2018.91</v>
       </c>
       <c r="L62">
+        <f>L63</f>
         <v>50000</v>
       </c>
       <c r="M62">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N62" s="113">
         <f t="shared" si="15"/>
-        <v>420020.17414299998</v>
+        <v>420821.92414299998</v>
       </c>
       <c r="Q62" s="115">
-        <v>9374.2000000000007</v>
+        <v>9334.1299999999992</v>
       </c>
       <c r="R62" s="127">
         <f t="shared" si="17"/>
-        <v>2.8834460540633211E-3</v>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="S62" s="127"/>
       <c r="AD62">
         <v>36</v>
       </c>
       <c r="AE62">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="AF62">
         <v>57</v>
@@ -10194,22 +10218,40 @@
       <c r="AG62">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI62" s="130" t="s">
+      <c r="AI62" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK62" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="AK62" s="130">
-        <v>55.5</v>
-      </c>
-      <c r="AM62" s="116">
-        <f>(AM61-AM57)/AM57</f>
-        <v>0.73786407766990303</v>
+      <c r="AM62" s="130">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:39">
-      <c r="A63" s="198">
-        <v>45344</v>
-      </c>
-      <c r="L63" s="199">
+      <c r="A63" s="117">
+        <v>45345</v>
+      </c>
+      <c r="B63">
+        <v>1110</v>
+      </c>
+      <c r="C63">
+        <v>30.7361</v>
+      </c>
+      <c r="D63">
+        <v>321.99</v>
+      </c>
+      <c r="E63">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F63" s="112">
+        <v>161</v>
+      </c>
+      <c r="G63">
+        <v>2018.91</v>
+      </c>
+      <c r="L63">
         <v>50000</v>
       </c>
       <c r="M63">
@@ -10217,109 +10259,154 @@
       </c>
       <c r="N63" s="113">
         <f t="shared" si="15"/>
-        <v>50160.249999999993</v>
+        <v>420020.17414299998</v>
       </c>
       <c r="Q63" s="115">
-        <v>9347.17</v>
-      </c>
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R63" s="127">
+        <f t="shared" si="17"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S63" s="127"/>
       <c r="AD63">
         <v>36</v>
       </c>
       <c r="AE63">
-        <v>17.82</v>
-      </c>
-      <c r="AI63" s="130">
-        <v>45.72</v>
-      </c>
-      <c r="AK63" s="116">
-        <f>(AK62-AK58)/AK58</f>
-        <v>0.41437308868501521</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF63">
+        <v>57</v>
+      </c>
+      <c r="AG63">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI63" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK63" s="130">
+        <v>55.5</v>
+      </c>
+      <c r="AM63" s="116">
+        <f>(AM62-AM58)/AM58</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="64" spans="1:39">
+      <c r="A64" s="198">
+        <v>45344</v>
+      </c>
+      <c r="L64" s="199">
+        <v>50000</v>
+      </c>
       <c r="M64">
-        <v>0.93849000000000005</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N64" s="113">
+        <f t="shared" si="15"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q64" s="115">
+        <v>9347.17</v>
       </c>
       <c r="AD64">
         <v>36</v>
       </c>
-      <c r="AE64" s="129">
+      <c r="AE64">
+        <v>17.82</v>
+      </c>
+      <c r="AI64" s="130">
+        <v>45.72</v>
+      </c>
+      <c r="AK64" s="116">
+        <f>(AK63-AK59)/AK59</f>
+        <v>0.41437308868501521</v>
+      </c>
+    </row>
+    <row r="65" spans="13:39">
+      <c r="M65">
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD65">
+        <v>36</v>
+      </c>
+      <c r="AE65" s="129">
         <v>15.3</v>
       </c>
-      <c r="AI64" s="116">
-        <f>(AI63-AI59)/AI59</f>
+      <c r="AI65" s="116">
+        <f>(AI64-AI60)/AI60</f>
         <v>1.3506426735218509</v>
       </c>
-      <c r="AM64" s="132">
-        <f>(AL57*AM61)-(AL45*AM57)</f>
+      <c r="AM65" s="132">
+        <f>(AL58*AM62)-(AL46*AM58)</f>
         <v>568.48</v>
       </c>
     </row>
-    <row r="65" spans="13:37">
-      <c r="M65">
+    <row r="66" spans="13:39">
+      <c r="M66">
         <v>0.91198999999999997</v>
       </c>
-      <c r="R65" s="136" t="e">
-        <f>SUM(R10:R64)</f>
+      <c r="R66" s="136" t="e">
+        <f>SUM(R10:R65)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S65" s="136"/>
-      <c r="AE65" s="129" t="s">
+      <c r="S66" s="136"/>
+      <c r="AE66" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="AJ65" s="132" t="s">
+      <c r="AJ66" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AK65" s="132">
-        <f>(AJ58*AK62)-(AJ10*AK58)</f>
+      <c r="AK66" s="132">
+        <f>(AJ59*AK63)-(AJ10*AK59)</f>
         <v>832.5</v>
       </c>
     </row>
-    <row r="66" spans="13:37">
-      <c r="M66">
+    <row r="67" spans="13:39">
+      <c r="M67">
         <v>0.90268000000000004</v>
       </c>
-      <c r="AE66" s="130" t="s">
+      <c r="AE67" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="AH66" s="132" t="s">
+      <c r="AH67" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AI66" s="132">
-        <f>(AH59*AI63)-(AH10*AI59)</f>
+      <c r="AI67" s="132">
+        <f>(AH60*AI64)-(AH10*AI60)</f>
         <v>548.64</v>
       </c>
     </row>
-    <row r="67" spans="13:37">
-      <c r="M67">
+    <row r="68" spans="13:39">
+      <c r="M68">
         <v>0.89847999999999995</v>
       </c>
-      <c r="AD67" t="s">
+      <c r="AD68" t="s">
         <v>70</v>
       </c>
-      <c r="AE67" s="130">
+      <c r="AE68" s="130">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="13:37">
-      <c r="M68">
+    <row r="69" spans="13:39">
+      <c r="M69">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE68" s="116">
+      <c r="AE69" s="116">
         <f>Sayfa2!M60</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="69" spans="13:37">
-      <c r="M69">
+    <row r="70" spans="13:39">
+      <c r="M70">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="70" spans="13:37">
-      <c r="AD70" s="132" t="s">
+    <row r="71" spans="13:39">
+      <c r="AD71" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AE70" s="132">
+      <c r="AE71" s="132">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3E0AD6-11DC-431D-8316-9996B8933279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0554226B-0787-4CA4-8A8B-A6E0CF7CDACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1994,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="12.75"/>
@@ -2034,11 +2034,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>243928.94935600003</v>
+        <v>236473.125356</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2047,11 +2047,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>148.10500871645417</v>
+        <v>143.23023946456692</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2084,24 +2084,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I36)</f>
-        <v>782465.26390000002</v>
+        <v>774982.48990000004</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K37)</f>
-        <v>218852.41146500001</v>
+        <v>211396.58746499999</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.39674717400095311</v>
+        <v>0.38323086370742199</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-0.12263819912592437</v>
+        <v>-0.14397675325198167</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-6.9689656930731675E-2</v>
+        <v>-7.6733239225544689E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2256,7 +2256,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O37)</f>
-        <v>218852.41146500001</v>
+        <v>211396.58746500002</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>23.46</v>
+        <v>22.34</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>938.40000000000009</v>
+        <v>893.6</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-7.0399999999999991</v>
+        <v>-8.16</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-281.59999999999997</v>
+        <v>-326.39999999999998</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M15" s="116">
         <f>K15/E15</f>
-        <v>-0.23081967213114751</v>
+        <v>-0.26754098360655737</v>
       </c>
       <c r="N15" s="116">
         <f>M15/L15*30</f>
-        <v>-0.18222605694564276</v>
+        <v>-0.19110070257611242</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2340,31 +2340,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>27.46</v>
+        <v>26.48</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>961.1</v>
+        <v>926.80000000000007</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-9.93</v>
+        <v>-10.91</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-347.55</v>
+        <v>-381.85</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M16" s="116">
         <f>K16/E16</f>
-        <v>-0.26557903182669163</v>
+        <v>-0.29178924846215565</v>
       </c>
       <c r="N16" s="116">
         <f>M16/L16*30</f>
-        <v>-0.20966765670528287</v>
+        <v>-0.20842089175868259</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2394,31 +2394,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>122.4</v>
+        <v>119</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1224</v>
+        <v>1190</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-12.599999999999994</v>
+        <v>-16</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-125.99999999999994</v>
+        <v>-160</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M17" s="116">
         <f>K17/E17</f>
-        <v>-9.3333333333333296E-2</v>
+        <v>-0.11851851851851852</v>
       </c>
       <c r="N17" s="116">
         <f>M17/L17*30</f>
-        <v>-6.0869565217391279E-2</v>
+        <v>-7.1111111111111111E-2</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F19" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G19" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="L19" s="66">
         <f>F19-B19</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M19" s="116">
         <f>K19/E19</f>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="N19" s="116">
         <f>M19/L19*30</f>
-        <v>4.2132444968476714E-2</v>
+        <v>3.0094603548911945E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2507,31 +2507,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.77</v>
+        <v>23.4</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>59425</v>
+        <v>58500</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>-0.94000000000000128</v>
+        <v>-1.3100000000000023</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>-2350.0000000000032</v>
+        <v>-3275.0000000000055</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M21" s="116">
         <f>K21/E21</f>
-        <v>-3.8041278834480018E-2</v>
+        <v>-5.3014973694860468E-2</v>
       </c>
       <c r="N21" s="116">
         <f>M21/L21*30</f>
-        <v>-3.0032588553536858E-2</v>
+        <v>-3.786783835347176E-2</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2588,31 +2588,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.77</v>
+        <v>23.4</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>59425</v>
+        <v>58500</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>-1.1400000000000006</v>
+        <v>-1.5100000000000016</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>-2850.0000000000014</v>
+        <v>-3775.0000000000041</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>-4.5764753111200346E-2</v>
+        <v>-6.0618225612204001E-2</v>
       </c>
       <c r="N23" s="116">
         <f>M23/L23*30</f>
-        <v>-3.5203656239384887E-2</v>
+        <v>-4.2291785310839998E-2</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2669,31 +2669,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.77</v>
+        <v>23.4</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>59425</v>
+        <v>58500</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-1.3500000000000014</v>
+        <v>-1.7200000000000024</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-3375.0000000000036</v>
+        <v>-4300.0000000000064</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-5.3742038216560567E-2</v>
+        <v>-6.847133757961793E-2</v>
       </c>
       <c r="N25" s="116">
         <f>M25/L25*30</f>
-        <v>-3.8387170154686116E-2</v>
+        <v>-4.4655220160620387E-2</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2750,31 +2750,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.831233</v>
+        <v>0.80056899999999998</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>62342.474999999999</v>
+        <v>60042.674999999996</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.23320200000000002</v>
+        <v>-0.26386600000000004</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-17490.150000000001</v>
+        <v>-19789.950000000004</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.21908524240559549</v>
+        <v>-0.24789301366452632</v>
       </c>
       <c r="N27" s="116">
         <f>M27/L27*30</f>
-        <v>-6.4436836001645723E-2</v>
+        <v>-7.0158400093733864E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2805,35 +2805,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.831233</v>
+        <v>0.80056899999999998</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>41561.65</v>
+        <v>40028.449999999997</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.1719719999999999</v>
+        <v>-0.20263599999999993</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-8598.5999999999949</v>
+        <v>-10131.799999999996</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.1714225905971361</v>
+        <v>-0.20198862645222057</v>
       </c>
       <c r="N28" s="116">
         <f>M28/L28*30</f>
-        <v>-4.8515827527491354E-2</v>
+        <v>-5.5087807214241974E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-34584.118535000001</v>
+        <v>-41305.218535000022</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2872,50 +2872,50 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F46" si="0">$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
         <f>Sayfa4!G10</f>
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="I30" s="51">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
-        <v>116036.5</v>
+        <v>115767</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ref="J30:J36" si="1">H30-D30</f>
-        <v>494.20000000000005</v>
+        <v>488.81000000000017</v>
       </c>
       <c r="K30" s="65">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>22239.000000000004</v>
+        <v>21996.450000000008</v>
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L36" si="2">F30-B30</f>
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M36" si="3">K30/E30</f>
-        <v>0.27056768845844309</v>
+        <v>0.26761673774862726</v>
       </c>
       <c r="N30" s="116">
         <f t="shared" ref="N30:N36" si="4">M30/L30*30</f>
-        <v>3.5138660838758842E-2</v>
+        <v>3.4163838861526886E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>116036.5</v>
+        <v>115767</v>
       </c>
       <c r="Q30" s="1">
         <v>2000</v>
       </c>
       <c r="R30" s="1">
         <f>P30/Q30</f>
-        <v>58.018250000000002</v>
+        <v>57.883499999999998</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2937,50 +2937,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
       </c>
       <c r="H31" s="64">
         <f>H30</f>
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>25528.03</v>
+        <v>25468.74</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>1918.63</v>
+        <v>1913.2400000000002</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>21104.93</v>
+        <v>21045.640000000003</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
-        <v>4.7715244963939316</v>
+        <v>4.7581198706789358</v>
       </c>
       <c r="N31" s="116">
         <f t="shared" si="4"/>
-        <v>0.11869463921377939</v>
+        <v>0.11796991414906453</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25528.03</v>
+        <v>25468.74</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>12.764014999999999</v>
+        <v>12.73437</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3002,50 +3002,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>116036.5</v>
+        <v>115767</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1851.87</v>
+        <v>1846.48</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>92593.5</v>
+        <v>92324</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>3.9497291302307724</v>
+        <v>3.9382331612848187</v>
       </c>
       <c r="N32" s="116">
         <f t="shared" si="4"/>
-        <v>8.6743685144160448E-2</v>
+        <v>8.6238682363901142E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>116036.5</v>
+        <v>115767</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>58.018250000000002</v>
+        <v>57.883499999999998</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3075,36 +3075,36 @@
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>58018.25</v>
+        <v>57883.5</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>1920.8600000000001</v>
+        <v>1915.4700000000003</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>48021.5</v>
+        <v>47886.750000000007</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1430</v>
+        <v>1434</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>4.8037112061419958</v>
+        <v>4.7902318253432377</v>
       </c>
       <c r="N33" s="116">
         <f t="shared" si="4"/>
-        <v>0.10077715817081109</v>
+        <v>0.10021405492349869</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
         <f>SUM(R30:R32)</f>
-        <v>128.80051499999999</v>
+        <v>128.50137000000001</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3134,31 +3134,31 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>55697.520000000004</v>
+        <v>55568.160000000003</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>2046.92</v>
+        <v>2041.5300000000002</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>49126.080000000002</v>
+        <v>48996.72</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>7.4756948248785653</v>
+        <v>7.4560096417223622</v>
       </c>
       <c r="N34" s="116">
         <f t="shared" si="4"/>
-        <v>0.13616930464259683</v>
+        <v>0.13548170154553052</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3189,40 +3189,40 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2083.14</v>
+        <v>2077.75</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>2083.14</v>
+        <v>2077.75</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>8.7677932572919737</v>
+        <v>8.7451071173029167</v>
       </c>
       <c r="N35" s="116">
         <f t="shared" si="4"/>
-        <v>0.15970479521479003</v>
+        <v>0.15890564113815114</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
         <f>SUM(P30:P34)</f>
-        <v>257601.03</v>
+        <v>257002.74</v>
       </c>
       <c r="R35" s="1">
         <f>P35/2220.32</f>
-        <v>116.01977642862289</v>
+        <v>115.750315269871</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3252,43 +3252,43 @@
       </c>
       <c r="H36" s="64">
         <f>Sayfa4!C5</f>
-        <v>31.457999999999998</v>
+        <v>31.553599999999999</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>34918.379999999997</v>
+        <v>35024.495999999999</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>16.457999999999998</v>
+        <v>16.553599999999999</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>18268.379999999997</v>
+        <v>18374.495999999999</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>1.0972</v>
+        <v>1.1035733333333333</v>
       </c>
       <c r="N36" s="116">
         <f t="shared" si="4"/>
-        <v>4.8692307692307694E-2</v>
+        <v>4.868705882352941E-2</v>
       </c>
       <c r="O36" s="70">
         <f>SUM(K30:K36)</f>
-        <v>253436.53000000003</v>
+        <v>252701.80600000004</v>
       </c>
       <c r="P36" s="6">
         <f>SUM(P35:P35)</f>
-        <v>257601.03</v>
+        <v>257002.74</v>
       </c>
       <c r="R36" s="1">
         <f>P36/2000</f>
-        <v>128.80051499999999</v>
+        <v>128.50137000000001</v>
       </c>
       <c r="T36" s="1" t="e">
         <f>P35/#REF!</f>
@@ -3313,7 +3313,7 @@
       <c r="O37" s="32"/>
       <c r="R37" s="67">
         <f>1-(R36/R35)</f>
-        <v>-0.11016000000000004</v>
+        <v>-0.11016000000000026</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3334,7 +3334,7 @@
       <c r="N39" s="116"/>
       <c r="R39" s="1">
         <f>R36*2220.32</f>
-        <v>285978.35946479999</v>
+        <v>285314.16183840006</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="F44" s="62">
         <f t="shared" si="0"/>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G44" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="L44" s="66">
         <f t="shared" ref="L44" si="6">F44-B44</f>
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="M44" s="67">
         <f t="shared" ref="M44" si="7">K44/E44</f>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="N44" s="116">
         <f t="shared" ref="N44" si="8">M44/L44*30</f>
-        <v>3.9166591598007727E-2</v>
+        <v>3.893276120040768E-2</v>
       </c>
       <c r="O44" s="70"/>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="F45" s="62">
         <f t="shared" si="0"/>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G45" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="L45" s="66">
         <f>F45-B45</f>
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="M45" s="67">
         <f>K45/E45</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="N45" s="116">
         <f>M45/L45*30</f>
-        <v>4.0378998560991558E-2</v>
+        <v>4.0137929912866237E-2</v>
       </c>
       <c r="O45" s="70"/>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="F46" s="62">
         <f t="shared" si="0"/>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G46" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="L46" s="66">
         <f>F46-B46</f>
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="M46" s="67">
         <f>K46/E46</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F73" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G73" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="L73" s="66">
         <f>F73-B73</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M73" s="116">
         <f>K73/E73</f>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="N73" s="116">
         <f>M73/L73*30</f>
-        <v>4.2132444968476714E-2</v>
+        <v>3.0094603548911945E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="F74" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G74" s="63">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="L74" s="66">
         <f>F74-B74</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M74" s="116">
         <f>K74/E74</f>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="N74" s="116">
         <f>M74/L74*30</f>
-        <v>4.2466384994781448E-2</v>
+        <v>3.8421967376230833E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="F75" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G75" s="63">
         <v>12</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="L75" s="66">
         <f>F75-B75</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M75" s="116">
         <f>K75/E75</f>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="N75" s="116">
         <f>M75/L75*30</f>
-        <v>3.8995289049132305E-2</v>
+        <v>3.5281451996833989E-2</v>
       </c>
       <c r="O75" s="102"/>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="F76" s="62">
         <f>$B$2</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="G76" s="63">
         <v>15</v>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="L76" s="66">
         <f>F76-B76</f>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M76" s="116">
         <f>K76/E76</f>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="N76" s="116">
         <f>M76/L76*30</f>
-        <v>3.8995289049132305E-2</v>
+        <v>3.5281451996833989E-2</v>
       </c>
       <c r="O76" s="102"/>
     </row>
@@ -5930,12 +5930,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM73"/>
+  <dimension ref="A4:AM74"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="Q10" sqref="Q10"/>
+      <selection pane="topRight" activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5987,51 +5987,51 @@
     <row r="5" spans="1:39">
       <c r="A5" s="117">
         <f>A10</f>
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="C5">
         <f>C10</f>
-        <v>31.457999999999998</v>
+        <v>31.553599999999999</v>
       </c>
       <c r="E5">
         <f>E10</f>
-        <v>34.078499999999998</v>
+        <v>33.882300000000001</v>
       </c>
       <c r="G5">
         <f>G10</f>
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="I5">
         <f>I10</f>
-        <v>23.77</v>
+        <v>23.4</v>
       </c>
       <c r="K5">
         <f>K10</f>
-        <v>656.34613999999999</v>
+        <v>689.86404900000002</v>
       </c>
       <c r="M5">
         <f>M10</f>
-        <v>0.831233</v>
+        <v>0.80056899999999998</v>
       </c>
       <c r="O5" s="115">
         <f>Sayfa2!D3</f>
-        <v>148.10500871645417</v>
+        <v>143.23023946456692</v>
       </c>
       <c r="P5" s="118">
         <f>Sayfa2!K2</f>
-        <v>243928.94935600003</v>
+        <v>236473.125356</v>
       </c>
       <c r="Y5" s="115">
         <f>Y10</f>
-        <v>27.46</v>
+        <v>26.48</v>
       </c>
       <c r="AA5" s="115">
         <f>AA10</f>
-        <v>23.46</v>
+        <v>22.34</v>
       </c>
       <c r="AC5" s="115">
         <f>AC10</f>
-        <v>122.4</v>
+        <v>119</v>
       </c>
       <c r="AE5">
         <f>AE10</f>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM48</f>
+        <f>AM49</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -6139,106 +6139,106 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="117">
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="B10">
-        <f>B60</f>
+        <f>B61</f>
         <v>1110</v>
       </c>
       <c r="C10">
-        <v>31.457999999999998</v>
+        <v>31.553599999999999</v>
       </c>
       <c r="D10">
-        <f>D60</f>
+        <f>D61</f>
         <v>321.99</v>
       </c>
       <c r="E10">
-        <v>34.078499999999998</v>
+        <v>33.882300000000001</v>
       </c>
       <c r="F10" s="112">
         <v>156</v>
       </c>
       <c r="G10">
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="H10" s="199">
         <v>7500</v>
       </c>
       <c r="I10" s="199">
-        <v>23.77</v>
+        <v>23.4</v>
       </c>
       <c r="J10">
         <v>210</v>
       </c>
       <c r="K10" s="137">
-        <v>656.34613999999999</v>
+        <v>689.86404900000002</v>
       </c>
       <c r="L10">
-        <f>L60</f>
+        <f>L61</f>
         <v>125000</v>
       </c>
       <c r="M10">
-        <v>0.831233</v>
+        <v>0.80056899999999998</v>
       </c>
       <c r="N10" s="113">
-        <f t="shared" ref="N10:N21" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>827937.01061500004</v>
+        <f t="shared" ref="N10:N22" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
+        <v>827569.87306699995</v>
       </c>
       <c r="O10">
-        <v>148.11000000000001</v>
+        <v>143.22999999999999</v>
       </c>
       <c r="P10">
-        <v>243928.95</v>
+        <v>236473.13</v>
       </c>
       <c r="Q10" s="115">
-        <v>10186.83</v>
+        <v>10051.370000000001</v>
       </c>
       <c r="R10" s="127">
-        <f>(1-(Q17/Q10))</f>
-        <v>-4.8166112519792748E-2</v>
+        <f>(1-(Q11/Q10))</f>
+        <v>-1.3476769833365987E-2</v>
       </c>
       <c r="S10" s="116">
-        <f>(N10/$N$54)-1</f>
-        <v>0.56083519064718579</v>
+        <f t="shared" ref="S10:S17" si="1">(N10/$N$55)-1</f>
+        <v>0.56014305924421737</v>
       </c>
       <c r="T10" s="114">
-        <f>(A10-$A$54)</f>
-        <v>88</v>
+        <f t="shared" ref="T10:T17" si="2">(A10-$A$55)</f>
+        <v>92</v>
       </c>
       <c r="U10" s="116">
-        <f>((N10/$N$54)-1)/T10*30</f>
-        <v>0.1911938149933588</v>
+        <f>((N10/$N$55)-1)/T10*30</f>
+        <v>0.18265534540572306</v>
       </c>
       <c r="V10" s="116"/>
       <c r="W10" s="116"/>
       <c r="X10" s="134"/>
       <c r="Y10" s="134">
-        <v>27.46</v>
+        <v>26.48</v>
       </c>
       <c r="Z10" s="134"/>
       <c r="AA10" s="134">
-        <v>23.46</v>
+        <v>22.34</v>
       </c>
       <c r="AB10">
         <v>10</v>
       </c>
       <c r="AC10" s="115">
-        <v>122.4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="117">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B11">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C11">
         <v>31.457999999999998</v>
       </c>
       <c r="D11">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E11">
@@ -6263,14 +6263,14 @@
         <v>656.34613999999999</v>
       </c>
       <c r="L11">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M11">
         <v>0.831233</v>
       </c>
       <c r="N11" s="113">
-        <f t="shared" ref="N11" si="1">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
+        <f t="shared" ref="N11" si="3">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
         <v>827937.01061500004</v>
       </c>
       <c r="O11">
@@ -6280,23 +6280,23 @@
         <v>243928.95</v>
       </c>
       <c r="Q11" s="115">
-        <v>10279.69</v>
+        <v>10186.83</v>
       </c>
       <c r="R11" s="127">
-        <f>(1-(Q18/Q11))</f>
-        <v>-3.6700523070248181E-2</v>
+        <f t="shared" ref="R11:R25" si="4">(1-(Q12/Q11))</f>
+        <v>-9.1156915350507628E-3</v>
       </c>
       <c r="S11" s="116">
-        <f>(N11/$N$54)-1</f>
+        <f t="shared" ref="S11" si="5">(N11/$N$55)-1</f>
         <v>0.56083519064718579</v>
       </c>
       <c r="T11" s="114">
-        <f>(A11-$A$54)</f>
-        <v>87</v>
+        <f t="shared" ref="T11" si="6">(A11-$A$55)</f>
+        <v>88</v>
       </c>
       <c r="U11" s="116">
-        <f>((N11/$N$54)-1)/T11*30</f>
-        <v>0.19339144505075373</v>
+        <f>((N11/$N$55)-1)/T11*30</f>
+        <v>0.1911938149933588</v>
       </c>
       <c r="V11" s="116"/>
       <c r="W11" s="116"/>
@@ -6317,462 +6317,462 @@
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="117">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B12">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.783300000000001</v>
+        <v>31.457999999999998</v>
       </c>
       <c r="D12">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>34.557899999999997</v>
+        <v>34.078499999999998</v>
       </c>
       <c r="F12" s="112">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2330.9299999999998</v>
+        <v>2320.73</v>
       </c>
       <c r="H12" s="199">
         <v>7500</v>
       </c>
       <c r="I12" s="199">
-        <v>24.06</v>
+        <v>23.77</v>
       </c>
       <c r="J12">
         <v>210</v>
       </c>
       <c r="K12" s="137">
-        <v>654.52437399999997</v>
+        <v>656.34613999999999</v>
       </c>
       <c r="L12">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.79747299999999999</v>
+        <v>0.831233</v>
       </c>
       <c r="N12" s="113">
-        <f t="shared" ref="N12" si="2">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
-        <v>827616.08476100001</v>
+        <f t="shared" ref="N12" si="7">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
+        <v>827937.01061500004</v>
       </c>
       <c r="O12">
-        <v>148.06</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="P12">
-        <v>243565.65</v>
+        <v>243928.95</v>
       </c>
       <c r="Q12" s="115">
-        <v>10350.959999999999</v>
+        <v>10279.69</v>
       </c>
       <c r="R12" s="127">
-        <f>(1-(Q18/Q12))</f>
-        <v>-2.9562475364603769E-2</v>
+        <f t="shared" si="4"/>
+        <v>-6.9330884491651812E-3</v>
       </c>
       <c r="S12" s="116">
-        <f>(N12/$N$54)-1</f>
-        <v>0.56023017799514885</v>
+        <f t="shared" si="1"/>
+        <v>0.56083519064718579</v>
       </c>
       <c r="T12" s="114">
-        <f>(A12-$A$54)</f>
-        <v>86</v>
+        <f t="shared" si="2"/>
+        <v>87</v>
       </c>
       <c r="U12" s="116">
-        <f>((N12/$N$54)-1)/T12*30</f>
-        <v>0.19542913185877286</v>
+        <f>((N12/$N$55)-1)/T12*30</f>
+        <v>0.19339144505075373</v>
       </c>
       <c r="V12" s="116"/>
       <c r="W12" s="116"/>
       <c r="X12" s="134"/>
       <c r="Y12" s="134">
-        <v>29.06</v>
+        <v>27.46</v>
       </c>
       <c r="Z12" s="134"/>
       <c r="AA12" s="134">
-        <v>24.48</v>
+        <v>23.46</v>
       </c>
       <c r="AB12">
         <v>10</v>
       </c>
       <c r="AC12" s="115">
-        <v>119</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="117">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B13">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C13">
-        <v>31.6645</v>
+        <v>31.783300000000001</v>
       </c>
       <c r="D13">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E13">
-        <v>34.409799999999997</v>
+        <v>34.557899999999997</v>
       </c>
       <c r="F13" s="112">
         <v>156</v>
       </c>
       <c r="G13">
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="H13" s="199">
         <v>7500</v>
       </c>
       <c r="I13" s="199">
-        <v>23.89</v>
+        <v>24.06</v>
       </c>
       <c r="J13">
         <v>210</v>
       </c>
       <c r="K13" s="137">
-        <v>653.60767299999998</v>
+        <v>654.52437399999997</v>
       </c>
       <c r="L13">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M13">
-        <v>0.79912700000000003</v>
+        <v>0.79747299999999999</v>
       </c>
       <c r="N13" s="113">
-        <f t="shared" ref="N13" si="3">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
-        <v>824375.53283199994</v>
+        <f t="shared" ref="N13" si="8">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
+        <v>827616.08476100001</v>
       </c>
       <c r="O13">
-        <v>146.71</v>
+        <v>148.06</v>
       </c>
       <c r="P13">
-        <v>241190.1</v>
+        <v>243565.65</v>
       </c>
       <c r="Q13" s="115">
-        <v>10364.56</v>
+        <v>10350.959999999999</v>
       </c>
       <c r="R13" s="127">
-        <f>(1-(Q18/Q13))</f>
-        <v>-2.8211520797795542E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.3138877939824489E-3</v>
       </c>
       <c r="S13" s="116">
-        <f>(N13/$N$54)-1</f>
-        <v>0.55412105686267799</v>
+        <f t="shared" si="1"/>
+        <v>0.56023017799514885</v>
       </c>
       <c r="T13" s="114">
-        <f>(A13-$A$54)</f>
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>86</v>
       </c>
       <c r="U13" s="116">
-        <f>((N13/$N$54)-1)/T13*30</f>
-        <v>0.1955721377162393</v>
+        <f>((N13/$N$55)-1)/T13*30</f>
+        <v>0.19542913185877286</v>
       </c>
       <c r="V13" s="116"/>
       <c r="W13" s="116"/>
       <c r="X13" s="134"/>
       <c r="Y13" s="134">
-        <v>30.58</v>
+        <v>29.06</v>
       </c>
       <c r="Z13" s="134"/>
       <c r="AA13" s="134">
-        <v>26.14</v>
+        <v>24.48</v>
       </c>
       <c r="AB13">
         <v>10</v>
       </c>
       <c r="AC13" s="115">
-        <v>114.6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="117">
-        <v>45443</v>
+        <v>45447</v>
       </c>
       <c r="B14">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C14">
-        <v>31.576599999999999</v>
+        <v>31.6645</v>
       </c>
       <c r="D14">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E14">
-        <v>34.157400000000003</v>
+        <v>34.409799999999997</v>
       </c>
       <c r="F14" s="112">
         <v>156</v>
       </c>
       <c r="G14">
-        <v>2324.5500000000002</v>
+        <v>2319.39</v>
       </c>
       <c r="H14" s="199">
         <v>7500</v>
       </c>
       <c r="I14" s="199">
-        <v>24.04</v>
+        <v>23.89</v>
       </c>
       <c r="J14">
         <v>210</v>
       </c>
       <c r="K14" s="137">
-        <v>649.96368099999995</v>
+        <v>653.60767299999998</v>
       </c>
       <c r="L14">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M14">
-        <v>0.80517899999999998</v>
+        <v>0.79912700000000003</v>
       </c>
       <c r="N14" s="113">
-        <f t="shared" ref="N14" si="4">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
-        <v>826117.91523599997</v>
+        <f t="shared" ref="N14" si="9">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
+        <v>824375.53283199994</v>
       </c>
       <c r="O14">
-        <v>147.47</v>
+        <v>146.71</v>
       </c>
       <c r="P14">
-        <v>241854.59</v>
+        <v>241190.1</v>
       </c>
       <c r="Q14" s="115">
-        <v>10400.48</v>
+        <v>10364.56</v>
       </c>
       <c r="R14" s="127">
-        <f>(1-(Q18/Q14))</f>
-        <v>-2.4660400289217455E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.4656560432859695E-3</v>
       </c>
       <c r="S14" s="116">
-        <f>(N14/$N$54)-1</f>
-        <v>0.55740581371840481</v>
+        <f t="shared" si="1"/>
+        <v>0.55412105686267799</v>
       </c>
       <c r="T14" s="114">
-        <f>(A14-$A$54)</f>
-        <v>81</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="U14" s="116">
-        <f>((N14/$N$54)-1)/T14*30</f>
-        <v>0.20644659767348328</v>
+        <f>((N14/$N$55)-1)/T14*30</f>
+        <v>0.1955721377162393</v>
       </c>
       <c r="V14" s="116"/>
       <c r="W14" s="116"/>
       <c r="X14" s="134"/>
       <c r="Y14" s="134">
-        <v>27.94</v>
+        <v>30.58</v>
       </c>
       <c r="Z14" s="134"/>
       <c r="AA14" s="134">
-        <v>24.08</v>
+        <v>26.14</v>
       </c>
       <c r="AB14">
         <v>10</v>
       </c>
       <c r="AC14" s="115">
-        <v>116</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="117">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B15">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.554500000000001</v>
+        <v>31.576599999999999</v>
       </c>
       <c r="D15">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>34.104100000000003</v>
+        <v>34.157400000000003</v>
       </c>
       <c r="F15" s="112">
         <v>156</v>
       </c>
       <c r="G15">
-        <v>2317.36</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="H15" s="199">
         <v>7500</v>
       </c>
       <c r="I15" s="199">
-        <v>24</v>
+        <v>24.04</v>
       </c>
       <c r="J15">
         <v>210</v>
       </c>
       <c r="K15" s="137">
-        <v>649.05997200000002</v>
+        <v>649.96368099999995</v>
       </c>
       <c r="L15">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M15">
-        <v>0.78746400000000005</v>
+        <v>0.80517899999999998</v>
       </c>
       <c r="N15" s="113">
-        <f t="shared" ref="N15" si="5">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
-        <v>822250.4282790001</v>
+        <f t="shared" ref="N15" si="10">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
+        <v>826117.91523599997</v>
       </c>
       <c r="O15">
-        <v>145.25</v>
+        <v>147.47</v>
       </c>
       <c r="P15">
-        <v>238057.84</v>
+        <v>241854.59</v>
       </c>
       <c r="Q15" s="115">
-        <v>10481.299999999999</v>
+        <v>10400.48</v>
       </c>
       <c r="R15" s="127">
-        <f>(1-(Q18/Q15))</f>
-        <v>-1.6759371452014449E-2</v>
+        <f t="shared" si="4"/>
+        <v>-7.7707951940679809E-3</v>
       </c>
       <c r="S15" s="116">
-        <f>(N15/$N$54)-1</f>
-        <v>0.55011478835722394</v>
+        <f t="shared" si="1"/>
+        <v>0.55740581371840481</v>
       </c>
       <c r="T15" s="114">
-        <f>(A15-$A$54)</f>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>81</v>
       </c>
       <c r="U15" s="116">
-        <f>((N15/$N$54)-1)/T15*30</f>
-        <v>0.20629304563395898</v>
+        <f>((N15/$N$55)-1)/T15*30</f>
+        <v>0.20644659767348328</v>
       </c>
       <c r="V15" s="116"/>
       <c r="W15" s="116"/>
       <c r="X15" s="134"/>
       <c r="Y15" s="134">
-        <v>28.24</v>
+        <v>27.94</v>
       </c>
       <c r="Z15" s="134"/>
       <c r="AA15" s="134">
-        <v>24.78</v>
+        <v>24.08</v>
       </c>
       <c r="AB15">
         <v>10</v>
       </c>
       <c r="AC15" s="115">
-        <v>119.1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="117">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B16">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C16">
-        <v>31.4527</v>
+        <v>31.554500000000001</v>
       </c>
       <c r="D16">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E16">
-        <v>34.006700000000002</v>
+        <v>34.104100000000003</v>
       </c>
       <c r="F16" s="112">
         <v>156</v>
       </c>
       <c r="G16">
-        <v>2331.79</v>
+        <v>2317.36</v>
       </c>
       <c r="H16" s="199">
         <v>7500</v>
       </c>
       <c r="I16" s="199">
-        <v>23.99</v>
+        <v>24</v>
       </c>
       <c r="J16">
         <v>210</v>
       </c>
-      <c r="K16">
-        <v>648.15704900000003</v>
+      <c r="K16" s="137">
+        <v>649.05997200000002</v>
       </c>
       <c r="L16">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M16">
-        <v>0.81522399999999995</v>
+        <v>0.78746400000000005</v>
       </c>
       <c r="N16" s="113">
-        <f t="shared" ref="N16" si="6">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
-        <v>827562.53462299996</v>
+        <f t="shared" ref="N16" si="11">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
+        <v>822250.4282790001</v>
       </c>
       <c r="O16">
-        <v>148.58000000000001</v>
+        <v>145.25</v>
       </c>
       <c r="P16">
-        <v>243375.9</v>
+        <v>238057.84</v>
       </c>
       <c r="Q16" s="115">
-        <v>10514.86</v>
+        <v>10481.299999999999</v>
       </c>
       <c r="R16" s="127">
-        <f>(1-(Q18/Q16))</f>
-        <v>-1.3514207512035137E-2</v>
+        <f t="shared" si="4"/>
+        <v>-3.2018928949655301E-3</v>
       </c>
       <c r="S16" s="116">
-        <f>(N16/$N$54)-1</f>
-        <v>0.56012922473568239</v>
+        <f t="shared" si="1"/>
+        <v>0.55011478835722394</v>
       </c>
       <c r="T16" s="114">
-        <f>(A16-$A$54)</f>
-        <v>79</v>
+        <f t="shared" si="2"/>
+        <v>80</v>
       </c>
       <c r="U16" s="116">
-        <f>((N16/$N$54)-1)/T16*30</f>
-        <v>0.21270730053253761</v>
+        <f>((N16/$N$55)-1)/T16*30</f>
+        <v>0.20629304563395898</v>
       </c>
       <c r="V16" s="116"/>
       <c r="W16" s="116"/>
       <c r="X16" s="134"/>
       <c r="Y16" s="134">
-        <v>28.18</v>
+        <v>28.24</v>
       </c>
       <c r="Z16" s="134"/>
       <c r="AA16" s="134">
-        <v>24.8</v>
+        <v>24.78</v>
       </c>
       <c r="AB16">
         <v>10</v>
       </c>
       <c r="AC16" s="115">
-        <v>119.6</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="117">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="B17">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C17">
         <v>31.4527</v>
       </c>
       <c r="D17">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E17">
@@ -6794,43 +6794,43 @@
         <v>210</v>
       </c>
       <c r="K17">
-        <v>647.25598100000002</v>
+        <v>648.15704900000003</v>
       </c>
       <c r="L17">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M17">
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="N17" s="113">
-        <f t="shared" si="0"/>
-        <v>833145.31034299999</v>
+        <f t="shared" ref="N17" si="12">(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)+(J17*K17)</f>
+        <v>827562.53462299996</v>
       </c>
       <c r="O17">
-        <v>153.71</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="P17">
-        <v>251476.74</v>
+        <v>243375.9</v>
       </c>
       <c r="Q17" s="115">
-        <v>10677.49</v>
+        <v>10514.86</v>
       </c>
       <c r="R17" s="127">
-        <f t="shared" ref="R17:R31" si="7">(1-(Q18/Q17))</f>
-        <v>1.9227365232841187E-3</v>
+        <f t="shared" si="4"/>
+        <v>-1.5466682390445463E-2</v>
       </c>
       <c r="S17" s="116">
-        <f t="shared" ref="S17" si="8">(N17/$N$54)-1</f>
-        <v>0.57065392974771467</v>
+        <f t="shared" si="1"/>
+        <v>0.56012922473568239</v>
       </c>
       <c r="T17" s="114">
-        <f t="shared" ref="T17" si="9">(A17-$A$54)</f>
-        <v>78</v>
+        <f t="shared" si="2"/>
+        <v>79</v>
       </c>
       <c r="U17" s="116">
-        <f>((N17/$N$54)-1)/T17*30</f>
-        <v>0.21948228067219797</v>
+        <f>((N17/$N$55)-1)/T17*30</f>
+        <v>0.21270730053253761</v>
       </c>
       <c r="V17" s="116"/>
       <c r="W17" s="116"/>
@@ -6851,42 +6851,42 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="117">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="B18">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>31.436</v>
+        <v>31.4527</v>
       </c>
       <c r="D18">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>34.100200000000001</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F18" s="112">
         <v>156</v>
       </c>
       <c r="G18">
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="H18" s="199">
         <v>7500</v>
       </c>
       <c r="I18" s="199">
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="J18">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K18">
-        <v>646.30405299999995</v>
+        <v>647.25598100000002</v>
       </c>
       <c r="L18">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M18">
@@ -6894,7 +6894,7 @@
       </c>
       <c r="N18" s="113">
         <f t="shared" si="0"/>
-        <v>719037.96498799999</v>
+        <v>833145.31034299999</v>
       </c>
       <c r="O18">
         <v>153.71</v>
@@ -6903,354 +6903,354 @@
         <v>251476.74</v>
       </c>
       <c r="Q18" s="115">
-        <v>10656.96</v>
+        <v>10677.49</v>
       </c>
       <c r="R18" s="127">
-        <f t="shared" si="7"/>
-        <v>-1.8476188331382204E-3</v>
+        <f t="shared" si="4"/>
+        <v>1.9227365232841187E-3</v>
       </c>
       <c r="S18" s="116">
-        <f t="shared" ref="S18" si="10">(N18/$N$54)-1</f>
-        <v>0.35553761309807119</v>
+        <f t="shared" ref="S18" si="13">(N18/$N$55)-1</f>
+        <v>0.57065392974771467</v>
       </c>
       <c r="T18" s="114">
-        <f t="shared" ref="T18" si="11">(A18-$A$54)</f>
-        <v>77</v>
+        <f t="shared" ref="T18" si="14">(A18-$A$55)</f>
+        <v>78</v>
       </c>
       <c r="U18" s="116">
-        <f>((N18/$N$54)-1)/T18*30</f>
-        <v>0.13852114796028747</v>
+        <f>((N18/$N$55)-1)/T18*30</f>
+        <v>0.21948228067219797</v>
       </c>
       <c r="V18" s="116"/>
       <c r="W18" s="116"/>
       <c r="X18" s="134"/>
       <c r="Y18" s="134">
-        <v>32.36</v>
+        <v>28.18</v>
       </c>
       <c r="Z18" s="134"/>
       <c r="AA18" s="134">
-        <v>23.08</v>
+        <v>24.8</v>
       </c>
       <c r="AB18">
         <v>10</v>
       </c>
       <c r="AC18" s="115">
-        <v>124</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="117">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="B19">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>31.4588</v>
+        <v>31.436</v>
       </c>
       <c r="D19">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>34.044699999999999</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="F19" s="112">
         <v>156</v>
       </c>
       <c r="G19">
-        <v>2363.8000000000002</v>
+        <v>2331.41</v>
       </c>
       <c r="H19" s="199">
         <v>7500</v>
       </c>
       <c r="I19" s="199">
-        <v>24.45</v>
+        <v>24.32</v>
       </c>
       <c r="J19">
         <v>30</v>
       </c>
       <c r="K19">
-        <v>642.69199700000001</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="L19">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M19">
-        <v>0.87326400000000004</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N19" s="113">
         <f t="shared" si="0"/>
-        <v>726447.88086300006</v>
+        <v>719037.96498799999</v>
       </c>
       <c r="O19">
-        <v>158.78</v>
+        <v>153.71</v>
       </c>
       <c r="P19">
-        <v>259129.45</v>
+        <v>251476.74</v>
       </c>
       <c r="Q19" s="115">
-        <v>10676.65</v>
+        <v>10656.96</v>
       </c>
       <c r="R19" s="127">
-        <f t="shared" si="7"/>
-        <v>-1.4329401076180304E-2</v>
+        <f t="shared" si="4"/>
+        <v>-1.8476188331382204E-3</v>
       </c>
       <c r="S19" s="116">
-        <f>(N19/$N$54)-1</f>
-        <v>0.36950686113161924</v>
+        <f t="shared" ref="S19" si="15">(N19/$N$55)-1</f>
+        <v>0.35553761309807119</v>
       </c>
       <c r="T19" s="114">
-        <f>(A19-$A$54)</f>
-        <v>73</v>
+        <f t="shared" ref="T19" si="16">(A19-$A$55)</f>
+        <v>77</v>
       </c>
       <c r="U19" s="116">
-        <f>((N19/$N$54)-1)/T19*30</f>
-        <v>0.15185213471162434</v>
+        <f>((N19/$N$55)-1)/T19*30</f>
+        <v>0.13852114796028747</v>
       </c>
       <c r="V19" s="116"/>
       <c r="W19" s="116"/>
       <c r="X19" s="134"/>
       <c r="Y19" s="134">
-        <v>34.299999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="Z19" s="134"/>
       <c r="AA19" s="134">
-        <v>27.92</v>
+        <v>23.08</v>
       </c>
       <c r="AB19">
         <v>10</v>
       </c>
       <c r="AC19" s="115">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="117">
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="B20">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.469899999999999</v>
+        <v>31.4588</v>
       </c>
       <c r="D20">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>34.182699999999997</v>
+        <v>34.044699999999999</v>
       </c>
       <c r="F20" s="112">
         <v>156</v>
       </c>
       <c r="G20">
-        <v>2416.92</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="H20" s="199">
         <v>7500</v>
       </c>
       <c r="I20" s="199">
-        <v>24.91</v>
+        <v>24.45</v>
       </c>
       <c r="J20">
         <v>30</v>
       </c>
       <c r="K20">
-        <v>641.00899600000002</v>
+        <v>642.69199700000001</v>
       </c>
       <c r="L20">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M20">
-        <v>0.86580400000000002</v>
+        <v>0.87326400000000004</v>
       </c>
       <c r="N20" s="113">
         <f t="shared" si="0"/>
-        <v>737258.36645300011</v>
+        <v>726447.88086300006</v>
       </c>
       <c r="O20">
-        <v>165.69</v>
+        <v>158.78</v>
       </c>
       <c r="P20">
-        <v>269993.23</v>
+        <v>259129.45</v>
       </c>
       <c r="Q20" s="115">
-        <v>10829.64</v>
+        <v>10676.65</v>
       </c>
       <c r="R20" s="127">
-        <f t="shared" si="7"/>
-        <v>8.3169892997366768E-3</v>
+        <f t="shared" si="4"/>
+        <v>-1.4329401076180304E-2</v>
       </c>
       <c r="S20" s="116">
-        <f>(N20/$N$54)-1</f>
-        <v>0.38988689743936056</v>
+        <f>(N20/$N$55)-1</f>
+        <v>0.36950686113161924</v>
       </c>
       <c r="T20" s="114">
-        <f>(A20-$A$54)</f>
-        <v>71</v>
+        <f>(A20-$A$55)</f>
+        <v>73</v>
       </c>
       <c r="U20" s="116">
-        <f>((N20/$N$54)-1)/T20*30</f>
-        <v>0.16474094258001151</v>
+        <f>((N20/$N$55)-1)/T20*30</f>
+        <v>0.15185213471162434</v>
       </c>
       <c r="V20" s="116"/>
       <c r="W20" s="116"/>
       <c r="X20" s="134"/>
       <c r="Y20" s="134">
-        <v>34.799999999999997</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z20" s="134"/>
       <c r="AA20" s="134">
-        <v>28.52</v>
+        <v>27.92</v>
       </c>
       <c r="AB20">
         <v>10</v>
       </c>
       <c r="AC20" s="115">
-        <v>123.5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="117">
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="B21">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.5244</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="D21">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.005400000000002</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="F21" s="112">
         <v>156</v>
       </c>
       <c r="G21">
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="H21" s="199">
         <v>7500</v>
       </c>
       <c r="I21" s="199">
-        <v>24.41</v>
+        <v>24.91</v>
       </c>
       <c r="J21">
         <v>30</v>
       </c>
       <c r="K21">
-        <v>634.98375399999998</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="L21">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M21">
-        <v>0.84950000000000003</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="N21" s="113">
         <f t="shared" si="0"/>
-        <v>720006.41536600015</v>
+        <v>737258.36645300011</v>
       </c>
       <c r="O21">
-        <v>158.43</v>
+        <v>165.69</v>
       </c>
       <c r="P21">
-        <v>256973.54</v>
+        <v>269993.23</v>
       </c>
       <c r="Q21" s="115">
-        <v>10739.57</v>
+        <v>10829.64</v>
       </c>
       <c r="R21" s="127">
-        <f t="shared" si="7"/>
-        <v>5.0241303888330702E-2</v>
+        <f t="shared" si="4"/>
+        <v>8.3169892997366768E-3</v>
       </c>
       <c r="S21" s="116">
-        <f>(N21/$N$54)-1</f>
-        <v>0.35736334550403681</v>
+        <f>(N21/$N$55)-1</f>
+        <v>0.38988689743936056</v>
       </c>
       <c r="T21" s="114">
-        <f>(A21-$A$54)</f>
-        <v>64</v>
+        <f>(A21-$A$55)</f>
+        <v>71</v>
       </c>
       <c r="U21" s="116">
-        <f>((N21/$N$54)-1)/T21*30</f>
-        <v>0.16751406820501724</v>
+        <f>((N21/$N$55)-1)/T21*30</f>
+        <v>0.16474094258001151</v>
       </c>
       <c r="V21" s="116"/>
       <c r="W21" s="116"/>
       <c r="X21" s="134"/>
       <c r="Y21" s="134">
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Z21" s="134"/>
       <c r="AA21" s="134">
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AB21">
         <v>10</v>
       </c>
       <c r="AC21" s="115">
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="117">
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="B22">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.371600000000001</v>
+        <v>31.5244</v>
       </c>
       <c r="D22">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>33.871899999999997</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F22" s="112">
         <v>156</v>
       </c>
       <c r="G22">
-        <v>2341.31</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H22" s="199">
         <v>7500</v>
       </c>
       <c r="I22" s="199">
-        <v>24.47</v>
+        <v>24.41</v>
       </c>
       <c r="J22">
         <v>30</v>
       </c>
       <c r="K22">
-        <v>634.10149999999999</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L22">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M22">
-        <v>0.88511899999999999</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N22" s="113">
-        <f t="shared" ref="N22:N30" si="12">(F22*G22)+(B22*C22)+(D22*E22)+(L22*M22)+(H22*I22)+(J22*K22)</f>
-        <v>724161.16908100003</v>
+        <f t="shared" si="0"/>
+        <v>720006.41536600015</v>
       </c>
       <c r="O22">
         <v>158.43</v>
@@ -7259,23 +7259,23 @@
         <v>256973.54</v>
       </c>
       <c r="Q22" s="115">
-        <v>10200</v>
+        <v>10739.57</v>
       </c>
       <c r="R22" s="127">
-        <f t="shared" si="7"/>
-        <v>-6.7235294117646838E-3</v>
+        <f t="shared" si="4"/>
+        <v>5.0241303888330702E-2</v>
       </c>
       <c r="S22" s="116">
-        <f>(N22/$N$54)-1</f>
-        <v>0.36519592905049159</v>
+        <f>(N22/$N$55)-1</f>
+        <v>0.35736334550403681</v>
       </c>
       <c r="T22" s="114">
-        <f>(A22-$A$54)</f>
-        <v>63</v>
+        <f>(A22-$A$55)</f>
+        <v>64</v>
       </c>
       <c r="U22" s="116">
-        <f>((N22/$N$54)-1)/T22*30</f>
-        <v>0.17390282335737695</v>
+        <f>((N22/$N$55)-1)/T22*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V22" s="116"/>
       <c r="W22" s="116"/>
@@ -7296,139 +7296,139 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="117">
-        <v>45421</v>
+        <v>45425</v>
       </c>
       <c r="B23">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.712</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D23">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>34.055500000000002</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F23" s="112">
         <v>156</v>
       </c>
       <c r="G23">
-        <v>2333.16</v>
+        <v>2341.31</v>
       </c>
       <c r="H23" s="199">
         <v>7500</v>
       </c>
       <c r="I23" s="199">
-        <v>24.39</v>
+        <v>24.47</v>
       </c>
       <c r="J23">
         <v>30</v>
       </c>
       <c r="K23">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L23">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.90642500000000004</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N23" s="113">
-        <f t="shared" si="12"/>
-        <v>725052.22388499998</v>
+        <f t="shared" ref="N23:N31" si="17">(F23*G23)+(B23*C23)+(D23*E23)+(L23*M23)+(H23*I23)+(J23*K23)</f>
+        <v>724161.16908100003</v>
       </c>
       <c r="O23">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P23">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q23" s="115">
-        <v>10268.58</v>
+        <v>10200</v>
       </c>
       <c r="R23" s="127">
-        <f t="shared" si="7"/>
-        <v>2.1701150499874422E-2</v>
+        <f t="shared" si="4"/>
+        <v>-6.7235294117646838E-3</v>
       </c>
       <c r="S23" s="116">
-        <f>(N23/$N$54)-1</f>
-        <v>0.36687575454089361</v>
+        <f>(N23/$N$55)-1</f>
+        <v>0.36519592905049159</v>
       </c>
       <c r="T23" s="114">
-        <f>(A23-$A$54)</f>
-        <v>59</v>
+        <f>(A23-$A$55)</f>
+        <v>63</v>
       </c>
       <c r="U23" s="116">
-        <f>((N23/$N$54)-1)/T23*30</f>
-        <v>0.18654699383435269</v>
+        <f>((N23/$N$55)-1)/T23*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V23" s="116"/>
       <c r="W23" s="116"/>
       <c r="X23" s="134"/>
       <c r="Y23" s="134">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z23" s="134"/>
       <c r="AA23" s="134">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB23">
         <v>10</v>
       </c>
       <c r="AC23" s="115">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="117">
-        <v>45412</v>
+        <v>45421</v>
       </c>
       <c r="B24">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.771699999999999</v>
+        <v>31.712</v>
       </c>
       <c r="D24">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>34.014699999999998</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F24" s="112">
         <v>156</v>
       </c>
       <c r="G24">
-        <v>2341.2800000000002</v>
+        <v>2333.16</v>
       </c>
       <c r="H24" s="199">
         <v>7500</v>
       </c>
       <c r="I24" s="199">
-        <v>24.71</v>
+        <v>24.39</v>
       </c>
       <c r="J24">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K24">
         <v>622.84294799999998</v>
       </c>
       <c r="L24">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M24">
-        <v>0.90242599999999995</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N24" s="113">
-        <f t="shared" si="12"/>
-        <v>769379.83326099999</v>
+        <f t="shared" si="17"/>
+        <v>725052.22388499998</v>
       </c>
       <c r="O24">
         <v>167.1</v>
@@ -7437,29 +7437,29 @@
         <v>268201.53000000003</v>
       </c>
       <c r="Q24" s="115">
-        <v>10045.74</v>
+        <v>10268.58</v>
       </c>
       <c r="R24" s="127">
-        <f t="shared" si="7"/>
-        <v>1.2952754102733999E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.1701150499874422E-2</v>
       </c>
       <c r="S24" s="116">
-        <f t="shared" ref="S24" si="13">(N24/$N$54)-1</f>
-        <v>0.45044261016428133</v>
+        <f>(N24/$N$55)-1</f>
+        <v>0.36687575454089361</v>
       </c>
       <c r="T24" s="114">
-        <f t="shared" ref="T24" si="14">(A24-$A$54)</f>
-        <v>50</v>
+        <f>(A24-$A$55)</f>
+        <v>59</v>
       </c>
       <c r="U24" s="116">
-        <f>((N24/$N$54)-1)/T24*30</f>
-        <v>0.27026556609856883</v>
+        <f>((N24/$N$55)-1)/T24*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V24" s="116"/>
       <c r="W24" s="116"/>
       <c r="X24" s="134"/>
       <c r="Y24" s="134">
-        <v>37.39</v>
+        <v>37.4</v>
       </c>
       <c r="Z24" s="134"/>
       <c r="AA24" s="134">
@@ -7469,106 +7469,111 @@
         <v>10</v>
       </c>
       <c r="AC24" s="115">
-        <v>125.1</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="117">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B25">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D25">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F25" s="112">
         <v>156</v>
       </c>
       <c r="G25">
-        <v>2384.1799999999998</v>
+        <v>2341.2800000000002</v>
       </c>
       <c r="H25" s="199">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I25" s="199">
-        <v>24.91</v>
+        <v>24.71</v>
+      </c>
+      <c r="J25">
+        <v>96</v>
+      </c>
+      <c r="K25">
+        <v>622.84294799999998</v>
       </c>
       <c r="L25">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M25">
-        <v>0.89855499999999999</v>
+        <v>0.90242599999999995</v>
       </c>
       <c r="N25" s="113">
-        <f t="shared" si="12"/>
-        <v>655301.58439900004</v>
+        <f t="shared" si="17"/>
+        <v>769379.83326099999</v>
       </c>
       <c r="O25">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P25">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q25" s="115">
-        <v>9915.6200000000008</v>
+        <v>10045.74</v>
       </c>
       <c r="R25" s="127">
-        <f t="shared" si="7"/>
-        <v>2.5330740790792672E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.2952754102733999E-2</v>
       </c>
       <c r="S25" s="116">
-        <f t="shared" ref="S25:S54" si="15">(N25/$N$54)-1</f>
-        <v>0.23538114651627517</v>
+        <f t="shared" ref="S25" si="18">(N25/$N$55)-1</f>
+        <v>0.45044261016428133</v>
       </c>
       <c r="T25" s="114">
-        <f t="shared" ref="T25:T54" si="16">(A25-$A$54)</f>
-        <v>49</v>
+        <f t="shared" ref="T25" si="19">(A25-$A$55)</f>
+        <v>50</v>
       </c>
       <c r="U25" s="116">
-        <f>((N25/$N$54)-1)/T25*30</f>
-        <v>0.14411090603037255</v>
+        <f>((N25/$N$55)-1)/T25*30</f>
+        <v>0.27026556609856883</v>
       </c>
       <c r="V25" s="116"/>
       <c r="W25" s="116"/>
-      <c r="X25" s="112">
-        <v>35</v>
-      </c>
-      <c r="Y25" s="128">
-        <f>Y28</f>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134">
         <v>37.39</v>
       </c>
-      <c r="Z25" s="112">
-        <v>40</v>
-      </c>
-      <c r="AA25" s="128">
-        <f>AA28</f>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134">
         <v>30.5</v>
       </c>
-      <c r="AB25"/>
+      <c r="AB25">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="115">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="117">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B26">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C26">
         <v>31.948</v>
       </c>
       <c r="D26">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E26">
@@ -7581,21 +7586,21 @@
         <v>2384.1799999999998</v>
       </c>
       <c r="H26" s="199">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="I26" s="199">
-        <v>25.11</v>
+        <v>24.91</v>
       </c>
       <c r="L26">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M26">
-        <v>0.89607400000000004</v>
+        <v>0.89855499999999999</v>
       </c>
       <c r="N26" s="113">
-        <f t="shared" si="12"/>
-        <v>593216.45939900004</v>
+        <f t="shared" si="17"/>
+        <v>655301.58439900004</v>
       </c>
       <c r="O26">
         <v>167.61</v>
@@ -7604,195 +7609,198 @@
         <v>269021.68</v>
       </c>
       <c r="Q26" s="115">
-        <v>9664.4500000000007</v>
+        <v>9915.6200000000008</v>
       </c>
       <c r="R26" s="127">
-        <f t="shared" si="7"/>
-        <v>-5.7478697701369708E-3</v>
+        <f t="shared" ref="R18:R32" si="20">(1-(Q27/Q26))</f>
+        <v>2.5330740790792672E-2</v>
       </c>
       <c r="S26" s="116">
-        <f t="shared" si="15"/>
-        <v>0.11833764360082077</v>
+        <f t="shared" ref="S26:S55" si="21">(N26/$N$55)-1</f>
+        <v>0.23538114651627517</v>
       </c>
       <c r="T26" s="114">
-        <f t="shared" si="16"/>
-        <v>46</v>
+        <f t="shared" ref="T26:T55" si="22">(A26-$A$55)</f>
+        <v>49</v>
       </c>
       <c r="U26" s="116">
-        <f>((N26/$N$54)-1)/T26*30</f>
-        <v>7.7176724087491808E-2</v>
+        <f>((N26/$N$55)-1)/T26*30</f>
+        <v>0.14411090603037255</v>
       </c>
       <c r="V26" s="116"/>
       <c r="W26" s="116"/>
-      <c r="X26" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y26" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z26" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA26" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB26">
-        <v>10</v>
-      </c>
-      <c r="AC26" s="115">
-        <v>148.5</v>
-      </c>
+      <c r="X26" s="112">
+        <v>35</v>
+      </c>
+      <c r="Y26" s="128">
+        <f>Y29</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z26" s="112">
+        <v>40</v>
+      </c>
+      <c r="AA26" s="128">
+        <f>AA29</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB26"/>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="117">
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="B27">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>32.0291</v>
+        <v>31.948</v>
       </c>
       <c r="D27">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>34.322299999999998</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F27" s="112">
         <v>156</v>
       </c>
       <c r="G27">
-        <v>2368.4699999999998</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H27" s="199">
+        <v>2500</v>
+      </c>
+      <c r="I27" s="199">
+        <v>25.11</v>
       </c>
       <c r="L27">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M27">
-        <v>0.90609700000000004</v>
+        <v>0.89607400000000004</v>
       </c>
       <c r="N27" s="113">
-        <f t="shared" si="12"/>
-        <v>529347.18337699992</v>
+        <f t="shared" si="17"/>
+        <v>593216.45939900004</v>
       </c>
       <c r="O27">
-        <v>167.13</v>
+        <v>167.61</v>
       </c>
       <c r="P27">
-        <v>268083.81</v>
+        <v>269021.68</v>
       </c>
       <c r="Q27" s="115">
-        <v>9720</v>
+        <v>9664.4500000000007</v>
       </c>
       <c r="R27" s="127">
-        <f t="shared" si="7"/>
-        <v>-2.1502057613176362E-4</v>
+        <f t="shared" si="20"/>
+        <v>-5.7478697701369708E-3</v>
       </c>
       <c r="S27" s="116">
-        <f t="shared" si="15"/>
-        <v>-2.0693587896702947E-3</v>
+        <f t="shared" si="21"/>
+        <v>0.11833764360082077</v>
       </c>
       <c r="T27" s="114">
-        <f t="shared" si="16"/>
-        <v>45</v>
+        <f t="shared" si="22"/>
+        <v>46</v>
       </c>
       <c r="U27" s="116">
-        <f>((N27/$N$54)-1)/T27*30</f>
-        <v>-1.379572526446863E-3</v>
+        <f>((N27/$N$55)-1)/T27*30</f>
+        <v>7.7176724087491808E-2</v>
       </c>
       <c r="V27" s="116"/>
       <c r="W27" s="116"/>
-      <c r="X27" s="112"/>
-      <c r="Y27" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z27" s="112"/>
-      <c r="AA27" s="130" t="s">
-        <v>69</v>
+      <c r="X27" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y27" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z27" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA27" s="129" t="s">
+        <v>68</v>
       </c>
       <c r="AB27">
         <v>10</v>
       </c>
       <c r="AC27" s="115">
-        <v>135</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="117">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="B28">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C28">
-        <v>31.928699999999999</v>
+        <v>32.0291</v>
       </c>
       <c r="D28">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E28">
-        <v>33.972000000000001</v>
+        <v>34.322299999999998</v>
       </c>
       <c r="F28" s="112">
         <v>156</v>
       </c>
       <c r="G28">
-        <v>2380.13</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="L28">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M28">
-        <v>0.88805999999999996</v>
+        <v>0.90609700000000004</v>
       </c>
       <c r="N28" s="113">
-        <f t="shared" si="12"/>
-        <v>528687.28128</v>
+        <f t="shared" si="17"/>
+        <v>529347.18337699992</v>
       </c>
       <c r="O28">
-        <v>166.96</v>
+        <v>167.13</v>
       </c>
       <c r="P28">
-        <v>267307.03000000003</v>
+        <v>268083.81</v>
       </c>
       <c r="Q28" s="115">
-        <v>9722.09</v>
+        <v>9720</v>
       </c>
       <c r="R28" s="127">
-        <f t="shared" si="7"/>
-        <v>7.927307811386175E-3</v>
+        <f t="shared" si="20"/>
+        <v>-2.1502057613176362E-4</v>
       </c>
       <c r="S28" s="116">
-        <f t="shared" si="15"/>
-        <v>-3.3134128688740994E-3</v>
+        <f t="shared" si="21"/>
+        <v>-2.0693587896702947E-3</v>
       </c>
       <c r="T28" s="114">
-        <f t="shared" si="16"/>
-        <v>44</v>
+        <f t="shared" si="22"/>
+        <v>45</v>
       </c>
       <c r="U28" s="116">
-        <f>((N28/$N$54)-1)/T28*30</f>
-        <v>-2.259145137868704E-3</v>
+        <f>((N28/$N$55)-1)/T28*30</f>
+        <v>-1.379572526446863E-3</v>
       </c>
       <c r="V28" s="116"/>
       <c r="W28" s="116"/>
-      <c r="X28" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y28" s="131">
-        <v>37.39</v>
-      </c>
-      <c r="Z28" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA28" s="131">
-        <v>30.5</v>
+      <c r="X28" s="112"/>
+      <c r="Y28" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z28" s="112"/>
+      <c r="AA28" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="AB28">
         <v>10</v>
@@ -7803,17 +7811,17 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="117">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="B29">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C29">
         <v>31.928699999999999</v>
       </c>
       <c r="D29">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E29">
@@ -7826,14 +7834,14 @@
         <v>2380.13</v>
       </c>
       <c r="L29">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M29">
         <v>0.88805999999999996</v>
       </c>
       <c r="N29" s="113">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>528687.28128</v>
       </c>
       <c r="O29">
@@ -7843,338 +7851,346 @@
         <v>267307.03000000003</v>
       </c>
       <c r="Q29" s="115">
-        <v>9645.02</v>
+        <v>9722.09</v>
       </c>
       <c r="R29" s="127">
-        <f t="shared" si="7"/>
-        <v>-5.0222809283961833E-3</v>
+        <f t="shared" si="20"/>
+        <v>7.927307811386175E-3</v>
       </c>
       <c r="S29" s="116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T29" s="114">
-        <f t="shared" si="16"/>
-        <v>42</v>
+        <f t="shared" si="22"/>
+        <v>44</v>
       </c>
       <c r="U29" s="116">
-        <f>((N29/$N$54)-1)/T29*30</f>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N29/$N$55)-1)/T29*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V29" s="116"/>
       <c r="W29" s="116"/>
-      <c r="X29" s="112"/>
-      <c r="Y29" s="116" t="e">
+      <c r="X29" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y29" s="131">
+        <v>37.39</v>
+      </c>
+      <c r="Z29" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA29" s="131">
+        <v>30.5</v>
+      </c>
+      <c r="AB29">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="115">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29">
+      <c r="A30" s="117">
+        <v>45404</v>
+      </c>
+      <c r="B30">
+        <f>B62</f>
+        <v>1110</v>
+      </c>
+      <c r="C30">
+        <v>31.928699999999999</v>
+      </c>
+      <c r="D30">
+        <f>D62</f>
+        <v>321.99</v>
+      </c>
+      <c r="E30">
+        <v>33.972000000000001</v>
+      </c>
+      <c r="F30" s="112">
+        <v>156</v>
+      </c>
+      <c r="G30">
+        <v>2380.13</v>
+      </c>
+      <c r="L30">
+        <f>L62</f>
+        <v>125000</v>
+      </c>
+      <c r="M30">
+        <v>0.88805999999999996</v>
+      </c>
+      <c r="N30" s="113">
+        <f t="shared" si="17"/>
+        <v>528687.28128</v>
+      </c>
+      <c r="O30">
+        <v>166.96</v>
+      </c>
+      <c r="P30">
+        <v>267307.03000000003</v>
+      </c>
+      <c r="Q30" s="115">
+        <v>9645.02</v>
+      </c>
+      <c r="R30" s="127">
+        <f t="shared" si="20"/>
+        <v>-5.0222809283961833E-3</v>
+      </c>
+      <c r="S30" s="116">
+        <f t="shared" si="21"/>
+        <v>-3.3134128688740994E-3</v>
+      </c>
+      <c r="T30" s="114">
+        <f t="shared" si="22"/>
+        <v>42</v>
+      </c>
+      <c r="U30" s="116">
+        <f>((N30/$N$55)-1)/T30*30</f>
+        <v>-2.3667234777672141E-3</v>
+      </c>
+      <c r="V30" s="116"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="112"/>
+      <c r="Y30" s="116" t="e">
         <f>Sayfa2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Z29" s="112"/>
-      <c r="AA29" s="116" t="e">
+      <c r="Z30" s="112"/>
+      <c r="AA30" s="116" t="e">
         <f>Sayfa2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB29" s="112">
+      <c r="AB30" s="112">
         <v>10</v>
       </c>
-      <c r="AC29" s="128">
+      <c r="AC30" s="128">
         <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29">
-      <c r="A30" s="117">
-        <v>45401</v>
-      </c>
-      <c r="B30">
-        <f>B61</f>
-        <v>1110</v>
-      </c>
-      <c r="C30">
-        <v>31.803999999999998</v>
-      </c>
-      <c r="D30">
-        <f>D61</f>
-        <v>321.99</v>
-      </c>
-      <c r="E30">
-        <v>33.928400000000003</v>
-      </c>
-      <c r="F30" s="112">
-        <v>156</v>
-      </c>
-      <c r="G30">
-        <v>2427.62</v>
-      </c>
-      <c r="L30">
-        <f>L61</f>
-        <v>125000</v>
-      </c>
-      <c r="M30">
-        <v>0.87351800000000002</v>
-      </c>
-      <c r="N30" s="113">
-        <f t="shared" si="12"/>
-        <v>534125.51551599998</v>
-      </c>
-      <c r="O30">
-        <v>170.57</v>
-      </c>
-      <c r="P30">
-        <v>272736.27</v>
-      </c>
-      <c r="Q30" s="115">
-        <v>9693.4599999999991</v>
-      </c>
-      <c r="R30" s="127">
-        <f t="shared" si="7"/>
-        <v>1.4091975414350921E-3</v>
-      </c>
-      <c r="S30" s="116">
-        <f t="shared" si="15"/>
-        <v>6.9388010818296486E-3</v>
-      </c>
-      <c r="T30" s="114">
-        <f t="shared" si="16"/>
-        <v>39</v>
-      </c>
-      <c r="U30" s="116">
-        <f>((N30/$N$54)-1)/T30*30</f>
-        <v>5.3375392937151144E-3</v>
-      </c>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y30" s="115">
-        <f>Y28*X25</f>
-        <v>1308.6500000000001</v>
-      </c>
-      <c r="Z30" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA30" s="115">
-        <f>AA28*Z25</f>
-        <v>1220</v>
-      </c>
-      <c r="AB30" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC30" s="129" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="117">
-        <v>45397</v>
+        <v>45401</v>
       </c>
       <c r="B31">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>31.863399999999999</v>
+        <v>31.803999999999998</v>
       </c>
       <c r="D31">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>33.963099999999997</v>
+        <v>33.928400000000003</v>
       </c>
       <c r="F31" s="112">
         <v>156</v>
       </c>
       <c r="G31">
-        <v>2387.5100000000002</v>
+        <v>2427.62</v>
       </c>
       <c r="L31">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.89791399999999999</v>
+        <v>0.87351800000000002</v>
       </c>
       <c r="N31" s="113">
-        <f t="shared" ref="N31:N66" si="17">(F31*G31)+(B31*C31)+(D31*E31)+(L31*M31)+(H31*I31)</f>
-        <v>530994.96256900008</v>
+        <f t="shared" si="17"/>
+        <v>534125.51551599998</v>
       </c>
       <c r="O31">
-        <v>169.14</v>
+        <v>170.57</v>
       </c>
       <c r="P31">
-        <v>269604.92</v>
+        <v>272736.27</v>
       </c>
       <c r="Q31" s="115">
-        <v>9679.7999999999993</v>
+        <v>9693.4599999999991</v>
       </c>
       <c r="R31" s="127">
-        <f t="shared" si="7"/>
-        <v>-1.3880452075456073E-2</v>
+        <f t="shared" si="20"/>
+        <v>1.4091975414350921E-3</v>
       </c>
       <c r="S31" s="116">
-        <f t="shared" si="15"/>
-        <v>1.0370511380362046E-3</v>
+        <f t="shared" si="21"/>
+        <v>6.9388010818296486E-3</v>
       </c>
       <c r="T31" s="114">
-        <f t="shared" si="16"/>
-        <v>35</v>
+        <f t="shared" si="22"/>
+        <v>39</v>
       </c>
       <c r="U31" s="116">
-        <f>((N31/$N$54)-1)/T31*30</f>
-        <v>8.8890097545960402E-4</v>
+        <f>((N31/$N$55)-1)/T31*30</f>
+        <v>5.3375392937151144E-3</v>
       </c>
       <c r="V31" s="116"/>
       <c r="W31" s="116"/>
-      <c r="X31" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y31" s="132">
-        <f>(X25*Y5)-(X25*Y28)</f>
-        <v>-347.55000000000007</v>
-      </c>
-      <c r="Z31" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA31" s="132">
-        <f>(Z25*AA5)-(Z25*AA28)</f>
-        <v>-281.59999999999991</v>
-      </c>
-      <c r="AC31" s="130" t="s">
-        <v>69</v>
+      <c r="X31" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y31" s="115">
+        <f>Y29*X26</f>
+        <v>1308.6500000000001</v>
+      </c>
+      <c r="Z31" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA31" s="115">
+        <f>AA29*Z26</f>
+        <v>1220</v>
+      </c>
+      <c r="AB31" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC31" s="129" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="117">
-        <v>45391</v>
+        <v>45397</v>
       </c>
       <c r="B32">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C32">
-        <v>31.412299999999998</v>
+        <v>31.863399999999999</v>
       </c>
       <c r="D32">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E32">
-        <v>34.091799999999999</v>
+        <v>33.963099999999997</v>
       </c>
       <c r="F32" s="112">
         <v>156</v>
       </c>
       <c r="G32">
-        <v>2352.21</v>
+        <v>2387.5100000000002</v>
       </c>
       <c r="L32">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M32">
-        <v>0.89529800000000004</v>
+        <v>0.89791399999999999</v>
       </c>
       <c r="N32" s="113">
-        <f t="shared" si="17"/>
-        <v>524701.88168200001</v>
+        <f t="shared" ref="N32:N67" si="23">(F32*G32)+(B32*C32)+(D32*E32)+(L32*M32)+(H32*I32)</f>
+        <v>530994.96256900008</v>
       </c>
       <c r="O32">
-        <v>165.81</v>
+        <v>169.14</v>
       </c>
       <c r="P32">
-        <v>263308.84999999998</v>
+        <v>269604.92</v>
       </c>
       <c r="Q32" s="115">
-        <v>9814.16</v>
+        <v>9679.7999999999993</v>
       </c>
       <c r="R32" s="127">
-        <f t="shared" ref="R32:R33" si="18">(1-(Q33/Q32))</f>
-        <v>5.8558246452063978E-3</v>
+        <f t="shared" si="20"/>
+        <v>-1.3880452075456073E-2</v>
       </c>
       <c r="S32" s="116">
-        <f t="shared" si="15"/>
-        <v>-1.0826728328378388E-2</v>
+        <f t="shared" si="21"/>
+        <v>1.0370511380362046E-3</v>
       </c>
       <c r="T32" s="114">
-        <f t="shared" si="16"/>
-        <v>29</v>
+        <f t="shared" si="22"/>
+        <v>35</v>
       </c>
       <c r="U32" s="116">
-        <f>((N32/$N$54)-1)/T32*30</f>
-        <v>-1.1200063787977641E-2</v>
+        <f>((N32/$N$55)-1)/T32*30</f>
+        <v>8.8890097545960402E-4</v>
       </c>
       <c r="V32" s="116"/>
       <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
-      <c r="AA32" s="116"/>
-      <c r="AB32" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC32" s="131">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:39">
+      <c r="X32" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y32" s="132">
+        <f>(X26*Y5)-(X26*Y29)</f>
+        <v>-381.85</v>
+      </c>
+      <c r="Z32" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA32" s="132">
+        <f>(Z26*AA5)-(Z26*AA29)</f>
+        <v>-326.39999999999998</v>
+      </c>
+      <c r="AC32" s="130" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
       <c r="A33" s="117">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B33">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C33">
-        <v>31.5198</v>
+        <v>31.412299999999998</v>
       </c>
       <c r="D33">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E33">
-        <v>34.154899999999998</v>
+        <v>34.091799999999999</v>
       </c>
       <c r="F33" s="112">
         <v>156</v>
       </c>
       <c r="G33">
-        <v>2344.37</v>
+        <v>2352.21</v>
       </c>
       <c r="L33">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M33">
-        <v>0.818581</v>
+        <v>0.89529800000000004</v>
       </c>
       <c r="N33" s="113">
-        <f t="shared" si="17"/>
-        <v>514028.85925099999</v>
+        <f t="shared" si="23"/>
+        <v>524701.88168200001</v>
       </c>
       <c r="O33">
-        <v>159.19</v>
+        <v>165.81</v>
       </c>
       <c r="P33">
-        <v>252634.37</v>
+        <v>263308.84999999998</v>
       </c>
       <c r="Q33" s="115">
-        <v>9756.69</v>
+        <v>9814.16</v>
       </c>
       <c r="R33" s="127">
-        <f t="shared" si="18"/>
-        <v>1.4129791968382821E-2</v>
+        <f t="shared" ref="R33:R34" si="24">(1-(Q34/Q33))</f>
+        <v>5.8558246452063978E-3</v>
       </c>
       <c r="S33" s="116">
-        <f t="shared" si="15"/>
-        <v>-3.0947617704367603E-2</v>
+        <f t="shared" si="21"/>
+        <v>-1.0826728328378388E-2</v>
       </c>
       <c r="T33" s="114">
-        <f t="shared" si="16"/>
-        <v>28</v>
+        <f t="shared" si="22"/>
+        <v>29</v>
       </c>
       <c r="U33" s="116">
-        <f>((N33/$N$54)-1)/T33*30</f>
-        <v>-3.3158161826108146E-2</v>
+        <f>((N33/$N$55)-1)/T33*30</f>
+        <v>-1.1200063787977641E-2</v>
       </c>
       <c r="V33" s="116"/>
       <c r="W33" s="116"/>
@@ -8182,70 +8198,72 @@
       <c r="Y33" s="116"/>
       <c r="Z33" s="116"/>
       <c r="AA33" s="116"/>
-      <c r="AC33" s="116">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39">
+      <c r="AB33" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC33" s="131">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
       <c r="A34" s="117">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B34">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C34">
-        <v>31.407</v>
+        <v>31.5198</v>
       </c>
       <c r="D34">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E34">
-        <v>34.038899999999998</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F34" s="112">
         <v>156</v>
       </c>
       <c r="G34">
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="L34">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M34">
-        <v>0.82424600000000003</v>
+        <v>0.818581</v>
       </c>
       <c r="N34" s="113">
-        <f t="shared" si="17"/>
-        <v>505978.825411</v>
+        <f t="shared" si="23"/>
+        <v>514028.85925099999</v>
       </c>
       <c r="O34">
-        <v>154.41</v>
+        <v>159.19</v>
       </c>
       <c r="P34">
-        <v>244587.02</v>
+        <v>252634.37</v>
       </c>
       <c r="Q34" s="115">
-        <v>9618.83</v>
+        <v>9756.69</v>
       </c>
       <c r="R34" s="127">
-        <f t="shared" ref="R34:R65" si="19">(1-(Q35/Q34))</f>
-        <v>5.0921993631241946E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.4129791968382821E-2</v>
       </c>
       <c r="S34" s="116">
-        <f t="shared" si="15"/>
-        <v>-4.6123622572225242E-2</v>
+        <f t="shared" si="21"/>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T34" s="114">
-        <f t="shared" si="16"/>
-        <v>25</v>
+        <f t="shared" si="22"/>
+        <v>28</v>
       </c>
       <c r="U34" s="116">
-        <f>((N34/$N$54)-1)/T34*30</f>
-        <v>-5.5348347086670288E-2</v>
+        <f>((N34/$N$55)-1)/T34*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V34" s="116"/>
       <c r="W34" s="116"/>
@@ -8253,73 +8271,70 @@
       <c r="Y34" s="116"/>
       <c r="Z34" s="116"/>
       <c r="AA34" s="116"/>
-      <c r="AB34" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC34" s="115">
-        <f>AC32*AB29</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="35" spans="1:39">
+      <c r="AC34" s="116">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
       <c r="A35" s="117">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B35">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C35">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D35">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E35">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F35" s="112">
         <v>156</v>
       </c>
       <c r="G35">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L35">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M35">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N35" s="113">
-        <f t="shared" si="17"/>
-        <v>507101.83066900005</v>
+        <f t="shared" si="23"/>
+        <v>505978.825411</v>
       </c>
       <c r="O35">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="P35">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="Q35" s="115">
-        <v>9129.02</v>
+        <v>9618.83</v>
       </c>
       <c r="R35" s="127">
-        <f t="shared" si="19"/>
-        <v>2.0070062284889389E-2</v>
+        <f t="shared" ref="R35:R66" si="25">(1-(Q36/Q35))</f>
+        <v>5.0921993631241946E-2</v>
       </c>
       <c r="S35" s="116">
-        <f t="shared" si="15"/>
-        <v>-4.4006521749946126E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.6123622572225242E-2</v>
       </c>
       <c r="T35" s="114">
-        <f t="shared" si="16"/>
-        <v>24</v>
+        <f t="shared" si="22"/>
+        <v>25</v>
       </c>
       <c r="U35" s="116">
-        <f>((N35/$N$54)-1)/T35*30</f>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N35/$N$55)-1)/T35*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V35" s="116"/>
       <c r="W35" s="116"/>
@@ -8327,27 +8342,27 @@
       <c r="Y35" s="116"/>
       <c r="Z35" s="116"/>
       <c r="AA35" s="116"/>
-      <c r="AB35" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC35" s="132">
-        <f>(AB10*AC5)-(AB10*AC32)</f>
-        <v>-126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39">
+      <c r="AB35" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC35" s="115">
+        <f>AC33*AB30</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29">
       <c r="A36" s="117">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B36">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C36">
         <v>31.399799999999999</v>
       </c>
       <c r="D36">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E36">
@@ -8360,14 +8375,14 @@
         <v>2292.5700000000002</v>
       </c>
       <c r="L36">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M36">
         <v>0.82913899999999996</v>
       </c>
       <c r="N36" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>507101.83066900005</v>
       </c>
       <c r="O36">
@@ -8377,23 +8392,23 @@
         <v>245709.7</v>
       </c>
       <c r="Q36" s="115">
-        <v>8945.7999999999993</v>
+        <v>9129.02</v>
       </c>
       <c r="R36" s="127">
-        <f t="shared" si="19"/>
-        <v>-1.0627333497283731E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.0070062284889389E-2</v>
       </c>
       <c r="S36" s="116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T36" s="114">
-        <f t="shared" si="16"/>
-        <v>23</v>
+        <f t="shared" si="22"/>
+        <v>24</v>
       </c>
       <c r="U36" s="116">
-        <f>((N36/$N$54)-1)/T36*30</f>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N36/$N$55)-1)/T36*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V36" s="116"/>
       <c r="W36" s="116"/>
@@ -8401,68 +8416,73 @@
       <c r="Y36" s="116"/>
       <c r="Z36" s="116"/>
       <c r="AA36" s="116"/>
-      <c r="AB36" s="133"/>
-      <c r="AC36" s="134"/>
-    </row>
-    <row r="37" spans="1:39">
+      <c r="AB36" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC36" s="132">
+        <f>(AB10*AC5)-(AB10*AC33)</f>
+        <v>-160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29">
       <c r="A37" s="117">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B37">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C37">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D37">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E37">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F37" s="112">
         <v>156</v>
       </c>
       <c r="G37">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L37">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M37">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N37" s="113">
-        <f t="shared" si="17"/>
-        <v>509777.60801200004</v>
+        <f t="shared" si="23"/>
+        <v>507101.83066900005</v>
       </c>
       <c r="O37">
-        <v>157.11000000000001</v>
+        <v>155.22</v>
       </c>
       <c r="P37">
-        <v>248387.66</v>
+        <v>245709.7</v>
       </c>
       <c r="Q37" s="115">
-        <v>9040.8700000000008</v>
+        <v>8945.7999999999993</v>
       </c>
       <c r="R37" s="127">
-        <f t="shared" si="19"/>
-        <v>-1.2904731513670775E-2</v>
+        <f t="shared" si="25"/>
+        <v>-1.0627333497283731E-2</v>
       </c>
       <c r="S37" s="116">
-        <f t="shared" si="15"/>
-        <v>-3.8962119354903346E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T37" s="114">
-        <f t="shared" si="16"/>
-        <v>22</v>
+        <f t="shared" si="22"/>
+        <v>23</v>
       </c>
       <c r="U37" s="116">
-        <f>((N37/$N$54)-1)/T37*30</f>
-        <v>-5.3130162756686382E-2</v>
+        <f>((N37/$N$55)-1)/T37*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V37" s="116"/>
       <c r="W37" s="116"/>
@@ -8473,65 +8493,65 @@
       <c r="AB37" s="133"/>
       <c r="AC37" s="134"/>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:29">
       <c r="A38" s="117">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="B38">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C38">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D38">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E38">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F38" s="112">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G38">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L38">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M38">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N38" s="113">
-        <f t="shared" si="17"/>
-        <v>528238.93988600001</v>
+        <f t="shared" si="23"/>
+        <v>509777.60801200004</v>
       </c>
       <c r="O38">
-        <v>161.66</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="P38">
-        <v>255424.81</v>
+        <v>248387.66</v>
       </c>
       <c r="Q38" s="115">
-        <v>9157.5400000000009</v>
+        <v>9040.8700000000008</v>
       </c>
       <c r="R38" s="127">
-        <f t="shared" si="19"/>
-        <v>1.6532824317448958E-3</v>
+        <f t="shared" si="25"/>
+        <v>-1.2904731513670775E-2</v>
       </c>
       <c r="S38" s="116">
-        <f t="shared" si="15"/>
-        <v>-4.1586305801334378E-3</v>
+        <f t="shared" si="21"/>
+        <v>-3.8962119354903346E-2</v>
       </c>
       <c r="T38" s="114">
-        <f t="shared" si="16"/>
-        <v>21</v>
+        <f t="shared" si="22"/>
+        <v>22</v>
       </c>
       <c r="U38" s="116">
-        <f>((N38/$N$54)-1)/T38*30</f>
-        <v>-5.9409008287620545E-3</v>
+        <f>((N38/$N$55)-1)/T38*30</f>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V38" s="116"/>
       <c r="W38" s="116"/>
@@ -8542,19 +8562,19 @@
       <c r="AB38" s="133"/>
       <c r="AC38" s="134"/>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:29">
       <c r="A39" s="117">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B39">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C39">
         <v>31.879300000000001</v>
       </c>
       <c r="D39">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E39">
@@ -8567,14 +8587,14 @@
         <v>2308.4299999999998</v>
       </c>
       <c r="L39">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M39">
         <v>0.88097599999999998</v>
       </c>
       <c r="N39" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>528238.93988600001</v>
       </c>
       <c r="O39">
@@ -8584,23 +8604,23 @@
         <v>255424.81</v>
       </c>
       <c r="Q39" s="115">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="R39" s="127">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1.6532824317448958E-3</v>
       </c>
       <c r="S39" s="116">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T39" s="114">
-        <f t="shared" si="16"/>
-        <v>19</v>
+        <f t="shared" si="22"/>
+        <v>21</v>
       </c>
       <c r="U39" s="116">
-        <f>((N39/$N$54)-1)/T39*30</f>
-        <v>-6.5662588107370072E-3</v>
+        <f>((N39/$N$55)-1)/T39*30</f>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V39" s="116"/>
       <c r="W39" s="116"/>
@@ -8611,65 +8631,65 @@
       <c r="AB39" s="133"/>
       <c r="AC39" s="134"/>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:29">
       <c r="A40" s="117">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="B40">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D40">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F40" s="112">
         <v>161</v>
       </c>
       <c r="G40">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L40">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N40" s="113">
-        <f t="shared" si="17"/>
-        <v>518957.34710100002</v>
+        <f t="shared" si="23"/>
+        <v>528238.93988600001</v>
       </c>
       <c r="O40">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="P40">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="Q40" s="115">
         <v>9142.4</v>
       </c>
       <c r="R40" s="127">
-        <f t="shared" si="19"/>
-        <v>6.8286226811340445E-3</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="S40" s="116">
-        <f t="shared" si="15"/>
-        <v>-2.165638277425741E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T40" s="114">
-        <f t="shared" si="16"/>
-        <v>18</v>
+        <f t="shared" si="22"/>
+        <v>19</v>
       </c>
       <c r="U40" s="116">
-        <f>((N40/$N$54)-1)/T40*30</f>
-        <v>-3.6093971290429017E-2</v>
+        <f>((N40/$N$55)-1)/T40*30</f>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V40" s="116"/>
       <c r="W40" s="116"/>
@@ -8680,65 +8700,65 @@
       <c r="AB40" s="133"/>
       <c r="AC40" s="134"/>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:29">
       <c r="A41" s="117">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="B41">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>31.870699999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D41">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>34.480800000000002</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F41" s="112">
         <v>161</v>
       </c>
       <c r="G41">
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L41">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.86473199999999995</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N41" s="113">
-        <f t="shared" si="17"/>
-        <v>515224.93979200005</v>
+        <f t="shared" si="23"/>
+        <v>518957.34710100002</v>
       </c>
       <c r="O41">
-        <v>153.81</v>
+        <v>156.08000000000001</v>
       </c>
       <c r="P41">
-        <v>242408.74</v>
+        <v>246143.72</v>
       </c>
       <c r="Q41" s="115">
-        <v>9079.9699999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R41" s="127">
-        <f t="shared" si="19"/>
-        <v>3.0093711763364839E-2</v>
+        <f t="shared" si="25"/>
+        <v>6.8286226811340445E-3</v>
       </c>
       <c r="S41" s="116">
-        <f t="shared" si="15"/>
-        <v>-2.8692754622628547E-2</v>
+        <f t="shared" si="21"/>
+        <v>-2.165638277425741E-2</v>
       </c>
       <c r="T41" s="114">
-        <f t="shared" si="16"/>
-        <v>17</v>
+        <f t="shared" si="22"/>
+        <v>18</v>
       </c>
       <c r="U41" s="116">
-        <f>((N41/$N$54)-1)/T41*30</f>
-        <v>-5.0634272863462143E-2</v>
+        <f>((N41/$N$55)-1)/T41*30</f>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V41" s="116"/>
       <c r="W41" s="116"/>
@@ -8749,65 +8769,65 @@
       <c r="AB41" s="133"/>
       <c r="AC41" s="134"/>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:29">
       <c r="A42" s="117">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B42">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C42">
-        <v>31.821999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D42">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E42">
-        <v>34.5045</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F42" s="112">
         <v>161</v>
       </c>
       <c r="G42">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L42">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M42">
-        <v>0.85899999999999999</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N42" s="113">
-        <f t="shared" si="17"/>
-        <v>512394.77395499998</v>
+        <f t="shared" si="23"/>
+        <v>515224.93979200005</v>
       </c>
       <c r="O42">
-        <v>154.24</v>
+        <v>153.81</v>
       </c>
       <c r="P42">
-        <v>242616.68</v>
+        <v>242408.74</v>
       </c>
       <c r="Q42" s="115">
-        <v>8806.7199999999993</v>
+        <v>9079.9699999999993</v>
       </c>
       <c r="R42" s="127">
-        <f t="shared" si="19"/>
-        <v>-7.4942770974972817E-5</v>
+        <f t="shared" si="25"/>
+        <v>3.0093711763364839E-2</v>
       </c>
       <c r="S42" s="116">
-        <f t="shared" si="15"/>
-        <v>-3.4028211761422011E-2</v>
+        <f t="shared" si="21"/>
+        <v>-2.8692754622628547E-2</v>
       </c>
       <c r="T42" s="114">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="22"/>
+        <v>17</v>
       </c>
       <c r="U42" s="116">
-        <f>((N42/$N$54)-1)/T42*30</f>
-        <v>-6.3802897052666271E-2</v>
+        <f>((N42/$N$55)-1)/T42*30</f>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V42" s="116"/>
       <c r="W42" s="116"/>
@@ -8818,23 +8838,23 @@
       <c r="AB42" s="133"/>
       <c r="AC42" s="134"/>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:29">
       <c r="A43" s="117">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B43">
         <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>31.530999999999999</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D43">
         <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>34.125900000000001</v>
+        <v>34.5045</v>
       </c>
       <c r="F43" s="112">
         <v>161</v>
@@ -8847,11 +8867,11 @@
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.890316</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N43" s="113">
-        <f t="shared" si="17"/>
-        <v>515864.35854099999</v>
+        <f t="shared" si="23"/>
+        <v>512394.77395499998</v>
       </c>
       <c r="O43">
         <v>154.24</v>
@@ -8860,23 +8880,23 @@
         <v>242616.68</v>
       </c>
       <c r="Q43" s="115">
-        <v>8807.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="R43" s="127">
-        <f t="shared" si="19"/>
-        <v>-2.5206133946758191E-2</v>
+        <f t="shared" si="25"/>
+        <v>-7.4942770974972817E-5</v>
       </c>
       <c r="S43" s="116">
-        <f t="shared" si="15"/>
-        <v>-2.7487315957364089E-2</v>
+        <f t="shared" si="21"/>
+        <v>-3.4028211761422011E-2</v>
       </c>
       <c r="T43" s="114">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="22"/>
+        <v>16</v>
       </c>
       <c r="U43" s="116">
-        <f>((N43/$N$54)-1)/T43*30</f>
-        <v>-5.4974631914728178E-2</v>
+        <f>((N43/$N$55)-1)/T43*30</f>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V43" s="116"/>
       <c r="W43" s="116"/>
@@ -8887,65 +8907,65 @@
       <c r="AB43" s="133"/>
       <c r="AC43" s="134"/>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:29">
       <c r="A44" s="117">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B44">
-        <f>B61</f>
+        <f>B63</f>
         <v>1110</v>
       </c>
       <c r="C44">
-        <v>31.786200000000001</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D44">
-        <f>D61</f>
+        <f>D63</f>
         <v>321.99</v>
       </c>
       <c r="E44">
-        <v>34.386299999999999</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F44" s="112">
         <v>161</v>
       </c>
       <c r="G44">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L44">
-        <f>L61</f>
+        <f>L63</f>
         <v>125000</v>
       </c>
       <c r="M44">
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="N44" s="113">
-        <f t="shared" si="17"/>
-        <v>517720.01173699996</v>
+        <f t="shared" si="23"/>
+        <v>515864.35854099999</v>
       </c>
       <c r="O44">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="P44">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="Q44" s="115">
-        <v>9029.3799999999992</v>
+        <v>8807.3799999999992</v>
       </c>
       <c r="R44" s="127">
-        <f t="shared" si="19"/>
-        <v>-9.0947551216142841E-3</v>
+        <f t="shared" si="25"/>
+        <v>-2.5206133946758191E-2</v>
       </c>
       <c r="S44" s="116">
-        <f t="shared" si="15"/>
-        <v>-2.3989019863797534E-2</v>
+        <f t="shared" si="21"/>
+        <v>-2.7487315957364089E-2</v>
       </c>
       <c r="T44" s="114">
-        <f t="shared" si="16"/>
-        <v>14</v>
+        <f t="shared" si="22"/>
+        <v>15</v>
       </c>
       <c r="U44" s="116">
-        <f>((N44/$N$54)-1)/T44*30</f>
-        <v>-5.1405042565280425E-2</v>
+        <f>((N44/$N$55)-1)/T44*30</f>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V44" s="116"/>
       <c r="W44" s="116"/>
@@ -8956,65 +8976,65 @@
       <c r="AB44" s="133"/>
       <c r="AC44" s="134"/>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:29">
       <c r="A45" s="117">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B45">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>31.710699999999999</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D45">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>34.336300000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F45" s="112">
         <v>161</v>
       </c>
       <c r="G45">
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="L45">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N45" s="113">
-        <f t="shared" si="17"/>
-        <v>518732.15723700001</v>
+        <f t="shared" si="23"/>
+        <v>517720.01173699996</v>
       </c>
       <c r="O45">
-        <v>156.63999999999999</v>
+        <v>155.99</v>
       </c>
       <c r="P45">
-        <v>245919.31</v>
-      </c>
-      <c r="Q45">
-        <v>9111.5</v>
+        <v>244906</v>
+      </c>
+      <c r="Q45" s="115">
+        <v>9029.3799999999992</v>
       </c>
       <c r="R45" s="127">
-        <f t="shared" si="19"/>
-        <v>-3.2047412610438641E-3</v>
+        <f t="shared" si="25"/>
+        <v>-9.0947551216142841E-3</v>
       </c>
       <c r="S45" s="116">
-        <f t="shared" si="15"/>
-        <v>-2.2080912973779676E-2</v>
+        <f t="shared" si="21"/>
+        <v>-2.3989019863797534E-2</v>
       </c>
       <c r="T45" s="114">
-        <f t="shared" si="16"/>
-        <v>11</v>
+        <f t="shared" si="22"/>
+        <v>14</v>
       </c>
       <c r="U45" s="116">
-        <f>((N45/$N$54)-1)/T45*30</f>
-        <v>-6.0220671746671839E-2</v>
+        <f>((N45/$N$55)-1)/T45*30</f>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V45" s="116"/>
       <c r="W45" s="116"/>
@@ -9025,65 +9045,65 @@
       <c r="AB45" s="133"/>
       <c r="AC45" s="134"/>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:29">
       <c r="A46" s="117">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B46">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>32.063899999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D46">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>35.065100000000001</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F46" s="112">
         <v>161</v>
       </c>
       <c r="G46">
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="L46">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N46" s="113">
-        <f t="shared" si="17"/>
-        <v>529674.87554899999</v>
+        <f t="shared" si="23"/>
+        <v>518732.15723700001</v>
       </c>
       <c r="O46">
-        <v>163.91</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="P46">
-        <v>256845.12</v>
-      </c>
-      <c r="Q46" s="115">
-        <v>9140.7000000000007</v>
+        <v>245919.31</v>
+      </c>
+      <c r="Q46">
+        <v>9111.5</v>
       </c>
       <c r="R46" s="127">
-        <f t="shared" si="19"/>
-        <v>2.0302602645311585E-2</v>
+        <f t="shared" si="25"/>
+        <v>-3.2047412610438641E-3</v>
       </c>
       <c r="S46" s="116">
-        <f t="shared" si="15"/>
-        <v>-1.4515902067954167E-3</v>
+        <f t="shared" si="21"/>
+        <v>-2.2080912973779676E-2</v>
       </c>
       <c r="T46" s="114">
-        <f t="shared" si="16"/>
-        <v>10</v>
+        <f t="shared" si="22"/>
+        <v>11</v>
       </c>
       <c r="U46" s="116">
-        <f>((N46/$N$54)-1)/T46*30</f>
-        <v>-4.3547706203862502E-3</v>
+        <f>((N46/$N$55)-1)/T46*30</f>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V46" s="116"/>
       <c r="W46" s="116"/>
@@ -9094,65 +9114,65 @@
       <c r="AB46" s="133"/>
       <c r="AC46" s="134"/>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:29">
       <c r="A47" s="117">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B47">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C47">
-        <v>32.028799999999997</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D47">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E47">
-        <v>34.808799999999998</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F47" s="112">
         <v>161</v>
       </c>
       <c r="G47">
-        <v>2220.92</v>
+        <v>2267.61</v>
       </c>
       <c r="L47">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M47">
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N47" s="113">
-        <f t="shared" si="17"/>
-        <v>521166.42351200001</v>
+        <f t="shared" si="23"/>
+        <v>529674.87554899999</v>
       </c>
       <c r="O47">
-        <v>158.47999999999999</v>
+        <v>163.91</v>
       </c>
       <c r="P47">
-        <v>248342.62</v>
+        <v>256845.12</v>
       </c>
       <c r="Q47" s="115">
-        <v>8955.1200000000008</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="R47" s="127">
-        <f t="shared" si="19"/>
-        <v>2.8184993612594411E-3</v>
+        <f t="shared" si="25"/>
+        <v>2.0302602645311585E-2</v>
       </c>
       <c r="S47" s="116">
-        <f t="shared" si="15"/>
-        <v>-1.7491809676412506E-2</v>
+        <f t="shared" si="21"/>
+        <v>-1.4515902067954167E-3</v>
       </c>
       <c r="T47" s="114">
-        <f t="shared" si="16"/>
-        <v>9</v>
+        <f t="shared" si="22"/>
+        <v>10</v>
       </c>
       <c r="U47" s="116">
-        <f>((N47/$N$54)-1)/T47*30</f>
-        <v>-5.8306032254708352E-2</v>
+        <f>((N47/$N$55)-1)/T47*30</f>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V47" s="116"/>
       <c r="W47" s="116"/>
@@ -9163,65 +9183,65 @@
       <c r="AB47" s="133"/>
       <c r="AC47" s="134"/>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:29">
       <c r="A48" s="117">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B48">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D48">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F48" s="112">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="L48">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N48" s="113">
-        <f t="shared" si="17"/>
-        <v>516626.64020899998</v>
+        <f t="shared" si="23"/>
+        <v>521166.42351200001</v>
       </c>
       <c r="O48">
-        <v>155.59</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="P48">
-        <v>243803.06</v>
+        <v>248342.62</v>
       </c>
       <c r="Q48" s="115">
-        <v>8929.8799999999992</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="R48" s="127">
-        <f t="shared" si="19"/>
-        <v>2.3714764364134666E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.8184993612594411E-3</v>
       </c>
       <c r="S48" s="116">
-        <f t="shared" si="15"/>
-        <v>-2.6050254879836254E-2</v>
+        <f t="shared" si="21"/>
+        <v>-1.7491809676412506E-2</v>
       </c>
       <c r="T48" s="114">
-        <f t="shared" si="16"/>
-        <v>8</v>
+        <f t="shared" si="22"/>
+        <v>9</v>
       </c>
       <c r="U48" s="116">
-        <f>((N48/$N$54)-1)/T48*30</f>
-        <v>-9.7688455799385954E-2</v>
+        <f>((N48/$N$55)-1)/T48*30</f>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V48" s="116"/>
       <c r="W48" s="116"/>
@@ -9231,72 +9251,66 @@
       <c r="AA48" s="116"/>
       <c r="AB48" s="133"/>
       <c r="AC48" s="134"/>
-      <c r="AL48">
-        <v>68</v>
-      </c>
-      <c r="AM48">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="117">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B49">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C49">
-        <v>31.9499</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D49">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E49">
-        <v>34.8125</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F49" s="112">
         <v>161</v>
       </c>
       <c r="G49">
-        <v>2212.35</v>
+        <v>2219.02</v>
       </c>
       <c r="L49">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>0.93887900000000002</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N49" s="113">
-        <f t="shared" si="17"/>
-        <v>520221.89087499998</v>
+        <f t="shared" si="23"/>
+        <v>516626.64020899998</v>
       </c>
       <c r="O49">
-        <v>155.44</v>
+        <v>155.59</v>
       </c>
       <c r="P49">
-        <v>247623.17</v>
+        <v>243803.06</v>
       </c>
       <c r="Q49" s="115">
-        <v>8718.11</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="R49" s="127">
-        <f t="shared" si="19"/>
-        <v>-1.2685088855267868E-2</v>
+        <f t="shared" si="25"/>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="S49" s="116">
-        <f t="shared" si="15"/>
-        <v>-1.9272452116166794E-2</v>
+        <f t="shared" si="21"/>
+        <v>-2.6050254879836254E-2</v>
       </c>
       <c r="T49" s="114">
-        <f t="shared" si="16"/>
-        <v>7</v>
+        <f t="shared" si="22"/>
+        <v>8</v>
       </c>
       <c r="U49" s="116">
-        <f>((N49/$N$54)-1)/T49*30</f>
-        <v>-8.2596223355000553E-2</v>
+        <f>((N49/$N$55)-1)/T49*30</f>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V49" s="116"/>
       <c r="W49" s="116"/>
@@ -9310,68 +9324,68 @@
         <v>68</v>
       </c>
       <c r="AM49">
-        <v>22.96</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="117">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B50">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C50">
-        <v>31.796299999999999</v>
+        <v>31.9499</v>
       </c>
       <c r="D50">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E50">
-        <v>34.619700000000002</v>
+        <v>34.8125</v>
       </c>
       <c r="F50" s="112">
         <v>161</v>
       </c>
       <c r="G50">
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="L50">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M50">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N50" s="113">
-        <f t="shared" si="17"/>
-        <v>521369.280203</v>
+        <f t="shared" si="23"/>
+        <v>520221.89087499998</v>
       </c>
       <c r="O50">
-        <v>156.13</v>
+        <v>155.44</v>
       </c>
       <c r="P50">
-        <v>248712.47</v>
+        <v>247623.17</v>
       </c>
       <c r="Q50" s="115">
-        <v>8828.7000000000007</v>
+        <v>8718.11</v>
       </c>
       <c r="R50" s="127">
-        <f t="shared" si="19"/>
-        <v>-6.2092946866469934E-3</v>
+        <f t="shared" si="25"/>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="S50" s="116">
-        <f t="shared" si="15"/>
-        <v>-1.7109382199549383E-2</v>
+        <f t="shared" si="21"/>
+        <v>-1.9272452116166794E-2</v>
       </c>
       <c r="T50" s="114">
-        <f t="shared" si="16"/>
-        <v>4</v>
+        <f t="shared" si="22"/>
+        <v>7</v>
       </c>
       <c r="U50" s="116">
-        <f>((N50/$N$54)-1)/T50*30</f>
-        <v>-0.12832036649662037</v>
+        <f>((N50/$N$55)-1)/T50*30</f>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V50" s="116"/>
       <c r="W50" s="116"/>
@@ -9385,68 +9399,68 @@
         <v>68</v>
       </c>
       <c r="AM50">
-        <v>22.04</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="117">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B51">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C51">
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D51">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E51">
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F51" s="112">
         <v>161</v>
       </c>
       <c r="G51">
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="L51">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M51">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N51" s="113">
-        <f t="shared" si="17"/>
-        <v>523223.75937500002</v>
+        <f t="shared" si="23"/>
+        <v>521369.280203</v>
       </c>
       <c r="O51">
-        <v>157.21</v>
+        <v>156.13</v>
       </c>
       <c r="P51">
-        <v>250427.64</v>
+        <v>248712.47</v>
       </c>
       <c r="Q51" s="115">
-        <v>8883.52</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="R51" s="127">
-        <f t="shared" si="19"/>
-        <v>-3.0066910413888426E-3</v>
+        <f t="shared" si="25"/>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="S51" s="116">
-        <f t="shared" si="15"/>
-        <v>-1.3613299387851274E-2</v>
+        <f t="shared" si="21"/>
+        <v>-1.7109382199549383E-2</v>
       </c>
       <c r="T51" s="114">
-        <f t="shared" si="16"/>
-        <v>3</v>
+        <f t="shared" si="22"/>
+        <v>4</v>
       </c>
       <c r="U51" s="116">
-        <f>((N51/$N$54)-1)/T51*30</f>
-        <v>-0.13613299387851274</v>
+        <f>((N51/$N$55)-1)/T51*30</f>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V51" s="116"/>
       <c r="W51" s="116"/>
@@ -9460,68 +9474,68 @@
         <v>68</v>
       </c>
       <c r="AM51">
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="117">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B52">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C52">
-        <v>32</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D52">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E52">
-        <v>35</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F52" s="112">
         <v>161</v>
       </c>
       <c r="G52">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L52">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M52">
-        <v>0.957233</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N52" s="113">
-        <f t="shared" si="17"/>
-        <v>523915.29500000004</v>
+        <f t="shared" si="23"/>
+        <v>523223.75937500002</v>
       </c>
       <c r="O52">
-        <v>160.79</v>
+        <v>157.21</v>
       </c>
       <c r="P52">
-        <v>250989.9</v>
+        <v>250427.64</v>
       </c>
       <c r="Q52" s="115">
-        <v>8910.23</v>
+        <v>8883.52</v>
       </c>
       <c r="R52" s="127">
-        <f t="shared" si="19"/>
-        <v>-1.7822211098927898E-2</v>
+        <f t="shared" si="25"/>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="S52" s="116">
-        <f t="shared" si="15"/>
-        <v>-1.2309609463077242E-2</v>
+        <f t="shared" si="21"/>
+        <v>-1.3613299387851274E-2</v>
       </c>
       <c r="T52" s="114">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="22"/>
+        <v>3</v>
       </c>
       <c r="U52" s="116">
-        <f>((N52/$N$54)-1)/T52*30</f>
-        <v>-0.18464414194615864</v>
+        <f>((N52/$N$55)-1)/T52*30</f>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V52" s="116"/>
       <c r="W52" s="116"/>
@@ -9535,26 +9549,26 @@
         <v>68</v>
       </c>
       <c r="AM52">
-        <v>18.22</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="117">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B53">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C53">
-        <v>31.516400000000001</v>
+        <v>32</v>
       </c>
       <c r="D53">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E53">
-        <v>34.463200000000001</v>
+        <v>35</v>
       </c>
       <c r="F53" s="112">
         <v>161</v>
@@ -9563,40 +9577,40 @@
         <v>2220.3200000000002</v>
       </c>
       <c r="L53">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M53">
-        <v>0.979213</v>
+        <v>0.957233</v>
       </c>
       <c r="N53" s="113">
-        <f t="shared" si="17"/>
-        <v>525953.15476800012</v>
+        <f t="shared" si="23"/>
+        <v>523915.29500000004</v>
       </c>
       <c r="O53">
-        <v>161.94999999999999</v>
+        <v>160.79</v>
       </c>
       <c r="P53">
-        <v>252645.61</v>
+        <v>250989.9</v>
       </c>
       <c r="Q53" s="115">
-        <v>9069.0300000000007</v>
+        <v>8910.23</v>
       </c>
       <c r="R53" s="127">
-        <f t="shared" si="19"/>
-        <v>-6.8684302510850781E-3</v>
+        <f t="shared" si="25"/>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="S53" s="116">
-        <f t="shared" si="15"/>
-        <v>-8.4678157049555836E-3</v>
+        <f t="shared" si="21"/>
+        <v>-1.2309609463077242E-2</v>
       </c>
       <c r="T53" s="114">
-        <f t="shared" si="16"/>
-        <v>1</v>
+        <f t="shared" si="22"/>
+        <v>2</v>
       </c>
       <c r="U53" s="116">
-        <f>((N53/$N$54)-1)/T53*30</f>
-        <v>-0.25403447114866751</v>
+        <f>((N53/$N$55)-1)/T53*30</f>
+        <v>-0.18464414194615864</v>
       </c>
       <c r="V53" s="116"/>
       <c r="W53" s="116"/>
@@ -9610,66 +9624,69 @@
         <v>68</v>
       </c>
       <c r="AM53">
-        <v>16.57</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="117">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B54">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C54">
-        <v>31.571400000000001</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D54">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E54">
-        <v>34.558100000000003</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F54" s="112">
         <v>161</v>
       </c>
       <c r="G54">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L54">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M54">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N54" s="200">
-        <f t="shared" si="17"/>
-        <v>530444.86411900003</v>
+        <v>0.979213</v>
+      </c>
+      <c r="N54" s="113">
+        <f t="shared" si="23"/>
+        <v>525953.15476800012</v>
       </c>
       <c r="O54">
-        <v>164.91</v>
+        <v>161.94999999999999</v>
       </c>
       <c r="P54">
-        <v>257088.48</v>
+        <v>252645.61</v>
       </c>
       <c r="Q54" s="115">
-        <v>9131.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="R54" s="127">
-        <f t="shared" si="19"/>
-        <v>-2.6283166070184549E-3</v>
+        <f t="shared" si="25"/>
+        <v>-6.8684302510850781E-3</v>
       </c>
       <c r="S54" s="116">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="21"/>
+        <v>-8.4678157049555836E-3</v>
       </c>
       <c r="T54" s="114">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="116"/>
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="U54" s="116">
+        <f>((N54/$N$55)-1)/T54*30</f>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V54" s="116"/>
       <c r="W54" s="116"/>
       <c r="X54" s="116"/>
@@ -9678,72 +9695,69 @@
       <c r="AA54" s="116"/>
       <c r="AB54" s="133"/>
       <c r="AC54" s="134"/>
-      <c r="AH54">
-        <v>12</v>
-      </c>
-      <c r="AI54">
-        <v>41.58</v>
-      </c>
-      <c r="AJ54">
-        <f>AJ61</f>
-        <v>15</v>
-      </c>
-      <c r="AK54">
-        <v>55.55</v>
-      </c>
       <c r="AL54">
         <v>68</v>
       </c>
       <c r="AM54">
-        <v>15.07</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="117">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B55">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C55">
-        <v>31.402999999999999</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D55">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E55">
-        <v>34.3643</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F55" s="112">
         <v>161</v>
       </c>
       <c r="G55">
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="L55">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M55">
-        <v>0.99115900000000001</v>
-      </c>
-      <c r="N55" s="113">
-        <f t="shared" si="17"/>
-        <v>523720.92595699994</v>
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N55" s="200">
+        <f t="shared" si="23"/>
+        <v>530444.86411900003</v>
       </c>
       <c r="O55">
-        <v>160.9</v>
+        <v>164.91</v>
+      </c>
+      <c r="P55">
+        <v>257088.48</v>
       </c>
       <c r="Q55" s="115">
-        <v>9155.32</v>
+        <v>9131.32</v>
       </c>
       <c r="R55" s="127">
-        <f t="shared" si="19"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S55" s="116"/>
+        <f t="shared" si="25"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S55" s="116">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T55" s="114">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="U55" s="116"/>
       <c r="V55" s="116"/>
       <c r="W55" s="116"/>
@@ -9757,66 +9771,66 @@
         <v>12</v>
       </c>
       <c r="AI55">
-        <v>37.799999999999997</v>
+        <v>41.58</v>
       </c>
       <c r="AJ55">
-        <f>AJ61</f>
+        <f>AJ62</f>
         <v>15</v>
       </c>
       <c r="AK55">
-        <v>57.75</v>
+        <v>55.55</v>
       </c>
       <c r="AL55">
         <v>68</v>
       </c>
       <c r="AM55">
-        <v>13.7</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="A56" s="117">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B56">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C56">
-        <v>31.297000000000001</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D56">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E56">
-        <v>34.110599999999998</v>
+        <v>34.3643</v>
       </c>
       <c r="F56" s="112">
         <v>161</v>
       </c>
       <c r="G56">
-        <v>2184.79</v>
+        <v>2198.16</v>
       </c>
       <c r="L56">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M56">
-        <v>0.945214</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N56" s="113">
-        <f t="shared" si="17"/>
-        <v>515625.882094</v>
+        <f t="shared" si="23"/>
+        <v>523720.92595699994</v>
       </c>
       <c r="O56">
-        <v>155.75</v>
+        <v>160.9</v>
       </c>
       <c r="Q56" s="115">
-        <v>9054.18</v>
+        <v>9155.32</v>
       </c>
       <c r="R56" s="127">
-        <f t="shared" si="19"/>
-        <v>3.4194151209717583E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S56" s="116"/>
       <c r="U56" s="116"/>
@@ -9832,66 +9846,66 @@
         <v>12</v>
       </c>
       <c r="AI56">
-        <v>34.380000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ56">
-        <f>AJ61</f>
+        <f>AJ62</f>
         <v>15</v>
       </c>
       <c r="AK56">
-        <v>63.1</v>
+        <v>57.75</v>
       </c>
       <c r="AL56">
         <v>68</v>
       </c>
       <c r="AM56">
-        <v>12.46</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="117">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B57">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C57">
-        <v>31.293399999999998</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D57">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E57">
-        <v>34.006500000000003</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F57" s="112">
         <v>161</v>
       </c>
       <c r="G57">
-        <v>2150.9</v>
+        <v>2184.79</v>
       </c>
       <c r="L57">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M57">
-        <v>0.99397100000000005</v>
+        <v>0.945214</v>
       </c>
       <c r="N57" s="113">
-        <f t="shared" si="17"/>
-        <v>516226.70193500002</v>
+        <f t="shared" si="23"/>
+        <v>515625.882094</v>
       </c>
       <c r="O57">
-        <v>156.16</v>
+        <v>155.75</v>
       </c>
       <c r="Q57" s="115">
-        <v>8744.58</v>
+        <v>9054.18</v>
       </c>
       <c r="R57" s="127">
-        <f t="shared" si="19"/>
-        <v>-1.3258498407013208E-2</v>
+        <f t="shared" si="25"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S57" s="116"/>
       <c r="U57" s="116"/>
@@ -9903,77 +9917,70 @@
       <c r="AA57" s="116"/>
       <c r="AB57" s="133"/>
       <c r="AC57" s="134"/>
-      <c r="AF57">
-        <f>AF61</f>
-        <v>57</v>
-      </c>
-      <c r="AG57">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH57">
         <v>12</v>
       </c>
       <c r="AI57">
-        <v>31.26</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ57">
-        <f>AJ61</f>
+        <f>AJ62</f>
         <v>15</v>
       </c>
       <c r="AK57">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="AL57">
         <v>68</v>
       </c>
       <c r="AM57">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="A58" s="117">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B58">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C58">
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D58">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E58">
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F58" s="112">
         <v>161</v>
       </c>
       <c r="G58">
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="L58">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M58">
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N58" s="113">
-        <f t="shared" si="17"/>
-        <v>513091.35418300005</v>
+        <f t="shared" si="23"/>
+        <v>516226.70193500002</v>
       </c>
       <c r="O58">
-        <v>154.22999999999999</v>
+        <v>156.16</v>
       </c>
       <c r="Q58" s="115">
-        <v>8860.52</v>
+        <v>8744.58</v>
       </c>
       <c r="R58" s="127">
-        <f t="shared" si="19"/>
-        <v>-5.319100910555985E-3</v>
+        <f t="shared" si="25"/>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S58" s="116"/>
       <c r="U58" s="116"/>
@@ -9985,33 +9992,25 @@
       <c r="AA58" s="116"/>
       <c r="AB58" s="133"/>
       <c r="AC58" s="134"/>
-      <c r="AD58">
-        <f>AD61</f>
-        <v>36</v>
-      </c>
-      <c r="AE58" s="135">
-        <v>38.15</v>
-      </c>
       <c r="AF58">
-        <f>AF61</f>
+        <f>AF62</f>
         <v>57</v>
       </c>
       <c r="AG58">
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH58">
-        <f>AH61</f>
         <v>12</v>
       </c>
       <c r="AI58">
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="AJ58">
-        <f>AJ61</f>
+        <f>AJ62</f>
         <v>15</v>
       </c>
       <c r="AK58">
-        <v>52.2</v>
+        <v>57.4</v>
       </c>
       <c r="AL58">
         <v>68</v>
@@ -10022,45 +10021,48 @@
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="117">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B59">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C59">
-        <v>30.905999999999999</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D59">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E59">
-        <v>33.542299999999997</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F59" s="112">
         <v>161</v>
       </c>
       <c r="G59">
-        <v>2072.52</v>
+        <v>2116.34</v>
       </c>
       <c r="L59">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M59">
-        <v>1.041954</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N59" s="113">
-        <f t="shared" si="17"/>
-        <v>509025.91517699993</v>
+        <f t="shared" si="23"/>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O59">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q59" s="115">
-        <v>8907.65</v>
+        <v>8860.52</v>
       </c>
       <c r="R59" s="127">
-        <f t="shared" si="19"/>
-        <v>-2.1273848882702007E-2</v>
+        <f t="shared" si="25"/>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S59" s="116"/>
       <c r="U59" s="116"/>
@@ -10073,32 +10075,32 @@
       <c r="AB59" s="133"/>
       <c r="AC59" s="134"/>
       <c r="AD59">
-        <f>AD61</f>
+        <f>AD62</f>
         <v>36</v>
       </c>
-      <c r="AE59">
-        <v>34.659999999999997</v>
+      <c r="AE59" s="135">
+        <v>38.15</v>
       </c>
       <c r="AF59">
-        <f>AF61</f>
+        <f>AF62</f>
         <v>57</v>
       </c>
       <c r="AG59">
-        <v>578.66060300000004</v>
+        <v>579.361718</v>
       </c>
       <c r="AH59">
-        <f>AH61</f>
+        <f>AH62</f>
         <v>12</v>
       </c>
       <c r="AI59">
-        <v>25.84</v>
+        <v>28.42</v>
       </c>
       <c r="AJ59">
-        <f>AJ61</f>
+        <f>AJ62</f>
         <v>15</v>
       </c>
       <c r="AK59">
-        <v>47.46</v>
+        <v>52.2</v>
       </c>
       <c r="AL59">
         <v>68</v>
@@ -10109,45 +10111,45 @@
     </row>
     <row r="60" spans="1:39">
       <c r="A60" s="117">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B60">
-        <f>B61</f>
+        <f>B62</f>
         <v>1110</v>
       </c>
       <c r="C60">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D60">
-        <f>D61</f>
+        <f>D62</f>
         <v>321.99</v>
       </c>
       <c r="E60">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F60" s="112">
         <v>161</v>
       </c>
       <c r="G60">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L60">
-        <f>L61</f>
+        <f>L62</f>
         <v>125000</v>
       </c>
       <c r="M60">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="N60" s="113">
-        <f t="shared" si="17"/>
-        <v>499114.42414299998</v>
+        <f t="shared" si="23"/>
+        <v>509025.91517699993</v>
       </c>
       <c r="Q60" s="115">
-        <v>9097.15</v>
+        <v>8907.65</v>
       </c>
       <c r="R60" s="127">
-        <f t="shared" si="19"/>
-        <v>-1.0612114783201454E-2</v>
+        <f t="shared" si="25"/>
+        <v>-2.1273848882702007E-2</v>
       </c>
       <c r="S60" s="116"/>
       <c r="U60" s="116"/>
@@ -10160,32 +10162,32 @@
       <c r="AB60" s="133"/>
       <c r="AC60" s="134"/>
       <c r="AD60">
-        <f>AD61</f>
+        <f>AD62</f>
         <v>36</v>
       </c>
       <c r="AE60">
-        <v>31.52</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF60">
-        <f>AF61</f>
+        <f>AF62</f>
         <v>57</v>
       </c>
       <c r="AG60">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH60">
-        <f>AH61</f>
+        <f>AH62</f>
         <v>12</v>
       </c>
       <c r="AI60">
-        <v>23.5</v>
+        <v>25.84</v>
       </c>
       <c r="AJ60">
-        <f>AJ61</f>
+        <f>AJ62</f>
         <v>15</v>
       </c>
       <c r="AK60">
-        <v>43.16</v>
+        <v>47.46</v>
       </c>
       <c r="AL60">
         <v>68</v>
@@ -10196,7 +10198,7 @@
     </row>
     <row r="61" spans="1:39">
       <c r="A61" s="117">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B61">
         <f>B62</f>
@@ -10223,26 +10225,35 @@
         <v>125000</v>
       </c>
       <c r="M61">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="N61" s="113">
-        <f t="shared" si="17"/>
-        <v>496152.04914299998</v>
+        <f t="shared" si="23"/>
+        <v>499114.42414299998</v>
       </c>
       <c r="Q61" s="115">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="R61" s="127">
-        <f t="shared" si="19"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S61" s="127"/>
+        <f t="shared" si="25"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S61" s="116"/>
+      <c r="U61" s="116"/>
+      <c r="V61" s="116"/>
+      <c r="W61" s="116"/>
+      <c r="X61" s="116"/>
+      <c r="Y61" s="116"/>
+      <c r="Z61" s="116"/>
+      <c r="AA61" s="116"/>
+      <c r="AB61" s="133"/>
+      <c r="AC61" s="134"/>
       <c r="AD61">
         <f>AD62</f>
         <v>36</v>
       </c>
       <c r="AE61">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="AF61">
         <f>AF62</f>
@@ -10256,30 +10267,35 @@
         <v>12</v>
       </c>
       <c r="AI61">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="AJ61">
+        <f>AJ62</f>
         <v>15</v>
       </c>
       <c r="AK61">
-        <v>39.24</v>
-      </c>
-      <c r="AM61" s="129">
-        <f>AM60</f>
+        <v>43.16</v>
+      </c>
+      <c r="AL61">
+        <v>68</v>
+      </c>
+      <c r="AM61">
         <v>11.33</v>
       </c>
     </row>
     <row r="62" spans="1:39">
       <c r="A62" s="117">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B62">
+        <f>B63</f>
         <v>1110</v>
       </c>
       <c r="C62">
         <v>30.7361</v>
       </c>
       <c r="D62">
+        <f>D63</f>
         <v>321.99</v>
       </c>
       <c r="E62">
@@ -10292,21 +10308,22 @@
         <v>2018.91</v>
       </c>
       <c r="L62">
+        <f>L63</f>
         <v>125000</v>
       </c>
       <c r="M62">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="N62" s="113">
-        <f t="shared" si="17"/>
-        <v>503322.92414299998</v>
+        <f t="shared" si="23"/>
+        <v>496152.04914299998</v>
       </c>
       <c r="Q62" s="115">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="R62" s="127">
-        <f t="shared" si="19"/>
-        <v>-1.292378585710563E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S62" s="127"/>
       <c r="AD62">
@@ -10314,31 +10331,36 @@
         <v>36</v>
       </c>
       <c r="AE62">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="AF62">
+        <f>AF63</f>
         <v>57</v>
       </c>
       <c r="AG62">
         <v>576.58807100000001</v>
       </c>
       <c r="AH62">
+        <f>AH63</f>
         <v>12</v>
       </c>
       <c r="AI62">
-        <v>19.45</v>
-      </c>
-      <c r="AK62" s="129">
-        <f>AK61</f>
+        <v>21.38</v>
+      </c>
+      <c r="AJ62">
+        <v>15</v>
+      </c>
+      <c r="AK62">
         <v>39.24</v>
       </c>
-      <c r="AM62" s="129" t="s">
-        <v>69</v>
+      <c r="AM62" s="129">
+        <f>AM61</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="117">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B63">
         <v>1110</v>
@@ -10358,29 +10380,30 @@
       <c r="G63">
         <v>2018.91</v>
       </c>
-      <c r="L63" s="199">
-        <v>75000</v>
+      <c r="L63">
+        <v>125000</v>
       </c>
       <c r="M63">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="N63" s="113">
-        <f t="shared" si="17"/>
-        <v>449692.54914299998</v>
+        <f t="shared" si="23"/>
+        <v>503322.92414299998</v>
       </c>
       <c r="Q63" s="115">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="R63" s="127">
-        <f t="shared" si="19"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="25"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S63" s="127"/>
       <c r="AD63">
+        <f>AD64</f>
         <v>36</v>
       </c>
       <c r="AE63">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="AF63">
         <v>57</v>
@@ -10388,20 +10411,23 @@
       <c r="AG63">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI63" s="129">
-        <f>AI62</f>
+      <c r="AH63">
+        <v>12</v>
+      </c>
+      <c r="AI63">
         <v>19.45</v>
       </c>
-      <c r="AK63" s="129" t="s">
+      <c r="AK63" s="129">
+        <f>AK62</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM63" s="129" t="s">
         <v>69</v>
-      </c>
-      <c r="AM63" s="130" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:39">
       <c r="A64" s="117">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B64">
         <v>1110</v>
@@ -10421,30 +10447,29 @@
       <c r="G64">
         <v>2018.91</v>
       </c>
-      <c r="L64">
-        <f>L65</f>
-        <v>50000</v>
+      <c r="L64" s="199">
+        <v>75000</v>
       </c>
       <c r="M64">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N64" s="113">
-        <f t="shared" si="17"/>
-        <v>420821.92414299998</v>
+        <f t="shared" si="23"/>
+        <v>449692.54914299998</v>
       </c>
       <c r="Q64" s="115">
-        <v>9334.1299999999992</v>
+        <v>9179.48</v>
       </c>
       <c r="R64" s="127">
-        <f t="shared" si="19"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="25"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S64" s="127"/>
       <c r="AD64">
         <v>36</v>
       </c>
       <c r="AE64">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="AF64">
         <v>57</v>
@@ -10452,20 +10477,20 @@
       <c r="AG64">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI64" s="129" t="s">
+      <c r="AI64" s="129">
+        <f>AI63</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK64" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="AK64" s="130" t="s">
+      <c r="AM64" s="130" t="s">
         <v>68</v>
-      </c>
-      <c r="AM64" s="130">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:39">
       <c r="A65" s="117">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B65">
         <v>1110</v>
@@ -10486,28 +10511,29 @@
         <v>2018.91</v>
       </c>
       <c r="L65">
+        <f>L66</f>
         <v>50000</v>
       </c>
       <c r="M65">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N65" s="113">
-        <f t="shared" si="17"/>
-        <v>420020.17414299998</v>
+        <f t="shared" si="23"/>
+        <v>420821.92414299998</v>
       </c>
       <c r="Q65" s="115">
-        <v>9374.2000000000007</v>
+        <v>9334.1299999999992</v>
       </c>
       <c r="R65" s="127">
-        <f t="shared" si="19"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="25"/>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="S65" s="127"/>
       <c r="AD65">
         <v>36</v>
       </c>
       <c r="AE65">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="AF65">
         <v>57</v>
@@ -10515,132 +10541,195 @@
       <c r="AG65">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI65" s="130" t="s">
+      <c r="AI65" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK65" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="AK65" s="130">
-        <v>55.5</v>
-      </c>
-      <c r="AM65" s="116">
-        <f>(AM64-AM60)/AM60</f>
-        <v>0.73786407766990303</v>
+      <c r="AM65" s="130">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:39">
-      <c r="A66" s="198">
-        <v>45344</v>
-      </c>
-      <c r="L66" s="199">
+      <c r="A66" s="117">
+        <v>45345</v>
+      </c>
+      <c r="B66">
+        <v>1110</v>
+      </c>
+      <c r="C66">
+        <v>30.7361</v>
+      </c>
+      <c r="D66">
+        <v>321.99</v>
+      </c>
+      <c r="E66">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F66" s="112">
+        <v>161</v>
+      </c>
+      <c r="G66">
+        <v>2018.91</v>
+      </c>
+      <c r="L66">
         <v>50000</v>
       </c>
       <c r="M66">
         <v>1.0032049999999999</v>
       </c>
       <c r="N66" s="113">
-        <f t="shared" si="17"/>
-        <v>50160.249999999993</v>
+        <f t="shared" si="23"/>
+        <v>420020.17414299998</v>
       </c>
       <c r="Q66" s="115">
-        <v>9347.17</v>
-      </c>
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R66" s="127">
+        <f t="shared" si="25"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S66" s="127"/>
       <c r="AD66">
         <v>36</v>
       </c>
       <c r="AE66">
-        <v>17.82</v>
-      </c>
-      <c r="AI66" s="130">
-        <v>45.72</v>
-      </c>
-      <c r="AK66" s="116">
-        <f>(AK65-AK61)/AK61</f>
-        <v>0.41437308868501521</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF66">
+        <v>57</v>
+      </c>
+      <c r="AG66">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI66" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK66" s="130">
+        <v>55.5</v>
+      </c>
+      <c r="AM66" s="116">
+        <f>(AM65-AM61)/AM61</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="67" spans="1:39">
+      <c r="A67" s="198">
+        <v>45344</v>
+      </c>
+      <c r="L67" s="199">
+        <v>50000</v>
+      </c>
       <c r="M67">
-        <v>0.93849000000000005</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N67" s="113">
+        <f t="shared" si="23"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q67" s="115">
+        <v>9347.17</v>
       </c>
       <c r="AD67">
         <v>36</v>
       </c>
-      <c r="AE67" s="129">
-        <v>15.3</v>
-      </c>
-      <c r="AI67" s="116">
-        <f>(AI66-AI62)/AI62</f>
-        <v>1.3506426735218509</v>
-      </c>
-      <c r="AM67" s="132">
-        <f>(AL60*AM64)-(AL48*AM60)</f>
-        <v>568.48</v>
+      <c r="AE67">
+        <v>17.82</v>
+      </c>
+      <c r="AI67" s="130">
+        <v>45.72</v>
+      </c>
+      <c r="AK67" s="116">
+        <f>(AK66-AK62)/AK62</f>
+        <v>0.41437308868501521</v>
       </c>
     </row>
     <row r="68" spans="1:39">
       <c r="M68">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="R68" s="136">
-        <f>SUM(R10:R67)</f>
-        <v>-7.1600150686755182E-2</v>
-      </c>
-      <c r="S68" s="136"/>
-      <c r="AE68" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ68" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK68" s="132">
-        <f>(AJ61*AK65)-(AJ10*AK61)</f>
-        <v>832.5</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD68">
+        <v>36</v>
+      </c>
+      <c r="AE68" s="129">
+        <v>15.3</v>
+      </c>
+      <c r="AI68" s="116">
+        <f>(AI67-AI63)/AI63</f>
+        <v>1.3506426735218509</v>
+      </c>
+      <c r="AM68" s="132">
+        <f>(AL61*AM65)-(AL49*AM61)</f>
+        <v>568.48</v>
       </c>
     </row>
     <row r="69" spans="1:39">
       <c r="M69">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="AE69" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH69" s="132" t="s">
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="R69" s="136">
+        <f>SUM(R10:R68)</f>
+        <v>6.5229996184622774E-2</v>
+      </c>
+      <c r="S69" s="136"/>
+      <c r="AE69" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ69" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AI69" s="132">
-        <f>(AH62*AI66)-(AH10*AI62)</f>
-        <v>548.64</v>
+      <c r="AK69" s="132">
+        <f>(AJ62*AK66)-(AJ10*AK62)</f>
+        <v>832.5</v>
       </c>
     </row>
     <row r="70" spans="1:39">
       <c r="M70">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="AD70" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE70" s="130">
-        <v>38</v>
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="AE70" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH70" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI70" s="132">
+        <f>(AH63*AI67)-(AH10*AI63)</f>
+        <v>548.64</v>
       </c>
     </row>
     <row r="71" spans="1:39">
       <c r="M71">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE71" s="130">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39">
+      <c r="M72">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE71" s="116">
+      <c r="AE72" s="116">
         <f>Sayfa2!M59</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
-      <c r="M72">
+    <row r="73" spans="1:39">
+      <c r="M73">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
-      <c r="AD73" s="132" t="s">
+    <row r="74" spans="1:39">
+      <c r="AD74" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AE73" s="132">
+      <c r="AE74" s="132">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0554226B-0787-4CA4-8A8B-A6E0CF7CDACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6737BD9B-7921-46FB-A70A-A374A6D1BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3210" windowWidth="27240" windowHeight="12270" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -2034,11 +2034,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>236473.125356</v>
+        <v>242499.97235600007</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2047,11 +2047,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>143.23023946456692</v>
+        <v>146.61425172672313</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2084,24 +2084,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I36)</f>
-        <v>774982.48990000004</v>
+        <v>781082.53689999995</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K37)</f>
-        <v>211396.58746499999</v>
+        <v>217423.43446500006</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.38323086370742199</v>
+        <v>0.39415664926025129</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-0.14397675325198167</v>
+        <v>-0.1197905584785998</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-7.6733239225544689E-2</v>
+        <v>-5.8747579614476714E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2256,7 +2256,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O37)</f>
-        <v>211396.58746500002</v>
+        <v>217423.43446500006</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>22.34</v>
+        <v>23.6</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>893.6</v>
+        <v>944</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-8.16</v>
+        <v>-6.8999999999999986</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-326.39999999999998</v>
+        <v>-275.99999999999994</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M15" s="116">
         <f>K15/E15</f>
-        <v>-0.26754098360655737</v>
+        <v>-0.22622950819672127</v>
       </c>
       <c r="N15" s="116">
         <f>M15/L15*30</f>
-        <v>-0.19110070257611242</v>
+        <v>-0.15081967213114753</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2340,31 +2340,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>26.48</v>
+        <v>27.96</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>926.80000000000007</v>
+        <v>978.6</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-10.91</v>
+        <v>-9.43</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-381.85</v>
+        <v>-330.05</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M16" s="116">
         <f>K16/E16</f>
-        <v>-0.29178924846215565</v>
+        <v>-0.25220647231880183</v>
       </c>
       <c r="N16" s="116">
         <f>M16/L16*30</f>
-        <v>-0.20842089175868259</v>
+        <v>-0.16813764821253455</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2394,31 +2394,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>119</v>
+        <v>130.1</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1190</v>
+        <v>1301</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-16</v>
+        <v>-4.9000000000000057</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-160</v>
+        <v>-49.000000000000057</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M17" s="116">
         <f>K17/E17</f>
-        <v>-0.11851851851851852</v>
+        <v>-3.629629629629634E-2</v>
       </c>
       <c r="N17" s="116">
         <f>M17/L17*30</f>
-        <v>-7.1111111111111111E-2</v>
+        <v>-2.0545073375262079E-2</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F19" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G19" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="L19" s="66">
         <f>F19-B19</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M19" s="116">
         <f>K19/E19</f>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="N19" s="116">
         <f>M19/L19*30</f>
-        <v>3.0094603548911945E-2</v>
+        <v>2.478379115792748E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2507,31 +2507,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.4</v>
+        <v>23.62</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>58500</v>
+        <v>59050</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>-1.3100000000000023</v>
+        <v>-1.0899999999999999</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>-3275.0000000000055</v>
+        <v>-2724.9999999999995</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M21" s="116">
         <f>K21/E21</f>
-        <v>-5.3014973694860468E-2</v>
+        <v>-4.4111695669769316E-2</v>
       </c>
       <c r="N21" s="116">
         <f>M21/L21*30</f>
-        <v>-3.786783835347176E-2</v>
+        <v>-2.9407797113179542E-2</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2588,31 +2588,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.4</v>
+        <v>23.62</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>58500</v>
+        <v>59050</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>-1.5100000000000016</v>
+        <v>-1.2899999999999991</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>-3775.0000000000041</v>
+        <v>-3224.9999999999977</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>-6.0618225612204001E-2</v>
+        <v>-5.1786431152147698E-2</v>
       </c>
       <c r="N23" s="116">
         <f>M23/L23*30</f>
-        <v>-4.2291785310839998E-2</v>
+        <v>-3.3773759447052847E-2</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2669,31 +2669,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.4</v>
+        <v>23.62</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>58500</v>
+        <v>59050</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-1.7200000000000024</v>
+        <v>-1.5</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-4300.0000000000064</v>
+        <v>-3750</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-6.847133757961793E-2</v>
+        <v>-5.9713375796178345E-2</v>
       </c>
       <c r="N25" s="116">
         <f>M25/L25*30</f>
-        <v>-4.4655220160620387E-2</v>
+        <v>-3.6559209671129599E-2</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2750,31 +2750,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.80056899999999998</v>
+        <v>0.81506400000000001</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>60042.674999999996</v>
+        <v>61129.8</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.26386600000000004</v>
+        <v>-0.24937100000000001</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-19789.950000000004</v>
+        <v>-18702.825000000001</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.24789301366452632</v>
+        <v>-0.23427546069041325</v>
       </c>
       <c r="N27" s="116">
         <f>M27/L27*30</f>
-        <v>-7.0158400093733864E-2</v>
+        <v>-6.4479484593691724E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2805,35 +2805,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.80056899999999998</v>
+        <v>0.81506400000000001</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>40028.449999999997</v>
+        <v>40753.199999999997</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.20263599999999993</v>
+        <v>-0.18814099999999989</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-10131.799999999996</v>
+        <v>-9407.0499999999938</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.20198862645222057</v>
+        <v>-0.1875399345098957</v>
       </c>
       <c r="N28" s="116">
         <f>M28/L28*30</f>
-        <v>-5.5087807214241974E-2</v>
+        <v>-4.9789363144220097E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-41305.218535000022</v>
+        <v>-37630.143534999996</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2872,50 +2872,50 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F46" si="0">$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
         <f>Sayfa4!G10</f>
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="I30" s="51">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
-        <v>115767</v>
+        <v>116499</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ref="J30:J36" si="1">H30-D30</f>
-        <v>488.81000000000017</v>
+        <v>503.45000000000005</v>
       </c>
       <c r="K30" s="65">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>21996.450000000008</v>
+        <v>22655.250000000004</v>
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L36" si="2">F30-B30</f>
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M36" si="3">K30/E30</f>
-        <v>0.26761673774862726</v>
+        <v>0.2756319359660121</v>
       </c>
       <c r="N30" s="116">
         <f t="shared" ref="N30:N36" si="4">M30/L30*30</f>
-        <v>3.4163838861526886E-2</v>
+        <v>3.4743521340253623E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>115767</v>
+        <v>116499</v>
       </c>
       <c r="Q30" s="1">
         <v>2000</v>
       </c>
       <c r="R30" s="1">
         <f>P30/Q30</f>
-        <v>57.883499999999998</v>
+        <v>58.249499999999998</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2937,50 +2937,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
       </c>
       <c r="H31" s="64">
         <f>H30</f>
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>25468.74</v>
+        <v>25629.78</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>1913.2400000000002</v>
+        <v>1927.88</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>21045.640000000003</v>
+        <v>21206.68</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
-        <v>4.7581198706789358</v>
+        <v>4.7945287241979599</v>
       </c>
       <c r="N31" s="116">
         <f t="shared" si="4"/>
-        <v>0.11796991414906453</v>
+        <v>0.11857861642698994</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25468.74</v>
+        <v>25629.78</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>12.73437</v>
+        <v>12.81489</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3002,50 +3002,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>115767</v>
+        <v>116499</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1846.48</v>
+        <v>1861.12</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>92324</v>
+        <v>93056</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>3.9382331612848187</v>
+        <v>3.9694578338949795</v>
       </c>
       <c r="N32" s="116">
         <f t="shared" si="4"/>
-        <v>8.6238682363901142E-2</v>
+        <v>8.673250911642344E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>115767</v>
+        <v>116499</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>57.883499999999998</v>
+        <v>58.249499999999998</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3075,36 +3075,36 @@
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>57883.5</v>
+        <v>58249.5</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>1915.4700000000003</v>
+        <v>1930.1100000000001</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>47886.750000000007</v>
+        <v>48252.75</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>4.7902318253432377</v>
+        <v>4.8268437242103683</v>
       </c>
       <c r="N33" s="116">
         <f t="shared" si="4"/>
-        <v>0.10021405492349869</v>
+        <v>0.10076918004614548</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
         <f>SUM(R30:R32)</f>
-        <v>128.50137000000001</v>
+        <v>129.31389000000001</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3134,31 +3134,31 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>55568.160000000003</v>
+        <v>55919.520000000004</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>2041.5300000000002</v>
+        <v>2056.17</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>48996.72</v>
+        <v>49348.08</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>7.4560096417223622</v>
+        <v>7.5094773748219561</v>
       </c>
       <c r="N34" s="116">
         <f t="shared" si="4"/>
-        <v>0.13548170154553052</v>
+        <v>0.13620575649616606</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3189,40 +3189,40 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2077.75</v>
+        <v>2092.39</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>2077.75</v>
+        <v>2092.39</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>8.7451071173029167</v>
+        <v>8.8067258723010227</v>
       </c>
       <c r="N35" s="116">
         <f t="shared" si="4"/>
-        <v>0.15890564113815114</v>
+        <v>0.15973505209735833</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
         <f>SUM(P30:P34)</f>
-        <v>257002.74</v>
+        <v>258627.78</v>
       </c>
       <c r="R35" s="1">
         <f>P35/2220.32</f>
-        <v>115.750315269871</v>
+        <v>116.48220977156446</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3252,43 +3252,43 @@
       </c>
       <c r="H36" s="64">
         <f>Sayfa4!C5</f>
-        <v>31.553599999999999</v>
+        <v>31.614799999999999</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>35024.495999999999</v>
+        <v>35092.428</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>16.553599999999999</v>
+        <v>16.614799999999999</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>18374.495999999999</v>
+        <v>18442.428</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>1.1035733333333333</v>
+        <v>1.1076533333333334</v>
       </c>
       <c r="N36" s="116">
         <f t="shared" si="4"/>
-        <v>4.868705882352941E-2</v>
+        <v>4.8652415812591505E-2</v>
       </c>
       <c r="O36" s="70">
         <f>SUM(K30:K36)</f>
-        <v>252701.80600000004</v>
+        <v>255053.57800000004</v>
       </c>
       <c r="P36" s="6">
         <f>SUM(P35:P35)</f>
-        <v>257002.74</v>
+        <v>258627.78</v>
       </c>
       <c r="R36" s="1">
         <f>P36/2000</f>
-        <v>128.50137000000001</v>
+        <v>129.31388999999999</v>
       </c>
       <c r="T36" s="1" t="e">
         <f>P35/#REF!</f>
@@ -3313,7 +3313,7 @@
       <c r="O37" s="32"/>
       <c r="R37" s="67">
         <f>1-(R36/R35)</f>
-        <v>-0.11016000000000026</v>
+        <v>-0.11015999999999981</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3334,7 +3334,7 @@
       <c r="N39" s="116"/>
       <c r="R39" s="1">
         <f>R36*2220.32</f>
-        <v>285314.16183840006</v>
+        <v>287118.21624480002</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="F44" s="62">
         <f t="shared" si="0"/>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G44" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="L44" s="66">
         <f t="shared" ref="L44" si="6">F44-B44</f>
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="M44" s="67">
         <f t="shared" ref="M44" si="7">K44/E44</f>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="N44" s="116">
         <f t="shared" ref="N44" si="8">M44/L44*30</f>
-        <v>3.893276120040768E-2</v>
+        <v>3.8759212487775849E-2</v>
       </c>
       <c r="O44" s="70"/>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="F45" s="62">
         <f t="shared" si="0"/>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G45" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="L45" s="66">
         <f>F45-B45</f>
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="M45" s="67">
         <f>K45/E45</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="N45" s="116">
         <f>M45/L45*30</f>
-        <v>4.0137929912866237E-2</v>
+        <v>3.9959008977147666E-2</v>
       </c>
       <c r="O45" s="70"/>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="F46" s="62">
         <f t="shared" si="0"/>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G46" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="L46" s="66">
         <f>F46-B46</f>
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="M46" s="67">
         <f>K46/E46</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F73" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G73" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="L73" s="66">
         <f>F73-B73</f>
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M73" s="116">
         <f>K73/E73</f>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="N73" s="116">
         <f>M73/L73*30</f>
-        <v>3.0094603548911945E-2</v>
+        <v>2.478379115792748E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="F74" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G74" s="63">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="L74" s="66">
         <f>F74-B74</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M74" s="116">
         <f>K74/E74</f>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="N74" s="116">
         <f>M74/L74*30</f>
-        <v>3.8421967376230833E-2</v>
+        <v>3.5860502884482115E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="F75" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G75" s="63">
         <v>12</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="L75" s="66">
         <f>F75-B75</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M75" s="116">
         <f>K75/E75</f>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="N75" s="116">
         <f>M75/L75*30</f>
-        <v>3.5281451996833989E-2</v>
+        <v>3.2929355197045061E-2</v>
       </c>
       <c r="O75" s="102"/>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="F76" s="62">
         <f>$B$2</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="G76" s="63">
         <v>15</v>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="L76" s="66">
         <f>F76-B76</f>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M76" s="116">
         <f>K76/E76</f>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="N76" s="116">
         <f>M76/L76*30</f>
-        <v>3.5281451996833989E-2</v>
+        <v>3.2929355197045061E-2</v>
       </c>
       <c r="O76" s="102"/>
     </row>
@@ -5930,12 +5930,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM74"/>
+  <dimension ref="A4:AM76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="S10" sqref="S10"/>
+      <selection pane="topRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5987,51 +5987,51 @@
     <row r="5" spans="1:39">
       <c r="A5" s="117">
         <f>A10</f>
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="C5">
         <f>C10</f>
-        <v>31.553599999999999</v>
+        <v>31.614799999999999</v>
       </c>
       <c r="E5">
         <f>E10</f>
-        <v>33.882300000000001</v>
+        <v>33.916400000000003</v>
       </c>
       <c r="G5">
         <f>G10</f>
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="I5">
         <f>I10</f>
-        <v>23.4</v>
+        <v>23.62</v>
       </c>
       <c r="K5">
         <f>K10</f>
-        <v>689.86404900000002</v>
+        <v>662.49433199999999</v>
       </c>
       <c r="M5">
         <f>M10</f>
-        <v>0.80056899999999998</v>
+        <v>0.81506400000000001</v>
       </c>
       <c r="O5" s="115">
         <f>Sayfa2!D3</f>
-        <v>143.23023946456692</v>
+        <v>146.61425172672313</v>
       </c>
       <c r="P5" s="118">
         <f>Sayfa2!K2</f>
-        <v>236473.125356</v>
+        <v>242499.97235600007</v>
       </c>
       <c r="Y5" s="115">
         <f>Y10</f>
-        <v>26.48</v>
+        <v>27.96</v>
       </c>
       <c r="AA5" s="115">
         <f>AA10</f>
-        <v>22.34</v>
+        <v>23.6</v>
       </c>
       <c r="AC5" s="115">
         <f>AC10</f>
-        <v>119</v>
+        <v>130.1</v>
       </c>
       <c r="AE5">
         <f>AE10</f>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM49</f>
+        <f>AM51</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -6139,2202 +6139,2236 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="117">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B10">
-        <f>B61</f>
+        <f>B63</f>
         <v>1110</v>
       </c>
       <c r="C10">
-        <v>31.553599999999999</v>
+        <v>31.614799999999999</v>
       </c>
       <c r="D10">
-        <f>D61</f>
+        <f>D63</f>
         <v>321.99</v>
       </c>
       <c r="E10">
-        <v>33.882300000000001</v>
+        <v>33.916400000000003</v>
       </c>
       <c r="F10" s="112">
         <v>156</v>
       </c>
       <c r="G10">
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="H10" s="199">
         <v>7500</v>
       </c>
       <c r="I10" s="199">
-        <v>23.4</v>
+        <v>23.62</v>
       </c>
       <c r="J10">
         <v>210</v>
       </c>
       <c r="K10" s="137">
-        <v>689.86404900000002</v>
+        <v>662.49433199999999</v>
       </c>
       <c r="L10">
-        <f>L61</f>
+        <f>L63</f>
         <v>125000</v>
       </c>
       <c r="M10">
-        <v>0.80056899999999998</v>
+        <v>0.81506400000000001</v>
       </c>
       <c r="N10" s="113">
-        <f t="shared" ref="N10:N22" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>827569.87306699995</v>
+        <f t="shared" ref="N10:N24" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
+        <v>827646.85935600009</v>
       </c>
       <c r="O10">
-        <v>143.22999999999999</v>
+        <v>146.61000000000001</v>
       </c>
       <c r="P10">
-        <v>236473.13</v>
+        <v>242499.97</v>
       </c>
       <c r="Q10" s="115">
-        <v>10051.370000000001</v>
+        <v>10391.89</v>
       </c>
       <c r="R10" s="127">
-        <f>(1-(Q11/Q10))</f>
-        <v>-1.3476769833365987E-2</v>
+        <f>(1-(Q13/Q10))</f>
+        <v>1.9732695399970468E-2</v>
       </c>
       <c r="S10" s="116">
-        <f t="shared" ref="S10:S17" si="1">(N10/$N$55)-1</f>
-        <v>0.56014305924421737</v>
+        <f>(N10/$N$57)-1</f>
+        <v>0.56028819457157697</v>
       </c>
       <c r="T10" s="114">
-        <f t="shared" ref="T10:T17" si="2">(A10-$A$55)</f>
-        <v>92</v>
+        <f>(A10-$A$57)</f>
+        <v>95</v>
       </c>
       <c r="U10" s="116">
-        <f>((N10/$N$55)-1)/T10*30</f>
-        <v>0.18265534540572306</v>
+        <f>((N10/$N$57)-1)/T10*30</f>
+        <v>0.17693311407523482</v>
       </c>
       <c r="V10" s="116"/>
       <c r="W10" s="116"/>
       <c r="X10" s="134"/>
       <c r="Y10" s="134">
-        <v>26.48</v>
+        <v>27.96</v>
       </c>
       <c r="Z10" s="134"/>
       <c r="AA10" s="134">
-        <v>22.34</v>
+        <v>23.6</v>
       </c>
       <c r="AB10">
         <v>10</v>
       </c>
       <c r="AC10" s="115">
-        <v>119</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="117">
-        <v>45450</v>
+        <v>45456</v>
       </c>
       <c r="B11">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C11">
-        <v>31.457999999999998</v>
+        <v>31.614799999999999</v>
       </c>
       <c r="D11">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E11">
-        <v>34.078499999999998</v>
+        <v>33.916400000000003</v>
       </c>
       <c r="F11" s="112">
         <v>156</v>
       </c>
       <c r="G11">
-        <v>2320.73</v>
+        <v>2329.98</v>
       </c>
       <c r="H11" s="199">
         <v>7500</v>
       </c>
       <c r="I11" s="199">
-        <v>23.77</v>
+        <v>23.62</v>
       </c>
       <c r="J11">
         <v>210</v>
       </c>
       <c r="K11" s="137">
-        <v>656.34613999999999</v>
+        <v>662.49433199999999</v>
       </c>
       <c r="L11">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M11">
-        <v>0.831233</v>
+        <v>0.81506400000000001</v>
       </c>
       <c r="N11" s="113">
-        <f t="shared" ref="N11" si="3">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
-        <v>827937.01061500004</v>
+        <f t="shared" ref="N11" si="1">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
+        <v>827646.85935600009</v>
       </c>
       <c r="O11">
-        <v>148.11000000000001</v>
+        <v>146.61000000000001</v>
       </c>
       <c r="P11">
-        <v>243928.95</v>
+        <v>242499.97</v>
       </c>
       <c r="Q11" s="115">
-        <v>10186.83</v>
+        <v>10391.89</v>
       </c>
       <c r="R11" s="127">
-        <f t="shared" ref="R11:R25" si="4">(1-(Q12/Q11))</f>
-        <v>-9.1156915350507628E-3</v>
+        <f>(1-(Q14/Q11))</f>
+        <v>1.0796881029341066E-2</v>
       </c>
       <c r="S11" s="116">
-        <f t="shared" ref="S11" si="5">(N11/$N$55)-1</f>
-        <v>0.56083519064718579</v>
+        <f>(N11/$N$57)-1</f>
+        <v>0.56028819457157697</v>
       </c>
       <c r="T11" s="114">
-        <f t="shared" ref="T11" si="6">(A11-$A$55)</f>
-        <v>88</v>
+        <f>(A11-$A$57)</f>
+        <v>94</v>
       </c>
       <c r="U11" s="116">
-        <f>((N11/$N$55)-1)/T11*30</f>
-        <v>0.1911938149933588</v>
+        <f>((N11/$N$57)-1)/T11*30</f>
+        <v>0.17881538124624796</v>
       </c>
       <c r="V11" s="116"/>
       <c r="W11" s="116"/>
       <c r="X11" s="134"/>
       <c r="Y11" s="134">
-        <v>27.46</v>
+        <v>27.96</v>
       </c>
       <c r="Z11" s="134"/>
       <c r="AA11" s="134">
-        <v>23.46</v>
+        <v>23.6</v>
       </c>
       <c r="AB11">
         <v>10</v>
       </c>
       <c r="AC11" s="115">
-        <v>122.4</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="117">
-        <v>45449</v>
+        <v>45454</v>
       </c>
       <c r="B12">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.457999999999998</v>
+        <v>31.553599999999999</v>
       </c>
       <c r="D12">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>34.078499999999998</v>
+        <v>33.882300000000001</v>
       </c>
       <c r="F12" s="112">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="H12" s="199">
         <v>7500</v>
       </c>
       <c r="I12" s="199">
-        <v>23.77</v>
+        <v>23.4</v>
       </c>
       <c r="J12">
         <v>210</v>
       </c>
       <c r="K12" s="137">
-        <v>656.34613999999999</v>
+        <v>659.86404900000002</v>
       </c>
       <c r="L12">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.831233</v>
+        <v>0.80056899999999998</v>
       </c>
       <c r="N12" s="113">
-        <f t="shared" ref="N12" si="7">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
-        <v>827937.01061500004</v>
+        <f t="shared" ref="N12" si="2">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
+        <v>821269.87306699995</v>
       </c>
       <c r="O12">
-        <v>148.11000000000001</v>
+        <v>143.22999999999999</v>
       </c>
       <c r="P12">
-        <v>243928.95</v>
+        <v>236473.13</v>
       </c>
       <c r="Q12" s="115">
-        <v>10279.69</v>
+        <v>10051.370000000001</v>
       </c>
       <c r="R12" s="127">
-        <f t="shared" si="4"/>
-        <v>-6.9330884491651812E-3</v>
+        <f>(1-(Q14/Q12))</f>
+        <v>-2.2715311445106412E-2</v>
       </c>
       <c r="S12" s="116">
-        <f t="shared" si="1"/>
-        <v>0.56083519064718579</v>
+        <f>(N12/$N$57)-1</f>
+        <v>0.54826623579629241</v>
       </c>
       <c r="T12" s="114">
-        <f t="shared" si="2"/>
-        <v>87</v>
+        <f>(A12-$A$57)</f>
+        <v>92</v>
       </c>
       <c r="U12" s="116">
-        <f>((N12/$N$55)-1)/T12*30</f>
-        <v>0.19339144505075373</v>
+        <f>((N12/$N$57)-1)/T12*30</f>
+        <v>0.17878246819444316</v>
       </c>
       <c r="V12" s="116"/>
       <c r="W12" s="116"/>
       <c r="X12" s="134"/>
       <c r="Y12" s="134">
-        <v>27.46</v>
+        <v>26.48</v>
       </c>
       <c r="Z12" s="134"/>
       <c r="AA12" s="134">
-        <v>23.46</v>
+        <v>22.34</v>
       </c>
       <c r="AB12">
         <v>10</v>
       </c>
       <c r="AC12" s="115">
-        <v>122.4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="117">
-        <v>45448</v>
+        <v>45450</v>
       </c>
       <c r="B13">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C13">
-        <v>31.783300000000001</v>
+        <v>31.457999999999998</v>
       </c>
       <c r="D13">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E13">
-        <v>34.557899999999997</v>
+        <v>34.078499999999998</v>
       </c>
       <c r="F13" s="112">
         <v>156</v>
       </c>
       <c r="G13">
-        <v>2330.9299999999998</v>
+        <v>2320.73</v>
       </c>
       <c r="H13" s="199">
         <v>7500</v>
       </c>
       <c r="I13" s="199">
-        <v>24.06</v>
+        <v>23.77</v>
       </c>
       <c r="J13">
         <v>210</v>
       </c>
       <c r="K13" s="137">
-        <v>654.52437399999997</v>
+        <v>656.34613999999999</v>
       </c>
       <c r="L13">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M13">
-        <v>0.79747299999999999</v>
+        <v>0.831233</v>
       </c>
       <c r="N13" s="113">
-        <f t="shared" ref="N13" si="8">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
-        <v>827616.08476100001</v>
+        <f t="shared" ref="N13" si="3">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
+        <v>827937.01061500004</v>
       </c>
       <c r="O13">
-        <v>148.06</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="P13">
-        <v>243565.65</v>
+        <v>243928.95</v>
       </c>
       <c r="Q13" s="115">
-        <v>10350.959999999999</v>
+        <v>10186.83</v>
       </c>
       <c r="R13" s="127">
-        <f t="shared" si="4"/>
-        <v>-1.3138877939824489E-3</v>
+        <f t="shared" ref="R13:R27" si="4">(1-(Q14/Q13))</f>
+        <v>-9.1156915350507628E-3</v>
       </c>
       <c r="S13" s="116">
-        <f t="shared" si="1"/>
-        <v>0.56023017799514885</v>
+        <f t="shared" ref="S13" si="5">(N13/$N$57)-1</f>
+        <v>0.56083519064718579</v>
       </c>
       <c r="T13" s="114">
-        <f t="shared" si="2"/>
-        <v>86</v>
+        <f t="shared" ref="T13" si="6">(A13-$A$57)</f>
+        <v>88</v>
       </c>
       <c r="U13" s="116">
-        <f>((N13/$N$55)-1)/T13*30</f>
-        <v>0.19542913185877286</v>
+        <f>((N13/$N$57)-1)/T13*30</f>
+        <v>0.1911938149933588</v>
       </c>
       <c r="V13" s="116"/>
       <c r="W13" s="116"/>
       <c r="X13" s="134"/>
       <c r="Y13" s="134">
-        <v>29.06</v>
+        <v>27.46</v>
       </c>
       <c r="Z13" s="134"/>
       <c r="AA13" s="134">
-        <v>24.48</v>
+        <v>23.46</v>
       </c>
       <c r="AB13">
         <v>10</v>
       </c>
       <c r="AC13" s="115">
-        <v>119</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="117">
-        <v>45447</v>
+        <v>45449</v>
       </c>
       <c r="B14">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C14">
-        <v>31.6645</v>
+        <v>31.457999999999998</v>
       </c>
       <c r="D14">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E14">
-        <v>34.409799999999997</v>
+        <v>34.078499999999998</v>
       </c>
       <c r="F14" s="112">
         <v>156</v>
       </c>
       <c r="G14">
-        <v>2319.39</v>
+        <v>2320.73</v>
       </c>
       <c r="H14" s="199">
         <v>7500</v>
       </c>
       <c r="I14" s="199">
-        <v>23.89</v>
+        <v>23.77</v>
       </c>
       <c r="J14">
         <v>210</v>
       </c>
       <c r="K14" s="137">
-        <v>653.60767299999998</v>
+        <v>656.34613999999999</v>
       </c>
       <c r="L14">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M14">
-        <v>0.79912700000000003</v>
+        <v>0.831233</v>
       </c>
       <c r="N14" s="113">
-        <f t="shared" ref="N14" si="9">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
-        <v>824375.53283199994</v>
+        <f t="shared" ref="N14" si="7">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
+        <v>827937.01061500004</v>
       </c>
       <c r="O14">
-        <v>146.71</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="P14">
-        <v>241190.1</v>
+        <v>243928.95</v>
       </c>
       <c r="Q14" s="115">
-        <v>10364.56</v>
+        <v>10279.69</v>
       </c>
       <c r="R14" s="127">
         <f t="shared" si="4"/>
-        <v>-3.4656560432859695E-3</v>
+        <v>-6.9330884491651812E-3</v>
       </c>
       <c r="S14" s="116">
-        <f t="shared" si="1"/>
-        <v>0.55412105686267799</v>
+        <f>(N14/$N$57)-1</f>
+        <v>0.56083519064718579</v>
       </c>
       <c r="T14" s="114">
-        <f t="shared" si="2"/>
-        <v>85</v>
+        <f>(A14-$A$57)</f>
+        <v>87</v>
       </c>
       <c r="U14" s="116">
-        <f>((N14/$N$55)-1)/T14*30</f>
-        <v>0.1955721377162393</v>
+        <f>((N14/$N$57)-1)/T14*30</f>
+        <v>0.19339144505075373</v>
       </c>
       <c r="V14" s="116"/>
       <c r="W14" s="116"/>
       <c r="X14" s="134"/>
       <c r="Y14" s="134">
-        <v>30.58</v>
+        <v>27.46</v>
       </c>
       <c r="Z14" s="134"/>
       <c r="AA14" s="134">
-        <v>26.14</v>
+        <v>23.46</v>
       </c>
       <c r="AB14">
         <v>10</v>
       </c>
       <c r="AC14" s="115">
-        <v>114.6</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="117">
-        <v>45443</v>
+        <v>45448</v>
       </c>
       <c r="B15">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.576599999999999</v>
+        <v>31.783300000000001</v>
       </c>
       <c r="D15">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>34.157400000000003</v>
+        <v>34.557899999999997</v>
       </c>
       <c r="F15" s="112">
         <v>156</v>
       </c>
       <c r="G15">
-        <v>2324.5500000000002</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="H15" s="199">
         <v>7500</v>
       </c>
       <c r="I15" s="199">
-        <v>24.04</v>
+        <v>24.06</v>
       </c>
       <c r="J15">
         <v>210</v>
       </c>
       <c r="K15" s="137">
-        <v>649.96368099999995</v>
+        <v>654.52437399999997</v>
       </c>
       <c r="L15">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M15">
-        <v>0.80517899999999998</v>
+        <v>0.79747299999999999</v>
       </c>
       <c r="N15" s="113">
-        <f t="shared" ref="N15" si="10">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
-        <v>826117.91523599997</v>
+        <f t="shared" ref="N15" si="8">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
+        <v>827616.08476100001</v>
       </c>
       <c r="O15">
-        <v>147.47</v>
+        <v>148.06</v>
       </c>
       <c r="P15">
-        <v>241854.59</v>
+        <v>243565.65</v>
       </c>
       <c r="Q15" s="115">
-        <v>10400.48</v>
+        <v>10350.959999999999</v>
       </c>
       <c r="R15" s="127">
         <f t="shared" si="4"/>
-        <v>-7.7707951940679809E-3</v>
+        <v>-1.3138877939824489E-3</v>
       </c>
       <c r="S15" s="116">
-        <f t="shared" si="1"/>
-        <v>0.55740581371840481</v>
+        <f>(N15/$N$57)-1</f>
+        <v>0.56023017799514885</v>
       </c>
       <c r="T15" s="114">
-        <f t="shared" si="2"/>
-        <v>81</v>
+        <f>(A15-$A$57)</f>
+        <v>86</v>
       </c>
       <c r="U15" s="116">
-        <f>((N15/$N$55)-1)/T15*30</f>
-        <v>0.20644659767348328</v>
+        <f>((N15/$N$57)-1)/T15*30</f>
+        <v>0.19542913185877286</v>
       </c>
       <c r="V15" s="116"/>
       <c r="W15" s="116"/>
       <c r="X15" s="134"/>
       <c r="Y15" s="134">
-        <v>27.94</v>
+        <v>29.06</v>
       </c>
       <c r="Z15" s="134"/>
       <c r="AA15" s="134">
-        <v>24.08</v>
+        <v>24.48</v>
       </c>
       <c r="AB15">
         <v>10</v>
       </c>
       <c r="AC15" s="115">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="117">
-        <v>45442</v>
+        <v>45447</v>
       </c>
       <c r="B16">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C16">
-        <v>31.554500000000001</v>
+        <v>31.6645</v>
       </c>
       <c r="D16">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E16">
-        <v>34.104100000000003</v>
+        <v>34.409799999999997</v>
       </c>
       <c r="F16" s="112">
         <v>156</v>
       </c>
       <c r="G16">
-        <v>2317.36</v>
+        <v>2319.39</v>
       </c>
       <c r="H16" s="199">
         <v>7500</v>
       </c>
       <c r="I16" s="199">
-        <v>24</v>
+        <v>23.89</v>
       </c>
       <c r="J16">
         <v>210</v>
       </c>
       <c r="K16" s="137">
-        <v>649.05997200000002</v>
+        <v>653.60767299999998</v>
       </c>
       <c r="L16">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M16">
-        <v>0.78746400000000005</v>
+        <v>0.79912700000000003</v>
       </c>
       <c r="N16" s="113">
-        <f t="shared" ref="N16" si="11">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
-        <v>822250.4282790001</v>
+        <f t="shared" ref="N16" si="9">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
+        <v>824375.53283199994</v>
       </c>
       <c r="O16">
-        <v>145.25</v>
+        <v>146.71</v>
       </c>
       <c r="P16">
-        <v>238057.84</v>
+        <v>241190.1</v>
       </c>
       <c r="Q16" s="115">
-        <v>10481.299999999999</v>
+        <v>10364.56</v>
       </c>
       <c r="R16" s="127">
         <f t="shared" si="4"/>
-        <v>-3.2018928949655301E-3</v>
+        <v>-3.4656560432859695E-3</v>
       </c>
       <c r="S16" s="116">
-        <f t="shared" si="1"/>
-        <v>0.55011478835722394</v>
+        <f>(N16/$N$57)-1</f>
+        <v>0.55412105686267799</v>
       </c>
       <c r="T16" s="114">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f>(A16-$A$57)</f>
+        <v>85</v>
       </c>
       <c r="U16" s="116">
-        <f>((N16/$N$55)-1)/T16*30</f>
-        <v>0.20629304563395898</v>
+        <f>((N16/$N$57)-1)/T16*30</f>
+        <v>0.1955721377162393</v>
       </c>
       <c r="V16" s="116"/>
       <c r="W16" s="116"/>
       <c r="X16" s="134"/>
       <c r="Y16" s="134">
-        <v>28.24</v>
+        <v>30.58</v>
       </c>
       <c r="Z16" s="134"/>
       <c r="AA16" s="134">
-        <v>24.78</v>
+        <v>26.14</v>
       </c>
       <c r="AB16">
         <v>10</v>
       </c>
       <c r="AC16" s="115">
-        <v>119.1</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="117">
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="B17">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C17">
-        <v>31.4527</v>
+        <v>31.576599999999999</v>
       </c>
       <c r="D17">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E17">
-        <v>34.006700000000002</v>
+        <v>34.157400000000003</v>
       </c>
       <c r="F17" s="112">
         <v>156</v>
       </c>
       <c r="G17">
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="H17" s="199">
         <v>7500</v>
       </c>
       <c r="I17" s="199">
-        <v>23.99</v>
+        <v>24.04</v>
       </c>
       <c r="J17">
         <v>210</v>
       </c>
-      <c r="K17">
-        <v>648.15704900000003</v>
+      <c r="K17" s="137">
+        <v>649.96368099999995</v>
       </c>
       <c r="L17">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M17">
-        <v>0.81522399999999995</v>
+        <v>0.80517899999999998</v>
       </c>
       <c r="N17" s="113">
-        <f t="shared" ref="N17" si="12">(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)+(J17*K17)</f>
-        <v>827562.53462299996</v>
+        <f t="shared" ref="N17" si="10">(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)+(J17*K17)</f>
+        <v>826117.91523599997</v>
       </c>
       <c r="O17">
-        <v>148.58000000000001</v>
+        <v>147.47</v>
       </c>
       <c r="P17">
-        <v>243375.9</v>
+        <v>241854.59</v>
       </c>
       <c r="Q17" s="115">
-        <v>10514.86</v>
+        <v>10400.48</v>
       </c>
       <c r="R17" s="127">
         <f t="shared" si="4"/>
-        <v>-1.5466682390445463E-2</v>
+        <v>-7.7707951940679809E-3</v>
       </c>
       <c r="S17" s="116">
-        <f t="shared" si="1"/>
-        <v>0.56012922473568239</v>
+        <f>(N17/$N$57)-1</f>
+        <v>0.55740581371840481</v>
       </c>
       <c r="T17" s="114">
-        <f t="shared" si="2"/>
-        <v>79</v>
+        <f>(A17-$A$57)</f>
+        <v>81</v>
       </c>
       <c r="U17" s="116">
-        <f>((N17/$N$55)-1)/T17*30</f>
-        <v>0.21270730053253761</v>
+        <f>((N17/$N$57)-1)/T17*30</f>
+        <v>0.20644659767348328</v>
       </c>
       <c r="V17" s="116"/>
       <c r="W17" s="116"/>
       <c r="X17" s="134"/>
       <c r="Y17" s="134">
-        <v>28.18</v>
+        <v>27.94</v>
       </c>
       <c r="Z17" s="134"/>
       <c r="AA17" s="134">
-        <v>24.8</v>
+        <v>24.08</v>
       </c>
       <c r="AB17">
         <v>10</v>
       </c>
       <c r="AC17" s="115">
-        <v>119.6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="117">
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="B18">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>31.4527</v>
+        <v>31.554500000000001</v>
       </c>
       <c r="D18">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>34.006700000000002</v>
+        <v>34.104100000000003</v>
       </c>
       <c r="F18" s="112">
         <v>156</v>
       </c>
       <c r="G18">
-        <v>2331.79</v>
+        <v>2317.36</v>
       </c>
       <c r="H18" s="199">
         <v>7500</v>
       </c>
       <c r="I18" s="199">
-        <v>23.99</v>
+        <v>24</v>
       </c>
       <c r="J18">
         <v>210</v>
       </c>
-      <c r="K18">
-        <v>647.25598100000002</v>
+      <c r="K18" s="137">
+        <v>649.05997200000002</v>
       </c>
       <c r="L18">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M18">
-        <v>0.86140000000000005</v>
+        <v>0.78746400000000005</v>
       </c>
       <c r="N18" s="113">
-        <f t="shared" si="0"/>
-        <v>833145.31034299999</v>
+        <f t="shared" ref="N18" si="11">(F18*G18)+(B18*C18)+(D18*E18)+(L18*M18)+(H18*I18)+(J18*K18)</f>
+        <v>822250.4282790001</v>
       </c>
       <c r="O18">
-        <v>153.71</v>
+        <v>145.25</v>
       </c>
       <c r="P18">
-        <v>251476.74</v>
+        <v>238057.84</v>
       </c>
       <c r="Q18" s="115">
-        <v>10677.49</v>
+        <v>10481.299999999999</v>
       </c>
       <c r="R18" s="127">
         <f t="shared" si="4"/>
-        <v>1.9227365232841187E-3</v>
+        <v>-3.2018928949655301E-3</v>
       </c>
       <c r="S18" s="116">
-        <f t="shared" ref="S18" si="13">(N18/$N$55)-1</f>
-        <v>0.57065392974771467</v>
+        <f>(N18/$N$57)-1</f>
+        <v>0.55011478835722394</v>
       </c>
       <c r="T18" s="114">
-        <f t="shared" ref="T18" si="14">(A18-$A$55)</f>
-        <v>78</v>
+        <f>(A18-$A$57)</f>
+        <v>80</v>
       </c>
       <c r="U18" s="116">
-        <f>((N18/$N$55)-1)/T18*30</f>
-        <v>0.21948228067219797</v>
+        <f>((N18/$N$57)-1)/T18*30</f>
+        <v>0.20629304563395898</v>
       </c>
       <c r="V18" s="116"/>
       <c r="W18" s="116"/>
       <c r="X18" s="134"/>
       <c r="Y18" s="134">
-        <v>28.18</v>
+        <v>28.24</v>
       </c>
       <c r="Z18" s="134"/>
       <c r="AA18" s="134">
-        <v>24.8</v>
+        <v>24.78</v>
       </c>
       <c r="AB18">
         <v>10</v>
       </c>
       <c r="AC18" s="115">
-        <v>119.6</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="117">
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="B19">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>31.436</v>
+        <v>31.4527</v>
       </c>
       <c r="D19">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>34.100200000000001</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F19" s="112">
         <v>156</v>
       </c>
       <c r="G19">
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="H19" s="199">
         <v>7500</v>
       </c>
       <c r="I19" s="199">
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="J19">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K19">
-        <v>646.30405299999995</v>
+        <v>648.15704900000003</v>
       </c>
       <c r="L19">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M19">
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="N19" s="113">
-        <f t="shared" si="0"/>
-        <v>719037.96498799999</v>
+        <f t="shared" ref="N19" si="12">(F19*G19)+(B19*C19)+(D19*E19)+(L19*M19)+(H19*I19)+(J19*K19)</f>
+        <v>827562.53462299996</v>
       </c>
       <c r="O19">
-        <v>153.71</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="P19">
-        <v>251476.74</v>
+        <v>243375.9</v>
       </c>
       <c r="Q19" s="115">
-        <v>10656.96</v>
+        <v>10514.86</v>
       </c>
       <c r="R19" s="127">
         <f t="shared" si="4"/>
-        <v>-1.8476188331382204E-3</v>
+        <v>-1.5466682390445463E-2</v>
       </c>
       <c r="S19" s="116">
-        <f t="shared" ref="S19" si="15">(N19/$N$55)-1</f>
-        <v>0.35553761309807119</v>
+        <f>(N19/$N$57)-1</f>
+        <v>0.56012922473568239</v>
       </c>
       <c r="T19" s="114">
-        <f t="shared" ref="T19" si="16">(A19-$A$55)</f>
-        <v>77</v>
+        <f>(A19-$A$57)</f>
+        <v>79</v>
       </c>
       <c r="U19" s="116">
-        <f>((N19/$N$55)-1)/T19*30</f>
-        <v>0.13852114796028747</v>
+        <f>((N19/$N$57)-1)/T19*30</f>
+        <v>0.21270730053253761</v>
       </c>
       <c r="V19" s="116"/>
       <c r="W19" s="116"/>
       <c r="X19" s="134"/>
       <c r="Y19" s="134">
-        <v>32.36</v>
+        <v>28.18</v>
       </c>
       <c r="Z19" s="134"/>
       <c r="AA19" s="134">
-        <v>23.08</v>
+        <v>24.8</v>
       </c>
       <c r="AB19">
         <v>10</v>
       </c>
       <c r="AC19" s="115">
-        <v>124</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="117">
-        <v>45435</v>
+        <v>45440</v>
       </c>
       <c r="B20">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.4588</v>
+        <v>31.4527</v>
       </c>
       <c r="D20">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>34.044699999999999</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F20" s="112">
         <v>156</v>
       </c>
       <c r="G20">
-        <v>2363.8000000000002</v>
+        <v>2331.79</v>
       </c>
       <c r="H20" s="199">
         <v>7500</v>
       </c>
       <c r="I20" s="199">
-        <v>24.45</v>
+        <v>23.99</v>
       </c>
       <c r="J20">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K20">
-        <v>642.69199700000001</v>
+        <v>647.25598100000002</v>
       </c>
       <c r="L20">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M20">
-        <v>0.87326400000000004</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N20" s="113">
         <f t="shared" si="0"/>
-        <v>726447.88086300006</v>
+        <v>833145.31034299999</v>
       </c>
       <c r="O20">
-        <v>158.78</v>
+        <v>153.71</v>
       </c>
       <c r="P20">
-        <v>259129.45</v>
+        <v>251476.74</v>
       </c>
       <c r="Q20" s="115">
-        <v>10676.65</v>
+        <v>10677.49</v>
       </c>
       <c r="R20" s="127">
         <f t="shared" si="4"/>
-        <v>-1.4329401076180304E-2</v>
+        <v>1.9227365232841187E-3</v>
       </c>
       <c r="S20" s="116">
-        <f>(N20/$N$55)-1</f>
-        <v>0.36950686113161924</v>
+        <f t="shared" ref="S20" si="13">(N20/$N$57)-1</f>
+        <v>0.57065392974771467</v>
       </c>
       <c r="T20" s="114">
-        <f>(A20-$A$55)</f>
-        <v>73</v>
+        <f t="shared" ref="T20" si="14">(A20-$A$57)</f>
+        <v>78</v>
       </c>
       <c r="U20" s="116">
-        <f>((N20/$N$55)-1)/T20*30</f>
-        <v>0.15185213471162434</v>
+        <f>((N20/$N$57)-1)/T20*30</f>
+        <v>0.21948228067219797</v>
       </c>
       <c r="V20" s="116"/>
       <c r="W20" s="116"/>
       <c r="X20" s="134"/>
       <c r="Y20" s="134">
-        <v>34.299999999999997</v>
+        <v>28.18</v>
       </c>
       <c r="Z20" s="134"/>
       <c r="AA20" s="134">
-        <v>27.92</v>
+        <v>24.8</v>
       </c>
       <c r="AB20">
         <v>10</v>
       </c>
       <c r="AC20" s="115">
-        <v>122</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="117">
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="B21">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.469899999999999</v>
+        <v>31.436</v>
       </c>
       <c r="D21">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.182699999999997</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="F21" s="112">
         <v>156</v>
       </c>
       <c r="G21">
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="H21" s="199">
         <v>7500</v>
       </c>
       <c r="I21" s="199">
-        <v>24.91</v>
+        <v>24.32</v>
       </c>
       <c r="J21">
         <v>30</v>
       </c>
       <c r="K21">
-        <v>641.00899600000002</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="L21">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M21">
-        <v>0.86580400000000002</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N21" s="113">
         <f t="shared" si="0"/>
-        <v>737258.36645300011</v>
+        <v>719037.96498799999</v>
       </c>
       <c r="O21">
-        <v>165.69</v>
+        <v>153.71</v>
       </c>
       <c r="P21">
-        <v>269993.23</v>
+        <v>251476.74</v>
       </c>
       <c r="Q21" s="115">
-        <v>10829.64</v>
+        <v>10656.96</v>
       </c>
       <c r="R21" s="127">
         <f t="shared" si="4"/>
-        <v>8.3169892997366768E-3</v>
+        <v>-1.8476188331382204E-3</v>
       </c>
       <c r="S21" s="116">
-        <f>(N21/$N$55)-1</f>
-        <v>0.38988689743936056</v>
+        <f t="shared" ref="S21" si="15">(N21/$N$57)-1</f>
+        <v>0.35553761309807119</v>
       </c>
       <c r="T21" s="114">
-        <f>(A21-$A$55)</f>
-        <v>71</v>
+        <f t="shared" ref="T21" si="16">(A21-$A$57)</f>
+        <v>77</v>
       </c>
       <c r="U21" s="116">
-        <f>((N21/$N$55)-1)/T21*30</f>
-        <v>0.16474094258001151</v>
+        <f>((N21/$N$57)-1)/T21*30</f>
+        <v>0.13852114796028747</v>
       </c>
       <c r="V21" s="116"/>
       <c r="W21" s="116"/>
       <c r="X21" s="134"/>
       <c r="Y21" s="134">
-        <v>34.799999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="Z21" s="134"/>
       <c r="AA21" s="134">
-        <v>28.52</v>
+        <v>23.08</v>
       </c>
       <c r="AB21">
         <v>10</v>
       </c>
       <c r="AC21" s="115">
-        <v>123.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="117">
-        <v>45426</v>
+        <v>45435</v>
       </c>
       <c r="B22">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.5244</v>
+        <v>31.4588</v>
       </c>
       <c r="D22">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>34.005400000000002</v>
+        <v>34.044699999999999</v>
       </c>
       <c r="F22" s="112">
         <v>156</v>
       </c>
       <c r="G22">
-        <v>2344.5700000000002</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="H22" s="199">
         <v>7500</v>
       </c>
       <c r="I22" s="199">
-        <v>24.41</v>
+        <v>24.45</v>
       </c>
       <c r="J22">
         <v>30</v>
       </c>
       <c r="K22">
-        <v>634.98375399999998</v>
+        <v>642.69199700000001</v>
       </c>
       <c r="L22">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M22">
-        <v>0.84950000000000003</v>
+        <v>0.87326400000000004</v>
       </c>
       <c r="N22" s="113">
         <f t="shared" si="0"/>
-        <v>720006.41536600015</v>
+        <v>726447.88086300006</v>
       </c>
       <c r="O22">
-        <v>158.43</v>
+        <v>158.78</v>
       </c>
       <c r="P22">
-        <v>256973.54</v>
+        <v>259129.45</v>
       </c>
       <c r="Q22" s="115">
-        <v>10739.57</v>
+        <v>10676.65</v>
       </c>
       <c r="R22" s="127">
         <f t="shared" si="4"/>
-        <v>5.0241303888330702E-2</v>
+        <v>-1.4329401076180304E-2</v>
       </c>
       <c r="S22" s="116">
-        <f>(N22/$N$55)-1</f>
-        <v>0.35736334550403681</v>
+        <f>(N22/$N$57)-1</f>
+        <v>0.36950686113161924</v>
       </c>
       <c r="T22" s="114">
-        <f>(A22-$A$55)</f>
-        <v>64</v>
+        <f>(A22-$A$57)</f>
+        <v>73</v>
       </c>
       <c r="U22" s="116">
-        <f>((N22/$N$55)-1)/T22*30</f>
-        <v>0.16751406820501724</v>
+        <f>((N22/$N$57)-1)/T22*30</f>
+        <v>0.15185213471162434</v>
       </c>
       <c r="V22" s="116"/>
       <c r="W22" s="116"/>
       <c r="X22" s="134"/>
       <c r="Y22" s="134">
-        <v>35.86</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z22" s="134"/>
       <c r="AA22" s="134">
-        <v>30.2</v>
+        <v>27.92</v>
       </c>
       <c r="AB22">
         <v>10</v>
       </c>
       <c r="AC22" s="115">
-        <v>120.1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="117">
-        <v>45425</v>
+        <v>45433</v>
       </c>
       <c r="B23">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.371600000000001</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="D23">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>33.871899999999997</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="F23" s="112">
         <v>156</v>
       </c>
       <c r="G23">
-        <v>2341.31</v>
+        <v>2416.92</v>
       </c>
       <c r="H23" s="199">
         <v>7500</v>
       </c>
       <c r="I23" s="199">
-        <v>24.47</v>
+        <v>24.91</v>
       </c>
       <c r="J23">
         <v>30</v>
       </c>
       <c r="K23">
-        <v>634.10149999999999</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="L23">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.88511899999999999</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="N23" s="113">
-        <f t="shared" ref="N23:N31" si="17">(F23*G23)+(B23*C23)+(D23*E23)+(L23*M23)+(H23*I23)+(J23*K23)</f>
-        <v>724161.16908100003</v>
+        <f t="shared" si="0"/>
+        <v>737258.36645300011</v>
       </c>
       <c r="O23">
-        <v>158.43</v>
+        <v>165.69</v>
       </c>
       <c r="P23">
-        <v>256973.54</v>
+        <v>269993.23</v>
       </c>
       <c r="Q23" s="115">
-        <v>10200</v>
+        <v>10829.64</v>
       </c>
       <c r="R23" s="127">
         <f t="shared" si="4"/>
-        <v>-6.7235294117646838E-3</v>
+        <v>8.3169892997366768E-3</v>
       </c>
       <c r="S23" s="116">
-        <f>(N23/$N$55)-1</f>
-        <v>0.36519592905049159</v>
+        <f>(N23/$N$57)-1</f>
+        <v>0.38988689743936056</v>
       </c>
       <c r="T23" s="114">
-        <f>(A23-$A$55)</f>
-        <v>63</v>
+        <f>(A23-$A$57)</f>
+        <v>71</v>
       </c>
       <c r="U23" s="116">
-        <f>((N23/$N$55)-1)/T23*30</f>
-        <v>0.17390282335737695</v>
+        <f>((N23/$N$57)-1)/T23*30</f>
+        <v>0.16474094258001151</v>
       </c>
       <c r="V23" s="116"/>
       <c r="W23" s="116"/>
       <c r="X23" s="134"/>
       <c r="Y23" s="134">
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Z23" s="134"/>
       <c r="AA23" s="134">
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AB23">
         <v>10</v>
       </c>
       <c r="AC23" s="115">
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="117">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B24">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.712</v>
+        <v>31.5244</v>
       </c>
       <c r="D24">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>34.055500000000002</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F24" s="112">
         <v>156</v>
       </c>
       <c r="G24">
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H24" s="199">
         <v>7500</v>
       </c>
       <c r="I24" s="199">
-        <v>24.39</v>
+        <v>24.41</v>
       </c>
       <c r="J24">
         <v>30</v>
       </c>
       <c r="K24">
-        <v>622.84294799999998</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L24">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M24">
-        <v>0.90642500000000004</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N24" s="113">
-        <f t="shared" si="17"/>
-        <v>725052.22388499998</v>
+        <f t="shared" si="0"/>
+        <v>720006.41536600015</v>
       </c>
       <c r="O24">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P24">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q24" s="115">
-        <v>10268.58</v>
+        <v>10739.57</v>
       </c>
       <c r="R24" s="127">
         <f t="shared" si="4"/>
-        <v>2.1701150499874422E-2</v>
+        <v>5.0241303888330702E-2</v>
       </c>
       <c r="S24" s="116">
-        <f>(N24/$N$55)-1</f>
-        <v>0.36687575454089361</v>
+        <f>(N24/$N$57)-1</f>
+        <v>0.35736334550403681</v>
       </c>
       <c r="T24" s="114">
-        <f>(A24-$A$55)</f>
-        <v>59</v>
+        <f>(A24-$A$57)</f>
+        <v>64</v>
       </c>
       <c r="U24" s="116">
-        <f>((N24/$N$55)-1)/T24*30</f>
-        <v>0.18654699383435269</v>
+        <f>((N24/$N$57)-1)/T24*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V24" s="116"/>
       <c r="W24" s="116"/>
       <c r="X24" s="134"/>
       <c r="Y24" s="134">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z24" s="134"/>
       <c r="AA24" s="134">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB24">
         <v>10</v>
       </c>
       <c r="AC24" s="115">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="117">
-        <v>45412</v>
+        <v>45425</v>
       </c>
       <c r="B25">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>31.771699999999999</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D25">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>34.014699999999998</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F25" s="112">
         <v>156</v>
       </c>
       <c r="G25">
-        <v>2341.2800000000002</v>
+        <v>2341.31</v>
       </c>
       <c r="H25" s="199">
         <v>7500</v>
       </c>
       <c r="I25" s="199">
-        <v>24.71</v>
+        <v>24.47</v>
       </c>
       <c r="J25">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K25">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L25">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M25">
-        <v>0.90242599999999995</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N25" s="113">
-        <f t="shared" si="17"/>
-        <v>769379.83326099999</v>
+        <f t="shared" ref="N25:N33" si="17">(F25*G25)+(B25*C25)+(D25*E25)+(L25*M25)+(H25*I25)+(J25*K25)</f>
+        <v>724161.16908100003</v>
       </c>
       <c r="O25">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P25">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q25" s="115">
-        <v>10045.74</v>
+        <v>10200</v>
       </c>
       <c r="R25" s="127">
         <f t="shared" si="4"/>
-        <v>1.2952754102733999E-2</v>
+        <v>-6.7235294117646838E-3</v>
       </c>
       <c r="S25" s="116">
-        <f t="shared" ref="S25" si="18">(N25/$N$55)-1</f>
-        <v>0.45044261016428133</v>
+        <f>(N25/$N$57)-1</f>
+        <v>0.36519592905049159</v>
       </c>
       <c r="T25" s="114">
-        <f t="shared" ref="T25" si="19">(A25-$A$55)</f>
-        <v>50</v>
+        <f>(A25-$A$57)</f>
+        <v>63</v>
       </c>
       <c r="U25" s="116">
-        <f>((N25/$N$55)-1)/T25*30</f>
-        <v>0.27026556609856883</v>
+        <f>((N25/$N$57)-1)/T25*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V25" s="116"/>
       <c r="W25" s="116"/>
       <c r="X25" s="134"/>
       <c r="Y25" s="134">
-        <v>37.39</v>
+        <v>35.86</v>
       </c>
       <c r="Z25" s="134"/>
       <c r="AA25" s="134">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB25">
         <v>10</v>
       </c>
       <c r="AC25" s="115">
-        <v>125.1</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="117">
-        <v>45411</v>
+        <v>45421</v>
       </c>
       <c r="B26">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.948</v>
+        <v>31.712</v>
       </c>
       <c r="D26">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>34.280099999999997</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F26" s="112">
         <v>156</v>
       </c>
       <c r="G26">
-        <v>2384.1799999999998</v>
+        <v>2333.16</v>
       </c>
       <c r="H26" s="199">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I26" s="199">
-        <v>24.91</v>
+        <v>24.39</v>
+      </c>
+      <c r="J26">
+        <v>30</v>
+      </c>
+      <c r="K26">
+        <v>622.84294799999998</v>
       </c>
       <c r="L26">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M26">
-        <v>0.89855499999999999</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N26" s="113">
         <f t="shared" si="17"/>
-        <v>655301.58439900004</v>
+        <v>725052.22388499998</v>
       </c>
       <c r="O26">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P26">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q26" s="115">
-        <v>9915.6200000000008</v>
+        <v>10268.58</v>
       </c>
       <c r="R26" s="127">
-        <f t="shared" ref="R18:R32" si="20">(1-(Q27/Q26))</f>
-        <v>2.5330740790792672E-2</v>
+        <f t="shared" si="4"/>
+        <v>2.1701150499874422E-2</v>
       </c>
       <c r="S26" s="116">
-        <f t="shared" ref="S26:S55" si="21">(N26/$N$55)-1</f>
-        <v>0.23538114651627517</v>
+        <f>(N26/$N$57)-1</f>
+        <v>0.36687575454089361</v>
       </c>
       <c r="T26" s="114">
-        <f t="shared" ref="T26:T55" si="22">(A26-$A$55)</f>
-        <v>49</v>
+        <f>(A26-$A$57)</f>
+        <v>59</v>
       </c>
       <c r="U26" s="116">
-        <f>((N26/$N$55)-1)/T26*30</f>
-        <v>0.14411090603037255</v>
+        <f>((N26/$N$57)-1)/T26*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V26" s="116"/>
       <c r="W26" s="116"/>
-      <c r="X26" s="112">
-        <v>35</v>
-      </c>
-      <c r="Y26" s="128">
-        <f>Y29</f>
-        <v>37.39</v>
-      </c>
-      <c r="Z26" s="112">
-        <v>40</v>
-      </c>
-      <c r="AA26" s="128">
-        <f>AA29</f>
+      <c r="X26" s="134"/>
+      <c r="Y26" s="134">
+        <v>37.4</v>
+      </c>
+      <c r="Z26" s="134"/>
+      <c r="AA26" s="134">
         <v>30.5</v>
       </c>
-      <c r="AB26"/>
+      <c r="AB26">
+        <v>10</v>
+      </c>
+      <c r="AC26" s="115">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="117">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="B27">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D27">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F27" s="112">
         <v>156</v>
       </c>
       <c r="G27">
-        <v>2384.1799999999998</v>
+        <v>2341.2800000000002</v>
       </c>
       <c r="H27" s="199">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="I27" s="199">
-        <v>25.11</v>
+        <v>24.71</v>
+      </c>
+      <c r="J27">
+        <v>96</v>
+      </c>
+      <c r="K27">
+        <v>622.84294799999998</v>
       </c>
       <c r="L27">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M27">
-        <v>0.89607400000000004</v>
+        <v>0.90242599999999995</v>
       </c>
       <c r="N27" s="113">
         <f t="shared" si="17"/>
+        <v>769379.83326099999</v>
+      </c>
+      <c r="O27">
+        <v>167.1</v>
+      </c>
+      <c r="P27">
+        <v>268201.53000000003</v>
+      </c>
+      <c r="Q27" s="115">
+        <v>10045.74</v>
+      </c>
+      <c r="R27" s="127">
+        <f t="shared" si="4"/>
+        <v>1.2952754102733999E-2</v>
+      </c>
+      <c r="S27" s="116">
+        <f t="shared" ref="S27" si="18">(N27/$N$57)-1</f>
+        <v>0.45044261016428133</v>
+      </c>
+      <c r="T27" s="114">
+        <f t="shared" ref="T27" si="19">(A27-$A$57)</f>
+        <v>50</v>
+      </c>
+      <c r="U27" s="116">
+        <f>((N27/$N$57)-1)/T27*30</f>
+        <v>0.27026556609856883</v>
+      </c>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="X27" s="134"/>
+      <c r="Y27" s="134">
+        <v>37.39</v>
+      </c>
+      <c r="Z27" s="134"/>
+      <c r="AA27" s="134">
+        <v>30.5</v>
+      </c>
+      <c r="AB27">
+        <v>10</v>
+      </c>
+      <c r="AC27" s="115">
+        <v>125.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" s="117">
+        <v>45411</v>
+      </c>
+      <c r="B28">
+        <f>B64</f>
+        <v>1110</v>
+      </c>
+      <c r="C28">
+        <v>31.948</v>
+      </c>
+      <c r="D28">
+        <f>D64</f>
+        <v>321.99</v>
+      </c>
+      <c r="E28">
+        <v>34.280099999999997</v>
+      </c>
+      <c r="F28" s="112">
+        <v>156</v>
+      </c>
+      <c r="G28">
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H28" s="199">
+        <v>5000</v>
+      </c>
+      <c r="I28" s="199">
+        <v>24.91</v>
+      </c>
+      <c r="L28">
+        <f>L64</f>
+        <v>125000</v>
+      </c>
+      <c r="M28">
+        <v>0.89855499999999999</v>
+      </c>
+      <c r="N28" s="113">
+        <f t="shared" si="17"/>
+        <v>655301.58439900004</v>
+      </c>
+      <c r="O28">
+        <v>167.61</v>
+      </c>
+      <c r="P28">
+        <v>269021.68</v>
+      </c>
+      <c r="Q28" s="115">
+        <v>9915.6200000000008</v>
+      </c>
+      <c r="R28" s="127">
+        <f t="shared" ref="R28:R34" si="20">(1-(Q29/Q28))</f>
+        <v>2.5330740790792672E-2</v>
+      </c>
+      <c r="S28" s="116">
+        <f t="shared" ref="S28:S57" si="21">(N28/$N$57)-1</f>
+        <v>0.23538114651627517</v>
+      </c>
+      <c r="T28" s="114">
+        <f t="shared" ref="T28:T57" si="22">(A28-$A$57)</f>
+        <v>49</v>
+      </c>
+      <c r="U28" s="116">
+        <f>((N28/$N$57)-1)/T28*30</f>
+        <v>0.14411090603037255</v>
+      </c>
+      <c r="V28" s="116"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="112">
+        <v>35</v>
+      </c>
+      <c r="Y28" s="128">
+        <f>Y31</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z28" s="112">
+        <v>40</v>
+      </c>
+      <c r="AA28" s="128">
+        <f>AA31</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB28"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="117">
+        <v>45408</v>
+      </c>
+      <c r="B29">
+        <f>B64</f>
+        <v>1110</v>
+      </c>
+      <c r="C29">
+        <v>31.948</v>
+      </c>
+      <c r="D29">
+        <f>D64</f>
+        <v>321.99</v>
+      </c>
+      <c r="E29">
+        <v>34.280099999999997</v>
+      </c>
+      <c r="F29" s="112">
+        <v>156</v>
+      </c>
+      <c r="G29">
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H29" s="199">
+        <v>2500</v>
+      </c>
+      <c r="I29" s="199">
+        <v>25.11</v>
+      </c>
+      <c r="L29">
+        <f>L64</f>
+        <v>125000</v>
+      </c>
+      <c r="M29">
+        <v>0.89607400000000004</v>
+      </c>
+      <c r="N29" s="113">
+        <f t="shared" si="17"/>
         <v>593216.45939900004</v>
       </c>
-      <c r="O27">
+      <c r="O29">
         <v>167.61</v>
       </c>
-      <c r="P27">
+      <c r="P29">
         <v>269021.68</v>
       </c>
-      <c r="Q27" s="115">
+      <c r="Q29" s="115">
         <v>9664.4500000000007</v>
       </c>
-      <c r="R27" s="127">
+      <c r="R29" s="127">
         <f t="shared" si="20"/>
         <v>-5.7478697701369708E-3</v>
       </c>
-      <c r="S27" s="116">
+      <c r="S29" s="116">
         <f t="shared" si="21"/>
         <v>0.11833764360082077</v>
       </c>
-      <c r="T27" s="114">
+      <c r="T29" s="114">
         <f t="shared" si="22"/>
         <v>46</v>
       </c>
-      <c r="U27" s="116">
-        <f>((N27/$N$55)-1)/T27*30</f>
+      <c r="U29" s="116">
+        <f>((N29/$N$57)-1)/T29*30</f>
         <v>7.7176724087491808E-2</v>
-      </c>
-      <c r="V27" s="116"/>
-      <c r="W27" s="116"/>
-      <c r="X27" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y27" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z27" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA27" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB27">
-        <v>10</v>
-      </c>
-      <c r="AC27" s="115">
-        <v>148.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
-      <c r="A28" s="117">
-        <v>45407</v>
-      </c>
-      <c r="B28">
-        <f>B62</f>
-        <v>1110</v>
-      </c>
-      <c r="C28">
-        <v>32.0291</v>
-      </c>
-      <c r="D28">
-        <f>D62</f>
-        <v>321.99</v>
-      </c>
-      <c r="E28">
-        <v>34.322299999999998</v>
-      </c>
-      <c r="F28" s="112">
-        <v>156</v>
-      </c>
-      <c r="G28">
-        <v>2368.4699999999998</v>
-      </c>
-      <c r="L28">
-        <f>L62</f>
-        <v>125000</v>
-      </c>
-      <c r="M28">
-        <v>0.90609700000000004</v>
-      </c>
-      <c r="N28" s="113">
-        <f t="shared" si="17"/>
-        <v>529347.18337699992</v>
-      </c>
-      <c r="O28">
-        <v>167.13</v>
-      </c>
-      <c r="P28">
-        <v>268083.81</v>
-      </c>
-      <c r="Q28" s="115">
-        <v>9720</v>
-      </c>
-      <c r="R28" s="127">
-        <f t="shared" si="20"/>
-        <v>-2.1502057613176362E-4</v>
-      </c>
-      <c r="S28" s="116">
-        <f t="shared" si="21"/>
-        <v>-2.0693587896702947E-3</v>
-      </c>
-      <c r="T28" s="114">
-        <f t="shared" si="22"/>
-        <v>45</v>
-      </c>
-      <c r="U28" s="116">
-        <f>((N28/$N$55)-1)/T28*30</f>
-        <v>-1.379572526446863E-3</v>
-      </c>
-      <c r="V28" s="116"/>
-      <c r="W28" s="116"/>
-      <c r="X28" s="112"/>
-      <c r="Y28" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z28" s="112"/>
-      <c r="AA28" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB28">
-        <v>10</v>
-      </c>
-      <c r="AC28" s="115">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
-      <c r="A29" s="117">
-        <v>45406</v>
-      </c>
-      <c r="B29">
-        <f>B62</f>
-        <v>1110</v>
-      </c>
-      <c r="C29">
-        <v>31.928699999999999</v>
-      </c>
-      <c r="D29">
-        <f>D62</f>
-        <v>321.99</v>
-      </c>
-      <c r="E29">
-        <v>33.972000000000001</v>
-      </c>
-      <c r="F29" s="112">
-        <v>156</v>
-      </c>
-      <c r="G29">
-        <v>2380.13</v>
-      </c>
-      <c r="L29">
-        <f>L62</f>
-        <v>125000</v>
-      </c>
-      <c r="M29">
-        <v>0.88805999999999996</v>
-      </c>
-      <c r="N29" s="113">
-        <f t="shared" si="17"/>
-        <v>528687.28128</v>
-      </c>
-      <c r="O29">
-        <v>166.96</v>
-      </c>
-      <c r="P29">
-        <v>267307.03000000003</v>
-      </c>
-      <c r="Q29" s="115">
-        <v>9722.09</v>
-      </c>
-      <c r="R29" s="127">
-        <f t="shared" si="20"/>
-        <v>7.927307811386175E-3</v>
-      </c>
-      <c r="S29" s="116">
-        <f t="shared" si="21"/>
-        <v>-3.3134128688740994E-3</v>
-      </c>
-      <c r="T29" s="114">
-        <f t="shared" si="22"/>
-        <v>44</v>
-      </c>
-      <c r="U29" s="116">
-        <f>((N29/$N$55)-1)/T29*30</f>
-        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V29" s="116"/>
       <c r="W29" s="116"/>
       <c r="X29" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y29" s="131">
-        <v>37.39</v>
+        <v>67</v>
+      </c>
+      <c r="Y29" s="129" t="s">
+        <v>68</v>
       </c>
       <c r="Z29" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA29" s="131">
-        <v>30.5</v>
+        <v>67</v>
+      </c>
+      <c r="AA29" s="129" t="s">
+        <v>68</v>
       </c>
       <c r="AB29">
         <v>10</v>
       </c>
       <c r="AC29" s="115">
-        <v>135</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="117">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B30">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>31.928699999999999</v>
+        <v>32.0291</v>
       </c>
       <c r="D30">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>33.972000000000001</v>
+        <v>34.322299999999998</v>
       </c>
       <c r="F30" s="112">
         <v>156</v>
       </c>
       <c r="G30">
-        <v>2380.13</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="L30">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M30">
-        <v>0.88805999999999996</v>
+        <v>0.90609700000000004</v>
       </c>
       <c r="N30" s="113">
         <f t="shared" si="17"/>
-        <v>528687.28128</v>
+        <v>529347.18337699992</v>
       </c>
       <c r="O30">
-        <v>166.96</v>
+        <v>167.13</v>
       </c>
       <c r="P30">
-        <v>267307.03000000003</v>
+        <v>268083.81</v>
       </c>
       <c r="Q30" s="115">
-        <v>9645.02</v>
+        <v>9720</v>
       </c>
       <c r="R30" s="127">
         <f t="shared" si="20"/>
-        <v>-5.0222809283961833E-3</v>
+        <v>-2.1502057613176362E-4</v>
       </c>
       <c r="S30" s="116">
         <f t="shared" si="21"/>
-        <v>-3.3134128688740994E-3</v>
+        <v>-2.0693587896702947E-3</v>
       </c>
       <c r="T30" s="114">
         <f t="shared" si="22"/>
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="U30" s="116">
-        <f>((N30/$N$55)-1)/T30*30</f>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N30/$N$57)-1)/T30*30</f>
+        <v>-1.379572526446863E-3</v>
       </c>
       <c r="V30" s="116"/>
       <c r="W30" s="116"/>
       <c r="X30" s="112"/>
-      <c r="Y30" s="116" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
+      <c r="Y30" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="Z30" s="112"/>
-      <c r="AA30" s="116" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB30" s="112">
+      <c r="AA30" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB30">
         <v>10</v>
       </c>
-      <c r="AC30" s="128">
+      <c r="AC30" s="115">
         <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="117">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B31">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>31.803999999999998</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D31">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>33.928400000000003</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F31" s="112">
         <v>156</v>
       </c>
       <c r="G31">
-        <v>2427.62</v>
+        <v>2380.13</v>
       </c>
       <c r="L31">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.87351800000000002</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N31" s="113">
         <f t="shared" si="17"/>
-        <v>534125.51551599998</v>
+        <v>528687.28128</v>
       </c>
       <c r="O31">
-        <v>170.57</v>
+        <v>166.96</v>
       </c>
       <c r="P31">
-        <v>272736.27</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q31" s="115">
-        <v>9693.4599999999991</v>
+        <v>9722.09</v>
       </c>
       <c r="R31" s="127">
         <f t="shared" si="20"/>
-        <v>1.4091975414350921E-3</v>
+        <v>7.927307811386175E-3</v>
       </c>
       <c r="S31" s="116">
         <f t="shared" si="21"/>
-        <v>6.9388010818296486E-3</v>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T31" s="114">
         <f t="shared" si="22"/>
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="U31" s="116">
-        <f>((N31/$N$55)-1)/T31*30</f>
-        <v>5.3375392937151144E-3</v>
+        <f>((N31/$N$57)-1)/T31*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V31" s="116"/>
       <c r="W31" s="116"/>
       <c r="X31" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y31" s="115">
-        <f>Y29*X26</f>
-        <v>1308.6500000000001</v>
+        <v>70</v>
+      </c>
+      <c r="Y31" s="131">
+        <v>37.39</v>
       </c>
       <c r="Z31" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA31" s="115">
-        <f>AA29*Z26</f>
-        <v>1220</v>
-      </c>
-      <c r="AB31" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC31" s="129" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="AA31" s="131">
+        <v>30.5</v>
+      </c>
+      <c r="AB31">
+        <v>10</v>
+      </c>
+      <c r="AC31" s="115">
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="117">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="B32">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C32">
-        <v>31.863399999999999</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D32">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E32">
-        <v>33.963099999999997</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F32" s="112">
         <v>156</v>
       </c>
       <c r="G32">
-        <v>2387.5100000000002</v>
+        <v>2380.13</v>
       </c>
       <c r="L32">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M32">
-        <v>0.89791399999999999</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N32" s="113">
-        <f t="shared" ref="N32:N67" si="23">(F32*G32)+(B32*C32)+(D32*E32)+(L32*M32)+(H32*I32)</f>
-        <v>530994.96256900008</v>
+        <f t="shared" si="17"/>
+        <v>528687.28128</v>
       </c>
       <c r="O32">
-        <v>169.14</v>
+        <v>166.96</v>
       </c>
       <c r="P32">
-        <v>269604.92</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q32" s="115">
-        <v>9679.7999999999993</v>
+        <v>9645.02</v>
       </c>
       <c r="R32" s="127">
         <f t="shared" si="20"/>
-        <v>-1.3880452075456073E-2</v>
+        <v>-5.0222809283961833E-3</v>
       </c>
       <c r="S32" s="116">
         <f t="shared" si="21"/>
-        <v>1.0370511380362046E-3</v>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T32" s="114">
         <f t="shared" si="22"/>
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="U32" s="116">
-        <f>((N32/$N$55)-1)/T32*30</f>
-        <v>8.8890097545960402E-4</v>
+        <f>((N32/$N$57)-1)/T32*30</f>
+        <v>-2.3667234777672141E-3</v>
       </c>
       <c r="V32" s="116"/>
       <c r="W32" s="116"/>
-      <c r="X32" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y32" s="132">
-        <f>(X26*Y5)-(X26*Y29)</f>
-        <v>-381.85</v>
-      </c>
-      <c r="Z32" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA32" s="132">
-        <f>(Z26*AA5)-(Z26*AA29)</f>
-        <v>-326.39999999999998</v>
-      </c>
-      <c r="AC32" s="130" t="s">
-        <v>69</v>
+      <c r="X32" s="112"/>
+      <c r="Y32" s="116" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z32" s="112"/>
+      <c r="AA32" s="116" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB32" s="112">
+        <v>10</v>
+      </c>
+      <c r="AC32" s="128">
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="117">
-        <v>45391</v>
+        <v>45401</v>
       </c>
       <c r="B33">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C33">
-        <v>31.412299999999998</v>
+        <v>31.803999999999998</v>
       </c>
       <c r="D33">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E33">
-        <v>34.091799999999999</v>
+        <v>33.928400000000003</v>
       </c>
       <c r="F33" s="112">
         <v>156</v>
       </c>
       <c r="G33">
+        <v>2427.62</v>
+      </c>
+      <c r="L33">
+        <f>L64</f>
+        <v>125000</v>
+      </c>
+      <c r="M33">
+        <v>0.87351800000000002</v>
+      </c>
+      <c r="N33" s="113">
+        <f t="shared" si="17"/>
+        <v>534125.51551599998</v>
+      </c>
+      <c r="O33">
+        <v>170.57</v>
+      </c>
+      <c r="P33">
+        <v>272736.27</v>
+      </c>
+      <c r="Q33" s="115">
+        <v>9693.4599999999991</v>
+      </c>
+      <c r="R33" s="127">
+        <f t="shared" si="20"/>
+        <v>1.4091975414350921E-3</v>
+      </c>
+      <c r="S33" s="116">
+        <f t="shared" si="21"/>
+        <v>6.9388010818296486E-3</v>
+      </c>
+      <c r="T33" s="114">
+        <f t="shared" si="22"/>
+        <v>39</v>
+      </c>
+      <c r="U33" s="116">
+        <f>((N33/$N$57)-1)/T33*30</f>
+        <v>5.3375392937151144E-3</v>
+      </c>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y33" s="115">
+        <f>Y31*X28</f>
+        <v>1308.6500000000001</v>
+      </c>
+      <c r="Z33" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA33" s="115">
+        <f>AA31*Z28</f>
+        <v>1220</v>
+      </c>
+      <c r="AB33" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC33" s="129" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29">
+      <c r="A34" s="117">
+        <v>45397</v>
+      </c>
+      <c r="B34">
+        <f>B64</f>
+        <v>1110</v>
+      </c>
+      <c r="C34">
+        <v>31.863399999999999</v>
+      </c>
+      <c r="D34">
+        <f>D64</f>
+        <v>321.99</v>
+      </c>
+      <c r="E34">
+        <v>33.963099999999997</v>
+      </c>
+      <c r="F34" s="112">
+        <v>156</v>
+      </c>
+      <c r="G34">
+        <v>2387.5100000000002</v>
+      </c>
+      <c r="L34">
+        <f>L64</f>
+        <v>125000</v>
+      </c>
+      <c r="M34">
+        <v>0.89791399999999999</v>
+      </c>
+      <c r="N34" s="113">
+        <f t="shared" ref="N34:N69" si="23">(F34*G34)+(B34*C34)+(D34*E34)+(L34*M34)+(H34*I34)</f>
+        <v>530994.96256900008</v>
+      </c>
+      <c r="O34">
+        <v>169.14</v>
+      </c>
+      <c r="P34">
+        <v>269604.92</v>
+      </c>
+      <c r="Q34" s="115">
+        <v>9679.7999999999993</v>
+      </c>
+      <c r="R34" s="127">
+        <f t="shared" si="20"/>
+        <v>-1.3880452075456073E-2</v>
+      </c>
+      <c r="S34" s="116">
+        <f t="shared" si="21"/>
+        <v>1.0370511380362046E-3</v>
+      </c>
+      <c r="T34" s="114">
+        <f t="shared" si="22"/>
+        <v>35</v>
+      </c>
+      <c r="U34" s="116">
+        <f>((N34/$N$57)-1)/T34*30</f>
+        <v>8.8890097545960402E-4</v>
+      </c>
+      <c r="V34" s="116"/>
+      <c r="W34" s="116"/>
+      <c r="X34" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y34" s="132">
+        <f>(X28*Y5)-(X28*Y31)</f>
+        <v>-330.05000000000007</v>
+      </c>
+      <c r="Z34" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA34" s="132">
+        <f>(Z28*AA5)-(Z28*AA31)</f>
+        <v>-276</v>
+      </c>
+      <c r="AC34" s="130" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29">
+      <c r="A35" s="117">
+        <v>45391</v>
+      </c>
+      <c r="B35">
+        <f>B64</f>
+        <v>1110</v>
+      </c>
+      <c r="C35">
+        <v>31.412299999999998</v>
+      </c>
+      <c r="D35">
+        <f>D64</f>
+        <v>321.99</v>
+      </c>
+      <c r="E35">
+        <v>34.091799999999999</v>
+      </c>
+      <c r="F35" s="112">
+        <v>156</v>
+      </c>
+      <c r="G35">
         <v>2352.21</v>
       </c>
-      <c r="L33">
-        <f>L62</f>
+      <c r="L35">
+        <f>L64</f>
         <v>125000</v>
       </c>
-      <c r="M33">
+      <c r="M35">
         <v>0.89529800000000004</v>
       </c>
-      <c r="N33" s="113">
+      <c r="N35" s="113">
         <f t="shared" si="23"/>
         <v>524701.88168200001</v>
       </c>
-      <c r="O33">
+      <c r="O35">
         <v>165.81</v>
       </c>
-      <c r="P33">
+      <c r="P35">
         <v>263308.84999999998</v>
       </c>
-      <c r="Q33" s="115">
+      <c r="Q35" s="115">
         <v>9814.16</v>
       </c>
-      <c r="R33" s="127">
-        <f t="shared" ref="R33:R34" si="24">(1-(Q34/Q33))</f>
+      <c r="R35" s="127">
+        <f t="shared" ref="R35:R36" si="24">(1-(Q36/Q35))</f>
         <v>5.8558246452063978E-3</v>
       </c>
-      <c r="S33" s="116">
+      <c r="S35" s="116">
         <f t="shared" si="21"/>
         <v>-1.0826728328378388E-2</v>
       </c>
-      <c r="T33" s="114">
+      <c r="T35" s="114">
         <f t="shared" si="22"/>
         <v>29</v>
       </c>
-      <c r="U33" s="116">
-        <f>((N33/$N$55)-1)/T33*30</f>
+      <c r="U35" s="116">
+        <f>((N35/$N$57)-1)/T35*30</f>
         <v>-1.1200063787977641E-2</v>
-      </c>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="116"/>
-      <c r="AB33" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC33" s="131">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29">
-      <c r="A34" s="117">
-        <v>45390</v>
-      </c>
-      <c r="B34">
-        <f>B62</f>
-        <v>1110</v>
-      </c>
-      <c r="C34">
-        <v>31.5198</v>
-      </c>
-      <c r="D34">
-        <f>D62</f>
-        <v>321.99</v>
-      </c>
-      <c r="E34">
-        <v>34.154899999999998</v>
-      </c>
-      <c r="F34" s="112">
-        <v>156</v>
-      </c>
-      <c r="G34">
-        <v>2344.37</v>
-      </c>
-      <c r="L34">
-        <f>L62</f>
-        <v>125000</v>
-      </c>
-      <c r="M34">
-        <v>0.818581</v>
-      </c>
-      <c r="N34" s="113">
-        <f t="shared" si="23"/>
-        <v>514028.85925099999</v>
-      </c>
-      <c r="O34">
-        <v>159.19</v>
-      </c>
-      <c r="P34">
-        <v>252634.37</v>
-      </c>
-      <c r="Q34" s="115">
-        <v>9756.69</v>
-      </c>
-      <c r="R34" s="127">
-        <f t="shared" si="24"/>
-        <v>1.4129791968382821E-2</v>
-      </c>
-      <c r="S34" s="116">
-        <f t="shared" si="21"/>
-        <v>-3.0947617704367603E-2</v>
-      </c>
-      <c r="T34" s="114">
-        <f t="shared" si="22"/>
-        <v>28</v>
-      </c>
-      <c r="U34" s="116">
-        <f>((N34/$N$55)-1)/T34*30</f>
-        <v>-3.3158161826108146E-2</v>
-      </c>
-      <c r="V34" s="116"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="116"/>
-      <c r="Y34" s="116"/>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="116"/>
-      <c r="AC34" s="116">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29">
-      <c r="A35" s="117">
-        <v>45387</v>
-      </c>
-      <c r="B35">
-        <f>B62</f>
-        <v>1110</v>
-      </c>
-      <c r="C35">
-        <v>31.407</v>
-      </c>
-      <c r="D35">
-        <f>D62</f>
-        <v>321.99</v>
-      </c>
-      <c r="E35">
-        <v>34.038899999999998</v>
-      </c>
-      <c r="F35" s="112">
-        <v>156</v>
-      </c>
-      <c r="G35">
-        <v>2289.27</v>
-      </c>
-      <c r="L35">
-        <f>L62</f>
-        <v>125000</v>
-      </c>
-      <c r="M35">
-        <v>0.82424600000000003</v>
-      </c>
-      <c r="N35" s="113">
-        <f t="shared" si="23"/>
-        <v>505978.825411</v>
-      </c>
-      <c r="O35">
-        <v>154.41</v>
-      </c>
-      <c r="P35">
-        <v>244587.02</v>
-      </c>
-      <c r="Q35" s="115">
-        <v>9618.83</v>
-      </c>
-      <c r="R35" s="127">
-        <f t="shared" ref="R35:R66" si="25">(1-(Q36/Q35))</f>
-        <v>5.0921993631241946E-2</v>
-      </c>
-      <c r="S35" s="116">
-        <f t="shared" si="21"/>
-        <v>-4.6123622572225242E-2</v>
-      </c>
-      <c r="T35" s="114">
-        <f t="shared" si="22"/>
-        <v>25</v>
-      </c>
-      <c r="U35" s="116">
-        <f>((N35/$N$55)-1)/T35*30</f>
-        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V35" s="116"/>
       <c r="W35" s="116"/>
@@ -8343,72 +8377,71 @@
       <c r="Z35" s="116"/>
       <c r="AA35" s="116"/>
       <c r="AB35" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC35" s="115">
-        <f>AC33*AB30</f>
-        <v>1350</v>
+        <v>70</v>
+      </c>
+      <c r="AC35" s="131">
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="117">
-        <v>45386</v>
+        <v>45390</v>
       </c>
       <c r="B36">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C36">
-        <v>31.399799999999999</v>
+        <v>31.5198</v>
       </c>
       <c r="D36">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E36">
-        <v>34.053100000000001</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F36" s="112">
         <v>156</v>
       </c>
       <c r="G36">
-        <v>2292.5700000000002</v>
+        <v>2344.37</v>
       </c>
       <c r="L36">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M36">
-        <v>0.82913899999999996</v>
+        <v>0.818581</v>
       </c>
       <c r="N36" s="113">
         <f t="shared" si="23"/>
-        <v>507101.83066900005</v>
+        <v>514028.85925099999</v>
       </c>
       <c r="O36">
-        <v>155.22</v>
+        <v>159.19</v>
       </c>
       <c r="P36">
-        <v>245709.7</v>
+        <v>252634.37</v>
       </c>
       <c r="Q36" s="115">
-        <v>9129.02</v>
+        <v>9756.69</v>
       </c>
       <c r="R36" s="127">
-        <f t="shared" si="25"/>
-        <v>2.0070062284889389E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.4129791968382821E-2</v>
       </c>
       <c r="S36" s="116">
         <f t="shared" si="21"/>
-        <v>-4.4006521749946126E-2</v>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T36" s="114">
         <f t="shared" si="22"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="U36" s="116">
-        <f>((N36/$N$55)-1)/T36*30</f>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N36/$N$57)-1)/T36*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V36" s="116"/>
       <c r="W36" s="116"/>
@@ -8416,73 +8449,70 @@
       <c r="Y36" s="116"/>
       <c r="Z36" s="116"/>
       <c r="AA36" s="116"/>
-      <c r="AB36" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC36" s="132">
-        <f>(AB10*AC5)-(AB10*AC33)</f>
-        <v>-160</v>
+      <c r="AC36" s="116">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="117">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B37">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C37">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D37">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E37">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F37" s="112">
         <v>156</v>
       </c>
       <c r="G37">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L37">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M37">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N37" s="113">
         <f t="shared" si="23"/>
-        <v>507101.83066900005</v>
+        <v>505978.825411</v>
       </c>
       <c r="O37">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="P37">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="Q37" s="115">
-        <v>8945.7999999999993</v>
+        <v>9618.83</v>
       </c>
       <c r="R37" s="127">
-        <f t="shared" si="25"/>
-        <v>-1.0627333497283731E-2</v>
+        <f t="shared" ref="R37:R68" si="25">(1-(Q38/Q37))</f>
+        <v>5.0921993631241946E-2</v>
       </c>
       <c r="S37" s="116">
         <f t="shared" si="21"/>
-        <v>-4.4006521749946126E-2</v>
+        <v>-4.6123622572225242E-2</v>
       </c>
       <c r="T37" s="114">
         <f t="shared" si="22"/>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="U37" s="116">
-        <f>((N37/$N$55)-1)/T37*30</f>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N37/$N$57)-1)/T37*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V37" s="116"/>
       <c r="W37" s="116"/>
@@ -8490,68 +8520,73 @@
       <c r="Y37" s="116"/>
       <c r="Z37" s="116"/>
       <c r="AA37" s="116"/>
-      <c r="AB37" s="133"/>
-      <c r="AC37" s="134"/>
+      <c r="AB37" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC37" s="115">
+        <f>AC35*AB32</f>
+        <v>1350</v>
+      </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="117">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B38">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C38">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D38">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E38">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F38" s="112">
         <v>156</v>
       </c>
       <c r="G38">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L38">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M38">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N38" s="113">
         <f t="shared" si="23"/>
-        <v>509777.60801200004</v>
+        <v>507101.83066900005</v>
       </c>
       <c r="O38">
-        <v>157.11000000000001</v>
+        <v>155.22</v>
       </c>
       <c r="P38">
-        <v>248387.66</v>
+        <v>245709.7</v>
       </c>
       <c r="Q38" s="115">
-        <v>9040.8700000000008</v>
+        <v>9129.02</v>
       </c>
       <c r="R38" s="127">
         <f t="shared" si="25"/>
-        <v>-1.2904731513670775E-2</v>
+        <v>2.0070062284889389E-2</v>
       </c>
       <c r="S38" s="116">
         <f t="shared" si="21"/>
-        <v>-3.8962119354903346E-2</v>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T38" s="114">
         <f t="shared" si="22"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U38" s="116">
-        <f>((N38/$N$55)-1)/T38*30</f>
-        <v>-5.3130162756686382E-2</v>
+        <f>((N38/$N$57)-1)/T38*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V38" s="116"/>
       <c r="W38" s="116"/>
@@ -8559,68 +8594,73 @@
       <c r="Y38" s="116"/>
       <c r="Z38" s="116"/>
       <c r="AA38" s="116"/>
-      <c r="AB38" s="133"/>
-      <c r="AC38" s="134"/>
+      <c r="AB38" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC38" s="132">
+        <f>(AB10*AC5)-(AB10*AC35)</f>
+        <v>-49</v>
+      </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="117">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B39">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C39">
-        <v>31.879300000000001</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D39">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E39">
-        <v>34.391399999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F39" s="112">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G39">
-        <v>2308.4299999999998</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L39">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M39">
-        <v>0.88097599999999998</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N39" s="113">
         <f t="shared" si="23"/>
-        <v>528238.93988600001</v>
+        <v>507101.83066900005</v>
       </c>
       <c r="O39">
-        <v>161.66</v>
+        <v>155.22</v>
       </c>
       <c r="P39">
-        <v>255424.81</v>
+        <v>245709.7</v>
       </c>
       <c r="Q39" s="115">
-        <v>9157.5400000000009</v>
+        <v>8945.7999999999993</v>
       </c>
       <c r="R39" s="127">
         <f t="shared" si="25"/>
-        <v>1.6532824317448958E-3</v>
+        <v>-1.0627333497283731E-2</v>
       </c>
       <c r="S39" s="116">
         <f t="shared" si="21"/>
-        <v>-4.1586305801334378E-3</v>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T39" s="114">
         <f t="shared" si="22"/>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="U39" s="116">
-        <f>((N39/$N$55)-1)/T39*30</f>
-        <v>-5.9409008287620545E-3</v>
+        <f>((N39/$N$57)-1)/T39*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V39" s="116"/>
       <c r="W39" s="116"/>
@@ -8633,63 +8673,63 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="117">
-        <v>45381</v>
+        <v>45384</v>
       </c>
       <c r="B40">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D40">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F40" s="112">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G40">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L40">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N40" s="113">
         <f t="shared" si="23"/>
-        <v>528238.93988600001</v>
+        <v>509777.60801200004</v>
       </c>
       <c r="O40">
-        <v>161.66</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="P40">
-        <v>255424.81</v>
+        <v>248387.66</v>
       </c>
       <c r="Q40" s="115">
-        <v>9142.4</v>
+        <v>9040.8700000000008</v>
       </c>
       <c r="R40" s="127">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>-1.2904731513670775E-2</v>
       </c>
       <c r="S40" s="116">
         <f t="shared" si="21"/>
-        <v>-4.1586305801334378E-3</v>
+        <v>-3.8962119354903346E-2</v>
       </c>
       <c r="T40" s="114">
         <f t="shared" si="22"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="U40" s="116">
-        <f>((N40/$N$55)-1)/T40*30</f>
-        <v>-6.5662588107370072E-3</v>
+        <f>((N40/$N$57)-1)/T40*30</f>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V40" s="116"/>
       <c r="W40" s="116"/>
@@ -8702,63 +8742,63 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="117">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B41">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D41">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F41" s="112">
         <v>161</v>
       </c>
       <c r="G41">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L41">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N41" s="113">
         <f t="shared" si="23"/>
-        <v>518957.34710100002</v>
+        <v>528238.93988600001</v>
       </c>
       <c r="O41">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="P41">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="Q41" s="115">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="R41" s="127">
         <f t="shared" si="25"/>
-        <v>6.8286226811340445E-3</v>
+        <v>1.6532824317448958E-3</v>
       </c>
       <c r="S41" s="116">
         <f t="shared" si="21"/>
-        <v>-2.165638277425741E-2</v>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T41" s="114">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="U41" s="116">
-        <f>((N41/$N$55)-1)/T41*30</f>
-        <v>-3.6093971290429017E-2</v>
+        <f>((N41/$N$57)-1)/T41*30</f>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V41" s="116"/>
       <c r="W41" s="116"/>
@@ -8771,63 +8811,63 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="117">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B42">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C42">
-        <v>31.870699999999999</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D42">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E42">
-        <v>34.480800000000002</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F42" s="112">
         <v>161</v>
       </c>
       <c r="G42">
-        <v>2240.09</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L42">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M42">
-        <v>0.86473199999999995</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N42" s="113">
         <f t="shared" si="23"/>
-        <v>515224.93979200005</v>
+        <v>528238.93988600001</v>
       </c>
       <c r="O42">
-        <v>153.81</v>
+        <v>161.66</v>
       </c>
       <c r="P42">
-        <v>242408.74</v>
+        <v>255424.81</v>
       </c>
       <c r="Q42" s="115">
-        <v>9079.9699999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R42" s="127">
         <f t="shared" si="25"/>
-        <v>3.0093711763364839E-2</v>
+        <v>0</v>
       </c>
       <c r="S42" s="116">
         <f t="shared" si="21"/>
-        <v>-2.8692754622628547E-2</v>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T42" s="114">
         <f t="shared" si="22"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U42" s="116">
-        <f>((N42/$N$55)-1)/T42*30</f>
-        <v>-5.0634272863462143E-2</v>
+        <f>((N42/$N$57)-1)/T42*30</f>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V42" s="116"/>
       <c r="W42" s="116"/>
@@ -8840,63 +8880,63 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="117">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B43">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>31.821999999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D43">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>34.5045</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F43" s="112">
         <v>161</v>
       </c>
       <c r="G43">
-        <v>2227.25</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L43">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.85899999999999999</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N43" s="113">
         <f t="shared" si="23"/>
-        <v>512394.77395499998</v>
+        <v>518957.34710100002</v>
       </c>
       <c r="O43">
-        <v>154.24</v>
+        <v>156.08000000000001</v>
       </c>
       <c r="P43">
-        <v>242616.68</v>
+        <v>246143.72</v>
       </c>
       <c r="Q43" s="115">
-        <v>8806.7199999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R43" s="127">
         <f t="shared" si="25"/>
-        <v>-7.4942770974972817E-5</v>
+        <v>6.8286226811340445E-3</v>
       </c>
       <c r="S43" s="116">
         <f t="shared" si="21"/>
-        <v>-3.4028211761422011E-2</v>
+        <v>-2.165638277425741E-2</v>
       </c>
       <c r="T43" s="114">
         <f t="shared" si="22"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U43" s="116">
-        <f>((N43/$N$55)-1)/T43*30</f>
-        <v>-6.3802897052666271E-2</v>
+        <f>((N43/$N$57)-1)/T43*30</f>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V43" s="116"/>
       <c r="W43" s="116"/>
@@ -8909,63 +8949,63 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="117">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B44">
-        <f>B63</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C44">
-        <v>31.530999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D44">
-        <f>D63</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E44">
-        <v>34.125900000000001</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F44" s="112">
         <v>161</v>
       </c>
       <c r="G44">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L44">
-        <f>L63</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M44">
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N44" s="113">
         <f t="shared" si="23"/>
-        <v>515864.35854099999</v>
+        <v>515224.93979200005</v>
       </c>
       <c r="O44">
-        <v>154.24</v>
+        <v>153.81</v>
       </c>
       <c r="P44">
-        <v>242616.68</v>
+        <v>242408.74</v>
       </c>
       <c r="Q44" s="115">
-        <v>8807.3799999999992</v>
+        <v>9079.9699999999993</v>
       </c>
       <c r="R44" s="127">
         <f t="shared" si="25"/>
-        <v>-2.5206133946758191E-2</v>
+        <v>3.0093711763364839E-2</v>
       </c>
       <c r="S44" s="116">
         <f t="shared" si="21"/>
-        <v>-2.7487315957364089E-2</v>
+        <v>-2.8692754622628547E-2</v>
       </c>
       <c r="T44" s="114">
         <f t="shared" si="22"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U44" s="116">
-        <f>((N44/$N$55)-1)/T44*30</f>
-        <v>-5.4974631914728178E-2</v>
+        <f>((N44/$N$57)-1)/T44*30</f>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V44" s="116"/>
       <c r="W44" s="116"/>
@@ -8978,63 +9018,63 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="117">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B45">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>31.786200000000001</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D45">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>34.386299999999999</v>
+        <v>34.5045</v>
       </c>
       <c r="F45" s="112">
         <v>161</v>
       </c>
       <c r="G45">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L45">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>0.91889100000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N45" s="113">
         <f t="shared" si="23"/>
-        <v>517720.01173699996</v>
+        <v>512394.77395499998</v>
       </c>
       <c r="O45">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="P45">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="Q45" s="115">
-        <v>9029.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="R45" s="127">
         <f t="shared" si="25"/>
-        <v>-9.0947551216142841E-3</v>
+        <v>-7.4942770974972817E-5</v>
       </c>
       <c r="S45" s="116">
         <f t="shared" si="21"/>
-        <v>-2.3989019863797534E-2</v>
+        <v>-3.4028211761422011E-2</v>
       </c>
       <c r="T45" s="114">
         <f t="shared" si="22"/>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U45" s="116">
-        <f>((N45/$N$55)-1)/T45*30</f>
-        <v>-5.1405042565280425E-2</v>
+        <f>((N45/$N$57)-1)/T45*30</f>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V45" s="116"/>
       <c r="W45" s="116"/>
@@ -9047,63 +9087,63 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="117">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B46">
-        <f>B62</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>31.710699999999999</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D46">
-        <f>D62</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>34.336300000000001</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F46" s="112">
         <v>161</v>
       </c>
       <c r="G46">
-        <v>2212.11</v>
+        <v>2227.25</v>
       </c>
       <c r="L46">
-        <f>L62</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>0.93062100000000003</v>
+        <v>0.890316</v>
       </c>
       <c r="N46" s="113">
         <f t="shared" si="23"/>
-        <v>518732.15723700001</v>
+        <v>515864.35854099999</v>
       </c>
       <c r="O46">
-        <v>156.63999999999999</v>
+        <v>154.24</v>
       </c>
       <c r="P46">
-        <v>245919.31</v>
-      </c>
-      <c r="Q46">
-        <v>9111.5</v>
+        <v>242616.68</v>
+      </c>
+      <c r="Q46" s="115">
+        <v>8807.3799999999992</v>
       </c>
       <c r="R46" s="127">
         <f t="shared" si="25"/>
-        <v>-3.2047412610438641E-3</v>
+        <v>-2.5206133946758191E-2</v>
       </c>
       <c r="S46" s="116">
         <f t="shared" si="21"/>
-        <v>-2.2080912973779676E-2</v>
+        <v>-2.7487315957364089E-2</v>
       </c>
       <c r="T46" s="114">
         <f t="shared" si="22"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="U46" s="116">
-        <f>((N46/$N$55)-1)/T46*30</f>
-        <v>-6.0220671746671839E-2</v>
+        <f>((N46/$N$57)-1)/T46*30</f>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V46" s="116"/>
       <c r="W46" s="116"/>
@@ -9116,63 +9156,63 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="117">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B47">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C47">
-        <v>32.063899999999997</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D47">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E47">
-        <v>35.065100000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F47" s="112">
         <v>161</v>
       </c>
       <c r="G47">
-        <v>2267.61</v>
+        <v>2214.31</v>
       </c>
       <c r="L47">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M47">
-        <v>0.94166499999999997</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N47" s="113">
         <f t="shared" si="23"/>
-        <v>529674.87554899999</v>
+        <v>517720.01173699996</v>
       </c>
       <c r="O47">
-        <v>163.91</v>
+        <v>155.99</v>
       </c>
       <c r="P47">
-        <v>256845.12</v>
+        <v>244906</v>
       </c>
       <c r="Q47" s="115">
-        <v>9140.7000000000007</v>
+        <v>9029.3799999999992</v>
       </c>
       <c r="R47" s="127">
         <f t="shared" si="25"/>
-        <v>2.0302602645311585E-2</v>
+        <v>-9.0947551216142841E-3</v>
       </c>
       <c r="S47" s="116">
         <f t="shared" si="21"/>
-        <v>-1.4515902067954167E-3</v>
+        <v>-2.3989019863797534E-2</v>
       </c>
       <c r="T47" s="114">
         <f t="shared" si="22"/>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="U47" s="116">
-        <f>((N47/$N$55)-1)/T47*30</f>
-        <v>-4.3547706203862502E-3</v>
+        <f>((N47/$N$57)-1)/T47*30</f>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V47" s="116"/>
       <c r="W47" s="116"/>
@@ -9185,63 +9225,63 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="117">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B48">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>32.028799999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D48">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>34.808799999999998</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F48" s="112">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2220.92</v>
+        <v>2212.11</v>
       </c>
       <c r="L48">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>0.93470600000000004</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N48" s="113">
         <f t="shared" si="23"/>
-        <v>521166.42351200001</v>
+        <v>518732.15723700001</v>
       </c>
       <c r="O48">
-        <v>158.47999999999999</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="P48">
-        <v>248342.62</v>
-      </c>
-      <c r="Q48" s="115">
-        <v>8955.1200000000008</v>
+        <v>245919.31</v>
+      </c>
+      <c r="Q48">
+        <v>9111.5</v>
       </c>
       <c r="R48" s="127">
         <f t="shared" si="25"/>
-        <v>2.8184993612594411E-3</v>
+        <v>-3.2047412610438641E-3</v>
       </c>
       <c r="S48" s="116">
         <f t="shared" si="21"/>
-        <v>-1.7491809676412506E-2</v>
+        <v>-2.2080912973779676E-2</v>
       </c>
       <c r="T48" s="114">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U48" s="116">
-        <f>((N48/$N$55)-1)/T48*30</f>
-        <v>-5.8306032254708352E-2</v>
+        <f>((N48/$N$57)-1)/T48*30</f>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V48" s="116"/>
       <c r="W48" s="116"/>
@@ -9254,63 +9294,63 @@
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="117">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B49">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C49">
-        <v>32.087800000000001</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D49">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E49">
-        <v>34.799100000000003</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F49" s="112">
         <v>161</v>
       </c>
       <c r="G49">
-        <v>2219.02</v>
+        <v>2267.61</v>
       </c>
       <c r="L49">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>0.90033600000000003</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N49" s="113">
         <f t="shared" si="23"/>
-        <v>516626.64020899998</v>
+        <v>529674.87554899999</v>
       </c>
       <c r="O49">
-        <v>155.59</v>
+        <v>163.91</v>
       </c>
       <c r="P49">
-        <v>243803.06</v>
+        <v>256845.12</v>
       </c>
       <c r="Q49" s="115">
-        <v>8929.8799999999992</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="R49" s="127">
         <f t="shared" si="25"/>
-        <v>2.3714764364134666E-2</v>
+        <v>2.0302602645311585E-2</v>
       </c>
       <c r="S49" s="116">
         <f t="shared" si="21"/>
-        <v>-2.6050254879836254E-2</v>
+        <v>-1.4515902067954167E-3</v>
       </c>
       <c r="T49" s="114">
         <f t="shared" si="22"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U49" s="116">
-        <f>((N49/$N$55)-1)/T49*30</f>
-        <v>-9.7688455799385954E-2</v>
+        <f>((N49/$N$57)-1)/T49*30</f>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V49" s="116"/>
       <c r="W49" s="116"/>
@@ -9320,72 +9360,66 @@
       <c r="AA49" s="116"/>
       <c r="AB49" s="133"/>
       <c r="AC49" s="134"/>
-      <c r="AL49">
-        <v>68</v>
-      </c>
-      <c r="AM49">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="117">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B50">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C50">
-        <v>31.9499</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D50">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E50">
-        <v>34.8125</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F50" s="112">
         <v>161</v>
       </c>
       <c r="G50">
-        <v>2212.35</v>
+        <v>2220.92</v>
       </c>
       <c r="L50">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M50">
-        <v>0.93887900000000002</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N50" s="113">
         <f t="shared" si="23"/>
-        <v>520221.89087499998</v>
+        <v>521166.42351200001</v>
       </c>
       <c r="O50">
-        <v>155.44</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="P50">
-        <v>247623.17</v>
+        <v>248342.62</v>
       </c>
       <c r="Q50" s="115">
-        <v>8718.11</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="R50" s="127">
         <f t="shared" si="25"/>
-        <v>-1.2685088855267868E-2</v>
+        <v>2.8184993612594411E-3</v>
       </c>
       <c r="S50" s="116">
         <f t="shared" si="21"/>
-        <v>-1.9272452116166794E-2</v>
+        <v>-1.7491809676412506E-2</v>
       </c>
       <c r="T50" s="114">
         <f t="shared" si="22"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U50" s="116">
-        <f>((N50/$N$55)-1)/T50*30</f>
-        <v>-8.2596223355000553E-2</v>
+        <f>((N50/$N$57)-1)/T50*30</f>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V50" s="116"/>
       <c r="W50" s="116"/>
@@ -9395,72 +9429,66 @@
       <c r="AA50" s="116"/>
       <c r="AB50" s="133"/>
       <c r="AC50" s="134"/>
-      <c r="AL50">
-        <v>68</v>
-      </c>
-      <c r="AM50">
-        <v>22.96</v>
-      </c>
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="117">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B51">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C51">
-        <v>31.796299999999999</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D51">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E51">
-        <v>34.619700000000002</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F51" s="112">
         <v>161</v>
       </c>
       <c r="G51">
-        <v>2213.54</v>
+        <v>2219.02</v>
       </c>
       <c r="L51">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M51">
-        <v>0.94838599999999995</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N51" s="113">
         <f t="shared" si="23"/>
-        <v>521369.280203</v>
+        <v>516626.64020899998</v>
       </c>
       <c r="O51">
-        <v>156.13</v>
+        <v>155.59</v>
       </c>
       <c r="P51">
-        <v>248712.47</v>
+        <v>243803.06</v>
       </c>
       <c r="Q51" s="115">
-        <v>8828.7000000000007</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="R51" s="127">
         <f t="shared" si="25"/>
-        <v>-6.2092946866469934E-3</v>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="S51" s="116">
         <f t="shared" si="21"/>
-        <v>-1.7109382199549383E-2</v>
+        <v>-2.6050254879836254E-2</v>
       </c>
       <c r="T51" s="114">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U51" s="116">
-        <f>((N51/$N$55)-1)/T51*30</f>
-        <v>-0.12832036649662037</v>
+        <f>((N51/$N$57)-1)/T51*30</f>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V51" s="116"/>
       <c r="W51" s="116"/>
@@ -9474,68 +9502,68 @@
         <v>68</v>
       </c>
       <c r="AM51">
-        <v>22.04</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="117">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B52">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C52">
-        <v>31.775700000000001</v>
+        <v>31.9499</v>
       </c>
       <c r="D52">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E52">
-        <v>34.762500000000003</v>
+        <v>34.8125</v>
       </c>
       <c r="F52" s="112">
         <v>161</v>
       </c>
       <c r="G52">
-        <v>2222.88</v>
+        <v>2212.35</v>
       </c>
       <c r="L52">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M52">
-        <v>0.95100700000000005</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N52" s="113">
         <f t="shared" si="23"/>
-        <v>523223.75937500002</v>
+        <v>520221.89087499998</v>
       </c>
       <c r="O52">
-        <v>157.21</v>
+        <v>155.44</v>
       </c>
       <c r="P52">
-        <v>250427.64</v>
+        <v>247623.17</v>
       </c>
       <c r="Q52" s="115">
-        <v>8883.52</v>
+        <v>8718.11</v>
       </c>
       <c r="R52" s="127">
         <f t="shared" si="25"/>
-        <v>-3.0066910413888426E-3</v>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="S52" s="116">
         <f t="shared" si="21"/>
-        <v>-1.3613299387851274E-2</v>
+        <v>-1.9272452116166794E-2</v>
       </c>
       <c r="T52" s="114">
         <f t="shared" si="22"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U52" s="116">
-        <f>((N52/$N$55)-1)/T52*30</f>
-        <v>-0.13613299387851274</v>
+        <f>((N52/$N$57)-1)/T52*30</f>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V52" s="116"/>
       <c r="W52" s="116"/>
@@ -9549,68 +9577,68 @@
         <v>68</v>
       </c>
       <c r="AM52">
-        <v>20.399999999999999</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="117">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B53">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C53">
-        <v>32</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D53">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E53">
-        <v>35</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F53" s="112">
         <v>161</v>
       </c>
       <c r="G53">
-        <v>2220.3200000000002</v>
+        <v>2213.54</v>
       </c>
       <c r="L53">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M53">
-        <v>0.957233</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N53" s="113">
         <f t="shared" si="23"/>
-        <v>523915.29500000004</v>
+        <v>521369.280203</v>
       </c>
       <c r="O53">
-        <v>160.79</v>
+        <v>156.13</v>
       </c>
       <c r="P53">
-        <v>250989.9</v>
+        <v>248712.47</v>
       </c>
       <c r="Q53" s="115">
-        <v>8910.23</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="R53" s="127">
         <f t="shared" si="25"/>
-        <v>-1.7822211098927898E-2</v>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="S53" s="116">
         <f t="shared" si="21"/>
-        <v>-1.2309609463077242E-2</v>
+        <v>-1.7109382199549383E-2</v>
       </c>
       <c r="T53" s="114">
         <f t="shared" si="22"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U53" s="116">
-        <f>((N53/$N$55)-1)/T53*30</f>
-        <v>-0.18464414194615864</v>
+        <f>((N53/$N$57)-1)/T53*30</f>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V53" s="116"/>
       <c r="W53" s="116"/>
@@ -9624,68 +9652,68 @@
         <v>68</v>
       </c>
       <c r="AM53">
-        <v>18.22</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="117">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B54">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C54">
-        <v>31.516400000000001</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D54">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E54">
-        <v>34.463200000000001</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F54" s="112">
         <v>161</v>
       </c>
       <c r="G54">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L54">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M54">
-        <v>0.979213</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N54" s="113">
         <f t="shared" si="23"/>
-        <v>525953.15476800012</v>
+        <v>523223.75937500002</v>
       </c>
       <c r="O54">
-        <v>161.94999999999999</v>
+        <v>157.21</v>
       </c>
       <c r="P54">
-        <v>252645.61</v>
+        <v>250427.64</v>
       </c>
       <c r="Q54" s="115">
-        <v>9069.0300000000007</v>
+        <v>8883.52</v>
       </c>
       <c r="R54" s="127">
         <f t="shared" si="25"/>
-        <v>-6.8684302510850781E-3</v>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="S54" s="116">
         <f t="shared" si="21"/>
-        <v>-8.4678157049555836E-3</v>
+        <v>-1.3613299387851274E-2</v>
       </c>
       <c r="T54" s="114">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U54" s="116">
-        <f>((N54/$N$55)-1)/T54*30</f>
-        <v>-0.25403447114866751</v>
+        <f>((N54/$N$57)-1)/T54*30</f>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V54" s="116"/>
       <c r="W54" s="116"/>
@@ -9699,66 +9727,69 @@
         <v>68</v>
       </c>
       <c r="AM54">
-        <v>16.57</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="117">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B55">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C55">
-        <v>31.571400000000001</v>
+        <v>32</v>
       </c>
       <c r="D55">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E55">
-        <v>34.558100000000003</v>
+        <v>35</v>
       </c>
       <c r="F55" s="112">
         <v>161</v>
       </c>
       <c r="G55">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L55">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M55">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N55" s="200">
+        <v>0.957233</v>
+      </c>
+      <c r="N55" s="113">
         <f t="shared" si="23"/>
-        <v>530444.86411900003</v>
+        <v>523915.29500000004</v>
       </c>
       <c r="O55">
-        <v>164.91</v>
+        <v>160.79</v>
       </c>
       <c r="P55">
-        <v>257088.48</v>
+        <v>250989.9</v>
       </c>
       <c r="Q55" s="115">
-        <v>9131.32</v>
+        <v>8910.23</v>
       </c>
       <c r="R55" s="127">
         <f t="shared" si="25"/>
-        <v>-2.6283166070184549E-3</v>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="S55" s="116">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1.2309609463077242E-2</v>
       </c>
       <c r="T55" s="114">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U55" s="116"/>
+        <v>2</v>
+      </c>
+      <c r="U55" s="116">
+        <f>((N55/$N$57)-1)/T55*30</f>
+        <v>-0.18464414194615864</v>
+      </c>
       <c r="V55" s="116"/>
       <c r="W55" s="116"/>
       <c r="X55" s="116"/>
@@ -9767,73 +9798,73 @@
       <c r="AA55" s="116"/>
       <c r="AB55" s="133"/>
       <c r="AC55" s="134"/>
-      <c r="AH55">
-        <v>12</v>
-      </c>
-      <c r="AI55">
-        <v>41.58</v>
-      </c>
-      <c r="AJ55">
-        <f>AJ62</f>
-        <v>15</v>
-      </c>
-      <c r="AK55">
-        <v>55.55</v>
-      </c>
       <c r="AL55">
         <v>68</v>
       </c>
       <c r="AM55">
-        <v>15.07</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="A56" s="117">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B56">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C56">
-        <v>31.402999999999999</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D56">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E56">
-        <v>34.3643</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F56" s="112">
         <v>161</v>
       </c>
       <c r="G56">
-        <v>2198.16</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L56">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M56">
-        <v>0.99115900000000001</v>
+        <v>0.979213</v>
       </c>
       <c r="N56" s="113">
         <f t="shared" si="23"/>
-        <v>523720.92595699994</v>
+        <v>525953.15476800012</v>
       </c>
       <c r="O56">
-        <v>160.9</v>
+        <v>161.94999999999999</v>
+      </c>
+      <c r="P56">
+        <v>252645.61</v>
       </c>
       <c r="Q56" s="115">
-        <v>9155.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="R56" s="127">
         <f t="shared" si="25"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S56" s="116"/>
-      <c r="U56" s="116"/>
+        <v>-6.8684302510850781E-3</v>
+      </c>
+      <c r="S56" s="116">
+        <f t="shared" si="21"/>
+        <v>-8.4678157049555836E-3</v>
+      </c>
+      <c r="T56" s="114">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="U56" s="116">
+        <f>((N56/$N$57)-1)/T56*30</f>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V56" s="116"/>
       <c r="W56" s="116"/>
       <c r="X56" s="116"/>
@@ -9842,72 +9873,69 @@
       <c r="AA56" s="116"/>
       <c r="AB56" s="133"/>
       <c r="AC56" s="134"/>
-      <c r="AH56">
-        <v>12</v>
-      </c>
-      <c r="AI56">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="AJ56">
-        <f>AJ62</f>
-        <v>15</v>
-      </c>
-      <c r="AK56">
-        <v>57.75</v>
-      </c>
       <c r="AL56">
         <v>68</v>
       </c>
       <c r="AM56">
-        <v>13.7</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="117">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B57">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C57">
-        <v>31.297000000000001</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D57">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E57">
-        <v>34.110599999999998</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F57" s="112">
         <v>161</v>
       </c>
       <c r="G57">
-        <v>2184.79</v>
+        <v>2232.66</v>
       </c>
       <c r="L57">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M57">
-        <v>0.945214</v>
-      </c>
-      <c r="N57" s="113">
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N57" s="200">
         <f t="shared" si="23"/>
-        <v>515625.882094</v>
+        <v>530444.86411900003</v>
       </c>
       <c r="O57">
-        <v>155.75</v>
+        <v>164.91</v>
+      </c>
+      <c r="P57">
+        <v>257088.48</v>
       </c>
       <c r="Q57" s="115">
-        <v>9054.18</v>
+        <v>9131.32</v>
       </c>
       <c r="R57" s="127">
         <f t="shared" si="25"/>
-        <v>3.4194151209717583E-2</v>
-      </c>
-      <c r="S57" s="116"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S57" s="116">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T57" s="114">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="U57" s="116"/>
       <c r="V57" s="116"/>
       <c r="W57" s="116"/>
@@ -9921,66 +9949,66 @@
         <v>12</v>
       </c>
       <c r="AI57">
-        <v>34.380000000000003</v>
+        <v>41.58</v>
       </c>
       <c r="AJ57">
-        <f>AJ62</f>
+        <f>AJ64</f>
         <v>15</v>
       </c>
       <c r="AK57">
-        <v>63.1</v>
+        <v>55.55</v>
       </c>
       <c r="AL57">
         <v>68</v>
       </c>
       <c r="AM57">
-        <v>12.46</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="A58" s="117">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B58">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C58">
-        <v>31.293399999999998</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D58">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E58">
-        <v>34.006500000000003</v>
+        <v>34.3643</v>
       </c>
       <c r="F58" s="112">
         <v>161</v>
       </c>
       <c r="G58">
-        <v>2150.9</v>
+        <v>2198.16</v>
       </c>
       <c r="L58">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M58">
-        <v>0.99397100000000005</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N58" s="113">
         <f t="shared" si="23"/>
-        <v>516226.70193500002</v>
+        <v>523720.92595699994</v>
       </c>
       <c r="O58">
-        <v>156.16</v>
+        <v>160.9</v>
       </c>
       <c r="Q58" s="115">
-        <v>8744.58</v>
+        <v>9155.32</v>
       </c>
       <c r="R58" s="127">
         <f t="shared" si="25"/>
-        <v>-1.3258498407013208E-2</v>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S58" s="116"/>
       <c r="U58" s="116"/>
@@ -9992,77 +10020,70 @@
       <c r="AA58" s="116"/>
       <c r="AB58" s="133"/>
       <c r="AC58" s="134"/>
-      <c r="AF58">
-        <f>AF62</f>
-        <v>57</v>
-      </c>
-      <c r="AG58">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH58">
         <v>12</v>
       </c>
       <c r="AI58">
-        <v>31.26</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ58">
-        <f>AJ62</f>
+        <f>AJ64</f>
         <v>15</v>
       </c>
       <c r="AK58">
-        <v>57.4</v>
+        <v>57.75</v>
       </c>
       <c r="AL58">
         <v>68</v>
       </c>
       <c r="AM58">
-        <v>11.33</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="117">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B59">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C59">
-        <v>31.079899999999999</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D59">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E59">
-        <v>33.721699999999998</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F59" s="112">
         <v>161</v>
       </c>
       <c r="G59">
-        <v>2116.34</v>
+        <v>2184.79</v>
       </c>
       <c r="L59">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M59">
-        <v>1.0160309999999999</v>
+        <v>0.945214</v>
       </c>
       <c r="N59" s="113">
         <f t="shared" si="23"/>
-        <v>513091.35418300005</v>
+        <v>515625.882094</v>
       </c>
       <c r="O59">
-        <v>154.22999999999999</v>
+        <v>155.75</v>
       </c>
       <c r="Q59" s="115">
-        <v>8860.52</v>
+        <v>9054.18</v>
       </c>
       <c r="R59" s="127">
         <f t="shared" si="25"/>
-        <v>-5.319100910555985E-3</v>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S59" s="116"/>
       <c r="U59" s="116"/>
@@ -10074,82 +10095,70 @@
       <c r="AA59" s="116"/>
       <c r="AB59" s="133"/>
       <c r="AC59" s="134"/>
-      <c r="AD59">
-        <f>AD62</f>
-        <v>36</v>
-      </c>
-      <c r="AE59" s="135">
-        <v>38.15</v>
-      </c>
-      <c r="AF59">
-        <f>AF62</f>
-        <v>57</v>
-      </c>
-      <c r="AG59">
-        <v>579.361718</v>
-      </c>
       <c r="AH59">
-        <f>AH62</f>
         <v>12</v>
       </c>
       <c r="AI59">
-        <v>28.42</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ59">
-        <f>AJ62</f>
+        <f>AJ64</f>
         <v>15</v>
       </c>
       <c r="AK59">
-        <v>52.2</v>
+        <v>63.1</v>
       </c>
       <c r="AL59">
         <v>68</v>
       </c>
       <c r="AM59">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" s="117">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B60">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C60">
-        <v>30.905999999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D60">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E60">
-        <v>33.542299999999997</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F60" s="112">
         <v>161</v>
       </c>
       <c r="G60">
-        <v>2072.52</v>
+        <v>2150.9</v>
       </c>
       <c r="L60">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M60">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N60" s="113">
         <f t="shared" si="23"/>
-        <v>509025.91517699993</v>
+        <v>516226.70193500002</v>
+      </c>
+      <c r="O60">
+        <v>156.16</v>
       </c>
       <c r="Q60" s="115">
-        <v>8907.65</v>
+        <v>8744.58</v>
       </c>
       <c r="R60" s="127">
         <f t="shared" si="25"/>
-        <v>-2.1273848882702007E-2</v>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S60" s="116"/>
       <c r="U60" s="116"/>
@@ -10161,33 +10170,25 @@
       <c r="AA60" s="116"/>
       <c r="AB60" s="133"/>
       <c r="AC60" s="134"/>
-      <c r="AD60">
-        <f>AD62</f>
-        <v>36</v>
-      </c>
-      <c r="AE60">
-        <v>34.659999999999997</v>
-      </c>
       <c r="AF60">
-        <f>AF62</f>
+        <f>AF64</f>
         <v>57</v>
       </c>
       <c r="AG60">
-        <v>578.66060300000004</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH60">
-        <f>AH62</f>
         <v>12</v>
       </c>
       <c r="AI60">
-        <v>25.84</v>
+        <v>31.26</v>
       </c>
       <c r="AJ60">
-        <f>AJ62</f>
+        <f>AJ64</f>
         <v>15</v>
       </c>
       <c r="AK60">
-        <v>47.46</v>
+        <v>57.4</v>
       </c>
       <c r="AL60">
         <v>68</v>
@@ -10198,45 +10199,48 @@
     </row>
     <row r="61" spans="1:39">
       <c r="A61" s="117">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B61">
-        <f>B62</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C61">
-        <v>30.7361</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D61">
-        <f>D62</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E61">
-        <v>33.225700000000003</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F61" s="112">
         <v>161</v>
       </c>
       <c r="G61">
-        <v>2018.91</v>
+        <v>2116.34</v>
       </c>
       <c r="L61">
-        <f>L62</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M61">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N61" s="113">
         <f t="shared" si="23"/>
-        <v>499114.42414299998</v>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O61">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q61" s="115">
-        <v>9097.15</v>
+        <v>8860.52</v>
       </c>
       <c r="R61" s="127">
         <f t="shared" si="25"/>
-        <v>-1.0612114783201454E-2</v>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S61" s="116"/>
       <c r="U61" s="116"/>
@@ -10249,32 +10253,32 @@
       <c r="AB61" s="133"/>
       <c r="AC61" s="134"/>
       <c r="AD61">
-        <f>AD62</f>
+        <f>AD64</f>
         <v>36</v>
       </c>
-      <c r="AE61">
-        <v>31.52</v>
+      <c r="AE61" s="135">
+        <v>38.15</v>
       </c>
       <c r="AF61">
-        <f>AF62</f>
+        <f>AF64</f>
         <v>57</v>
       </c>
       <c r="AG61">
-        <v>576.58807100000001</v>
+        <v>579.361718</v>
       </c>
       <c r="AH61">
-        <f>AH62</f>
+        <f>AH64</f>
         <v>12</v>
       </c>
       <c r="AI61">
-        <v>23.5</v>
+        <v>28.42</v>
       </c>
       <c r="AJ61">
-        <f>AJ62</f>
+        <f>AJ64</f>
         <v>15</v>
       </c>
       <c r="AK61">
-        <v>43.16</v>
+        <v>52.2</v>
       </c>
       <c r="AL61">
         <v>68</v>
@@ -10285,90 +10289,104 @@
     </row>
     <row r="62" spans="1:39">
       <c r="A62" s="117">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B62">
-        <f>B63</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C62">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D62">
-        <f>D63</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E62">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F62" s="112">
         <v>161</v>
       </c>
       <c r="G62">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L62">
-        <f>L63</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M62">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="N62" s="113">
         <f t="shared" si="23"/>
-        <v>496152.04914299998</v>
+        <v>509025.91517699993</v>
       </c>
       <c r="Q62" s="115">
-        <v>9193.69</v>
+        <v>8907.65</v>
       </c>
       <c r="R62" s="127">
         <f t="shared" si="25"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S62" s="127"/>
+        <v>-2.1273848882702007E-2</v>
+      </c>
+      <c r="S62" s="116"/>
+      <c r="U62" s="116"/>
+      <c r="V62" s="116"/>
+      <c r="W62" s="116"/>
+      <c r="X62" s="116"/>
+      <c r="Y62" s="116"/>
+      <c r="Z62" s="116"/>
+      <c r="AA62" s="116"/>
+      <c r="AB62" s="133"/>
+      <c r="AC62" s="134"/>
       <c r="AD62">
-        <f>AD63</f>
+        <f>AD64</f>
         <v>36</v>
       </c>
       <c r="AE62">
-        <v>28.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF62">
-        <f>AF63</f>
+        <f>AF64</f>
         <v>57</v>
       </c>
       <c r="AG62">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH62">
-        <f>AH63</f>
+        <f>AH64</f>
         <v>12</v>
       </c>
       <c r="AI62">
-        <v>21.38</v>
+        <v>25.84</v>
       </c>
       <c r="AJ62">
+        <f>AJ64</f>
         <v>15</v>
       </c>
       <c r="AK62">
-        <v>39.24</v>
-      </c>
-      <c r="AM62" s="129">
-        <f>AM61</f>
+        <v>47.46</v>
+      </c>
+      <c r="AL62">
+        <v>68</v>
+      </c>
+      <c r="AM62">
         <v>11.33</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="117">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B63">
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C63">
         <v>30.7361</v>
       </c>
       <c r="D63">
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E63">
@@ -10381,61 +10399,81 @@
         <v>2018.91</v>
       </c>
       <c r="L63">
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M63">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="N63" s="113">
         <f t="shared" si="23"/>
-        <v>503322.92414299998</v>
+        <v>499114.42414299998</v>
       </c>
       <c r="Q63" s="115">
-        <v>9062.36</v>
+        <v>9097.15</v>
       </c>
       <c r="R63" s="127">
         <f t="shared" si="25"/>
-        <v>-1.292378585710563E-2</v>
-      </c>
-      <c r="S63" s="127"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S63" s="116"/>
+      <c r="U63" s="116"/>
+      <c r="V63" s="116"/>
+      <c r="W63" s="116"/>
+      <c r="X63" s="116"/>
+      <c r="Y63" s="116"/>
+      <c r="Z63" s="116"/>
+      <c r="AA63" s="116"/>
+      <c r="AB63" s="133"/>
+      <c r="AC63" s="134"/>
       <c r="AD63">
         <f>AD64</f>
         <v>36</v>
       </c>
       <c r="AE63">
-        <v>26.06</v>
+        <v>31.52</v>
       </c>
       <c r="AF63">
+        <f>AF64</f>
         <v>57</v>
       </c>
       <c r="AG63">
         <v>576.58807100000001</v>
       </c>
       <c r="AH63">
+        <f>AH64</f>
         <v>12</v>
       </c>
       <c r="AI63">
-        <v>19.45</v>
-      </c>
-      <c r="AK63" s="129">
-        <f>AK62</f>
-        <v>39.24</v>
-      </c>
-      <c r="AM63" s="129" t="s">
-        <v>69</v>
+        <v>23.5</v>
+      </c>
+      <c r="AJ63">
+        <f>AJ64</f>
+        <v>15</v>
+      </c>
+      <c r="AK63">
+        <v>43.16</v>
+      </c>
+      <c r="AL63">
+        <v>68</v>
+      </c>
+      <c r="AM63">
+        <v>11.33</v>
       </c>
     </row>
     <row r="64" spans="1:39">
       <c r="A64" s="117">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B64">
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C64">
         <v>30.7361</v>
       </c>
       <c r="D64">
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E64">
@@ -10447,50 +10485,60 @@
       <c r="G64">
         <v>2018.91</v>
       </c>
-      <c r="L64" s="199">
-        <v>75000</v>
+      <c r="L64">
+        <f>L65</f>
+        <v>125000</v>
       </c>
       <c r="M64">
-        <v>1.064435</v>
+        <v>1.010337</v>
       </c>
       <c r="N64" s="113">
         <f t="shared" si="23"/>
-        <v>449692.54914299998</v>
+        <v>496152.04914299998</v>
       </c>
       <c r="Q64" s="115">
-        <v>9179.48</v>
+        <v>9193.69</v>
       </c>
       <c r="R64" s="127">
         <f t="shared" si="25"/>
-        <v>-1.6847359545420826E-2</v>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S64" s="127"/>
       <c r="AD64">
+        <f>AD65</f>
         <v>36</v>
       </c>
       <c r="AE64">
-        <v>23.7</v>
+        <v>28.66</v>
       </c>
       <c r="AF64">
+        <f>AF65</f>
         <v>57</v>
       </c>
       <c r="AG64">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI64" s="129">
-        <f>AI63</f>
-        <v>19.45</v>
-      </c>
-      <c r="AK64" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM64" s="130" t="s">
-        <v>68</v>
+      <c r="AH64">
+        <f>AH65</f>
+        <v>12</v>
+      </c>
+      <c r="AI64">
+        <v>21.38</v>
+      </c>
+      <c r="AJ64">
+        <v>15</v>
+      </c>
+      <c r="AK64">
+        <v>39.24</v>
+      </c>
+      <c r="AM64" s="129">
+        <f>AM63</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="65" spans="1:39">
       <c r="A65" s="117">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B65">
         <v>1110</v>
@@ -10511,29 +10559,29 @@
         <v>2018.91</v>
       </c>
       <c r="L65">
-        <f>L66</f>
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="M65">
-        <v>1.0192399999999999</v>
+        <v>1.067704</v>
       </c>
       <c r="N65" s="113">
         <f t="shared" si="23"/>
-        <v>420821.92414299998</v>
+        <v>503322.92414299998</v>
       </c>
       <c r="Q65" s="115">
-        <v>9334.1299999999992</v>
+        <v>9062.36</v>
       </c>
       <c r="R65" s="127">
         <f t="shared" si="25"/>
-        <v>-4.2928478604864484E-3</v>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S65" s="127"/>
       <c r="AD65">
+        <f>AD66</f>
         <v>36</v>
       </c>
       <c r="AE65">
-        <v>21.56</v>
+        <v>26.06</v>
       </c>
       <c r="AF65">
         <v>57</v>
@@ -10541,20 +10589,23 @@
       <c r="AG65">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI65" s="129" t="s">
+      <c r="AH65">
+        <v>12</v>
+      </c>
+      <c r="AI65">
+        <v>19.45</v>
+      </c>
+      <c r="AK65" s="129">
+        <f>AK64</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM65" s="129" t="s">
         <v>69</v>
-      </c>
-      <c r="AK65" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM65" s="130">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:39">
       <c r="A66" s="117">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B66">
         <v>1110</v>
@@ -10574,29 +10625,29 @@
       <c r="G66">
         <v>2018.91</v>
       </c>
-      <c r="L66">
-        <v>50000</v>
+      <c r="L66" s="199">
+        <v>75000</v>
       </c>
       <c r="M66">
-        <v>1.0032049999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N66" s="113">
         <f t="shared" si="23"/>
-        <v>420020.17414299998</v>
+        <v>449692.54914299998</v>
       </c>
       <c r="Q66" s="115">
-        <v>9374.2000000000007</v>
+        <v>9179.48</v>
       </c>
       <c r="R66" s="127">
         <f t="shared" si="25"/>
-        <v>2.8834460540633211E-3</v>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S66" s="127"/>
       <c r="AD66">
         <v>36</v>
       </c>
       <c r="AE66">
-        <v>19.600000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="AF66">
         <v>57</v>
@@ -10604,132 +10655,259 @@
       <c r="AG66">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI66" s="130" t="s">
+      <c r="AI66" s="129">
+        <f>AI65</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK66" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM66" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="AK66" s="130">
-        <v>55.5</v>
-      </c>
-      <c r="AM66" s="116">
-        <f>(AM65-AM61)/AM61</f>
-        <v>0.73786407766990303</v>
-      </c>
     </row>
     <row r="67" spans="1:39">
-      <c r="A67" s="198">
-        <v>45344</v>
-      </c>
-      <c r="L67" s="199">
+      <c r="A67" s="117">
+        <v>45348</v>
+      </c>
+      <c r="B67">
+        <v>1110</v>
+      </c>
+      <c r="C67">
+        <v>30.7361</v>
+      </c>
+      <c r="D67">
+        <v>321.99</v>
+      </c>
+      <c r="E67">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F67" s="112">
+        <v>161</v>
+      </c>
+      <c r="G67">
+        <v>2018.91</v>
+      </c>
+      <c r="L67">
+        <f>L68</f>
         <v>50000</v>
       </c>
       <c r="M67">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N67" s="113">
         <f t="shared" si="23"/>
-        <v>50160.249999999993</v>
+        <v>420821.92414299998</v>
       </c>
       <c r="Q67" s="115">
-        <v>9347.17</v>
-      </c>
+        <v>9334.1299999999992</v>
+      </c>
+      <c r="R67" s="127">
+        <f t="shared" si="25"/>
+        <v>-4.2928478604864484E-3</v>
+      </c>
+      <c r="S67" s="127"/>
       <c r="AD67">
         <v>36</v>
       </c>
       <c r="AE67">
-        <v>17.82</v>
-      </c>
-      <c r="AI67" s="130">
-        <v>45.72</v>
-      </c>
-      <c r="AK67" s="116">
-        <f>(AK66-AK62)/AK62</f>
-        <v>0.41437308868501521</v>
+        <v>21.56</v>
+      </c>
+      <c r="AF67">
+        <v>57</v>
+      </c>
+      <c r="AG67">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI67" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK67" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM67" s="130">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:39">
+      <c r="A68" s="117">
+        <v>45345</v>
+      </c>
+      <c r="B68">
+        <v>1110</v>
+      </c>
+      <c r="C68">
+        <v>30.7361</v>
+      </c>
+      <c r="D68">
+        <v>321.99</v>
+      </c>
+      <c r="E68">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F68" s="112">
+        <v>161</v>
+      </c>
+      <c r="G68">
+        <v>2018.91</v>
+      </c>
+      <c r="L68">
+        <v>50000</v>
+      </c>
       <c r="M68">
-        <v>0.93849000000000005</v>
-      </c>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N68" s="113">
+        <f t="shared" si="23"/>
+        <v>420020.17414299998</v>
+      </c>
+      <c r="Q68" s="115">
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R68" s="127">
+        <f t="shared" si="25"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S68" s="127"/>
       <c r="AD68">
         <v>36</v>
       </c>
-      <c r="AE68" s="129">
-        <v>15.3</v>
-      </c>
-      <c r="AI68" s="116">
-        <f>(AI67-AI63)/AI63</f>
-        <v>1.3506426735218509</v>
-      </c>
-      <c r="AM68" s="132">
-        <f>(AL61*AM65)-(AL49*AM61)</f>
-        <v>568.48</v>
+      <c r="AE68">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF68">
+        <v>57</v>
+      </c>
+      <c r="AG68">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI68" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK68" s="130">
+        <v>55.5</v>
+      </c>
+      <c r="AM68" s="116">
+        <f>(AM67-AM63)/AM63</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="69" spans="1:39">
+      <c r="A69" s="198">
+        <v>45344</v>
+      </c>
+      <c r="L69" s="199">
+        <v>50000</v>
+      </c>
       <c r="M69">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="R69" s="136">
-        <f>SUM(R10:R68)</f>
-        <v>6.5229996184622774E-2</v>
-      </c>
-      <c r="S69" s="136"/>
-      <c r="AE69" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ69" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK69" s="132">
-        <f>(AJ62*AK66)-(AJ10*AK62)</f>
-        <v>832.5</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N69" s="113">
+        <f t="shared" si="23"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q69" s="115">
+        <v>9347.17</v>
+      </c>
+      <c r="AD69">
+        <v>36</v>
+      </c>
+      <c r="AE69">
+        <v>17.82</v>
+      </c>
+      <c r="AI69" s="130">
+        <v>45.72</v>
+      </c>
+      <c r="AK69" s="116">
+        <f>(AK68-AK64)/AK64</f>
+        <v>0.41437308868501521</v>
       </c>
     </row>
     <row r="70" spans="1:39">
       <c r="M70">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="AE70" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH70" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI70" s="132">
-        <f>(AH63*AI67)-(AH10*AI63)</f>
-        <v>548.64</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD70">
+        <v>36</v>
+      </c>
+      <c r="AE70" s="129">
+        <v>15.3</v>
+      </c>
+      <c r="AI70" s="116">
+        <f>(AI69-AI65)/AI65</f>
+        <v>1.3506426735218509</v>
+      </c>
+      <c r="AM70" s="132">
+        <f>(AL63*AM67)-(AL51*AM63)</f>
+        <v>568.48</v>
       </c>
     </row>
     <row r="71" spans="1:39">
       <c r="M71">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="AD71" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE71" s="130">
-        <v>38</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="R71" s="136">
+        <f>SUM(R10:R70)</f>
+        <v>8.6521031002193882E-2</v>
+      </c>
+      <c r="S71" s="136"/>
+      <c r="AE71" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ71" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK71" s="132">
+        <f>(AJ64*AK68)-(AJ10*AK64)</f>
+        <v>832.5</v>
       </c>
     </row>
     <row r="72" spans="1:39">
       <c r="M72">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="AE72" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH72" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI72" s="132">
+        <f>(AH65*AI69)-(AH10*AI65)</f>
+        <v>548.64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39">
+      <c r="M73">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE73" s="130">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39">
+      <c r="M74">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE72" s="116">
+      <c r="AE74" s="116">
         <f>Sayfa2!M59</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
-      <c r="M73">
+    <row r="75" spans="1:39">
+      <c r="M75">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
-      <c r="AD74" s="132" t="s">
+    <row r="76" spans="1:39">
+      <c r="AD76" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AE74" s="132">
+      <c r="AE76" s="132">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6737BD9B-7921-46FB-A70A-A374A6D1BD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E8ADD0-CE81-4D94-9147-DC1A13878313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="3210" windowWidth="27240" windowHeight="12270" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="885" yWindow="1830" windowWidth="27240" windowHeight="12270" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -2034,11 +2034,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>242499.97235600007</v>
+        <v>258068.354356</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2047,11 +2047,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>146.61425172672313</v>
+        <v>155.46286406987952</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2084,24 +2084,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I36)</f>
-        <v>781082.53689999995</v>
+        <v>796907.76890000002</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K37)</f>
-        <v>217423.43446500006</v>
+        <v>232991.81646499998</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.39415664926025129</v>
+        <v>0.4223798318193116</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-0.1197905584785998</v>
+        <v>-0.10020267784945504</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-5.8747579614476714E-2</v>
+        <v>-4.2630216508478612E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2256,7 +2256,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O37)</f>
-        <v>217423.43446500006</v>
+        <v>232991.81646499992</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>23.6</v>
+        <v>24.5</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>944</v>
+        <v>980</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-6.8999999999999986</v>
+        <v>-6</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-275.99999999999994</v>
+        <v>-240</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M15" s="116">
         <f>K15/E15</f>
-        <v>-0.22622950819672127</v>
+        <v>-0.19672131147540983</v>
       </c>
       <c r="N15" s="116">
         <f>M15/L15*30</f>
-        <v>-0.15081967213114753</v>
+        <v>-0.11571841851494696</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2340,31 +2340,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>27.96</v>
+        <v>28.88</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>978.6</v>
+        <v>1010.8</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-9.43</v>
+        <v>-8.5100000000000016</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-330.05</v>
+        <v>-297.85000000000008</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M16" s="116">
         <f>K16/E16</f>
-        <v>-0.25220647231880183</v>
+        <v>-0.2276009628242846</v>
       </c>
       <c r="N16" s="116">
         <f>M16/L16*30</f>
-        <v>-0.16813764821253455</v>
+        <v>-0.13388291930840271</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2394,31 +2394,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>130.1</v>
+        <v>131.6</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1301</v>
+        <v>1316</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-4.9000000000000057</v>
+        <v>-3.4000000000000057</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-49.000000000000057</v>
+        <v>-34.000000000000057</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M17" s="116">
         <f>K17/E17</f>
-        <v>-3.629629629629634E-2</v>
+        <v>-2.5185185185185227E-2</v>
       </c>
       <c r="N17" s="116">
         <f>M17/L17*30</f>
-        <v>-2.0545073375262079E-2</v>
+        <v>-1.280602636534842E-2</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F19" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G19" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="L19" s="66">
         <f>F19-B19</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M19" s="116">
         <f>K19/E19</f>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="N19" s="116">
         <f>M19/L19*30</f>
-        <v>2.478379115792748E-2</v>
+        <v>1.8318454334120313E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2507,31 +2507,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.62</v>
+        <v>24.38</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>59050</v>
+        <v>60950</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>-1.0899999999999999</v>
+        <v>-0.33000000000000185</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>-2724.9999999999995</v>
+        <v>-825.00000000000466</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M21" s="116">
         <f>K21/E21</f>
-        <v>-4.4111695669769316E-2</v>
+        <v>-1.335491703763666E-2</v>
       </c>
       <c r="N21" s="116">
         <f>M21/L21*30</f>
-        <v>-2.9407797113179542E-2</v>
+        <v>-7.8558335515509781E-3</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2588,31 +2588,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.62</v>
+        <v>24.38</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>59050</v>
+        <v>60950</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>-1.2899999999999991</v>
+        <v>-0.53000000000000114</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>-3224.9999999999977</v>
+        <v>-1325.0000000000027</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>-5.1786431152147698E-2</v>
+        <v>-2.1276595744680896E-2</v>
       </c>
       <c r="N23" s="116">
         <f>M23/L23*30</f>
-        <v>-3.3773759447052847E-2</v>
+        <v>-1.2274959083469747E-2</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2669,31 +2669,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>23.62</v>
+        <v>24.38</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>59050</v>
+        <v>60950</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-1.5</v>
+        <v>-0.74000000000000199</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-3750</v>
+        <v>-1850.000000000005</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-5.9713375796178345E-2</v>
+        <v>-2.945859872611473E-2</v>
       </c>
       <c r="N25" s="116">
         <f>M25/L25*30</f>
-        <v>-3.6559209671129599E-2</v>
+        <v>-1.6068326577880761E-2</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2750,31 +2750,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.81506400000000001</v>
+        <v>0.82515799999999995</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>61129.8</v>
+        <v>61886.85</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.24937100000000001</v>
+        <v>-0.23927700000000007</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-18702.825000000001</v>
+        <v>-17945.775000000005</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.23427546069041325</v>
+        <v>-0.22479249554928207</v>
       </c>
       <c r="N27" s="116">
         <f>M27/L27*30</f>
-        <v>-6.4479484593691724E-2</v>
+        <v>-5.8641520578073585E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2805,35 +2805,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.81506400000000001</v>
+        <v>0.82515799999999995</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>40753.199999999997</v>
+        <v>41257.899999999994</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.18814099999999989</v>
+        <v>-0.17804699999999996</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-9407.0499999999938</v>
+        <v>-8902.3499999999985</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.1875399345098957</v>
+        <v>-0.17747818242532681</v>
       </c>
       <c r="N28" s="116">
         <f>M28/L28*30</f>
-        <v>-4.9789363144220097E-2</v>
+        <v>-4.4742398930754657E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-37630.143534999996</v>
+        <v>-30585.19353500002</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2872,50 +2872,50 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F46" si="0">$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
         <f>Sayfa4!G10</f>
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="I30" s="51">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
-        <v>116499</v>
+        <v>119067.5</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ref="J30:J36" si="1">H30-D30</f>
-        <v>503.45000000000005</v>
+        <v>554.81999999999994</v>
       </c>
       <c r="K30" s="65">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>22655.250000000004</v>
+        <v>24966.899999999998</v>
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L36" si="2">F30-B30</f>
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M36" si="3">K30/E30</f>
-        <v>0.2756319359660121</v>
+        <v>0.30375630293507355</v>
       </c>
       <c r="N30" s="116">
         <f t="shared" ref="N30:N36" si="4">M30/L30*30</f>
-        <v>3.4743521340253623E-2</v>
+        <v>3.7347086426443465E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>116499</v>
+        <v>119067.5</v>
       </c>
       <c r="Q30" s="1">
         <v>2000</v>
       </c>
       <c r="R30" s="1">
         <f>P30/Q30</f>
-        <v>58.249499999999998</v>
+        <v>59.533749999999998</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2937,50 +2937,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
       </c>
       <c r="H31" s="64">
         <f>H30</f>
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>25629.78</v>
+        <v>26194.85</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>1927.88</v>
+        <v>1979.25</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>21206.68</v>
+        <v>21771.75</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
-        <v>4.7945287241979599</v>
+        <v>4.9222830141755782</v>
       </c>
       <c r="N31" s="116">
         <f t="shared" si="4"/>
-        <v>0.11857861642698994</v>
+        <v>0.12113904054574842</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>25629.78</v>
+        <v>26194.85</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>12.81489</v>
+        <v>13.097424999999999</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3002,50 +3002,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>116499</v>
+        <v>119067.5</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1861.12</v>
+        <v>1912.4899999999998</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>93056</v>
+        <v>95624.499999999985</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>3.9694578338949795</v>
+        <v>4.0790214562982543</v>
       </c>
       <c r="N32" s="116">
         <f t="shared" si="4"/>
-        <v>8.673250911642344E-2</v>
+        <v>8.873868287813462E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>116499</v>
+        <v>119067.5</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>58.249499999999998</v>
+        <v>59.533749999999998</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3075,36 +3075,36 @@
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>58249.5</v>
+        <v>59533.75</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>1930.1100000000001</v>
+        <v>1981.48</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>48252.75</v>
+        <v>49537</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1437</v>
+        <v>1443</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>4.8268437242103683</v>
+        <v>4.9553104759046693</v>
       </c>
       <c r="N33" s="116">
         <f t="shared" si="4"/>
-        <v>0.10076918004614548</v>
+        <v>0.10302100781506589</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
         <f>SUM(R30:R32)</f>
-        <v>129.31389000000001</v>
+        <v>132.16492499999998</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3134,31 +3134,31 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>55919.520000000004</v>
+        <v>57152.399999999994</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>2056.17</v>
+        <v>2107.54</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>49348.08</v>
+        <v>50580.959999999999</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>7.5094773748219561</v>
+        <v>7.697089222453525</v>
       </c>
       <c r="N34" s="116">
         <f t="shared" si="4"/>
-        <v>0.13620575649616606</v>
+        <v>0.13910402209253359</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3189,40 +3189,40 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2092.39</v>
+        <v>2143.7599999999998</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>2092.39</v>
+        <v>2143.7599999999998</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1654</v>
+        <v>1660</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>8.8067258723010227</v>
+        <v>9.0229386758701953</v>
       </c>
       <c r="N35" s="116">
         <f t="shared" si="4"/>
-        <v>0.15973505209735833</v>
+        <v>0.16306515679283484</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
         <f>SUM(P30:P34)</f>
-        <v>258627.78</v>
+        <v>264329.84999999998</v>
       </c>
       <c r="R35" s="1">
         <f>P35/2220.32</f>
-        <v>116.48220977156446</v>
+        <v>119.05033959068962</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3252,43 +3252,43 @@
       </c>
       <c r="H36" s="64">
         <f>Sayfa4!C5</f>
-        <v>31.614799999999999</v>
+        <v>32.073999999999998</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>35092.428</v>
+        <v>35602.14</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>16.614799999999999</v>
+        <v>17.073999999999998</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>18442.428</v>
+        <v>18952.14</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>1.1076533333333334</v>
+        <v>1.1382666666666665</v>
       </c>
       <c r="N36" s="116">
         <f t="shared" si="4"/>
-        <v>4.8652415812591505E-2</v>
+        <v>4.956168359941944E-2</v>
       </c>
       <c r="O36" s="70">
         <f>SUM(K30:K36)</f>
-        <v>255053.57800000004</v>
+        <v>263577.00999999995</v>
       </c>
       <c r="P36" s="6">
         <f>SUM(P35:P35)</f>
-        <v>258627.78</v>
+        <v>264329.84999999998</v>
       </c>
       <c r="R36" s="1">
         <f>P36/2000</f>
-        <v>129.31388999999999</v>
+        <v>132.16492499999998</v>
       </c>
       <c r="T36" s="1" t="e">
         <f>P35/#REF!</f>
@@ -3313,7 +3313,7 @@
       <c r="O37" s="32"/>
       <c r="R37" s="67">
         <f>1-(R36/R35)</f>
-        <v>-0.11015999999999981</v>
+        <v>-0.11016000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3334,7 +3334,7 @@
       <c r="N39" s="116"/>
       <c r="R39" s="1">
         <f>R36*2220.32</f>
-        <v>287118.21624480002</v>
+        <v>293448.42627599998</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="F44" s="62">
         <f t="shared" si="0"/>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G44" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="L44" s="66">
         <f t="shared" ref="L44" si="6">F44-B44</f>
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="M44" s="67">
         <f t="shared" ref="M44" si="7">K44/E44</f>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="N44" s="116">
         <f t="shared" ref="N44" si="8">M44/L44*30</f>
-        <v>3.8759212487775849E-2</v>
+        <v>3.8416715764761626E-2</v>
       </c>
       <c r="O44" s="70"/>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="F45" s="62">
         <f t="shared" si="0"/>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G45" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="L45" s="66">
         <f>F45-B45</f>
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="M45" s="67">
         <f>K45/E45</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="N45" s="116">
         <f>M45/L45*30</f>
-        <v>3.9959008977147666E-2</v>
+        <v>3.9605910223299526E-2</v>
       </c>
       <c r="O45" s="70"/>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="F46" s="62">
         <f t="shared" si="0"/>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G46" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="L46" s="66">
         <f>F46-B46</f>
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="M46" s="67">
         <f>K46/E46</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F73" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G73" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="L73" s="66">
         <f>F73-B73</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M73" s="116">
         <f>K73/E73</f>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="N73" s="116">
         <f>M73/L73*30</f>
-        <v>2.478379115792748E-2</v>
+        <v>1.8318454334120313E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="F74" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G74" s="63">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="L74" s="66">
         <f>F74-B74</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M74" s="116">
         <f>K74/E74</f>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="N74" s="116">
         <f>M74/L74*30</f>
-        <v>3.5860502884482115E-2</v>
+        <v>3.1641620192190106E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="F75" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G75" s="63">
         <v>12</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="L75" s="66">
         <f>F75-B75</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M75" s="116">
         <f>K75/E75</f>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="N75" s="116">
         <f>M75/L75*30</f>
-        <v>3.2929355197045061E-2</v>
+        <v>2.9055313409157405E-2</v>
       </c>
       <c r="O75" s="102"/>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="F76" s="62">
         <f>$B$2</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="G76" s="63">
         <v>15</v>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="L76" s="66">
         <f>F76-B76</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M76" s="116">
         <f>K76/E76</f>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="N76" s="116">
         <f>M76/L76*30</f>
-        <v>3.2929355197045061E-2</v>
+        <v>2.9055313409157405E-2</v>
       </c>
       <c r="O76" s="102"/>
     </row>
@@ -5930,12 +5930,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM76"/>
+  <dimension ref="A4:AM77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12"/>
+      <selection pane="topRight" activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5987,51 +5987,51 @@
     <row r="5" spans="1:39">
       <c r="A5" s="117">
         <f>A10</f>
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="C5">
         <f>C10</f>
-        <v>31.614799999999999</v>
+        <v>32.073999999999998</v>
       </c>
       <c r="E5">
         <f>E10</f>
-        <v>33.916400000000003</v>
+        <v>34.383299999999998</v>
       </c>
       <c r="G5">
         <f>G10</f>
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="I5">
         <f>I10</f>
-        <v>23.62</v>
+        <v>24.38</v>
       </c>
       <c r="K5">
         <f>K10</f>
-        <v>662.49433199999999</v>
+        <v>667.64119100000005</v>
       </c>
       <c r="M5">
         <f>M10</f>
-        <v>0.81506400000000001</v>
+        <v>0.82515799999999995</v>
       </c>
       <c r="O5" s="115">
         <f>Sayfa2!D3</f>
-        <v>146.61425172672313</v>
+        <v>155.46286406987952</v>
       </c>
       <c r="P5" s="118">
         <f>Sayfa2!K2</f>
-        <v>242499.97235600007</v>
+        <v>258068.354356</v>
       </c>
       <c r="Y5" s="115">
         <f>Y10</f>
-        <v>27.96</v>
+        <v>28.88</v>
       </c>
       <c r="AA5" s="115">
         <f>AA10</f>
-        <v>23.6</v>
+        <v>24.5</v>
       </c>
       <c r="AC5" s="115">
         <f>AC10</f>
-        <v>130.1</v>
+        <v>131.6</v>
       </c>
       <c r="AE5">
         <f>AE10</f>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM51</f>
+        <f>AM52</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -6139,106 +6139,106 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="117">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="B10">
-        <f>B63</f>
+        <f>B64</f>
         <v>1110</v>
       </c>
       <c r="C10">
-        <v>31.614799999999999</v>
+        <v>32.073999999999998</v>
       </c>
       <c r="D10">
-        <f>D63</f>
+        <f>D64</f>
         <v>321.99</v>
       </c>
       <c r="E10">
-        <v>33.916400000000003</v>
+        <v>34.383299999999998</v>
       </c>
       <c r="F10" s="112">
         <v>156</v>
       </c>
       <c r="G10">
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="H10" s="199">
         <v>7500</v>
       </c>
       <c r="I10" s="199">
-        <v>23.62</v>
+        <v>24.38</v>
       </c>
       <c r="J10">
         <v>210</v>
       </c>
       <c r="K10" s="137">
-        <v>662.49433199999999</v>
+        <v>667.64119100000005</v>
       </c>
       <c r="L10">
-        <f>L63</f>
+        <f>L64</f>
         <v>125000</v>
       </c>
       <c r="M10">
-        <v>0.81506400000000001</v>
+        <v>0.82515799999999995</v>
       </c>
       <c r="N10" s="113">
-        <f t="shared" ref="N10:N24" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>827646.85935600009</v>
+        <f t="shared" ref="N10:N25" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
+        <v>844363.21887700004</v>
       </c>
       <c r="O10">
-        <v>146.61000000000001</v>
+        <v>155.46</v>
       </c>
       <c r="P10">
-        <v>242499.97</v>
+        <v>258068.35</v>
       </c>
       <c r="Q10" s="115">
-        <v>10391.89</v>
+        <v>10569</v>
       </c>
       <c r="R10" s="127">
-        <f>(1-(Q13/Q10))</f>
-        <v>1.9732695399970468E-2</v>
+        <f t="shared" ref="R10:R11" si="1">(1-(Q11/Q10))</f>
+        <v>9.2421231904626922E-3</v>
       </c>
       <c r="S10" s="116">
-        <f>(N10/$N$57)-1</f>
-        <v>0.56028819457157697</v>
+        <f>(N10/$N$58)-1</f>
+        <v>0.59180204389268165</v>
       </c>
       <c r="T10" s="114">
-        <f>(A10-$A$57)</f>
-        <v>95</v>
+        <f>(A10-$A$58)</f>
+        <v>101</v>
       </c>
       <c r="U10" s="116">
-        <f>((N10/$N$57)-1)/T10*30</f>
-        <v>0.17693311407523482</v>
+        <f>((N10/$N$58)-1)/T10*30</f>
+        <v>0.17578278531465791</v>
       </c>
       <c r="V10" s="116"/>
       <c r="W10" s="116"/>
       <c r="X10" s="134"/>
       <c r="Y10" s="134">
-        <v>27.96</v>
+        <v>28.88</v>
       </c>
       <c r="Z10" s="134"/>
       <c r="AA10" s="134">
-        <v>23.6</v>
+        <v>24.5</v>
       </c>
       <c r="AB10">
         <v>10</v>
       </c>
       <c r="AC10" s="115">
-        <v>130.1</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="117">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B11">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C11">
         <v>31.614799999999999</v>
       </c>
       <c r="D11">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E11">
@@ -6263,14 +6263,14 @@
         <v>662.49433199999999</v>
       </c>
       <c r="L11">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M11">
         <v>0.81506400000000001</v>
       </c>
       <c r="N11" s="113">
-        <f t="shared" ref="N11" si="1">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
+        <f t="shared" ref="N11" si="2">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
         <v>827646.85935600009</v>
       </c>
       <c r="O11">
@@ -6280,23 +6280,23 @@
         <v>242499.97</v>
       </c>
       <c r="Q11" s="115">
-        <v>10391.89</v>
+        <v>10471.32</v>
       </c>
       <c r="R11" s="127">
-        <f>(1-(Q14/Q11))</f>
-        <v>1.0796881029341066E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.5854811045790171E-3</v>
       </c>
       <c r="S11" s="116">
-        <f>(N11/$N$57)-1</f>
+        <f>(N11/$N$58)-1</f>
         <v>0.56028819457157697</v>
       </c>
       <c r="T11" s="114">
-        <f>(A11-$A$57)</f>
-        <v>94</v>
+        <f>(A11-$A$58)</f>
+        <v>95</v>
       </c>
       <c r="U11" s="116">
-        <f>((N11/$N$57)-1)/T11*30</f>
-        <v>0.17881538124624796</v>
+        <f>((N11/$N$58)-1)/T11*30</f>
+        <v>0.17693311407523482</v>
       </c>
       <c r="V11" s="116"/>
       <c r="W11" s="116"/>
@@ -6317,195 +6317,195 @@
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="117">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B12">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.553599999999999</v>
+        <v>31.614799999999999</v>
       </c>
       <c r="D12">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>33.882300000000001</v>
+        <v>33.916400000000003</v>
       </c>
       <c r="F12" s="112">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="H12" s="199">
         <v>7500</v>
       </c>
       <c r="I12" s="199">
-        <v>23.4</v>
+        <v>23.62</v>
       </c>
       <c r="J12">
         <v>210</v>
       </c>
       <c r="K12" s="137">
-        <v>659.86404900000002</v>
+        <v>662.49433199999999</v>
       </c>
       <c r="L12">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.80056899999999998</v>
+        <v>0.81506400000000001</v>
       </c>
       <c r="N12" s="113">
-        <f t="shared" ref="N12" si="2">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
-        <v>821269.87306699995</v>
+        <f t="shared" ref="N12" si="3">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
+        <v>827646.85935600009</v>
       </c>
       <c r="O12">
-        <v>143.22999999999999</v>
+        <v>146.61000000000001</v>
       </c>
       <c r="P12">
-        <v>236473.13</v>
+        <v>242499.97</v>
       </c>
       <c r="Q12" s="115">
-        <v>10051.370000000001</v>
+        <v>10391.89</v>
       </c>
       <c r="R12" s="127">
-        <f>(1-(Q14/Q12))</f>
-        <v>-2.2715311445106412E-2</v>
+        <f t="shared" ref="R12:R28" si="4">(1-(Q13/Q12))</f>
+        <v>3.2767860321846976E-2</v>
       </c>
       <c r="S12" s="116">
-        <f>(N12/$N$57)-1</f>
-        <v>0.54826623579629241</v>
+        <f>(N12/$N$58)-1</f>
+        <v>0.56028819457157697</v>
       </c>
       <c r="T12" s="114">
-        <f>(A12-$A$57)</f>
-        <v>92</v>
+        <f>(A12-$A$58)</f>
+        <v>94</v>
       </c>
       <c r="U12" s="116">
-        <f>((N12/$N$57)-1)/T12*30</f>
-        <v>0.17878246819444316</v>
+        <f>((N12/$N$58)-1)/T12*30</f>
+        <v>0.17881538124624796</v>
       </c>
       <c r="V12" s="116"/>
       <c r="W12" s="116"/>
       <c r="X12" s="134"/>
       <c r="Y12" s="134">
-        <v>26.48</v>
+        <v>27.96</v>
       </c>
       <c r="Z12" s="134"/>
       <c r="AA12" s="134">
-        <v>22.34</v>
+        <v>23.6</v>
       </c>
       <c r="AB12">
         <v>10</v>
       </c>
       <c r="AC12" s="115">
-        <v>119</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="117">
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="B13">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C13">
-        <v>31.457999999999998</v>
+        <v>31.553599999999999</v>
       </c>
       <c r="D13">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E13">
-        <v>34.078499999999998</v>
+        <v>33.882300000000001</v>
       </c>
       <c r="F13" s="112">
         <v>156</v>
       </c>
       <c r="G13">
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="H13" s="199">
         <v>7500</v>
       </c>
       <c r="I13" s="199">
-        <v>23.77</v>
+        <v>23.4</v>
       </c>
       <c r="J13">
         <v>210</v>
       </c>
       <c r="K13" s="137">
-        <v>656.34613999999999</v>
+        <v>659.86404900000002</v>
       </c>
       <c r="L13">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M13">
-        <v>0.831233</v>
+        <v>0.80056899999999998</v>
       </c>
       <c r="N13" s="113">
-        <f t="shared" ref="N13" si="3">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
-        <v>827937.01061500004</v>
+        <f t="shared" ref="N13" si="5">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
+        <v>821269.87306699995</v>
       </c>
       <c r="O13">
-        <v>148.11000000000001</v>
+        <v>143.22999999999999</v>
       </c>
       <c r="P13">
-        <v>243928.95</v>
+        <v>236473.13</v>
       </c>
       <c r="Q13" s="115">
-        <v>10186.83</v>
+        <v>10051.370000000001</v>
       </c>
       <c r="R13" s="127">
-        <f t="shared" ref="R13:R27" si="4">(1-(Q14/Q13))</f>
-        <v>-9.1156915350507628E-3</v>
+        <f t="shared" si="4"/>
+        <v>-1.3476769833365987E-2</v>
       </c>
       <c r="S13" s="116">
-        <f t="shared" ref="S13" si="5">(N13/$N$57)-1</f>
-        <v>0.56083519064718579</v>
+        <f>(N13/$N$58)-1</f>
+        <v>0.54826623579629241</v>
       </c>
       <c r="T13" s="114">
-        <f t="shared" ref="T13" si="6">(A13-$A$57)</f>
-        <v>88</v>
+        <f>(A13-$A$58)</f>
+        <v>92</v>
       </c>
       <c r="U13" s="116">
-        <f>((N13/$N$57)-1)/T13*30</f>
-        <v>0.1911938149933588</v>
+        <f>((N13/$N$58)-1)/T13*30</f>
+        <v>0.17878246819444316</v>
       </c>
       <c r="V13" s="116"/>
       <c r="W13" s="116"/>
       <c r="X13" s="134"/>
       <c r="Y13" s="134">
-        <v>27.46</v>
+        <v>26.48</v>
       </c>
       <c r="Z13" s="134"/>
       <c r="AA13" s="134">
-        <v>23.46</v>
+        <v>22.34</v>
       </c>
       <c r="AB13">
         <v>10</v>
       </c>
       <c r="AC13" s="115">
-        <v>122.4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="117">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B14">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C14">
         <v>31.457999999999998</v>
       </c>
       <c r="D14">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E14">
@@ -6530,14 +6530,14 @@
         <v>656.34613999999999</v>
       </c>
       <c r="L14">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M14">
         <v>0.831233</v>
       </c>
       <c r="N14" s="113">
-        <f t="shared" ref="N14" si="7">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
+        <f t="shared" ref="N14" si="6">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
         <v>827937.01061500004</v>
       </c>
       <c r="O14">
@@ -6547,23 +6547,23 @@
         <v>243928.95</v>
       </c>
       <c r="Q14" s="115">
-        <v>10279.69</v>
+        <v>10186.83</v>
       </c>
       <c r="R14" s="127">
         <f t="shared" si="4"/>
-        <v>-6.9330884491651812E-3</v>
+        <v>-9.1156915350507628E-3</v>
       </c>
       <c r="S14" s="116">
-        <f>(N14/$N$57)-1</f>
+        <f t="shared" ref="S14" si="7">(N14/$N$58)-1</f>
         <v>0.56083519064718579</v>
       </c>
       <c r="T14" s="114">
-        <f>(A14-$A$57)</f>
-        <v>87</v>
+        <f t="shared" ref="T14" si="8">(A14-$A$58)</f>
+        <v>88</v>
       </c>
       <c r="U14" s="116">
-        <f>((N14/$N$57)-1)/T14*30</f>
-        <v>0.19339144505075373</v>
+        <f>((N14/$N$58)-1)/T14*30</f>
+        <v>0.1911938149933588</v>
       </c>
       <c r="V14" s="116"/>
       <c r="W14" s="116"/>
@@ -6584,462 +6584,462 @@
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="117">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B15">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.783300000000001</v>
+        <v>31.457999999999998</v>
       </c>
       <c r="D15">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>34.557899999999997</v>
+        <v>34.078499999999998</v>
       </c>
       <c r="F15" s="112">
         <v>156</v>
       </c>
       <c r="G15">
-        <v>2330.9299999999998</v>
+        <v>2320.73</v>
       </c>
       <c r="H15" s="199">
         <v>7500</v>
       </c>
       <c r="I15" s="199">
-        <v>24.06</v>
+        <v>23.77</v>
       </c>
       <c r="J15">
         <v>210</v>
       </c>
       <c r="K15" s="137">
-        <v>654.52437399999997</v>
+        <v>656.34613999999999</v>
       </c>
       <c r="L15">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M15">
-        <v>0.79747299999999999</v>
+        <v>0.831233</v>
       </c>
       <c r="N15" s="113">
-        <f t="shared" ref="N15" si="8">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
-        <v>827616.08476100001</v>
+        <f t="shared" ref="N15" si="9">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
+        <v>827937.01061500004</v>
       </c>
       <c r="O15">
-        <v>148.06</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="P15">
-        <v>243565.65</v>
+        <v>243928.95</v>
       </c>
       <c r="Q15" s="115">
-        <v>10350.959999999999</v>
+        <v>10279.69</v>
       </c>
       <c r="R15" s="127">
         <f t="shared" si="4"/>
-        <v>-1.3138877939824489E-3</v>
+        <v>-6.9330884491651812E-3</v>
       </c>
       <c r="S15" s="116">
-        <f>(N15/$N$57)-1</f>
-        <v>0.56023017799514885</v>
+        <f t="shared" ref="S15:S20" si="10">(N15/$N$58)-1</f>
+        <v>0.56083519064718579</v>
       </c>
       <c r="T15" s="114">
-        <f>(A15-$A$57)</f>
-        <v>86</v>
+        <f t="shared" ref="T15:T20" si="11">(A15-$A$58)</f>
+        <v>87</v>
       </c>
       <c r="U15" s="116">
-        <f>((N15/$N$57)-1)/T15*30</f>
-        <v>0.19542913185877286</v>
+        <f>((N15/$N$58)-1)/T15*30</f>
+        <v>0.19339144505075373</v>
       </c>
       <c r="V15" s="116"/>
       <c r="W15" s="116"/>
       <c r="X15" s="134"/>
       <c r="Y15" s="134">
-        <v>29.06</v>
+        <v>27.46</v>
       </c>
       <c r="Z15" s="134"/>
       <c r="AA15" s="134">
-        <v>24.48</v>
+        <v>23.46</v>
       </c>
       <c r="AB15">
         <v>10</v>
       </c>
       <c r="AC15" s="115">
-        <v>119</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="117">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B16">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C16">
-        <v>31.6645</v>
+        <v>31.783300000000001</v>
       </c>
       <c r="D16">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E16">
-        <v>34.409799999999997</v>
+        <v>34.557899999999997</v>
       </c>
       <c r="F16" s="112">
         <v>156</v>
       </c>
       <c r="G16">
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="H16" s="199">
         <v>7500</v>
       </c>
       <c r="I16" s="199">
-        <v>23.89</v>
+        <v>24.06</v>
       </c>
       <c r="J16">
         <v>210</v>
       </c>
       <c r="K16" s="137">
-        <v>653.60767299999998</v>
+        <v>654.52437399999997</v>
       </c>
       <c r="L16">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M16">
-        <v>0.79912700000000003</v>
+        <v>0.79747299999999999</v>
       </c>
       <c r="N16" s="113">
-        <f t="shared" ref="N16" si="9">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
-        <v>824375.53283199994</v>
+        <f t="shared" ref="N16" si="12">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
+        <v>827616.08476100001</v>
       </c>
       <c r="O16">
-        <v>146.71</v>
+        <v>148.06</v>
       </c>
       <c r="P16">
-        <v>241190.1</v>
+        <v>243565.65</v>
       </c>
       <c r="Q16" s="115">
-        <v>10364.56</v>
+        <v>10350.959999999999</v>
       </c>
       <c r="R16" s="127">
         <f t="shared" si="4"/>
-        <v>-3.4656560432859695E-3</v>
+        <v>-1.3138877939824489E-3</v>
       </c>
       <c r="S16" s="116">
-        <f>(N16/$N$57)-1</f>
-        <v>0.55412105686267799</v>
+        <f t="shared" si="10"/>
+        <v>0.56023017799514885</v>
       </c>
       <c r="T16" s="114">
-        <f>(A16-$A$57)</f>
-        <v>85</v>
+        <f t="shared" si="11"/>
+        <v>86</v>
       </c>
       <c r="U16" s="116">
-        <f>((N16/$N$57)-1)/T16*30</f>
-        <v>0.1955721377162393</v>
+        <f>((N16/$N$58)-1)/T16*30</f>
+        <v>0.19542913185877286</v>
       </c>
       <c r="V16" s="116"/>
       <c r="W16" s="116"/>
       <c r="X16" s="134"/>
       <c r="Y16" s="134">
-        <v>30.58</v>
+        <v>29.06</v>
       </c>
       <c r="Z16" s="134"/>
       <c r="AA16" s="134">
-        <v>26.14</v>
+        <v>24.48</v>
       </c>
       <c r="AB16">
         <v>10</v>
       </c>
       <c r="AC16" s="115">
-        <v>114.6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="117">
-        <v>45443</v>
+        <v>45447</v>
       </c>
       <c r="B17">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C17">
-        <v>31.576599999999999</v>
+        <v>31.6645</v>
       </c>
       <c r="D17">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E17">
-        <v>34.157400000000003</v>
+        <v>34.409799999999997</v>
       </c>
       <c r="F17" s="112">
         <v>156</v>
       </c>
       <c r="G17">
-        <v>2324.5500000000002</v>
+        <v>2319.39</v>
       </c>
       <c r="H17" s="199">
         <v>7500</v>
       </c>
       <c r="I17" s="199">
-        <v>24.04</v>
+        <v>23.89</v>
       </c>
       <c r="J17">
         <v>210</v>
       </c>
       <c r="K17" s="137">
-        <v>649.96368099999995</v>
+        <v>653.60767299999998</v>
       </c>
       <c r="L17">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M17">
-        <v>0.80517899999999998</v>
+        <v>0.79912700000000003</v>
       </c>
       <c r="N17" s="113">
-        <f t="shared" ref="N17" si="10">(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)+(J17*K17)</f>
-        <v>826117.91523599997</v>
+        <f t="shared" ref="N17" si="13">(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)+(J17*K17)</f>
+        <v>824375.53283199994</v>
       </c>
       <c r="O17">
-        <v>147.47</v>
+        <v>146.71</v>
       </c>
       <c r="P17">
-        <v>241854.59</v>
+        <v>241190.1</v>
       </c>
       <c r="Q17" s="115">
-        <v>10400.48</v>
+        <v>10364.56</v>
       </c>
       <c r="R17" s="127">
         <f t="shared" si="4"/>
-        <v>-7.7707951940679809E-3</v>
+        <v>-3.4656560432859695E-3</v>
       </c>
       <c r="S17" s="116">
-        <f>(N17/$N$57)-1</f>
-        <v>0.55740581371840481</v>
+        <f t="shared" si="10"/>
+        <v>0.55412105686267799</v>
       </c>
       <c r="T17" s="114">
-        <f>(A17-$A$57)</f>
-        <v>81</v>
+        <f t="shared" si="11"/>
+        <v>85</v>
       </c>
       <c r="U17" s="116">
-        <f>((N17/$N$57)-1)/T17*30</f>
-        <v>0.20644659767348328</v>
+        <f>((N17/$N$58)-1)/T17*30</f>
+        <v>0.1955721377162393</v>
       </c>
       <c r="V17" s="116"/>
       <c r="W17" s="116"/>
       <c r="X17" s="134"/>
       <c r="Y17" s="134">
-        <v>27.94</v>
+        <v>30.58</v>
       </c>
       <c r="Z17" s="134"/>
       <c r="AA17" s="134">
-        <v>24.08</v>
+        <v>26.14</v>
       </c>
       <c r="AB17">
         <v>10</v>
       </c>
       <c r="AC17" s="115">
-        <v>116</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="117">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B18">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>31.554500000000001</v>
+        <v>31.576599999999999</v>
       </c>
       <c r="D18">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>34.104100000000003</v>
+        <v>34.157400000000003</v>
       </c>
       <c r="F18" s="112">
         <v>156</v>
       </c>
       <c r="G18">
-        <v>2317.36</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="H18" s="199">
         <v>7500</v>
       </c>
       <c r="I18" s="199">
-        <v>24</v>
+        <v>24.04</v>
       </c>
       <c r="J18">
         <v>210</v>
       </c>
       <c r="K18" s="137">
-        <v>649.05997200000002</v>
+        <v>649.96368099999995</v>
       </c>
       <c r="L18">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M18">
-        <v>0.78746400000000005</v>
+        <v>0.80517899999999998</v>
       </c>
       <c r="N18" s="113">
-        <f t="shared" ref="N18" si="11">(F18*G18)+(B18*C18)+(D18*E18)+(L18*M18)+(H18*I18)+(J18*K18)</f>
-        <v>822250.4282790001</v>
+        <f t="shared" ref="N18" si="14">(F18*G18)+(B18*C18)+(D18*E18)+(L18*M18)+(H18*I18)+(J18*K18)</f>
+        <v>826117.91523599997</v>
       </c>
       <c r="O18">
-        <v>145.25</v>
+        <v>147.47</v>
       </c>
       <c r="P18">
-        <v>238057.84</v>
+        <v>241854.59</v>
       </c>
       <c r="Q18" s="115">
-        <v>10481.299999999999</v>
+        <v>10400.48</v>
       </c>
       <c r="R18" s="127">
         <f t="shared" si="4"/>
-        <v>-3.2018928949655301E-3</v>
+        <v>-7.7707951940679809E-3</v>
       </c>
       <c r="S18" s="116">
-        <f>(N18/$N$57)-1</f>
-        <v>0.55011478835722394</v>
+        <f t="shared" si="10"/>
+        <v>0.55740581371840481</v>
       </c>
       <c r="T18" s="114">
-        <f>(A18-$A$57)</f>
-        <v>80</v>
+        <f t="shared" si="11"/>
+        <v>81</v>
       </c>
       <c r="U18" s="116">
-        <f>((N18/$N$57)-1)/T18*30</f>
-        <v>0.20629304563395898</v>
+        <f>((N18/$N$58)-1)/T18*30</f>
+        <v>0.20644659767348328</v>
       </c>
       <c r="V18" s="116"/>
       <c r="W18" s="116"/>
       <c r="X18" s="134"/>
       <c r="Y18" s="134">
-        <v>28.24</v>
+        <v>27.94</v>
       </c>
       <c r="Z18" s="134"/>
       <c r="AA18" s="134">
-        <v>24.78</v>
+        <v>24.08</v>
       </c>
       <c r="AB18">
         <v>10</v>
       </c>
       <c r="AC18" s="115">
-        <v>119.1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="117">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B19">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>31.4527</v>
+        <v>31.554500000000001</v>
       </c>
       <c r="D19">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>34.006700000000002</v>
+        <v>34.104100000000003</v>
       </c>
       <c r="F19" s="112">
         <v>156</v>
       </c>
       <c r="G19">
-        <v>2331.79</v>
+        <v>2317.36</v>
       </c>
       <c r="H19" s="199">
         <v>7500</v>
       </c>
       <c r="I19" s="199">
-        <v>23.99</v>
+        <v>24</v>
       </c>
       <c r="J19">
         <v>210</v>
       </c>
-      <c r="K19">
-        <v>648.15704900000003</v>
+      <c r="K19" s="137">
+        <v>649.05997200000002</v>
       </c>
       <c r="L19">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M19">
-        <v>0.81522399999999995</v>
+        <v>0.78746400000000005</v>
       </c>
       <c r="N19" s="113">
-        <f t="shared" ref="N19" si="12">(F19*G19)+(B19*C19)+(D19*E19)+(L19*M19)+(H19*I19)+(J19*K19)</f>
-        <v>827562.53462299996</v>
+        <f t="shared" ref="N19" si="15">(F19*G19)+(B19*C19)+(D19*E19)+(L19*M19)+(H19*I19)+(J19*K19)</f>
+        <v>822250.4282790001</v>
       </c>
       <c r="O19">
-        <v>148.58000000000001</v>
+        <v>145.25</v>
       </c>
       <c r="P19">
-        <v>243375.9</v>
+        <v>238057.84</v>
       </c>
       <c r="Q19" s="115">
-        <v>10514.86</v>
+        <v>10481.299999999999</v>
       </c>
       <c r="R19" s="127">
         <f t="shared" si="4"/>
-        <v>-1.5466682390445463E-2</v>
+        <v>-3.2018928949655301E-3</v>
       </c>
       <c r="S19" s="116">
-        <f>(N19/$N$57)-1</f>
-        <v>0.56012922473568239</v>
+        <f t="shared" si="10"/>
+        <v>0.55011478835722394</v>
       </c>
       <c r="T19" s="114">
-        <f>(A19-$A$57)</f>
-        <v>79</v>
+        <f t="shared" si="11"/>
+        <v>80</v>
       </c>
       <c r="U19" s="116">
-        <f>((N19/$N$57)-1)/T19*30</f>
-        <v>0.21270730053253761</v>
+        <f>((N19/$N$58)-1)/T19*30</f>
+        <v>0.20629304563395898</v>
       </c>
       <c r="V19" s="116"/>
       <c r="W19" s="116"/>
       <c r="X19" s="134"/>
       <c r="Y19" s="134">
-        <v>28.18</v>
+        <v>28.24</v>
       </c>
       <c r="Z19" s="134"/>
       <c r="AA19" s="134">
-        <v>24.8</v>
+        <v>24.78</v>
       </c>
       <c r="AB19">
         <v>10</v>
       </c>
       <c r="AC19" s="115">
-        <v>119.6</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="117">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="B20">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C20">
         <v>31.4527</v>
       </c>
       <c r="D20">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E20">
@@ -7061,43 +7061,43 @@
         <v>210</v>
       </c>
       <c r="K20">
-        <v>647.25598100000002</v>
+        <v>648.15704900000003</v>
       </c>
       <c r="L20">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M20">
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="N20" s="113">
-        <f t="shared" si="0"/>
-        <v>833145.31034299999</v>
+        <f t="shared" ref="N20" si="16">(F20*G20)+(B20*C20)+(D20*E20)+(L20*M20)+(H20*I20)+(J20*K20)</f>
+        <v>827562.53462299996</v>
       </c>
       <c r="O20">
-        <v>153.71</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="P20">
-        <v>251476.74</v>
+        <v>243375.9</v>
       </c>
       <c r="Q20" s="115">
-        <v>10677.49</v>
+        <v>10514.86</v>
       </c>
       <c r="R20" s="127">
         <f t="shared" si="4"/>
-        <v>1.9227365232841187E-3</v>
+        <v>-1.5466682390445463E-2</v>
       </c>
       <c r="S20" s="116">
-        <f t="shared" ref="S20" si="13">(N20/$N$57)-1</f>
-        <v>0.57065392974771467</v>
+        <f t="shared" si="10"/>
+        <v>0.56012922473568239</v>
       </c>
       <c r="T20" s="114">
-        <f t="shared" ref="T20" si="14">(A20-$A$57)</f>
-        <v>78</v>
+        <f t="shared" si="11"/>
+        <v>79</v>
       </c>
       <c r="U20" s="116">
-        <f>((N20/$N$57)-1)/T20*30</f>
-        <v>0.21948228067219797</v>
+        <f>((N20/$N$58)-1)/T20*30</f>
+        <v>0.21270730053253761</v>
       </c>
       <c r="V20" s="116"/>
       <c r="W20" s="116"/>
@@ -7118,42 +7118,42 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="117">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="B21">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.436</v>
+        <v>31.4527</v>
       </c>
       <c r="D21">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.100200000000001</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F21" s="112">
         <v>156</v>
       </c>
       <c r="G21">
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="H21" s="199">
         <v>7500</v>
       </c>
       <c r="I21" s="199">
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="J21">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K21">
-        <v>646.30405299999995</v>
+        <v>647.25598100000002</v>
       </c>
       <c r="L21">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M21">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="N21" s="113">
         <f t="shared" si="0"/>
-        <v>719037.96498799999</v>
+        <v>833145.31034299999</v>
       </c>
       <c r="O21">
         <v>153.71</v>
@@ -7170,354 +7170,354 @@
         <v>251476.74</v>
       </c>
       <c r="Q21" s="115">
-        <v>10656.96</v>
+        <v>10677.49</v>
       </c>
       <c r="R21" s="127">
         <f t="shared" si="4"/>
-        <v>-1.8476188331382204E-3</v>
+        <v>1.9227365232841187E-3</v>
       </c>
       <c r="S21" s="116">
-        <f t="shared" ref="S21" si="15">(N21/$N$57)-1</f>
-        <v>0.35553761309807119</v>
+        <f t="shared" ref="S21" si="17">(N21/$N$58)-1</f>
+        <v>0.57065392974771467</v>
       </c>
       <c r="T21" s="114">
-        <f t="shared" ref="T21" si="16">(A21-$A$57)</f>
-        <v>77</v>
+        <f t="shared" ref="T21" si="18">(A21-$A$58)</f>
+        <v>78</v>
       </c>
       <c r="U21" s="116">
-        <f>((N21/$N$57)-1)/T21*30</f>
-        <v>0.13852114796028747</v>
+        <f>((N21/$N$58)-1)/T21*30</f>
+        <v>0.21948228067219797</v>
       </c>
       <c r="V21" s="116"/>
       <c r="W21" s="116"/>
       <c r="X21" s="134"/>
       <c r="Y21" s="134">
-        <v>32.36</v>
+        <v>28.18</v>
       </c>
       <c r="Z21" s="134"/>
       <c r="AA21" s="134">
-        <v>23.08</v>
+        <v>24.8</v>
       </c>
       <c r="AB21">
         <v>10</v>
       </c>
       <c r="AC21" s="115">
-        <v>124</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="117">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="B22">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.4588</v>
+        <v>31.436</v>
       </c>
       <c r="D22">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>34.044699999999999</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="F22" s="112">
         <v>156</v>
       </c>
       <c r="G22">
-        <v>2363.8000000000002</v>
+        <v>2331.41</v>
       </c>
       <c r="H22" s="199">
         <v>7500</v>
       </c>
       <c r="I22" s="199">
-        <v>24.45</v>
+        <v>24.32</v>
       </c>
       <c r="J22">
         <v>30</v>
       </c>
       <c r="K22">
-        <v>642.69199700000001</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="L22">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M22">
-        <v>0.87326400000000004</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N22" s="113">
         <f t="shared" si="0"/>
-        <v>726447.88086300006</v>
+        <v>719037.96498799999</v>
       </c>
       <c r="O22">
-        <v>158.78</v>
+        <v>153.71</v>
       </c>
       <c r="P22">
-        <v>259129.45</v>
+        <v>251476.74</v>
       </c>
       <c r="Q22" s="115">
-        <v>10676.65</v>
+        <v>10656.96</v>
       </c>
       <c r="R22" s="127">
         <f t="shared" si="4"/>
-        <v>-1.4329401076180304E-2</v>
+        <v>-1.8476188331382204E-3</v>
       </c>
       <c r="S22" s="116">
-        <f>(N22/$N$57)-1</f>
-        <v>0.36950686113161924</v>
+        <f t="shared" ref="S22" si="19">(N22/$N$58)-1</f>
+        <v>0.35553761309807119</v>
       </c>
       <c r="T22" s="114">
-        <f>(A22-$A$57)</f>
-        <v>73</v>
+        <f t="shared" ref="T22" si="20">(A22-$A$58)</f>
+        <v>77</v>
       </c>
       <c r="U22" s="116">
-        <f>((N22/$N$57)-1)/T22*30</f>
-        <v>0.15185213471162434</v>
+        <f>((N22/$N$58)-1)/T22*30</f>
+        <v>0.13852114796028747</v>
       </c>
       <c r="V22" s="116"/>
       <c r="W22" s="116"/>
       <c r="X22" s="134"/>
       <c r="Y22" s="134">
-        <v>34.299999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="Z22" s="134"/>
       <c r="AA22" s="134">
-        <v>27.92</v>
+        <v>23.08</v>
       </c>
       <c r="AB22">
         <v>10</v>
       </c>
       <c r="AC22" s="115">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="117">
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="B23">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.469899999999999</v>
+        <v>31.4588</v>
       </c>
       <c r="D23">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>34.182699999999997</v>
+        <v>34.044699999999999</v>
       </c>
       <c r="F23" s="112">
         <v>156</v>
       </c>
       <c r="G23">
-        <v>2416.92</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="H23" s="199">
         <v>7500</v>
       </c>
       <c r="I23" s="199">
-        <v>24.91</v>
+        <v>24.45</v>
       </c>
       <c r="J23">
         <v>30</v>
       </c>
       <c r="K23">
-        <v>641.00899600000002</v>
+        <v>642.69199700000001</v>
       </c>
       <c r="L23">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.86580400000000002</v>
+        <v>0.87326400000000004</v>
       </c>
       <c r="N23" s="113">
         <f t="shared" si="0"/>
-        <v>737258.36645300011</v>
+        <v>726447.88086300006</v>
       </c>
       <c r="O23">
-        <v>165.69</v>
+        <v>158.78</v>
       </c>
       <c r="P23">
-        <v>269993.23</v>
+        <v>259129.45</v>
       </c>
       <c r="Q23" s="115">
-        <v>10829.64</v>
+        <v>10676.65</v>
       </c>
       <c r="R23" s="127">
         <f t="shared" si="4"/>
-        <v>8.3169892997366768E-3</v>
+        <v>-1.4329401076180304E-2</v>
       </c>
       <c r="S23" s="116">
-        <f>(N23/$N$57)-1</f>
-        <v>0.38988689743936056</v>
+        <f>(N23/$N$58)-1</f>
+        <v>0.36950686113161924</v>
       </c>
       <c r="T23" s="114">
-        <f>(A23-$A$57)</f>
-        <v>71</v>
+        <f>(A23-$A$58)</f>
+        <v>73</v>
       </c>
       <c r="U23" s="116">
-        <f>((N23/$N$57)-1)/T23*30</f>
-        <v>0.16474094258001151</v>
+        <f>((N23/$N$58)-1)/T23*30</f>
+        <v>0.15185213471162434</v>
       </c>
       <c r="V23" s="116"/>
       <c r="W23" s="116"/>
       <c r="X23" s="134"/>
       <c r="Y23" s="134">
-        <v>34.799999999999997</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z23" s="134"/>
       <c r="AA23" s="134">
-        <v>28.52</v>
+        <v>27.92</v>
       </c>
       <c r="AB23">
         <v>10</v>
       </c>
       <c r="AC23" s="115">
-        <v>123.5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="117">
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="B24">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.5244</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="D24">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>34.005400000000002</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="F24" s="112">
         <v>156</v>
       </c>
       <c r="G24">
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="H24" s="199">
         <v>7500</v>
       </c>
       <c r="I24" s="199">
-        <v>24.41</v>
+        <v>24.91</v>
       </c>
       <c r="J24">
         <v>30</v>
       </c>
       <c r="K24">
-        <v>634.98375399999998</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="L24">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M24">
-        <v>0.84950000000000003</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="N24" s="113">
         <f t="shared" si="0"/>
-        <v>720006.41536600015</v>
+        <v>737258.36645300011</v>
       </c>
       <c r="O24">
-        <v>158.43</v>
+        <v>165.69</v>
       </c>
       <c r="P24">
-        <v>256973.54</v>
+        <v>269993.23</v>
       </c>
       <c r="Q24" s="115">
-        <v>10739.57</v>
+        <v>10829.64</v>
       </c>
       <c r="R24" s="127">
         <f t="shared" si="4"/>
-        <v>5.0241303888330702E-2</v>
+        <v>8.3169892997366768E-3</v>
       </c>
       <c r="S24" s="116">
-        <f>(N24/$N$57)-1</f>
-        <v>0.35736334550403681</v>
+        <f>(N24/$N$58)-1</f>
+        <v>0.38988689743936056</v>
       </c>
       <c r="T24" s="114">
-        <f>(A24-$A$57)</f>
-        <v>64</v>
+        <f>(A24-$A$58)</f>
+        <v>71</v>
       </c>
       <c r="U24" s="116">
-        <f>((N24/$N$57)-1)/T24*30</f>
-        <v>0.16751406820501724</v>
+        <f>((N24/$N$58)-1)/T24*30</f>
+        <v>0.16474094258001151</v>
       </c>
       <c r="V24" s="116"/>
       <c r="W24" s="116"/>
       <c r="X24" s="134"/>
       <c r="Y24" s="134">
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Z24" s="134"/>
       <c r="AA24" s="134">
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AB24">
         <v>10</v>
       </c>
       <c r="AC24" s="115">
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="117">
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="B25">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>31.371600000000001</v>
+        <v>31.5244</v>
       </c>
       <c r="D25">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>33.871899999999997</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F25" s="112">
         <v>156</v>
       </c>
       <c r="G25">
-        <v>2341.31</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H25" s="199">
         <v>7500</v>
       </c>
       <c r="I25" s="199">
-        <v>24.47</v>
+        <v>24.41</v>
       </c>
       <c r="J25">
         <v>30</v>
       </c>
       <c r="K25">
-        <v>634.10149999999999</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L25">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M25">
-        <v>0.88511899999999999</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N25" s="113">
-        <f t="shared" ref="N25:N33" si="17">(F25*G25)+(B25*C25)+(D25*E25)+(L25*M25)+(H25*I25)+(J25*K25)</f>
-        <v>724161.16908100003</v>
+        <f t="shared" si="0"/>
+        <v>720006.41536600015</v>
       </c>
       <c r="O25">
         <v>158.43</v>
@@ -7526,23 +7526,23 @@
         <v>256973.54</v>
       </c>
       <c r="Q25" s="115">
-        <v>10200</v>
+        <v>10739.57</v>
       </c>
       <c r="R25" s="127">
         <f t="shared" si="4"/>
-        <v>-6.7235294117646838E-3</v>
+        <v>5.0241303888330702E-2</v>
       </c>
       <c r="S25" s="116">
-        <f>(N25/$N$57)-1</f>
-        <v>0.36519592905049159</v>
+        <f>(N25/$N$58)-1</f>
+        <v>0.35736334550403681</v>
       </c>
       <c r="T25" s="114">
-        <f>(A25-$A$57)</f>
-        <v>63</v>
+        <f>(A25-$A$58)</f>
+        <v>64</v>
       </c>
       <c r="U25" s="116">
-        <f>((N25/$N$57)-1)/T25*30</f>
-        <v>0.17390282335737695</v>
+        <f>((N25/$N$58)-1)/T25*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V25" s="116"/>
       <c r="W25" s="116"/>
@@ -7563,139 +7563,139 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="117">
-        <v>45421</v>
+        <v>45425</v>
       </c>
       <c r="B26">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.712</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D26">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>34.055500000000002</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F26" s="112">
         <v>156</v>
       </c>
       <c r="G26">
-        <v>2333.16</v>
+        <v>2341.31</v>
       </c>
       <c r="H26" s="199">
         <v>7500</v>
       </c>
       <c r="I26" s="199">
-        <v>24.39</v>
+        <v>24.47</v>
       </c>
       <c r="J26">
         <v>30</v>
       </c>
       <c r="K26">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L26">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M26">
-        <v>0.90642500000000004</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N26" s="113">
-        <f t="shared" si="17"/>
-        <v>725052.22388499998</v>
+        <f t="shared" ref="N26:N34" si="21">(F26*G26)+(B26*C26)+(D26*E26)+(L26*M26)+(H26*I26)+(J26*K26)</f>
+        <v>724161.16908100003</v>
       </c>
       <c r="O26">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P26">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q26" s="115">
-        <v>10268.58</v>
+        <v>10200</v>
       </c>
       <c r="R26" s="127">
         <f t="shared" si="4"/>
-        <v>2.1701150499874422E-2</v>
+        <v>-6.7235294117646838E-3</v>
       </c>
       <c r="S26" s="116">
-        <f>(N26/$N$57)-1</f>
-        <v>0.36687575454089361</v>
+        <f>(N26/$N$58)-1</f>
+        <v>0.36519592905049159</v>
       </c>
       <c r="T26" s="114">
-        <f>(A26-$A$57)</f>
-        <v>59</v>
+        <f>(A26-$A$58)</f>
+        <v>63</v>
       </c>
       <c r="U26" s="116">
-        <f>((N26/$N$57)-1)/T26*30</f>
-        <v>0.18654699383435269</v>
+        <f>((N26/$N$58)-1)/T26*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V26" s="116"/>
       <c r="W26" s="116"/>
       <c r="X26" s="134"/>
       <c r="Y26" s="134">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z26" s="134"/>
       <c r="AA26" s="134">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB26">
         <v>10</v>
       </c>
       <c r="AC26" s="115">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="117">
-        <v>45412</v>
+        <v>45421</v>
       </c>
       <c r="B27">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>31.771699999999999</v>
+        <v>31.712</v>
       </c>
       <c r="D27">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>34.014699999999998</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F27" s="112">
         <v>156</v>
       </c>
       <c r="G27">
-        <v>2341.2800000000002</v>
+        <v>2333.16</v>
       </c>
       <c r="H27" s="199">
         <v>7500</v>
       </c>
       <c r="I27" s="199">
-        <v>24.71</v>
+        <v>24.39</v>
       </c>
       <c r="J27">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K27">
         <v>622.84294799999998</v>
       </c>
       <c r="L27">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M27">
-        <v>0.90242599999999995</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N27" s="113">
-        <f t="shared" si="17"/>
-        <v>769379.83326099999</v>
+        <f t="shared" si="21"/>
+        <v>725052.22388499998</v>
       </c>
       <c r="O27">
         <v>167.1</v>
@@ -7704,29 +7704,29 @@
         <v>268201.53000000003</v>
       </c>
       <c r="Q27" s="115">
-        <v>10045.74</v>
+        <v>10268.58</v>
       </c>
       <c r="R27" s="127">
         <f t="shared" si="4"/>
-        <v>1.2952754102733999E-2</v>
+        <v>2.1701150499874422E-2</v>
       </c>
       <c r="S27" s="116">
-        <f t="shared" ref="S27" si="18">(N27/$N$57)-1</f>
-        <v>0.45044261016428133</v>
+        <f>(N27/$N$58)-1</f>
+        <v>0.36687575454089361</v>
       </c>
       <c r="T27" s="114">
-        <f t="shared" ref="T27" si="19">(A27-$A$57)</f>
-        <v>50</v>
+        <f>(A27-$A$58)</f>
+        <v>59</v>
       </c>
       <c r="U27" s="116">
-        <f>((N27/$N$57)-1)/T27*30</f>
-        <v>0.27026556609856883</v>
+        <f>((N27/$N$58)-1)/T27*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V27" s="116"/>
       <c r="W27" s="116"/>
       <c r="X27" s="134"/>
       <c r="Y27" s="134">
-        <v>37.39</v>
+        <v>37.4</v>
       </c>
       <c r="Z27" s="134"/>
       <c r="AA27" s="134">
@@ -7736,106 +7736,111 @@
         <v>10</v>
       </c>
       <c r="AC27" s="115">
-        <v>125.1</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="117">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B28">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C28">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D28">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E28">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F28" s="112">
         <v>156</v>
       </c>
       <c r="G28">
-        <v>2384.1799999999998</v>
+        <v>2341.2800000000002</v>
       </c>
       <c r="H28" s="199">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I28" s="199">
-        <v>24.91</v>
+        <v>24.71</v>
+      </c>
+      <c r="J28">
+        <v>96</v>
+      </c>
+      <c r="K28">
+        <v>622.84294799999998</v>
       </c>
       <c r="L28">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M28">
-        <v>0.89855499999999999</v>
+        <v>0.90242599999999995</v>
       </c>
       <c r="N28" s="113">
-        <f t="shared" si="17"/>
-        <v>655301.58439900004</v>
+        <f t="shared" si="21"/>
+        <v>769379.83326099999</v>
       </c>
       <c r="O28">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P28">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q28" s="115">
-        <v>9915.6200000000008</v>
+        <v>10045.74</v>
       </c>
       <c r="R28" s="127">
-        <f t="shared" ref="R28:R34" si="20">(1-(Q29/Q28))</f>
-        <v>2.5330740790792672E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.2952754102733999E-2</v>
       </c>
       <c r="S28" s="116">
-        <f t="shared" ref="S28:S57" si="21">(N28/$N$57)-1</f>
-        <v>0.23538114651627517</v>
+        <f t="shared" ref="S28" si="22">(N28/$N$58)-1</f>
+        <v>0.45044261016428133</v>
       </c>
       <c r="T28" s="114">
-        <f t="shared" ref="T28:T57" si="22">(A28-$A$57)</f>
-        <v>49</v>
+        <f t="shared" ref="T28" si="23">(A28-$A$58)</f>
+        <v>50</v>
       </c>
       <c r="U28" s="116">
-        <f>((N28/$N$57)-1)/T28*30</f>
-        <v>0.14411090603037255</v>
+        <f>((N28/$N$58)-1)/T28*30</f>
+        <v>0.27026556609856883</v>
       </c>
       <c r="V28" s="116"/>
       <c r="W28" s="116"/>
-      <c r="X28" s="112">
-        <v>35</v>
-      </c>
-      <c r="Y28" s="128">
-        <f>Y31</f>
+      <c r="X28" s="134"/>
+      <c r="Y28" s="134">
         <v>37.39</v>
       </c>
-      <c r="Z28" s="112">
-        <v>40</v>
-      </c>
-      <c r="AA28" s="128">
-        <f>AA31</f>
+      <c r="Z28" s="134"/>
+      <c r="AA28" s="134">
         <v>30.5</v>
       </c>
-      <c r="AB28"/>
+      <c r="AB28">
+        <v>10</v>
+      </c>
+      <c r="AC28" s="115">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="117">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B29">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C29">
         <v>31.948</v>
       </c>
       <c r="D29">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E29">
@@ -7848,21 +7853,21 @@
         <v>2384.1799999999998</v>
       </c>
       <c r="H29" s="199">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="I29" s="199">
-        <v>25.11</v>
+        <v>24.91</v>
       </c>
       <c r="L29">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M29">
-        <v>0.89607400000000004</v>
+        <v>0.89855499999999999</v>
       </c>
       <c r="N29" s="113">
-        <f t="shared" si="17"/>
-        <v>593216.45939900004</v>
+        <f t="shared" si="21"/>
+        <v>655301.58439900004</v>
       </c>
       <c r="O29">
         <v>167.61</v>
@@ -7871,195 +7876,198 @@
         <v>269021.68</v>
       </c>
       <c r="Q29" s="115">
-        <v>9664.4500000000007</v>
+        <v>9915.6200000000008</v>
       </c>
       <c r="R29" s="127">
-        <f t="shared" si="20"/>
-        <v>-5.7478697701369708E-3</v>
+        <f t="shared" ref="R29:R35" si="24">(1-(Q30/Q29))</f>
+        <v>2.5330740790792672E-2</v>
       </c>
       <c r="S29" s="116">
-        <f t="shared" si="21"/>
-        <v>0.11833764360082077</v>
+        <f t="shared" ref="S29:S58" si="25">(N29/$N$58)-1</f>
+        <v>0.23538114651627517</v>
       </c>
       <c r="T29" s="114">
-        <f t="shared" si="22"/>
-        <v>46</v>
+        <f t="shared" ref="T29:T58" si="26">(A29-$A$58)</f>
+        <v>49</v>
       </c>
       <c r="U29" s="116">
-        <f>((N29/$N$57)-1)/T29*30</f>
-        <v>7.7176724087491808E-2</v>
+        <f>((N29/$N$58)-1)/T29*30</f>
+        <v>0.14411090603037255</v>
       </c>
       <c r="V29" s="116"/>
       <c r="W29" s="116"/>
-      <c r="X29" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y29" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z29" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA29" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB29">
-        <v>10</v>
-      </c>
-      <c r="AC29" s="115">
-        <v>148.5</v>
-      </c>
+      <c r="X29" s="112">
+        <v>35</v>
+      </c>
+      <c r="Y29" s="128">
+        <f>Y32</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z29" s="112">
+        <v>40</v>
+      </c>
+      <c r="AA29" s="128">
+        <f>AA32</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB29"/>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="117">
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="B30">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>32.0291</v>
+        <v>31.948</v>
       </c>
       <c r="D30">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>34.322299999999998</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F30" s="112">
         <v>156</v>
       </c>
       <c r="G30">
-        <v>2368.4699999999998</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H30" s="199">
+        <v>2500</v>
+      </c>
+      <c r="I30" s="199">
+        <v>25.11</v>
       </c>
       <c r="L30">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M30">
-        <v>0.90609700000000004</v>
+        <v>0.89607400000000004</v>
       </c>
       <c r="N30" s="113">
-        <f t="shared" si="17"/>
-        <v>529347.18337699992</v>
+        <f t="shared" si="21"/>
+        <v>593216.45939900004</v>
       </c>
       <c r="O30">
-        <v>167.13</v>
+        <v>167.61</v>
       </c>
       <c r="P30">
-        <v>268083.81</v>
+        <v>269021.68</v>
       </c>
       <c r="Q30" s="115">
-        <v>9720</v>
+        <v>9664.4500000000007</v>
       </c>
       <c r="R30" s="127">
-        <f t="shared" si="20"/>
-        <v>-2.1502057613176362E-4</v>
+        <f t="shared" si="24"/>
+        <v>-5.7478697701369708E-3</v>
       </c>
       <c r="S30" s="116">
-        <f t="shared" si="21"/>
-        <v>-2.0693587896702947E-3</v>
+        <f t="shared" si="25"/>
+        <v>0.11833764360082077</v>
       </c>
       <c r="T30" s="114">
-        <f t="shared" si="22"/>
-        <v>45</v>
+        <f t="shared" si="26"/>
+        <v>46</v>
       </c>
       <c r="U30" s="116">
-        <f>((N30/$N$57)-1)/T30*30</f>
-        <v>-1.379572526446863E-3</v>
+        <f>((N30/$N$58)-1)/T30*30</f>
+        <v>7.7176724087491808E-2</v>
       </c>
       <c r="V30" s="116"/>
       <c r="W30" s="116"/>
-      <c r="X30" s="112"/>
-      <c r="Y30" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z30" s="112"/>
-      <c r="AA30" s="130" t="s">
-        <v>69</v>
+      <c r="X30" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y30" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z30" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA30" s="129" t="s">
+        <v>68</v>
       </c>
       <c r="AB30">
         <v>10</v>
       </c>
       <c r="AC30" s="115">
-        <v>135</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="117">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="B31">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>31.928699999999999</v>
+        <v>32.0291</v>
       </c>
       <c r="D31">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>33.972000000000001</v>
+        <v>34.322299999999998</v>
       </c>
       <c r="F31" s="112">
         <v>156</v>
       </c>
       <c r="G31">
-        <v>2380.13</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="L31">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.88805999999999996</v>
+        <v>0.90609700000000004</v>
       </c>
       <c r="N31" s="113">
-        <f t="shared" si="17"/>
-        <v>528687.28128</v>
+        <f t="shared" si="21"/>
+        <v>529347.18337699992</v>
       </c>
       <c r="O31">
-        <v>166.96</v>
+        <v>167.13</v>
       </c>
       <c r="P31">
-        <v>267307.03000000003</v>
+        <v>268083.81</v>
       </c>
       <c r="Q31" s="115">
-        <v>9722.09</v>
+        <v>9720</v>
       </c>
       <c r="R31" s="127">
-        <f t="shared" si="20"/>
-        <v>7.927307811386175E-3</v>
+        <f t="shared" si="24"/>
+        <v>-2.1502057613176362E-4</v>
       </c>
       <c r="S31" s="116">
-        <f t="shared" si="21"/>
-        <v>-3.3134128688740994E-3</v>
+        <f t="shared" si="25"/>
+        <v>-2.0693587896702947E-3</v>
       </c>
       <c r="T31" s="114">
-        <f t="shared" si="22"/>
-        <v>44</v>
+        <f t="shared" si="26"/>
+        <v>45</v>
       </c>
       <c r="U31" s="116">
-        <f>((N31/$N$57)-1)/T31*30</f>
-        <v>-2.259145137868704E-3</v>
+        <f>((N31/$N$58)-1)/T31*30</f>
+        <v>-1.379572526446863E-3</v>
       </c>
       <c r="V31" s="116"/>
       <c r="W31" s="116"/>
-      <c r="X31" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y31" s="131">
-        <v>37.39</v>
-      </c>
-      <c r="Z31" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA31" s="131">
-        <v>30.5</v>
+      <c r="X31" s="112"/>
+      <c r="Y31" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="AB31">
         <v>10</v>
@@ -8070,17 +8078,17 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="117">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="B32">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C32">
         <v>31.928699999999999</v>
       </c>
       <c r="D32">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E32">
@@ -8093,14 +8101,14 @@
         <v>2380.13</v>
       </c>
       <c r="L32">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M32">
         <v>0.88805999999999996</v>
       </c>
       <c r="N32" s="113">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>528687.28128</v>
       </c>
       <c r="O32">
@@ -8110,338 +8118,346 @@
         <v>267307.03000000003</v>
       </c>
       <c r="Q32" s="115">
-        <v>9645.02</v>
+        <v>9722.09</v>
       </c>
       <c r="R32" s="127">
-        <f t="shared" si="20"/>
-        <v>-5.0222809283961833E-3</v>
+        <f t="shared" si="24"/>
+        <v>7.927307811386175E-3</v>
       </c>
       <c r="S32" s="116">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T32" s="114">
-        <f t="shared" si="22"/>
-        <v>42</v>
+        <f t="shared" si="26"/>
+        <v>44</v>
       </c>
       <c r="U32" s="116">
-        <f>((N32/$N$57)-1)/T32*30</f>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N32/$N$58)-1)/T32*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V32" s="116"/>
       <c r="W32" s="116"/>
-      <c r="X32" s="112"/>
-      <c r="Y32" s="116" t="e">
+      <c r="X32" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y32" s="131">
+        <v>37.39</v>
+      </c>
+      <c r="Z32" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA32" s="131">
+        <v>30.5</v>
+      </c>
+      <c r="AB32">
+        <v>10</v>
+      </c>
+      <c r="AC32" s="115">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29">
+      <c r="A33" s="117">
+        <v>45404</v>
+      </c>
+      <c r="B33">
+        <f>B65</f>
+        <v>1110</v>
+      </c>
+      <c r="C33">
+        <v>31.928699999999999</v>
+      </c>
+      <c r="D33">
+        <f>D65</f>
+        <v>321.99</v>
+      </c>
+      <c r="E33">
+        <v>33.972000000000001</v>
+      </c>
+      <c r="F33" s="112">
+        <v>156</v>
+      </c>
+      <c r="G33">
+        <v>2380.13</v>
+      </c>
+      <c r="L33">
+        <f>L65</f>
+        <v>125000</v>
+      </c>
+      <c r="M33">
+        <v>0.88805999999999996</v>
+      </c>
+      <c r="N33" s="113">
+        <f t="shared" si="21"/>
+        <v>528687.28128</v>
+      </c>
+      <c r="O33">
+        <v>166.96</v>
+      </c>
+      <c r="P33">
+        <v>267307.03000000003</v>
+      </c>
+      <c r="Q33" s="115">
+        <v>9645.02</v>
+      </c>
+      <c r="R33" s="127">
+        <f t="shared" si="24"/>
+        <v>-5.0222809283961833E-3</v>
+      </c>
+      <c r="S33" s="116">
+        <f t="shared" si="25"/>
+        <v>-3.3134128688740994E-3</v>
+      </c>
+      <c r="T33" s="114">
+        <f t="shared" si="26"/>
+        <v>42</v>
+      </c>
+      <c r="U33" s="116">
+        <f>((N33/$N$58)-1)/T33*30</f>
+        <v>-2.3667234777672141E-3</v>
+      </c>
+      <c r="V33" s="116"/>
+      <c r="W33" s="116"/>
+      <c r="X33" s="112"/>
+      <c r="Y33" s="116" t="e">
         <f>Sayfa2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Z32" s="112"/>
-      <c r="AA32" s="116" t="e">
+      <c r="Z33" s="112"/>
+      <c r="AA33" s="116" t="e">
         <f>Sayfa2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB32" s="112">
+      <c r="AB33" s="112">
         <v>10</v>
       </c>
-      <c r="AC32" s="128">
+      <c r="AC33" s="128">
         <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29">
-      <c r="A33" s="117">
-        <v>45401</v>
-      </c>
-      <c r="B33">
-        <f>B64</f>
-        <v>1110</v>
-      </c>
-      <c r="C33">
-        <v>31.803999999999998</v>
-      </c>
-      <c r="D33">
-        <f>D64</f>
-        <v>321.99</v>
-      </c>
-      <c r="E33">
-        <v>33.928400000000003</v>
-      </c>
-      <c r="F33" s="112">
-        <v>156</v>
-      </c>
-      <c r="G33">
-        <v>2427.62</v>
-      </c>
-      <c r="L33">
-        <f>L64</f>
-        <v>125000</v>
-      </c>
-      <c r="M33">
-        <v>0.87351800000000002</v>
-      </c>
-      <c r="N33" s="113">
-        <f t="shared" si="17"/>
-        <v>534125.51551599998</v>
-      </c>
-      <c r="O33">
-        <v>170.57</v>
-      </c>
-      <c r="P33">
-        <v>272736.27</v>
-      </c>
-      <c r="Q33" s="115">
-        <v>9693.4599999999991</v>
-      </c>
-      <c r="R33" s="127">
-        <f t="shared" si="20"/>
-        <v>1.4091975414350921E-3</v>
-      </c>
-      <c r="S33" s="116">
-        <f t="shared" si="21"/>
-        <v>6.9388010818296486E-3</v>
-      </c>
-      <c r="T33" s="114">
-        <f t="shared" si="22"/>
-        <v>39</v>
-      </c>
-      <c r="U33" s="116">
-        <f>((N33/$N$57)-1)/T33*30</f>
-        <v>5.3375392937151144E-3</v>
-      </c>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y33" s="115">
-        <f>Y31*X28</f>
-        <v>1308.6500000000001</v>
-      </c>
-      <c r="Z33" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA33" s="115">
-        <f>AA31*Z28</f>
-        <v>1220</v>
-      </c>
-      <c r="AB33" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC33" s="129" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="117">
-        <v>45397</v>
+        <v>45401</v>
       </c>
       <c r="B34">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C34">
-        <v>31.863399999999999</v>
+        <v>31.803999999999998</v>
       </c>
       <c r="D34">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E34">
-        <v>33.963099999999997</v>
+        <v>33.928400000000003</v>
       </c>
       <c r="F34" s="112">
         <v>156</v>
       </c>
       <c r="G34">
-        <v>2387.5100000000002</v>
+        <v>2427.62</v>
       </c>
       <c r="L34">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M34">
-        <v>0.89791399999999999</v>
+        <v>0.87351800000000002</v>
       </c>
       <c r="N34" s="113">
-        <f t="shared" ref="N34:N69" si="23">(F34*G34)+(B34*C34)+(D34*E34)+(L34*M34)+(H34*I34)</f>
-        <v>530994.96256900008</v>
+        <f t="shared" si="21"/>
+        <v>534125.51551599998</v>
       </c>
       <c r="O34">
-        <v>169.14</v>
+        <v>170.57</v>
       </c>
       <c r="P34">
-        <v>269604.92</v>
+        <v>272736.27</v>
       </c>
       <c r="Q34" s="115">
-        <v>9679.7999999999993</v>
+        <v>9693.4599999999991</v>
       </c>
       <c r="R34" s="127">
-        <f t="shared" si="20"/>
-        <v>-1.3880452075456073E-2</v>
+        <f t="shared" si="24"/>
+        <v>1.4091975414350921E-3</v>
       </c>
       <c r="S34" s="116">
-        <f t="shared" si="21"/>
-        <v>1.0370511380362046E-3</v>
+        <f t="shared" si="25"/>
+        <v>6.9388010818296486E-3</v>
       </c>
       <c r="T34" s="114">
-        <f t="shared" si="22"/>
-        <v>35</v>
+        <f t="shared" si="26"/>
+        <v>39</v>
       </c>
       <c r="U34" s="116">
-        <f>((N34/$N$57)-1)/T34*30</f>
-        <v>8.8890097545960402E-4</v>
+        <f>((N34/$N$58)-1)/T34*30</f>
+        <v>5.3375392937151144E-3</v>
       </c>
       <c r="V34" s="116"/>
       <c r="W34" s="116"/>
-      <c r="X34" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y34" s="132">
-        <f>(X28*Y5)-(X28*Y31)</f>
-        <v>-330.05000000000007</v>
-      </c>
-      <c r="Z34" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA34" s="132">
-        <f>(Z28*AA5)-(Z28*AA31)</f>
-        <v>-276</v>
-      </c>
-      <c r="AC34" s="130" t="s">
-        <v>69</v>
+      <c r="X34" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y34" s="115">
+        <f>Y32*X29</f>
+        <v>1308.6500000000001</v>
+      </c>
+      <c r="Z34" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA34" s="115">
+        <f>AA32*Z29</f>
+        <v>1220</v>
+      </c>
+      <c r="AB34" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC34" s="129" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:29">
       <c r="A35" s="117">
-        <v>45391</v>
+        <v>45397</v>
       </c>
       <c r="B35">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C35">
-        <v>31.412299999999998</v>
+        <v>31.863399999999999</v>
       </c>
       <c r="D35">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E35">
-        <v>34.091799999999999</v>
+        <v>33.963099999999997</v>
       </c>
       <c r="F35" s="112">
         <v>156</v>
       </c>
       <c r="G35">
-        <v>2352.21</v>
+        <v>2387.5100000000002</v>
       </c>
       <c r="L35">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M35">
-        <v>0.89529800000000004</v>
+        <v>0.89791399999999999</v>
       </c>
       <c r="N35" s="113">
-        <f t="shared" si="23"/>
-        <v>524701.88168200001</v>
+        <f t="shared" ref="N35:N70" si="27">(F35*G35)+(B35*C35)+(D35*E35)+(L35*M35)+(H35*I35)</f>
+        <v>530994.96256900008</v>
       </c>
       <c r="O35">
-        <v>165.81</v>
+        <v>169.14</v>
       </c>
       <c r="P35">
-        <v>263308.84999999998</v>
+        <v>269604.92</v>
       </c>
       <c r="Q35" s="115">
-        <v>9814.16</v>
+        <v>9679.7999999999993</v>
       </c>
       <c r="R35" s="127">
-        <f t="shared" ref="R35:R36" si="24">(1-(Q36/Q35))</f>
-        <v>5.8558246452063978E-3</v>
+        <f t="shared" si="24"/>
+        <v>-1.3880452075456073E-2</v>
       </c>
       <c r="S35" s="116">
-        <f t="shared" si="21"/>
-        <v>-1.0826728328378388E-2</v>
+        <f t="shared" si="25"/>
+        <v>1.0370511380362046E-3</v>
       </c>
       <c r="T35" s="114">
-        <f t="shared" si="22"/>
-        <v>29</v>
+        <f t="shared" si="26"/>
+        <v>35</v>
       </c>
       <c r="U35" s="116">
-        <f>((N35/$N$57)-1)/T35*30</f>
-        <v>-1.1200063787977641E-2</v>
+        <f>((N35/$N$58)-1)/T35*30</f>
+        <v>8.8890097545960402E-4</v>
       </c>
       <c r="V35" s="116"/>
       <c r="W35" s="116"/>
-      <c r="X35" s="116"/>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="116"/>
-      <c r="AA35" s="116"/>
-      <c r="AB35" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC35" s="131">
-        <v>135</v>
+      <c r="X35" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y35" s="132">
+        <f>(X29*Y5)-(X29*Y32)</f>
+        <v>-297.85000000000014</v>
+      </c>
+      <c r="Z35" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA35" s="132">
+        <f>(Z29*AA5)-(Z29*AA32)</f>
+        <v>-240</v>
+      </c>
+      <c r="AC35" s="130" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="117">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B36">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C36">
-        <v>31.5198</v>
+        <v>31.412299999999998</v>
       </c>
       <c r="D36">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E36">
-        <v>34.154899999999998</v>
+        <v>34.091799999999999</v>
       </c>
       <c r="F36" s="112">
         <v>156</v>
       </c>
       <c r="G36">
-        <v>2344.37</v>
+        <v>2352.21</v>
       </c>
       <c r="L36">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M36">
-        <v>0.818581</v>
+        <v>0.89529800000000004</v>
       </c>
       <c r="N36" s="113">
-        <f t="shared" si="23"/>
-        <v>514028.85925099999</v>
+        <f t="shared" si="27"/>
+        <v>524701.88168200001</v>
       </c>
       <c r="O36">
-        <v>159.19</v>
+        <v>165.81</v>
       </c>
       <c r="P36">
-        <v>252634.37</v>
+        <v>263308.84999999998</v>
       </c>
       <c r="Q36" s="115">
-        <v>9756.69</v>
+        <v>9814.16</v>
       </c>
       <c r="R36" s="127">
-        <f t="shared" si="24"/>
-        <v>1.4129791968382821E-2</v>
+        <f t="shared" ref="R36:R37" si="28">(1-(Q37/Q36))</f>
+        <v>5.8558246452063978E-3</v>
       </c>
       <c r="S36" s="116">
-        <f t="shared" si="21"/>
-        <v>-3.0947617704367603E-2</v>
+        <f t="shared" si="25"/>
+        <v>-1.0826728328378388E-2</v>
       </c>
       <c r="T36" s="114">
-        <f t="shared" si="22"/>
-        <v>28</v>
+        <f t="shared" si="26"/>
+        <v>29</v>
       </c>
       <c r="U36" s="116">
-        <f>((N36/$N$57)-1)/T36*30</f>
-        <v>-3.3158161826108146E-2</v>
+        <f>((N36/$N$58)-1)/T36*30</f>
+        <v>-1.1200063787977641E-2</v>
       </c>
       <c r="V36" s="116"/>
       <c r="W36" s="116"/>
@@ -8449,70 +8465,72 @@
       <c r="Y36" s="116"/>
       <c r="Z36" s="116"/>
       <c r="AA36" s="116"/>
-      <c r="AC36" s="116">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
+      <c r="AB36" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC36" s="131">
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="117">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B37">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C37">
-        <v>31.407</v>
+        <v>31.5198</v>
       </c>
       <c r="D37">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E37">
-        <v>34.038899999999998</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F37" s="112">
         <v>156</v>
       </c>
       <c r="G37">
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="L37">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M37">
-        <v>0.82424600000000003</v>
+        <v>0.818581</v>
       </c>
       <c r="N37" s="113">
-        <f t="shared" si="23"/>
-        <v>505978.825411</v>
+        <f t="shared" si="27"/>
+        <v>514028.85925099999</v>
       </c>
       <c r="O37">
-        <v>154.41</v>
+        <v>159.19</v>
       </c>
       <c r="P37">
-        <v>244587.02</v>
+        <v>252634.37</v>
       </c>
       <c r="Q37" s="115">
-        <v>9618.83</v>
+        <v>9756.69</v>
       </c>
       <c r="R37" s="127">
-        <f t="shared" ref="R37:R68" si="25">(1-(Q38/Q37))</f>
-        <v>5.0921993631241946E-2</v>
+        <f t="shared" si="28"/>
+        <v>1.4129791968382821E-2</v>
       </c>
       <c r="S37" s="116">
-        <f t="shared" si="21"/>
-        <v>-4.6123622572225242E-2</v>
+        <f t="shared" si="25"/>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T37" s="114">
-        <f t="shared" si="22"/>
-        <v>25</v>
+        <f t="shared" si="26"/>
+        <v>28</v>
       </c>
       <c r="U37" s="116">
-        <f>((N37/$N$57)-1)/T37*30</f>
-        <v>-5.5348347086670288E-2</v>
+        <f>((N37/$N$58)-1)/T37*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V37" s="116"/>
       <c r="W37" s="116"/>
@@ -8520,73 +8538,70 @@
       <c r="Y37" s="116"/>
       <c r="Z37" s="116"/>
       <c r="AA37" s="116"/>
-      <c r="AB37" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC37" s="115">
-        <f>AC35*AB32</f>
-        <v>1350</v>
+      <c r="AC37" s="116">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="117">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B38">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C38">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D38">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E38">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F38" s="112">
         <v>156</v>
       </c>
       <c r="G38">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L38">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M38">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N38" s="113">
-        <f t="shared" si="23"/>
-        <v>507101.83066900005</v>
+        <f t="shared" si="27"/>
+        <v>505978.825411</v>
       </c>
       <c r="O38">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="P38">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="Q38" s="115">
-        <v>9129.02</v>
+        <v>9618.83</v>
       </c>
       <c r="R38" s="127">
+        <f t="shared" ref="R38:R69" si="29">(1-(Q39/Q38))</f>
+        <v>5.0921993631241946E-2</v>
+      </c>
+      <c r="S38" s="116">
         <f t="shared" si="25"/>
-        <v>2.0070062284889389E-2</v>
-      </c>
-      <c r="S38" s="116">
-        <f t="shared" si="21"/>
-        <v>-4.4006521749946126E-2</v>
+        <v>-4.6123622572225242E-2</v>
       </c>
       <c r="T38" s="114">
-        <f t="shared" si="22"/>
-        <v>24</v>
+        <f t="shared" si="26"/>
+        <v>25</v>
       </c>
       <c r="U38" s="116">
-        <f>((N38/$N$57)-1)/T38*30</f>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N38/$N$58)-1)/T38*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V38" s="116"/>
       <c r="W38" s="116"/>
@@ -8594,27 +8609,27 @@
       <c r="Y38" s="116"/>
       <c r="Z38" s="116"/>
       <c r="AA38" s="116"/>
-      <c r="AB38" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC38" s="132">
-        <f>(AB10*AC5)-(AB10*AC35)</f>
-        <v>-49</v>
+      <c r="AB38" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC38" s="115">
+        <f>AC36*AB33</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="117">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B39">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C39">
         <v>31.399799999999999</v>
       </c>
       <c r="D39">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E39">
@@ -8627,14 +8642,14 @@
         <v>2292.5700000000002</v>
       </c>
       <c r="L39">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M39">
         <v>0.82913899999999996</v>
       </c>
       <c r="N39" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>507101.83066900005</v>
       </c>
       <c r="O39">
@@ -8644,23 +8659,23 @@
         <v>245709.7</v>
       </c>
       <c r="Q39" s="115">
-        <v>8945.7999999999993</v>
+        <v>9129.02</v>
       </c>
       <c r="R39" s="127">
+        <f t="shared" si="29"/>
+        <v>2.0070062284889389E-2</v>
+      </c>
+      <c r="S39" s="116">
         <f t="shared" si="25"/>
-        <v>-1.0627333497283731E-2</v>
-      </c>
-      <c r="S39" s="116">
-        <f t="shared" si="21"/>
         <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T39" s="114">
-        <f t="shared" si="22"/>
-        <v>23</v>
+        <f t="shared" si="26"/>
+        <v>24</v>
       </c>
       <c r="U39" s="116">
-        <f>((N39/$N$57)-1)/T39*30</f>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N39/$N$58)-1)/T39*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V39" s="116"/>
       <c r="W39" s="116"/>
@@ -8668,68 +8683,73 @@
       <c r="Y39" s="116"/>
       <c r="Z39" s="116"/>
       <c r="AA39" s="116"/>
-      <c r="AB39" s="133"/>
-      <c r="AC39" s="134"/>
+      <c r="AB39" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC39" s="132">
+        <f>(AB10*AC5)-(AB10*AC36)</f>
+        <v>-34</v>
+      </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="117">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B40">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D40">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F40" s="112">
         <v>156</v>
       </c>
       <c r="G40">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L40">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N40" s="113">
-        <f t="shared" si="23"/>
-        <v>509777.60801200004</v>
+        <f t="shared" si="27"/>
+        <v>507101.83066900005</v>
       </c>
       <c r="O40">
-        <v>157.11000000000001</v>
+        <v>155.22</v>
       </c>
       <c r="P40">
-        <v>248387.66</v>
+        <v>245709.7</v>
       </c>
       <c r="Q40" s="115">
-        <v>9040.8700000000008</v>
+        <v>8945.7999999999993</v>
       </c>
       <c r="R40" s="127">
+        <f t="shared" si="29"/>
+        <v>-1.0627333497283731E-2</v>
+      </c>
+      <c r="S40" s="116">
         <f t="shared" si="25"/>
-        <v>-1.2904731513670775E-2</v>
-      </c>
-      <c r="S40" s="116">
-        <f t="shared" si="21"/>
-        <v>-3.8962119354903346E-2</v>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T40" s="114">
-        <f t="shared" si="22"/>
-        <v>22</v>
+        <f t="shared" si="26"/>
+        <v>23</v>
       </c>
       <c r="U40" s="116">
-        <f>((N40/$N$57)-1)/T40*30</f>
-        <v>-5.3130162756686382E-2</v>
+        <f>((N40/$N$58)-1)/T40*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V40" s="116"/>
       <c r="W40" s="116"/>
@@ -8742,63 +8762,63 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="117">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="B41">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D41">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F41" s="112">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G41">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L41">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N41" s="113">
-        <f t="shared" si="23"/>
-        <v>528238.93988600001</v>
+        <f t="shared" si="27"/>
+        <v>509777.60801200004</v>
       </c>
       <c r="O41">
-        <v>161.66</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="P41">
-        <v>255424.81</v>
+        <v>248387.66</v>
       </c>
       <c r="Q41" s="115">
-        <v>9157.5400000000009</v>
+        <v>9040.8700000000008</v>
       </c>
       <c r="R41" s="127">
+        <f t="shared" si="29"/>
+        <v>-1.2904731513670775E-2</v>
+      </c>
+      <c r="S41" s="116">
         <f t="shared" si="25"/>
-        <v>1.6532824317448958E-3</v>
-      </c>
-      <c r="S41" s="116">
-        <f t="shared" si="21"/>
-        <v>-4.1586305801334378E-3</v>
+        <v>-3.8962119354903346E-2</v>
       </c>
       <c r="T41" s="114">
-        <f t="shared" si="22"/>
-        <v>21</v>
+        <f t="shared" si="26"/>
+        <v>22</v>
       </c>
       <c r="U41" s="116">
-        <f>((N41/$N$57)-1)/T41*30</f>
-        <v>-5.9409008287620545E-3</v>
+        <f>((N41/$N$58)-1)/T41*30</f>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V41" s="116"/>
       <c r="W41" s="116"/>
@@ -8811,17 +8831,17 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="117">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B42">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C42">
         <v>31.879300000000001</v>
       </c>
       <c r="D42">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E42">
@@ -8834,14 +8854,14 @@
         <v>2308.4299999999998</v>
       </c>
       <c r="L42">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M42">
         <v>0.88097599999999998</v>
       </c>
       <c r="N42" s="113">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>528238.93988600001</v>
       </c>
       <c r="O42">
@@ -8851,23 +8871,23 @@
         <v>255424.81</v>
       </c>
       <c r="Q42" s="115">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="R42" s="127">
+        <f t="shared" si="29"/>
+        <v>1.6532824317448958E-3</v>
+      </c>
+      <c r="S42" s="116">
         <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="S42" s="116">
-        <f t="shared" si="21"/>
         <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T42" s="114">
-        <f t="shared" si="22"/>
-        <v>19</v>
+        <f t="shared" si="26"/>
+        <v>21</v>
       </c>
       <c r="U42" s="116">
-        <f>((N42/$N$57)-1)/T42*30</f>
-        <v>-6.5662588107370072E-3</v>
+        <f>((N42/$N$58)-1)/T42*30</f>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V42" s="116"/>
       <c r="W42" s="116"/>
@@ -8880,63 +8900,63 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="117">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="B43">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D43">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F43" s="112">
         <v>161</v>
       </c>
       <c r="G43">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L43">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N43" s="113">
-        <f t="shared" si="23"/>
-        <v>518957.34710100002</v>
+        <f t="shared" si="27"/>
+        <v>528238.93988600001</v>
       </c>
       <c r="O43">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="P43">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="Q43" s="115">
         <v>9142.4</v>
       </c>
       <c r="R43" s="127">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="116">
         <f t="shared" si="25"/>
-        <v>6.8286226811340445E-3</v>
-      </c>
-      <c r="S43" s="116">
-        <f t="shared" si="21"/>
-        <v>-2.165638277425741E-2</v>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T43" s="114">
-        <f t="shared" si="22"/>
-        <v>18</v>
+        <f t="shared" si="26"/>
+        <v>19</v>
       </c>
       <c r="U43" s="116">
-        <f>((N43/$N$57)-1)/T43*30</f>
-        <v>-3.6093971290429017E-2</v>
+        <f>((N43/$N$58)-1)/T43*30</f>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V43" s="116"/>
       <c r="W43" s="116"/>
@@ -8949,63 +8969,63 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="117">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="B44">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C44">
-        <v>31.870699999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D44">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E44">
-        <v>34.480800000000002</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F44" s="112">
         <v>161</v>
       </c>
       <c r="G44">
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L44">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M44">
-        <v>0.86473199999999995</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N44" s="113">
-        <f t="shared" si="23"/>
-        <v>515224.93979200005</v>
+        <f t="shared" si="27"/>
+        <v>518957.34710100002</v>
       </c>
       <c r="O44">
-        <v>153.81</v>
+        <v>156.08000000000001</v>
       </c>
       <c r="P44">
-        <v>242408.74</v>
+        <v>246143.72</v>
       </c>
       <c r="Q44" s="115">
-        <v>9079.9699999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R44" s="127">
+        <f t="shared" si="29"/>
+        <v>6.8286226811340445E-3</v>
+      </c>
+      <c r="S44" s="116">
         <f t="shared" si="25"/>
-        <v>3.0093711763364839E-2</v>
-      </c>
-      <c r="S44" s="116">
-        <f t="shared" si="21"/>
-        <v>-2.8692754622628547E-2</v>
+        <v>-2.165638277425741E-2</v>
       </c>
       <c r="T44" s="114">
-        <f t="shared" si="22"/>
-        <v>17</v>
+        <f t="shared" si="26"/>
+        <v>18</v>
       </c>
       <c r="U44" s="116">
-        <f>((N44/$N$57)-1)/T44*30</f>
-        <v>-5.0634272863462143E-2</v>
+        <f>((N44/$N$58)-1)/T44*30</f>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V44" s="116"/>
       <c r="W44" s="116"/>
@@ -9018,63 +9038,63 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="117">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B45">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>31.821999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D45">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>34.5045</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F45" s="112">
         <v>161</v>
       </c>
       <c r="G45">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L45">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>0.85899999999999999</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N45" s="113">
-        <f t="shared" si="23"/>
-        <v>512394.77395499998</v>
+        <f t="shared" si="27"/>
+        <v>515224.93979200005</v>
       </c>
       <c r="O45">
-        <v>154.24</v>
+        <v>153.81</v>
       </c>
       <c r="P45">
-        <v>242616.68</v>
+        <v>242408.74</v>
       </c>
       <c r="Q45" s="115">
-        <v>8806.7199999999993</v>
+        <v>9079.9699999999993</v>
       </c>
       <c r="R45" s="127">
+        <f t="shared" si="29"/>
+        <v>3.0093711763364839E-2</v>
+      </c>
+      <c r="S45" s="116">
         <f t="shared" si="25"/>
-        <v>-7.4942770974972817E-5</v>
-      </c>
-      <c r="S45" s="116">
-        <f t="shared" si="21"/>
-        <v>-3.4028211761422011E-2</v>
+        <v>-2.8692754622628547E-2</v>
       </c>
       <c r="T45" s="114">
-        <f t="shared" si="22"/>
-        <v>16</v>
+        <f t="shared" si="26"/>
+        <v>17</v>
       </c>
       <c r="U45" s="116">
-        <f>((N45/$N$57)-1)/T45*30</f>
-        <v>-6.3802897052666271E-2</v>
+        <f>((N45/$N$58)-1)/T45*30</f>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V45" s="116"/>
       <c r="W45" s="116"/>
@@ -9087,21 +9107,21 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="117">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B46">
         <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>31.530999999999999</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D46">
         <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>34.125900000000001</v>
+        <v>34.5045</v>
       </c>
       <c r="F46" s="112">
         <v>161</v>
@@ -9114,11 +9134,11 @@
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>0.890316</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N46" s="113">
-        <f t="shared" si="23"/>
-        <v>515864.35854099999</v>
+        <f t="shared" si="27"/>
+        <v>512394.77395499998</v>
       </c>
       <c r="O46">
         <v>154.24</v>
@@ -9127,23 +9147,23 @@
         <v>242616.68</v>
       </c>
       <c r="Q46" s="115">
-        <v>8807.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="R46" s="127">
+        <f t="shared" si="29"/>
+        <v>-7.4942770974972817E-5</v>
+      </c>
+      <c r="S46" s="116">
         <f t="shared" si="25"/>
-        <v>-2.5206133946758191E-2</v>
-      </c>
-      <c r="S46" s="116">
-        <f t="shared" si="21"/>
-        <v>-2.7487315957364089E-2</v>
+        <v>-3.4028211761422011E-2</v>
       </c>
       <c r="T46" s="114">
-        <f t="shared" si="22"/>
-        <v>15</v>
+        <f t="shared" si="26"/>
+        <v>16</v>
       </c>
       <c r="U46" s="116">
-        <f>((N46/$N$57)-1)/T46*30</f>
-        <v>-5.4974631914728178E-2</v>
+        <f>((N46/$N$58)-1)/T46*30</f>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V46" s="116"/>
       <c r="W46" s="116"/>
@@ -9156,63 +9176,63 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="117">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B47">
-        <f>B64</f>
+        <f>B66</f>
         <v>1110</v>
       </c>
       <c r="C47">
-        <v>31.786200000000001</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D47">
-        <f>D64</f>
+        <f>D66</f>
         <v>321.99</v>
       </c>
       <c r="E47">
-        <v>34.386299999999999</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F47" s="112">
         <v>161</v>
       </c>
       <c r="G47">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L47">
-        <f>L64</f>
+        <f>L66</f>
         <v>125000</v>
       </c>
       <c r="M47">
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="N47" s="113">
-        <f t="shared" si="23"/>
-        <v>517720.01173699996</v>
+        <f t="shared" si="27"/>
+        <v>515864.35854099999</v>
       </c>
       <c r="O47">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="P47">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="Q47" s="115">
-        <v>9029.3799999999992</v>
+        <v>8807.3799999999992</v>
       </c>
       <c r="R47" s="127">
+        <f t="shared" si="29"/>
+        <v>-2.5206133946758191E-2</v>
+      </c>
+      <c r="S47" s="116">
         <f t="shared" si="25"/>
-        <v>-9.0947551216142841E-3</v>
-      </c>
-      <c r="S47" s="116">
-        <f t="shared" si="21"/>
-        <v>-2.3989019863797534E-2</v>
+        <v>-2.7487315957364089E-2</v>
       </c>
       <c r="T47" s="114">
-        <f t="shared" si="22"/>
-        <v>14</v>
+        <f t="shared" si="26"/>
+        <v>15</v>
       </c>
       <c r="U47" s="116">
-        <f>((N47/$N$57)-1)/T47*30</f>
-        <v>-5.1405042565280425E-2</v>
+        <f>((N47/$N$58)-1)/T47*30</f>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V47" s="116"/>
       <c r="W47" s="116"/>
@@ -9225,63 +9245,63 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="117">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B48">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>31.710699999999999</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D48">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>34.336300000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F48" s="112">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="L48">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N48" s="113">
-        <f t="shared" si="23"/>
-        <v>518732.15723700001</v>
+        <f t="shared" si="27"/>
+        <v>517720.01173699996</v>
       </c>
       <c r="O48">
-        <v>156.63999999999999</v>
+        <v>155.99</v>
       </c>
       <c r="P48">
-        <v>245919.31</v>
-      </c>
-      <c r="Q48">
-        <v>9111.5</v>
+        <v>244906</v>
+      </c>
+      <c r="Q48" s="115">
+        <v>9029.3799999999992</v>
       </c>
       <c r="R48" s="127">
+        <f t="shared" si="29"/>
+        <v>-9.0947551216142841E-3</v>
+      </c>
+      <c r="S48" s="116">
         <f t="shared" si="25"/>
-        <v>-3.2047412610438641E-3</v>
-      </c>
-      <c r="S48" s="116">
-        <f t="shared" si="21"/>
-        <v>-2.2080912973779676E-2</v>
+        <v>-2.3989019863797534E-2</v>
       </c>
       <c r="T48" s="114">
-        <f t="shared" si="22"/>
-        <v>11</v>
+        <f t="shared" si="26"/>
+        <v>14</v>
       </c>
       <c r="U48" s="116">
-        <f>((N48/$N$57)-1)/T48*30</f>
-        <v>-6.0220671746671839E-2</v>
+        <f>((N48/$N$58)-1)/T48*30</f>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V48" s="116"/>
       <c r="W48" s="116"/>
@@ -9294,63 +9314,63 @@
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="117">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B49">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C49">
-        <v>32.063899999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D49">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E49">
-        <v>35.065100000000001</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F49" s="112">
         <v>161</v>
       </c>
       <c r="G49">
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="L49">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N49" s="113">
-        <f t="shared" si="23"/>
-        <v>529674.87554899999</v>
+        <f t="shared" si="27"/>
+        <v>518732.15723700001</v>
       </c>
       <c r="O49">
-        <v>163.91</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="P49">
-        <v>256845.12</v>
-      </c>
-      <c r="Q49" s="115">
-        <v>9140.7000000000007</v>
+        <v>245919.31</v>
+      </c>
+      <c r="Q49">
+        <v>9111.5</v>
       </c>
       <c r="R49" s="127">
+        <f t="shared" si="29"/>
+        <v>-3.2047412610438641E-3</v>
+      </c>
+      <c r="S49" s="116">
         <f t="shared" si="25"/>
-        <v>2.0302602645311585E-2</v>
-      </c>
-      <c r="S49" s="116">
-        <f t="shared" si="21"/>
-        <v>-1.4515902067954167E-3</v>
+        <v>-2.2080912973779676E-2</v>
       </c>
       <c r="T49" s="114">
-        <f t="shared" si="22"/>
-        <v>10</v>
+        <f t="shared" si="26"/>
+        <v>11</v>
       </c>
       <c r="U49" s="116">
-        <f>((N49/$N$57)-1)/T49*30</f>
-        <v>-4.3547706203862502E-3</v>
+        <f>((N49/$N$58)-1)/T49*30</f>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V49" s="116"/>
       <c r="W49" s="116"/>
@@ -9363,63 +9383,63 @@
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="117">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B50">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C50">
-        <v>32.028799999999997</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D50">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E50">
-        <v>34.808799999999998</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F50" s="112">
         <v>161</v>
       </c>
       <c r="G50">
-        <v>2220.92</v>
+        <v>2267.61</v>
       </c>
       <c r="L50">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M50">
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N50" s="113">
-        <f t="shared" si="23"/>
-        <v>521166.42351200001</v>
+        <f t="shared" si="27"/>
+        <v>529674.87554899999</v>
       </c>
       <c r="O50">
-        <v>158.47999999999999</v>
+        <v>163.91</v>
       </c>
       <c r="P50">
-        <v>248342.62</v>
+        <v>256845.12</v>
       </c>
       <c r="Q50" s="115">
-        <v>8955.1200000000008</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="R50" s="127">
+        <f t="shared" si="29"/>
+        <v>2.0302602645311585E-2</v>
+      </c>
+      <c r="S50" s="116">
         <f t="shared" si="25"/>
-        <v>2.8184993612594411E-3</v>
-      </c>
-      <c r="S50" s="116">
-        <f t="shared" si="21"/>
-        <v>-1.7491809676412506E-2</v>
+        <v>-1.4515902067954167E-3</v>
       </c>
       <c r="T50" s="114">
-        <f t="shared" si="22"/>
-        <v>9</v>
+        <f t="shared" si="26"/>
+        <v>10</v>
       </c>
       <c r="U50" s="116">
-        <f>((N50/$N$57)-1)/T50*30</f>
-        <v>-5.8306032254708352E-2</v>
+        <f>((N50/$N$58)-1)/T50*30</f>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V50" s="116"/>
       <c r="W50" s="116"/>
@@ -9432,63 +9452,63 @@
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="117">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B51">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C51">
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D51">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E51">
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F51" s="112">
         <v>161</v>
       </c>
       <c r="G51">
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="L51">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M51">
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N51" s="113">
-        <f t="shared" si="23"/>
-        <v>516626.64020899998</v>
+        <f t="shared" si="27"/>
+        <v>521166.42351200001</v>
       </c>
       <c r="O51">
-        <v>155.59</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="P51">
-        <v>243803.06</v>
+        <v>248342.62</v>
       </c>
       <c r="Q51" s="115">
-        <v>8929.8799999999992</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="R51" s="127">
+        <f t="shared" si="29"/>
+        <v>2.8184993612594411E-3</v>
+      </c>
+      <c r="S51" s="116">
         <f t="shared" si="25"/>
-        <v>2.3714764364134666E-2</v>
-      </c>
-      <c r="S51" s="116">
-        <f t="shared" si="21"/>
-        <v>-2.6050254879836254E-2</v>
+        <v>-1.7491809676412506E-2</v>
       </c>
       <c r="T51" s="114">
-        <f t="shared" si="22"/>
-        <v>8</v>
+        <f t="shared" si="26"/>
+        <v>9</v>
       </c>
       <c r="U51" s="116">
-        <f>((N51/$N$57)-1)/T51*30</f>
-        <v>-9.7688455799385954E-2</v>
+        <f>((N51/$N$58)-1)/T51*30</f>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V51" s="116"/>
       <c r="W51" s="116"/>
@@ -9498,72 +9518,66 @@
       <c r="AA51" s="116"/>
       <c r="AB51" s="133"/>
       <c r="AC51" s="134"/>
-      <c r="AL51">
-        <v>68</v>
-      </c>
-      <c r="AM51">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="117">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B52">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C52">
-        <v>31.9499</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D52">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E52">
-        <v>34.8125</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F52" s="112">
         <v>161</v>
       </c>
       <c r="G52">
-        <v>2212.35</v>
+        <v>2219.02</v>
       </c>
       <c r="L52">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M52">
-        <v>0.93887900000000002</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N52" s="113">
-        <f t="shared" si="23"/>
-        <v>520221.89087499998</v>
+        <f t="shared" si="27"/>
+        <v>516626.64020899998</v>
       </c>
       <c r="O52">
-        <v>155.44</v>
+        <v>155.59</v>
       </c>
       <c r="P52">
-        <v>247623.17</v>
+        <v>243803.06</v>
       </c>
       <c r="Q52" s="115">
-        <v>8718.11</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="R52" s="127">
+        <f t="shared" si="29"/>
+        <v>2.3714764364134666E-2</v>
+      </c>
+      <c r="S52" s="116">
         <f t="shared" si="25"/>
-        <v>-1.2685088855267868E-2</v>
-      </c>
-      <c r="S52" s="116">
-        <f t="shared" si="21"/>
-        <v>-1.9272452116166794E-2</v>
+        <v>-2.6050254879836254E-2</v>
       </c>
       <c r="T52" s="114">
-        <f t="shared" si="22"/>
-        <v>7</v>
+        <f t="shared" si="26"/>
+        <v>8</v>
       </c>
       <c r="U52" s="116">
-        <f>((N52/$N$57)-1)/T52*30</f>
-        <v>-8.2596223355000553E-2</v>
+        <f>((N52/$N$58)-1)/T52*30</f>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V52" s="116"/>
       <c r="W52" s="116"/>
@@ -9577,68 +9591,68 @@
         <v>68</v>
       </c>
       <c r="AM52">
-        <v>22.96</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="117">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B53">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C53">
-        <v>31.796299999999999</v>
+        <v>31.9499</v>
       </c>
       <c r="D53">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E53">
-        <v>34.619700000000002</v>
+        <v>34.8125</v>
       </c>
       <c r="F53" s="112">
         <v>161</v>
       </c>
       <c r="G53">
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="L53">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M53">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N53" s="113">
-        <f t="shared" si="23"/>
-        <v>521369.280203</v>
+        <f t="shared" si="27"/>
+        <v>520221.89087499998</v>
       </c>
       <c r="O53">
-        <v>156.13</v>
+        <v>155.44</v>
       </c>
       <c r="P53">
-        <v>248712.47</v>
+        <v>247623.17</v>
       </c>
       <c r="Q53" s="115">
-        <v>8828.7000000000007</v>
+        <v>8718.11</v>
       </c>
       <c r="R53" s="127">
+        <f t="shared" si="29"/>
+        <v>-1.2685088855267868E-2</v>
+      </c>
+      <c r="S53" s="116">
         <f t="shared" si="25"/>
-        <v>-6.2092946866469934E-3</v>
-      </c>
-      <c r="S53" s="116">
-        <f t="shared" si="21"/>
-        <v>-1.7109382199549383E-2</v>
+        <v>-1.9272452116166794E-2</v>
       </c>
       <c r="T53" s="114">
-        <f t="shared" si="22"/>
-        <v>4</v>
+        <f t="shared" si="26"/>
+        <v>7</v>
       </c>
       <c r="U53" s="116">
-        <f>((N53/$N$57)-1)/T53*30</f>
-        <v>-0.12832036649662037</v>
+        <f>((N53/$N$58)-1)/T53*30</f>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V53" s="116"/>
       <c r="W53" s="116"/>
@@ -9652,68 +9666,68 @@
         <v>68</v>
       </c>
       <c r="AM53">
-        <v>22.04</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="117">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B54">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C54">
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D54">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E54">
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F54" s="112">
         <v>161</v>
       </c>
       <c r="G54">
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="L54">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M54">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N54" s="113">
-        <f t="shared" si="23"/>
-        <v>523223.75937500002</v>
+        <f t="shared" si="27"/>
+        <v>521369.280203</v>
       </c>
       <c r="O54">
-        <v>157.21</v>
+        <v>156.13</v>
       </c>
       <c r="P54">
-        <v>250427.64</v>
+        <v>248712.47</v>
       </c>
       <c r="Q54" s="115">
-        <v>8883.52</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="R54" s="127">
+        <f t="shared" si="29"/>
+        <v>-6.2092946866469934E-3</v>
+      </c>
+      <c r="S54" s="116">
         <f t="shared" si="25"/>
-        <v>-3.0066910413888426E-3</v>
-      </c>
-      <c r="S54" s="116">
-        <f t="shared" si="21"/>
-        <v>-1.3613299387851274E-2</v>
+        <v>-1.7109382199549383E-2</v>
       </c>
       <c r="T54" s="114">
-        <f t="shared" si="22"/>
-        <v>3</v>
+        <f t="shared" si="26"/>
+        <v>4</v>
       </c>
       <c r="U54" s="116">
-        <f>((N54/$N$57)-1)/T54*30</f>
-        <v>-0.13613299387851274</v>
+        <f>((N54/$N$58)-1)/T54*30</f>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V54" s="116"/>
       <c r="W54" s="116"/>
@@ -9727,68 +9741,68 @@
         <v>68</v>
       </c>
       <c r="AM54">
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="117">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B55">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C55">
-        <v>32</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D55">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E55">
-        <v>35</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F55" s="112">
         <v>161</v>
       </c>
       <c r="G55">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L55">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M55">
-        <v>0.957233</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N55" s="113">
-        <f t="shared" si="23"/>
-        <v>523915.29500000004</v>
+        <f t="shared" si="27"/>
+        <v>523223.75937500002</v>
       </c>
       <c r="O55">
-        <v>160.79</v>
+        <v>157.21</v>
       </c>
       <c r="P55">
-        <v>250989.9</v>
+        <v>250427.64</v>
       </c>
       <c r="Q55" s="115">
-        <v>8910.23</v>
+        <v>8883.52</v>
       </c>
       <c r="R55" s="127">
+        <f t="shared" si="29"/>
+        <v>-3.0066910413888426E-3</v>
+      </c>
+      <c r="S55" s="116">
         <f t="shared" si="25"/>
-        <v>-1.7822211098927898E-2</v>
-      </c>
-      <c r="S55" s="116">
-        <f t="shared" si="21"/>
-        <v>-1.2309609463077242E-2</v>
+        <v>-1.3613299387851274E-2</v>
       </c>
       <c r="T55" s="114">
-        <f t="shared" si="22"/>
-        <v>2</v>
+        <f t="shared" si="26"/>
+        <v>3</v>
       </c>
       <c r="U55" s="116">
-        <f>((N55/$N$57)-1)/T55*30</f>
-        <v>-0.18464414194615864</v>
+        <f>((N55/$N$58)-1)/T55*30</f>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V55" s="116"/>
       <c r="W55" s="116"/>
@@ -9802,26 +9816,26 @@
         <v>68</v>
       </c>
       <c r="AM55">
-        <v>18.22</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="A56" s="117">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B56">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C56">
-        <v>31.516400000000001</v>
+        <v>32</v>
       </c>
       <c r="D56">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E56">
-        <v>34.463200000000001</v>
+        <v>35</v>
       </c>
       <c r="F56" s="112">
         <v>161</v>
@@ -9830,40 +9844,40 @@
         <v>2220.3200000000002</v>
       </c>
       <c r="L56">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M56">
-        <v>0.979213</v>
+        <v>0.957233</v>
       </c>
       <c r="N56" s="113">
-        <f t="shared" si="23"/>
-        <v>525953.15476800012</v>
+        <f t="shared" si="27"/>
+        <v>523915.29500000004</v>
       </c>
       <c r="O56">
-        <v>161.94999999999999</v>
+        <v>160.79</v>
       </c>
       <c r="P56">
-        <v>252645.61</v>
+        <v>250989.9</v>
       </c>
       <c r="Q56" s="115">
-        <v>9069.0300000000007</v>
+        <v>8910.23</v>
       </c>
       <c r="R56" s="127">
+        <f t="shared" si="29"/>
+        <v>-1.7822211098927898E-2</v>
+      </c>
+      <c r="S56" s="116">
         <f t="shared" si="25"/>
-        <v>-6.8684302510850781E-3</v>
-      </c>
-      <c r="S56" s="116">
-        <f t="shared" si="21"/>
-        <v>-8.4678157049555836E-3</v>
+        <v>-1.2309609463077242E-2</v>
       </c>
       <c r="T56" s="114">
-        <f t="shared" si="22"/>
-        <v>1</v>
+        <f t="shared" si="26"/>
+        <v>2</v>
       </c>
       <c r="U56" s="116">
-        <f>((N56/$N$57)-1)/T56*30</f>
-        <v>-0.25403447114866751</v>
+        <f>((N56/$N$58)-1)/T56*30</f>
+        <v>-0.18464414194615864</v>
       </c>
       <c r="V56" s="116"/>
       <c r="W56" s="116"/>
@@ -9877,66 +9891,69 @@
         <v>68</v>
       </c>
       <c r="AM56">
-        <v>16.57</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="117">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B57">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C57">
-        <v>31.571400000000001</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D57">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E57">
-        <v>34.558100000000003</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F57" s="112">
         <v>161</v>
       </c>
       <c r="G57">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L57">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M57">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N57" s="200">
-        <f t="shared" si="23"/>
-        <v>530444.86411900003</v>
+        <v>0.979213</v>
+      </c>
+      <c r="N57" s="113">
+        <f t="shared" si="27"/>
+        <v>525953.15476800012</v>
       </c>
       <c r="O57">
-        <v>164.91</v>
+        <v>161.94999999999999</v>
       </c>
       <c r="P57">
-        <v>257088.48</v>
+        <v>252645.61</v>
       </c>
       <c r="Q57" s="115">
-        <v>9131.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="R57" s="127">
+        <f t="shared" si="29"/>
+        <v>-6.8684302510850781E-3</v>
+      </c>
+      <c r="S57" s="116">
         <f t="shared" si="25"/>
-        <v>-2.6283166070184549E-3</v>
-      </c>
-      <c r="S57" s="116">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-8.4678157049555836E-3</v>
       </c>
       <c r="T57" s="114">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="U57" s="116"/>
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="U57" s="116">
+        <f>((N57/$N$58)-1)/T57*30</f>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V57" s="116"/>
       <c r="W57" s="116"/>
       <c r="X57" s="116"/>
@@ -9945,72 +9962,69 @@
       <c r="AA57" s="116"/>
       <c r="AB57" s="133"/>
       <c r="AC57" s="134"/>
-      <c r="AH57">
-        <v>12</v>
-      </c>
-      <c r="AI57">
-        <v>41.58</v>
-      </c>
-      <c r="AJ57">
-        <f>AJ64</f>
-        <v>15</v>
-      </c>
-      <c r="AK57">
-        <v>55.55</v>
-      </c>
       <c r="AL57">
         <v>68</v>
       </c>
       <c r="AM57">
-        <v>15.07</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="A58" s="117">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B58">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C58">
-        <v>31.402999999999999</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D58">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E58">
-        <v>34.3643</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F58" s="112">
         <v>161</v>
       </c>
       <c r="G58">
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="L58">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M58">
-        <v>0.99115900000000001</v>
-      </c>
-      <c r="N58" s="113">
-        <f t="shared" si="23"/>
-        <v>523720.92595699994</v>
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N58" s="200">
+        <f t="shared" si="27"/>
+        <v>530444.86411900003</v>
       </c>
       <c r="O58">
-        <v>160.9</v>
+        <v>164.91</v>
+      </c>
+      <c r="P58">
+        <v>257088.48</v>
       </c>
       <c r="Q58" s="115">
-        <v>9155.32</v>
+        <v>9131.32</v>
       </c>
       <c r="R58" s="127">
+        <f t="shared" si="29"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S58" s="116">
         <f t="shared" si="25"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S58" s="116"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="114">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
       <c r="U58" s="116"/>
       <c r="V58" s="116"/>
       <c r="W58" s="116"/>
@@ -10024,66 +10038,66 @@
         <v>12</v>
       </c>
       <c r="AI58">
-        <v>37.799999999999997</v>
+        <v>41.58</v>
       </c>
       <c r="AJ58">
-        <f>AJ64</f>
+        <f>AJ65</f>
         <v>15</v>
       </c>
       <c r="AK58">
-        <v>57.75</v>
+        <v>55.55</v>
       </c>
       <c r="AL58">
         <v>68</v>
       </c>
       <c r="AM58">
-        <v>13.7</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="117">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B59">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C59">
-        <v>31.297000000000001</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D59">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E59">
-        <v>34.110599999999998</v>
+        <v>34.3643</v>
       </c>
       <c r="F59" s="112">
         <v>161</v>
       </c>
       <c r="G59">
-        <v>2184.79</v>
+        <v>2198.16</v>
       </c>
       <c r="L59">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M59">
-        <v>0.945214</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N59" s="113">
-        <f t="shared" si="23"/>
-        <v>515625.882094</v>
+        <f t="shared" si="27"/>
+        <v>523720.92595699994</v>
       </c>
       <c r="O59">
-        <v>155.75</v>
+        <v>160.9</v>
       </c>
       <c r="Q59" s="115">
-        <v>9054.18</v>
+        <v>9155.32</v>
       </c>
       <c r="R59" s="127">
-        <f t="shared" si="25"/>
-        <v>3.4194151209717583E-2</v>
+        <f t="shared" si="29"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S59" s="116"/>
       <c r="U59" s="116"/>
@@ -10099,66 +10113,66 @@
         <v>12</v>
       </c>
       <c r="AI59">
-        <v>34.380000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ59">
-        <f>AJ64</f>
+        <f>AJ65</f>
         <v>15</v>
       </c>
       <c r="AK59">
-        <v>63.1</v>
+        <v>57.75</v>
       </c>
       <c r="AL59">
         <v>68</v>
       </c>
       <c r="AM59">
-        <v>12.46</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" s="117">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B60">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C60">
-        <v>31.293399999999998</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D60">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E60">
-        <v>34.006500000000003</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F60" s="112">
         <v>161</v>
       </c>
       <c r="G60">
-        <v>2150.9</v>
+        <v>2184.79</v>
       </c>
       <c r="L60">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M60">
-        <v>0.99397100000000005</v>
+        <v>0.945214</v>
       </c>
       <c r="N60" s="113">
-        <f t="shared" si="23"/>
-        <v>516226.70193500002</v>
+        <f t="shared" si="27"/>
+        <v>515625.882094</v>
       </c>
       <c r="O60">
-        <v>156.16</v>
+        <v>155.75</v>
       </c>
       <c r="Q60" s="115">
-        <v>8744.58</v>
+        <v>9054.18</v>
       </c>
       <c r="R60" s="127">
-        <f t="shared" si="25"/>
-        <v>-1.3258498407013208E-2</v>
+        <f t="shared" si="29"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S60" s="116"/>
       <c r="U60" s="116"/>
@@ -10170,77 +10184,70 @@
       <c r="AA60" s="116"/>
       <c r="AB60" s="133"/>
       <c r="AC60" s="134"/>
-      <c r="AF60">
-        <f>AF64</f>
-        <v>57</v>
-      </c>
-      <c r="AG60">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH60">
         <v>12</v>
       </c>
       <c r="AI60">
-        <v>31.26</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ60">
-        <f>AJ64</f>
+        <f>AJ65</f>
         <v>15</v>
       </c>
       <c r="AK60">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="AL60">
         <v>68</v>
       </c>
       <c r="AM60">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="61" spans="1:39">
       <c r="A61" s="117">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B61">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C61">
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D61">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E61">
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F61" s="112">
         <v>161</v>
       </c>
       <c r="G61">
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="L61">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M61">
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N61" s="113">
-        <f t="shared" si="23"/>
-        <v>513091.35418300005</v>
+        <f t="shared" si="27"/>
+        <v>516226.70193500002</v>
       </c>
       <c r="O61">
-        <v>154.22999999999999</v>
+        <v>156.16</v>
       </c>
       <c r="Q61" s="115">
-        <v>8860.52</v>
+        <v>8744.58</v>
       </c>
       <c r="R61" s="127">
-        <f t="shared" si="25"/>
-        <v>-5.319100910555985E-3</v>
+        <f t="shared" si="29"/>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S61" s="116"/>
       <c r="U61" s="116"/>
@@ -10252,33 +10259,25 @@
       <c r="AA61" s="116"/>
       <c r="AB61" s="133"/>
       <c r="AC61" s="134"/>
-      <c r="AD61">
-        <f>AD64</f>
-        <v>36</v>
-      </c>
-      <c r="AE61" s="135">
-        <v>38.15</v>
-      </c>
       <c r="AF61">
-        <f>AF64</f>
+        <f>AF65</f>
         <v>57</v>
       </c>
       <c r="AG61">
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH61">
-        <f>AH64</f>
         <v>12</v>
       </c>
       <c r="AI61">
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="AJ61">
-        <f>AJ64</f>
+        <f>AJ65</f>
         <v>15</v>
       </c>
       <c r="AK61">
-        <v>52.2</v>
+        <v>57.4</v>
       </c>
       <c r="AL61">
         <v>68</v>
@@ -10289,45 +10288,48 @@
     </row>
     <row r="62" spans="1:39">
       <c r="A62" s="117">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B62">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C62">
-        <v>30.905999999999999</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D62">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E62">
-        <v>33.542299999999997</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F62" s="112">
         <v>161</v>
       </c>
       <c r="G62">
-        <v>2072.52</v>
+        <v>2116.34</v>
       </c>
       <c r="L62">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M62">
-        <v>1.041954</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N62" s="113">
-        <f t="shared" si="23"/>
-        <v>509025.91517699993</v>
+        <f t="shared" si="27"/>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O62">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q62" s="115">
-        <v>8907.65</v>
+        <v>8860.52</v>
       </c>
       <c r="R62" s="127">
-        <f t="shared" si="25"/>
-        <v>-2.1273848882702007E-2</v>
+        <f t="shared" si="29"/>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S62" s="116"/>
       <c r="U62" s="116"/>
@@ -10340,32 +10342,32 @@
       <c r="AB62" s="133"/>
       <c r="AC62" s="134"/>
       <c r="AD62">
-        <f>AD64</f>
+        <f>AD65</f>
         <v>36</v>
       </c>
-      <c r="AE62">
-        <v>34.659999999999997</v>
+      <c r="AE62" s="135">
+        <v>38.15</v>
       </c>
       <c r="AF62">
-        <f>AF64</f>
+        <f>AF65</f>
         <v>57</v>
       </c>
       <c r="AG62">
-        <v>578.66060300000004</v>
+        <v>579.361718</v>
       </c>
       <c r="AH62">
-        <f>AH64</f>
+        <f>AH65</f>
         <v>12</v>
       </c>
       <c r="AI62">
-        <v>25.84</v>
+        <v>28.42</v>
       </c>
       <c r="AJ62">
-        <f>AJ64</f>
+        <f>AJ65</f>
         <v>15</v>
       </c>
       <c r="AK62">
-        <v>47.46</v>
+        <v>52.2</v>
       </c>
       <c r="AL62">
         <v>68</v>
@@ -10376,45 +10378,45 @@
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="117">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B63">
-        <f>B64</f>
+        <f>B65</f>
         <v>1110</v>
       </c>
       <c r="C63">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D63">
-        <f>D64</f>
+        <f>D65</f>
         <v>321.99</v>
       </c>
       <c r="E63">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F63" s="112">
         <v>161</v>
       </c>
       <c r="G63">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L63">
-        <f>L64</f>
+        <f>L65</f>
         <v>125000</v>
       </c>
       <c r="M63">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="N63" s="113">
-        <f t="shared" si="23"/>
-        <v>499114.42414299998</v>
+        <f t="shared" si="27"/>
+        <v>509025.91517699993</v>
       </c>
       <c r="Q63" s="115">
-        <v>9097.15</v>
+        <v>8907.65</v>
       </c>
       <c r="R63" s="127">
-        <f t="shared" si="25"/>
-        <v>-1.0612114783201454E-2</v>
+        <f t="shared" si="29"/>
+        <v>-2.1273848882702007E-2</v>
       </c>
       <c r="S63" s="116"/>
       <c r="U63" s="116"/>
@@ -10427,32 +10429,32 @@
       <c r="AB63" s="133"/>
       <c r="AC63" s="134"/>
       <c r="AD63">
-        <f>AD64</f>
+        <f>AD65</f>
         <v>36</v>
       </c>
       <c r="AE63">
-        <v>31.52</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF63">
-        <f>AF64</f>
+        <f>AF65</f>
         <v>57</v>
       </c>
       <c r="AG63">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH63">
-        <f>AH64</f>
+        <f>AH65</f>
         <v>12</v>
       </c>
       <c r="AI63">
-        <v>23.5</v>
+        <v>25.84</v>
       </c>
       <c r="AJ63">
-        <f>AJ64</f>
+        <f>AJ65</f>
         <v>15</v>
       </c>
       <c r="AK63">
-        <v>43.16</v>
+        <v>47.46</v>
       </c>
       <c r="AL63">
         <v>68</v>
@@ -10463,7 +10465,7 @@
     </row>
     <row r="64" spans="1:39">
       <c r="A64" s="117">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B64">
         <f>B65</f>
@@ -10490,26 +10492,35 @@
         <v>125000</v>
       </c>
       <c r="M64">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="N64" s="113">
-        <f t="shared" si="23"/>
-        <v>496152.04914299998</v>
+        <f t="shared" si="27"/>
+        <v>499114.42414299998</v>
       </c>
       <c r="Q64" s="115">
-        <v>9193.69</v>
+        <v>9097.15</v>
       </c>
       <c r="R64" s="127">
-        <f t="shared" si="25"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S64" s="127"/>
+        <f t="shared" si="29"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S64" s="116"/>
+      <c r="U64" s="116"/>
+      <c r="V64" s="116"/>
+      <c r="W64" s="116"/>
+      <c r="X64" s="116"/>
+      <c r="Y64" s="116"/>
+      <c r="Z64" s="116"/>
+      <c r="AA64" s="116"/>
+      <c r="AB64" s="133"/>
+      <c r="AC64" s="134"/>
       <c r="AD64">
         <f>AD65</f>
         <v>36</v>
       </c>
       <c r="AE64">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="AF64">
         <f>AF65</f>
@@ -10523,30 +10534,35 @@
         <v>12</v>
       </c>
       <c r="AI64">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="AJ64">
+        <f>AJ65</f>
         <v>15</v>
       </c>
       <c r="AK64">
-        <v>39.24</v>
-      </c>
-      <c r="AM64" s="129">
-        <f>AM63</f>
+        <v>43.16</v>
+      </c>
+      <c r="AL64">
+        <v>68</v>
+      </c>
+      <c r="AM64">
         <v>11.33</v>
       </c>
     </row>
     <row r="65" spans="1:39">
       <c r="A65" s="117">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B65">
+        <f>B66</f>
         <v>1110</v>
       </c>
       <c r="C65">
         <v>30.7361</v>
       </c>
       <c r="D65">
+        <f>D66</f>
         <v>321.99</v>
       </c>
       <c r="E65">
@@ -10559,21 +10575,22 @@
         <v>2018.91</v>
       </c>
       <c r="L65">
+        <f>L66</f>
         <v>125000</v>
       </c>
       <c r="M65">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="N65" s="113">
-        <f t="shared" si="23"/>
-        <v>503322.92414299998</v>
+        <f t="shared" si="27"/>
+        <v>496152.04914299998</v>
       </c>
       <c r="Q65" s="115">
-        <v>9062.36</v>
+        <v>9193.69</v>
       </c>
       <c r="R65" s="127">
-        <f t="shared" si="25"/>
-        <v>-1.292378585710563E-2</v>
+        <f t="shared" si="29"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S65" s="127"/>
       <c r="AD65">
@@ -10581,31 +10598,36 @@
         <v>36</v>
       </c>
       <c r="AE65">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="AF65">
+        <f>AF66</f>
         <v>57</v>
       </c>
       <c r="AG65">
         <v>576.58807100000001</v>
       </c>
       <c r="AH65">
+        <f>AH66</f>
         <v>12</v>
       </c>
       <c r="AI65">
-        <v>19.45</v>
-      </c>
-      <c r="AK65" s="129">
-        <f>AK64</f>
+        <v>21.38</v>
+      </c>
+      <c r="AJ65">
+        <v>15</v>
+      </c>
+      <c r="AK65">
         <v>39.24</v>
       </c>
-      <c r="AM65" s="129" t="s">
-        <v>69</v>
+      <c r="AM65" s="129">
+        <f>AM64</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="66" spans="1:39">
       <c r="A66" s="117">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B66">
         <v>1110</v>
@@ -10625,29 +10647,30 @@
       <c r="G66">
         <v>2018.91</v>
       </c>
-      <c r="L66" s="199">
-        <v>75000</v>
+      <c r="L66">
+        <v>125000</v>
       </c>
       <c r="M66">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="N66" s="113">
-        <f t="shared" si="23"/>
-        <v>449692.54914299998</v>
+        <f t="shared" si="27"/>
+        <v>503322.92414299998</v>
       </c>
       <c r="Q66" s="115">
-        <v>9179.48</v>
+        <v>9062.36</v>
       </c>
       <c r="R66" s="127">
-        <f t="shared" si="25"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="29"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S66" s="127"/>
       <c r="AD66">
+        <f>AD67</f>
         <v>36</v>
       </c>
       <c r="AE66">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="AF66">
         <v>57</v>
@@ -10655,20 +10678,23 @@
       <c r="AG66">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI66" s="129">
-        <f>AI65</f>
+      <c r="AH66">
+        <v>12</v>
+      </c>
+      <c r="AI66">
         <v>19.45</v>
       </c>
-      <c r="AK66" s="129" t="s">
+      <c r="AK66" s="129">
+        <f>AK65</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM66" s="129" t="s">
         <v>69</v>
-      </c>
-      <c r="AM66" s="130" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:39">
       <c r="A67" s="117">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B67">
         <v>1110</v>
@@ -10688,30 +10714,29 @@
       <c r="G67">
         <v>2018.91</v>
       </c>
-      <c r="L67">
-        <f>L68</f>
-        <v>50000</v>
+      <c r="L67" s="199">
+        <v>75000</v>
       </c>
       <c r="M67">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N67" s="113">
-        <f t="shared" si="23"/>
-        <v>420821.92414299998</v>
+        <f t="shared" si="27"/>
+        <v>449692.54914299998</v>
       </c>
       <c r="Q67" s="115">
-        <v>9334.1299999999992</v>
+        <v>9179.48</v>
       </c>
       <c r="R67" s="127">
-        <f t="shared" si="25"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="29"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S67" s="127"/>
       <c r="AD67">
         <v>36</v>
       </c>
       <c r="AE67">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="AF67">
         <v>57</v>
@@ -10719,20 +10744,20 @@
       <c r="AG67">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI67" s="129" t="s">
+      <c r="AI67" s="129">
+        <f>AI66</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK67" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="AK67" s="130" t="s">
+      <c r="AM67" s="130" t="s">
         <v>68</v>
-      </c>
-      <c r="AM67" s="130">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:39">
       <c r="A68" s="117">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B68">
         <v>1110</v>
@@ -10753,28 +10778,29 @@
         <v>2018.91</v>
       </c>
       <c r="L68">
+        <f>L69</f>
         <v>50000</v>
       </c>
       <c r="M68">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N68" s="113">
-        <f t="shared" si="23"/>
-        <v>420020.17414299998</v>
+        <f t="shared" si="27"/>
+        <v>420821.92414299998</v>
       </c>
       <c r="Q68" s="115">
-        <v>9374.2000000000007</v>
+        <v>9334.1299999999992</v>
       </c>
       <c r="R68" s="127">
-        <f t="shared" si="25"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="29"/>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="S68" s="127"/>
       <c r="AD68">
         <v>36</v>
       </c>
       <c r="AE68">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="AF68">
         <v>57</v>
@@ -10782,132 +10808,195 @@
       <c r="AG68">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI68" s="130" t="s">
+      <c r="AI68" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK68" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="AK68" s="130">
-        <v>55.5</v>
-      </c>
-      <c r="AM68" s="116">
-        <f>(AM67-AM63)/AM63</f>
-        <v>0.73786407766990303</v>
+      <c r="AM68" s="130">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:39">
-      <c r="A69" s="198">
-        <v>45344</v>
-      </c>
-      <c r="L69" s="199">
+      <c r="A69" s="117">
+        <v>45345</v>
+      </c>
+      <c r="B69">
+        <v>1110</v>
+      </c>
+      <c r="C69">
+        <v>30.7361</v>
+      </c>
+      <c r="D69">
+        <v>321.99</v>
+      </c>
+      <c r="E69">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F69" s="112">
+        <v>161</v>
+      </c>
+      <c r="G69">
+        <v>2018.91</v>
+      </c>
+      <c r="L69">
         <v>50000</v>
       </c>
       <c r="M69">
         <v>1.0032049999999999</v>
       </c>
       <c r="N69" s="113">
-        <f t="shared" si="23"/>
-        <v>50160.249999999993</v>
+        <f t="shared" si="27"/>
+        <v>420020.17414299998</v>
       </c>
       <c r="Q69" s="115">
-        <v>9347.17</v>
-      </c>
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R69" s="127">
+        <f t="shared" si="29"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S69" s="127"/>
       <c r="AD69">
         <v>36</v>
       </c>
       <c r="AE69">
-        <v>17.82</v>
-      </c>
-      <c r="AI69" s="130">
-        <v>45.72</v>
-      </c>
-      <c r="AK69" s="116">
-        <f>(AK68-AK64)/AK64</f>
-        <v>0.41437308868501521</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF69">
+        <v>57</v>
+      </c>
+      <c r="AG69">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI69" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK69" s="130">
+        <v>55.5</v>
+      </c>
+      <c r="AM69" s="116">
+        <f>(AM68-AM64)/AM64</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="70" spans="1:39">
+      <c r="A70" s="198">
+        <v>45344</v>
+      </c>
+      <c r="L70" s="199">
+        <v>50000</v>
+      </c>
       <c r="M70">
-        <v>0.93849000000000005</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N70" s="113">
+        <f t="shared" si="27"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q70" s="115">
+        <v>9347.17</v>
       </c>
       <c r="AD70">
         <v>36</v>
       </c>
-      <c r="AE70" s="129">
-        <v>15.3</v>
-      </c>
-      <c r="AI70" s="116">
-        <f>(AI69-AI65)/AI65</f>
-        <v>1.3506426735218509</v>
-      </c>
-      <c r="AM70" s="132">
-        <f>(AL63*AM67)-(AL51*AM63)</f>
-        <v>568.48</v>
+      <c r="AE70">
+        <v>17.82</v>
+      </c>
+      <c r="AI70" s="130">
+        <v>45.72</v>
+      </c>
+      <c r="AK70" s="116">
+        <f>(AK69-AK65)/AK65</f>
+        <v>0.41437308868501521</v>
       </c>
     </row>
     <row r="71" spans="1:39">
       <c r="M71">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="R71" s="136">
-        <f>SUM(R10:R70)</f>
-        <v>8.6521031002193882E-2</v>
-      </c>
-      <c r="S71" s="136"/>
-      <c r="AE71" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ71" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK71" s="132">
-        <f>(AJ64*AK68)-(AJ10*AK64)</f>
-        <v>832.5</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD71">
+        <v>36</v>
+      </c>
+      <c r="AE71" s="129">
+        <v>15.3</v>
+      </c>
+      <c r="AI71" s="116">
+        <f>(AI70-AI66)/AI66</f>
+        <v>1.3506426735218509</v>
+      </c>
+      <c r="AM71" s="132">
+        <f>(AL64*AM68)-(AL52*AM64)</f>
+        <v>568.48</v>
       </c>
     </row>
     <row r="72" spans="1:39">
       <c r="M72">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="AE72" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH72" s="132" t="s">
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="R72" s="136">
+        <f>SUM(R10:R71)</f>
+        <v>0.11482546080151146</v>
+      </c>
+      <c r="S72" s="136"/>
+      <c r="AE72" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ72" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AI72" s="132">
-        <f>(AH65*AI69)-(AH10*AI65)</f>
-        <v>548.64</v>
+      <c r="AK72" s="132">
+        <f>(AJ65*AK69)-(AJ10*AK65)</f>
+        <v>832.5</v>
       </c>
     </row>
     <row r="73" spans="1:39">
       <c r="M73">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="AD73" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE73" s="130">
-        <v>38</v>
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="AE73" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH73" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI73" s="132">
+        <f>(AH66*AI70)-(AH10*AI66)</f>
+        <v>548.64</v>
       </c>
     </row>
     <row r="74" spans="1:39">
       <c r="M74">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE74" s="130">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39">
+      <c r="M75">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE74" s="116">
+      <c r="AE75" s="116">
         <f>Sayfa2!M59</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
-      <c r="M75">
+    <row r="76" spans="1:39">
+      <c r="M76">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
-      <c r="AD76" s="132" t="s">
+    <row r="77" spans="1:39">
+      <c r="AD77" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AE76" s="132">
+      <c r="AE77" s="132">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E8ADD0-CE81-4D94-9147-DC1A13878313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9640C62E-01F7-43EE-8650-B03B775D7D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1830" windowWidth="27240" windowHeight="12270" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -2034,11 +2034,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>258068.354356</v>
+        <v>258981.23135600003</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2047,11 +2047,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1660</v>
+        <v>1671</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>155.46286406987952</v>
+        <v>154.98577579652905</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2084,24 +2084,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I36)</f>
-        <v>796907.76890000002</v>
+        <v>797792.1459</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K37)</f>
-        <v>232991.81646499998</v>
+        <v>233904.69346500002</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.4223798318193116</v>
+        <v>0.42403474330754259</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-0.10020267784945504</v>
+        <v>-0.1140466769648006</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-4.2630216508478612E-2</v>
+        <v>-4.3355596301846662E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2256,7 +2256,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O37)</f>
-        <v>232991.81646499992</v>
+        <v>233904.69346499999</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>24.5</v>
+        <v>22.78</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>980</v>
+        <v>911.2</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-6</v>
+        <v>-7.7199999999999989</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-240</v>
+        <v>-308.79999999999995</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M15" s="116">
         <f>K15/E15</f>
-        <v>-0.19672131147540983</v>
+        <v>-0.25311475409836059</v>
       </c>
       <c r="N15" s="116">
         <f>M15/L15*30</f>
-        <v>-0.11571841851494696</v>
+        <v>-0.12247488101533577</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2340,31 +2340,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>28.88</v>
+        <v>27.26</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>1010.8</v>
+        <v>954.1</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-8.5100000000000016</v>
+        <v>-10.129999999999999</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-297.85000000000008</v>
+        <v>-354.54999999999995</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M16" s="116">
         <f>K16/E16</f>
-        <v>-0.2276009628242846</v>
+        <v>-0.27092805562984751</v>
       </c>
       <c r="N16" s="116">
         <f>M16/L16*30</f>
-        <v>-0.13388291930840271</v>
+        <v>-0.13109422046605526</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2394,31 +2394,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>131.6</v>
+        <v>123.7</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1316</v>
+        <v>1237</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-3.4000000000000057</v>
+        <v>-11.299999999999997</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-34.000000000000057</v>
+        <v>-112.99999999999997</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="M17" s="116">
         <f>K17/E17</f>
-        <v>-2.5185185185185227E-2</v>
+        <v>-8.3703703703703683E-2</v>
       </c>
       <c r="N17" s="116">
         <f>M17/L17*30</f>
-        <v>-1.280602636534842E-2</v>
+        <v>-3.5873015873015869E-2</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F19" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G19" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="L19" s="66">
         <f>F19-B19</f>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M19" s="116">
         <f>K19/E19</f>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="N19" s="116">
         <f>M19/L19*30</f>
-        <v>1.8318454334120313E-2</v>
+        <v>1.239189557896374E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2507,31 +2507,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.38</v>
+        <v>24.5</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>60950</v>
+        <v>61250</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>-0.33000000000000185</v>
+        <v>-0.21000000000000085</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>-825.00000000000466</v>
+        <v>-525.00000000000216</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M21" s="116">
         <f>K21/E21</f>
-        <v>-1.335491703763666E-2</v>
+        <v>-8.4985835694051347E-3</v>
       </c>
       <c r="N21" s="116">
         <f>M21/L21*30</f>
-        <v>-7.8558335515509781E-3</v>
+        <v>-4.1122178561637749E-3</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2588,31 +2588,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.38</v>
+        <v>24.5</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>60950</v>
+        <v>61250</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>-0.53000000000000114</v>
+        <v>-0.41000000000000014</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>-1325.0000000000027</v>
+        <v>-1025.0000000000005</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>-2.1276595744680896E-2</v>
+        <v>-1.6459253311922929E-2</v>
       </c>
       <c r="N23" s="116">
         <f>M23/L23*30</f>
-        <v>-1.2274959083469747E-2</v>
+        <v>-7.837739672344253E-3</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2669,31 +2669,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.38</v>
+        <v>24.5</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>60950</v>
+        <v>61250</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-0.74000000000000199</v>
+        <v>-0.62000000000000099</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-1850.000000000005</v>
+        <v>-1550.0000000000025</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-2.945859872611473E-2</v>
+        <v>-2.4681528662420422E-2</v>
       </c>
       <c r="N25" s="116">
         <f>M25/L25*30</f>
-        <v>-1.6068326577880761E-2</v>
+        <v>-1.1218876664736555E-2</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2750,31 +2750,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.82515799999999995</v>
+        <v>0.83506999999999998</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>61886.85</v>
+        <v>62630.25</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.23927700000000007</v>
+        <v>-0.22936500000000004</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-17945.775000000005</v>
+        <v>-17202.375000000004</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.22479249554928207</v>
+        <v>-0.21548051313607694</v>
       </c>
       <c r="N27" s="116">
         <f>M27/L27*30</f>
-        <v>-5.8641520578073585E-2</v>
+        <v>-5.130488408001832E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2805,35 +2805,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.82515799999999995</v>
+        <v>0.83506999999999998</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>41257.899999999994</v>
+        <v>41753.5</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.17804699999999996</v>
+        <v>-0.16813499999999992</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-8902.3499999999985</v>
+        <v>-8406.7499999999964</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.17747818242532681</v>
+        <v>-0.16759784889429374</v>
       </c>
       <c r="N28" s="116">
         <f>M28/L28*30</f>
-        <v>-4.4742398930754657E-2</v>
+        <v>-3.8676426667913939E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-30585.19353500002</v>
+        <v>-28650.693535000009</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2872,50 +2872,50 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F46" si="0">$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
         <f>Sayfa4!G10</f>
-        <v>2381.35</v>
+        <v>2375.65</v>
       </c>
       <c r="I30" s="51">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
-        <v>119067.5</v>
+        <v>118782.5</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ref="J30:J36" si="1">H30-D30</f>
-        <v>554.81999999999994</v>
+        <v>549.12000000000012</v>
       </c>
       <c r="K30" s="65">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>24966.899999999998</v>
+        <v>24710.400000000005</v>
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L36" si="2">F30-B30</f>
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M36" si="3">K30/E30</f>
-        <v>0.30375630293507355</v>
+        <v>0.30063563149797706</v>
       </c>
       <c r="N30" s="116">
         <f t="shared" ref="N30:N36" si="4">M30/L30*30</f>
-        <v>3.7347086426443465E-2</v>
+        <v>3.5368897823291418E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>119067.5</v>
+        <v>118782.5</v>
       </c>
       <c r="Q30" s="1">
         <v>2000</v>
       </c>
       <c r="R30" s="1">
         <f>P30/Q30</f>
-        <v>59.533749999999998</v>
+        <v>59.391249999999999</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2937,50 +2937,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
       </c>
       <c r="H31" s="64">
         <f>H30</f>
-        <v>2381.35</v>
+        <v>2375.65</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>26194.85</v>
+        <v>26132.15</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>1979.25</v>
+        <v>1973.5500000000002</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>21771.75</v>
+        <v>21709.050000000003</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1219</v>
+        <v>1230</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
-        <v>4.9222830141755782</v>
+        <v>4.9081074359612042</v>
       </c>
       <c r="N31" s="116">
         <f t="shared" si="4"/>
-        <v>0.12113904054574842</v>
+        <v>0.1197099374624684</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>26194.85</v>
+        <v>26132.15</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>13.097424999999999</v>
+        <v>13.066075000000001</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3002,50 +3002,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2381.35</v>
+        <v>2375.65</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>119067.5</v>
+        <v>118782.5</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1912.4899999999998</v>
+        <v>1906.79</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>95624.499999999985</v>
+        <v>95339.5</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1379</v>
+        <v>1390</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>4.0790214562982543</v>
+        <v>4.0668643091754468</v>
       </c>
       <c r="N32" s="116">
         <f t="shared" si="4"/>
-        <v>8.873868287813462E-2</v>
+        <v>8.777404983831899E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>119067.5</v>
+        <v>118782.5</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>59.533749999999998</v>
+        <v>59.391249999999999</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3075,36 +3075,36 @@
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2381.35</v>
+        <v>2375.65</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>59533.75</v>
+        <v>59391.25</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>1981.48</v>
+        <v>1975.7800000000002</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>49537</v>
+        <v>49394.500000000007</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1443</v>
+        <v>1454</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>4.9553104759046693</v>
+        <v>4.9410558431490239</v>
       </c>
       <c r="N33" s="116">
         <f t="shared" si="4"/>
-        <v>0.10302100781506589</v>
+        <v>0.10194750708010365</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
         <f>SUM(R30:R32)</f>
-        <v>132.16492499999998</v>
+        <v>131.84857499999998</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3134,31 +3134,31 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2381.35</v>
+        <v>2375.65</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>57152.399999999994</v>
+        <v>57015.600000000006</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>2107.54</v>
+        <v>2101.84</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>50580.959999999999</v>
+        <v>50444.160000000003</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1660</v>
+        <v>1671</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>7.697089222453525</v>
+        <v>7.6762718673532744</v>
       </c>
       <c r="N34" s="116">
         <f t="shared" si="4"/>
-        <v>0.13910402209253359</v>
+        <v>0.13781457571549866</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3189,40 +3189,40 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2381.35</v>
+        <v>2375.65</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>2381.35</v>
+        <v>2375.65</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2143.7599999999998</v>
+        <v>2138.06</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>2143.7599999999998</v>
+        <v>2138.06</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1660</v>
+        <v>1671</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>9.0229386758701953</v>
+        <v>8.9989477671619174</v>
       </c>
       <c r="N35" s="116">
         <f t="shared" si="4"/>
-        <v>0.16306515679283484</v>
+        <v>0.16156100120577949</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
         <f>SUM(P30:P34)</f>
-        <v>264329.84999999998</v>
+        <v>263697.15000000002</v>
       </c>
       <c r="R35" s="1">
         <f>P35/2220.32</f>
-        <v>119.05033959068962</v>
+        <v>118.76538066584997</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3252,43 +3252,43 @@
       </c>
       <c r="H36" s="64">
         <f>Sayfa4!C5</f>
-        <v>32.073999999999998</v>
+        <v>31.954699999999999</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>35602.14</v>
+        <v>35469.716999999997</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>17.073999999999998</v>
+        <v>16.954699999999999</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>18952.14</v>
+        <v>18819.717000000001</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>1.1382666666666665</v>
+        <v>1.1303133333333333</v>
       </c>
       <c r="N36" s="116">
         <f t="shared" si="4"/>
-        <v>4.956168359941944E-2</v>
+        <v>4.8441999999999999E-2</v>
       </c>
       <c r="O36" s="70">
         <f>SUM(K30:K36)</f>
-        <v>263577.00999999995</v>
+        <v>262555.38699999999</v>
       </c>
       <c r="P36" s="6">
         <f>SUM(P35:P35)</f>
-        <v>264329.84999999998</v>
+        <v>263697.15000000002</v>
       </c>
       <c r="R36" s="1">
         <f>P36/2000</f>
-        <v>132.16492499999998</v>
+        <v>131.84857500000001</v>
       </c>
       <c r="T36" s="1" t="e">
         <f>P35/#REF!</f>
@@ -3334,7 +3334,7 @@
       <c r="N39" s="116"/>
       <c r="R39" s="1">
         <f>R36*2220.32</f>
-        <v>293448.42627599998</v>
+        <v>292746.02804400004</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="F44" s="62">
         <f t="shared" si="0"/>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G44" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="L44" s="66">
         <f t="shared" ref="L44" si="6">F44-B44</f>
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="M44" s="67">
         <f t="shared" ref="M44" si="7">K44/E44</f>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="N44" s="116">
         <f t="shared" ref="N44" si="8">M44/L44*30</f>
-        <v>3.8416715764761626E-2</v>
+        <v>3.7804275368511803E-2</v>
       </c>
       <c r="O44" s="70"/>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="F45" s="62">
         <f t="shared" si="0"/>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G45" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="L45" s="66">
         <f>F45-B45</f>
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="M45" s="67">
         <f>K45/E45</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="N45" s="116">
         <f>M45/L45*30</f>
-        <v>3.9605910223299526E-2</v>
+        <v>3.8974511654522287E-2</v>
       </c>
       <c r="O45" s="70"/>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="F46" s="62">
         <f t="shared" si="0"/>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G46" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="L46" s="66">
         <f>F46-B46</f>
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="M46" s="67">
         <f>K46/E46</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F73" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G73" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="L73" s="66">
         <f>F73-B73</f>
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="M73" s="116">
         <f>K73/E73</f>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="N73" s="116">
         <f>M73/L73*30</f>
-        <v>1.8318454334120313E-2</v>
+        <v>1.239189557896374E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="F74" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G74" s="63">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="L74" s="66">
         <f>F74-B74</f>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M74" s="116">
         <f>K74/E74</f>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="N74" s="116">
         <f>M74/L74*30</f>
-        <v>3.1641620192190106E-2</v>
+        <v>2.6027784351640243E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="F75" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G75" s="63">
         <v>12</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="L75" s="66">
         <f>F75-B75</f>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M75" s="116">
         <f>K75/E75</f>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="N75" s="116">
         <f>M75/L75*30</f>
-        <v>2.9055313409157405E-2</v>
+        <v>2.3900338449468189E-2</v>
       </c>
       <c r="O75" s="102"/>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="F76" s="62">
         <f>$B$2</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="G76" s="63">
         <v>15</v>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="L76" s="66">
         <f>F76-B76</f>
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M76" s="116">
         <f>K76/E76</f>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="N76" s="116">
         <f>M76/L76*30</f>
-        <v>2.9055313409157405E-2</v>
+        <v>2.3900338449468189E-2</v>
       </c>
       <c r="O76" s="102"/>
     </row>
@@ -5930,12 +5930,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM77"/>
+  <dimension ref="A4:AM79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="U27" sqref="U27"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5987,51 +5987,51 @@
     <row r="5" spans="1:39">
       <c r="A5" s="117">
         <f>A10</f>
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="C5">
         <f>C10</f>
-        <v>32.073999999999998</v>
+        <v>31.954699999999999</v>
       </c>
       <c r="E5">
         <f>E10</f>
-        <v>34.383299999999998</v>
+        <v>34.421599999999998</v>
       </c>
       <c r="G5">
         <f>G10</f>
-        <v>2381.35</v>
+        <v>2375.65</v>
       </c>
       <c r="I5">
         <f>I10</f>
-        <v>24.38</v>
+        <v>24.5</v>
       </c>
       <c r="K5">
         <f>K10</f>
-        <v>667.64119100000005</v>
+        <v>677.53942199999995</v>
       </c>
       <c r="M5">
         <f>M10</f>
-        <v>0.82515799999999995</v>
+        <v>0.83506999999999998</v>
       </c>
       <c r="O5" s="115">
         <f>Sayfa2!D3</f>
-        <v>155.46286406987952</v>
+        <v>154.98577579652905</v>
       </c>
       <c r="P5" s="118">
         <f>Sayfa2!K2</f>
-        <v>258068.354356</v>
+        <v>258981.23135600003</v>
       </c>
       <c r="Y5" s="115">
         <f>Y10</f>
-        <v>28.88</v>
+        <v>27.26</v>
       </c>
       <c r="AA5" s="115">
         <f>AA10</f>
-        <v>24.5</v>
+        <v>22.78</v>
       </c>
       <c r="AC5" s="115">
         <f>AC10</f>
-        <v>131.6</v>
+        <v>123.7</v>
       </c>
       <c r="AE5">
         <f>AE10</f>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM52</f>
+        <f>AM54</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -6139,2469 +6139,2503 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="117">
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="B10">
-        <f>B64</f>
+        <f>B66</f>
         <v>1110</v>
       </c>
       <c r="C10">
-        <v>32.073999999999998</v>
+        <v>31.954699999999999</v>
       </c>
       <c r="D10">
-        <f>D64</f>
+        <f>D66</f>
         <v>321.99</v>
       </c>
       <c r="E10">
-        <v>34.383299999999998</v>
+        <v>34.421599999999998</v>
       </c>
       <c r="F10" s="112">
         <v>156</v>
       </c>
       <c r="G10">
-        <v>2381.35</v>
+        <v>2375.65</v>
       </c>
       <c r="H10" s="199">
         <v>7500</v>
       </c>
       <c r="I10" s="199">
-        <v>24.38</v>
+        <v>24.5</v>
       </c>
       <c r="J10">
         <v>210</v>
       </c>
       <c r="K10" s="137">
-        <v>667.64119100000005</v>
+        <v>677.53942199999995</v>
       </c>
       <c r="L10">
-        <f>L64</f>
+        <f>L66</f>
         <v>125000</v>
       </c>
       <c r="M10">
-        <v>0.82515799999999995</v>
+        <v>0.83506999999999998</v>
       </c>
       <c r="N10" s="113">
-        <f t="shared" ref="N10:N25" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>844363.21887700004</v>
+        <f t="shared" ref="N10:N27" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
+        <v>847571.55660400004</v>
       </c>
       <c r="O10">
-        <v>155.46</v>
+        <v>154.99</v>
       </c>
       <c r="P10">
-        <v>258068.35</v>
+        <v>258981.23</v>
       </c>
       <c r="Q10" s="115">
-        <v>10569</v>
+        <v>10647.91</v>
       </c>
       <c r="R10" s="127">
-        <f t="shared" ref="R10:R11" si="1">(1-(Q11/Q10))</f>
-        <v>9.2421231904626922E-3</v>
+        <f>(1-(Q13/Q10))</f>
+        <v>1.658447526322071E-2</v>
       </c>
       <c r="S10" s="116">
-        <f>(N10/$N$58)-1</f>
-        <v>0.59180204389268165</v>
+        <f>(N10/$N$60)-1</f>
+        <v>0.59785043448710962</v>
       </c>
       <c r="T10" s="114">
-        <f>(A10-$A$58)</f>
-        <v>101</v>
+        <f>(A10-$A$60)</f>
+        <v>112</v>
       </c>
       <c r="U10" s="116">
-        <f>((N10/$N$58)-1)/T10*30</f>
-        <v>0.17578278531465791</v>
+        <f>((N10/$N$60)-1)/T10*30</f>
+        <v>0.16013850923761863</v>
       </c>
       <c r="V10" s="116"/>
       <c r="W10" s="116"/>
       <c r="X10" s="134"/>
       <c r="Y10" s="134">
-        <v>28.88</v>
+        <v>27.26</v>
       </c>
       <c r="Z10" s="134"/>
       <c r="AA10" s="134">
-        <v>24.5</v>
+        <v>22.78</v>
       </c>
       <c r="AB10">
         <v>10</v>
       </c>
       <c r="AC10" s="115">
-        <v>131.6</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="117">
-        <v>45457</v>
+        <v>45471</v>
       </c>
       <c r="B11">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C11">
-        <v>31.614799999999999</v>
+        <v>31.954699999999999</v>
       </c>
       <c r="D11">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E11">
-        <v>33.916400000000003</v>
+        <v>34.421599999999998</v>
       </c>
       <c r="F11" s="112">
         <v>156</v>
       </c>
       <c r="G11">
-        <v>2329.98</v>
+        <v>2375.65</v>
       </c>
       <c r="H11" s="199">
         <v>7500</v>
       </c>
       <c r="I11" s="199">
-        <v>23.62</v>
+        <v>24.5</v>
       </c>
       <c r="J11">
         <v>210</v>
       </c>
       <c r="K11" s="137">
-        <v>662.49433199999999</v>
+        <v>677.53942199999995</v>
       </c>
       <c r="L11">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M11">
-        <v>0.81506400000000001</v>
+        <v>0.83506999999999998</v>
       </c>
       <c r="N11" s="113">
-        <f t="shared" ref="N11" si="2">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
-        <v>827646.85935600009</v>
+        <f t="shared" ref="N11" si="1">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
+        <v>847571.55660400004</v>
       </c>
       <c r="O11">
-        <v>146.61000000000001</v>
+        <v>154.99</v>
       </c>
       <c r="P11">
-        <v>242499.97</v>
+        <v>258981.23</v>
       </c>
       <c r="Q11" s="115">
-        <v>10471.32</v>
+        <v>10647.91</v>
       </c>
       <c r="R11" s="127">
-        <f t="shared" si="1"/>
-        <v>7.5854811045790171E-3</v>
+        <f>(1-(Q14/Q11))</f>
+        <v>2.4044155144061219E-2</v>
       </c>
       <c r="S11" s="116">
-        <f>(N11/$N$58)-1</f>
-        <v>0.56028819457157697</v>
+        <f>(N11/$N$60)-1</f>
+        <v>0.59785043448710962</v>
       </c>
       <c r="T11" s="114">
-        <f>(A11-$A$58)</f>
-        <v>95</v>
+        <f>(A11-$A$60)</f>
+        <v>109</v>
       </c>
       <c r="U11" s="116">
-        <f>((N11/$N$58)-1)/T11*30</f>
-        <v>0.17693311407523482</v>
+        <f>((N11/$N$60)-1)/T11*30</f>
+        <v>0.1645459911432412</v>
       </c>
       <c r="V11" s="116"/>
       <c r="W11" s="116"/>
       <c r="X11" s="134"/>
       <c r="Y11" s="134">
-        <v>27.96</v>
+        <v>27.26</v>
       </c>
       <c r="Z11" s="134"/>
       <c r="AA11" s="134">
-        <v>23.6</v>
+        <v>22.78</v>
       </c>
       <c r="AB11">
         <v>10</v>
       </c>
       <c r="AC11" s="115">
-        <v>130.1</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="117">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B12">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.614799999999999</v>
+        <v>32.073999999999998</v>
       </c>
       <c r="D12">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>33.916400000000003</v>
+        <v>34.383299999999998</v>
       </c>
       <c r="F12" s="112">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="H12" s="199">
         <v>7500</v>
       </c>
       <c r="I12" s="199">
-        <v>23.62</v>
+        <v>24.38</v>
       </c>
       <c r="J12">
         <v>210</v>
       </c>
       <c r="K12" s="137">
-        <v>662.49433199999999</v>
+        <v>667.64119100000005</v>
       </c>
       <c r="L12">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.81506400000000001</v>
+        <v>0.82515799999999995</v>
       </c>
       <c r="N12" s="113">
-        <f t="shared" ref="N12" si="3">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
-        <v>827646.85935600009</v>
+        <f t="shared" ref="N12" si="2">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
+        <v>844363.21887700004</v>
       </c>
       <c r="O12">
-        <v>146.61000000000001</v>
+        <v>155.46</v>
       </c>
       <c r="P12">
-        <v>242499.97</v>
+        <v>258068.35</v>
       </c>
       <c r="Q12" s="115">
-        <v>10391.89</v>
+        <v>10739.94</v>
       </c>
       <c r="R12" s="127">
-        <f t="shared" ref="R12:R28" si="4">(1-(Q13/Q12))</f>
-        <v>3.2767860321846976E-2</v>
+        <f>(1-(Q14/Q12))</f>
+        <v>3.240707117544428E-2</v>
       </c>
       <c r="S12" s="116">
-        <f>(N12/$N$58)-1</f>
-        <v>0.56028819457157697</v>
+        <f>(N12/$N$60)-1</f>
+        <v>0.59180204389268165</v>
       </c>
       <c r="T12" s="114">
-        <f>(A12-$A$58)</f>
-        <v>94</v>
+        <f>(A12-$A$60)</f>
+        <v>101</v>
       </c>
       <c r="U12" s="116">
-        <f>((N12/$N$58)-1)/T12*30</f>
-        <v>0.17881538124624796</v>
+        <f>((N12/$N$60)-1)/T12*30</f>
+        <v>0.17578278531465791</v>
       </c>
       <c r="V12" s="116"/>
       <c r="W12" s="116"/>
       <c r="X12" s="134"/>
       <c r="Y12" s="134">
-        <v>27.96</v>
+        <v>28.88</v>
       </c>
       <c r="Z12" s="134"/>
       <c r="AA12" s="134">
-        <v>23.6</v>
+        <v>24.5</v>
       </c>
       <c r="AB12">
         <v>10</v>
       </c>
       <c r="AC12" s="115">
-        <v>130.1</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="117">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B13">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C13">
-        <v>31.553599999999999</v>
+        <v>31.614799999999999</v>
       </c>
       <c r="D13">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E13">
-        <v>33.882300000000001</v>
+        <v>33.916400000000003</v>
       </c>
       <c r="F13" s="112">
         <v>156</v>
       </c>
       <c r="G13">
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="H13" s="199">
         <v>7500</v>
       </c>
       <c r="I13" s="199">
-        <v>23.4</v>
+        <v>23.62</v>
       </c>
       <c r="J13">
         <v>210</v>
       </c>
       <c r="K13" s="137">
-        <v>659.86404900000002</v>
+        <v>662.49433199999999</v>
       </c>
       <c r="L13">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M13">
-        <v>0.80056899999999998</v>
+        <v>0.81506400000000001</v>
       </c>
       <c r="N13" s="113">
-        <f t="shared" ref="N13" si="5">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
-        <v>821269.87306699995</v>
+        <f t="shared" ref="N13" si="3">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
+        <v>827646.85935600009</v>
       </c>
       <c r="O13">
-        <v>143.22999999999999</v>
+        <v>146.61000000000001</v>
       </c>
       <c r="P13">
-        <v>236473.13</v>
+        <v>242499.97</v>
       </c>
       <c r="Q13" s="115">
-        <v>10051.370000000001</v>
+        <v>10471.32</v>
       </c>
       <c r="R13" s="127">
-        <f t="shared" si="4"/>
-        <v>-1.3476769833365987E-2</v>
+        <f t="shared" ref="R13" si="4">(1-(Q14/Q13))</f>
+        <v>7.5854811045790171E-3</v>
       </c>
       <c r="S13" s="116">
-        <f>(N13/$N$58)-1</f>
-        <v>0.54826623579629241</v>
+        <f>(N13/$N$60)-1</f>
+        <v>0.56028819457157697</v>
       </c>
       <c r="T13" s="114">
-        <f>(A13-$A$58)</f>
-        <v>92</v>
+        <f>(A13-$A$60)</f>
+        <v>95</v>
       </c>
       <c r="U13" s="116">
-        <f>((N13/$N$58)-1)/T13*30</f>
-        <v>0.17878246819444316</v>
+        <f>((N13/$N$60)-1)/T13*30</f>
+        <v>0.17693311407523482</v>
       </c>
       <c r="V13" s="116"/>
       <c r="W13" s="116"/>
       <c r="X13" s="134"/>
       <c r="Y13" s="134">
-        <v>26.48</v>
+        <v>27.96</v>
       </c>
       <c r="Z13" s="134"/>
       <c r="AA13" s="134">
-        <v>22.34</v>
+        <v>23.6</v>
       </c>
       <c r="AB13">
         <v>10</v>
       </c>
       <c r="AC13" s="115">
-        <v>119</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="117">
-        <v>45450</v>
+        <v>45456</v>
       </c>
       <c r="B14">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C14">
-        <v>31.457999999999998</v>
+        <v>31.614799999999999</v>
       </c>
       <c r="D14">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E14">
-        <v>34.078499999999998</v>
+        <v>33.916400000000003</v>
       </c>
       <c r="F14" s="112">
         <v>156</v>
       </c>
       <c r="G14">
-        <v>2320.73</v>
+        <v>2329.98</v>
       </c>
       <c r="H14" s="199">
         <v>7500</v>
       </c>
       <c r="I14" s="199">
-        <v>23.77</v>
+        <v>23.62</v>
       </c>
       <c r="J14">
         <v>210</v>
       </c>
       <c r="K14" s="137">
-        <v>656.34613999999999</v>
+        <v>662.49433199999999</v>
       </c>
       <c r="L14">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M14">
-        <v>0.831233</v>
+        <v>0.81506400000000001</v>
       </c>
       <c r="N14" s="113">
-        <f t="shared" ref="N14" si="6">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
-        <v>827937.01061500004</v>
+        <f t="shared" ref="N14" si="5">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
+        <v>827646.85935600009</v>
       </c>
       <c r="O14">
-        <v>148.11000000000001</v>
+        <v>146.61000000000001</v>
       </c>
       <c r="P14">
-        <v>243928.95</v>
+        <v>242499.97</v>
       </c>
       <c r="Q14" s="115">
-        <v>10186.83</v>
+        <v>10391.89</v>
       </c>
       <c r="R14" s="127">
-        <f t="shared" si="4"/>
-        <v>-9.1156915350507628E-3</v>
+        <f t="shared" ref="R14:R30" si="6">(1-(Q15/Q14))</f>
+        <v>3.2767860321846976E-2</v>
       </c>
       <c r="S14" s="116">
-        <f t="shared" ref="S14" si="7">(N14/$N$58)-1</f>
-        <v>0.56083519064718579</v>
+        <f>(N14/$N$60)-1</f>
+        <v>0.56028819457157697</v>
       </c>
       <c r="T14" s="114">
-        <f t="shared" ref="T14" si="8">(A14-$A$58)</f>
-        <v>88</v>
+        <f>(A14-$A$60)</f>
+        <v>94</v>
       </c>
       <c r="U14" s="116">
-        <f>((N14/$N$58)-1)/T14*30</f>
-        <v>0.1911938149933588</v>
+        <f>((N14/$N$60)-1)/T14*30</f>
+        <v>0.17881538124624796</v>
       </c>
       <c r="V14" s="116"/>
       <c r="W14" s="116"/>
       <c r="X14" s="134"/>
       <c r="Y14" s="134">
-        <v>27.46</v>
+        <v>27.96</v>
       </c>
       <c r="Z14" s="134"/>
       <c r="AA14" s="134">
-        <v>23.46</v>
+        <v>23.6</v>
       </c>
       <c r="AB14">
         <v>10</v>
       </c>
       <c r="AC14" s="115">
-        <v>122.4</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="117">
-        <v>45449</v>
+        <v>45454</v>
       </c>
       <c r="B15">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.457999999999998</v>
+        <v>31.553599999999999</v>
       </c>
       <c r="D15">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>34.078499999999998</v>
+        <v>33.882300000000001</v>
       </c>
       <c r="F15" s="112">
         <v>156</v>
       </c>
       <c r="G15">
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="H15" s="199">
         <v>7500</v>
       </c>
       <c r="I15" s="199">
-        <v>23.77</v>
+        <v>23.4</v>
       </c>
       <c r="J15">
         <v>210</v>
       </c>
       <c r="K15" s="137">
-        <v>656.34613999999999</v>
+        <v>659.86404900000002</v>
       </c>
       <c r="L15">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M15">
-        <v>0.831233</v>
+        <v>0.80056899999999998</v>
       </c>
       <c r="N15" s="113">
-        <f t="shared" ref="N15" si="9">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
-        <v>827937.01061500004</v>
+        <f t="shared" ref="N15" si="7">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
+        <v>821269.87306699995</v>
       </c>
       <c r="O15">
-        <v>148.11000000000001</v>
+        <v>143.22999999999999</v>
       </c>
       <c r="P15">
-        <v>243928.95</v>
+        <v>236473.13</v>
       </c>
       <c r="Q15" s="115">
-        <v>10279.69</v>
+        <v>10051.370000000001</v>
       </c>
       <c r="R15" s="127">
-        <f t="shared" si="4"/>
-        <v>-6.9330884491651812E-3</v>
+        <f t="shared" si="6"/>
+        <v>-1.3476769833365987E-2</v>
       </c>
       <c r="S15" s="116">
-        <f t="shared" ref="S15:S20" si="10">(N15/$N$58)-1</f>
-        <v>0.56083519064718579</v>
+        <f>(N15/$N$60)-1</f>
+        <v>0.54826623579629241</v>
       </c>
       <c r="T15" s="114">
-        <f t="shared" ref="T15:T20" si="11">(A15-$A$58)</f>
-        <v>87</v>
+        <f>(A15-$A$60)</f>
+        <v>92</v>
       </c>
       <c r="U15" s="116">
-        <f>((N15/$N$58)-1)/T15*30</f>
-        <v>0.19339144505075373</v>
+        <f>((N15/$N$60)-1)/T15*30</f>
+        <v>0.17878246819444316</v>
       </c>
       <c r="V15" s="116"/>
       <c r="W15" s="116"/>
       <c r="X15" s="134"/>
       <c r="Y15" s="134">
-        <v>27.46</v>
+        <v>26.48</v>
       </c>
       <c r="Z15" s="134"/>
       <c r="AA15" s="134">
-        <v>23.46</v>
+        <v>22.34</v>
       </c>
       <c r="AB15">
         <v>10</v>
       </c>
       <c r="AC15" s="115">
-        <v>122.4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="117">
-        <v>45448</v>
+        <v>45450</v>
       </c>
       <c r="B16">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C16">
-        <v>31.783300000000001</v>
+        <v>31.457999999999998</v>
       </c>
       <c r="D16">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E16">
-        <v>34.557899999999997</v>
+        <v>34.078499999999998</v>
       </c>
       <c r="F16" s="112">
         <v>156</v>
       </c>
       <c r="G16">
-        <v>2330.9299999999998</v>
+        <v>2320.73</v>
       </c>
       <c r="H16" s="199">
         <v>7500</v>
       </c>
       <c r="I16" s="199">
-        <v>24.06</v>
+        <v>23.77</v>
       </c>
       <c r="J16">
         <v>210</v>
       </c>
       <c r="K16" s="137">
-        <v>654.52437399999997</v>
+        <v>656.34613999999999</v>
       </c>
       <c r="L16">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M16">
-        <v>0.79747299999999999</v>
+        <v>0.831233</v>
       </c>
       <c r="N16" s="113">
-        <f t="shared" ref="N16" si="12">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
-        <v>827616.08476100001</v>
+        <f t="shared" ref="N16" si="8">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
+        <v>827937.01061500004</v>
       </c>
       <c r="O16">
-        <v>148.06</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="P16">
-        <v>243565.65</v>
+        <v>243928.95</v>
       </c>
       <c r="Q16" s="115">
-        <v>10350.959999999999</v>
+        <v>10186.83</v>
       </c>
       <c r="R16" s="127">
-        <f t="shared" si="4"/>
-        <v>-1.3138877939824489E-3</v>
+        <f t="shared" si="6"/>
+        <v>-9.1156915350507628E-3</v>
       </c>
       <c r="S16" s="116">
-        <f t="shared" si="10"/>
-        <v>0.56023017799514885</v>
+        <f t="shared" ref="S16" si="9">(N16/$N$60)-1</f>
+        <v>0.56083519064718579</v>
       </c>
       <c r="T16" s="114">
-        <f t="shared" si="11"/>
-        <v>86</v>
+        <f t="shared" ref="T16" si="10">(A16-$A$60)</f>
+        <v>88</v>
       </c>
       <c r="U16" s="116">
-        <f>((N16/$N$58)-1)/T16*30</f>
-        <v>0.19542913185877286</v>
+        <f>((N16/$N$60)-1)/T16*30</f>
+        <v>0.1911938149933588</v>
       </c>
       <c r="V16" s="116"/>
       <c r="W16" s="116"/>
       <c r="X16" s="134"/>
       <c r="Y16" s="134">
-        <v>29.06</v>
+        <v>27.46</v>
       </c>
       <c r="Z16" s="134"/>
       <c r="AA16" s="134">
-        <v>24.48</v>
+        <v>23.46</v>
       </c>
       <c r="AB16">
         <v>10</v>
       </c>
       <c r="AC16" s="115">
-        <v>119</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="117">
-        <v>45447</v>
+        <v>45449</v>
       </c>
       <c r="B17">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C17">
-        <v>31.6645</v>
+        <v>31.457999999999998</v>
       </c>
       <c r="D17">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E17">
-        <v>34.409799999999997</v>
+        <v>34.078499999999998</v>
       </c>
       <c r="F17" s="112">
         <v>156</v>
       </c>
       <c r="G17">
-        <v>2319.39</v>
+        <v>2320.73</v>
       </c>
       <c r="H17" s="199">
         <v>7500</v>
       </c>
       <c r="I17" s="199">
-        <v>23.89</v>
+        <v>23.77</v>
       </c>
       <c r="J17">
         <v>210</v>
       </c>
       <c r="K17" s="137">
-        <v>653.60767299999998</v>
+        <v>656.34613999999999</v>
       </c>
       <c r="L17">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M17">
-        <v>0.79912700000000003</v>
+        <v>0.831233</v>
       </c>
       <c r="N17" s="113">
-        <f t="shared" ref="N17" si="13">(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)+(J17*K17)</f>
-        <v>824375.53283199994</v>
+        <f t="shared" ref="N17" si="11">(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)+(J17*K17)</f>
+        <v>827937.01061500004</v>
       </c>
       <c r="O17">
-        <v>146.71</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="P17">
-        <v>241190.1</v>
+        <v>243928.95</v>
       </c>
       <c r="Q17" s="115">
-        <v>10364.56</v>
+        <v>10279.69</v>
       </c>
       <c r="R17" s="127">
-        <f t="shared" si="4"/>
-        <v>-3.4656560432859695E-3</v>
+        <f t="shared" si="6"/>
+        <v>-6.9330884491651812E-3</v>
       </c>
       <c r="S17" s="116">
-        <f t="shared" si="10"/>
-        <v>0.55412105686267799</v>
+        <f t="shared" ref="S17:S22" si="12">(N17/$N$60)-1</f>
+        <v>0.56083519064718579</v>
       </c>
       <c r="T17" s="114">
-        <f t="shared" si="11"/>
-        <v>85</v>
+        <f t="shared" ref="T17:T22" si="13">(A17-$A$60)</f>
+        <v>87</v>
       </c>
       <c r="U17" s="116">
-        <f>((N17/$N$58)-1)/T17*30</f>
-        <v>0.1955721377162393</v>
+        <f>((N17/$N$60)-1)/T17*30</f>
+        <v>0.19339144505075373</v>
       </c>
       <c r="V17" s="116"/>
       <c r="W17" s="116"/>
       <c r="X17" s="134"/>
       <c r="Y17" s="134">
-        <v>30.58</v>
+        <v>27.46</v>
       </c>
       <c r="Z17" s="134"/>
       <c r="AA17" s="134">
-        <v>26.14</v>
+        <v>23.46</v>
       </c>
       <c r="AB17">
         <v>10</v>
       </c>
       <c r="AC17" s="115">
-        <v>114.6</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="117">
-        <v>45443</v>
+        <v>45448</v>
       </c>
       <c r="B18">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>31.576599999999999</v>
+        <v>31.783300000000001</v>
       </c>
       <c r="D18">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>34.157400000000003</v>
+        <v>34.557899999999997</v>
       </c>
       <c r="F18" s="112">
         <v>156</v>
       </c>
       <c r="G18">
-        <v>2324.5500000000002</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="H18" s="199">
         <v>7500</v>
       </c>
       <c r="I18" s="199">
-        <v>24.04</v>
+        <v>24.06</v>
       </c>
       <c r="J18">
         <v>210</v>
       </c>
       <c r="K18" s="137">
-        <v>649.96368099999995</v>
+        <v>654.52437399999997</v>
       </c>
       <c r="L18">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M18">
-        <v>0.80517899999999998</v>
+        <v>0.79747299999999999</v>
       </c>
       <c r="N18" s="113">
         <f t="shared" ref="N18" si="14">(F18*G18)+(B18*C18)+(D18*E18)+(L18*M18)+(H18*I18)+(J18*K18)</f>
-        <v>826117.91523599997</v>
+        <v>827616.08476100001</v>
       </c>
       <c r="O18">
-        <v>147.47</v>
+        <v>148.06</v>
       </c>
       <c r="P18">
-        <v>241854.59</v>
+        <v>243565.65</v>
       </c>
       <c r="Q18" s="115">
-        <v>10400.48</v>
+        <v>10350.959999999999</v>
       </c>
       <c r="R18" s="127">
-        <f t="shared" si="4"/>
-        <v>-7.7707951940679809E-3</v>
+        <f t="shared" si="6"/>
+        <v>-1.3138877939824489E-3</v>
       </c>
       <c r="S18" s="116">
-        <f t="shared" si="10"/>
-        <v>0.55740581371840481</v>
+        <f t="shared" si="12"/>
+        <v>0.56023017799514885</v>
       </c>
       <c r="T18" s="114">
-        <f t="shared" si="11"/>
-        <v>81</v>
+        <f t="shared" si="13"/>
+        <v>86</v>
       </c>
       <c r="U18" s="116">
-        <f>((N18/$N$58)-1)/T18*30</f>
-        <v>0.20644659767348328</v>
+        <f>((N18/$N$60)-1)/T18*30</f>
+        <v>0.19542913185877286</v>
       </c>
       <c r="V18" s="116"/>
       <c r="W18" s="116"/>
       <c r="X18" s="134"/>
       <c r="Y18" s="134">
-        <v>27.94</v>
+        <v>29.06</v>
       </c>
       <c r="Z18" s="134"/>
       <c r="AA18" s="134">
-        <v>24.08</v>
+        <v>24.48</v>
       </c>
       <c r="AB18">
         <v>10</v>
       </c>
       <c r="AC18" s="115">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="117">
-        <v>45442</v>
+        <v>45447</v>
       </c>
       <c r="B19">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>31.554500000000001</v>
+        <v>31.6645</v>
       </c>
       <c r="D19">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>34.104100000000003</v>
+        <v>34.409799999999997</v>
       </c>
       <c r="F19" s="112">
         <v>156</v>
       </c>
       <c r="G19">
-        <v>2317.36</v>
+        <v>2319.39</v>
       </c>
       <c r="H19" s="199">
         <v>7500</v>
       </c>
       <c r="I19" s="199">
-        <v>24</v>
+        <v>23.89</v>
       </c>
       <c r="J19">
         <v>210</v>
       </c>
       <c r="K19" s="137">
-        <v>649.05997200000002</v>
+        <v>653.60767299999998</v>
       </c>
       <c r="L19">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M19">
-        <v>0.78746400000000005</v>
+        <v>0.79912700000000003</v>
       </c>
       <c r="N19" s="113">
         <f t="shared" ref="N19" si="15">(F19*G19)+(B19*C19)+(D19*E19)+(L19*M19)+(H19*I19)+(J19*K19)</f>
-        <v>822250.4282790001</v>
+        <v>824375.53283199994</v>
       </c>
       <c r="O19">
-        <v>145.25</v>
+        <v>146.71</v>
       </c>
       <c r="P19">
-        <v>238057.84</v>
+        <v>241190.1</v>
       </c>
       <c r="Q19" s="115">
-        <v>10481.299999999999</v>
+        <v>10364.56</v>
       </c>
       <c r="R19" s="127">
-        <f t="shared" si="4"/>
-        <v>-3.2018928949655301E-3</v>
+        <f t="shared" si="6"/>
+        <v>-3.4656560432859695E-3</v>
       </c>
       <c r="S19" s="116">
-        <f t="shared" si="10"/>
-        <v>0.55011478835722394</v>
+        <f t="shared" si="12"/>
+        <v>0.55412105686267799</v>
       </c>
       <c r="T19" s="114">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <f t="shared" si="13"/>
+        <v>85</v>
       </c>
       <c r="U19" s="116">
-        <f>((N19/$N$58)-1)/T19*30</f>
-        <v>0.20629304563395898</v>
+        <f>((N19/$N$60)-1)/T19*30</f>
+        <v>0.1955721377162393</v>
       </c>
       <c r="V19" s="116"/>
       <c r="W19" s="116"/>
       <c r="X19" s="134"/>
       <c r="Y19" s="134">
-        <v>28.24</v>
+        <v>30.58</v>
       </c>
       <c r="Z19" s="134"/>
       <c r="AA19" s="134">
-        <v>24.78</v>
+        <v>26.14</v>
       </c>
       <c r="AB19">
         <v>10</v>
       </c>
       <c r="AC19" s="115">
-        <v>119.1</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="117">
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="B20">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.4527</v>
+        <v>31.576599999999999</v>
       </c>
       <c r="D20">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>34.006700000000002</v>
+        <v>34.157400000000003</v>
       </c>
       <c r="F20" s="112">
         <v>156</v>
       </c>
       <c r="G20">
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="H20" s="199">
         <v>7500</v>
       </c>
       <c r="I20" s="199">
-        <v>23.99</v>
+        <v>24.04</v>
       </c>
       <c r="J20">
         <v>210</v>
       </c>
-      <c r="K20">
-        <v>648.15704900000003</v>
+      <c r="K20" s="137">
+        <v>649.96368099999995</v>
       </c>
       <c r="L20">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M20">
-        <v>0.81522399999999995</v>
+        <v>0.80517899999999998</v>
       </c>
       <c r="N20" s="113">
         <f t="shared" ref="N20" si="16">(F20*G20)+(B20*C20)+(D20*E20)+(L20*M20)+(H20*I20)+(J20*K20)</f>
-        <v>827562.53462299996</v>
+        <v>826117.91523599997</v>
       </c>
       <c r="O20">
-        <v>148.58000000000001</v>
+        <v>147.47</v>
       </c>
       <c r="P20">
-        <v>243375.9</v>
+        <v>241854.59</v>
       </c>
       <c r="Q20" s="115">
-        <v>10514.86</v>
+        <v>10400.48</v>
       </c>
       <c r="R20" s="127">
-        <f t="shared" si="4"/>
-        <v>-1.5466682390445463E-2</v>
+        <f t="shared" si="6"/>
+        <v>-7.7707951940679809E-3</v>
       </c>
       <c r="S20" s="116">
-        <f t="shared" si="10"/>
-        <v>0.56012922473568239</v>
+        <f t="shared" si="12"/>
+        <v>0.55740581371840481</v>
       </c>
       <c r="T20" s="114">
-        <f t="shared" si="11"/>
-        <v>79</v>
+        <f t="shared" si="13"/>
+        <v>81</v>
       </c>
       <c r="U20" s="116">
-        <f>((N20/$N$58)-1)/T20*30</f>
-        <v>0.21270730053253761</v>
+        <f>((N20/$N$60)-1)/T20*30</f>
+        <v>0.20644659767348328</v>
       </c>
       <c r="V20" s="116"/>
       <c r="W20" s="116"/>
       <c r="X20" s="134"/>
       <c r="Y20" s="134">
-        <v>28.18</v>
+        <v>27.94</v>
       </c>
       <c r="Z20" s="134"/>
       <c r="AA20" s="134">
-        <v>24.8</v>
+        <v>24.08</v>
       </c>
       <c r="AB20">
         <v>10</v>
       </c>
       <c r="AC20" s="115">
-        <v>119.6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="117">
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="B21">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.4527</v>
+        <v>31.554500000000001</v>
       </c>
       <c r="D21">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.006700000000002</v>
+        <v>34.104100000000003</v>
       </c>
       <c r="F21" s="112">
         <v>156</v>
       </c>
       <c r="G21">
-        <v>2331.79</v>
+        <v>2317.36</v>
       </c>
       <c r="H21" s="199">
         <v>7500</v>
       </c>
       <c r="I21" s="199">
-        <v>23.99</v>
+        <v>24</v>
       </c>
       <c r="J21">
         <v>210</v>
       </c>
-      <c r="K21">
-        <v>647.25598100000002</v>
+      <c r="K21" s="137">
+        <v>649.05997200000002</v>
       </c>
       <c r="L21">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M21">
-        <v>0.86140000000000005</v>
+        <v>0.78746400000000005</v>
       </c>
       <c r="N21" s="113">
-        <f t="shared" si="0"/>
-        <v>833145.31034299999</v>
+        <f t="shared" ref="N21" si="17">(F21*G21)+(B21*C21)+(D21*E21)+(L21*M21)+(H21*I21)+(J21*K21)</f>
+        <v>822250.4282790001</v>
       </c>
       <c r="O21">
-        <v>153.71</v>
+        <v>145.25</v>
       </c>
       <c r="P21">
-        <v>251476.74</v>
+        <v>238057.84</v>
       </c>
       <c r="Q21" s="115">
-        <v>10677.49</v>
+        <v>10481.299999999999</v>
       </c>
       <c r="R21" s="127">
-        <f t="shared" si="4"/>
-        <v>1.9227365232841187E-3</v>
+        <f t="shared" si="6"/>
+        <v>-3.2018928949655301E-3</v>
       </c>
       <c r="S21" s="116">
-        <f t="shared" ref="S21" si="17">(N21/$N$58)-1</f>
-        <v>0.57065392974771467</v>
+        <f t="shared" si="12"/>
+        <v>0.55011478835722394</v>
       </c>
       <c r="T21" s="114">
-        <f t="shared" ref="T21" si="18">(A21-$A$58)</f>
-        <v>78</v>
+        <f t="shared" si="13"/>
+        <v>80</v>
       </c>
       <c r="U21" s="116">
-        <f>((N21/$N$58)-1)/T21*30</f>
-        <v>0.21948228067219797</v>
+        <f>((N21/$N$60)-1)/T21*30</f>
+        <v>0.20629304563395898</v>
       </c>
       <c r="V21" s="116"/>
       <c r="W21" s="116"/>
       <c r="X21" s="134"/>
       <c r="Y21" s="134">
-        <v>28.18</v>
+        <v>28.24</v>
       </c>
       <c r="Z21" s="134"/>
       <c r="AA21" s="134">
-        <v>24.8</v>
+        <v>24.78</v>
       </c>
       <c r="AB21">
         <v>10</v>
       </c>
       <c r="AC21" s="115">
-        <v>119.6</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="117">
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="B22">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.436</v>
+        <v>31.4527</v>
       </c>
       <c r="D22">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>34.100200000000001</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F22" s="112">
         <v>156</v>
       </c>
       <c r="G22">
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="H22" s="199">
         <v>7500</v>
       </c>
       <c r="I22" s="199">
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="J22">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K22">
-        <v>646.30405299999995</v>
+        <v>648.15704900000003</v>
       </c>
       <c r="L22">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M22">
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="N22" s="113">
-        <f t="shared" si="0"/>
-        <v>719037.96498799999</v>
+        <f t="shared" ref="N22" si="18">(F22*G22)+(B22*C22)+(D22*E22)+(L22*M22)+(H22*I22)+(J22*K22)</f>
+        <v>827562.53462299996</v>
       </c>
       <c r="O22">
-        <v>153.71</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="P22">
-        <v>251476.74</v>
+        <v>243375.9</v>
       </c>
       <c r="Q22" s="115">
-        <v>10656.96</v>
+        <v>10514.86</v>
       </c>
       <c r="R22" s="127">
-        <f t="shared" si="4"/>
-        <v>-1.8476188331382204E-3</v>
+        <f t="shared" si="6"/>
+        <v>-1.5466682390445463E-2</v>
       </c>
       <c r="S22" s="116">
-        <f t="shared" ref="S22" si="19">(N22/$N$58)-1</f>
-        <v>0.35553761309807119</v>
+        <f t="shared" si="12"/>
+        <v>0.56012922473568239</v>
       </c>
       <c r="T22" s="114">
-        <f t="shared" ref="T22" si="20">(A22-$A$58)</f>
-        <v>77</v>
+        <f t="shared" si="13"/>
+        <v>79</v>
       </c>
       <c r="U22" s="116">
-        <f>((N22/$N$58)-1)/T22*30</f>
-        <v>0.13852114796028747</v>
+        <f>((N22/$N$60)-1)/T22*30</f>
+        <v>0.21270730053253761</v>
       </c>
       <c r="V22" s="116"/>
       <c r="W22" s="116"/>
       <c r="X22" s="134"/>
       <c r="Y22" s="134">
-        <v>32.36</v>
+        <v>28.18</v>
       </c>
       <c r="Z22" s="134"/>
       <c r="AA22" s="134">
-        <v>23.08</v>
+        <v>24.8</v>
       </c>
       <c r="AB22">
         <v>10</v>
       </c>
       <c r="AC22" s="115">
-        <v>124</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="117">
-        <v>45435</v>
+        <v>45440</v>
       </c>
       <c r="B23">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.4588</v>
+        <v>31.4527</v>
       </c>
       <c r="D23">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>34.044699999999999</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F23" s="112">
         <v>156</v>
       </c>
       <c r="G23">
-        <v>2363.8000000000002</v>
+        <v>2331.79</v>
       </c>
       <c r="H23" s="199">
         <v>7500</v>
       </c>
       <c r="I23" s="199">
-        <v>24.45</v>
+        <v>23.99</v>
       </c>
       <c r="J23">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K23">
-        <v>642.69199700000001</v>
+        <v>647.25598100000002</v>
       </c>
       <c r="L23">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.87326400000000004</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N23" s="113">
         <f t="shared" si="0"/>
-        <v>726447.88086300006</v>
+        <v>833145.31034299999</v>
       </c>
       <c r="O23">
-        <v>158.78</v>
+        <v>153.71</v>
       </c>
       <c r="P23">
-        <v>259129.45</v>
+        <v>251476.74</v>
       </c>
       <c r="Q23" s="115">
-        <v>10676.65</v>
+        <v>10677.49</v>
       </c>
       <c r="R23" s="127">
-        <f t="shared" si="4"/>
-        <v>-1.4329401076180304E-2</v>
+        <f t="shared" si="6"/>
+        <v>1.9227365232841187E-3</v>
       </c>
       <c r="S23" s="116">
-        <f>(N23/$N$58)-1</f>
-        <v>0.36950686113161924</v>
+        <f t="shared" ref="S23" si="19">(N23/$N$60)-1</f>
+        <v>0.57065392974771467</v>
       </c>
       <c r="T23" s="114">
-        <f>(A23-$A$58)</f>
-        <v>73</v>
+        <f t="shared" ref="T23" si="20">(A23-$A$60)</f>
+        <v>78</v>
       </c>
       <c r="U23" s="116">
-        <f>((N23/$N$58)-1)/T23*30</f>
-        <v>0.15185213471162434</v>
+        <f>((N23/$N$60)-1)/T23*30</f>
+        <v>0.21948228067219797</v>
       </c>
       <c r="V23" s="116"/>
       <c r="W23" s="116"/>
       <c r="X23" s="134"/>
       <c r="Y23" s="134">
-        <v>34.299999999999997</v>
+        <v>28.18</v>
       </c>
       <c r="Z23" s="134"/>
       <c r="AA23" s="134">
-        <v>27.92</v>
+        <v>24.8</v>
       </c>
       <c r="AB23">
         <v>10</v>
       </c>
       <c r="AC23" s="115">
-        <v>122</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="117">
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="B24">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.469899999999999</v>
+        <v>31.436</v>
       </c>
       <c r="D24">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>34.182699999999997</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="F24" s="112">
         <v>156</v>
       </c>
       <c r="G24">
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="H24" s="199">
         <v>7500</v>
       </c>
       <c r="I24" s="199">
-        <v>24.91</v>
+        <v>24.32</v>
       </c>
       <c r="J24">
         <v>30</v>
       </c>
       <c r="K24">
-        <v>641.00899600000002</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="L24">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M24">
-        <v>0.86580400000000002</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N24" s="113">
         <f t="shared" si="0"/>
-        <v>737258.36645300011</v>
+        <v>719037.96498799999</v>
       </c>
       <c r="O24">
-        <v>165.69</v>
+        <v>153.71</v>
       </c>
       <c r="P24">
-        <v>269993.23</v>
+        <v>251476.74</v>
       </c>
       <c r="Q24" s="115">
-        <v>10829.64</v>
+        <v>10656.96</v>
       </c>
       <c r="R24" s="127">
-        <f t="shared" si="4"/>
-        <v>8.3169892997366768E-3</v>
+        <f t="shared" si="6"/>
+        <v>-1.8476188331382204E-3</v>
       </c>
       <c r="S24" s="116">
-        <f>(N24/$N$58)-1</f>
-        <v>0.38988689743936056</v>
+        <f t="shared" ref="S24" si="21">(N24/$N$60)-1</f>
+        <v>0.35553761309807119</v>
       </c>
       <c r="T24" s="114">
-        <f>(A24-$A$58)</f>
-        <v>71</v>
+        <f t="shared" ref="T24" si="22">(A24-$A$60)</f>
+        <v>77</v>
       </c>
       <c r="U24" s="116">
-        <f>((N24/$N$58)-1)/T24*30</f>
-        <v>0.16474094258001151</v>
+        <f>((N24/$N$60)-1)/T24*30</f>
+        <v>0.13852114796028747</v>
       </c>
       <c r="V24" s="116"/>
       <c r="W24" s="116"/>
       <c r="X24" s="134"/>
       <c r="Y24" s="134">
-        <v>34.799999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="Z24" s="134"/>
       <c r="AA24" s="134">
-        <v>28.52</v>
+        <v>23.08</v>
       </c>
       <c r="AB24">
         <v>10</v>
       </c>
       <c r="AC24" s="115">
-        <v>123.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="117">
-        <v>45426</v>
+        <v>45435</v>
       </c>
       <c r="B25">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>31.5244</v>
+        <v>31.4588</v>
       </c>
       <c r="D25">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>34.005400000000002</v>
+        <v>34.044699999999999</v>
       </c>
       <c r="F25" s="112">
         <v>156</v>
       </c>
       <c r="G25">
-        <v>2344.5700000000002</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="H25" s="199">
         <v>7500</v>
       </c>
       <c r="I25" s="199">
-        <v>24.41</v>
+        <v>24.45</v>
       </c>
       <c r="J25">
         <v>30</v>
       </c>
       <c r="K25">
-        <v>634.98375399999998</v>
+        <v>642.69199700000001</v>
       </c>
       <c r="L25">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M25">
-        <v>0.84950000000000003</v>
+        <v>0.87326400000000004</v>
       </c>
       <c r="N25" s="113">
         <f t="shared" si="0"/>
-        <v>720006.41536600015</v>
+        <v>726447.88086300006</v>
       </c>
       <c r="O25">
-        <v>158.43</v>
+        <v>158.78</v>
       </c>
       <c r="P25">
-        <v>256973.54</v>
+        <v>259129.45</v>
       </c>
       <c r="Q25" s="115">
-        <v>10739.57</v>
+        <v>10676.65</v>
       </c>
       <c r="R25" s="127">
-        <f t="shared" si="4"/>
-        <v>5.0241303888330702E-2</v>
+        <f t="shared" si="6"/>
+        <v>-1.4329401076180304E-2</v>
       </c>
       <c r="S25" s="116">
-        <f>(N25/$N$58)-1</f>
-        <v>0.35736334550403681</v>
+        <f>(N25/$N$60)-1</f>
+        <v>0.36950686113161924</v>
       </c>
       <c r="T25" s="114">
-        <f>(A25-$A$58)</f>
-        <v>64</v>
+        <f>(A25-$A$60)</f>
+        <v>73</v>
       </c>
       <c r="U25" s="116">
-        <f>((N25/$N$58)-1)/T25*30</f>
-        <v>0.16751406820501724</v>
+        <f>((N25/$N$60)-1)/T25*30</f>
+        <v>0.15185213471162434</v>
       </c>
       <c r="V25" s="116"/>
       <c r="W25" s="116"/>
       <c r="X25" s="134"/>
       <c r="Y25" s="134">
-        <v>35.86</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z25" s="134"/>
       <c r="AA25" s="134">
-        <v>30.2</v>
+        <v>27.92</v>
       </c>
       <c r="AB25">
         <v>10</v>
       </c>
       <c r="AC25" s="115">
-        <v>120.1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="117">
-        <v>45425</v>
+        <v>45433</v>
       </c>
       <c r="B26">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.371600000000001</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="D26">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>33.871899999999997</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="F26" s="112">
         <v>156</v>
       </c>
       <c r="G26">
-        <v>2341.31</v>
+        <v>2416.92</v>
       </c>
       <c r="H26" s="199">
         <v>7500</v>
       </c>
       <c r="I26" s="199">
-        <v>24.47</v>
+        <v>24.91</v>
       </c>
       <c r="J26">
         <v>30</v>
       </c>
       <c r="K26">
-        <v>634.10149999999999</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="L26">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M26">
-        <v>0.88511899999999999</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="N26" s="113">
-        <f t="shared" ref="N26:N34" si="21">(F26*G26)+(B26*C26)+(D26*E26)+(L26*M26)+(H26*I26)+(J26*K26)</f>
-        <v>724161.16908100003</v>
+        <f t="shared" si="0"/>
+        <v>737258.36645300011</v>
       </c>
       <c r="O26">
-        <v>158.43</v>
+        <v>165.69</v>
       </c>
       <c r="P26">
-        <v>256973.54</v>
+        <v>269993.23</v>
       </c>
       <c r="Q26" s="115">
-        <v>10200</v>
+        <v>10829.64</v>
       </c>
       <c r="R26" s="127">
-        <f t="shared" si="4"/>
-        <v>-6.7235294117646838E-3</v>
+        <f t="shared" si="6"/>
+        <v>8.3169892997366768E-3</v>
       </c>
       <c r="S26" s="116">
-        <f>(N26/$N$58)-1</f>
-        <v>0.36519592905049159</v>
+        <f>(N26/$N$60)-1</f>
+        <v>0.38988689743936056</v>
       </c>
       <c r="T26" s="114">
-        <f>(A26-$A$58)</f>
-        <v>63</v>
+        <f>(A26-$A$60)</f>
+        <v>71</v>
       </c>
       <c r="U26" s="116">
-        <f>((N26/$N$58)-1)/T26*30</f>
-        <v>0.17390282335737695</v>
+        <f>((N26/$N$60)-1)/T26*30</f>
+        <v>0.16474094258001151</v>
       </c>
       <c r="V26" s="116"/>
       <c r="W26" s="116"/>
       <c r="X26" s="134"/>
       <c r="Y26" s="134">
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Z26" s="134"/>
       <c r="AA26" s="134">
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AB26">
         <v>10</v>
       </c>
       <c r="AC26" s="115">
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="117">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B27">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>31.712</v>
+        <v>31.5244</v>
       </c>
       <c r="D27">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>34.055500000000002</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F27" s="112">
         <v>156</v>
       </c>
       <c r="G27">
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H27" s="199">
         <v>7500</v>
       </c>
       <c r="I27" s="199">
-        <v>24.39</v>
+        <v>24.41</v>
       </c>
       <c r="J27">
         <v>30</v>
       </c>
       <c r="K27">
-        <v>622.84294799999998</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L27">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M27">
-        <v>0.90642500000000004</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N27" s="113">
-        <f t="shared" si="21"/>
-        <v>725052.22388499998</v>
+        <f t="shared" si="0"/>
+        <v>720006.41536600015</v>
       </c>
       <c r="O27">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P27">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q27" s="115">
-        <v>10268.58</v>
+        <v>10739.57</v>
       </c>
       <c r="R27" s="127">
-        <f t="shared" si="4"/>
-        <v>2.1701150499874422E-2</v>
+        <f t="shared" si="6"/>
+        <v>5.0241303888330702E-2</v>
       </c>
       <c r="S27" s="116">
-        <f>(N27/$N$58)-1</f>
-        <v>0.36687575454089361</v>
+        <f>(N27/$N$60)-1</f>
+        <v>0.35736334550403681</v>
       </c>
       <c r="T27" s="114">
-        <f>(A27-$A$58)</f>
-        <v>59</v>
+        <f>(A27-$A$60)</f>
+        <v>64</v>
       </c>
       <c r="U27" s="116">
-        <f>((N27/$N$58)-1)/T27*30</f>
-        <v>0.18654699383435269</v>
+        <f>((N27/$N$60)-1)/T27*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V27" s="116"/>
       <c r="W27" s="116"/>
       <c r="X27" s="134"/>
       <c r="Y27" s="134">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z27" s="134"/>
       <c r="AA27" s="134">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB27">
         <v>10</v>
       </c>
       <c r="AC27" s="115">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="117">
-        <v>45412</v>
+        <v>45425</v>
       </c>
       <c r="B28">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C28">
-        <v>31.771699999999999</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D28">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E28">
-        <v>34.014699999999998</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F28" s="112">
         <v>156</v>
       </c>
       <c r="G28">
-        <v>2341.2800000000002</v>
+        <v>2341.31</v>
       </c>
       <c r="H28" s="199">
         <v>7500</v>
       </c>
       <c r="I28" s="199">
-        <v>24.71</v>
+        <v>24.47</v>
       </c>
       <c r="J28">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K28">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L28">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M28">
-        <v>0.90242599999999995</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N28" s="113">
-        <f t="shared" si="21"/>
-        <v>769379.83326099999</v>
+        <f t="shared" ref="N28:N36" si="23">(F28*G28)+(B28*C28)+(D28*E28)+(L28*M28)+(H28*I28)+(J28*K28)</f>
+        <v>724161.16908100003</v>
       </c>
       <c r="O28">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P28">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q28" s="115">
-        <v>10045.74</v>
+        <v>10200</v>
       </c>
       <c r="R28" s="127">
-        <f t="shared" si="4"/>
-        <v>1.2952754102733999E-2</v>
+        <f t="shared" si="6"/>
+        <v>-6.7235294117646838E-3</v>
       </c>
       <c r="S28" s="116">
-        <f t="shared" ref="S28" si="22">(N28/$N$58)-1</f>
-        <v>0.45044261016428133</v>
+        <f>(N28/$N$60)-1</f>
+        <v>0.36519592905049159</v>
       </c>
       <c r="T28" s="114">
-        <f t="shared" ref="T28" si="23">(A28-$A$58)</f>
-        <v>50</v>
+        <f>(A28-$A$60)</f>
+        <v>63</v>
       </c>
       <c r="U28" s="116">
-        <f>((N28/$N$58)-1)/T28*30</f>
-        <v>0.27026556609856883</v>
+        <f>((N28/$N$60)-1)/T28*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V28" s="116"/>
       <c r="W28" s="116"/>
       <c r="X28" s="134"/>
       <c r="Y28" s="134">
-        <v>37.39</v>
+        <v>35.86</v>
       </c>
       <c r="Z28" s="134"/>
       <c r="AA28" s="134">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB28">
         <v>10</v>
       </c>
       <c r="AC28" s="115">
-        <v>125.1</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="117">
-        <v>45411</v>
+        <v>45421</v>
       </c>
       <c r="B29">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C29">
-        <v>31.948</v>
+        <v>31.712</v>
       </c>
       <c r="D29">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E29">
-        <v>34.280099999999997</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F29" s="112">
         <v>156</v>
       </c>
       <c r="G29">
-        <v>2384.1799999999998</v>
+        <v>2333.16</v>
       </c>
       <c r="H29" s="199">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I29" s="199">
-        <v>24.91</v>
+        <v>24.39</v>
+      </c>
+      <c r="J29">
+        <v>30</v>
+      </c>
+      <c r="K29">
+        <v>622.84294799999998</v>
       </c>
       <c r="L29">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M29">
-        <v>0.89855499999999999</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N29" s="113">
-        <f t="shared" si="21"/>
-        <v>655301.58439900004</v>
+        <f t="shared" si="23"/>
+        <v>725052.22388499998</v>
       </c>
       <c r="O29">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P29">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q29" s="115">
-        <v>9915.6200000000008</v>
+        <v>10268.58</v>
       </c>
       <c r="R29" s="127">
-        <f t="shared" ref="R29:R35" si="24">(1-(Q30/Q29))</f>
-        <v>2.5330740790792672E-2</v>
+        <f t="shared" si="6"/>
+        <v>2.1701150499874422E-2</v>
       </c>
       <c r="S29" s="116">
-        <f t="shared" ref="S29:S58" si="25">(N29/$N$58)-1</f>
-        <v>0.23538114651627517</v>
+        <f>(N29/$N$60)-1</f>
+        <v>0.36687575454089361</v>
       </c>
       <c r="T29" s="114">
-        <f t="shared" ref="T29:T58" si="26">(A29-$A$58)</f>
-        <v>49</v>
+        <f>(A29-$A$60)</f>
+        <v>59</v>
       </c>
       <c r="U29" s="116">
-        <f>((N29/$N$58)-1)/T29*30</f>
-        <v>0.14411090603037255</v>
+        <f>((N29/$N$60)-1)/T29*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V29" s="116"/>
       <c r="W29" s="116"/>
-      <c r="X29" s="112">
-        <v>35</v>
-      </c>
-      <c r="Y29" s="128">
-        <f>Y32</f>
-        <v>37.39</v>
-      </c>
-      <c r="Z29" s="112">
-        <v>40</v>
-      </c>
-      <c r="AA29" s="128">
-        <f>AA32</f>
+      <c r="X29" s="134"/>
+      <c r="Y29" s="134">
+        <v>37.4</v>
+      </c>
+      <c r="Z29" s="134"/>
+      <c r="AA29" s="134">
         <v>30.5</v>
       </c>
-      <c r="AB29"/>
+      <c r="AB29">
+        <v>10</v>
+      </c>
+      <c r="AC29" s="115">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="117">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="B30">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D30">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F30" s="112">
         <v>156</v>
       </c>
       <c r="G30">
-        <v>2384.1799999999998</v>
+        <v>2341.2800000000002</v>
       </c>
       <c r="H30" s="199">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="I30" s="199">
-        <v>25.11</v>
+        <v>24.71</v>
+      </c>
+      <c r="J30">
+        <v>96</v>
+      </c>
+      <c r="K30">
+        <v>622.84294799999998</v>
       </c>
       <c r="L30">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M30">
-        <v>0.89607400000000004</v>
+        <v>0.90242599999999995</v>
       </c>
       <c r="N30" s="113">
-        <f t="shared" si="21"/>
-        <v>593216.45939900004</v>
+        <f t="shared" si="23"/>
+        <v>769379.83326099999</v>
       </c>
       <c r="O30">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P30">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q30" s="115">
-        <v>9664.4500000000007</v>
+        <v>10045.74</v>
       </c>
       <c r="R30" s="127">
-        <f t="shared" si="24"/>
-        <v>-5.7478697701369708E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.2952754102733999E-2</v>
       </c>
       <c r="S30" s="116">
-        <f t="shared" si="25"/>
-        <v>0.11833764360082077</v>
+        <f t="shared" ref="S30" si="24">(N30/$N$60)-1</f>
+        <v>0.45044261016428133</v>
       </c>
       <c r="T30" s="114">
-        <f t="shared" si="26"/>
-        <v>46</v>
+        <f t="shared" ref="T30" si="25">(A30-$A$60)</f>
+        <v>50</v>
       </c>
       <c r="U30" s="116">
-        <f>((N30/$N$58)-1)/T30*30</f>
-        <v>7.7176724087491808E-2</v>
+        <f>((N30/$N$60)-1)/T30*30</f>
+        <v>0.27026556609856883</v>
       </c>
       <c r="V30" s="116"/>
       <c r="W30" s="116"/>
-      <c r="X30" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y30" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z30" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA30" s="129" t="s">
-        <v>68</v>
+      <c r="X30" s="134"/>
+      <c r="Y30" s="134">
+        <v>37.39</v>
+      </c>
+      <c r="Z30" s="134"/>
+      <c r="AA30" s="134">
+        <v>30.5</v>
       </c>
       <c r="AB30">
         <v>10</v>
       </c>
       <c r="AC30" s="115">
-        <v>148.5</v>
+        <v>125.1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="117">
-        <v>45407</v>
+        <v>45411</v>
       </c>
       <c r="B31">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>32.0291</v>
+        <v>31.948</v>
       </c>
       <c r="D31">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>34.322299999999998</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F31" s="112">
         <v>156</v>
       </c>
       <c r="G31">
-        <v>2368.4699999999998</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H31" s="199">
+        <v>5000</v>
+      </c>
+      <c r="I31" s="199">
+        <v>24.91</v>
       </c>
       <c r="L31">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.90609700000000004</v>
+        <v>0.89855499999999999</v>
       </c>
       <c r="N31" s="113">
-        <f t="shared" si="21"/>
-        <v>529347.18337699992</v>
+        <f t="shared" si="23"/>
+        <v>655301.58439900004</v>
       </c>
       <c r="O31">
-        <v>167.13</v>
+        <v>167.61</v>
       </c>
       <c r="P31">
-        <v>268083.81</v>
+        <v>269021.68</v>
       </c>
       <c r="Q31" s="115">
-        <v>9720</v>
+        <v>9915.6200000000008</v>
       </c>
       <c r="R31" s="127">
-        <f t="shared" si="24"/>
-        <v>-2.1502057613176362E-4</v>
+        <f t="shared" ref="R31:R37" si="26">(1-(Q32/Q31))</f>
+        <v>2.5330740790792672E-2</v>
       </c>
       <c r="S31" s="116">
-        <f t="shared" si="25"/>
-        <v>-2.0693587896702947E-3</v>
+        <f t="shared" ref="S31:S60" si="27">(N31/$N$60)-1</f>
+        <v>0.23538114651627517</v>
       </c>
       <c r="T31" s="114">
-        <f t="shared" si="26"/>
-        <v>45</v>
+        <f t="shared" ref="T31:T60" si="28">(A31-$A$60)</f>
+        <v>49</v>
       </c>
       <c r="U31" s="116">
-        <f>((N31/$N$58)-1)/T31*30</f>
-        <v>-1.379572526446863E-3</v>
+        <f>((N31/$N$60)-1)/T31*30</f>
+        <v>0.14411090603037255</v>
       </c>
       <c r="V31" s="116"/>
       <c r="W31" s="116"/>
-      <c r="X31" s="112"/>
-      <c r="Y31" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z31" s="112"/>
-      <c r="AA31" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB31">
-        <v>10</v>
-      </c>
-      <c r="AC31" s="115">
-        <v>135</v>
-      </c>
+      <c r="X31" s="112">
+        <v>35</v>
+      </c>
+      <c r="Y31" s="128">
+        <f>Y34</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z31" s="112">
+        <v>40</v>
+      </c>
+      <c r="AA31" s="128">
+        <f>AA34</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB31"/>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="117">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="B32">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C32">
-        <v>31.928699999999999</v>
+        <v>31.948</v>
       </c>
       <c r="D32">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E32">
-        <v>33.972000000000001</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F32" s="112">
         <v>156</v>
       </c>
       <c r="G32">
-        <v>2380.13</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H32" s="199">
+        <v>2500</v>
+      </c>
+      <c r="I32" s="199">
+        <v>25.11</v>
       </c>
       <c r="L32">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M32">
-        <v>0.88805999999999996</v>
+        <v>0.89607400000000004</v>
       </c>
       <c r="N32" s="113">
-        <f t="shared" si="21"/>
-        <v>528687.28128</v>
+        <f t="shared" si="23"/>
+        <v>593216.45939900004</v>
       </c>
       <c r="O32">
-        <v>166.96</v>
+        <v>167.61</v>
       </c>
       <c r="P32">
-        <v>267307.03000000003</v>
+        <v>269021.68</v>
       </c>
       <c r="Q32" s="115">
-        <v>9722.09</v>
+        <v>9664.4500000000007</v>
       </c>
       <c r="R32" s="127">
-        <f t="shared" si="24"/>
-        <v>7.927307811386175E-3</v>
+        <f t="shared" si="26"/>
+        <v>-5.7478697701369708E-3</v>
       </c>
       <c r="S32" s="116">
-        <f t="shared" si="25"/>
-        <v>-3.3134128688740994E-3</v>
+        <f t="shared" si="27"/>
+        <v>0.11833764360082077</v>
       </c>
       <c r="T32" s="114">
-        <f t="shared" si="26"/>
-        <v>44</v>
+        <f t="shared" si="28"/>
+        <v>46</v>
       </c>
       <c r="U32" s="116">
-        <f>((N32/$N$58)-1)/T32*30</f>
-        <v>-2.259145137868704E-3</v>
+        <f>((N32/$N$60)-1)/T32*30</f>
+        <v>7.7176724087491808E-2</v>
       </c>
       <c r="V32" s="116"/>
       <c r="W32" s="116"/>
       <c r="X32" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y32" s="131">
-        <v>37.39</v>
+        <v>67</v>
+      </c>
+      <c r="Y32" s="129" t="s">
+        <v>68</v>
       </c>
       <c r="Z32" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA32" s="131">
-        <v>30.5</v>
+        <v>67</v>
+      </c>
+      <c r="AA32" s="129" t="s">
+        <v>68</v>
       </c>
       <c r="AB32">
         <v>10</v>
       </c>
       <c r="AC32" s="115">
-        <v>135</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="117">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B33">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C33">
-        <v>31.928699999999999</v>
+        <v>32.0291</v>
       </c>
       <c r="D33">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E33">
-        <v>33.972000000000001</v>
+        <v>34.322299999999998</v>
       </c>
       <c r="F33" s="112">
         <v>156</v>
       </c>
       <c r="G33">
-        <v>2380.13</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="L33">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M33">
-        <v>0.88805999999999996</v>
+        <v>0.90609700000000004</v>
       </c>
       <c r="N33" s="113">
-        <f t="shared" si="21"/>
-        <v>528687.28128</v>
+        <f t="shared" si="23"/>
+        <v>529347.18337699992</v>
       </c>
       <c r="O33">
-        <v>166.96</v>
+        <v>167.13</v>
       </c>
       <c r="P33">
-        <v>267307.03000000003</v>
+        <v>268083.81</v>
       </c>
       <c r="Q33" s="115">
-        <v>9645.02</v>
+        <v>9720</v>
       </c>
       <c r="R33" s="127">
-        <f t="shared" si="24"/>
-        <v>-5.0222809283961833E-3</v>
+        <f t="shared" si="26"/>
+        <v>-2.1502057613176362E-4</v>
       </c>
       <c r="S33" s="116">
-        <f t="shared" si="25"/>
-        <v>-3.3134128688740994E-3</v>
+        <f t="shared" si="27"/>
+        <v>-2.0693587896702947E-3</v>
       </c>
       <c r="T33" s="114">
-        <f t="shared" si="26"/>
-        <v>42</v>
+        <f t="shared" si="28"/>
+        <v>45</v>
       </c>
       <c r="U33" s="116">
-        <f>((N33/$N$58)-1)/T33*30</f>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N33/$N$60)-1)/T33*30</f>
+        <v>-1.379572526446863E-3</v>
       </c>
       <c r="V33" s="116"/>
       <c r="W33" s="116"/>
       <c r="X33" s="112"/>
-      <c r="Y33" s="116" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
+      <c r="Y33" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="Z33" s="112"/>
-      <c r="AA33" s="116" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB33" s="112">
+      <c r="AA33" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB33">
         <v>10</v>
       </c>
-      <c r="AC33" s="128">
+      <c r="AC33" s="115">
         <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="117">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B34">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C34">
-        <v>31.803999999999998</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D34">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E34">
-        <v>33.928400000000003</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F34" s="112">
         <v>156</v>
       </c>
       <c r="G34">
-        <v>2427.62</v>
+        <v>2380.13</v>
       </c>
       <c r="L34">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M34">
-        <v>0.87351800000000002</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N34" s="113">
-        <f t="shared" si="21"/>
-        <v>534125.51551599998</v>
+        <f t="shared" si="23"/>
+        <v>528687.28128</v>
       </c>
       <c r="O34">
-        <v>170.57</v>
+        <v>166.96</v>
       </c>
       <c r="P34">
-        <v>272736.27</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q34" s="115">
-        <v>9693.4599999999991</v>
+        <v>9722.09</v>
       </c>
       <c r="R34" s="127">
-        <f t="shared" si="24"/>
-        <v>1.4091975414350921E-3</v>
+        <f t="shared" si="26"/>
+        <v>7.927307811386175E-3</v>
       </c>
       <c r="S34" s="116">
-        <f t="shared" si="25"/>
-        <v>6.9388010818296486E-3</v>
+        <f t="shared" si="27"/>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T34" s="114">
-        <f t="shared" si="26"/>
-        <v>39</v>
+        <f t="shared" si="28"/>
+        <v>44</v>
       </c>
       <c r="U34" s="116">
-        <f>((N34/$N$58)-1)/T34*30</f>
-        <v>5.3375392937151144E-3</v>
+        <f>((N34/$N$60)-1)/T34*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V34" s="116"/>
       <c r="W34" s="116"/>
       <c r="X34" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y34" s="115">
-        <f>Y32*X29</f>
-        <v>1308.6500000000001</v>
+        <v>70</v>
+      </c>
+      <c r="Y34" s="131">
+        <v>37.39</v>
       </c>
       <c r="Z34" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA34" s="115">
-        <f>AA32*Z29</f>
-        <v>1220</v>
-      </c>
-      <c r="AB34" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC34" s="129" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="AA34" s="131">
+        <v>30.5</v>
+      </c>
+      <c r="AB34">
+        <v>10</v>
+      </c>
+      <c r="AC34" s="115">
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:29">
       <c r="A35" s="117">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="B35">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C35">
-        <v>31.863399999999999</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D35">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E35">
-        <v>33.963099999999997</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F35" s="112">
         <v>156</v>
       </c>
       <c r="G35">
-        <v>2387.5100000000002</v>
+        <v>2380.13</v>
       </c>
       <c r="L35">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M35">
-        <v>0.89791399999999999</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N35" s="113">
-        <f t="shared" ref="N35:N70" si="27">(F35*G35)+(B35*C35)+(D35*E35)+(L35*M35)+(H35*I35)</f>
-        <v>530994.96256900008</v>
+        <f t="shared" si="23"/>
+        <v>528687.28128</v>
       </c>
       <c r="O35">
-        <v>169.14</v>
+        <v>166.96</v>
       </c>
       <c r="P35">
-        <v>269604.92</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q35" s="115">
-        <v>9679.7999999999993</v>
+        <v>9645.02</v>
       </c>
       <c r="R35" s="127">
-        <f t="shared" si="24"/>
-        <v>-1.3880452075456073E-2</v>
+        <f t="shared" si="26"/>
+        <v>-5.0222809283961833E-3</v>
       </c>
       <c r="S35" s="116">
-        <f t="shared" si="25"/>
-        <v>1.0370511380362046E-3</v>
+        <f t="shared" si="27"/>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T35" s="114">
-        <f t="shared" si="26"/>
-        <v>35</v>
+        <f t="shared" si="28"/>
+        <v>42</v>
       </c>
       <c r="U35" s="116">
-        <f>((N35/$N$58)-1)/T35*30</f>
-        <v>8.8890097545960402E-4</v>
+        <f>((N35/$N$60)-1)/T35*30</f>
+        <v>-2.3667234777672141E-3</v>
       </c>
       <c r="V35" s="116"/>
       <c r="W35" s="116"/>
-      <c r="X35" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y35" s="132">
-        <f>(X29*Y5)-(X29*Y32)</f>
-        <v>-297.85000000000014</v>
-      </c>
-      <c r="Z35" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA35" s="132">
-        <f>(Z29*AA5)-(Z29*AA32)</f>
-        <v>-240</v>
-      </c>
-      <c r="AC35" s="130" t="s">
-        <v>69</v>
+      <c r="X35" s="112"/>
+      <c r="Y35" s="116" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z35" s="112"/>
+      <c r="AA35" s="116" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB35" s="112">
+        <v>10</v>
+      </c>
+      <c r="AC35" s="128">
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="117">
-        <v>45391</v>
+        <v>45401</v>
       </c>
       <c r="B36">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C36">
-        <v>31.412299999999998</v>
+        <v>31.803999999999998</v>
       </c>
       <c r="D36">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E36">
-        <v>34.091799999999999</v>
+        <v>33.928400000000003</v>
       </c>
       <c r="F36" s="112">
         <v>156</v>
       </c>
       <c r="G36">
-        <v>2352.21</v>
+        <v>2427.62</v>
       </c>
       <c r="L36">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M36">
-        <v>0.89529800000000004</v>
+        <v>0.87351800000000002</v>
       </c>
       <c r="N36" s="113">
+        <f t="shared" si="23"/>
+        <v>534125.51551599998</v>
+      </c>
+      <c r="O36">
+        <v>170.57</v>
+      </c>
+      <c r="P36">
+        <v>272736.27</v>
+      </c>
+      <c r="Q36" s="115">
+        <v>9693.4599999999991</v>
+      </c>
+      <c r="R36" s="127">
+        <f t="shared" si="26"/>
+        <v>1.4091975414350921E-3</v>
+      </c>
+      <c r="S36" s="116">
         <f t="shared" si="27"/>
-        <v>524701.88168200001</v>
-      </c>
-      <c r="O36">
-        <v>165.81</v>
-      </c>
-      <c r="P36">
-        <v>263308.84999999998</v>
-      </c>
-      <c r="Q36" s="115">
-        <v>9814.16</v>
-      </c>
-      <c r="R36" s="127">
-        <f t="shared" ref="R36:R37" si="28">(1-(Q37/Q36))</f>
-        <v>5.8558246452063978E-3</v>
-      </c>
-      <c r="S36" s="116">
-        <f t="shared" si="25"/>
-        <v>-1.0826728328378388E-2</v>
+        <v>6.9388010818296486E-3</v>
       </c>
       <c r="T36" s="114">
-        <f t="shared" si="26"/>
-        <v>29</v>
+        <f t="shared" si="28"/>
+        <v>39</v>
       </c>
       <c r="U36" s="116">
-        <f>((N36/$N$58)-1)/T36*30</f>
-        <v>-1.1200063787977641E-2</v>
+        <f>((N36/$N$60)-1)/T36*30</f>
+        <v>5.3375392937151144E-3</v>
       </c>
       <c r="V36" s="116"/>
       <c r="W36" s="116"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="116"/>
+      <c r="X36" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y36" s="115">
+        <f>Y34*X31</f>
+        <v>1308.6500000000001</v>
+      </c>
+      <c r="Z36" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA36" s="115">
+        <f>AA34*Z31</f>
+        <v>1220</v>
+      </c>
       <c r="AB36" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC36" s="131">
-        <v>135</v>
+        <v>67</v>
+      </c>
+      <c r="AC36" s="129" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="117">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="B37">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C37">
-        <v>31.5198</v>
+        <v>31.863399999999999</v>
       </c>
       <c r="D37">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E37">
-        <v>34.154899999999998</v>
+        <v>33.963099999999997</v>
       </c>
       <c r="F37" s="112">
         <v>156</v>
       </c>
       <c r="G37">
-        <v>2344.37</v>
+        <v>2387.5100000000002</v>
       </c>
       <c r="L37">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M37">
-        <v>0.818581</v>
+        <v>0.89791399999999999</v>
       </c>
       <c r="N37" s="113">
+        <f t="shared" ref="N37:N72" si="29">(F37*G37)+(B37*C37)+(D37*E37)+(L37*M37)+(H37*I37)</f>
+        <v>530994.96256900008</v>
+      </c>
+      <c r="O37">
+        <v>169.14</v>
+      </c>
+      <c r="P37">
+        <v>269604.92</v>
+      </c>
+      <c r="Q37" s="115">
+        <v>9679.7999999999993</v>
+      </c>
+      <c r="R37" s="127">
+        <f t="shared" si="26"/>
+        <v>-1.3880452075456073E-2</v>
+      </c>
+      <c r="S37" s="116">
         <f t="shared" si="27"/>
-        <v>514028.85925099999</v>
-      </c>
-      <c r="O37">
-        <v>159.19</v>
-      </c>
-      <c r="P37">
-        <v>252634.37</v>
-      </c>
-      <c r="Q37" s="115">
-        <v>9756.69</v>
-      </c>
-      <c r="R37" s="127">
+        <v>1.0370511380362046E-3</v>
+      </c>
+      <c r="T37" s="114">
         <f t="shared" si="28"/>
-        <v>1.4129791968382821E-2</v>
-      </c>
-      <c r="S37" s="116">
-        <f t="shared" si="25"/>
-        <v>-3.0947617704367603E-2</v>
-      </c>
-      <c r="T37" s="114">
-        <f t="shared" si="26"/>
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="U37" s="116">
-        <f>((N37/$N$58)-1)/T37*30</f>
-        <v>-3.3158161826108146E-2</v>
+        <f>((N37/$N$60)-1)/T37*30</f>
+        <v>8.8890097545960402E-4</v>
       </c>
       <c r="V37" s="116"/>
       <c r="W37" s="116"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="116"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="116"/>
-      <c r="AC37" s="116">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
+      <c r="X37" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y37" s="132">
+        <f>(X31*Y5)-(X31*Y34)</f>
+        <v>-354.55000000000007</v>
+      </c>
+      <c r="Z37" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA37" s="132">
+        <f>(Z31*AA5)-(Z31*AA34)</f>
+        <v>-308.79999999999995</v>
+      </c>
+      <c r="AC37" s="130" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="117">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B38">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C38">
-        <v>31.407</v>
+        <v>31.412299999999998</v>
       </c>
       <c r="D38">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E38">
-        <v>34.038899999999998</v>
+        <v>34.091799999999999</v>
       </c>
       <c r="F38" s="112">
         <v>156</v>
       </c>
       <c r="G38">
-        <v>2289.27</v>
+        <v>2352.21</v>
       </c>
       <c r="L38">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M38">
-        <v>0.82424600000000003</v>
+        <v>0.89529800000000004</v>
       </c>
       <c r="N38" s="113">
+        <f t="shared" si="29"/>
+        <v>524701.88168200001</v>
+      </c>
+      <c r="O38">
+        <v>165.81</v>
+      </c>
+      <c r="P38">
+        <v>263308.84999999998</v>
+      </c>
+      <c r="Q38" s="115">
+        <v>9814.16</v>
+      </c>
+      <c r="R38" s="127">
+        <f t="shared" ref="R38:R39" si="30">(1-(Q39/Q38))</f>
+        <v>5.8558246452063978E-3</v>
+      </c>
+      <c r="S38" s="116">
         <f t="shared" si="27"/>
-        <v>505978.825411</v>
-      </c>
-      <c r="O38">
-        <v>154.41</v>
-      </c>
-      <c r="P38">
-        <v>244587.02</v>
-      </c>
-      <c r="Q38" s="115">
-        <v>9618.83</v>
-      </c>
-      <c r="R38" s="127">
-        <f t="shared" ref="R38:R69" si="29">(1-(Q39/Q38))</f>
-        <v>5.0921993631241946E-2</v>
-      </c>
-      <c r="S38" s="116">
-        <f t="shared" si="25"/>
-        <v>-4.6123622572225242E-2</v>
+        <v>-1.0826728328378388E-2</v>
       </c>
       <c r="T38" s="114">
-        <f t="shared" si="26"/>
-        <v>25</v>
+        <f t="shared" si="28"/>
+        <v>29</v>
       </c>
       <c r="U38" s="116">
-        <f>((N38/$N$58)-1)/T38*30</f>
-        <v>-5.5348347086670288E-2</v>
+        <f>((N38/$N$60)-1)/T38*30</f>
+        <v>-1.1200063787977641E-2</v>
       </c>
       <c r="V38" s="116"/>
       <c r="W38" s="116"/>
@@ -8610,72 +8644,71 @@
       <c r="Z38" s="116"/>
       <c r="AA38" s="116"/>
       <c r="AB38" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC38" s="115">
-        <f>AC36*AB33</f>
-        <v>1350</v>
+        <v>70</v>
+      </c>
+      <c r="AC38" s="131">
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="117">
-        <v>45386</v>
+        <v>45390</v>
       </c>
       <c r="B39">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C39">
-        <v>31.399799999999999</v>
+        <v>31.5198</v>
       </c>
       <c r="D39">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E39">
-        <v>34.053100000000001</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F39" s="112">
         <v>156</v>
       </c>
       <c r="G39">
-        <v>2292.5700000000002</v>
+        <v>2344.37</v>
       </c>
       <c r="L39">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M39">
-        <v>0.82913899999999996</v>
+        <v>0.818581</v>
       </c>
       <c r="N39" s="113">
+        <f t="shared" si="29"/>
+        <v>514028.85925099999</v>
+      </c>
+      <c r="O39">
+        <v>159.19</v>
+      </c>
+      <c r="P39">
+        <v>252634.37</v>
+      </c>
+      <c r="Q39" s="115">
+        <v>9756.69</v>
+      </c>
+      <c r="R39" s="127">
+        <f t="shared" si="30"/>
+        <v>1.4129791968382821E-2</v>
+      </c>
+      <c r="S39" s="116">
         <f t="shared" si="27"/>
-        <v>507101.83066900005</v>
-      </c>
-      <c r="O39">
-        <v>155.22</v>
-      </c>
-      <c r="P39">
-        <v>245709.7</v>
-      </c>
-      <c r="Q39" s="115">
-        <v>9129.02</v>
-      </c>
-      <c r="R39" s="127">
-        <f t="shared" si="29"/>
-        <v>2.0070062284889389E-2</v>
-      </c>
-      <c r="S39" s="116">
-        <f t="shared" si="25"/>
-        <v>-4.4006521749946126E-2</v>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T39" s="114">
-        <f t="shared" si="26"/>
-        <v>24</v>
+        <f t="shared" si="28"/>
+        <v>28</v>
       </c>
       <c r="U39" s="116">
-        <f>((N39/$N$58)-1)/T39*30</f>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N39/$N$60)-1)/T39*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V39" s="116"/>
       <c r="W39" s="116"/>
@@ -8683,73 +8716,70 @@
       <c r="Y39" s="116"/>
       <c r="Z39" s="116"/>
       <c r="AA39" s="116"/>
-      <c r="AB39" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC39" s="132">
-        <f>(AB10*AC5)-(AB10*AC36)</f>
-        <v>-34</v>
+      <c r="AC39" s="116">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="117">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B40">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D40">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F40" s="112">
         <v>156</v>
       </c>
       <c r="G40">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L40">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N40" s="113">
+        <f t="shared" si="29"/>
+        <v>505978.825411</v>
+      </c>
+      <c r="O40">
+        <v>154.41</v>
+      </c>
+      <c r="P40">
+        <v>244587.02</v>
+      </c>
+      <c r="Q40" s="115">
+        <v>9618.83</v>
+      </c>
+      <c r="R40" s="127">
+        <f t="shared" ref="R40:R71" si="31">(1-(Q41/Q40))</f>
+        <v>5.0921993631241946E-2</v>
+      </c>
+      <c r="S40" s="116">
         <f t="shared" si="27"/>
-        <v>507101.83066900005</v>
-      </c>
-      <c r="O40">
-        <v>155.22</v>
-      </c>
-      <c r="P40">
-        <v>245709.7</v>
-      </c>
-      <c r="Q40" s="115">
-        <v>8945.7999999999993</v>
-      </c>
-      <c r="R40" s="127">
-        <f t="shared" si="29"/>
-        <v>-1.0627333497283731E-2</v>
-      </c>
-      <c r="S40" s="116">
-        <f t="shared" si="25"/>
-        <v>-4.4006521749946126E-2</v>
+        <v>-4.6123622572225242E-2</v>
       </c>
       <c r="T40" s="114">
-        <f t="shared" si="26"/>
-        <v>23</v>
+        <f t="shared" si="28"/>
+        <v>25</v>
       </c>
       <c r="U40" s="116">
-        <f>((N40/$N$58)-1)/T40*30</f>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N40/$N$60)-1)/T40*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V40" s="116"/>
       <c r="W40" s="116"/>
@@ -8757,68 +8787,73 @@
       <c r="Y40" s="116"/>
       <c r="Z40" s="116"/>
       <c r="AA40" s="116"/>
-      <c r="AB40" s="133"/>
-      <c r="AC40" s="134"/>
+      <c r="AB40" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC40" s="115">
+        <f>AC38*AB35</f>
+        <v>1350</v>
+      </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="117">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B41">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D41">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F41" s="112">
         <v>156</v>
       </c>
       <c r="G41">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L41">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N41" s="113">
+        <f t="shared" si="29"/>
+        <v>507101.83066900005</v>
+      </c>
+      <c r="O41">
+        <v>155.22</v>
+      </c>
+      <c r="P41">
+        <v>245709.7</v>
+      </c>
+      <c r="Q41" s="115">
+        <v>9129.02</v>
+      </c>
+      <c r="R41" s="127">
+        <f t="shared" si="31"/>
+        <v>2.0070062284889389E-2</v>
+      </c>
+      <c r="S41" s="116">
         <f t="shared" si="27"/>
-        <v>509777.60801200004</v>
-      </c>
-      <c r="O41">
-        <v>157.11000000000001</v>
-      </c>
-      <c r="P41">
-        <v>248387.66</v>
-      </c>
-      <c r="Q41" s="115">
-        <v>9040.8700000000008</v>
-      </c>
-      <c r="R41" s="127">
-        <f t="shared" si="29"/>
-        <v>-1.2904731513670775E-2</v>
-      </c>
-      <c r="S41" s="116">
-        <f t="shared" si="25"/>
-        <v>-3.8962119354903346E-2</v>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T41" s="114">
-        <f t="shared" si="26"/>
-        <v>22</v>
+        <f t="shared" si="28"/>
+        <v>24</v>
       </c>
       <c r="U41" s="116">
-        <f>((N41/$N$58)-1)/T41*30</f>
-        <v>-5.3130162756686382E-2</v>
+        <f>((N41/$N$60)-1)/T41*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V41" s="116"/>
       <c r="W41" s="116"/>
@@ -8826,68 +8861,73 @@
       <c r="Y41" s="116"/>
       <c r="Z41" s="116"/>
       <c r="AA41" s="116"/>
-      <c r="AB41" s="133"/>
-      <c r="AC41" s="134"/>
+      <c r="AB41" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC41" s="132">
+        <f>(AB10*AC5)-(AB10*AC38)</f>
+        <v>-113</v>
+      </c>
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="117">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B42">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C42">
-        <v>31.879300000000001</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D42">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E42">
-        <v>34.391399999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F42" s="112">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G42">
-        <v>2308.4299999999998</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L42">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M42">
-        <v>0.88097599999999998</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N42" s="113">
+        <f t="shared" si="29"/>
+        <v>507101.83066900005</v>
+      </c>
+      <c r="O42">
+        <v>155.22</v>
+      </c>
+      <c r="P42">
+        <v>245709.7</v>
+      </c>
+      <c r="Q42" s="115">
+        <v>8945.7999999999993</v>
+      </c>
+      <c r="R42" s="127">
+        <f t="shared" si="31"/>
+        <v>-1.0627333497283731E-2</v>
+      </c>
+      <c r="S42" s="116">
         <f t="shared" si="27"/>
-        <v>528238.93988600001</v>
-      </c>
-      <c r="O42">
-        <v>161.66</v>
-      </c>
-      <c r="P42">
-        <v>255424.81</v>
-      </c>
-      <c r="Q42" s="115">
-        <v>9157.5400000000009</v>
-      </c>
-      <c r="R42" s="127">
-        <f t="shared" si="29"/>
-        <v>1.6532824317448958E-3</v>
-      </c>
-      <c r="S42" s="116">
-        <f t="shared" si="25"/>
-        <v>-4.1586305801334378E-3</v>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T42" s="114">
-        <f t="shared" si="26"/>
-        <v>21</v>
+        <f t="shared" si="28"/>
+        <v>23</v>
       </c>
       <c r="U42" s="116">
-        <f>((N42/$N$58)-1)/T42*30</f>
-        <v>-5.9409008287620545E-3</v>
+        <f>((N42/$N$60)-1)/T42*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V42" s="116"/>
       <c r="W42" s="116"/>
@@ -8900,63 +8940,63 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="117">
-        <v>45381</v>
+        <v>45384</v>
       </c>
       <c r="B43">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D43">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F43" s="112">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G43">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L43">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N43" s="113">
+        <f t="shared" si="29"/>
+        <v>509777.60801200004</v>
+      </c>
+      <c r="O43">
+        <v>157.11000000000001</v>
+      </c>
+      <c r="P43">
+        <v>248387.66</v>
+      </c>
+      <c r="Q43" s="115">
+        <v>9040.8700000000008</v>
+      </c>
+      <c r="R43" s="127">
+        <f t="shared" si="31"/>
+        <v>-1.2904731513670775E-2</v>
+      </c>
+      <c r="S43" s="116">
         <f t="shared" si="27"/>
-        <v>528238.93988600001</v>
-      </c>
-      <c r="O43">
-        <v>161.66</v>
-      </c>
-      <c r="P43">
-        <v>255424.81</v>
-      </c>
-      <c r="Q43" s="115">
-        <v>9142.4</v>
-      </c>
-      <c r="R43" s="127">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="116">
-        <f t="shared" si="25"/>
-        <v>-4.1586305801334378E-3</v>
+        <v>-3.8962119354903346E-2</v>
       </c>
       <c r="T43" s="114">
-        <f t="shared" si="26"/>
-        <v>19</v>
+        <f t="shared" si="28"/>
+        <v>22</v>
       </c>
       <c r="U43" s="116">
-        <f>((N43/$N$58)-1)/T43*30</f>
-        <v>-6.5662588107370072E-3</v>
+        <f>((N43/$N$60)-1)/T43*30</f>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V43" s="116"/>
       <c r="W43" s="116"/>
@@ -8969,63 +9009,63 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="117">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B44">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C44">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D44">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E44">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F44" s="112">
         <v>161</v>
       </c>
       <c r="G44">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L44">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M44">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N44" s="113">
+        <f t="shared" si="29"/>
+        <v>528238.93988600001</v>
+      </c>
+      <c r="O44">
+        <v>161.66</v>
+      </c>
+      <c r="P44">
+        <v>255424.81</v>
+      </c>
+      <c r="Q44" s="115">
+        <v>9157.5400000000009</v>
+      </c>
+      <c r="R44" s="127">
+        <f t="shared" si="31"/>
+        <v>1.6532824317448958E-3</v>
+      </c>
+      <c r="S44" s="116">
         <f t="shared" si="27"/>
-        <v>518957.34710100002</v>
-      </c>
-      <c r="O44">
-        <v>156.08000000000001</v>
-      </c>
-      <c r="P44">
-        <v>246143.72</v>
-      </c>
-      <c r="Q44" s="115">
-        <v>9142.4</v>
-      </c>
-      <c r="R44" s="127">
-        <f t="shared" si="29"/>
-        <v>6.8286226811340445E-3</v>
-      </c>
-      <c r="S44" s="116">
-        <f t="shared" si="25"/>
-        <v>-2.165638277425741E-2</v>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T44" s="114">
-        <f t="shared" si="26"/>
-        <v>18</v>
+        <f t="shared" si="28"/>
+        <v>21</v>
       </c>
       <c r="U44" s="116">
-        <f>((N44/$N$58)-1)/T44*30</f>
-        <v>-3.6093971290429017E-2</v>
+        <f>((N44/$N$60)-1)/T44*30</f>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V44" s="116"/>
       <c r="W44" s="116"/>
@@ -9038,63 +9078,63 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="117">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B45">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>31.870699999999999</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D45">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>34.480800000000002</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F45" s="112">
         <v>161</v>
       </c>
       <c r="G45">
-        <v>2240.09</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L45">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>0.86473199999999995</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N45" s="113">
+        <f t="shared" si="29"/>
+        <v>528238.93988600001</v>
+      </c>
+      <c r="O45">
+        <v>161.66</v>
+      </c>
+      <c r="P45">
+        <v>255424.81</v>
+      </c>
+      <c r="Q45" s="115">
+        <v>9142.4</v>
+      </c>
+      <c r="R45" s="127">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="116">
         <f t="shared" si="27"/>
-        <v>515224.93979200005</v>
-      </c>
-      <c r="O45">
-        <v>153.81</v>
-      </c>
-      <c r="P45">
-        <v>242408.74</v>
-      </c>
-      <c r="Q45" s="115">
-        <v>9079.9699999999993</v>
-      </c>
-      <c r="R45" s="127">
-        <f t="shared" si="29"/>
-        <v>3.0093711763364839E-2</v>
-      </c>
-      <c r="S45" s="116">
-        <f t="shared" si="25"/>
-        <v>-2.8692754622628547E-2</v>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T45" s="114">
-        <f t="shared" si="26"/>
-        <v>17</v>
+        <f t="shared" si="28"/>
+        <v>19</v>
       </c>
       <c r="U45" s="116">
-        <f>((N45/$N$58)-1)/T45*30</f>
-        <v>-5.0634272863462143E-2</v>
+        <f>((N45/$N$60)-1)/T45*30</f>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V45" s="116"/>
       <c r="W45" s="116"/>
@@ -9107,63 +9147,63 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="117">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B46">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>31.821999999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D46">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>34.5045</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F46" s="112">
         <v>161</v>
       </c>
       <c r="G46">
-        <v>2227.25</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L46">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>0.85899999999999999</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N46" s="113">
+        <f t="shared" si="29"/>
+        <v>518957.34710100002</v>
+      </c>
+      <c r="O46">
+        <v>156.08000000000001</v>
+      </c>
+      <c r="P46">
+        <v>246143.72</v>
+      </c>
+      <c r="Q46" s="115">
+        <v>9142.4</v>
+      </c>
+      <c r="R46" s="127">
+        <f t="shared" si="31"/>
+        <v>6.8286226811340445E-3</v>
+      </c>
+      <c r="S46" s="116">
         <f t="shared" si="27"/>
-        <v>512394.77395499998</v>
-      </c>
-      <c r="O46">
-        <v>154.24</v>
-      </c>
-      <c r="P46">
-        <v>242616.68</v>
-      </c>
-      <c r="Q46" s="115">
-        <v>8806.7199999999993</v>
-      </c>
-      <c r="R46" s="127">
-        <f t="shared" si="29"/>
-        <v>-7.4942770974972817E-5</v>
-      </c>
-      <c r="S46" s="116">
-        <f t="shared" si="25"/>
-        <v>-3.4028211761422011E-2</v>
+        <v>-2.165638277425741E-2</v>
       </c>
       <c r="T46" s="114">
-        <f t="shared" si="26"/>
-        <v>16</v>
+        <f t="shared" si="28"/>
+        <v>18</v>
       </c>
       <c r="U46" s="116">
-        <f>((N46/$N$58)-1)/T46*30</f>
-        <v>-6.3802897052666271E-2</v>
+        <f>((N46/$N$60)-1)/T46*30</f>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V46" s="116"/>
       <c r="W46" s="116"/>
@@ -9176,63 +9216,63 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="117">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B47">
-        <f>B66</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C47">
-        <v>31.530999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D47">
-        <f>D66</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E47">
-        <v>34.125900000000001</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F47" s="112">
         <v>161</v>
       </c>
       <c r="G47">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L47">
-        <f>L66</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M47">
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N47" s="113">
+        <f t="shared" si="29"/>
+        <v>515224.93979200005</v>
+      </c>
+      <c r="O47">
+        <v>153.81</v>
+      </c>
+      <c r="P47">
+        <v>242408.74</v>
+      </c>
+      <c r="Q47" s="115">
+        <v>9079.9699999999993</v>
+      </c>
+      <c r="R47" s="127">
+        <f t="shared" si="31"/>
+        <v>3.0093711763364839E-2</v>
+      </c>
+      <c r="S47" s="116">
         <f t="shared" si="27"/>
-        <v>515864.35854099999</v>
-      </c>
-      <c r="O47">
-        <v>154.24</v>
-      </c>
-      <c r="P47">
-        <v>242616.68</v>
-      </c>
-      <c r="Q47" s="115">
-        <v>8807.3799999999992</v>
-      </c>
-      <c r="R47" s="127">
-        <f t="shared" si="29"/>
-        <v>-2.5206133946758191E-2</v>
-      </c>
-      <c r="S47" s="116">
-        <f t="shared" si="25"/>
-        <v>-2.7487315957364089E-2</v>
+        <v>-2.8692754622628547E-2</v>
       </c>
       <c r="T47" s="114">
-        <f t="shared" si="26"/>
-        <v>15</v>
+        <f t="shared" si="28"/>
+        <v>17</v>
       </c>
       <c r="U47" s="116">
-        <f>((N47/$N$58)-1)/T47*30</f>
-        <v>-5.4974631914728178E-2</v>
+        <f>((N47/$N$60)-1)/T47*30</f>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V47" s="116"/>
       <c r="W47" s="116"/>
@@ -9245,63 +9285,63 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="117">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B48">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>31.786200000000001</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D48">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>34.386299999999999</v>
+        <v>34.5045</v>
       </c>
       <c r="F48" s="112">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L48">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>0.91889100000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N48" s="113">
+        <f t="shared" si="29"/>
+        <v>512394.77395499998</v>
+      </c>
+      <c r="O48">
+        <v>154.24</v>
+      </c>
+      <c r="P48">
+        <v>242616.68</v>
+      </c>
+      <c r="Q48" s="115">
+        <v>8806.7199999999993</v>
+      </c>
+      <c r="R48" s="127">
+        <f t="shared" si="31"/>
+        <v>-7.4942770974972817E-5</v>
+      </c>
+      <c r="S48" s="116">
         <f t="shared" si="27"/>
-        <v>517720.01173699996</v>
-      </c>
-      <c r="O48">
-        <v>155.99</v>
-      </c>
-      <c r="P48">
-        <v>244906</v>
-      </c>
-      <c r="Q48" s="115">
-        <v>9029.3799999999992</v>
-      </c>
-      <c r="R48" s="127">
-        <f t="shared" si="29"/>
-        <v>-9.0947551216142841E-3</v>
-      </c>
-      <c r="S48" s="116">
-        <f t="shared" si="25"/>
-        <v>-2.3989019863797534E-2</v>
+        <v>-3.4028211761422011E-2</v>
       </c>
       <c r="T48" s="114">
-        <f t="shared" si="26"/>
-        <v>14</v>
+        <f t="shared" si="28"/>
+        <v>16</v>
       </c>
       <c r="U48" s="116">
-        <f>((N48/$N$58)-1)/T48*30</f>
-        <v>-5.1405042565280425E-2</v>
+        <f>((N48/$N$60)-1)/T48*30</f>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V48" s="116"/>
       <c r="W48" s="116"/>
@@ -9314,63 +9354,63 @@
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="117">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B49">
-        <f>B65</f>
+        <f>B68</f>
         <v>1110</v>
       </c>
       <c r="C49">
-        <v>31.710699999999999</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D49">
-        <f>D65</f>
+        <f>D68</f>
         <v>321.99</v>
       </c>
       <c r="E49">
-        <v>34.336300000000001</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F49" s="112">
         <v>161</v>
       </c>
       <c r="G49">
-        <v>2212.11</v>
+        <v>2227.25</v>
       </c>
       <c r="L49">
-        <f>L65</f>
+        <f>L68</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>0.93062100000000003</v>
+        <v>0.890316</v>
       </c>
       <c r="N49" s="113">
+        <f t="shared" si="29"/>
+        <v>515864.35854099999</v>
+      </c>
+      <c r="O49">
+        <v>154.24</v>
+      </c>
+      <c r="P49">
+        <v>242616.68</v>
+      </c>
+      <c r="Q49" s="115">
+        <v>8807.3799999999992</v>
+      </c>
+      <c r="R49" s="127">
+        <f t="shared" si="31"/>
+        <v>-2.5206133946758191E-2</v>
+      </c>
+      <c r="S49" s="116">
         <f t="shared" si="27"/>
-        <v>518732.15723700001</v>
-      </c>
-      <c r="O49">
-        <v>156.63999999999999</v>
-      </c>
-      <c r="P49">
-        <v>245919.31</v>
-      </c>
-      <c r="Q49">
-        <v>9111.5</v>
-      </c>
-      <c r="R49" s="127">
-        <f t="shared" si="29"/>
-        <v>-3.2047412610438641E-3</v>
-      </c>
-      <c r="S49" s="116">
-        <f t="shared" si="25"/>
-        <v>-2.2080912973779676E-2</v>
+        <v>-2.7487315957364089E-2</v>
       </c>
       <c r="T49" s="114">
-        <f t="shared" si="26"/>
-        <v>11</v>
+        <f t="shared" si="28"/>
+        <v>15</v>
       </c>
       <c r="U49" s="116">
-        <f>((N49/$N$58)-1)/T49*30</f>
-        <v>-6.0220671746671839E-2</v>
+        <f>((N49/$N$60)-1)/T49*30</f>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V49" s="116"/>
       <c r="W49" s="116"/>
@@ -9383,63 +9423,63 @@
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="117">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B50">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C50">
-        <v>32.063899999999997</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D50">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E50">
-        <v>35.065100000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F50" s="112">
         <v>161</v>
       </c>
       <c r="G50">
-        <v>2267.61</v>
+        <v>2214.31</v>
       </c>
       <c r="L50">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M50">
-        <v>0.94166499999999997</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N50" s="113">
+        <f t="shared" si="29"/>
+        <v>517720.01173699996</v>
+      </c>
+      <c r="O50">
+        <v>155.99</v>
+      </c>
+      <c r="P50">
+        <v>244906</v>
+      </c>
+      <c r="Q50" s="115">
+        <v>9029.3799999999992</v>
+      </c>
+      <c r="R50" s="127">
+        <f t="shared" si="31"/>
+        <v>-9.0947551216142841E-3</v>
+      </c>
+      <c r="S50" s="116">
         <f t="shared" si="27"/>
-        <v>529674.87554899999</v>
-      </c>
-      <c r="O50">
-        <v>163.91</v>
-      </c>
-      <c r="P50">
-        <v>256845.12</v>
-      </c>
-      <c r="Q50" s="115">
-        <v>9140.7000000000007</v>
-      </c>
-      <c r="R50" s="127">
-        <f t="shared" si="29"/>
-        <v>2.0302602645311585E-2</v>
-      </c>
-      <c r="S50" s="116">
-        <f t="shared" si="25"/>
-        <v>-1.4515902067954167E-3</v>
+        <v>-2.3989019863797534E-2</v>
       </c>
       <c r="T50" s="114">
-        <f t="shared" si="26"/>
-        <v>10</v>
+        <f t="shared" si="28"/>
+        <v>14</v>
       </c>
       <c r="U50" s="116">
-        <f>((N50/$N$58)-1)/T50*30</f>
-        <v>-4.3547706203862502E-3</v>
+        <f>((N50/$N$60)-1)/T50*30</f>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V50" s="116"/>
       <c r="W50" s="116"/>
@@ -9452,63 +9492,63 @@
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="117">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B51">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C51">
-        <v>32.028799999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D51">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E51">
-        <v>34.808799999999998</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F51" s="112">
         <v>161</v>
       </c>
       <c r="G51">
-        <v>2220.92</v>
+        <v>2212.11</v>
       </c>
       <c r="L51">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M51">
-        <v>0.93470600000000004</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N51" s="113">
+        <f t="shared" si="29"/>
+        <v>518732.15723700001</v>
+      </c>
+      <c r="O51">
+        <v>156.63999999999999</v>
+      </c>
+      <c r="P51">
+        <v>245919.31</v>
+      </c>
+      <c r="Q51">
+        <v>9111.5</v>
+      </c>
+      <c r="R51" s="127">
+        <f t="shared" si="31"/>
+        <v>-3.2047412610438641E-3</v>
+      </c>
+      <c r="S51" s="116">
         <f t="shared" si="27"/>
-        <v>521166.42351200001</v>
-      </c>
-      <c r="O51">
-        <v>158.47999999999999</v>
-      </c>
-      <c r="P51">
-        <v>248342.62</v>
-      </c>
-      <c r="Q51" s="115">
-        <v>8955.1200000000008</v>
-      </c>
-      <c r="R51" s="127">
-        <f t="shared" si="29"/>
-        <v>2.8184993612594411E-3</v>
-      </c>
-      <c r="S51" s="116">
-        <f t="shared" si="25"/>
-        <v>-1.7491809676412506E-2</v>
+        <v>-2.2080912973779676E-2</v>
       </c>
       <c r="T51" s="114">
-        <f t="shared" si="26"/>
-        <v>9</v>
+        <f t="shared" si="28"/>
+        <v>11</v>
       </c>
       <c r="U51" s="116">
-        <f>((N51/$N$58)-1)/T51*30</f>
-        <v>-5.8306032254708352E-2</v>
+        <f>((N51/$N$60)-1)/T51*30</f>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V51" s="116"/>
       <c r="W51" s="116"/>
@@ -9521,63 +9561,63 @@
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="117">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B52">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C52">
-        <v>32.087800000000001</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D52">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E52">
-        <v>34.799100000000003</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F52" s="112">
         <v>161</v>
       </c>
       <c r="G52">
-        <v>2219.02</v>
+        <v>2267.61</v>
       </c>
       <c r="L52">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M52">
-        <v>0.90033600000000003</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N52" s="113">
+        <f t="shared" si="29"/>
+        <v>529674.87554899999</v>
+      </c>
+      <c r="O52">
+        <v>163.91</v>
+      </c>
+      <c r="P52">
+        <v>256845.12</v>
+      </c>
+      <c r="Q52" s="115">
+        <v>9140.7000000000007</v>
+      </c>
+      <c r="R52" s="127">
+        <f t="shared" si="31"/>
+        <v>2.0302602645311585E-2</v>
+      </c>
+      <c r="S52" s="116">
         <f t="shared" si="27"/>
-        <v>516626.64020899998</v>
-      </c>
-      <c r="O52">
-        <v>155.59</v>
-      </c>
-      <c r="P52">
-        <v>243803.06</v>
-      </c>
-      <c r="Q52" s="115">
-        <v>8929.8799999999992</v>
-      </c>
-      <c r="R52" s="127">
-        <f t="shared" si="29"/>
-        <v>2.3714764364134666E-2</v>
-      </c>
-      <c r="S52" s="116">
-        <f t="shared" si="25"/>
-        <v>-2.6050254879836254E-2</v>
+        <v>-1.4515902067954167E-3</v>
       </c>
       <c r="T52" s="114">
-        <f t="shared" si="26"/>
-        <v>8</v>
+        <f t="shared" si="28"/>
+        <v>10</v>
       </c>
       <c r="U52" s="116">
-        <f>((N52/$N$58)-1)/T52*30</f>
-        <v>-9.7688455799385954E-2</v>
+        <f>((N52/$N$60)-1)/T52*30</f>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V52" s="116"/>
       <c r="W52" s="116"/>
@@ -9587,72 +9627,66 @@
       <c r="AA52" s="116"/>
       <c r="AB52" s="133"/>
       <c r="AC52" s="134"/>
-      <c r="AL52">
-        <v>68</v>
-      </c>
-      <c r="AM52">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="117">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B53">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C53">
-        <v>31.9499</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D53">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E53">
-        <v>34.8125</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F53" s="112">
         <v>161</v>
       </c>
       <c r="G53">
-        <v>2212.35</v>
+        <v>2220.92</v>
       </c>
       <c r="L53">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M53">
-        <v>0.93887900000000002</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N53" s="113">
+        <f t="shared" si="29"/>
+        <v>521166.42351200001</v>
+      </c>
+      <c r="O53">
+        <v>158.47999999999999</v>
+      </c>
+      <c r="P53">
+        <v>248342.62</v>
+      </c>
+      <c r="Q53" s="115">
+        <v>8955.1200000000008</v>
+      </c>
+      <c r="R53" s="127">
+        <f t="shared" si="31"/>
+        <v>2.8184993612594411E-3</v>
+      </c>
+      <c r="S53" s="116">
         <f t="shared" si="27"/>
-        <v>520221.89087499998</v>
-      </c>
-      <c r="O53">
-        <v>155.44</v>
-      </c>
-      <c r="P53">
-        <v>247623.17</v>
-      </c>
-      <c r="Q53" s="115">
-        <v>8718.11</v>
-      </c>
-      <c r="R53" s="127">
-        <f t="shared" si="29"/>
-        <v>-1.2685088855267868E-2</v>
-      </c>
-      <c r="S53" s="116">
-        <f t="shared" si="25"/>
-        <v>-1.9272452116166794E-2</v>
+        <v>-1.7491809676412506E-2</v>
       </c>
       <c r="T53" s="114">
-        <f t="shared" si="26"/>
-        <v>7</v>
+        <f t="shared" si="28"/>
+        <v>9</v>
       </c>
       <c r="U53" s="116">
-        <f>((N53/$N$58)-1)/T53*30</f>
-        <v>-8.2596223355000553E-2</v>
+        <f>((N53/$N$60)-1)/T53*30</f>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V53" s="116"/>
       <c r="W53" s="116"/>
@@ -9662,72 +9696,66 @@
       <c r="AA53" s="116"/>
       <c r="AB53" s="133"/>
       <c r="AC53" s="134"/>
-      <c r="AL53">
-        <v>68</v>
-      </c>
-      <c r="AM53">
-        <v>22.96</v>
-      </c>
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="117">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B54">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C54">
-        <v>31.796299999999999</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D54">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E54">
-        <v>34.619700000000002</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F54" s="112">
         <v>161</v>
       </c>
       <c r="G54">
-        <v>2213.54</v>
+        <v>2219.02</v>
       </c>
       <c r="L54">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M54">
-        <v>0.94838599999999995</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N54" s="113">
+        <f t="shared" si="29"/>
+        <v>516626.64020899998</v>
+      </c>
+      <c r="O54">
+        <v>155.59</v>
+      </c>
+      <c r="P54">
+        <v>243803.06</v>
+      </c>
+      <c r="Q54" s="115">
+        <v>8929.8799999999992</v>
+      </c>
+      <c r="R54" s="127">
+        <f t="shared" si="31"/>
+        <v>2.3714764364134666E-2</v>
+      </c>
+      <c r="S54" s="116">
         <f t="shared" si="27"/>
-        <v>521369.280203</v>
-      </c>
-      <c r="O54">
-        <v>156.13</v>
-      </c>
-      <c r="P54">
-        <v>248712.47</v>
-      </c>
-      <c r="Q54" s="115">
-        <v>8828.7000000000007</v>
-      </c>
-      <c r="R54" s="127">
-        <f t="shared" si="29"/>
-        <v>-6.2092946866469934E-3</v>
-      </c>
-      <c r="S54" s="116">
-        <f t="shared" si="25"/>
-        <v>-1.7109382199549383E-2</v>
+        <v>-2.6050254879836254E-2</v>
       </c>
       <c r="T54" s="114">
-        <f t="shared" si="26"/>
-        <v>4</v>
+        <f t="shared" si="28"/>
+        <v>8</v>
       </c>
       <c r="U54" s="116">
-        <f>((N54/$N$58)-1)/T54*30</f>
-        <v>-0.12832036649662037</v>
+        <f>((N54/$N$60)-1)/T54*30</f>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V54" s="116"/>
       <c r="W54" s="116"/>
@@ -9741,68 +9769,68 @@
         <v>68</v>
       </c>
       <c r="AM54">
-        <v>22.04</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="117">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B55">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C55">
-        <v>31.775700000000001</v>
+        <v>31.9499</v>
       </c>
       <c r="D55">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E55">
-        <v>34.762500000000003</v>
+        <v>34.8125</v>
       </c>
       <c r="F55" s="112">
         <v>161</v>
       </c>
       <c r="G55">
-        <v>2222.88</v>
+        <v>2212.35</v>
       </c>
       <c r="L55">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M55">
-        <v>0.95100700000000005</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N55" s="113">
+        <f t="shared" si="29"/>
+        <v>520221.89087499998</v>
+      </c>
+      <c r="O55">
+        <v>155.44</v>
+      </c>
+      <c r="P55">
+        <v>247623.17</v>
+      </c>
+      <c r="Q55" s="115">
+        <v>8718.11</v>
+      </c>
+      <c r="R55" s="127">
+        <f t="shared" si="31"/>
+        <v>-1.2685088855267868E-2</v>
+      </c>
+      <c r="S55" s="116">
         <f t="shared" si="27"/>
-        <v>523223.75937500002</v>
-      </c>
-      <c r="O55">
-        <v>157.21</v>
-      </c>
-      <c r="P55">
-        <v>250427.64</v>
-      </c>
-      <c r="Q55" s="115">
-        <v>8883.52</v>
-      </c>
-      <c r="R55" s="127">
-        <f t="shared" si="29"/>
-        <v>-3.0066910413888426E-3</v>
-      </c>
-      <c r="S55" s="116">
-        <f t="shared" si="25"/>
-        <v>-1.3613299387851274E-2</v>
+        <v>-1.9272452116166794E-2</v>
       </c>
       <c r="T55" s="114">
-        <f t="shared" si="26"/>
-        <v>3</v>
+        <f t="shared" si="28"/>
+        <v>7</v>
       </c>
       <c r="U55" s="116">
-        <f>((N55/$N$58)-1)/T55*30</f>
-        <v>-0.13613299387851274</v>
+        <f>((N55/$N$60)-1)/T55*30</f>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V55" s="116"/>
       <c r="W55" s="116"/>
@@ -9816,68 +9844,68 @@
         <v>68</v>
       </c>
       <c r="AM55">
-        <v>20.399999999999999</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="56" spans="1:39">
       <c r="A56" s="117">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B56">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C56">
-        <v>32</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D56">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E56">
-        <v>35</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F56" s="112">
         <v>161</v>
       </c>
       <c r="G56">
-        <v>2220.3200000000002</v>
+        <v>2213.54</v>
       </c>
       <c r="L56">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M56">
-        <v>0.957233</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N56" s="113">
+        <f t="shared" si="29"/>
+        <v>521369.280203</v>
+      </c>
+      <c r="O56">
+        <v>156.13</v>
+      </c>
+      <c r="P56">
+        <v>248712.47</v>
+      </c>
+      <c r="Q56" s="115">
+        <v>8828.7000000000007</v>
+      </c>
+      <c r="R56" s="127">
+        <f t="shared" si="31"/>
+        <v>-6.2092946866469934E-3</v>
+      </c>
+      <c r="S56" s="116">
         <f t="shared" si="27"/>
-        <v>523915.29500000004</v>
-      </c>
-      <c r="O56">
-        <v>160.79</v>
-      </c>
-      <c r="P56">
-        <v>250989.9</v>
-      </c>
-      <c r="Q56" s="115">
-        <v>8910.23</v>
-      </c>
-      <c r="R56" s="127">
-        <f t="shared" si="29"/>
-        <v>-1.7822211098927898E-2</v>
-      </c>
-      <c r="S56" s="116">
-        <f t="shared" si="25"/>
-        <v>-1.2309609463077242E-2</v>
+        <v>-1.7109382199549383E-2</v>
       </c>
       <c r="T56" s="114">
-        <f t="shared" si="26"/>
-        <v>2</v>
+        <f t="shared" si="28"/>
+        <v>4</v>
       </c>
       <c r="U56" s="116">
-        <f>((N56/$N$58)-1)/T56*30</f>
-        <v>-0.18464414194615864</v>
+        <f>((N56/$N$60)-1)/T56*30</f>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V56" s="116"/>
       <c r="W56" s="116"/>
@@ -9891,68 +9919,68 @@
         <v>68</v>
       </c>
       <c r="AM56">
-        <v>18.22</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="117">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B57">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C57">
-        <v>31.516400000000001</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D57">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E57">
-        <v>34.463200000000001</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F57" s="112">
         <v>161</v>
       </c>
       <c r="G57">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L57">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M57">
-        <v>0.979213</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N57" s="113">
+        <f t="shared" si="29"/>
+        <v>523223.75937500002</v>
+      </c>
+      <c r="O57">
+        <v>157.21</v>
+      </c>
+      <c r="P57">
+        <v>250427.64</v>
+      </c>
+      <c r="Q57" s="115">
+        <v>8883.52</v>
+      </c>
+      <c r="R57" s="127">
+        <f t="shared" si="31"/>
+        <v>-3.0066910413888426E-3</v>
+      </c>
+      <c r="S57" s="116">
         <f t="shared" si="27"/>
-        <v>525953.15476800012</v>
-      </c>
-      <c r="O57">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="P57">
-        <v>252645.61</v>
-      </c>
-      <c r="Q57" s="115">
-        <v>9069.0300000000007</v>
-      </c>
-      <c r="R57" s="127">
-        <f t="shared" si="29"/>
-        <v>-6.8684302510850781E-3</v>
-      </c>
-      <c r="S57" s="116">
-        <f t="shared" si="25"/>
-        <v>-8.4678157049555836E-3</v>
+        <v>-1.3613299387851274E-2</v>
       </c>
       <c r="T57" s="114">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="28"/>
+        <v>3</v>
       </c>
       <c r="U57" s="116">
-        <f>((N57/$N$58)-1)/T57*30</f>
-        <v>-0.25403447114866751</v>
+        <f>((N57/$N$60)-1)/T57*30</f>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V57" s="116"/>
       <c r="W57" s="116"/>
@@ -9966,66 +9994,69 @@
         <v>68</v>
       </c>
       <c r="AM57">
-        <v>16.57</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="A58" s="117">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B58">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C58">
-        <v>31.571400000000001</v>
+        <v>32</v>
       </c>
       <c r="D58">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E58">
-        <v>34.558100000000003</v>
+        <v>35</v>
       </c>
       <c r="F58" s="112">
         <v>161</v>
       </c>
       <c r="G58">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L58">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M58">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N58" s="200">
+        <v>0.957233</v>
+      </c>
+      <c r="N58" s="113">
+        <f t="shared" si="29"/>
+        <v>523915.29500000004</v>
+      </c>
+      <c r="O58">
+        <v>160.79</v>
+      </c>
+      <c r="P58">
+        <v>250989.9</v>
+      </c>
+      <c r="Q58" s="115">
+        <v>8910.23</v>
+      </c>
+      <c r="R58" s="127">
+        <f t="shared" si="31"/>
+        <v>-1.7822211098927898E-2</v>
+      </c>
+      <c r="S58" s="116">
         <f t="shared" si="27"/>
-        <v>530444.86411900003</v>
-      </c>
-      <c r="O58">
-        <v>164.91</v>
-      </c>
-      <c r="P58">
-        <v>257088.48</v>
-      </c>
-      <c r="Q58" s="115">
-        <v>9131.32</v>
-      </c>
-      <c r="R58" s="127">
-        <f t="shared" si="29"/>
-        <v>-2.6283166070184549E-3</v>
-      </c>
-      <c r="S58" s="116">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>-1.2309609463077242E-2</v>
       </c>
       <c r="T58" s="114">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="U58" s="116"/>
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="U58" s="116">
+        <f>((N58/$N$60)-1)/T58*30</f>
+        <v>-0.18464414194615864</v>
+      </c>
       <c r="V58" s="116"/>
       <c r="W58" s="116"/>
       <c r="X58" s="116"/>
@@ -10034,73 +10065,73 @@
       <c r="AA58" s="116"/>
       <c r="AB58" s="133"/>
       <c r="AC58" s="134"/>
-      <c r="AH58">
-        <v>12</v>
-      </c>
-      <c r="AI58">
-        <v>41.58</v>
-      </c>
-      <c r="AJ58">
-        <f>AJ65</f>
-        <v>15</v>
-      </c>
-      <c r="AK58">
-        <v>55.55</v>
-      </c>
       <c r="AL58">
         <v>68</v>
       </c>
       <c r="AM58">
-        <v>15.07</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="117">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B59">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C59">
-        <v>31.402999999999999</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D59">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E59">
-        <v>34.3643</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F59" s="112">
         <v>161</v>
       </c>
       <c r="G59">
-        <v>2198.16</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L59">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M59">
-        <v>0.99115900000000001</v>
+        <v>0.979213</v>
       </c>
       <c r="N59" s="113">
+        <f t="shared" si="29"/>
+        <v>525953.15476800012</v>
+      </c>
+      <c r="O59">
+        <v>161.94999999999999</v>
+      </c>
+      <c r="P59">
+        <v>252645.61</v>
+      </c>
+      <c r="Q59" s="115">
+        <v>9069.0300000000007</v>
+      </c>
+      <c r="R59" s="127">
+        <f t="shared" si="31"/>
+        <v>-6.8684302510850781E-3</v>
+      </c>
+      <c r="S59" s="116">
         <f t="shared" si="27"/>
-        <v>523720.92595699994</v>
-      </c>
-      <c r="O59">
-        <v>160.9</v>
-      </c>
-      <c r="Q59" s="115">
-        <v>9155.32</v>
-      </c>
-      <c r="R59" s="127">
-        <f t="shared" si="29"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S59" s="116"/>
-      <c r="U59" s="116"/>
+        <v>-8.4678157049555836E-3</v>
+      </c>
+      <c r="T59" s="114">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="U59" s="116">
+        <f>((N59/$N$60)-1)/T59*30</f>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V59" s="116"/>
       <c r="W59" s="116"/>
       <c r="X59" s="116"/>
@@ -10109,72 +10140,69 @@
       <c r="AA59" s="116"/>
       <c r="AB59" s="133"/>
       <c r="AC59" s="134"/>
-      <c r="AH59">
-        <v>12</v>
-      </c>
-      <c r="AI59">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="AJ59">
-        <f>AJ65</f>
-        <v>15</v>
-      </c>
-      <c r="AK59">
-        <v>57.75</v>
-      </c>
       <c r="AL59">
         <v>68</v>
       </c>
       <c r="AM59">
-        <v>13.7</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" s="117">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B60">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C60">
-        <v>31.297000000000001</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D60">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E60">
-        <v>34.110599999999998</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F60" s="112">
         <v>161</v>
       </c>
       <c r="G60">
-        <v>2184.79</v>
+        <v>2232.66</v>
       </c>
       <c r="L60">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M60">
-        <v>0.945214</v>
-      </c>
-      <c r="N60" s="113">
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N60" s="200">
+        <f t="shared" si="29"/>
+        <v>530444.86411900003</v>
+      </c>
+      <c r="O60">
+        <v>164.91</v>
+      </c>
+      <c r="P60">
+        <v>257088.48</v>
+      </c>
+      <c r="Q60" s="115">
+        <v>9131.32</v>
+      </c>
+      <c r="R60" s="127">
+        <f t="shared" si="31"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S60" s="116">
         <f t="shared" si="27"/>
-        <v>515625.882094</v>
-      </c>
-      <c r="O60">
-        <v>155.75</v>
-      </c>
-      <c r="Q60" s="115">
-        <v>9054.18</v>
-      </c>
-      <c r="R60" s="127">
-        <f t="shared" si="29"/>
-        <v>3.4194151209717583E-2</v>
-      </c>
-      <c r="S60" s="116"/>
+        <v>0</v>
+      </c>
+      <c r="T60" s="114">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="U60" s="116"/>
       <c r="V60" s="116"/>
       <c r="W60" s="116"/>
@@ -10188,66 +10216,66 @@
         <v>12</v>
       </c>
       <c r="AI60">
-        <v>34.380000000000003</v>
+        <v>41.58</v>
       </c>
       <c r="AJ60">
-        <f>AJ65</f>
+        <f>AJ67</f>
         <v>15</v>
       </c>
       <c r="AK60">
-        <v>63.1</v>
+        <v>55.55</v>
       </c>
       <c r="AL60">
         <v>68</v>
       </c>
       <c r="AM60">
-        <v>12.46</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="61" spans="1:39">
       <c r="A61" s="117">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B61">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C61">
-        <v>31.293399999999998</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D61">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E61">
-        <v>34.006500000000003</v>
+        <v>34.3643</v>
       </c>
       <c r="F61" s="112">
         <v>161</v>
       </c>
       <c r="G61">
-        <v>2150.9</v>
+        <v>2198.16</v>
       </c>
       <c r="L61">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M61">
-        <v>0.99397100000000005</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N61" s="113">
-        <f t="shared" si="27"/>
-        <v>516226.70193500002</v>
+        <f t="shared" si="29"/>
+        <v>523720.92595699994</v>
       </c>
       <c r="O61">
-        <v>156.16</v>
+        <v>160.9</v>
       </c>
       <c r="Q61" s="115">
-        <v>8744.58</v>
+        <v>9155.32</v>
       </c>
       <c r="R61" s="127">
-        <f t="shared" si="29"/>
-        <v>-1.3258498407013208E-2</v>
+        <f t="shared" si="31"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S61" s="116"/>
       <c r="U61" s="116"/>
@@ -10259,77 +10287,70 @@
       <c r="AA61" s="116"/>
       <c r="AB61" s="133"/>
       <c r="AC61" s="134"/>
-      <c r="AF61">
-        <f>AF65</f>
-        <v>57</v>
-      </c>
-      <c r="AG61">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH61">
         <v>12</v>
       </c>
       <c r="AI61">
-        <v>31.26</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ61">
-        <f>AJ65</f>
+        <f>AJ67</f>
         <v>15</v>
       </c>
       <c r="AK61">
-        <v>57.4</v>
+        <v>57.75</v>
       </c>
       <c r="AL61">
         <v>68</v>
       </c>
       <c r="AM61">
-        <v>11.33</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="62" spans="1:39">
       <c r="A62" s="117">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B62">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C62">
-        <v>31.079899999999999</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D62">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E62">
-        <v>33.721699999999998</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F62" s="112">
         <v>161</v>
       </c>
       <c r="G62">
-        <v>2116.34</v>
+        <v>2184.79</v>
       </c>
       <c r="L62">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M62">
-        <v>1.0160309999999999</v>
+        <v>0.945214</v>
       </c>
       <c r="N62" s="113">
-        <f t="shared" si="27"/>
-        <v>513091.35418300005</v>
+        <f t="shared" si="29"/>
+        <v>515625.882094</v>
       </c>
       <c r="O62">
-        <v>154.22999999999999</v>
+        <v>155.75</v>
       </c>
       <c r="Q62" s="115">
-        <v>8860.52</v>
+        <v>9054.18</v>
       </c>
       <c r="R62" s="127">
-        <f t="shared" si="29"/>
-        <v>-5.319100910555985E-3</v>
+        <f t="shared" si="31"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S62" s="116"/>
       <c r="U62" s="116"/>
@@ -10341,82 +10362,70 @@
       <c r="AA62" s="116"/>
       <c r="AB62" s="133"/>
       <c r="AC62" s="134"/>
-      <c r="AD62">
-        <f>AD65</f>
-        <v>36</v>
-      </c>
-      <c r="AE62" s="135">
-        <v>38.15</v>
-      </c>
-      <c r="AF62">
-        <f>AF65</f>
-        <v>57</v>
-      </c>
-      <c r="AG62">
-        <v>579.361718</v>
-      </c>
       <c r="AH62">
-        <f>AH65</f>
         <v>12</v>
       </c>
       <c r="AI62">
-        <v>28.42</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ62">
-        <f>AJ65</f>
+        <f>AJ67</f>
         <v>15</v>
       </c>
       <c r="AK62">
-        <v>52.2</v>
+        <v>63.1</v>
       </c>
       <c r="AL62">
         <v>68</v>
       </c>
       <c r="AM62">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="117">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B63">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C63">
-        <v>30.905999999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D63">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E63">
-        <v>33.542299999999997</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F63" s="112">
         <v>161</v>
       </c>
       <c r="G63">
-        <v>2072.52</v>
+        <v>2150.9</v>
       </c>
       <c r="L63">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M63">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N63" s="113">
-        <f t="shared" si="27"/>
-        <v>509025.91517699993</v>
+        <f t="shared" si="29"/>
+        <v>516226.70193500002</v>
+      </c>
+      <c r="O63">
+        <v>156.16</v>
       </c>
       <c r="Q63" s="115">
-        <v>8907.65</v>
+        <v>8744.58</v>
       </c>
       <c r="R63" s="127">
-        <f t="shared" si="29"/>
-        <v>-2.1273848882702007E-2</v>
+        <f t="shared" si="31"/>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S63" s="116"/>
       <c r="U63" s="116"/>
@@ -10428,33 +10437,25 @@
       <c r="AA63" s="116"/>
       <c r="AB63" s="133"/>
       <c r="AC63" s="134"/>
-      <c r="AD63">
-        <f>AD65</f>
-        <v>36</v>
-      </c>
-      <c r="AE63">
-        <v>34.659999999999997</v>
-      </c>
       <c r="AF63">
-        <f>AF65</f>
+        <f>AF67</f>
         <v>57</v>
       </c>
       <c r="AG63">
-        <v>578.66060300000004</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH63">
-        <f>AH65</f>
         <v>12</v>
       </c>
       <c r="AI63">
-        <v>25.84</v>
+        <v>31.26</v>
       </c>
       <c r="AJ63">
-        <f>AJ65</f>
+        <f>AJ67</f>
         <v>15</v>
       </c>
       <c r="AK63">
-        <v>47.46</v>
+        <v>57.4</v>
       </c>
       <c r="AL63">
         <v>68</v>
@@ -10465,45 +10466,48 @@
     </row>
     <row r="64" spans="1:39">
       <c r="A64" s="117">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B64">
-        <f>B65</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C64">
-        <v>30.7361</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D64">
-        <f>D65</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E64">
-        <v>33.225700000000003</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F64" s="112">
         <v>161</v>
       </c>
       <c r="G64">
-        <v>2018.91</v>
+        <v>2116.34</v>
       </c>
       <c r="L64">
-        <f>L65</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M64">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N64" s="113">
-        <f t="shared" si="27"/>
-        <v>499114.42414299998</v>
+        <f t="shared" si="29"/>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O64">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q64" s="115">
-        <v>9097.15</v>
+        <v>8860.52</v>
       </c>
       <c r="R64" s="127">
-        <f t="shared" si="29"/>
-        <v>-1.0612114783201454E-2</v>
+        <f t="shared" si="31"/>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S64" s="116"/>
       <c r="U64" s="116"/>
@@ -10516,32 +10520,32 @@
       <c r="AB64" s="133"/>
       <c r="AC64" s="134"/>
       <c r="AD64">
-        <f>AD65</f>
+        <f>AD67</f>
         <v>36</v>
       </c>
-      <c r="AE64">
-        <v>31.52</v>
+      <c r="AE64" s="135">
+        <v>38.15</v>
       </c>
       <c r="AF64">
-        <f>AF65</f>
+        <f>AF67</f>
         <v>57</v>
       </c>
       <c r="AG64">
-        <v>576.58807100000001</v>
+        <v>579.361718</v>
       </c>
       <c r="AH64">
-        <f>AH65</f>
+        <f>AH67</f>
         <v>12</v>
       </c>
       <c r="AI64">
-        <v>23.5</v>
+        <v>28.42</v>
       </c>
       <c r="AJ64">
-        <f>AJ65</f>
+        <f>AJ67</f>
         <v>15</v>
       </c>
       <c r="AK64">
-        <v>43.16</v>
+        <v>52.2</v>
       </c>
       <c r="AL64">
         <v>68</v>
@@ -10552,90 +10556,104 @@
     </row>
     <row r="65" spans="1:39">
       <c r="A65" s="117">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B65">
-        <f>B66</f>
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C65">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D65">
-        <f>D66</f>
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E65">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F65" s="112">
         <v>161</v>
       </c>
       <c r="G65">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L65">
-        <f>L66</f>
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M65">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="N65" s="113">
-        <f t="shared" si="27"/>
-        <v>496152.04914299998</v>
+        <f t="shared" si="29"/>
+        <v>509025.91517699993</v>
       </c>
       <c r="Q65" s="115">
-        <v>9193.69</v>
+        <v>8907.65</v>
       </c>
       <c r="R65" s="127">
-        <f t="shared" si="29"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S65" s="127"/>
+        <f t="shared" si="31"/>
+        <v>-2.1273848882702007E-2</v>
+      </c>
+      <c r="S65" s="116"/>
+      <c r="U65" s="116"/>
+      <c r="V65" s="116"/>
+      <c r="W65" s="116"/>
+      <c r="X65" s="116"/>
+      <c r="Y65" s="116"/>
+      <c r="Z65" s="116"/>
+      <c r="AA65" s="116"/>
+      <c r="AB65" s="133"/>
+      <c r="AC65" s="134"/>
       <c r="AD65">
-        <f>AD66</f>
+        <f>AD67</f>
         <v>36</v>
       </c>
       <c r="AE65">
-        <v>28.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF65">
-        <f>AF66</f>
+        <f>AF67</f>
         <v>57</v>
       </c>
       <c r="AG65">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH65">
-        <f>AH66</f>
+        <f>AH67</f>
         <v>12</v>
       </c>
       <c r="AI65">
-        <v>21.38</v>
+        <v>25.84</v>
       </c>
       <c r="AJ65">
+        <f>AJ67</f>
         <v>15</v>
       </c>
       <c r="AK65">
-        <v>39.24</v>
-      </c>
-      <c r="AM65" s="129">
-        <f>AM64</f>
+        <v>47.46</v>
+      </c>
+      <c r="AL65">
+        <v>68</v>
+      </c>
+      <c r="AM65">
         <v>11.33</v>
       </c>
     </row>
     <row r="66" spans="1:39">
       <c r="A66" s="117">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B66">
+        <f>B67</f>
         <v>1110</v>
       </c>
       <c r="C66">
         <v>30.7361</v>
       </c>
       <c r="D66">
+        <f>D67</f>
         <v>321.99</v>
       </c>
       <c r="E66">
@@ -10648,61 +10666,81 @@
         <v>2018.91</v>
       </c>
       <c r="L66">
+        <f>L67</f>
         <v>125000</v>
       </c>
       <c r="M66">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="N66" s="113">
-        <f t="shared" si="27"/>
-        <v>503322.92414299998</v>
+        <f t="shared" si="29"/>
+        <v>499114.42414299998</v>
       </c>
       <c r="Q66" s="115">
-        <v>9062.36</v>
+        <v>9097.15</v>
       </c>
       <c r="R66" s="127">
-        <f t="shared" si="29"/>
-        <v>-1.292378585710563E-2</v>
-      </c>
-      <c r="S66" s="127"/>
+        <f t="shared" si="31"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S66" s="116"/>
+      <c r="U66" s="116"/>
+      <c r="V66" s="116"/>
+      <c r="W66" s="116"/>
+      <c r="X66" s="116"/>
+      <c r="Y66" s="116"/>
+      <c r="Z66" s="116"/>
+      <c r="AA66" s="116"/>
+      <c r="AB66" s="133"/>
+      <c r="AC66" s="134"/>
       <c r="AD66">
         <f>AD67</f>
         <v>36</v>
       </c>
       <c r="AE66">
-        <v>26.06</v>
+        <v>31.52</v>
       </c>
       <c r="AF66">
+        <f>AF67</f>
         <v>57</v>
       </c>
       <c r="AG66">
         <v>576.58807100000001</v>
       </c>
       <c r="AH66">
+        <f>AH67</f>
         <v>12</v>
       </c>
       <c r="AI66">
-        <v>19.45</v>
-      </c>
-      <c r="AK66" s="129">
-        <f>AK65</f>
-        <v>39.24</v>
-      </c>
-      <c r="AM66" s="129" t="s">
-        <v>69</v>
+        <v>23.5</v>
+      </c>
+      <c r="AJ66">
+        <f>AJ67</f>
+        <v>15</v>
+      </c>
+      <c r="AK66">
+        <v>43.16</v>
+      </c>
+      <c r="AL66">
+        <v>68</v>
+      </c>
+      <c r="AM66">
+        <v>11.33</v>
       </c>
     </row>
     <row r="67" spans="1:39">
       <c r="A67" s="117">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B67">
+        <f>B68</f>
         <v>1110</v>
       </c>
       <c r="C67">
         <v>30.7361</v>
       </c>
       <c r="D67">
+        <f>D68</f>
         <v>321.99</v>
       </c>
       <c r="E67">
@@ -10714,50 +10752,60 @@
       <c r="G67">
         <v>2018.91</v>
       </c>
-      <c r="L67" s="199">
-        <v>75000</v>
+      <c r="L67">
+        <f>L68</f>
+        <v>125000</v>
       </c>
       <c r="M67">
-        <v>1.064435</v>
+        <v>1.010337</v>
       </c>
       <c r="N67" s="113">
-        <f t="shared" si="27"/>
-        <v>449692.54914299998</v>
+        <f t="shared" si="29"/>
+        <v>496152.04914299998</v>
       </c>
       <c r="Q67" s="115">
-        <v>9179.48</v>
+        <v>9193.69</v>
       </c>
       <c r="R67" s="127">
-        <f t="shared" si="29"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="31"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S67" s="127"/>
       <c r="AD67">
+        <f>AD68</f>
         <v>36</v>
       </c>
       <c r="AE67">
-        <v>23.7</v>
+        <v>28.66</v>
       </c>
       <c r="AF67">
+        <f>AF68</f>
         <v>57</v>
       </c>
       <c r="AG67">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI67" s="129">
-        <f>AI66</f>
-        <v>19.45</v>
-      </c>
-      <c r="AK67" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM67" s="130" t="s">
-        <v>68</v>
+      <c r="AH67">
+        <f>AH68</f>
+        <v>12</v>
+      </c>
+      <c r="AI67">
+        <v>21.38</v>
+      </c>
+      <c r="AJ67">
+        <v>15</v>
+      </c>
+      <c r="AK67">
+        <v>39.24</v>
+      </c>
+      <c r="AM67" s="129">
+        <f>AM66</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="68" spans="1:39">
       <c r="A68" s="117">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B68">
         <v>1110</v>
@@ -10778,29 +10826,29 @@
         <v>2018.91</v>
       </c>
       <c r="L68">
-        <f>L69</f>
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="M68">
-        <v>1.0192399999999999</v>
+        <v>1.067704</v>
       </c>
       <c r="N68" s="113">
-        <f t="shared" si="27"/>
-        <v>420821.92414299998</v>
+        <f t="shared" si="29"/>
+        <v>503322.92414299998</v>
       </c>
       <c r="Q68" s="115">
-        <v>9334.1299999999992</v>
+        <v>9062.36</v>
       </c>
       <c r="R68" s="127">
-        <f t="shared" si="29"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="31"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S68" s="127"/>
       <c r="AD68">
+        <f>AD69</f>
         <v>36</v>
       </c>
       <c r="AE68">
-        <v>21.56</v>
+        <v>26.06</v>
       </c>
       <c r="AF68">
         <v>57</v>
@@ -10808,20 +10856,23 @@
       <c r="AG68">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI68" s="129" t="s">
+      <c r="AH68">
+        <v>12</v>
+      </c>
+      <c r="AI68">
+        <v>19.45</v>
+      </c>
+      <c r="AK68" s="129">
+        <f>AK67</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM68" s="129" t="s">
         <v>69</v>
-      </c>
-      <c r="AK68" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM68" s="130">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:39">
       <c r="A69" s="117">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B69">
         <v>1110</v>
@@ -10841,29 +10892,29 @@
       <c r="G69">
         <v>2018.91</v>
       </c>
-      <c r="L69">
-        <v>50000</v>
+      <c r="L69" s="199">
+        <v>75000</v>
       </c>
       <c r="M69">
-        <v>1.0032049999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N69" s="113">
-        <f t="shared" si="27"/>
-        <v>420020.17414299998</v>
+        <f t="shared" si="29"/>
+        <v>449692.54914299998</v>
       </c>
       <c r="Q69" s="115">
-        <v>9374.2000000000007</v>
+        <v>9179.48</v>
       </c>
       <c r="R69" s="127">
-        <f t="shared" si="29"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="31"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S69" s="127"/>
       <c r="AD69">
         <v>36</v>
       </c>
       <c r="AE69">
-        <v>19.600000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="AF69">
         <v>57</v>
@@ -10871,132 +10922,259 @@
       <c r="AG69">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI69" s="130" t="s">
+      <c r="AI69" s="129">
+        <f>AI68</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK69" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM69" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="AK69" s="130">
-        <v>55.5</v>
-      </c>
-      <c r="AM69" s="116">
-        <f>(AM68-AM64)/AM64</f>
-        <v>0.73786407766990303</v>
-      </c>
     </row>
     <row r="70" spans="1:39">
-      <c r="A70" s="198">
-        <v>45344</v>
-      </c>
-      <c r="L70" s="199">
+      <c r="A70" s="117">
+        <v>45348</v>
+      </c>
+      <c r="B70">
+        <v>1110</v>
+      </c>
+      <c r="C70">
+        <v>30.7361</v>
+      </c>
+      <c r="D70">
+        <v>321.99</v>
+      </c>
+      <c r="E70">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F70" s="112">
+        <v>161</v>
+      </c>
+      <c r="G70">
+        <v>2018.91</v>
+      </c>
+      <c r="L70">
+        <f>L71</f>
         <v>50000</v>
       </c>
       <c r="M70">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N70" s="113">
-        <f t="shared" si="27"/>
-        <v>50160.249999999993</v>
+        <f t="shared" si="29"/>
+        <v>420821.92414299998</v>
       </c>
       <c r="Q70" s="115">
-        <v>9347.17</v>
-      </c>
+        <v>9334.1299999999992</v>
+      </c>
+      <c r="R70" s="127">
+        <f t="shared" si="31"/>
+        <v>-4.2928478604864484E-3</v>
+      </c>
+      <c r="S70" s="127"/>
       <c r="AD70">
         <v>36</v>
       </c>
       <c r="AE70">
-        <v>17.82</v>
-      </c>
-      <c r="AI70" s="130">
-        <v>45.72</v>
-      </c>
-      <c r="AK70" s="116">
-        <f>(AK69-AK65)/AK65</f>
-        <v>0.41437308868501521</v>
+        <v>21.56</v>
+      </c>
+      <c r="AF70">
+        <v>57</v>
+      </c>
+      <c r="AG70">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI70" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK70" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM70" s="130">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:39">
+      <c r="A71" s="117">
+        <v>45345</v>
+      </c>
+      <c r="B71">
+        <v>1110</v>
+      </c>
+      <c r="C71">
+        <v>30.7361</v>
+      </c>
+      <c r="D71">
+        <v>321.99</v>
+      </c>
+      <c r="E71">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F71" s="112">
+        <v>161</v>
+      </c>
+      <c r="G71">
+        <v>2018.91</v>
+      </c>
+      <c r="L71">
+        <v>50000</v>
+      </c>
       <c r="M71">
-        <v>0.93849000000000005</v>
-      </c>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N71" s="113">
+        <f t="shared" si="29"/>
+        <v>420020.17414299998</v>
+      </c>
+      <c r="Q71" s="115">
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R71" s="127">
+        <f t="shared" si="31"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S71" s="127"/>
       <c r="AD71">
         <v>36</v>
       </c>
-      <c r="AE71" s="129">
-        <v>15.3</v>
-      </c>
-      <c r="AI71" s="116">
-        <f>(AI70-AI66)/AI66</f>
-        <v>1.3506426735218509</v>
-      </c>
-      <c r="AM71" s="132">
-        <f>(AL64*AM68)-(AL52*AM64)</f>
-        <v>568.48</v>
+      <c r="AE71">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF71">
+        <v>57</v>
+      </c>
+      <c r="AG71">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI71" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK71" s="130">
+        <v>55.5</v>
+      </c>
+      <c r="AM71" s="116">
+        <f>(AM70-AM66)/AM66</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="72" spans="1:39">
+      <c r="A72" s="198">
+        <v>45344</v>
+      </c>
+      <c r="L72" s="199">
+        <v>50000</v>
+      </c>
       <c r="M72">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="R72" s="136">
-        <f>SUM(R10:R71)</f>
-        <v>0.11482546080151146</v>
-      </c>
-      <c r="S72" s="136"/>
-      <c r="AE72" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ72" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK72" s="132">
-        <f>(AJ65*AK69)-(AJ10*AK65)</f>
-        <v>832.5</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N72" s="113">
+        <f t="shared" si="29"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q72" s="115">
+        <v>9347.17</v>
+      </c>
+      <c r="AD72">
+        <v>36</v>
+      </c>
+      <c r="AE72">
+        <v>17.82</v>
+      </c>
+      <c r="AI72" s="130">
+        <v>45.72</v>
+      </c>
+      <c r="AK72" s="116">
+        <f>(AK71-AK67)/AK67</f>
+        <v>0.41437308868501521</v>
       </c>
     </row>
     <row r="73" spans="1:39">
       <c r="M73">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="AE73" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH73" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI73" s="132">
-        <f>(AH66*AI70)-(AH10*AI66)</f>
-        <v>548.64</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD73">
+        <v>36</v>
+      </c>
+      <c r="AE73" s="129">
+        <v>15.3</v>
+      </c>
+      <c r="AI73" s="116">
+        <f>(AI72-AI68)/AI68</f>
+        <v>1.3506426735218509</v>
+      </c>
+      <c r="AM73" s="132">
+        <f>(AL66*AM70)-(AL54*AM66)</f>
+        <v>568.48</v>
       </c>
     </row>
     <row r="74" spans="1:39">
       <c r="M74">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="AD74" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE74" s="130">
-        <v>38</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="R74" s="136">
+        <f>SUM(R10:R73)</f>
+        <v>0.17861903919377498</v>
+      </c>
+      <c r="S74" s="136"/>
+      <c r="AE74" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ74" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK74" s="132">
+        <f>(AJ67*AK71)-(AJ10*AK67)</f>
+        <v>832.5</v>
       </c>
     </row>
     <row r="75" spans="1:39">
       <c r="M75">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="AE75" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH75" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI75" s="132">
+        <f>(AH68*AI72)-(AH10*AI68)</f>
+        <v>548.64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39">
+      <c r="M76">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE76" s="130">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39">
+      <c r="M77">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE75" s="116">
+      <c r="AE77" s="116">
         <f>Sayfa2!M59</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
-      <c r="M76">
+    <row r="78" spans="1:39">
+      <c r="M78">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
-      <c r="AD77" s="132" t="s">
+    <row r="79" spans="1:39">
+      <c r="AD79" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AE77" s="132">
+      <c r="AE79" s="132">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9640C62E-01F7-43EE-8650-B03B775D7D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC521A8B-2DFB-4DC3-B1FB-1F2FA0067AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2034,11 +2034,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>258981.23135600003</v>
+        <v>251812.547356</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2047,11 +2047,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>154.98577579652905</v>
+        <v>150.51556925044829</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2084,24 +2084,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I36)</f>
-        <v>797792.1459</v>
+        <v>790587.3618999999</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K37)</f>
-        <v>233904.69346500002</v>
+        <v>226736.00946499998</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.42403474330754259</v>
+        <v>0.41103897552382446</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-0.1140466769648006</v>
+        <v>-0.13124068588013549</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-4.3355596301846662E-2</v>
+        <v>-4.8757159394300427E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2256,7 +2256,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O37)</f>
-        <v>233904.69346499999</v>
+        <v>226736.00946499998</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>22.78</v>
+        <v>21.64</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>911.2</v>
+        <v>865.6</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-7.7199999999999989</v>
+        <v>-8.86</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-308.79999999999995</v>
+        <v>-354.4</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M15" s="116">
         <f>K15/E15</f>
-        <v>-0.25311475409836059</v>
+        <v>-0.29049180327868851</v>
       </c>
       <c r="N15" s="116">
         <f>M15/L15*30</f>
-        <v>-0.12247488101533577</v>
+        <v>-0.13616803278688525</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2340,31 +2340,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>27.26</v>
+        <v>26.1</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>954.1</v>
+        <v>913.5</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-10.129999999999999</v>
+        <v>-11.29</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-354.54999999999995</v>
+        <v>-395.15</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M16" s="116">
         <f>K16/E16</f>
-        <v>-0.27092805562984751</v>
+        <v>-0.30195239368815185</v>
       </c>
       <c r="N16" s="116">
         <f>M16/L16*30</f>
-        <v>-0.13109422046605526</v>
+        <v>-0.14154018454132117</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2394,31 +2394,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>123.7</v>
+        <v>124.2</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1237</v>
+        <v>1242</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-11.299999999999997</v>
+        <v>-10.799999999999997</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-112.99999999999997</v>
+        <v>-107.99999999999997</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M17" s="116">
         <f>K17/E17</f>
-        <v>-8.3703703703703683E-2</v>
+        <v>-7.9999999999999974E-2</v>
       </c>
       <c r="N17" s="116">
         <f>M17/L17*30</f>
-        <v>-3.5873015873015869E-2</v>
+        <v>-3.3333333333333319E-2</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F19" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G19" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="L19" s="66">
         <f>F19-B19</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M19" s="116">
         <f>K19/E19</f>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="N19" s="116">
         <f>M19/L19*30</f>
-        <v>1.239189557896374E-2</v>
+        <v>1.1703456935687978E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2507,31 +2507,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.5</v>
+        <v>24.22</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>61250</v>
+        <v>60550</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>-0.21000000000000085</v>
+        <v>-0.49000000000000199</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>-525.00000000000216</v>
+        <v>-1225.000000000005</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M21" s="116">
         <f>K21/E21</f>
-        <v>-8.4985835694051347E-3</v>
+        <v>-1.9830028328611977E-2</v>
       </c>
       <c r="N21" s="116">
         <f>M21/L21*30</f>
-        <v>-4.1122178561637749E-3</v>
+        <v>-9.2953257790368646E-3</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2588,31 +2588,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.5</v>
+        <v>24.22</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>61250</v>
+        <v>60550</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>-0.41000000000000014</v>
+        <v>-0.69000000000000128</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>-1025.0000000000005</v>
+        <v>-1725.0000000000032</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>-1.6459253311922929E-2</v>
+        <v>-2.769971898835814E-2</v>
       </c>
       <c r="N23" s="116">
         <f>M23/L23*30</f>
-        <v>-7.837739672344253E-3</v>
+        <v>-1.2784485686934527E-2</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2669,31 +2669,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.5</v>
+        <v>24.22</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>61250</v>
+        <v>60550</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-0.62000000000000099</v>
+        <v>-0.90000000000000213</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-1550.0000000000025</v>
+        <v>-2250.0000000000055</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-2.4681528662420422E-2</v>
+        <v>-3.5828025477707096E-2</v>
       </c>
       <c r="N25" s="116">
         <f>M25/L25*30</f>
-        <v>-1.1218876664736555E-2</v>
+        <v>-1.5806481828400186E-2</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2750,31 +2750,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.83506999999999998</v>
+        <v>0.80597799999999997</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>62630.25</v>
+        <v>60448.35</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.22936500000000004</v>
+        <v>-0.25845700000000005</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-17202.375000000004</v>
+        <v>-19384.275000000005</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.21548051313607694</v>
+        <v>-0.24281144456918466</v>
       </c>
       <c r="N27" s="116">
         <f>M27/L27*30</f>
-        <v>-5.130488408001832E-2</v>
+        <v>-5.6908932320902654E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2805,35 +2805,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.83506999999999998</v>
+        <v>0.80597799999999997</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>41753.5</v>
+        <v>40298.9</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.16813499999999992</v>
+        <v>-0.19722699999999993</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-8406.7499999999964</v>
+        <v>-9861.3499999999967</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.16759784889429374</v>
+        <v>-0.19659690691334269</v>
       </c>
       <c r="N28" s="116">
         <f>M28/L28*30</f>
-        <v>-3.8676426667913939E-2</v>
+        <v>-4.4681115207577886E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-28650.693535000009</v>
+        <v>-34468.393535000017</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2872,50 +2872,50 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F46" si="0">$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
         <f>Sayfa4!G10</f>
-        <v>2375.65</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="I30" s="51">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
-        <v>118782.5</v>
+        <v>118421.49999999999</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ref="J30:J36" si="1">H30-D30</f>
-        <v>549.12000000000012</v>
+        <v>541.89999999999986</v>
       </c>
       <c r="K30" s="65">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>24710.400000000005</v>
+        <v>24385.499999999993</v>
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L36" si="2">F30-B30</f>
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M36" si="3">K30/E30</f>
-        <v>0.30063563149797706</v>
+        <v>0.29668278101098794</v>
       </c>
       <c r="N30" s="116">
         <f t="shared" ref="N30:N36" si="4">M30/L30*30</f>
-        <v>3.5368897823291418E-2</v>
+        <v>3.4632231246418829E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>118782.5</v>
+        <v>118421.49999999999</v>
       </c>
       <c r="Q30" s="1">
         <v>2000</v>
       </c>
       <c r="R30" s="1">
         <f>P30/Q30</f>
-        <v>59.391249999999999</v>
+        <v>59.21074999999999</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2937,50 +2937,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
       </c>
       <c r="H31" s="64">
         <f>H30</f>
-        <v>2375.65</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>26132.15</v>
+        <v>26052.73</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>1973.5500000000002</v>
+        <v>1966.33</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>21709.050000000003</v>
+        <v>21629.629999999997</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
-        <v>4.9081074359612042</v>
+        <v>4.8901517035563282</v>
       </c>
       <c r="N31" s="116">
         <f t="shared" si="4"/>
-        <v>0.1197099374624684</v>
+        <v>0.11907836940478071</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>26132.15</v>
+        <v>26052.73</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>13.066075000000001</v>
+        <v>13.026365</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3002,50 +3002,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2375.65</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>118782.5</v>
+        <v>118421.49999999999</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1906.79</v>
+        <v>1899.5699999999997</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>95339.5</v>
+        <v>94978.499999999985</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>4.0668643091754468</v>
+        <v>4.0514652561532225</v>
       </c>
       <c r="N32" s="116">
         <f t="shared" si="4"/>
-        <v>8.777404983831899E-2</v>
+        <v>8.7316061555026359E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>118782.5</v>
+        <v>118421.49999999999</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>59.391249999999999</v>
+        <v>59.21074999999999</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3075,36 +3075,36 @@
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2375.65</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>59391.25</v>
+        <v>59210.749999999993</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>1975.7800000000002</v>
+        <v>1968.56</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>49394.500000000007</v>
+        <v>49214</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>4.9410558431490239</v>
+        <v>4.922999974991872</v>
       </c>
       <c r="N33" s="116">
         <f t="shared" si="4"/>
-        <v>0.10194750708010365</v>
+        <v>0.1014354390451622</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
         <f>SUM(R30:R32)</f>
-        <v>131.84857499999998</v>
+        <v>131.44786499999998</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3134,31 +3134,31 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2375.65</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>57015.600000000006</v>
+        <v>56842.319999999992</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>2101.84</v>
+        <v>2094.62</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>50444.160000000003</v>
+        <v>50270.879999999997</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>7.6762718673532744</v>
+        <v>7.6499032175596202</v>
       </c>
       <c r="N34" s="116">
         <f t="shared" si="4"/>
-        <v>0.13781457571549866</v>
+        <v>0.13717698537166084</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3189,40 +3189,40 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2375.65</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>2375.65</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2138.06</v>
+        <v>2130.8399999999997</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>2138.06</v>
+        <v>2130.8399999999997</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>8.9989477671619174</v>
+        <v>8.9685592827980969</v>
       </c>
       <c r="N35" s="116">
         <f t="shared" si="4"/>
-        <v>0.16156100120577949</v>
+        <v>0.16082293991867477</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
         <f>SUM(P30:P34)</f>
-        <v>263697.15000000002</v>
+        <v>262895.73</v>
       </c>
       <c r="R35" s="1">
         <f>P35/2220.32</f>
-        <v>118.76538066584997</v>
+        <v>118.40443269438637</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3252,43 +3252,43 @@
       </c>
       <c r="H36" s="64">
         <f>Sayfa4!C5</f>
-        <v>31.954699999999999</v>
+        <v>31.752300000000002</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>35469.716999999997</v>
+        <v>35245.053</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>16.954699999999999</v>
+        <v>16.752300000000002</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>18819.717000000001</v>
+        <v>18595.053000000004</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>1.1303133333333333</v>
+        <v>1.1168200000000001</v>
       </c>
       <c r="N36" s="116">
         <f t="shared" si="4"/>
-        <v>4.8441999999999999E-2</v>
+        <v>4.7727350427350435E-2</v>
       </c>
       <c r="O36" s="70">
         <f>SUM(K30:K36)</f>
-        <v>262555.38699999999</v>
+        <v>261204.40299999999</v>
       </c>
       <c r="P36" s="6">
         <f>SUM(P35:P35)</f>
-        <v>263697.15000000002</v>
+        <v>262895.73</v>
       </c>
       <c r="R36" s="1">
         <f>P36/2000</f>
-        <v>131.84857500000001</v>
+        <v>131.44786499999998</v>
       </c>
       <c r="T36" s="1" t="e">
         <f>P35/#REF!</f>
@@ -3334,7 +3334,7 @@
       <c r="N39" s="116"/>
       <c r="R39" s="1">
         <f>R36*2220.32</f>
-        <v>292746.02804400004</v>
+        <v>291856.32361679996</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="F44" s="62">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G44" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="L44" s="66">
         <f t="shared" ref="L44" si="6">F44-B44</f>
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="M44" s="67">
         <f t="shared" ref="M44" si="7">K44/E44</f>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="N44" s="116">
         <f t="shared" ref="N44" si="8">M44/L44*30</f>
-        <v>3.7804275368511803E-2</v>
+        <v>3.7695014457042118E-2</v>
       </c>
       <c r="O44" s="70"/>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="F45" s="62">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G45" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="L45" s="66">
         <f>F45-B45</f>
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="M45" s="67">
         <f>K45/E45</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="N45" s="116">
         <f>M45/L45*30</f>
-        <v>3.8974511654522287E-2</v>
+        <v>3.8861868557254889E-2</v>
       </c>
       <c r="O45" s="70"/>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="F46" s="62">
         <f t="shared" si="0"/>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G46" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="L46" s="66">
         <f>F46-B46</f>
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="M46" s="67">
         <f>K46/E46</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F73" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G73" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="L73" s="66">
         <f>F73-B73</f>
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M73" s="116">
         <f>K73/E73</f>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="N73" s="116">
         <f>M73/L73*30</f>
-        <v>1.239189557896374E-2</v>
+        <v>1.1703456935687978E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="F74" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G74" s="63">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="L74" s="66">
         <f>F74-B74</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M74" s="116">
         <f>K74/E74</f>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="N74" s="116">
         <f>M74/L74*30</f>
-        <v>2.6027784351640243E-2</v>
+        <v>2.5214416090651486E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="F75" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G75" s="63">
         <v>12</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="L75" s="66">
         <f>F75-B75</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M75" s="116">
         <f>K75/E75</f>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="N75" s="116">
         <f>M75/L75*30</f>
-        <v>2.3900338449468189E-2</v>
+        <v>2.3153452872922309E-2</v>
       </c>
       <c r="O75" s="102"/>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="F76" s="62">
         <f>$B$2</f>
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="G76" s="63">
         <v>15</v>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="L76" s="66">
         <f>F76-B76</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M76" s="116">
         <f>K76/E76</f>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="N76" s="116">
         <f>M76/L76*30</f>
-        <v>2.3900338449468189E-2</v>
+        <v>2.3153452872922309E-2</v>
       </c>
       <c r="O76" s="102"/>
     </row>
@@ -5930,12 +5930,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM79"/>
+  <dimension ref="A4:AM81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5987,51 +5987,51 @@
     <row r="5" spans="1:39">
       <c r="A5" s="117">
         <f>A10</f>
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="C5">
         <f>C10</f>
-        <v>31.954699999999999</v>
+        <v>31.752300000000002</v>
       </c>
       <c r="E5">
         <f>E10</f>
-        <v>34.421599999999998</v>
+        <v>34.092399999999998</v>
       </c>
       <c r="G5">
         <f>G10</f>
-        <v>2375.65</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="I5">
         <f>I10</f>
-        <v>24.5</v>
+        <v>24.22</v>
       </c>
       <c r="K5">
         <f>K10</f>
-        <v>677.53942199999995</v>
+        <v>679.37461900000005</v>
       </c>
       <c r="M5">
         <f>M10</f>
-        <v>0.83506999999999998</v>
+        <v>0.80597799999999997</v>
       </c>
       <c r="O5" s="115">
         <f>Sayfa2!D3</f>
-        <v>154.98577579652905</v>
+        <v>150.51556925044829</v>
       </c>
       <c r="P5" s="118">
         <f>Sayfa2!K2</f>
-        <v>258981.23135600003</v>
+        <v>251812.547356</v>
       </c>
       <c r="Y5" s="115">
         <f>Y10</f>
-        <v>27.26</v>
+        <v>26.1</v>
       </c>
       <c r="AA5" s="115">
         <f>AA10</f>
-        <v>22.78</v>
+        <v>21.64</v>
       </c>
       <c r="AC5" s="115">
         <f>AC10</f>
-        <v>123.7</v>
+        <v>124.2</v>
       </c>
       <c r="AE5">
         <f>AE10</f>
@@ -6050,7 +6050,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM54</f>
+        <f>AM56</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -6139,2647 +6139,2681 @@
     </row>
     <row r="10" spans="1:39">
       <c r="A10" s="117">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B10">
-        <f>B66</f>
+        <f>B68</f>
         <v>1110</v>
       </c>
       <c r="C10">
-        <v>31.954699999999999</v>
+        <v>31.752300000000002</v>
       </c>
       <c r="D10">
-        <f>D66</f>
+        <f>D68</f>
         <v>321.99</v>
       </c>
       <c r="E10">
-        <v>34.421599999999998</v>
+        <v>34.092399999999998</v>
       </c>
       <c r="F10" s="112">
         <v>156</v>
       </c>
       <c r="G10">
-        <v>2375.65</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="H10" s="199">
         <v>7500</v>
       </c>
       <c r="I10" s="199">
-        <v>24.5</v>
+        <v>24.22</v>
       </c>
       <c r="J10">
         <v>210</v>
       </c>
       <c r="K10" s="137">
-        <v>677.53942199999995</v>
+        <v>679.37461900000005</v>
       </c>
       <c r="L10">
-        <f>L66</f>
+        <f>L68</f>
         <v>125000</v>
       </c>
       <c r="M10">
-        <v>0.83506999999999998</v>
+        <v>0.80597799999999997</v>
       </c>
       <c r="N10" s="113">
-        <f t="shared" ref="N10:N27" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>847571.55660400004</v>
+        <f t="shared" ref="N10:N29" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
+        <v>840763.46486599999</v>
       </c>
       <c r="O10">
-        <v>154.99</v>
+        <v>150.52000000000001</v>
       </c>
       <c r="P10">
-        <v>258981.23</v>
+        <v>251812.55</v>
       </c>
       <c r="Q10" s="115">
-        <v>10647.91</v>
+        <v>10446.24</v>
       </c>
       <c r="R10" s="127">
-        <f>(1-(Q13/Q10))</f>
-        <v>1.658447526322071E-2</v>
+        <f>(1-(Q15/Q10))</f>
+        <v>-2.4008638514909642E-3</v>
       </c>
       <c r="S10" s="116">
-        <f>(N10/$N$60)-1</f>
-        <v>0.59785043448710962</v>
+        <f t="shared" ref="S10:S17" si="1">(N10/$N$62)-1</f>
+        <v>0.58501575137766459</v>
       </c>
       <c r="T10" s="114">
-        <f>(A10-$A$60)</f>
-        <v>112</v>
+        <f t="shared" ref="T10:T17" si="2">(A10-$A$62)</f>
+        <v>113</v>
       </c>
       <c r="U10" s="116">
-        <f>((N10/$N$60)-1)/T10*30</f>
-        <v>0.16013850923761863</v>
+        <f>((N10/$N$62)-1)/T10*30</f>
+        <v>0.15531391629495522</v>
       </c>
       <c r="V10" s="116"/>
       <c r="W10" s="116"/>
       <c r="X10" s="134"/>
       <c r="Y10" s="134">
-        <v>27.26</v>
+        <v>26.1</v>
       </c>
       <c r="Z10" s="134"/>
       <c r="AA10" s="134">
-        <v>22.78</v>
+        <v>21.64</v>
       </c>
       <c r="AB10">
         <v>10</v>
       </c>
       <c r="AC10" s="115">
-        <v>123.7</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="117">
-        <v>45471</v>
+        <v>45475</v>
       </c>
       <c r="B11">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C11">
-        <v>31.954699999999999</v>
+        <v>31.752300000000002</v>
       </c>
       <c r="D11">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E11">
-        <v>34.421599999999998</v>
+        <v>34.092399999999998</v>
       </c>
       <c r="F11" s="112">
         <v>156</v>
       </c>
       <c r="G11">
-        <v>2375.65</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="H11" s="199">
         <v>7500</v>
       </c>
       <c r="I11" s="199">
-        <v>24.5</v>
+        <v>24.22</v>
       </c>
       <c r="J11">
         <v>210</v>
       </c>
       <c r="K11" s="137">
-        <v>677.53942199999995</v>
+        <v>679.37461900000005</v>
       </c>
       <c r="L11">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M11">
-        <v>0.83506999999999998</v>
+        <v>0.80597799999999997</v>
       </c>
       <c r="N11" s="113">
-        <f t="shared" ref="N11" si="1">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
-        <v>847571.55660400004</v>
+        <f t="shared" ref="N11" si="3">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
+        <v>840763.46486599999</v>
       </c>
       <c r="O11">
-        <v>154.99</v>
+        <v>150.52000000000001</v>
       </c>
       <c r="P11">
-        <v>258981.23</v>
+        <v>251812.55</v>
       </c>
       <c r="Q11" s="115">
-        <v>10647.91</v>
+        <v>10446.24</v>
       </c>
       <c r="R11" s="127">
-        <f>(1-(Q14/Q11))</f>
-        <v>2.4044155144061219E-2</v>
+        <f>(1-(Q16/Q11))</f>
+        <v>5.2028289604680866E-3</v>
       </c>
       <c r="S11" s="116">
-        <f>(N11/$N$60)-1</f>
-        <v>0.59785043448710962</v>
+        <f t="shared" ref="S11" si="4">(N11/$N$62)-1</f>
+        <v>0.58501575137766459</v>
       </c>
       <c r="T11" s="114">
-        <f>(A11-$A$60)</f>
-        <v>109</v>
+        <f t="shared" ref="T11" si="5">(A11-$A$62)</f>
+        <v>113</v>
       </c>
       <c r="U11" s="116">
-        <f>((N11/$N$60)-1)/T11*30</f>
-        <v>0.1645459911432412</v>
+        <f>((N11/$N$62)-1)/T11*30</f>
+        <v>0.15531391629495522</v>
       </c>
       <c r="V11" s="116"/>
       <c r="W11" s="116"/>
       <c r="X11" s="134"/>
       <c r="Y11" s="134">
-        <v>27.26</v>
+        <v>26.1</v>
       </c>
       <c r="Z11" s="134"/>
       <c r="AA11" s="134">
-        <v>22.78</v>
+        <v>21.64</v>
       </c>
       <c r="AB11">
         <v>10</v>
       </c>
       <c r="AC11" s="115">
-        <v>123.7</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="117">
-        <v>45463</v>
+        <v>45474</v>
       </c>
       <c r="B12">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>32.073999999999998</v>
+        <v>31.954699999999999</v>
       </c>
       <c r="D12">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>34.383299999999998</v>
+        <v>34.421599999999998</v>
       </c>
       <c r="F12" s="112">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2381.35</v>
+        <v>2375.65</v>
       </c>
       <c r="H12" s="199">
         <v>7500</v>
       </c>
       <c r="I12" s="199">
-        <v>24.38</v>
+        <v>24.5</v>
       </c>
       <c r="J12">
         <v>210</v>
       </c>
       <c r="K12" s="137">
-        <v>667.64119100000005</v>
+        <v>677.53942199999995</v>
       </c>
       <c r="L12">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.82515799999999995</v>
+        <v>0.83506999999999998</v>
       </c>
       <c r="N12" s="113">
-        <f t="shared" ref="N12" si="2">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
-        <v>844363.21887700004</v>
+        <f t="shared" ref="N12" si="6">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
+        <v>847571.55660400004</v>
       </c>
       <c r="O12">
-        <v>155.46</v>
+        <v>154.99</v>
       </c>
       <c r="P12">
-        <v>258068.35</v>
+        <v>258981.23</v>
       </c>
       <c r="Q12" s="115">
-        <v>10739.94</v>
+        <v>10343.31</v>
       </c>
       <c r="R12" s="127">
-        <f>(1-(Q14/Q12))</f>
-        <v>3.240707117544428E-2</v>
+        <f>(1-(Q16/Q12))</f>
+        <v>-4.6967556807249178E-3</v>
       </c>
       <c r="S12" s="116">
-        <f>(N12/$N$60)-1</f>
-        <v>0.59180204389268165</v>
+        <f t="shared" ref="S12" si="7">(N12/$N$62)-1</f>
+        <v>0.59785043448710962</v>
       </c>
       <c r="T12" s="114">
-        <f>(A12-$A$60)</f>
-        <v>101</v>
+        <f t="shared" ref="T12" si="8">(A12-$A$62)</f>
+        <v>112</v>
       </c>
       <c r="U12" s="116">
-        <f>((N12/$N$60)-1)/T12*30</f>
-        <v>0.17578278531465791</v>
+        <f>((N12/$N$62)-1)/T12*30</f>
+        <v>0.16013850923761863</v>
       </c>
       <c r="V12" s="116"/>
       <c r="W12" s="116"/>
       <c r="X12" s="134"/>
       <c r="Y12" s="134">
-        <v>28.88</v>
+        <v>27.26</v>
       </c>
       <c r="Z12" s="134"/>
       <c r="AA12" s="134">
-        <v>24.5</v>
+        <v>22.78</v>
       </c>
       <c r="AB12">
         <v>10</v>
       </c>
       <c r="AC12" s="115">
-        <v>131.6</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="117">
-        <v>45457</v>
+        <v>45471</v>
       </c>
       <c r="B13">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C13">
-        <v>31.614799999999999</v>
+        <v>31.954699999999999</v>
       </c>
       <c r="D13">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E13">
-        <v>33.916400000000003</v>
+        <v>34.421599999999998</v>
       </c>
       <c r="F13" s="112">
         <v>156</v>
       </c>
       <c r="G13">
-        <v>2329.98</v>
+        <v>2375.65</v>
       </c>
       <c r="H13" s="199">
         <v>7500</v>
       </c>
       <c r="I13" s="199">
-        <v>23.62</v>
+        <v>24.5</v>
       </c>
       <c r="J13">
         <v>210</v>
       </c>
       <c r="K13" s="137">
-        <v>662.49433199999999</v>
+        <v>677.53942199999995</v>
       </c>
       <c r="L13">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M13">
-        <v>0.81506400000000001</v>
+        <v>0.83506999999999998</v>
       </c>
       <c r="N13" s="113">
-        <f t="shared" ref="N13" si="3">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
-        <v>827646.85935600009</v>
+        <f t="shared" ref="N13" si="9">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
+        <v>847571.55660400004</v>
       </c>
       <c r="O13">
-        <v>146.61000000000001</v>
+        <v>154.99</v>
       </c>
       <c r="P13">
-        <v>242499.97</v>
+        <v>258981.23</v>
       </c>
       <c r="Q13" s="115">
-        <v>10471.32</v>
+        <v>10647.91</v>
       </c>
       <c r="R13" s="127">
-        <f t="shared" ref="R13" si="4">(1-(Q14/Q13))</f>
-        <v>7.5854811045790171E-3</v>
+        <f>(1-(Q16/Q13))</f>
+        <v>2.4044155144061219E-2</v>
       </c>
       <c r="S13" s="116">
-        <f>(N13/$N$60)-1</f>
-        <v>0.56028819457157697</v>
+        <f t="shared" si="1"/>
+        <v>0.59785043448710962</v>
       </c>
       <c r="T13" s="114">
-        <f>(A13-$A$60)</f>
-        <v>95</v>
+        <f t="shared" si="2"/>
+        <v>109</v>
       </c>
       <c r="U13" s="116">
-        <f>((N13/$N$60)-1)/T13*30</f>
-        <v>0.17693311407523482</v>
+        <f>((N13/$N$62)-1)/T13*30</f>
+        <v>0.1645459911432412</v>
       </c>
       <c r="V13" s="116"/>
       <c r="W13" s="116"/>
       <c r="X13" s="134"/>
       <c r="Y13" s="134">
-        <v>27.96</v>
+        <v>27.26</v>
       </c>
       <c r="Z13" s="134"/>
       <c r="AA13" s="134">
-        <v>23.6</v>
+        <v>22.78</v>
       </c>
       <c r="AB13">
         <v>10</v>
       </c>
       <c r="AC13" s="115">
-        <v>130.1</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="117">
-        <v>45456</v>
+        <v>45463</v>
       </c>
       <c r="B14">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C14">
-        <v>31.614799999999999</v>
+        <v>32.073999999999998</v>
       </c>
       <c r="D14">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E14">
-        <v>33.916400000000003</v>
+        <v>34.383299999999998</v>
       </c>
       <c r="F14" s="112">
         <v>156</v>
       </c>
       <c r="G14">
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="H14" s="199">
         <v>7500</v>
       </c>
       <c r="I14" s="199">
-        <v>23.62</v>
+        <v>24.38</v>
       </c>
       <c r="J14">
         <v>210</v>
       </c>
       <c r="K14" s="137">
-        <v>662.49433199999999</v>
+        <v>667.64119100000005</v>
       </c>
       <c r="L14">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M14">
-        <v>0.81506400000000001</v>
+        <v>0.82515799999999995</v>
       </c>
       <c r="N14" s="113">
-        <f t="shared" ref="N14" si="5">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
-        <v>827646.85935600009</v>
+        <f t="shared" ref="N14" si="10">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
+        <v>844363.21887700004</v>
       </c>
       <c r="O14">
-        <v>146.61000000000001</v>
+        <v>155.46</v>
       </c>
       <c r="P14">
-        <v>242499.97</v>
+        <v>258068.35</v>
       </c>
       <c r="Q14" s="115">
-        <v>10391.89</v>
+        <v>10739.94</v>
       </c>
       <c r="R14" s="127">
-        <f t="shared" ref="R14:R30" si="6">(1-(Q15/Q14))</f>
-        <v>3.2767860321846976E-2</v>
+        <f>(1-(Q16/Q14))</f>
+        <v>3.240707117544428E-2</v>
       </c>
       <c r="S14" s="116">
-        <f>(N14/$N$60)-1</f>
-        <v>0.56028819457157697</v>
+        <f t="shared" si="1"/>
+        <v>0.59180204389268165</v>
       </c>
       <c r="T14" s="114">
-        <f>(A14-$A$60)</f>
-        <v>94</v>
+        <f t="shared" si="2"/>
+        <v>101</v>
       </c>
       <c r="U14" s="116">
-        <f>((N14/$N$60)-1)/T14*30</f>
-        <v>0.17881538124624796</v>
+        <f>((N14/$N$62)-1)/T14*30</f>
+        <v>0.17578278531465791</v>
       </c>
       <c r="V14" s="116"/>
       <c r="W14" s="116"/>
       <c r="X14" s="134"/>
       <c r="Y14" s="134">
-        <v>27.96</v>
+        <v>28.88</v>
       </c>
       <c r="Z14" s="134"/>
       <c r="AA14" s="134">
-        <v>23.6</v>
+        <v>24.5</v>
       </c>
       <c r="AB14">
         <v>10</v>
       </c>
       <c r="AC14" s="115">
-        <v>130.1</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="117">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B15">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.553599999999999</v>
+        <v>31.614799999999999</v>
       </c>
       <c r="D15">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>33.882300000000001</v>
+        <v>33.916400000000003</v>
       </c>
       <c r="F15" s="112">
         <v>156</v>
       </c>
       <c r="G15">
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="H15" s="199">
         <v>7500</v>
       </c>
       <c r="I15" s="199">
-        <v>23.4</v>
+        <v>23.62</v>
       </c>
       <c r="J15">
         <v>210</v>
       </c>
       <c r="K15" s="137">
-        <v>659.86404900000002</v>
+        <v>662.49433199999999</v>
       </c>
       <c r="L15">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M15">
-        <v>0.80056899999999998</v>
+        <v>0.81506400000000001</v>
       </c>
       <c r="N15" s="113">
-        <f t="shared" ref="N15" si="7">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
-        <v>821269.87306699995</v>
+        <f t="shared" ref="N15" si="11">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
+        <v>827646.85935600009</v>
       </c>
       <c r="O15">
-        <v>143.22999999999999</v>
+        <v>146.61000000000001</v>
       </c>
       <c r="P15">
-        <v>236473.13</v>
+        <v>242499.97</v>
       </c>
       <c r="Q15" s="115">
-        <v>10051.370000000001</v>
+        <v>10471.32</v>
       </c>
       <c r="R15" s="127">
-        <f t="shared" si="6"/>
-        <v>-1.3476769833365987E-2</v>
+        <f t="shared" ref="R15" si="12">(1-(Q16/Q15))</f>
+        <v>7.5854811045790171E-3</v>
       </c>
       <c r="S15" s="116">
-        <f>(N15/$N$60)-1</f>
-        <v>0.54826623579629241</v>
+        <f t="shared" si="1"/>
+        <v>0.56028819457157697</v>
       </c>
       <c r="T15" s="114">
-        <f>(A15-$A$60)</f>
-        <v>92</v>
+        <f t="shared" si="2"/>
+        <v>95</v>
       </c>
       <c r="U15" s="116">
-        <f>((N15/$N$60)-1)/T15*30</f>
-        <v>0.17878246819444316</v>
+        <f>((N15/$N$62)-1)/T15*30</f>
+        <v>0.17693311407523482</v>
       </c>
       <c r="V15" s="116"/>
       <c r="W15" s="116"/>
       <c r="X15" s="134"/>
       <c r="Y15" s="134">
-        <v>26.48</v>
+        <v>27.96</v>
       </c>
       <c r="Z15" s="134"/>
       <c r="AA15" s="134">
-        <v>22.34</v>
+        <v>23.6</v>
       </c>
       <c r="AB15">
         <v>10</v>
       </c>
       <c r="AC15" s="115">
-        <v>119</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="117">
-        <v>45450</v>
+        <v>45456</v>
       </c>
       <c r="B16">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C16">
-        <v>31.457999999999998</v>
+        <v>31.614799999999999</v>
       </c>
       <c r="D16">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E16">
-        <v>34.078499999999998</v>
+        <v>33.916400000000003</v>
       </c>
       <c r="F16" s="112">
         <v>156</v>
       </c>
       <c r="G16">
-        <v>2320.73</v>
+        <v>2329.98</v>
       </c>
       <c r="H16" s="199">
         <v>7500</v>
       </c>
       <c r="I16" s="199">
-        <v>23.77</v>
+        <v>23.62</v>
       </c>
       <c r="J16">
         <v>210</v>
       </c>
       <c r="K16" s="137">
-        <v>656.34613999999999</v>
+        <v>662.49433199999999</v>
       </c>
       <c r="L16">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M16">
-        <v>0.831233</v>
+        <v>0.81506400000000001</v>
       </c>
       <c r="N16" s="113">
-        <f t="shared" ref="N16" si="8">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
-        <v>827937.01061500004</v>
+        <f t="shared" ref="N16" si="13">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
+        <v>827646.85935600009</v>
       </c>
       <c r="O16">
-        <v>148.11000000000001</v>
+        <v>146.61000000000001</v>
       </c>
       <c r="P16">
-        <v>243928.95</v>
+        <v>242499.97</v>
       </c>
       <c r="Q16" s="115">
-        <v>10186.83</v>
+        <v>10391.89</v>
       </c>
       <c r="R16" s="127">
-        <f t="shared" si="6"/>
-        <v>-9.1156915350507628E-3</v>
+        <f t="shared" ref="R16:R32" si="14">(1-(Q17/Q16))</f>
+        <v>3.2767860321846976E-2</v>
       </c>
       <c r="S16" s="116">
-        <f t="shared" ref="S16" si="9">(N16/$N$60)-1</f>
-        <v>0.56083519064718579</v>
+        <f t="shared" si="1"/>
+        <v>0.56028819457157697</v>
       </c>
       <c r="T16" s="114">
-        <f t="shared" ref="T16" si="10">(A16-$A$60)</f>
-        <v>88</v>
+        <f t="shared" si="2"/>
+        <v>94</v>
       </c>
       <c r="U16" s="116">
-        <f>((N16/$N$60)-1)/T16*30</f>
-        <v>0.1911938149933588</v>
+        <f>((N16/$N$62)-1)/T16*30</f>
+        <v>0.17881538124624796</v>
       </c>
       <c r="V16" s="116"/>
       <c r="W16" s="116"/>
       <c r="X16" s="134"/>
       <c r="Y16" s="134">
-        <v>27.46</v>
+        <v>27.96</v>
       </c>
       <c r="Z16" s="134"/>
       <c r="AA16" s="134">
-        <v>23.46</v>
+        <v>23.6</v>
       </c>
       <c r="AB16">
         <v>10</v>
       </c>
       <c r="AC16" s="115">
-        <v>122.4</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="117">
-        <v>45449</v>
+        <v>45454</v>
       </c>
       <c r="B17">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C17">
-        <v>31.457999999999998</v>
+        <v>31.553599999999999</v>
       </c>
       <c r="D17">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E17">
-        <v>34.078499999999998</v>
+        <v>33.882300000000001</v>
       </c>
       <c r="F17" s="112">
         <v>156</v>
       </c>
       <c r="G17">
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="H17" s="199">
         <v>7500</v>
       </c>
       <c r="I17" s="199">
-        <v>23.77</v>
+        <v>23.4</v>
       </c>
       <c r="J17">
         <v>210</v>
       </c>
       <c r="K17" s="137">
-        <v>656.34613999999999</v>
+        <v>659.86404900000002</v>
       </c>
       <c r="L17">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M17">
-        <v>0.831233</v>
+        <v>0.80056899999999998</v>
       </c>
       <c r="N17" s="113">
-        <f t="shared" ref="N17" si="11">(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)+(J17*K17)</f>
-        <v>827937.01061500004</v>
+        <f t="shared" ref="N17" si="15">(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)+(J17*K17)</f>
+        <v>821269.87306699995</v>
       </c>
       <c r="O17">
-        <v>148.11000000000001</v>
+        <v>143.22999999999999</v>
       </c>
       <c r="P17">
-        <v>243928.95</v>
+        <v>236473.13</v>
       </c>
       <c r="Q17" s="115">
-        <v>10279.69</v>
+        <v>10051.370000000001</v>
       </c>
       <c r="R17" s="127">
-        <f t="shared" si="6"/>
-        <v>-6.9330884491651812E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.3476769833365987E-2</v>
       </c>
       <c r="S17" s="116">
-        <f t="shared" ref="S17:S22" si="12">(N17/$N$60)-1</f>
-        <v>0.56083519064718579</v>
+        <f t="shared" si="1"/>
+        <v>0.54826623579629241</v>
       </c>
       <c r="T17" s="114">
-        <f t="shared" ref="T17:T22" si="13">(A17-$A$60)</f>
-        <v>87</v>
+        <f t="shared" si="2"/>
+        <v>92</v>
       </c>
       <c r="U17" s="116">
-        <f>((N17/$N$60)-1)/T17*30</f>
-        <v>0.19339144505075373</v>
+        <f>((N17/$N$62)-1)/T17*30</f>
+        <v>0.17878246819444316</v>
       </c>
       <c r="V17" s="116"/>
       <c r="W17" s="116"/>
       <c r="X17" s="134"/>
       <c r="Y17" s="134">
-        <v>27.46</v>
+        <v>26.48</v>
       </c>
       <c r="Z17" s="134"/>
       <c r="AA17" s="134">
-        <v>23.46</v>
+        <v>22.34</v>
       </c>
       <c r="AB17">
         <v>10</v>
       </c>
       <c r="AC17" s="115">
-        <v>122.4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="117">
-        <v>45448</v>
+        <v>45450</v>
       </c>
       <c r="B18">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>31.783300000000001</v>
+        <v>31.457999999999998</v>
       </c>
       <c r="D18">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>34.557899999999997</v>
+        <v>34.078499999999998</v>
       </c>
       <c r="F18" s="112">
         <v>156</v>
       </c>
       <c r="G18">
-        <v>2330.9299999999998</v>
+        <v>2320.73</v>
       </c>
       <c r="H18" s="199">
         <v>7500</v>
       </c>
       <c r="I18" s="199">
-        <v>24.06</v>
+        <v>23.77</v>
       </c>
       <c r="J18">
         <v>210</v>
       </c>
       <c r="K18" s="137">
-        <v>654.52437399999997</v>
+        <v>656.34613999999999</v>
       </c>
       <c r="L18">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M18">
-        <v>0.79747299999999999</v>
+        <v>0.831233</v>
       </c>
       <c r="N18" s="113">
-        <f t="shared" ref="N18" si="14">(F18*G18)+(B18*C18)+(D18*E18)+(L18*M18)+(H18*I18)+(J18*K18)</f>
-        <v>827616.08476100001</v>
+        <f t="shared" ref="N18" si="16">(F18*G18)+(B18*C18)+(D18*E18)+(L18*M18)+(H18*I18)+(J18*K18)</f>
+        <v>827937.01061500004</v>
       </c>
       <c r="O18">
-        <v>148.06</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="P18">
-        <v>243565.65</v>
+        <v>243928.95</v>
       </c>
       <c r="Q18" s="115">
-        <v>10350.959999999999</v>
+        <v>10186.83</v>
       </c>
       <c r="R18" s="127">
-        <f t="shared" si="6"/>
-        <v>-1.3138877939824489E-3</v>
+        <f t="shared" si="14"/>
+        <v>-9.1156915350507628E-3</v>
       </c>
       <c r="S18" s="116">
-        <f t="shared" si="12"/>
-        <v>0.56023017799514885</v>
+        <f t="shared" ref="S18" si="17">(N18/$N$62)-1</f>
+        <v>0.56083519064718579</v>
       </c>
       <c r="T18" s="114">
-        <f t="shared" si="13"/>
-        <v>86</v>
+        <f t="shared" ref="T18" si="18">(A18-$A$62)</f>
+        <v>88</v>
       </c>
       <c r="U18" s="116">
-        <f>((N18/$N$60)-1)/T18*30</f>
-        <v>0.19542913185877286</v>
+        <f>((N18/$N$62)-1)/T18*30</f>
+        <v>0.1911938149933588</v>
       </c>
       <c r="V18" s="116"/>
       <c r="W18" s="116"/>
       <c r="X18" s="134"/>
       <c r="Y18" s="134">
-        <v>29.06</v>
+        <v>27.46</v>
       </c>
       <c r="Z18" s="134"/>
       <c r="AA18" s="134">
-        <v>24.48</v>
+        <v>23.46</v>
       </c>
       <c r="AB18">
         <v>10</v>
       </c>
       <c r="AC18" s="115">
-        <v>119</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="117">
-        <v>45447</v>
+        <v>45449</v>
       </c>
       <c r="B19">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C19">
-        <v>31.6645</v>
+        <v>31.457999999999998</v>
       </c>
       <c r="D19">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E19">
-        <v>34.409799999999997</v>
+        <v>34.078499999999998</v>
       </c>
       <c r="F19" s="112">
         <v>156</v>
       </c>
       <c r="G19">
-        <v>2319.39</v>
+        <v>2320.73</v>
       </c>
       <c r="H19" s="199">
         <v>7500</v>
       </c>
       <c r="I19" s="199">
-        <v>23.89</v>
+        <v>23.77</v>
       </c>
       <c r="J19">
         <v>210</v>
       </c>
       <c r="K19" s="137">
-        <v>653.60767299999998</v>
+        <v>656.34613999999999</v>
       </c>
       <c r="L19">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M19">
-        <v>0.79912700000000003</v>
+        <v>0.831233</v>
       </c>
       <c r="N19" s="113">
-        <f t="shared" ref="N19" si="15">(F19*G19)+(B19*C19)+(D19*E19)+(L19*M19)+(H19*I19)+(J19*K19)</f>
-        <v>824375.53283199994</v>
+        <f t="shared" ref="N19" si="19">(F19*G19)+(B19*C19)+(D19*E19)+(L19*M19)+(H19*I19)+(J19*K19)</f>
+        <v>827937.01061500004</v>
       </c>
       <c r="O19">
-        <v>146.71</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="P19">
-        <v>241190.1</v>
+        <v>243928.95</v>
       </c>
       <c r="Q19" s="115">
-        <v>10364.56</v>
+        <v>10279.69</v>
       </c>
       <c r="R19" s="127">
-        <f t="shared" si="6"/>
-        <v>-3.4656560432859695E-3</v>
+        <f t="shared" si="14"/>
+        <v>-6.9330884491651812E-3</v>
       </c>
       <c r="S19" s="116">
-        <f t="shared" si="12"/>
-        <v>0.55412105686267799</v>
+        <f t="shared" ref="S19:S24" si="20">(N19/$N$62)-1</f>
+        <v>0.56083519064718579</v>
       </c>
       <c r="T19" s="114">
-        <f t="shared" si="13"/>
-        <v>85</v>
+        <f t="shared" ref="T19:T24" si="21">(A19-$A$62)</f>
+        <v>87</v>
       </c>
       <c r="U19" s="116">
-        <f>((N19/$N$60)-1)/T19*30</f>
-        <v>0.1955721377162393</v>
+        <f>((N19/$N$62)-1)/T19*30</f>
+        <v>0.19339144505075373</v>
       </c>
       <c r="V19" s="116"/>
       <c r="W19" s="116"/>
       <c r="X19" s="134"/>
       <c r="Y19" s="134">
-        <v>30.58</v>
+        <v>27.46</v>
       </c>
       <c r="Z19" s="134"/>
       <c r="AA19" s="134">
-        <v>26.14</v>
+        <v>23.46</v>
       </c>
       <c r="AB19">
         <v>10</v>
       </c>
       <c r="AC19" s="115">
-        <v>114.6</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="117">
-        <v>45443</v>
+        <v>45448</v>
       </c>
       <c r="B20">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.576599999999999</v>
+        <v>31.783300000000001</v>
       </c>
       <c r="D20">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>34.157400000000003</v>
+        <v>34.557899999999997</v>
       </c>
       <c r="F20" s="112">
         <v>156</v>
       </c>
       <c r="G20">
-        <v>2324.5500000000002</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="H20" s="199">
         <v>7500</v>
       </c>
       <c r="I20" s="199">
-        <v>24.04</v>
+        <v>24.06</v>
       </c>
       <c r="J20">
         <v>210</v>
       </c>
       <c r="K20" s="137">
-        <v>649.96368099999995</v>
+        <v>654.52437399999997</v>
       </c>
       <c r="L20">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M20">
-        <v>0.80517899999999998</v>
+        <v>0.79747299999999999</v>
       </c>
       <c r="N20" s="113">
-        <f t="shared" ref="N20" si="16">(F20*G20)+(B20*C20)+(D20*E20)+(L20*M20)+(H20*I20)+(J20*K20)</f>
-        <v>826117.91523599997</v>
+        <f t="shared" ref="N20" si="22">(F20*G20)+(B20*C20)+(D20*E20)+(L20*M20)+(H20*I20)+(J20*K20)</f>
+        <v>827616.08476100001</v>
       </c>
       <c r="O20">
-        <v>147.47</v>
+        <v>148.06</v>
       </c>
       <c r="P20">
-        <v>241854.59</v>
+        <v>243565.65</v>
       </c>
       <c r="Q20" s="115">
-        <v>10400.48</v>
+        <v>10350.959999999999</v>
       </c>
       <c r="R20" s="127">
-        <f t="shared" si="6"/>
-        <v>-7.7707951940679809E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.3138877939824489E-3</v>
       </c>
       <c r="S20" s="116">
-        <f t="shared" si="12"/>
-        <v>0.55740581371840481</v>
+        <f t="shared" si="20"/>
+        <v>0.56023017799514885</v>
       </c>
       <c r="T20" s="114">
-        <f t="shared" si="13"/>
-        <v>81</v>
+        <f t="shared" si="21"/>
+        <v>86</v>
       </c>
       <c r="U20" s="116">
-        <f>((N20/$N$60)-1)/T20*30</f>
-        <v>0.20644659767348328</v>
+        <f>((N20/$N$62)-1)/T20*30</f>
+        <v>0.19542913185877286</v>
       </c>
       <c r="V20" s="116"/>
       <c r="W20" s="116"/>
       <c r="X20" s="134"/>
       <c r="Y20" s="134">
-        <v>27.94</v>
+        <v>29.06</v>
       </c>
       <c r="Z20" s="134"/>
       <c r="AA20" s="134">
-        <v>24.08</v>
+        <v>24.48</v>
       </c>
       <c r="AB20">
         <v>10</v>
       </c>
       <c r="AC20" s="115">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="117">
-        <v>45442</v>
+        <v>45447</v>
       </c>
       <c r="B21">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.554500000000001</v>
+        <v>31.6645</v>
       </c>
       <c r="D21">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.104100000000003</v>
+        <v>34.409799999999997</v>
       </c>
       <c r="F21" s="112">
         <v>156</v>
       </c>
       <c r="G21">
-        <v>2317.36</v>
+        <v>2319.39</v>
       </c>
       <c r="H21" s="199">
         <v>7500</v>
       </c>
       <c r="I21" s="199">
-        <v>24</v>
+        <v>23.89</v>
       </c>
       <c r="J21">
         <v>210</v>
       </c>
       <c r="K21" s="137">
-        <v>649.05997200000002</v>
+        <v>653.60767299999998</v>
       </c>
       <c r="L21">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M21">
-        <v>0.78746400000000005</v>
+        <v>0.79912700000000003</v>
       </c>
       <c r="N21" s="113">
-        <f t="shared" ref="N21" si="17">(F21*G21)+(B21*C21)+(D21*E21)+(L21*M21)+(H21*I21)+(J21*K21)</f>
-        <v>822250.4282790001</v>
+        <f t="shared" ref="N21" si="23">(F21*G21)+(B21*C21)+(D21*E21)+(L21*M21)+(H21*I21)+(J21*K21)</f>
+        <v>824375.53283199994</v>
       </c>
       <c r="O21">
-        <v>145.25</v>
+        <v>146.71</v>
       </c>
       <c r="P21">
-        <v>238057.84</v>
+        <v>241190.1</v>
       </c>
       <c r="Q21" s="115">
-        <v>10481.299999999999</v>
+        <v>10364.56</v>
       </c>
       <c r="R21" s="127">
-        <f t="shared" si="6"/>
-        <v>-3.2018928949655301E-3</v>
+        <f t="shared" si="14"/>
+        <v>-3.4656560432859695E-3</v>
       </c>
       <c r="S21" s="116">
-        <f t="shared" si="12"/>
-        <v>0.55011478835722394</v>
+        <f t="shared" si="20"/>
+        <v>0.55412105686267799</v>
       </c>
       <c r="T21" s="114">
-        <f t="shared" si="13"/>
-        <v>80</v>
+        <f t="shared" si="21"/>
+        <v>85</v>
       </c>
       <c r="U21" s="116">
-        <f>((N21/$N$60)-1)/T21*30</f>
-        <v>0.20629304563395898</v>
+        <f>((N21/$N$62)-1)/T21*30</f>
+        <v>0.1955721377162393</v>
       </c>
       <c r="V21" s="116"/>
       <c r="W21" s="116"/>
       <c r="X21" s="134"/>
       <c r="Y21" s="134">
-        <v>28.24</v>
+        <v>30.58</v>
       </c>
       <c r="Z21" s="134"/>
       <c r="AA21" s="134">
-        <v>24.78</v>
+        <v>26.14</v>
       </c>
       <c r="AB21">
         <v>10</v>
       </c>
       <c r="AC21" s="115">
-        <v>119.1</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="117">
-        <v>45441</v>
+        <v>45443</v>
       </c>
       <c r="B22">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.4527</v>
+        <v>31.576599999999999</v>
       </c>
       <c r="D22">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>34.006700000000002</v>
+        <v>34.157400000000003</v>
       </c>
       <c r="F22" s="112">
         <v>156</v>
       </c>
       <c r="G22">
-        <v>2331.79</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="H22" s="199">
         <v>7500</v>
       </c>
       <c r="I22" s="199">
-        <v>23.99</v>
+        <v>24.04</v>
       </c>
       <c r="J22">
         <v>210</v>
       </c>
-      <c r="K22">
-        <v>648.15704900000003</v>
+      <c r="K22" s="137">
+        <v>649.96368099999995</v>
       </c>
       <c r="L22">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M22">
-        <v>0.81522399999999995</v>
+        <v>0.80517899999999998</v>
       </c>
       <c r="N22" s="113">
-        <f t="shared" ref="N22" si="18">(F22*G22)+(B22*C22)+(D22*E22)+(L22*M22)+(H22*I22)+(J22*K22)</f>
-        <v>827562.53462299996</v>
+        <f t="shared" ref="N22" si="24">(F22*G22)+(B22*C22)+(D22*E22)+(L22*M22)+(H22*I22)+(J22*K22)</f>
+        <v>826117.91523599997</v>
       </c>
       <c r="O22">
-        <v>148.58000000000001</v>
+        <v>147.47</v>
       </c>
       <c r="P22">
-        <v>243375.9</v>
+        <v>241854.59</v>
       </c>
       <c r="Q22" s="115">
-        <v>10514.86</v>
+        <v>10400.48</v>
       </c>
       <c r="R22" s="127">
-        <f t="shared" si="6"/>
-        <v>-1.5466682390445463E-2</v>
+        <f t="shared" si="14"/>
+        <v>-7.7707951940679809E-3</v>
       </c>
       <c r="S22" s="116">
-        <f t="shared" si="12"/>
-        <v>0.56012922473568239</v>
+        <f t="shared" si="20"/>
+        <v>0.55740581371840481</v>
       </c>
       <c r="T22" s="114">
-        <f t="shared" si="13"/>
-        <v>79</v>
+        <f t="shared" si="21"/>
+        <v>81</v>
       </c>
       <c r="U22" s="116">
-        <f>((N22/$N$60)-1)/T22*30</f>
-        <v>0.21270730053253761</v>
+        <f>((N22/$N$62)-1)/T22*30</f>
+        <v>0.20644659767348328</v>
       </c>
       <c r="V22" s="116"/>
       <c r="W22" s="116"/>
       <c r="X22" s="134"/>
       <c r="Y22" s="134">
-        <v>28.18</v>
+        <v>27.94</v>
       </c>
       <c r="Z22" s="134"/>
       <c r="AA22" s="134">
-        <v>24.8</v>
+        <v>24.08</v>
       </c>
       <c r="AB22">
         <v>10</v>
       </c>
       <c r="AC22" s="115">
-        <v>119.6</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="117">
-        <v>45440</v>
+        <v>45442</v>
       </c>
       <c r="B23">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.4527</v>
+        <v>31.554500000000001</v>
       </c>
       <c r="D23">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>34.006700000000002</v>
+        <v>34.104100000000003</v>
       </c>
       <c r="F23" s="112">
         <v>156</v>
       </c>
       <c r="G23">
-        <v>2331.79</v>
+        <v>2317.36</v>
       </c>
       <c r="H23" s="199">
         <v>7500</v>
       </c>
       <c r="I23" s="199">
-        <v>23.99</v>
+        <v>24</v>
       </c>
       <c r="J23">
         <v>210</v>
       </c>
-      <c r="K23">
-        <v>647.25598100000002</v>
+      <c r="K23" s="137">
+        <v>649.05997200000002</v>
       </c>
       <c r="L23">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.86140000000000005</v>
+        <v>0.78746400000000005</v>
       </c>
       <c r="N23" s="113">
-        <f t="shared" si="0"/>
-        <v>833145.31034299999</v>
+        <f t="shared" ref="N23" si="25">(F23*G23)+(B23*C23)+(D23*E23)+(L23*M23)+(H23*I23)+(J23*K23)</f>
+        <v>822250.4282790001</v>
       </c>
       <c r="O23">
-        <v>153.71</v>
+        <v>145.25</v>
       </c>
       <c r="P23">
-        <v>251476.74</v>
+        <v>238057.84</v>
       </c>
       <c r="Q23" s="115">
-        <v>10677.49</v>
+        <v>10481.299999999999</v>
       </c>
       <c r="R23" s="127">
-        <f t="shared" si="6"/>
-        <v>1.9227365232841187E-3</v>
+        <f t="shared" si="14"/>
+        <v>-3.2018928949655301E-3</v>
       </c>
       <c r="S23" s="116">
-        <f t="shared" ref="S23" si="19">(N23/$N$60)-1</f>
-        <v>0.57065392974771467</v>
+        <f t="shared" si="20"/>
+        <v>0.55011478835722394</v>
       </c>
       <c r="T23" s="114">
-        <f t="shared" ref="T23" si="20">(A23-$A$60)</f>
-        <v>78</v>
+        <f t="shared" si="21"/>
+        <v>80</v>
       </c>
       <c r="U23" s="116">
-        <f>((N23/$N$60)-1)/T23*30</f>
-        <v>0.21948228067219797</v>
+        <f>((N23/$N$62)-1)/T23*30</f>
+        <v>0.20629304563395898</v>
       </c>
       <c r="V23" s="116"/>
       <c r="W23" s="116"/>
       <c r="X23" s="134"/>
       <c r="Y23" s="134">
-        <v>28.18</v>
+        <v>28.24</v>
       </c>
       <c r="Z23" s="134"/>
       <c r="AA23" s="134">
-        <v>24.8</v>
+        <v>24.78</v>
       </c>
       <c r="AB23">
         <v>10</v>
       </c>
       <c r="AC23" s="115">
-        <v>119.6</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="117">
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="B24">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.436</v>
+        <v>31.4527</v>
       </c>
       <c r="D24">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>34.100200000000001</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F24" s="112">
         <v>156</v>
       </c>
       <c r="G24">
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="H24" s="199">
         <v>7500</v>
       </c>
       <c r="I24" s="199">
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="J24">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K24">
-        <v>646.30405299999995</v>
+        <v>648.15704900000003</v>
       </c>
       <c r="L24">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M24">
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="N24" s="113">
-        <f t="shared" si="0"/>
-        <v>719037.96498799999</v>
+        <f t="shared" ref="N24" si="26">(F24*G24)+(B24*C24)+(D24*E24)+(L24*M24)+(H24*I24)+(J24*K24)</f>
+        <v>827562.53462299996</v>
       </c>
       <c r="O24">
-        <v>153.71</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="P24">
-        <v>251476.74</v>
+        <v>243375.9</v>
       </c>
       <c r="Q24" s="115">
-        <v>10656.96</v>
+        <v>10514.86</v>
       </c>
       <c r="R24" s="127">
-        <f t="shared" si="6"/>
-        <v>-1.8476188331382204E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.5466682390445463E-2</v>
       </c>
       <c r="S24" s="116">
-        <f t="shared" ref="S24" si="21">(N24/$N$60)-1</f>
-        <v>0.35553761309807119</v>
+        <f t="shared" si="20"/>
+        <v>0.56012922473568239</v>
       </c>
       <c r="T24" s="114">
-        <f t="shared" ref="T24" si="22">(A24-$A$60)</f>
-        <v>77</v>
+        <f t="shared" si="21"/>
+        <v>79</v>
       </c>
       <c r="U24" s="116">
-        <f>((N24/$N$60)-1)/T24*30</f>
-        <v>0.13852114796028747</v>
+        <f>((N24/$N$62)-1)/T24*30</f>
+        <v>0.21270730053253761</v>
       </c>
       <c r="V24" s="116"/>
       <c r="W24" s="116"/>
       <c r="X24" s="134"/>
       <c r="Y24" s="134">
-        <v>32.36</v>
+        <v>28.18</v>
       </c>
       <c r="Z24" s="134"/>
       <c r="AA24" s="134">
-        <v>23.08</v>
+        <v>24.8</v>
       </c>
       <c r="AB24">
         <v>10</v>
       </c>
       <c r="AC24" s="115">
-        <v>124</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="117">
-        <v>45435</v>
+        <v>45440</v>
       </c>
       <c r="B25">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C25">
-        <v>31.4588</v>
+        <v>31.4527</v>
       </c>
       <c r="D25">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E25">
-        <v>34.044699999999999</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F25" s="112">
         <v>156</v>
       </c>
       <c r="G25">
-        <v>2363.8000000000002</v>
+        <v>2331.79</v>
       </c>
       <c r="H25" s="199">
         <v>7500</v>
       </c>
       <c r="I25" s="199">
-        <v>24.45</v>
+        <v>23.99</v>
       </c>
       <c r="J25">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K25">
-        <v>642.69199700000001</v>
+        <v>647.25598100000002</v>
       </c>
       <c r="L25">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M25">
-        <v>0.87326400000000004</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N25" s="113">
         <f t="shared" si="0"/>
-        <v>726447.88086300006</v>
+        <v>833145.31034299999</v>
       </c>
       <c r="O25">
-        <v>158.78</v>
+        <v>153.71</v>
       </c>
       <c r="P25">
-        <v>259129.45</v>
+        <v>251476.74</v>
       </c>
       <c r="Q25" s="115">
-        <v>10676.65</v>
+        <v>10677.49</v>
       </c>
       <c r="R25" s="127">
-        <f t="shared" si="6"/>
-        <v>-1.4329401076180304E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.9227365232841187E-3</v>
       </c>
       <c r="S25" s="116">
-        <f>(N25/$N$60)-1</f>
-        <v>0.36950686113161924</v>
+        <f t="shared" ref="S25" si="27">(N25/$N$62)-1</f>
+        <v>0.57065392974771467</v>
       </c>
       <c r="T25" s="114">
-        <f>(A25-$A$60)</f>
-        <v>73</v>
+        <f t="shared" ref="T25" si="28">(A25-$A$62)</f>
+        <v>78</v>
       </c>
       <c r="U25" s="116">
-        <f>((N25/$N$60)-1)/T25*30</f>
-        <v>0.15185213471162434</v>
+        <f>((N25/$N$62)-1)/T25*30</f>
+        <v>0.21948228067219797</v>
       </c>
       <c r="V25" s="116"/>
       <c r="W25" s="116"/>
       <c r="X25" s="134"/>
       <c r="Y25" s="134">
-        <v>34.299999999999997</v>
+        <v>28.18</v>
       </c>
       <c r="Z25" s="134"/>
       <c r="AA25" s="134">
-        <v>27.92</v>
+        <v>24.8</v>
       </c>
       <c r="AB25">
         <v>10</v>
       </c>
       <c r="AC25" s="115">
-        <v>122</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="117">
-        <v>45433</v>
+        <v>45439</v>
       </c>
       <c r="B26">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.469899999999999</v>
+        <v>31.436</v>
       </c>
       <c r="D26">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>34.182699999999997</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="F26" s="112">
         <v>156</v>
       </c>
       <c r="G26">
-        <v>2416.92</v>
+        <v>2331.41</v>
       </c>
       <c r="H26" s="199">
         <v>7500</v>
       </c>
       <c r="I26" s="199">
-        <v>24.91</v>
+        <v>24.32</v>
       </c>
       <c r="J26">
         <v>30</v>
       </c>
       <c r="K26">
-        <v>641.00899600000002</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="L26">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M26">
-        <v>0.86580400000000002</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N26" s="113">
         <f t="shared" si="0"/>
-        <v>737258.36645300011</v>
+        <v>719037.96498799999</v>
       </c>
       <c r="O26">
-        <v>165.69</v>
+        <v>153.71</v>
       </c>
       <c r="P26">
-        <v>269993.23</v>
+        <v>251476.74</v>
       </c>
       <c r="Q26" s="115">
-        <v>10829.64</v>
+        <v>10656.96</v>
       </c>
       <c r="R26" s="127">
-        <f t="shared" si="6"/>
-        <v>8.3169892997366768E-3</v>
+        <f t="shared" si="14"/>
+        <v>-1.8476188331382204E-3</v>
       </c>
       <c r="S26" s="116">
-        <f>(N26/$N$60)-1</f>
-        <v>0.38988689743936056</v>
+        <f t="shared" ref="S26" si="29">(N26/$N$62)-1</f>
+        <v>0.35553761309807119</v>
       </c>
       <c r="T26" s="114">
-        <f>(A26-$A$60)</f>
-        <v>71</v>
+        <f t="shared" ref="T26" si="30">(A26-$A$62)</f>
+        <v>77</v>
       </c>
       <c r="U26" s="116">
-        <f>((N26/$N$60)-1)/T26*30</f>
-        <v>0.16474094258001151</v>
+        <f>((N26/$N$62)-1)/T26*30</f>
+        <v>0.13852114796028747</v>
       </c>
       <c r="V26" s="116"/>
       <c r="W26" s="116"/>
       <c r="X26" s="134"/>
       <c r="Y26" s="134">
-        <v>34.799999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="Z26" s="134"/>
       <c r="AA26" s="134">
-        <v>28.52</v>
+        <v>23.08</v>
       </c>
       <c r="AB26">
         <v>10</v>
       </c>
       <c r="AC26" s="115">
-        <v>123.5</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="117">
-        <v>45426</v>
+        <v>45435</v>
       </c>
       <c r="B27">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>31.5244</v>
+        <v>31.4588</v>
       </c>
       <c r="D27">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>34.005400000000002</v>
+        <v>34.044699999999999</v>
       </c>
       <c r="F27" s="112">
         <v>156</v>
       </c>
       <c r="G27">
-        <v>2344.5700000000002</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="H27" s="199">
         <v>7500</v>
       </c>
       <c r="I27" s="199">
-        <v>24.41</v>
+        <v>24.45</v>
       </c>
       <c r="J27">
         <v>30</v>
       </c>
       <c r="K27">
-        <v>634.98375399999998</v>
+        <v>642.69199700000001</v>
       </c>
       <c r="L27">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M27">
-        <v>0.84950000000000003</v>
+        <v>0.87326400000000004</v>
       </c>
       <c r="N27" s="113">
         <f t="shared" si="0"/>
-        <v>720006.41536600015</v>
+        <v>726447.88086300006</v>
       </c>
       <c r="O27">
-        <v>158.43</v>
+        <v>158.78</v>
       </c>
       <c r="P27">
-        <v>256973.54</v>
+        <v>259129.45</v>
       </c>
       <c r="Q27" s="115">
-        <v>10739.57</v>
+        <v>10676.65</v>
       </c>
       <c r="R27" s="127">
-        <f t="shared" si="6"/>
-        <v>5.0241303888330702E-2</v>
+        <f t="shared" si="14"/>
+        <v>-1.4329401076180304E-2</v>
       </c>
       <c r="S27" s="116">
-        <f>(N27/$N$60)-1</f>
-        <v>0.35736334550403681</v>
+        <f>(N27/$N$62)-1</f>
+        <v>0.36950686113161924</v>
       </c>
       <c r="T27" s="114">
-        <f>(A27-$A$60)</f>
-        <v>64</v>
+        <f>(A27-$A$62)</f>
+        <v>73</v>
       </c>
       <c r="U27" s="116">
-        <f>((N27/$N$60)-1)/T27*30</f>
-        <v>0.16751406820501724</v>
+        <f>((N27/$N$62)-1)/T27*30</f>
+        <v>0.15185213471162434</v>
       </c>
       <c r="V27" s="116"/>
       <c r="W27" s="116"/>
       <c r="X27" s="134"/>
       <c r="Y27" s="134">
-        <v>35.86</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z27" s="134"/>
       <c r="AA27" s="134">
-        <v>30.2</v>
+        <v>27.92</v>
       </c>
       <c r="AB27">
         <v>10</v>
       </c>
       <c r="AC27" s="115">
-        <v>120.1</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="117">
-        <v>45425</v>
+        <v>45433</v>
       </c>
       <c r="B28">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C28">
-        <v>31.371600000000001</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="D28">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E28">
-        <v>33.871899999999997</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="F28" s="112">
         <v>156</v>
       </c>
       <c r="G28">
-        <v>2341.31</v>
+        <v>2416.92</v>
       </c>
       <c r="H28" s="199">
         <v>7500</v>
       </c>
       <c r="I28" s="199">
-        <v>24.47</v>
+        <v>24.91</v>
       </c>
       <c r="J28">
         <v>30</v>
       </c>
       <c r="K28">
-        <v>634.10149999999999</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="L28">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M28">
-        <v>0.88511899999999999</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="N28" s="113">
-        <f t="shared" ref="N28:N36" si="23">(F28*G28)+(B28*C28)+(D28*E28)+(L28*M28)+(H28*I28)+(J28*K28)</f>
-        <v>724161.16908100003</v>
+        <f t="shared" si="0"/>
+        <v>737258.36645300011</v>
       </c>
       <c r="O28">
-        <v>158.43</v>
+        <v>165.69</v>
       </c>
       <c r="P28">
-        <v>256973.54</v>
+        <v>269993.23</v>
       </c>
       <c r="Q28" s="115">
-        <v>10200</v>
+        <v>10829.64</v>
       </c>
       <c r="R28" s="127">
-        <f t="shared" si="6"/>
-        <v>-6.7235294117646838E-3</v>
+        <f t="shared" si="14"/>
+        <v>8.3169892997366768E-3</v>
       </c>
       <c r="S28" s="116">
-        <f>(N28/$N$60)-1</f>
-        <v>0.36519592905049159</v>
+        <f>(N28/$N$62)-1</f>
+        <v>0.38988689743936056</v>
       </c>
       <c r="T28" s="114">
-        <f>(A28-$A$60)</f>
-        <v>63</v>
+        <f>(A28-$A$62)</f>
+        <v>71</v>
       </c>
       <c r="U28" s="116">
-        <f>((N28/$N$60)-1)/T28*30</f>
-        <v>0.17390282335737695</v>
+        <f>((N28/$N$62)-1)/T28*30</f>
+        <v>0.16474094258001151</v>
       </c>
       <c r="V28" s="116"/>
       <c r="W28" s="116"/>
       <c r="X28" s="134"/>
       <c r="Y28" s="134">
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Z28" s="134"/>
       <c r="AA28" s="134">
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AB28">
         <v>10</v>
       </c>
       <c r="AC28" s="115">
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="117">
-        <v>45421</v>
+        <v>45426</v>
       </c>
       <c r="B29">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C29">
-        <v>31.712</v>
+        <v>31.5244</v>
       </c>
       <c r="D29">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E29">
-        <v>34.055500000000002</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F29" s="112">
         <v>156</v>
       </c>
       <c r="G29">
-        <v>2333.16</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H29" s="199">
         <v>7500</v>
       </c>
       <c r="I29" s="199">
-        <v>24.39</v>
+        <v>24.41</v>
       </c>
       <c r="J29">
         <v>30</v>
       </c>
       <c r="K29">
-        <v>622.84294799999998</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L29">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M29">
-        <v>0.90642500000000004</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N29" s="113">
-        <f t="shared" si="23"/>
-        <v>725052.22388499998</v>
+        <f t="shared" si="0"/>
+        <v>720006.41536600015</v>
       </c>
       <c r="O29">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P29">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q29" s="115">
-        <v>10268.58</v>
+        <v>10739.57</v>
       </c>
       <c r="R29" s="127">
-        <f t="shared" si="6"/>
-        <v>2.1701150499874422E-2</v>
+        <f t="shared" si="14"/>
+        <v>5.0241303888330702E-2</v>
       </c>
       <c r="S29" s="116">
-        <f>(N29/$N$60)-1</f>
-        <v>0.36687575454089361</v>
+        <f>(N29/$N$62)-1</f>
+        <v>0.35736334550403681</v>
       </c>
       <c r="T29" s="114">
-        <f>(A29-$A$60)</f>
-        <v>59</v>
+        <f>(A29-$A$62)</f>
+        <v>64</v>
       </c>
       <c r="U29" s="116">
-        <f>((N29/$N$60)-1)/T29*30</f>
-        <v>0.18654699383435269</v>
+        <f>((N29/$N$62)-1)/T29*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V29" s="116"/>
       <c r="W29" s="116"/>
       <c r="X29" s="134"/>
       <c r="Y29" s="134">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z29" s="134"/>
       <c r="AA29" s="134">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB29">
         <v>10</v>
       </c>
       <c r="AC29" s="115">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="117">
-        <v>45412</v>
+        <v>45425</v>
       </c>
       <c r="B30">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>31.771699999999999</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D30">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>34.014699999999998</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F30" s="112">
         <v>156</v>
       </c>
       <c r="G30">
-        <v>2341.2800000000002</v>
+        <v>2341.31</v>
       </c>
       <c r="H30" s="199">
         <v>7500</v>
       </c>
       <c r="I30" s="199">
-        <v>24.71</v>
+        <v>24.47</v>
       </c>
       <c r="J30">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K30">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L30">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M30">
-        <v>0.90242599999999995</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N30" s="113">
-        <f t="shared" si="23"/>
-        <v>769379.83326099999</v>
+        <f t="shared" ref="N30:N38" si="31">(F30*G30)+(B30*C30)+(D30*E30)+(L30*M30)+(H30*I30)+(J30*K30)</f>
+        <v>724161.16908100003</v>
       </c>
       <c r="O30">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P30">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q30" s="115">
-        <v>10045.74</v>
+        <v>10200</v>
       </c>
       <c r="R30" s="127">
-        <f t="shared" si="6"/>
-        <v>1.2952754102733999E-2</v>
+        <f t="shared" si="14"/>
+        <v>-6.7235294117646838E-3</v>
       </c>
       <c r="S30" s="116">
-        <f t="shared" ref="S30" si="24">(N30/$N$60)-1</f>
-        <v>0.45044261016428133</v>
+        <f>(N30/$N$62)-1</f>
+        <v>0.36519592905049159</v>
       </c>
       <c r="T30" s="114">
-        <f t="shared" ref="T30" si="25">(A30-$A$60)</f>
-        <v>50</v>
+        <f>(A30-$A$62)</f>
+        <v>63</v>
       </c>
       <c r="U30" s="116">
-        <f>((N30/$N$60)-1)/T30*30</f>
-        <v>0.27026556609856883</v>
+        <f>((N30/$N$62)-1)/T30*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V30" s="116"/>
       <c r="W30" s="116"/>
       <c r="X30" s="134"/>
       <c r="Y30" s="134">
-        <v>37.39</v>
+        <v>35.86</v>
       </c>
       <c r="Z30" s="134"/>
       <c r="AA30" s="134">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB30">
         <v>10</v>
       </c>
       <c r="AC30" s="115">
-        <v>125.1</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="117">
-        <v>45411</v>
+        <v>45421</v>
       </c>
       <c r="B31">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>31.948</v>
+        <v>31.712</v>
       </c>
       <c r="D31">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>34.280099999999997</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F31" s="112">
         <v>156</v>
       </c>
       <c r="G31">
-        <v>2384.1799999999998</v>
+        <v>2333.16</v>
       </c>
       <c r="H31" s="199">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I31" s="199">
-        <v>24.91</v>
+        <v>24.39</v>
+      </c>
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31">
+        <v>622.84294799999998</v>
       </c>
       <c r="L31">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.89855499999999999</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N31" s="113">
-        <f t="shared" si="23"/>
-        <v>655301.58439900004</v>
+        <f t="shared" si="31"/>
+        <v>725052.22388499998</v>
       </c>
       <c r="O31">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P31">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q31" s="115">
-        <v>9915.6200000000008</v>
+        <v>10268.58</v>
       </c>
       <c r="R31" s="127">
-        <f t="shared" ref="R31:R37" si="26">(1-(Q32/Q31))</f>
-        <v>2.5330740790792672E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.1701150499874422E-2</v>
       </c>
       <c r="S31" s="116">
-        <f t="shared" ref="S31:S60" si="27">(N31/$N$60)-1</f>
-        <v>0.23538114651627517</v>
+        <f>(N31/$N$62)-1</f>
+        <v>0.36687575454089361</v>
       </c>
       <c r="T31" s="114">
-        <f t="shared" ref="T31:T60" si="28">(A31-$A$60)</f>
-        <v>49</v>
+        <f>(A31-$A$62)</f>
+        <v>59</v>
       </c>
       <c r="U31" s="116">
-        <f>((N31/$N$60)-1)/T31*30</f>
-        <v>0.14411090603037255</v>
+        <f>((N31/$N$62)-1)/T31*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V31" s="116"/>
       <c r="W31" s="116"/>
-      <c r="X31" s="112">
-        <v>35</v>
-      </c>
-      <c r="Y31" s="128">
-        <f>Y34</f>
-        <v>37.39</v>
-      </c>
-      <c r="Z31" s="112">
-        <v>40</v>
-      </c>
-      <c r="AA31" s="128">
-        <f>AA34</f>
+      <c r="X31" s="134"/>
+      <c r="Y31" s="134">
+        <v>37.4</v>
+      </c>
+      <c r="Z31" s="134"/>
+      <c r="AA31" s="134">
         <v>30.5</v>
       </c>
-      <c r="AB31"/>
+      <c r="AB31">
+        <v>10</v>
+      </c>
+      <c r="AC31" s="115">
+        <v>127.4</v>
+      </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="117">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="B32">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C32">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D32">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E32">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F32" s="112">
         <v>156</v>
       </c>
       <c r="G32">
-        <v>2384.1799999999998</v>
+        <v>2341.2800000000002</v>
       </c>
       <c r="H32" s="199">
-        <v>2500</v>
+        <v>7500</v>
       </c>
       <c r="I32" s="199">
-        <v>25.11</v>
+        <v>24.71</v>
+      </c>
+      <c r="J32">
+        <v>96</v>
+      </c>
+      <c r="K32">
+        <v>622.84294799999998</v>
       </c>
       <c r="L32">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M32">
-        <v>0.89607400000000004</v>
+        <v>0.90242599999999995</v>
       </c>
       <c r="N32" s="113">
-        <f t="shared" si="23"/>
-        <v>593216.45939900004</v>
+        <f t="shared" si="31"/>
+        <v>769379.83326099999</v>
       </c>
       <c r="O32">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P32">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q32" s="115">
-        <v>9664.4500000000007</v>
+        <v>10045.74</v>
       </c>
       <c r="R32" s="127">
-        <f t="shared" si="26"/>
-        <v>-5.7478697701369708E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.2952754102733999E-2</v>
       </c>
       <c r="S32" s="116">
-        <f t="shared" si="27"/>
-        <v>0.11833764360082077</v>
+        <f t="shared" ref="S32" si="32">(N32/$N$62)-1</f>
+        <v>0.45044261016428133</v>
       </c>
       <c r="T32" s="114">
-        <f t="shared" si="28"/>
-        <v>46</v>
+        <f t="shared" ref="T32" si="33">(A32-$A$62)</f>
+        <v>50</v>
       </c>
       <c r="U32" s="116">
-        <f>((N32/$N$60)-1)/T32*30</f>
-        <v>7.7176724087491808E-2</v>
+        <f>((N32/$N$62)-1)/T32*30</f>
+        <v>0.27026556609856883</v>
       </c>
       <c r="V32" s="116"/>
       <c r="W32" s="116"/>
-      <c r="X32" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y32" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z32" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA32" s="129" t="s">
-        <v>68</v>
+      <c r="X32" s="134"/>
+      <c r="Y32" s="134">
+        <v>37.39</v>
+      </c>
+      <c r="Z32" s="134"/>
+      <c r="AA32" s="134">
+        <v>30.5</v>
       </c>
       <c r="AB32">
         <v>10</v>
       </c>
       <c r="AC32" s="115">
-        <v>148.5</v>
+        <v>125.1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="117">
-        <v>45407</v>
+        <v>45411</v>
       </c>
       <c r="B33">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C33">
-        <v>32.0291</v>
+        <v>31.948</v>
       </c>
       <c r="D33">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E33">
-        <v>34.322299999999998</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F33" s="112">
         <v>156</v>
       </c>
       <c r="G33">
-        <v>2368.4699999999998</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H33" s="199">
+        <v>5000</v>
+      </c>
+      <c r="I33" s="199">
+        <v>24.91</v>
       </c>
       <c r="L33">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M33">
-        <v>0.90609700000000004</v>
+        <v>0.89855499999999999</v>
       </c>
       <c r="N33" s="113">
-        <f t="shared" si="23"/>
-        <v>529347.18337699992</v>
+        <f t="shared" si="31"/>
+        <v>655301.58439900004</v>
       </c>
       <c r="O33">
-        <v>167.13</v>
+        <v>167.61</v>
       </c>
       <c r="P33">
-        <v>268083.81</v>
+        <v>269021.68</v>
       </c>
       <c r="Q33" s="115">
-        <v>9720</v>
+        <v>9915.6200000000008</v>
       </c>
       <c r="R33" s="127">
-        <f t="shared" si="26"/>
-        <v>-2.1502057613176362E-4</v>
+        <f t="shared" ref="R33:R39" si="34">(1-(Q34/Q33))</f>
+        <v>2.5330740790792672E-2</v>
       </c>
       <c r="S33" s="116">
-        <f t="shared" si="27"/>
-        <v>-2.0693587896702947E-3</v>
+        <f t="shared" ref="S33:S62" si="35">(N33/$N$62)-1</f>
+        <v>0.23538114651627517</v>
       </c>
       <c r="T33" s="114">
-        <f t="shared" si="28"/>
-        <v>45</v>
+        <f t="shared" ref="T33:T62" si="36">(A33-$A$62)</f>
+        <v>49</v>
       </c>
       <c r="U33" s="116">
-        <f>((N33/$N$60)-1)/T33*30</f>
-        <v>-1.379572526446863E-3</v>
+        <f>((N33/$N$62)-1)/T33*30</f>
+        <v>0.14411090603037255</v>
       </c>
       <c r="V33" s="116"/>
       <c r="W33" s="116"/>
-      <c r="X33" s="112"/>
-      <c r="Y33" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z33" s="112"/>
-      <c r="AA33" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB33">
-        <v>10</v>
-      </c>
-      <c r="AC33" s="115">
-        <v>135</v>
-      </c>
+      <c r="X33" s="112">
+        <v>35</v>
+      </c>
+      <c r="Y33" s="128">
+        <f>Y36</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z33" s="112">
+        <v>40</v>
+      </c>
+      <c r="AA33" s="128">
+        <f>AA36</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB33"/>
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="117">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="B34">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C34">
-        <v>31.928699999999999</v>
+        <v>31.948</v>
       </c>
       <c r="D34">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E34">
-        <v>33.972000000000001</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F34" s="112">
         <v>156</v>
       </c>
       <c r="G34">
-        <v>2380.13</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H34" s="199">
+        <v>2500</v>
+      </c>
+      <c r="I34" s="199">
+        <v>25.11</v>
       </c>
       <c r="L34">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M34">
-        <v>0.88805999999999996</v>
+        <v>0.89607400000000004</v>
       </c>
       <c r="N34" s="113">
-        <f t="shared" si="23"/>
-        <v>528687.28128</v>
+        <f t="shared" si="31"/>
+        <v>593216.45939900004</v>
       </c>
       <c r="O34">
-        <v>166.96</v>
+        <v>167.61</v>
       </c>
       <c r="P34">
-        <v>267307.03000000003</v>
+        <v>269021.68</v>
       </c>
       <c r="Q34" s="115">
-        <v>9722.09</v>
+        <v>9664.4500000000007</v>
       </c>
       <c r="R34" s="127">
-        <f t="shared" si="26"/>
-        <v>7.927307811386175E-3</v>
+        <f t="shared" si="34"/>
+        <v>-5.7478697701369708E-3</v>
       </c>
       <c r="S34" s="116">
-        <f t="shared" si="27"/>
-        <v>-3.3134128688740994E-3</v>
+        <f t="shared" si="35"/>
+        <v>0.11833764360082077</v>
       </c>
       <c r="T34" s="114">
-        <f t="shared" si="28"/>
-        <v>44</v>
+        <f t="shared" si="36"/>
+        <v>46</v>
       </c>
       <c r="U34" s="116">
-        <f>((N34/$N$60)-1)/T34*30</f>
-        <v>-2.259145137868704E-3</v>
+        <f>((N34/$N$62)-1)/T34*30</f>
+        <v>7.7176724087491808E-2</v>
       </c>
       <c r="V34" s="116"/>
       <c r="W34" s="116"/>
       <c r="X34" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y34" s="131">
-        <v>37.39</v>
+        <v>67</v>
+      </c>
+      <c r="Y34" s="129" t="s">
+        <v>68</v>
       </c>
       <c r="Z34" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA34" s="131">
-        <v>30.5</v>
+        <v>67</v>
+      </c>
+      <c r="AA34" s="129" t="s">
+        <v>68</v>
       </c>
       <c r="AB34">
         <v>10</v>
       </c>
       <c r="AC34" s="115">
-        <v>135</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="35" spans="1:29">
       <c r="A35" s="117">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B35">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C35">
-        <v>31.928699999999999</v>
+        <v>32.0291</v>
       </c>
       <c r="D35">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E35">
-        <v>33.972000000000001</v>
+        <v>34.322299999999998</v>
       </c>
       <c r="F35" s="112">
         <v>156</v>
       </c>
       <c r="G35">
-        <v>2380.13</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="L35">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M35">
-        <v>0.88805999999999996</v>
+        <v>0.90609700000000004</v>
       </c>
       <c r="N35" s="113">
-        <f t="shared" si="23"/>
-        <v>528687.28128</v>
+        <f t="shared" si="31"/>
+        <v>529347.18337699992</v>
       </c>
       <c r="O35">
-        <v>166.96</v>
+        <v>167.13</v>
       </c>
       <c r="P35">
-        <v>267307.03000000003</v>
+        <v>268083.81</v>
       </c>
       <c r="Q35" s="115">
-        <v>9645.02</v>
+        <v>9720</v>
       </c>
       <c r="R35" s="127">
-        <f t="shared" si="26"/>
-        <v>-5.0222809283961833E-3</v>
+        <f t="shared" si="34"/>
+        <v>-2.1502057613176362E-4</v>
       </c>
       <c r="S35" s="116">
-        <f t="shared" si="27"/>
-        <v>-3.3134128688740994E-3</v>
+        <f t="shared" si="35"/>
+        <v>-2.0693587896702947E-3</v>
       </c>
       <c r="T35" s="114">
-        <f t="shared" si="28"/>
-        <v>42</v>
+        <f t="shared" si="36"/>
+        <v>45</v>
       </c>
       <c r="U35" s="116">
-        <f>((N35/$N$60)-1)/T35*30</f>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N35/$N$62)-1)/T35*30</f>
+        <v>-1.379572526446863E-3</v>
       </c>
       <c r="V35" s="116"/>
       <c r="W35" s="116"/>
       <c r="X35" s="112"/>
-      <c r="Y35" s="116" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
+      <c r="Y35" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="Z35" s="112"/>
-      <c r="AA35" s="116" t="e">
-        <f>Sayfa2!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB35" s="112">
+      <c r="AA35" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB35">
         <v>10</v>
       </c>
-      <c r="AC35" s="128">
+      <c r="AC35" s="115">
         <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="117">
-        <v>45401</v>
+        <v>45406</v>
       </c>
       <c r="B36">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C36">
-        <v>31.803999999999998</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D36">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E36">
-        <v>33.928400000000003</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F36" s="112">
         <v>156</v>
       </c>
       <c r="G36">
-        <v>2427.62</v>
+        <v>2380.13</v>
       </c>
       <c r="L36">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M36">
-        <v>0.87351800000000002</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N36" s="113">
-        <f t="shared" si="23"/>
-        <v>534125.51551599998</v>
+        <f t="shared" si="31"/>
+        <v>528687.28128</v>
       </c>
       <c r="O36">
-        <v>170.57</v>
+        <v>166.96</v>
       </c>
       <c r="P36">
-        <v>272736.27</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q36" s="115">
-        <v>9693.4599999999991</v>
+        <v>9722.09</v>
       </c>
       <c r="R36" s="127">
-        <f t="shared" si="26"/>
-        <v>1.4091975414350921E-3</v>
+        <f t="shared" si="34"/>
+        <v>7.927307811386175E-3</v>
       </c>
       <c r="S36" s="116">
-        <f t="shared" si="27"/>
-        <v>6.9388010818296486E-3</v>
+        <f t="shared" si="35"/>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T36" s="114">
-        <f t="shared" si="28"/>
-        <v>39</v>
+        <f t="shared" si="36"/>
+        <v>44</v>
       </c>
       <c r="U36" s="116">
-        <f>((N36/$N$60)-1)/T36*30</f>
-        <v>5.3375392937151144E-3</v>
+        <f>((N36/$N$62)-1)/T36*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V36" s="116"/>
       <c r="W36" s="116"/>
       <c r="X36" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y36" s="115">
-        <f>Y34*X31</f>
-        <v>1308.6500000000001</v>
+        <v>70</v>
+      </c>
+      <c r="Y36" s="131">
+        <v>37.39</v>
       </c>
       <c r="Z36" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA36" s="115">
-        <f>AA34*Z31</f>
-        <v>1220</v>
-      </c>
-      <c r="AB36" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC36" s="129" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="AA36" s="131">
+        <v>30.5</v>
+      </c>
+      <c r="AB36">
+        <v>10</v>
+      </c>
+      <c r="AC36" s="115">
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="117">
-        <v>45397</v>
+        <v>45404</v>
       </c>
       <c r="B37">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C37">
-        <v>31.863399999999999</v>
+        <v>31.928699999999999</v>
       </c>
       <c r="D37">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E37">
-        <v>33.963099999999997</v>
+        <v>33.972000000000001</v>
       </c>
       <c r="F37" s="112">
         <v>156</v>
       </c>
       <c r="G37">
-        <v>2387.5100000000002</v>
+        <v>2380.13</v>
       </c>
       <c r="L37">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M37">
-        <v>0.89791399999999999</v>
+        <v>0.88805999999999996</v>
       </c>
       <c r="N37" s="113">
-        <f t="shared" ref="N37:N72" si="29">(F37*G37)+(B37*C37)+(D37*E37)+(L37*M37)+(H37*I37)</f>
-        <v>530994.96256900008</v>
+        <f t="shared" si="31"/>
+        <v>528687.28128</v>
       </c>
       <c r="O37">
-        <v>169.14</v>
+        <v>166.96</v>
       </c>
       <c r="P37">
-        <v>269604.92</v>
+        <v>267307.03000000003</v>
       </c>
       <c r="Q37" s="115">
-        <v>9679.7999999999993</v>
+        <v>9645.02</v>
       </c>
       <c r="R37" s="127">
-        <f t="shared" si="26"/>
-        <v>-1.3880452075456073E-2</v>
+        <f t="shared" si="34"/>
+        <v>-5.0222809283961833E-3</v>
       </c>
       <c r="S37" s="116">
-        <f t="shared" si="27"/>
-        <v>1.0370511380362046E-3</v>
+        <f t="shared" si="35"/>
+        <v>-3.3134128688740994E-3</v>
       </c>
       <c r="T37" s="114">
-        <f t="shared" si="28"/>
-        <v>35</v>
+        <f t="shared" si="36"/>
+        <v>42</v>
       </c>
       <c r="U37" s="116">
-        <f>((N37/$N$60)-1)/T37*30</f>
-        <v>8.8890097545960402E-4</v>
+        <f>((N37/$N$62)-1)/T37*30</f>
+        <v>-2.3667234777672141E-3</v>
       </c>
       <c r="V37" s="116"/>
       <c r="W37" s="116"/>
-      <c r="X37" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y37" s="132">
-        <f>(X31*Y5)-(X31*Y34)</f>
-        <v>-354.55000000000007</v>
-      </c>
-      <c r="Z37" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA37" s="132">
-        <f>(Z31*AA5)-(Z31*AA34)</f>
-        <v>-308.79999999999995</v>
-      </c>
-      <c r="AC37" s="130" t="s">
-        <v>69</v>
+      <c r="X37" s="112"/>
+      <c r="Y37" s="116" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z37" s="112"/>
+      <c r="AA37" s="116" t="e">
+        <f>Sayfa2!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="AB37" s="112">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="128">
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="117">
-        <v>45391</v>
+        <v>45401</v>
       </c>
       <c r="B38">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C38">
-        <v>31.412299999999998</v>
+        <v>31.803999999999998</v>
       </c>
       <c r="D38">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E38">
-        <v>34.091799999999999</v>
+        <v>33.928400000000003</v>
       </c>
       <c r="F38" s="112">
         <v>156</v>
       </c>
       <c r="G38">
-        <v>2352.21</v>
+        <v>2427.62</v>
       </c>
       <c r="L38">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M38">
-        <v>0.89529800000000004</v>
+        <v>0.87351800000000002</v>
       </c>
       <c r="N38" s="113">
-        <f t="shared" si="29"/>
-        <v>524701.88168200001</v>
+        <f t="shared" si="31"/>
+        <v>534125.51551599998</v>
       </c>
       <c r="O38">
-        <v>165.81</v>
+        <v>170.57</v>
       </c>
       <c r="P38">
-        <v>263308.84999999998</v>
+        <v>272736.27</v>
       </c>
       <c r="Q38" s="115">
-        <v>9814.16</v>
+        <v>9693.4599999999991</v>
       </c>
       <c r="R38" s="127">
-        <f t="shared" ref="R38:R39" si="30">(1-(Q39/Q38))</f>
-        <v>5.8558246452063978E-3</v>
+        <f t="shared" si="34"/>
+        <v>1.4091975414350921E-3</v>
       </c>
       <c r="S38" s="116">
-        <f t="shared" si="27"/>
-        <v>-1.0826728328378388E-2</v>
+        <f t="shared" si="35"/>
+        <v>6.9388010818296486E-3</v>
       </c>
       <c r="T38" s="114">
-        <f t="shared" si="28"/>
-        <v>29</v>
+        <f t="shared" si="36"/>
+        <v>39</v>
       </c>
       <c r="U38" s="116">
-        <f>((N38/$N$60)-1)/T38*30</f>
-        <v>-1.1200063787977641E-2</v>
+        <f>((N38/$N$62)-1)/T38*30</f>
+        <v>5.3375392937151144E-3</v>
       </c>
       <c r="V38" s="116"/>
       <c r="W38" s="116"/>
-      <c r="X38" s="116"/>
-      <c r="Y38" s="116"/>
-      <c r="Z38" s="116"/>
-      <c r="AA38" s="116"/>
+      <c r="X38" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y38" s="115">
+        <f>Y36*X33</f>
+        <v>1308.6500000000001</v>
+      </c>
+      <c r="Z38" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA38" s="115">
+        <f>AA36*Z33</f>
+        <v>1220</v>
+      </c>
       <c r="AB38" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC38" s="131">
-        <v>135</v>
+        <v>67</v>
+      </c>
+      <c r="AC38" s="129" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="117">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="B39">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C39">
-        <v>31.5198</v>
+        <v>31.863399999999999</v>
       </c>
       <c r="D39">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E39">
-        <v>34.154899999999998</v>
+        <v>33.963099999999997</v>
       </c>
       <c r="F39" s="112">
         <v>156</v>
       </c>
       <c r="G39">
-        <v>2344.37</v>
+        <v>2387.5100000000002</v>
       </c>
       <c r="L39">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M39">
-        <v>0.818581</v>
+        <v>0.89791399999999999</v>
       </c>
       <c r="N39" s="113">
-        <f t="shared" si="29"/>
-        <v>514028.85925099999</v>
+        <f t="shared" ref="N39:N74" si="37">(F39*G39)+(B39*C39)+(D39*E39)+(L39*M39)+(H39*I39)</f>
+        <v>530994.96256900008</v>
       </c>
       <c r="O39">
-        <v>159.19</v>
+        <v>169.14</v>
       </c>
       <c r="P39">
-        <v>252634.37</v>
+        <v>269604.92</v>
       </c>
       <c r="Q39" s="115">
-        <v>9756.69</v>
+        <v>9679.7999999999993</v>
       </c>
       <c r="R39" s="127">
-        <f t="shared" si="30"/>
-        <v>1.4129791968382821E-2</v>
+        <f t="shared" si="34"/>
+        <v>-1.3880452075456073E-2</v>
       </c>
       <c r="S39" s="116">
-        <f t="shared" si="27"/>
-        <v>-3.0947617704367603E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.0370511380362046E-3</v>
       </c>
       <c r="T39" s="114">
-        <f t="shared" si="28"/>
-        <v>28</v>
+        <f t="shared" si="36"/>
+        <v>35</v>
       </c>
       <c r="U39" s="116">
-        <f>((N39/$N$60)-1)/T39*30</f>
-        <v>-3.3158161826108146E-2</v>
+        <f>((N39/$N$62)-1)/T39*30</f>
+        <v>8.8890097545960402E-4</v>
       </c>
       <c r="V39" s="116"/>
       <c r="W39" s="116"/>
-      <c r="X39" s="116"/>
-      <c r="Y39" s="116"/>
-      <c r="Z39" s="116"/>
-      <c r="AA39" s="116"/>
-      <c r="AC39" s="116">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
+      <c r="X39" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y39" s="132">
+        <f>(X33*Y5)-(X33*Y36)</f>
+        <v>-395.15000000000009</v>
+      </c>
+      <c r="Z39" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA39" s="132">
+        <f>(Z33*AA5)-(Z33*AA36)</f>
+        <v>-354.4</v>
+      </c>
+      <c r="AC39" s="130" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="117">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B40">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>31.407</v>
+        <v>31.412299999999998</v>
       </c>
       <c r="D40">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>34.038899999999998</v>
+        <v>34.091799999999999</v>
       </c>
       <c r="F40" s="112">
         <v>156</v>
       </c>
       <c r="G40">
-        <v>2289.27</v>
+        <v>2352.21</v>
       </c>
       <c r="L40">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.82424600000000003</v>
+        <v>0.89529800000000004</v>
       </c>
       <c r="N40" s="113">
-        <f t="shared" si="29"/>
-        <v>505978.825411</v>
+        <f t="shared" si="37"/>
+        <v>524701.88168200001</v>
       </c>
       <c r="O40">
-        <v>154.41</v>
+        <v>165.81</v>
       </c>
       <c r="P40">
-        <v>244587.02</v>
+        <v>263308.84999999998</v>
       </c>
       <c r="Q40" s="115">
-        <v>9618.83</v>
+        <v>9814.16</v>
       </c>
       <c r="R40" s="127">
-        <f t="shared" ref="R40:R71" si="31">(1-(Q41/Q40))</f>
-        <v>5.0921993631241946E-2</v>
+        <f t="shared" ref="R40:R41" si="38">(1-(Q41/Q40))</f>
+        <v>5.8558246452063978E-3</v>
       </c>
       <c r="S40" s="116">
-        <f t="shared" si="27"/>
-        <v>-4.6123622572225242E-2</v>
+        <f t="shared" si="35"/>
+        <v>-1.0826728328378388E-2</v>
       </c>
       <c r="T40" s="114">
-        <f t="shared" si="28"/>
-        <v>25</v>
+        <f t="shared" si="36"/>
+        <v>29</v>
       </c>
       <c r="U40" s="116">
-        <f>((N40/$N$60)-1)/T40*30</f>
-        <v>-5.5348347086670288E-2</v>
+        <f>((N40/$N$62)-1)/T40*30</f>
+        <v>-1.1200063787977641E-2</v>
       </c>
       <c r="V40" s="116"/>
       <c r="W40" s="116"/>
@@ -8788,72 +8822,71 @@
       <c r="Z40" s="116"/>
       <c r="AA40" s="116"/>
       <c r="AB40" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC40" s="115">
-        <f>AC38*AB35</f>
-        <v>1350</v>
+        <v>70</v>
+      </c>
+      <c r="AC40" s="131">
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="117">
-        <v>45386</v>
+        <v>45390</v>
       </c>
       <c r="B41">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>31.399799999999999</v>
+        <v>31.5198</v>
       </c>
       <c r="D41">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>34.053100000000001</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F41" s="112">
         <v>156</v>
       </c>
       <c r="G41">
-        <v>2292.5700000000002</v>
+        <v>2344.37</v>
       </c>
       <c r="L41">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.82913899999999996</v>
+        <v>0.818581</v>
       </c>
       <c r="N41" s="113">
-        <f t="shared" si="29"/>
-        <v>507101.83066900005</v>
+        <f t="shared" si="37"/>
+        <v>514028.85925099999</v>
       </c>
       <c r="O41">
-        <v>155.22</v>
+        <v>159.19</v>
       </c>
       <c r="P41">
-        <v>245709.7</v>
+        <v>252634.37</v>
       </c>
       <c r="Q41" s="115">
-        <v>9129.02</v>
+        <v>9756.69</v>
       </c>
       <c r="R41" s="127">
-        <f t="shared" si="31"/>
-        <v>2.0070062284889389E-2</v>
+        <f t="shared" si="38"/>
+        <v>1.4129791968382821E-2</v>
       </c>
       <c r="S41" s="116">
-        <f t="shared" si="27"/>
-        <v>-4.4006521749946126E-2</v>
+        <f t="shared" si="35"/>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T41" s="114">
-        <f t="shared" si="28"/>
-        <v>24</v>
+        <f t="shared" si="36"/>
+        <v>28</v>
       </c>
       <c r="U41" s="116">
-        <f>((N41/$N$60)-1)/T41*30</f>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N41/$N$62)-1)/T41*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V41" s="116"/>
       <c r="W41" s="116"/>
@@ -8861,73 +8894,70 @@
       <c r="Y41" s="116"/>
       <c r="Z41" s="116"/>
       <c r="AA41" s="116"/>
-      <c r="AB41" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC41" s="132">
-        <f>(AB10*AC5)-(AB10*AC38)</f>
-        <v>-113</v>
+      <c r="AC41" s="116">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="117">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B42">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C42">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D42">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E42">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F42" s="112">
         <v>156</v>
       </c>
       <c r="G42">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L42">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M42">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N42" s="113">
-        <f t="shared" si="29"/>
-        <v>507101.83066900005</v>
+        <f t="shared" si="37"/>
+        <v>505978.825411</v>
       </c>
       <c r="O42">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="P42">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="Q42" s="115">
-        <v>8945.7999999999993</v>
+        <v>9618.83</v>
       </c>
       <c r="R42" s="127">
-        <f t="shared" si="31"/>
-        <v>-1.0627333497283731E-2</v>
+        <f t="shared" ref="R42:R73" si="39">(1-(Q43/Q42))</f>
+        <v>5.0921993631241946E-2</v>
       </c>
       <c r="S42" s="116">
-        <f t="shared" si="27"/>
-        <v>-4.4006521749946126E-2</v>
+        <f t="shared" si="35"/>
+        <v>-4.6123622572225242E-2</v>
       </c>
       <c r="T42" s="114">
-        <f t="shared" si="28"/>
-        <v>23</v>
+        <f t="shared" si="36"/>
+        <v>25</v>
       </c>
       <c r="U42" s="116">
-        <f>((N42/$N$60)-1)/T42*30</f>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N42/$N$62)-1)/T42*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V42" s="116"/>
       <c r="W42" s="116"/>
@@ -8935,68 +8965,73 @@
       <c r="Y42" s="116"/>
       <c r="Z42" s="116"/>
       <c r="AA42" s="116"/>
-      <c r="AB42" s="133"/>
-      <c r="AC42" s="134"/>
+      <c r="AB42" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC42" s="115">
+        <f>AC40*AB37</f>
+        <v>1350</v>
+      </c>
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="117">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B43">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D43">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F43" s="112">
         <v>156</v>
       </c>
       <c r="G43">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L43">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N43" s="113">
-        <f t="shared" si="29"/>
-        <v>509777.60801200004</v>
+        <f t="shared" si="37"/>
+        <v>507101.83066900005</v>
       </c>
       <c r="O43">
-        <v>157.11000000000001</v>
+        <v>155.22</v>
       </c>
       <c r="P43">
-        <v>248387.66</v>
+        <v>245709.7</v>
       </c>
       <c r="Q43" s="115">
-        <v>9040.8700000000008</v>
+        <v>9129.02</v>
       </c>
       <c r="R43" s="127">
-        <f t="shared" si="31"/>
-        <v>-1.2904731513670775E-2</v>
+        <f t="shared" si="39"/>
+        <v>2.0070062284889389E-2</v>
       </c>
       <c r="S43" s="116">
-        <f t="shared" si="27"/>
-        <v>-3.8962119354903346E-2</v>
+        <f t="shared" si="35"/>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T43" s="114">
-        <f t="shared" si="28"/>
-        <v>22</v>
+        <f t="shared" si="36"/>
+        <v>24</v>
       </c>
       <c r="U43" s="116">
-        <f>((N43/$N$60)-1)/T43*30</f>
-        <v>-5.3130162756686382E-2</v>
+        <f>((N43/$N$62)-1)/T43*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V43" s="116"/>
       <c r="W43" s="116"/>
@@ -9004,68 +9039,73 @@
       <c r="Y43" s="116"/>
       <c r="Z43" s="116"/>
       <c r="AA43" s="116"/>
-      <c r="AB43" s="133"/>
-      <c r="AC43" s="134"/>
+      <c r="AB43" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC43" s="132">
+        <f>(AB10*AC5)-(AB10*AC40)</f>
+        <v>-108</v>
+      </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="117">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B44">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C44">
-        <v>31.879300000000001</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D44">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E44">
-        <v>34.391399999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F44" s="112">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G44">
-        <v>2308.4299999999998</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L44">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M44">
-        <v>0.88097599999999998</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N44" s="113">
-        <f t="shared" si="29"/>
-        <v>528238.93988600001</v>
+        <f t="shared" si="37"/>
+        <v>507101.83066900005</v>
       </c>
       <c r="O44">
-        <v>161.66</v>
+        <v>155.22</v>
       </c>
       <c r="P44">
-        <v>255424.81</v>
+        <v>245709.7</v>
       </c>
       <c r="Q44" s="115">
-        <v>9157.5400000000009</v>
+        <v>8945.7999999999993</v>
       </c>
       <c r="R44" s="127">
-        <f t="shared" si="31"/>
-        <v>1.6532824317448958E-3</v>
+        <f t="shared" si="39"/>
+        <v>-1.0627333497283731E-2</v>
       </c>
       <c r="S44" s="116">
-        <f t="shared" si="27"/>
-        <v>-4.1586305801334378E-3</v>
+        <f t="shared" si="35"/>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T44" s="114">
-        <f t="shared" si="28"/>
-        <v>21</v>
+        <f t="shared" si="36"/>
+        <v>23</v>
       </c>
       <c r="U44" s="116">
-        <f>((N44/$N$60)-1)/T44*30</f>
-        <v>-5.9409008287620545E-3</v>
+        <f t="shared" ref="U44:U75" si="40">((N44/$N$62)-1)/T44*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V44" s="116"/>
       <c r="W44" s="116"/>
@@ -9078,63 +9118,63 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="117">
-        <v>45381</v>
+        <v>45384</v>
       </c>
       <c r="B45">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D45">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F45" s="112">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G45">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L45">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N45" s="113">
-        <f t="shared" si="29"/>
-        <v>528238.93988600001</v>
+        <f t="shared" si="37"/>
+        <v>509777.60801200004</v>
       </c>
       <c r="O45">
-        <v>161.66</v>
+        <v>157.11000000000001</v>
       </c>
       <c r="P45">
-        <v>255424.81</v>
+        <v>248387.66</v>
       </c>
       <c r="Q45" s="115">
-        <v>9142.4</v>
+        <v>9040.8700000000008</v>
       </c>
       <c r="R45" s="127">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>-1.2904731513670775E-2</v>
       </c>
       <c r="S45" s="116">
-        <f t="shared" si="27"/>
-        <v>-4.1586305801334378E-3</v>
+        <f t="shared" si="35"/>
+        <v>-3.8962119354903346E-2</v>
       </c>
       <c r="T45" s="114">
-        <f t="shared" si="28"/>
-        <v>19</v>
+        <f t="shared" si="36"/>
+        <v>22</v>
       </c>
       <c r="U45" s="116">
-        <f>((N45/$N$60)-1)/T45*30</f>
-        <v>-6.5662588107370072E-3</v>
+        <f t="shared" si="40"/>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V45" s="116"/>
       <c r="W45" s="116"/>
@@ -9147,63 +9187,63 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="117">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B46">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D46">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F46" s="112">
         <v>161</v>
       </c>
       <c r="G46">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L46">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N46" s="113">
-        <f t="shared" si="29"/>
-        <v>518957.34710100002</v>
+        <f t="shared" si="37"/>
+        <v>528238.93988600001</v>
       </c>
       <c r="O46">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="P46">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="Q46" s="115">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="R46" s="127">
-        <f t="shared" si="31"/>
-        <v>6.8286226811340445E-3</v>
+        <f t="shared" si="39"/>
+        <v>1.6532824317448958E-3</v>
       </c>
       <c r="S46" s="116">
-        <f t="shared" si="27"/>
-        <v>-2.165638277425741E-2</v>
+        <f t="shared" si="35"/>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T46" s="114">
-        <f t="shared" si="28"/>
-        <v>18</v>
+        <f t="shared" si="36"/>
+        <v>21</v>
       </c>
       <c r="U46" s="116">
-        <f>((N46/$N$60)-1)/T46*30</f>
-        <v>-3.6093971290429017E-2</v>
+        <f t="shared" si="40"/>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V46" s="116"/>
       <c r="W46" s="116"/>
@@ -9216,63 +9256,63 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="117">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="B47">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C47">
-        <v>31.870699999999999</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D47">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E47">
-        <v>34.480800000000002</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F47" s="112">
         <v>161</v>
       </c>
       <c r="G47">
-        <v>2240.09</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L47">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M47">
-        <v>0.86473199999999995</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N47" s="113">
-        <f t="shared" si="29"/>
-        <v>515224.93979200005</v>
+        <f t="shared" si="37"/>
+        <v>528238.93988600001</v>
       </c>
       <c r="O47">
-        <v>153.81</v>
+        <v>161.66</v>
       </c>
       <c r="P47">
-        <v>242408.74</v>
+        <v>255424.81</v>
       </c>
       <c r="Q47" s="115">
-        <v>9079.9699999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R47" s="127">
-        <f t="shared" si="31"/>
-        <v>3.0093711763364839E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="S47" s="116">
-        <f t="shared" si="27"/>
-        <v>-2.8692754622628547E-2</v>
+        <f t="shared" si="35"/>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T47" s="114">
-        <f t="shared" si="28"/>
-        <v>17</v>
+        <f t="shared" si="36"/>
+        <v>19</v>
       </c>
       <c r="U47" s="116">
-        <f>((N47/$N$60)-1)/T47*30</f>
-        <v>-5.0634272863462143E-2</v>
+        <f t="shared" si="40"/>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V47" s="116"/>
       <c r="W47" s="116"/>
@@ -9285,63 +9325,63 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="117">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B48">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>31.821999999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D48">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>34.5045</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F48" s="112">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2227.25</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L48">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>0.85899999999999999</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N48" s="113">
-        <f t="shared" si="29"/>
-        <v>512394.77395499998</v>
+        <f t="shared" si="37"/>
+        <v>518957.34710100002</v>
       </c>
       <c r="O48">
-        <v>154.24</v>
+        <v>156.08000000000001</v>
       </c>
       <c r="P48">
-        <v>242616.68</v>
+        <v>246143.72</v>
       </c>
       <c r="Q48" s="115">
-        <v>8806.7199999999993</v>
+        <v>9142.4</v>
       </c>
       <c r="R48" s="127">
-        <f t="shared" si="31"/>
-        <v>-7.4942770974972817E-5</v>
+        <f t="shared" si="39"/>
+        <v>6.8286226811340445E-3</v>
       </c>
       <c r="S48" s="116">
-        <f t="shared" si="27"/>
-        <v>-3.4028211761422011E-2</v>
+        <f t="shared" si="35"/>
+        <v>-2.165638277425741E-2</v>
       </c>
       <c r="T48" s="114">
-        <f t="shared" si="28"/>
-        <v>16</v>
+        <f t="shared" si="36"/>
+        <v>18</v>
       </c>
       <c r="U48" s="116">
-        <f>((N48/$N$60)-1)/T48*30</f>
-        <v>-6.3802897052666271E-2</v>
+        <f t="shared" si="40"/>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V48" s="116"/>
       <c r="W48" s="116"/>
@@ -9354,63 +9394,63 @@
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="117">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B49">
-        <f>B68</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C49">
-        <v>31.530999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D49">
-        <f>D68</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E49">
-        <v>34.125900000000001</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F49" s="112">
         <v>161</v>
       </c>
       <c r="G49">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L49">
-        <f>L68</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>0.890316</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N49" s="113">
-        <f t="shared" si="29"/>
-        <v>515864.35854099999</v>
+        <f t="shared" si="37"/>
+        <v>515224.93979200005</v>
       </c>
       <c r="O49">
-        <v>154.24</v>
+        <v>153.81</v>
       </c>
       <c r="P49">
-        <v>242616.68</v>
+        <v>242408.74</v>
       </c>
       <c r="Q49" s="115">
-        <v>8807.3799999999992</v>
+        <v>9079.9699999999993</v>
       </c>
       <c r="R49" s="127">
-        <f t="shared" si="31"/>
-        <v>-2.5206133946758191E-2</v>
+        <f t="shared" si="39"/>
+        <v>3.0093711763364839E-2</v>
       </c>
       <c r="S49" s="116">
-        <f t="shared" si="27"/>
-        <v>-2.7487315957364089E-2</v>
+        <f t="shared" si="35"/>
+        <v>-2.8692754622628547E-2</v>
       </c>
       <c r="T49" s="114">
-        <f t="shared" si="28"/>
-        <v>15</v>
+        <f t="shared" si="36"/>
+        <v>17</v>
       </c>
       <c r="U49" s="116">
-        <f>((N49/$N$60)-1)/T49*30</f>
-        <v>-5.4974631914728178E-2</v>
+        <f t="shared" si="40"/>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V49" s="116"/>
       <c r="W49" s="116"/>
@@ -9423,63 +9463,63 @@
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="117">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B50">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C50">
-        <v>31.786200000000001</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D50">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E50">
-        <v>34.386299999999999</v>
+        <v>34.5045</v>
       </c>
       <c r="F50" s="112">
         <v>161</v>
       </c>
       <c r="G50">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L50">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M50">
-        <v>0.91889100000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N50" s="113">
-        <f t="shared" si="29"/>
-        <v>517720.01173699996</v>
+        <f t="shared" si="37"/>
+        <v>512394.77395499998</v>
       </c>
       <c r="O50">
-        <v>155.99</v>
+        <v>154.24</v>
       </c>
       <c r="P50">
-        <v>244906</v>
+        <v>242616.68</v>
       </c>
       <c r="Q50" s="115">
-        <v>9029.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="R50" s="127">
-        <f t="shared" si="31"/>
-        <v>-9.0947551216142841E-3</v>
+        <f t="shared" si="39"/>
+        <v>-7.4942770974972817E-5</v>
       </c>
       <c r="S50" s="116">
-        <f t="shared" si="27"/>
-        <v>-2.3989019863797534E-2</v>
+        <f t="shared" si="35"/>
+        <v>-3.4028211761422011E-2</v>
       </c>
       <c r="T50" s="114">
-        <f t="shared" si="28"/>
-        <v>14</v>
+        <f t="shared" si="36"/>
+        <v>16</v>
       </c>
       <c r="U50" s="116">
-        <f>((N50/$N$60)-1)/T50*30</f>
-        <v>-5.1405042565280425E-2</v>
+        <f t="shared" si="40"/>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V50" s="116"/>
       <c r="W50" s="116"/>
@@ -9492,63 +9532,63 @@
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="117">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B51">
-        <f>B67</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C51">
-        <v>31.710699999999999</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D51">
-        <f>D67</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E51">
-        <v>34.336300000000001</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F51" s="112">
         <v>161</v>
       </c>
       <c r="G51">
-        <v>2212.11</v>
+        <v>2227.25</v>
       </c>
       <c r="L51">
-        <f>L67</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M51">
-        <v>0.93062100000000003</v>
+        <v>0.890316</v>
       </c>
       <c r="N51" s="113">
-        <f t="shared" si="29"/>
-        <v>518732.15723700001</v>
+        <f t="shared" si="37"/>
+        <v>515864.35854099999</v>
       </c>
       <c r="O51">
-        <v>156.63999999999999</v>
+        <v>154.24</v>
       </c>
       <c r="P51">
-        <v>245919.31</v>
-      </c>
-      <c r="Q51">
-        <v>9111.5</v>
+        <v>242616.68</v>
+      </c>
+      <c r="Q51" s="115">
+        <v>8807.3799999999992</v>
       </c>
       <c r="R51" s="127">
-        <f t="shared" si="31"/>
-        <v>-3.2047412610438641E-3</v>
+        <f t="shared" si="39"/>
+        <v>-2.5206133946758191E-2</v>
       </c>
       <c r="S51" s="116">
-        <f t="shared" si="27"/>
-        <v>-2.2080912973779676E-2</v>
+        <f t="shared" si="35"/>
+        <v>-2.7487315957364089E-2</v>
       </c>
       <c r="T51" s="114">
-        <f t="shared" si="28"/>
-        <v>11</v>
+        <f t="shared" si="36"/>
+        <v>15</v>
       </c>
       <c r="U51" s="116">
-        <f>((N51/$N$60)-1)/T51*30</f>
-        <v>-6.0220671746671839E-2</v>
+        <f t="shared" si="40"/>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V51" s="116"/>
       <c r="W51" s="116"/>
@@ -9561,63 +9601,63 @@
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="117">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B52">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C52">
-        <v>32.063899999999997</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D52">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E52">
-        <v>35.065100000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F52" s="112">
         <v>161</v>
       </c>
       <c r="G52">
-        <v>2267.61</v>
+        <v>2214.31</v>
       </c>
       <c r="L52">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M52">
-        <v>0.94166499999999997</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N52" s="113">
-        <f t="shared" si="29"/>
-        <v>529674.87554899999</v>
+        <f t="shared" si="37"/>
+        <v>517720.01173699996</v>
       </c>
       <c r="O52">
-        <v>163.91</v>
+        <v>155.99</v>
       </c>
       <c r="P52">
-        <v>256845.12</v>
+        <v>244906</v>
       </c>
       <c r="Q52" s="115">
-        <v>9140.7000000000007</v>
+        <v>9029.3799999999992</v>
       </c>
       <c r="R52" s="127">
-        <f t="shared" si="31"/>
-        <v>2.0302602645311585E-2</v>
+        <f t="shared" si="39"/>
+        <v>-9.0947551216142841E-3</v>
       </c>
       <c r="S52" s="116">
-        <f t="shared" si="27"/>
-        <v>-1.4515902067954167E-3</v>
+        <f t="shared" si="35"/>
+        <v>-2.3989019863797534E-2</v>
       </c>
       <c r="T52" s="114">
-        <f t="shared" si="28"/>
-        <v>10</v>
+        <f t="shared" si="36"/>
+        <v>14</v>
       </c>
       <c r="U52" s="116">
-        <f>((N52/$N$60)-1)/T52*30</f>
-        <v>-4.3547706203862502E-3</v>
+        <f t="shared" si="40"/>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V52" s="116"/>
       <c r="W52" s="116"/>
@@ -9630,63 +9670,63 @@
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="117">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B53">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C53">
-        <v>32.028799999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D53">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E53">
-        <v>34.808799999999998</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F53" s="112">
         <v>161</v>
       </c>
       <c r="G53">
-        <v>2220.92</v>
+        <v>2212.11</v>
       </c>
       <c r="L53">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M53">
-        <v>0.93470600000000004</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N53" s="113">
-        <f t="shared" si="29"/>
-        <v>521166.42351200001</v>
+        <f t="shared" si="37"/>
+        <v>518732.15723700001</v>
       </c>
       <c r="O53">
-        <v>158.47999999999999</v>
+        <v>156.63999999999999</v>
       </c>
       <c r="P53">
-        <v>248342.62</v>
-      </c>
-      <c r="Q53" s="115">
-        <v>8955.1200000000008</v>
+        <v>245919.31</v>
+      </c>
+      <c r="Q53">
+        <v>9111.5</v>
       </c>
       <c r="R53" s="127">
-        <f t="shared" si="31"/>
-        <v>2.8184993612594411E-3</v>
+        <f t="shared" si="39"/>
+        <v>-3.2047412610438641E-3</v>
       </c>
       <c r="S53" s="116">
-        <f t="shared" si="27"/>
-        <v>-1.7491809676412506E-2</v>
+        <f t="shared" si="35"/>
+        <v>-2.2080912973779676E-2</v>
       </c>
       <c r="T53" s="114">
-        <f t="shared" si="28"/>
-        <v>9</v>
+        <f t="shared" si="36"/>
+        <v>11</v>
       </c>
       <c r="U53" s="116">
-        <f>((N53/$N$60)-1)/T53*30</f>
-        <v>-5.8306032254708352E-2</v>
+        <f t="shared" si="40"/>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V53" s="116"/>
       <c r="W53" s="116"/>
@@ -9699,63 +9739,63 @@
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="117">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B54">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C54">
-        <v>32.087800000000001</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D54">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E54">
-        <v>34.799100000000003</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F54" s="112">
         <v>161</v>
       </c>
       <c r="G54">
-        <v>2219.02</v>
+        <v>2267.61</v>
       </c>
       <c r="L54">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M54">
-        <v>0.90033600000000003</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N54" s="113">
-        <f t="shared" si="29"/>
-        <v>516626.64020899998</v>
+        <f t="shared" si="37"/>
+        <v>529674.87554899999</v>
       </c>
       <c r="O54">
-        <v>155.59</v>
+        <v>163.91</v>
       </c>
       <c r="P54">
-        <v>243803.06</v>
+        <v>256845.12</v>
       </c>
       <c r="Q54" s="115">
-        <v>8929.8799999999992</v>
+        <v>9140.7000000000007</v>
       </c>
       <c r="R54" s="127">
-        <f t="shared" si="31"/>
-        <v>2.3714764364134666E-2</v>
+        <f t="shared" si="39"/>
+        <v>2.0302602645311585E-2</v>
       </c>
       <c r="S54" s="116">
-        <f t="shared" si="27"/>
-        <v>-2.6050254879836254E-2</v>
+        <f t="shared" si="35"/>
+        <v>-1.4515902067954167E-3</v>
       </c>
       <c r="T54" s="114">
-        <f t="shared" si="28"/>
-        <v>8</v>
+        <f t="shared" si="36"/>
+        <v>10</v>
       </c>
       <c r="U54" s="116">
-        <f>((N54/$N$60)-1)/T54*30</f>
-        <v>-9.7688455799385954E-2</v>
+        <f t="shared" si="40"/>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V54" s="116"/>
       <c r="W54" s="116"/>
@@ -9765,72 +9805,66 @@
       <c r="AA54" s="116"/>
       <c r="AB54" s="133"/>
       <c r="AC54" s="134"/>
-      <c r="AL54">
-        <v>68</v>
-      </c>
-      <c r="AM54">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="117">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B55">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C55">
-        <v>31.9499</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D55">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E55">
-        <v>34.8125</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F55" s="112">
         <v>161</v>
       </c>
       <c r="G55">
-        <v>2212.35</v>
+        <v>2220.92</v>
       </c>
       <c r="L55">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M55">
-        <v>0.93887900000000002</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N55" s="113">
-        <f t="shared" si="29"/>
-        <v>520221.89087499998</v>
+        <f t="shared" si="37"/>
+        <v>521166.42351200001</v>
       </c>
       <c r="O55">
-        <v>155.44</v>
+        <v>158.47999999999999</v>
       </c>
       <c r="P55">
-        <v>247623.17</v>
+        <v>248342.62</v>
       </c>
       <c r="Q55" s="115">
-        <v>8718.11</v>
+        <v>8955.1200000000008</v>
       </c>
       <c r="R55" s="127">
-        <f t="shared" si="31"/>
-        <v>-1.2685088855267868E-2</v>
+        <f t="shared" si="39"/>
+        <v>2.8184993612594411E-3</v>
       </c>
       <c r="S55" s="116">
-        <f t="shared" si="27"/>
-        <v>-1.9272452116166794E-2</v>
+        <f t="shared" si="35"/>
+        <v>-1.7491809676412506E-2</v>
       </c>
       <c r="T55" s="114">
-        <f t="shared" si="28"/>
-        <v>7</v>
+        <f t="shared" si="36"/>
+        <v>9</v>
       </c>
       <c r="U55" s="116">
-        <f>((N55/$N$60)-1)/T55*30</f>
-        <v>-8.2596223355000553E-2</v>
+        <f t="shared" si="40"/>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V55" s="116"/>
       <c r="W55" s="116"/>
@@ -9840,72 +9874,66 @@
       <c r="AA55" s="116"/>
       <c r="AB55" s="133"/>
       <c r="AC55" s="134"/>
-      <c r="AL55">
-        <v>68</v>
-      </c>
-      <c r="AM55">
-        <v>22.96</v>
-      </c>
     </row>
     <row r="56" spans="1:39">
       <c r="A56" s="117">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B56">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C56">
-        <v>31.796299999999999</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D56">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E56">
-        <v>34.619700000000002</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F56" s="112">
         <v>161</v>
       </c>
       <c r="G56">
-        <v>2213.54</v>
+        <v>2219.02</v>
       </c>
       <c r="L56">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M56">
-        <v>0.94838599999999995</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N56" s="113">
-        <f t="shared" si="29"/>
-        <v>521369.280203</v>
+        <f t="shared" si="37"/>
+        <v>516626.64020899998</v>
       </c>
       <c r="O56">
-        <v>156.13</v>
+        <v>155.59</v>
       </c>
       <c r="P56">
-        <v>248712.47</v>
+        <v>243803.06</v>
       </c>
       <c r="Q56" s="115">
-        <v>8828.7000000000007</v>
+        <v>8929.8799999999992</v>
       </c>
       <c r="R56" s="127">
-        <f t="shared" si="31"/>
-        <v>-6.2092946866469934E-3</v>
+        <f t="shared" si="39"/>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="S56" s="116">
-        <f t="shared" si="27"/>
-        <v>-1.7109382199549383E-2</v>
+        <f t="shared" si="35"/>
+        <v>-2.6050254879836254E-2</v>
       </c>
       <c r="T56" s="114">
-        <f t="shared" si="28"/>
-        <v>4</v>
+        <f t="shared" si="36"/>
+        <v>8</v>
       </c>
       <c r="U56" s="116">
-        <f>((N56/$N$60)-1)/T56*30</f>
-        <v>-0.12832036649662037</v>
+        <f t="shared" si="40"/>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V56" s="116"/>
       <c r="W56" s="116"/>
@@ -9919,68 +9947,68 @@
         <v>68</v>
       </c>
       <c r="AM56">
-        <v>22.04</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="117">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B57">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C57">
-        <v>31.775700000000001</v>
+        <v>31.9499</v>
       </c>
       <c r="D57">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E57">
-        <v>34.762500000000003</v>
+        <v>34.8125</v>
       </c>
       <c r="F57" s="112">
         <v>161</v>
       </c>
       <c r="G57">
-        <v>2222.88</v>
+        <v>2212.35</v>
       </c>
       <c r="L57">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M57">
-        <v>0.95100700000000005</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N57" s="113">
-        <f t="shared" si="29"/>
-        <v>523223.75937500002</v>
+        <f t="shared" si="37"/>
+        <v>520221.89087499998</v>
       </c>
       <c r="O57">
-        <v>157.21</v>
+        <v>155.44</v>
       </c>
       <c r="P57">
-        <v>250427.64</v>
+        <v>247623.17</v>
       </c>
       <c r="Q57" s="115">
-        <v>8883.52</v>
+        <v>8718.11</v>
       </c>
       <c r="R57" s="127">
-        <f t="shared" si="31"/>
-        <v>-3.0066910413888426E-3</v>
+        <f t="shared" si="39"/>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="S57" s="116">
-        <f t="shared" si="27"/>
-        <v>-1.3613299387851274E-2</v>
+        <f t="shared" si="35"/>
+        <v>-1.9272452116166794E-2</v>
       </c>
       <c r="T57" s="114">
-        <f t="shared" si="28"/>
-        <v>3</v>
+        <f t="shared" si="36"/>
+        <v>7</v>
       </c>
       <c r="U57" s="116">
-        <f>((N57/$N$60)-1)/T57*30</f>
-        <v>-0.13613299387851274</v>
+        <f t="shared" si="40"/>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V57" s="116"/>
       <c r="W57" s="116"/>
@@ -9994,68 +10022,68 @@
         <v>68</v>
       </c>
       <c r="AM57">
-        <v>20.399999999999999</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="A58" s="117">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B58">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C58">
-        <v>32</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D58">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E58">
-        <v>35</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F58" s="112">
         <v>161</v>
       </c>
       <c r="G58">
-        <v>2220.3200000000002</v>
+        <v>2213.54</v>
       </c>
       <c r="L58">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M58">
-        <v>0.957233</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N58" s="113">
-        <f t="shared" si="29"/>
-        <v>523915.29500000004</v>
+        <f t="shared" si="37"/>
+        <v>521369.280203</v>
       </c>
       <c r="O58">
-        <v>160.79</v>
+        <v>156.13</v>
       </c>
       <c r="P58">
-        <v>250989.9</v>
+        <v>248712.47</v>
       </c>
       <c r="Q58" s="115">
-        <v>8910.23</v>
+        <v>8828.7000000000007</v>
       </c>
       <c r="R58" s="127">
-        <f t="shared" si="31"/>
-        <v>-1.7822211098927898E-2</v>
+        <f t="shared" si="39"/>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="S58" s="116">
-        <f t="shared" si="27"/>
-        <v>-1.2309609463077242E-2</v>
+        <f t="shared" si="35"/>
+        <v>-1.7109382199549383E-2</v>
       </c>
       <c r="T58" s="114">
-        <f t="shared" si="28"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>4</v>
       </c>
       <c r="U58" s="116">
-        <f>((N58/$N$60)-1)/T58*30</f>
-        <v>-0.18464414194615864</v>
+        <f t="shared" si="40"/>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V58" s="116"/>
       <c r="W58" s="116"/>
@@ -10069,68 +10097,68 @@
         <v>68</v>
       </c>
       <c r="AM58">
-        <v>18.22</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="117">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B59">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C59">
-        <v>31.516400000000001</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D59">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E59">
-        <v>34.463200000000001</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F59" s="112">
         <v>161</v>
       </c>
       <c r="G59">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L59">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M59">
-        <v>0.979213</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N59" s="113">
-        <f t="shared" si="29"/>
-        <v>525953.15476800012</v>
+        <f t="shared" si="37"/>
+        <v>523223.75937500002</v>
       </c>
       <c r="O59">
-        <v>161.94999999999999</v>
+        <v>157.21</v>
       </c>
       <c r="P59">
-        <v>252645.61</v>
+        <v>250427.64</v>
       </c>
       <c r="Q59" s="115">
-        <v>9069.0300000000007</v>
+        <v>8883.52</v>
       </c>
       <c r="R59" s="127">
-        <f t="shared" si="31"/>
-        <v>-6.8684302510850781E-3</v>
+        <f t="shared" si="39"/>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="S59" s="116">
-        <f t="shared" si="27"/>
-        <v>-8.4678157049555836E-3</v>
+        <f t="shared" si="35"/>
+        <v>-1.3613299387851274E-2</v>
       </c>
       <c r="T59" s="114">
-        <f t="shared" si="28"/>
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
       <c r="U59" s="116">
-        <f>((N59/$N$60)-1)/T59*30</f>
-        <v>-0.25403447114866751</v>
+        <f t="shared" si="40"/>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V59" s="116"/>
       <c r="W59" s="116"/>
@@ -10144,66 +10172,69 @@
         <v>68</v>
       </c>
       <c r="AM59">
-        <v>16.57</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" s="117">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B60">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C60">
-        <v>31.571400000000001</v>
+        <v>32</v>
       </c>
       <c r="D60">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E60">
-        <v>34.558100000000003</v>
+        <v>35</v>
       </c>
       <c r="F60" s="112">
         <v>161</v>
       </c>
       <c r="G60">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L60">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M60">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N60" s="200">
-        <f t="shared" si="29"/>
-        <v>530444.86411900003</v>
+        <v>0.957233</v>
+      </c>
+      <c r="N60" s="113">
+        <f t="shared" si="37"/>
+        <v>523915.29500000004</v>
       </c>
       <c r="O60">
-        <v>164.91</v>
+        <v>160.79</v>
       </c>
       <c r="P60">
-        <v>257088.48</v>
+        <v>250989.9</v>
       </c>
       <c r="Q60" s="115">
-        <v>9131.32</v>
+        <v>8910.23</v>
       </c>
       <c r="R60" s="127">
-        <f t="shared" si="31"/>
-        <v>-2.6283166070184549E-3</v>
+        <f t="shared" si="39"/>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="S60" s="116">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>-1.2309609463077242E-2</v>
       </c>
       <c r="T60" s="114">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="116"/>
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="U60" s="116">
+        <f t="shared" si="40"/>
+        <v>-0.18464414194615864</v>
+      </c>
       <c r="V60" s="116"/>
       <c r="W60" s="116"/>
       <c r="X60" s="116"/>
@@ -10212,73 +10243,73 @@
       <c r="AA60" s="116"/>
       <c r="AB60" s="133"/>
       <c r="AC60" s="134"/>
-      <c r="AH60">
-        <v>12</v>
-      </c>
-      <c r="AI60">
-        <v>41.58</v>
-      </c>
-      <c r="AJ60">
-        <f>AJ67</f>
-        <v>15</v>
-      </c>
-      <c r="AK60">
-        <v>55.55</v>
-      </c>
       <c r="AL60">
         <v>68</v>
       </c>
       <c r="AM60">
-        <v>15.07</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="61" spans="1:39">
       <c r="A61" s="117">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B61">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C61">
-        <v>31.402999999999999</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D61">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E61">
-        <v>34.3643</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F61" s="112">
         <v>161</v>
       </c>
       <c r="G61">
-        <v>2198.16</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L61">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M61">
-        <v>0.99115900000000001</v>
+        <v>0.979213</v>
       </c>
       <c r="N61" s="113">
-        <f t="shared" si="29"/>
-        <v>523720.92595699994</v>
+        <f t="shared" si="37"/>
+        <v>525953.15476800012</v>
       </c>
       <c r="O61">
-        <v>160.9</v>
+        <v>161.94999999999999</v>
+      </c>
+      <c r="P61">
+        <v>252645.61</v>
       </c>
       <c r="Q61" s="115">
-        <v>9155.32</v>
+        <v>9069.0300000000007</v>
       </c>
       <c r="R61" s="127">
-        <f t="shared" si="31"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S61" s="116"/>
-      <c r="U61" s="116"/>
+        <f t="shared" si="39"/>
+        <v>-6.8684302510850781E-3</v>
+      </c>
+      <c r="S61" s="116">
+        <f t="shared" si="35"/>
+        <v>-8.4678157049555836E-3</v>
+      </c>
+      <c r="T61" s="114">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="U61" s="116">
+        <f t="shared" si="40"/>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V61" s="116"/>
       <c r="W61" s="116"/>
       <c r="X61" s="116"/>
@@ -10287,72 +10318,69 @@
       <c r="AA61" s="116"/>
       <c r="AB61" s="133"/>
       <c r="AC61" s="134"/>
-      <c r="AH61">
-        <v>12</v>
-      </c>
-      <c r="AI61">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="AJ61">
-        <f>AJ67</f>
-        <v>15</v>
-      </c>
-      <c r="AK61">
-        <v>57.75</v>
-      </c>
       <c r="AL61">
         <v>68</v>
       </c>
       <c r="AM61">
-        <v>13.7</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="62" spans="1:39">
       <c r="A62" s="117">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B62">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C62">
-        <v>31.297000000000001</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D62">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E62">
-        <v>34.110599999999998</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F62" s="112">
         <v>161</v>
       </c>
       <c r="G62">
-        <v>2184.79</v>
+        <v>2232.66</v>
       </c>
       <c r="L62">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M62">
-        <v>0.945214</v>
-      </c>
-      <c r="N62" s="113">
-        <f t="shared" si="29"/>
-        <v>515625.882094</v>
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N62" s="200">
+        <f t="shared" si="37"/>
+        <v>530444.86411900003</v>
       </c>
       <c r="O62">
-        <v>155.75</v>
+        <v>164.91</v>
+      </c>
+      <c r="P62">
+        <v>257088.48</v>
       </c>
       <c r="Q62" s="115">
-        <v>9054.18</v>
+        <v>9131.32</v>
       </c>
       <c r="R62" s="127">
-        <f t="shared" si="31"/>
-        <v>3.4194151209717583E-2</v>
-      </c>
-      <c r="S62" s="116"/>
+        <f t="shared" si="39"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S62" s="116">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="T62" s="114">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
       <c r="U62" s="116"/>
       <c r="V62" s="116"/>
       <c r="W62" s="116"/>
@@ -10366,66 +10394,66 @@
         <v>12</v>
       </c>
       <c r="AI62">
-        <v>34.380000000000003</v>
+        <v>41.58</v>
       </c>
       <c r="AJ62">
-        <f>AJ67</f>
+        <f>AJ69</f>
         <v>15</v>
       </c>
       <c r="AK62">
-        <v>63.1</v>
+        <v>55.55</v>
       </c>
       <c r="AL62">
         <v>68</v>
       </c>
       <c r="AM62">
-        <v>12.46</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="117">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B63">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C63">
-        <v>31.293399999999998</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D63">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E63">
-        <v>34.006500000000003</v>
+        <v>34.3643</v>
       </c>
       <c r="F63" s="112">
         <v>161</v>
       </c>
       <c r="G63">
-        <v>2150.9</v>
+        <v>2198.16</v>
       </c>
       <c r="L63">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M63">
-        <v>0.99397100000000005</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N63" s="113">
-        <f t="shared" si="29"/>
-        <v>516226.70193500002</v>
+        <f t="shared" si="37"/>
+        <v>523720.92595699994</v>
       </c>
       <c r="O63">
-        <v>156.16</v>
+        <v>160.9</v>
       </c>
       <c r="Q63" s="115">
-        <v>8744.58</v>
+        <v>9155.32</v>
       </c>
       <c r="R63" s="127">
-        <f t="shared" si="31"/>
-        <v>-1.3258498407013208E-2</v>
+        <f t="shared" si="39"/>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S63" s="116"/>
       <c r="U63" s="116"/>
@@ -10437,77 +10465,70 @@
       <c r="AA63" s="116"/>
       <c r="AB63" s="133"/>
       <c r="AC63" s="134"/>
-      <c r="AF63">
-        <f>AF67</f>
-        <v>57</v>
-      </c>
-      <c r="AG63">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH63">
         <v>12</v>
       </c>
       <c r="AI63">
-        <v>31.26</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ63">
-        <f>AJ67</f>
+        <f>AJ69</f>
         <v>15</v>
       </c>
       <c r="AK63">
-        <v>57.4</v>
+        <v>57.75</v>
       </c>
       <c r="AL63">
         <v>68</v>
       </c>
       <c r="AM63">
-        <v>11.33</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="64" spans="1:39">
       <c r="A64" s="117">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B64">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C64">
-        <v>31.079899999999999</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D64">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E64">
-        <v>33.721699999999998</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F64" s="112">
         <v>161</v>
       </c>
       <c r="G64">
-        <v>2116.34</v>
+        <v>2184.79</v>
       </c>
       <c r="L64">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M64">
-        <v>1.0160309999999999</v>
+        <v>0.945214</v>
       </c>
       <c r="N64" s="113">
-        <f t="shared" si="29"/>
-        <v>513091.35418300005</v>
+        <f t="shared" si="37"/>
+        <v>515625.882094</v>
       </c>
       <c r="O64">
-        <v>154.22999999999999</v>
+        <v>155.75</v>
       </c>
       <c r="Q64" s="115">
-        <v>8860.52</v>
+        <v>9054.18</v>
       </c>
       <c r="R64" s="127">
-        <f t="shared" si="31"/>
-        <v>-5.319100910555985E-3</v>
+        <f t="shared" si="39"/>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S64" s="116"/>
       <c r="U64" s="116"/>
@@ -10519,82 +10540,70 @@
       <c r="AA64" s="116"/>
       <c r="AB64" s="133"/>
       <c r="AC64" s="134"/>
-      <c r="AD64">
-        <f>AD67</f>
-        <v>36</v>
-      </c>
-      <c r="AE64" s="135">
-        <v>38.15</v>
-      </c>
-      <c r="AF64">
-        <f>AF67</f>
-        <v>57</v>
-      </c>
-      <c r="AG64">
-        <v>579.361718</v>
-      </c>
       <c r="AH64">
-        <f>AH67</f>
         <v>12</v>
       </c>
       <c r="AI64">
-        <v>28.42</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ64">
-        <f>AJ67</f>
+        <f>AJ69</f>
         <v>15</v>
       </c>
       <c r="AK64">
-        <v>52.2</v>
+        <v>63.1</v>
       </c>
       <c r="AL64">
         <v>68</v>
       </c>
       <c r="AM64">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="65" spans="1:39">
       <c r="A65" s="117">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B65">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C65">
-        <v>30.905999999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D65">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E65">
-        <v>33.542299999999997</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F65" s="112">
         <v>161</v>
       </c>
       <c r="G65">
-        <v>2072.52</v>
+        <v>2150.9</v>
       </c>
       <c r="L65">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M65">
-        <v>1.041954</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N65" s="113">
-        <f t="shared" si="29"/>
-        <v>509025.91517699993</v>
+        <f t="shared" si="37"/>
+        <v>516226.70193500002</v>
+      </c>
+      <c r="O65">
+        <v>156.16</v>
       </c>
       <c r="Q65" s="115">
-        <v>8907.65</v>
+        <v>8744.58</v>
       </c>
       <c r="R65" s="127">
-        <f t="shared" si="31"/>
-        <v>-2.1273848882702007E-2</v>
+        <f t="shared" si="39"/>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S65" s="116"/>
       <c r="U65" s="116"/>
@@ -10606,33 +10615,25 @@
       <c r="AA65" s="116"/>
       <c r="AB65" s="133"/>
       <c r="AC65" s="134"/>
-      <c r="AD65">
-        <f>AD67</f>
-        <v>36</v>
-      </c>
-      <c r="AE65">
-        <v>34.659999999999997</v>
-      </c>
       <c r="AF65">
-        <f>AF67</f>
+        <f>AF69</f>
         <v>57</v>
       </c>
       <c r="AG65">
-        <v>578.66060300000004</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH65">
-        <f>AH67</f>
         <v>12</v>
       </c>
       <c r="AI65">
-        <v>25.84</v>
+        <v>31.26</v>
       </c>
       <c r="AJ65">
-        <f>AJ67</f>
+        <f>AJ69</f>
         <v>15</v>
       </c>
       <c r="AK65">
-        <v>47.46</v>
+        <v>57.4</v>
       </c>
       <c r="AL65">
         <v>68</v>
@@ -10643,45 +10644,48 @@
     </row>
     <row r="66" spans="1:39">
       <c r="A66" s="117">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B66">
-        <f>B67</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C66">
-        <v>30.7361</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D66">
-        <f>D67</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E66">
-        <v>33.225700000000003</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F66" s="112">
         <v>161</v>
       </c>
       <c r="G66">
-        <v>2018.91</v>
+        <v>2116.34</v>
       </c>
       <c r="L66">
-        <f>L67</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M66">
-        <v>1.034036</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N66" s="113">
-        <f t="shared" si="29"/>
-        <v>499114.42414299998</v>
+        <f t="shared" si="37"/>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O66">
+        <v>154.22999999999999</v>
       </c>
       <c r="Q66" s="115">
-        <v>9097.15</v>
+        <v>8860.52</v>
       </c>
       <c r="R66" s="127">
-        <f t="shared" si="31"/>
-        <v>-1.0612114783201454E-2</v>
+        <f t="shared" si="39"/>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S66" s="116"/>
       <c r="U66" s="116"/>
@@ -10694,32 +10698,32 @@
       <c r="AB66" s="133"/>
       <c r="AC66" s="134"/>
       <c r="AD66">
-        <f>AD67</f>
+        <f>AD69</f>
         <v>36</v>
       </c>
-      <c r="AE66">
-        <v>31.52</v>
+      <c r="AE66" s="135">
+        <v>38.15</v>
       </c>
       <c r="AF66">
-        <f>AF67</f>
+        <f>AF69</f>
         <v>57</v>
       </c>
       <c r="AG66">
-        <v>576.58807100000001</v>
+        <v>579.361718</v>
       </c>
       <c r="AH66">
-        <f>AH67</f>
+        <f>AH69</f>
         <v>12</v>
       </c>
       <c r="AI66">
-        <v>23.5</v>
+        <v>28.42</v>
       </c>
       <c r="AJ66">
-        <f>AJ67</f>
+        <f>AJ69</f>
         <v>15</v>
       </c>
       <c r="AK66">
-        <v>43.16</v>
+        <v>52.2</v>
       </c>
       <c r="AL66">
         <v>68</v>
@@ -10730,90 +10734,104 @@
     </row>
     <row r="67" spans="1:39">
       <c r="A67" s="117">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B67">
-        <f>B68</f>
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C67">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D67">
-        <f>D68</f>
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E67">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F67" s="112">
         <v>161</v>
       </c>
       <c r="G67">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L67">
-        <f>L68</f>
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M67">
-        <v>1.010337</v>
+        <v>1.041954</v>
       </c>
       <c r="N67" s="113">
-        <f t="shared" si="29"/>
-        <v>496152.04914299998</v>
+        <f t="shared" si="37"/>
+        <v>509025.91517699993</v>
       </c>
       <c r="Q67" s="115">
-        <v>9193.69</v>
+        <v>8907.65</v>
       </c>
       <c r="R67" s="127">
-        <f t="shared" si="31"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S67" s="127"/>
+        <f t="shared" si="39"/>
+        <v>-2.1273848882702007E-2</v>
+      </c>
+      <c r="S67" s="116"/>
+      <c r="U67" s="116"/>
+      <c r="V67" s="116"/>
+      <c r="W67" s="116"/>
+      <c r="X67" s="116"/>
+      <c r="Y67" s="116"/>
+      <c r="Z67" s="116"/>
+      <c r="AA67" s="116"/>
+      <c r="AB67" s="133"/>
+      <c r="AC67" s="134"/>
       <c r="AD67">
-        <f>AD68</f>
+        <f>AD69</f>
         <v>36</v>
       </c>
       <c r="AE67">
-        <v>28.66</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF67">
-        <f>AF68</f>
+        <f>AF69</f>
         <v>57</v>
       </c>
       <c r="AG67">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH67">
-        <f>AH68</f>
+        <f>AH69</f>
         <v>12</v>
       </c>
       <c r="AI67">
-        <v>21.38</v>
+        <v>25.84</v>
       </c>
       <c r="AJ67">
+        <f>AJ69</f>
         <v>15</v>
       </c>
       <c r="AK67">
-        <v>39.24</v>
-      </c>
-      <c r="AM67" s="129">
-        <f>AM66</f>
+        <v>47.46</v>
+      </c>
+      <c r="AL67">
+        <v>68</v>
+      </c>
+      <c r="AM67">
         <v>11.33</v>
       </c>
     </row>
     <row r="68" spans="1:39">
       <c r="A68" s="117">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B68">
+        <f>B69</f>
         <v>1110</v>
       </c>
       <c r="C68">
         <v>30.7361</v>
       </c>
       <c r="D68">
+        <f>D69</f>
         <v>321.99</v>
       </c>
       <c r="E68">
@@ -10826,61 +10844,81 @@
         <v>2018.91</v>
       </c>
       <c r="L68">
+        <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M68">
-        <v>1.067704</v>
+        <v>1.034036</v>
       </c>
       <c r="N68" s="113">
-        <f t="shared" si="29"/>
-        <v>503322.92414299998</v>
+        <f t="shared" si="37"/>
+        <v>499114.42414299998</v>
       </c>
       <c r="Q68" s="115">
-        <v>9062.36</v>
+        <v>9097.15</v>
       </c>
       <c r="R68" s="127">
-        <f t="shared" si="31"/>
-        <v>-1.292378585710563E-2</v>
-      </c>
-      <c r="S68" s="127"/>
+        <f t="shared" si="39"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S68" s="116"/>
+      <c r="U68" s="116"/>
+      <c r="V68" s="116"/>
+      <c r="W68" s="116"/>
+      <c r="X68" s="116"/>
+      <c r="Y68" s="116"/>
+      <c r="Z68" s="116"/>
+      <c r="AA68" s="116"/>
+      <c r="AB68" s="133"/>
+      <c r="AC68" s="134"/>
       <c r="AD68">
         <f>AD69</f>
         <v>36</v>
       </c>
       <c r="AE68">
-        <v>26.06</v>
+        <v>31.52</v>
       </c>
       <c r="AF68">
+        <f>AF69</f>
         <v>57</v>
       </c>
       <c r="AG68">
         <v>576.58807100000001</v>
       </c>
       <c r="AH68">
+        <f>AH69</f>
         <v>12</v>
       </c>
       <c r="AI68">
-        <v>19.45</v>
-      </c>
-      <c r="AK68" s="129">
-        <f>AK67</f>
-        <v>39.24</v>
-      </c>
-      <c r="AM68" s="129" t="s">
-        <v>69</v>
+        <v>23.5</v>
+      </c>
+      <c r="AJ68">
+        <f>AJ69</f>
+        <v>15</v>
+      </c>
+      <c r="AK68">
+        <v>43.16</v>
+      </c>
+      <c r="AL68">
+        <v>68</v>
+      </c>
+      <c r="AM68">
+        <v>11.33</v>
       </c>
     </row>
     <row r="69" spans="1:39">
       <c r="A69" s="117">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B69">
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C69">
         <v>30.7361</v>
       </c>
       <c r="D69">
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E69">
@@ -10892,50 +10930,60 @@
       <c r="G69">
         <v>2018.91</v>
       </c>
-      <c r="L69" s="199">
-        <v>75000</v>
+      <c r="L69">
+        <f>L70</f>
+        <v>125000</v>
       </c>
       <c r="M69">
-        <v>1.064435</v>
+        <v>1.010337</v>
       </c>
       <c r="N69" s="113">
-        <f t="shared" si="29"/>
-        <v>449692.54914299998</v>
+        <f t="shared" si="37"/>
+        <v>496152.04914299998</v>
       </c>
       <c r="Q69" s="115">
-        <v>9179.48</v>
+        <v>9193.69</v>
       </c>
       <c r="R69" s="127">
-        <f t="shared" si="31"/>
-        <v>-1.6847359545420826E-2</v>
+        <f t="shared" si="39"/>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S69" s="127"/>
       <c r="AD69">
+        <f>AD70</f>
         <v>36</v>
       </c>
       <c r="AE69">
-        <v>23.7</v>
+        <v>28.66</v>
       </c>
       <c r="AF69">
+        <f>AF70</f>
         <v>57</v>
       </c>
       <c r="AG69">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI69" s="129">
-        <f>AI68</f>
-        <v>19.45</v>
-      </c>
-      <c r="AK69" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM69" s="130" t="s">
-        <v>68</v>
+      <c r="AH69">
+        <f>AH70</f>
+        <v>12</v>
+      </c>
+      <c r="AI69">
+        <v>21.38</v>
+      </c>
+      <c r="AJ69">
+        <v>15</v>
+      </c>
+      <c r="AK69">
+        <v>39.24</v>
+      </c>
+      <c r="AM69" s="129">
+        <f>AM68</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="70" spans="1:39">
       <c r="A70" s="117">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B70">
         <v>1110</v>
@@ -10956,29 +11004,29 @@
         <v>2018.91</v>
       </c>
       <c r="L70">
-        <f>L71</f>
-        <v>50000</v>
+        <v>125000</v>
       </c>
       <c r="M70">
-        <v>1.0192399999999999</v>
+        <v>1.067704</v>
       </c>
       <c r="N70" s="113">
-        <f t="shared" si="29"/>
-        <v>420821.92414299998</v>
+        <f t="shared" si="37"/>
+        <v>503322.92414299998</v>
       </c>
       <c r="Q70" s="115">
-        <v>9334.1299999999992</v>
+        <v>9062.36</v>
       </c>
       <c r="R70" s="127">
-        <f t="shared" si="31"/>
-        <v>-4.2928478604864484E-3</v>
+        <f t="shared" si="39"/>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S70" s="127"/>
       <c r="AD70">
+        <f>AD71</f>
         <v>36</v>
       </c>
       <c r="AE70">
-        <v>21.56</v>
+        <v>26.06</v>
       </c>
       <c r="AF70">
         <v>57</v>
@@ -10986,20 +11034,23 @@
       <c r="AG70">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI70" s="129" t="s">
+      <c r="AH70">
+        <v>12</v>
+      </c>
+      <c r="AI70">
+        <v>19.45</v>
+      </c>
+      <c r="AK70" s="129">
+        <f>AK69</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM70" s="129" t="s">
         <v>69</v>
-      </c>
-      <c r="AK70" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM70" s="130">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:39">
       <c r="A71" s="117">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B71">
         <v>1110</v>
@@ -11019,29 +11070,29 @@
       <c r="G71">
         <v>2018.91</v>
       </c>
-      <c r="L71">
-        <v>50000</v>
+      <c r="L71" s="199">
+        <v>75000</v>
       </c>
       <c r="M71">
-        <v>1.0032049999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N71" s="113">
-        <f t="shared" si="29"/>
-        <v>420020.17414299998</v>
+        <f t="shared" si="37"/>
+        <v>449692.54914299998</v>
       </c>
       <c r="Q71" s="115">
-        <v>9374.2000000000007</v>
+        <v>9179.48</v>
       </c>
       <c r="R71" s="127">
-        <f t="shared" si="31"/>
-        <v>2.8834460540633211E-3</v>
+        <f t="shared" si="39"/>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S71" s="127"/>
       <c r="AD71">
         <v>36</v>
       </c>
       <c r="AE71">
-        <v>19.600000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="AF71">
         <v>57</v>
@@ -11049,132 +11100,259 @@
       <c r="AG71">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI71" s="130" t="s">
+      <c r="AI71" s="129">
+        <f>AI70</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK71" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM71" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="AK71" s="130">
-        <v>55.5</v>
-      </c>
-      <c r="AM71" s="116">
-        <f>(AM70-AM66)/AM66</f>
-        <v>0.73786407766990303</v>
-      </c>
     </row>
     <row r="72" spans="1:39">
-      <c r="A72" s="198">
-        <v>45344</v>
-      </c>
-      <c r="L72" s="199">
+      <c r="A72" s="117">
+        <v>45348</v>
+      </c>
+      <c r="B72">
+        <v>1110</v>
+      </c>
+      <c r="C72">
+        <v>30.7361</v>
+      </c>
+      <c r="D72">
+        <v>321.99</v>
+      </c>
+      <c r="E72">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F72" s="112">
+        <v>161</v>
+      </c>
+      <c r="G72">
+        <v>2018.91</v>
+      </c>
+      <c r="L72">
+        <f>L73</f>
         <v>50000</v>
       </c>
       <c r="M72">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N72" s="113">
-        <f t="shared" si="29"/>
-        <v>50160.249999999993</v>
+        <f t="shared" si="37"/>
+        <v>420821.92414299998</v>
       </c>
       <c r="Q72" s="115">
-        <v>9347.17</v>
-      </c>
+        <v>9334.1299999999992</v>
+      </c>
+      <c r="R72" s="127">
+        <f t="shared" si="39"/>
+        <v>-4.2928478604864484E-3</v>
+      </c>
+      <c r="S72" s="127"/>
       <c r="AD72">
         <v>36</v>
       </c>
       <c r="AE72">
-        <v>17.82</v>
-      </c>
-      <c r="AI72" s="130">
-        <v>45.72</v>
-      </c>
-      <c r="AK72" s="116">
-        <f>(AK71-AK67)/AK67</f>
-        <v>0.41437308868501521</v>
+        <v>21.56</v>
+      </c>
+      <c r="AF72">
+        <v>57</v>
+      </c>
+      <c r="AG72">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI72" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK72" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM72" s="130">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:39">
+      <c r="A73" s="117">
+        <v>45345</v>
+      </c>
+      <c r="B73">
+        <v>1110</v>
+      </c>
+      <c r="C73">
+        <v>30.7361</v>
+      </c>
+      <c r="D73">
+        <v>321.99</v>
+      </c>
+      <c r="E73">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F73" s="112">
+        <v>161</v>
+      </c>
+      <c r="G73">
+        <v>2018.91</v>
+      </c>
+      <c r="L73">
+        <v>50000</v>
+      </c>
       <c r="M73">
-        <v>0.93849000000000005</v>
-      </c>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N73" s="113">
+        <f t="shared" si="37"/>
+        <v>420020.17414299998</v>
+      </c>
+      <c r="Q73" s="115">
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R73" s="127">
+        <f t="shared" si="39"/>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S73" s="127"/>
       <c r="AD73">
         <v>36</v>
       </c>
-      <c r="AE73" s="129">
-        <v>15.3</v>
-      </c>
-      <c r="AI73" s="116">
-        <f>(AI72-AI68)/AI68</f>
-        <v>1.3506426735218509</v>
-      </c>
-      <c r="AM73" s="132">
-        <f>(AL66*AM70)-(AL54*AM66)</f>
-        <v>568.48</v>
+      <c r="AE73">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF73">
+        <v>57</v>
+      </c>
+      <c r="AG73">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI73" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK73" s="130">
+        <v>55.5</v>
+      </c>
+      <c r="AM73" s="116">
+        <f>(AM72-AM68)/AM68</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="74" spans="1:39">
+      <c r="A74" s="198">
+        <v>45344</v>
+      </c>
+      <c r="L74" s="199">
+        <v>50000</v>
+      </c>
       <c r="M74">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="R74" s="136">
-        <f>SUM(R10:R73)</f>
-        <v>0.17861903919377498</v>
-      </c>
-      <c r="S74" s="136"/>
-      <c r="AE74" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ74" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK74" s="132">
-        <f>(AJ67*AK71)-(AJ10*AK67)</f>
-        <v>832.5</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N74" s="113">
+        <f t="shared" si="37"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q74" s="115">
+        <v>9347.17</v>
+      </c>
+      <c r="AD74">
+        <v>36</v>
+      </c>
+      <c r="AE74">
+        <v>17.82</v>
+      </c>
+      <c r="AI74" s="130">
+        <v>45.72</v>
+      </c>
+      <c r="AK74" s="116">
+        <f>(AK73-AK69)/AK69</f>
+        <v>0.41437308868501521</v>
       </c>
     </row>
     <row r="75" spans="1:39">
       <c r="M75">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="AE75" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH75" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI75" s="132">
-        <f>(AH68*AI72)-(AH10*AI68)</f>
-        <v>548.64</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD75">
+        <v>36</v>
+      </c>
+      <c r="AE75" s="129">
+        <v>15.3</v>
+      </c>
+      <c r="AI75" s="116">
+        <f>(AI74-AI70)/AI70</f>
+        <v>1.3506426735218509</v>
+      </c>
+      <c r="AM75" s="132">
+        <f>(AL68*AM72)-(AL56*AM68)</f>
+        <v>568.48</v>
       </c>
     </row>
     <row r="76" spans="1:39">
       <c r="M76">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="AD76" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE76" s="130">
-        <v>38</v>
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="R76" s="136">
+        <f>SUM(R10:R75)</f>
+        <v>0.16013977335880647</v>
+      </c>
+      <c r="S76" s="136"/>
+      <c r="AE76" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ76" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK76" s="132">
+        <f>(AJ69*AK73)-(AJ10*AK69)</f>
+        <v>832.5</v>
       </c>
     </row>
     <row r="77" spans="1:39">
       <c r="M77">
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="AE77" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH77" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI77" s="132">
+        <f>(AH70*AI74)-(AH10*AI70)</f>
+        <v>548.64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39">
+      <c r="M78">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE78" s="130">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39">
+      <c r="M79">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE77" s="116">
+      <c r="AE79" s="116">
         <f>Sayfa2!M59</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
-      <c r="M78">
+    <row r="80" spans="1:39">
+      <c r="M80">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
-      <c r="AD79" s="132" t="s">
+    <row r="81" spans="30:31">
+      <c r="AD81" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AE79" s="132">
+      <c r="AE81" s="132">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC521A8B-2DFB-4DC3-B1FB-1F2FA0067AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B4C660-65C2-49B1-821B-499D08BD8F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2034,11 +2034,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>251812.547356</v>
+        <v>255107.37235600001</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2047,11 +2047,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1673</v>
+        <v>1678</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>150.51556925044829</v>
+        <v>152.03061523003575</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2084,24 +2084,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I36)</f>
-        <v>790587.3618999999</v>
+        <v>793882.18689999997</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K37)</f>
-        <v>226736.00946499998</v>
+        <v>230030.83446499999</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.41103897552382446</v>
+        <v>0.41701200775512226</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-0.13124068588013549</v>
+        <v>-0.12845456184939683</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-4.8757159394300427E-2</v>
+        <v>-4.5041240357979323E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2256,7 +2256,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O37)</f>
-        <v>226736.00946499998</v>
+        <v>230030.83446499999</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2286,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>21.64</v>
+        <v>21.38</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>865.6</v>
+        <v>855.19999999999993</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-8.86</v>
+        <v>-9.120000000000001</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-354.4</v>
+        <v>-364.80000000000007</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M15" s="116">
         <f>K15/E15</f>
-        <v>-0.29049180327868851</v>
+        <v>-0.29901639344262299</v>
       </c>
       <c r="N15" s="116">
         <f>M15/L15*30</f>
-        <v>-0.13616803278688525</v>
+        <v>-0.1300071275837491</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2340,31 +2340,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>26.1</v>
+        <v>25.86</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>913.5</v>
+        <v>905.1</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-11.29</v>
+        <v>-11.530000000000001</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-395.15</v>
+        <v>-403.55000000000007</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M16" s="116">
         <f>K16/E16</f>
-        <v>-0.30195239368815185</v>
+        <v>-0.30837122225193903</v>
       </c>
       <c r="N16" s="116">
         <f>M16/L16*30</f>
-        <v>-0.14154018454132117</v>
+        <v>-0.1340744444573648</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2394,31 +2394,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>124.2</v>
+        <v>122.5</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1242</v>
+        <v>1225</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-10.799999999999997</v>
+        <v>-12.5</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-107.99999999999997</v>
+        <v>-125</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M17" s="116">
         <f>K17/E17</f>
-        <v>-7.9999999999999974E-2</v>
+        <v>-9.2592592592592587E-2</v>
       </c>
       <c r="N17" s="116">
         <f>M17/L17*30</f>
-        <v>-3.3333333333333319E-2</v>
+        <v>-3.6075036075036072E-2</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F19" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G19" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="L19" s="66">
         <f>F19-B19</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M19" s="116">
         <f>K19/E19</f>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="N19" s="116">
         <f>M19/L19*30</f>
-        <v>1.1703456935687978E-2</v>
+        <v>1.0276206089872369E-2</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2507,31 +2507,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.22</v>
+        <v>24.46</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>60550</v>
+        <v>61150</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>-0.49000000000000199</v>
+        <v>-0.25</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>-1225.000000000005</v>
+        <v>-625</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M21" s="116">
         <f>K21/E21</f>
-        <v>-1.9830028328611977E-2</v>
+        <v>-1.0117361392148928E-2</v>
       </c>
       <c r="N21" s="116">
         <f>M21/L21*30</f>
-        <v>-9.2953257790368646E-3</v>
+        <v>-4.3988527791951866E-3</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2588,31 +2588,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.22</v>
+        <v>24.46</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>60550</v>
+        <v>61150</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>-0.69000000000000128</v>
+        <v>-0.44999999999999929</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>-1725.0000000000032</v>
+        <v>-1124.9999999999982</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>-2.769971898835814E-2</v>
+        <v>-1.8065034122842202E-2</v>
       </c>
       <c r="N23" s="116">
         <f>M23/L23*30</f>
-        <v>-1.2784485686934527E-2</v>
+        <v>-7.7421574812180857E-3</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2669,31 +2669,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.22</v>
+        <v>24.46</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>60550</v>
+        <v>61150</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-0.90000000000000213</v>
+        <v>-0.66000000000000014</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-2250.0000000000055</v>
+        <v>-1650.0000000000005</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-3.5828025477707096E-2</v>
+        <v>-2.6273885350318479E-2</v>
       </c>
       <c r="N25" s="116">
         <f>M25/L25*30</f>
-        <v>-1.5806481828400186E-2</v>
+        <v>-1.0797487130267869E-2</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2750,31 +2750,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.80597799999999997</v>
+        <v>0.81822300000000003</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>60448.35</v>
+        <v>61366.725000000006</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.25845700000000005</v>
+        <v>-0.24621199999999999</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-19384.275000000005</v>
+        <v>-18465.899999999998</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.24281144456918466</v>
+        <v>-0.23130768905569618</v>
       </c>
       <c r="N27" s="116">
         <f>M27/L27*30</f>
-        <v>-5.6908932320902654E-2</v>
+        <v>-5.2174666704292369E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2805,35 +2805,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.80597799999999997</v>
+        <v>0.81822300000000003</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>40298.9</v>
+        <v>40911.15</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.19722699999999993</v>
+        <v>-0.18498199999999987</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-9861.3499999999967</v>
+        <v>-9249.0999999999931</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.19659690691334269</v>
+        <v>-0.18439102675923655</v>
       </c>
       <c r="N28" s="116">
         <f>M28/L28*30</f>
-        <v>-4.4681115207577886E-2</v>
+        <v>-4.0377597100562747E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-34468.393535000017</v>
+        <v>-31173.568534999991</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2872,13 +2872,13 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F46" si="0">$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
-        <f>Sayfa4!G10</f>
+        <f>Sayfa4!G11</f>
         <v>2368.4299999999998</v>
       </c>
       <c r="I30" s="51">
@@ -2895,7 +2895,7 @@
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L36" si="2">F30-B30</f>
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M36" si="3">K30/E30</f>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="N30" s="116">
         <f t="shared" ref="N30:N36" si="4">M30/L30*30</f>
-        <v>3.4632231246418829E-2</v>
+        <v>3.3971310802784885E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1232</v>
+        <v>1237</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="N31" s="116">
         <f t="shared" si="4"/>
-        <v>0.11907836940478071</v>
+        <v>0.11859705020750998</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="N32" s="116">
         <f t="shared" si="4"/>
-        <v>8.7316061555026359E-2</v>
+        <v>8.7003548807871631E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
@@ -3099,7 +3099,7 @@
       </c>
       <c r="N33" s="116">
         <f t="shared" si="4"/>
-        <v>0.1014354390451622</v>
+        <v>0.1010882951743711</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3150,7 +3150,7 @@
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1673</v>
+        <v>1678</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="N34" s="116">
         <f t="shared" si="4"/>
-        <v>0.13717698537166084</v>
+        <v>0.13676823392538057</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1673</v>
+        <v>1678</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="N35" s="116">
         <f t="shared" si="4"/>
-        <v>0.16082293991867477</v>
+        <v>0.1603437297282139</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
@@ -3244,7 +3244,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="N36" s="116">
         <f t="shared" si="4"/>
-        <v>4.7727350427350435E-2</v>
+        <v>4.7389816124469596E-2</v>
       </c>
       <c r="O36" s="70">
         <f>SUM(K30:K36)</f>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="F44" s="62">
         <f t="shared" si="0"/>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G44" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="L44" s="66">
         <f t="shared" ref="L44" si="6">F44-B44</f>
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="M44" s="67">
         <f t="shared" ref="M44" si="7">K44/E44</f>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="N44" s="116">
         <f t="shared" ref="N44" si="8">M44/L44*30</f>
-        <v>3.7695014457042118E-2</v>
+        <v>3.7424605458067646E-2</v>
       </c>
       <c r="O44" s="70"/>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="F45" s="62">
         <f t="shared" si="0"/>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G45" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="L45" s="66">
         <f>F45-B45</f>
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="M45" s="67">
         <f>K45/E45</f>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="N45" s="116">
         <f>M45/L45*30</f>
-        <v>3.8861868557254889E-2</v>
+        <v>3.858308901236783E-2</v>
       </c>
       <c r="O45" s="70"/>
     </row>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="F46" s="62">
         <f t="shared" si="0"/>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G46" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="L46" s="66">
         <f>F46-B46</f>
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="M46" s="67">
         <f>K46/E46</f>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="F73" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G73" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -4562,7 +4562,7 @@
       </c>
       <c r="L73" s="66">
         <f>F73-B73</f>
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="M73" s="116">
         <f>K73/E73</f>
@@ -4570,7 +4570,7 @@
       </c>
       <c r="N73" s="116">
         <f>M73/L73*30</f>
-        <v>1.1703456935687978E-2</v>
+        <v>1.0276206089872369E-2</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="F74" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G74" s="63">
         <v>3</v>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="L74" s="66">
         <f>F74-B74</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M74" s="116">
         <f>K74/E74</f>
@@ -4622,7 +4622,7 @@
       </c>
       <c r="N74" s="116">
         <f>M74/L74*30</f>
-        <v>2.5214416090651486E-2</v>
+        <v>2.3387284489879642E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="F75" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G75" s="63">
         <v>12</v>
@@ -4666,7 +4666,7 @@
       </c>
       <c r="L75" s="66">
         <f>F75-B75</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M75" s="116">
         <f>K75/E75</f>
@@ -4674,7 +4674,7 @@
       </c>
       <c r="N75" s="116">
         <f>M75/L75*30</f>
-        <v>2.3153452872922309E-2</v>
+        <v>2.1475666432855471E-2</v>
       </c>
       <c r="O75" s="102"/>
     </row>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="F76" s="62">
         <f>$B$2</f>
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="G76" s="63">
         <v>15</v>
@@ -4719,7 +4719,7 @@
       </c>
       <c r="L76" s="66">
         <f>F76-B76</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M76" s="116">
         <f>K76/E76</f>
@@ -4727,7 +4727,7 @@
       </c>
       <c r="N76" s="116">
         <f>M76/L76*30</f>
-        <v>2.3153452872922309E-2</v>
+        <v>2.1475666432855471E-2</v>
       </c>
       <c r="O76" s="102"/>
     </row>
@@ -5930,12 +5930,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM81"/>
+  <dimension ref="A4:AM82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="M17" sqref="M17"/>
+      <selection pane="topRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5986,71 +5986,71 @@
     </row>
     <row r="5" spans="1:39">
       <c r="A5" s="117">
-        <f>A10</f>
-        <v>45475</v>
+        <f>A11</f>
+        <v>45481</v>
       </c>
       <c r="C5">
-        <f>C10</f>
+        <f>C11</f>
         <v>31.752300000000002</v>
       </c>
       <c r="E5">
-        <f>E10</f>
+        <f>E11</f>
         <v>34.092399999999998</v>
       </c>
       <c r="G5">
-        <f>G10</f>
+        <f>G11</f>
         <v>2368.4299999999998</v>
       </c>
       <c r="I5">
-        <f>I10</f>
-        <v>24.22</v>
+        <f>I11</f>
+        <v>24.46</v>
       </c>
       <c r="K5">
-        <f>K10</f>
-        <v>679.37461900000005</v>
+        <f>K11</f>
+        <v>684.04080099999999</v>
       </c>
       <c r="M5">
-        <f>M10</f>
-        <v>0.80597799999999997</v>
+        <f>M11</f>
+        <v>0.81822300000000003</v>
       </c>
       <c r="O5" s="115">
         <f>Sayfa2!D3</f>
-        <v>150.51556925044829</v>
+        <v>152.03061523003575</v>
       </c>
       <c r="P5" s="118">
         <f>Sayfa2!K2</f>
-        <v>251812.547356</v>
+        <v>255107.37235600001</v>
       </c>
       <c r="Y5" s="115">
-        <f>Y10</f>
-        <v>26.1</v>
+        <f>Y11</f>
+        <v>25.86</v>
       </c>
       <c r="AA5" s="115">
-        <f>AA10</f>
-        <v>21.64</v>
+        <f>AA11</f>
+        <v>21.38</v>
       </c>
       <c r="AC5" s="115">
-        <f>AC10</f>
-        <v>124.2</v>
+        <f>AC11</f>
+        <v>122.5</v>
       </c>
       <c r="AE5">
-        <f>AE10</f>
+        <f>AE11</f>
         <v>0</v>
       </c>
       <c r="AG5">
-        <f>AG10</f>
+        <f>AG11</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>AI10</f>
+        <f>AI11</f>
         <v>0</v>
       </c>
       <c r="AK5">
-        <f>AK10</f>
+        <f>AK11</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM56</f>
+        <f>AM57</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -6137,98 +6137,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
-      <c r="A10" s="117">
-        <v>45475</v>
-      </c>
-      <c r="B10">
-        <f>B68</f>
-        <v>1110</v>
-      </c>
-      <c r="C10">
-        <v>31.752300000000002</v>
-      </c>
-      <c r="D10">
-        <f>D68</f>
-        <v>321.99</v>
-      </c>
-      <c r="E10">
-        <v>34.092399999999998</v>
-      </c>
-      <c r="F10" s="112">
-        <v>156</v>
-      </c>
-      <c r="G10">
-        <v>2368.4299999999998</v>
-      </c>
-      <c r="H10" s="199">
-        <v>7500</v>
-      </c>
-      <c r="I10" s="199">
-        <v>24.22</v>
-      </c>
-      <c r="J10">
-        <v>210</v>
-      </c>
-      <c r="K10" s="137">
-        <v>679.37461900000005</v>
-      </c>
-      <c r="L10">
-        <f>L68</f>
-        <v>125000</v>
-      </c>
-      <c r="M10">
-        <v>0.80597799999999997</v>
-      </c>
-      <c r="N10" s="113">
-        <f t="shared" ref="N10:N29" si="0">(F10*G10)+(B10*C10)+(D10*E10)+(L10*M10)+(H10*I10)+(J10*K10)</f>
-        <v>840763.46486599999</v>
-      </c>
-      <c r="O10">
-        <v>150.52000000000001</v>
-      </c>
-      <c r="P10">
-        <v>251812.55</v>
-      </c>
-      <c r="Q10" s="115">
-        <v>10446.24</v>
-      </c>
-      <c r="R10" s="127">
-        <f>(1-(Q15/Q10))</f>
-        <v>-2.4008638514909642E-3</v>
-      </c>
-      <c r="S10" s="116">
-        <f t="shared" ref="S10:S17" si="1">(N10/$N$62)-1</f>
-        <v>0.58501575137766459</v>
-      </c>
-      <c r="T10" s="114">
-        <f t="shared" ref="T10:T17" si="2">(A10-$A$62)</f>
-        <v>113</v>
-      </c>
-      <c r="U10" s="116">
-        <f>((N10/$N$62)-1)/T10*30</f>
-        <v>0.15531391629495522</v>
-      </c>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="134"/>
-      <c r="Y10" s="134">
-        <v>26.1</v>
-      </c>
-      <c r="Z10" s="134"/>
-      <c r="AA10" s="134">
-        <v>21.64</v>
-      </c>
-      <c r="AB10">
-        <v>10</v>
-      </c>
-      <c r="AC10" s="115">
-        <v>124.2</v>
-      </c>
-    </row>
     <row r="11" spans="1:39">
       <c r="A11" s="117">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="B11">
         <f>B69</f>
@@ -6254,169 +6165,169 @@
         <v>7500</v>
       </c>
       <c r="I11" s="199">
-        <v>24.22</v>
+        <v>24.46</v>
       </c>
       <c r="J11">
         <v>210</v>
       </c>
       <c r="K11" s="137">
-        <v>679.37461900000005</v>
+        <v>684.04080099999999</v>
       </c>
       <c r="L11">
         <f>L69</f>
         <v>125000</v>
       </c>
       <c r="M11">
-        <v>0.80597799999999997</v>
+        <v>0.81822300000000003</v>
       </c>
       <c r="N11" s="113">
-        <f t="shared" ref="N11" si="3">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
-        <v>840763.46486599999</v>
+        <f t="shared" ref="N11:N30" si="0">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
+        <v>845073.98808599985</v>
       </c>
       <c r="O11">
-        <v>150.52000000000001</v>
+        <v>152.03</v>
       </c>
       <c r="P11">
-        <v>251812.55</v>
+        <v>255107.37</v>
       </c>
       <c r="Q11" s="115">
         <v>10446.24</v>
       </c>
       <c r="R11" s="127">
         <f>(1-(Q16/Q11))</f>
-        <v>5.2028289604680866E-3</v>
+        <v>-2.4008638514909642E-3</v>
       </c>
       <c r="S11" s="116">
-        <f t="shared" ref="S11" si="4">(N11/$N$62)-1</f>
-        <v>0.58501575137766459</v>
+        <f>(N11/$N$63)-1</f>
+        <v>0.59314199316371541</v>
       </c>
       <c r="T11" s="114">
-        <f t="shared" ref="T11" si="5">(A11-$A$62)</f>
-        <v>113</v>
+        <f>(A11-$A$63)</f>
+        <v>119</v>
       </c>
       <c r="U11" s="116">
-        <f>((N11/$N$62)-1)/T11*30</f>
-        <v>0.15531391629495522</v>
+        <f>((N11/$N$63)-1)/T11*30</f>
+        <v>0.14953159491522239</v>
       </c>
       <c r="V11" s="116"/>
       <c r="W11" s="116"/>
       <c r="X11" s="134"/>
       <c r="Y11" s="134">
-        <v>26.1</v>
+        <v>25.86</v>
       </c>
       <c r="Z11" s="134"/>
       <c r="AA11" s="134">
-        <v>21.64</v>
+        <v>21.38</v>
       </c>
       <c r="AB11">
         <v>10</v>
       </c>
       <c r="AC11" s="115">
-        <v>124.2</v>
+        <v>122.5</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="117">
-        <v>45474</v>
+        <v>45475</v>
       </c>
       <c r="B12">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C12">
-        <v>31.954699999999999</v>
+        <v>31.752300000000002</v>
       </c>
       <c r="D12">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E12">
-        <v>34.421599999999998</v>
+        <v>34.092399999999998</v>
       </c>
       <c r="F12" s="112">
         <v>156</v>
       </c>
       <c r="G12">
-        <v>2375.65</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="H12" s="199">
         <v>7500</v>
       </c>
       <c r="I12" s="199">
-        <v>24.5</v>
+        <v>24.22</v>
       </c>
       <c r="J12">
         <v>210</v>
       </c>
       <c r="K12" s="137">
-        <v>677.53942199999995</v>
+        <v>679.37461900000005</v>
       </c>
       <c r="L12">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M12">
-        <v>0.83506999999999998</v>
+        <v>0.80597799999999997</v>
       </c>
       <c r="N12" s="113">
-        <f t="shared" ref="N12" si="6">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
-        <v>847571.55660400004</v>
+        <f t="shared" ref="N12" si="1">(F12*G12)+(B12*C12)+(D12*E12)+(L12*M12)+(H12*I12)+(J12*K12)</f>
+        <v>840763.46486599999</v>
       </c>
       <c r="O12">
-        <v>154.99</v>
+        <v>150.52000000000001</v>
       </c>
       <c r="P12">
-        <v>258981.23</v>
+        <v>251812.55</v>
       </c>
       <c r="Q12" s="115">
-        <v>10343.31</v>
+        <v>10446.24</v>
       </c>
       <c r="R12" s="127">
-        <f>(1-(Q16/Q12))</f>
-        <v>-4.6967556807249178E-3</v>
+        <f>(1-(Q17/Q12))</f>
+        <v>5.2028289604680866E-3</v>
       </c>
       <c r="S12" s="116">
-        <f t="shared" ref="S12" si="7">(N12/$N$62)-1</f>
-        <v>0.59785043448710962</v>
+        <f t="shared" ref="S12" si="2">(N12/$N$63)-1</f>
+        <v>0.58501575137766459</v>
       </c>
       <c r="T12" s="114">
-        <f t="shared" ref="T12" si="8">(A12-$A$62)</f>
-        <v>112</v>
+        <f t="shared" ref="T12" si="3">(A12-$A$63)</f>
+        <v>113</v>
       </c>
       <c r="U12" s="116">
-        <f>((N12/$N$62)-1)/T12*30</f>
-        <v>0.16013850923761863</v>
+        <f>((N12/$N$63)-1)/T12*30</f>
+        <v>0.15531391629495522</v>
       </c>
       <c r="V12" s="116"/>
       <c r="W12" s="116"/>
       <c r="X12" s="134"/>
       <c r="Y12" s="134">
-        <v>27.26</v>
+        <v>26.1</v>
       </c>
       <c r="Z12" s="134"/>
       <c r="AA12" s="134">
-        <v>22.78</v>
+        <v>21.64</v>
       </c>
       <c r="AB12">
         <v>10</v>
       </c>
       <c r="AC12" s="115">
-        <v>123.7</v>
+        <v>124.2</v>
       </c>
     </row>
     <row r="13" spans="1:39">
       <c r="A13" s="117">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="B13">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C13">
         <v>31.954699999999999</v>
       </c>
       <c r="D13">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E13">
@@ -6441,14 +6352,14 @@
         <v>677.53942199999995</v>
       </c>
       <c r="L13">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M13">
         <v>0.83506999999999998</v>
       </c>
       <c r="N13" s="113">
-        <f t="shared" ref="N13" si="9">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
+        <f t="shared" ref="N13" si="4">(F13*G13)+(B13*C13)+(D13*E13)+(L13*M13)+(H13*I13)+(J13*K13)</f>
         <v>847571.55660400004</v>
       </c>
       <c r="O13">
@@ -6458,23 +6369,23 @@
         <v>258981.23</v>
       </c>
       <c r="Q13" s="115">
-        <v>10647.91</v>
+        <v>10343.31</v>
       </c>
       <c r="R13" s="127">
-        <f>(1-(Q16/Q13))</f>
-        <v>2.4044155144061219E-2</v>
+        <f>(1-(Q17/Q13))</f>
+        <v>-4.6967556807249178E-3</v>
       </c>
       <c r="S13" s="116">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S13" si="5">(N13/$N$63)-1</f>
         <v>0.59785043448710962</v>
       </c>
       <c r="T13" s="114">
-        <f t="shared" si="2"/>
-        <v>109</v>
+        <f t="shared" ref="T13" si="6">(A13-$A$63)</f>
+        <v>112</v>
       </c>
       <c r="U13" s="116">
-        <f>((N13/$N$62)-1)/T13*30</f>
-        <v>0.1645459911432412</v>
+        <f>((N13/$N$63)-1)/T13*30</f>
+        <v>0.16013850923761863</v>
       </c>
       <c r="V13" s="116"/>
       <c r="W13" s="116"/>
@@ -6495,195 +6406,195 @@
     </row>
     <row r="14" spans="1:39">
       <c r="A14" s="117">
-        <v>45463</v>
+        <v>45471</v>
       </c>
       <c r="B14">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C14">
-        <v>32.073999999999998</v>
+        <v>31.954699999999999</v>
       </c>
       <c r="D14">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E14">
-        <v>34.383299999999998</v>
+        <v>34.421599999999998</v>
       </c>
       <c r="F14" s="112">
         <v>156</v>
       </c>
       <c r="G14">
-        <v>2381.35</v>
+        <v>2375.65</v>
       </c>
       <c r="H14" s="199">
         <v>7500</v>
       </c>
       <c r="I14" s="199">
-        <v>24.38</v>
+        <v>24.5</v>
       </c>
       <c r="J14">
         <v>210</v>
       </c>
       <c r="K14" s="137">
-        <v>667.64119100000005</v>
+        <v>677.53942199999995</v>
       </c>
       <c r="L14">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M14">
-        <v>0.82515799999999995</v>
+        <v>0.83506999999999998</v>
       </c>
       <c r="N14" s="113">
-        <f t="shared" ref="N14" si="10">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
-        <v>844363.21887700004</v>
+        <f t="shared" ref="N14" si="7">(F14*G14)+(B14*C14)+(D14*E14)+(L14*M14)+(H14*I14)+(J14*K14)</f>
+        <v>847571.55660400004</v>
       </c>
       <c r="O14">
-        <v>155.46</v>
+        <v>154.99</v>
       </c>
       <c r="P14">
-        <v>258068.35</v>
+        <v>258981.23</v>
       </c>
       <c r="Q14" s="115">
-        <v>10739.94</v>
+        <v>10647.91</v>
       </c>
       <c r="R14" s="127">
-        <f>(1-(Q16/Q14))</f>
-        <v>3.240707117544428E-2</v>
+        <f>(1-(Q17/Q14))</f>
+        <v>2.4044155144061219E-2</v>
       </c>
       <c r="S14" s="116">
-        <f t="shared" si="1"/>
-        <v>0.59180204389268165</v>
+        <f>(N14/$N$63)-1</f>
+        <v>0.59785043448710962</v>
       </c>
       <c r="T14" s="114">
-        <f t="shared" si="2"/>
-        <v>101</v>
+        <f>(A14-$A$63)</f>
+        <v>109</v>
       </c>
       <c r="U14" s="116">
-        <f>((N14/$N$62)-1)/T14*30</f>
-        <v>0.17578278531465791</v>
+        <f>((N14/$N$63)-1)/T14*30</f>
+        <v>0.1645459911432412</v>
       </c>
       <c r="V14" s="116"/>
       <c r="W14" s="116"/>
       <c r="X14" s="134"/>
       <c r="Y14" s="134">
-        <v>28.88</v>
+        <v>27.26</v>
       </c>
       <c r="Z14" s="134"/>
       <c r="AA14" s="134">
-        <v>24.5</v>
+        <v>22.78</v>
       </c>
       <c r="AB14">
         <v>10</v>
       </c>
       <c r="AC14" s="115">
-        <v>131.6</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="A15" s="117">
-        <v>45457</v>
+        <v>45463</v>
       </c>
       <c r="B15">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C15">
-        <v>31.614799999999999</v>
+        <v>32.073999999999998</v>
       </c>
       <c r="D15">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E15">
-        <v>33.916400000000003</v>
+        <v>34.383299999999998</v>
       </c>
       <c r="F15" s="112">
         <v>156</v>
       </c>
       <c r="G15">
-        <v>2329.98</v>
+        <v>2381.35</v>
       </c>
       <c r="H15" s="199">
         <v>7500</v>
       </c>
       <c r="I15" s="199">
-        <v>23.62</v>
+        <v>24.38</v>
       </c>
       <c r="J15">
         <v>210</v>
       </c>
       <c r="K15" s="137">
-        <v>662.49433199999999</v>
+        <v>667.64119100000005</v>
       </c>
       <c r="L15">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M15">
-        <v>0.81506400000000001</v>
+        <v>0.82515799999999995</v>
       </c>
       <c r="N15" s="113">
-        <f t="shared" ref="N15" si="11">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
-        <v>827646.85935600009</v>
+        <f t="shared" ref="N15" si="8">(F15*G15)+(B15*C15)+(D15*E15)+(L15*M15)+(H15*I15)+(J15*K15)</f>
+        <v>844363.21887700004</v>
       </c>
       <c r="O15">
-        <v>146.61000000000001</v>
+        <v>155.46</v>
       </c>
       <c r="P15">
-        <v>242499.97</v>
+        <v>258068.35</v>
       </c>
       <c r="Q15" s="115">
-        <v>10471.32</v>
+        <v>10739.94</v>
       </c>
       <c r="R15" s="127">
-        <f t="shared" ref="R15" si="12">(1-(Q16/Q15))</f>
-        <v>7.5854811045790171E-3</v>
+        <f>(1-(Q17/Q15))</f>
+        <v>3.240707117544428E-2</v>
       </c>
       <c r="S15" s="116">
-        <f t="shared" si="1"/>
-        <v>0.56028819457157697</v>
+        <f>(N15/$N$63)-1</f>
+        <v>0.59180204389268165</v>
       </c>
       <c r="T15" s="114">
-        <f t="shared" si="2"/>
-        <v>95</v>
+        <f>(A15-$A$63)</f>
+        <v>101</v>
       </c>
       <c r="U15" s="116">
-        <f>((N15/$N$62)-1)/T15*30</f>
-        <v>0.17693311407523482</v>
+        <f>((N15/$N$63)-1)/T15*30</f>
+        <v>0.17578278531465791</v>
       </c>
       <c r="V15" s="116"/>
       <c r="W15" s="116"/>
       <c r="X15" s="134"/>
       <c r="Y15" s="134">
-        <v>27.96</v>
+        <v>28.88</v>
       </c>
       <c r="Z15" s="134"/>
       <c r="AA15" s="134">
-        <v>23.6</v>
+        <v>24.5</v>
       </c>
       <c r="AB15">
         <v>10</v>
       </c>
       <c r="AC15" s="115">
-        <v>130.1</v>
+        <v>131.6</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="A16" s="117">
-        <v>45456</v>
+        <v>45457</v>
       </c>
       <c r="B16">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C16">
         <v>31.614799999999999</v>
       </c>
       <c r="D16">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E16">
@@ -6708,14 +6619,14 @@
         <v>662.49433199999999</v>
       </c>
       <c r="L16">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M16">
         <v>0.81506400000000001</v>
       </c>
       <c r="N16" s="113">
-        <f t="shared" ref="N16" si="13">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
+        <f t="shared" ref="N16" si="9">(F16*G16)+(B16*C16)+(D16*E16)+(L16*M16)+(H16*I16)+(J16*K16)</f>
         <v>827646.85935600009</v>
       </c>
       <c r="O16">
@@ -6725,23 +6636,23 @@
         <v>242499.97</v>
       </c>
       <c r="Q16" s="115">
-        <v>10391.89</v>
+        <v>10471.32</v>
       </c>
       <c r="R16" s="127">
-        <f t="shared" ref="R16:R32" si="14">(1-(Q17/Q16))</f>
-        <v>3.2767860321846976E-2</v>
+        <f t="shared" ref="R16" si="10">(1-(Q17/Q16))</f>
+        <v>7.5854811045790171E-3</v>
       </c>
       <c r="S16" s="116">
-        <f t="shared" si="1"/>
+        <f>(N16/$N$63)-1</f>
         <v>0.56028819457157697</v>
       </c>
       <c r="T16" s="114">
-        <f t="shared" si="2"/>
-        <v>94</v>
+        <f>(A16-$A$63)</f>
+        <v>95</v>
       </c>
       <c r="U16" s="116">
-        <f>((N16/$N$62)-1)/T16*30</f>
-        <v>0.17881538124624796</v>
+        <f>((N16/$N$63)-1)/T16*30</f>
+        <v>0.17693311407523482</v>
       </c>
       <c r="V16" s="116"/>
       <c r="W16" s="116"/>
@@ -6762,195 +6673,195 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="117">
-        <v>45454</v>
+        <v>45456</v>
       </c>
       <c r="B17">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C17">
-        <v>31.553599999999999</v>
+        <v>31.614799999999999</v>
       </c>
       <c r="D17">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E17">
-        <v>33.882300000000001</v>
+        <v>33.916400000000003</v>
       </c>
       <c r="F17" s="112">
         <v>156</v>
       </c>
       <c r="G17">
-        <v>2315.34</v>
+        <v>2329.98</v>
       </c>
       <c r="H17" s="199">
         <v>7500</v>
       </c>
       <c r="I17" s="199">
-        <v>23.4</v>
+        <v>23.62</v>
       </c>
       <c r="J17">
         <v>210</v>
       </c>
       <c r="K17" s="137">
-        <v>659.86404900000002</v>
+        <v>662.49433199999999</v>
       </c>
       <c r="L17">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M17">
-        <v>0.80056899999999998</v>
+        <v>0.81506400000000001</v>
       </c>
       <c r="N17" s="113">
-        <f t="shared" ref="N17" si="15">(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)+(J17*K17)</f>
-        <v>821269.87306699995</v>
+        <f t="shared" ref="N17" si="11">(F17*G17)+(B17*C17)+(D17*E17)+(L17*M17)+(H17*I17)+(J17*K17)</f>
+        <v>827646.85935600009</v>
       </c>
       <c r="O17">
-        <v>143.22999999999999</v>
+        <v>146.61000000000001</v>
       </c>
       <c r="P17">
-        <v>236473.13</v>
+        <v>242499.97</v>
       </c>
       <c r="Q17" s="115">
-        <v>10051.370000000001</v>
+        <v>10391.89</v>
       </c>
       <c r="R17" s="127">
-        <f t="shared" si="14"/>
-        <v>-1.3476769833365987E-2</v>
+        <f t="shared" ref="R17:R33" si="12">(1-(Q18/Q17))</f>
+        <v>3.2767860321846976E-2</v>
       </c>
       <c r="S17" s="116">
-        <f t="shared" si="1"/>
-        <v>0.54826623579629241</v>
+        <f>(N17/$N$63)-1</f>
+        <v>0.56028819457157697</v>
       </c>
       <c r="T17" s="114">
-        <f t="shared" si="2"/>
-        <v>92</v>
+        <f>(A17-$A$63)</f>
+        <v>94</v>
       </c>
       <c r="U17" s="116">
-        <f>((N17/$N$62)-1)/T17*30</f>
-        <v>0.17878246819444316</v>
+        <f>((N17/$N$63)-1)/T17*30</f>
+        <v>0.17881538124624796</v>
       </c>
       <c r="V17" s="116"/>
       <c r="W17" s="116"/>
       <c r="X17" s="134"/>
       <c r="Y17" s="134">
-        <v>26.48</v>
+        <v>27.96</v>
       </c>
       <c r="Z17" s="134"/>
       <c r="AA17" s="134">
-        <v>22.34</v>
+        <v>23.6</v>
       </c>
       <c r="AB17">
         <v>10</v>
       </c>
       <c r="AC17" s="115">
-        <v>119</v>
+        <v>130.1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="117">
-        <v>45450</v>
+        <v>45454</v>
       </c>
       <c r="B18">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C18">
-        <v>31.457999999999998</v>
+        <v>31.553599999999999</v>
       </c>
       <c r="D18">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E18">
-        <v>34.078499999999998</v>
+        <v>33.882300000000001</v>
       </c>
       <c r="F18" s="112">
         <v>156</v>
       </c>
       <c r="G18">
-        <v>2320.73</v>
+        <v>2315.34</v>
       </c>
       <c r="H18" s="199">
         <v>7500</v>
       </c>
       <c r="I18" s="199">
-        <v>23.77</v>
+        <v>23.4</v>
       </c>
       <c r="J18">
         <v>210</v>
       </c>
       <c r="K18" s="137">
-        <v>656.34613999999999</v>
+        <v>659.86404900000002</v>
       </c>
       <c r="L18">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M18">
-        <v>0.831233</v>
+        <v>0.80056899999999998</v>
       </c>
       <c r="N18" s="113">
-        <f t="shared" ref="N18" si="16">(F18*G18)+(B18*C18)+(D18*E18)+(L18*M18)+(H18*I18)+(J18*K18)</f>
-        <v>827937.01061500004</v>
+        <f t="shared" ref="N18" si="13">(F18*G18)+(B18*C18)+(D18*E18)+(L18*M18)+(H18*I18)+(J18*K18)</f>
+        <v>821269.87306699995</v>
       </c>
       <c r="O18">
-        <v>148.11000000000001</v>
+        <v>143.22999999999999</v>
       </c>
       <c r="P18">
-        <v>243928.95</v>
+        <v>236473.13</v>
       </c>
       <c r="Q18" s="115">
-        <v>10186.83</v>
+        <v>10051.370000000001</v>
       </c>
       <c r="R18" s="127">
-        <f t="shared" si="14"/>
-        <v>-9.1156915350507628E-3</v>
+        <f t="shared" si="12"/>
+        <v>-1.3476769833365987E-2</v>
       </c>
       <c r="S18" s="116">
-        <f t="shared" ref="S18" si="17">(N18/$N$62)-1</f>
-        <v>0.56083519064718579</v>
+        <f>(N18/$N$63)-1</f>
+        <v>0.54826623579629241</v>
       </c>
       <c r="T18" s="114">
-        <f t="shared" ref="T18" si="18">(A18-$A$62)</f>
-        <v>88</v>
+        <f>(A18-$A$63)</f>
+        <v>92</v>
       </c>
       <c r="U18" s="116">
-        <f>((N18/$N$62)-1)/T18*30</f>
-        <v>0.1911938149933588</v>
+        <f>((N18/$N$63)-1)/T18*30</f>
+        <v>0.17878246819444316</v>
       </c>
       <c r="V18" s="116"/>
       <c r="W18" s="116"/>
       <c r="X18" s="134"/>
       <c r="Y18" s="134">
-        <v>27.46</v>
+        <v>26.48</v>
       </c>
       <c r="Z18" s="134"/>
       <c r="AA18" s="134">
-        <v>23.46</v>
+        <v>22.34</v>
       </c>
       <c r="AB18">
         <v>10</v>
       </c>
       <c r="AC18" s="115">
-        <v>122.4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="117">
-        <v>45449</v>
+        <v>45450</v>
       </c>
       <c r="B19">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C19">
         <v>31.457999999999998</v>
       </c>
       <c r="D19">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E19">
@@ -6975,14 +6886,14 @@
         <v>656.34613999999999</v>
       </c>
       <c r="L19">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M19">
         <v>0.831233</v>
       </c>
       <c r="N19" s="113">
-        <f t="shared" ref="N19" si="19">(F19*G19)+(B19*C19)+(D19*E19)+(L19*M19)+(H19*I19)+(J19*K19)</f>
+        <f t="shared" ref="N19" si="14">(F19*G19)+(B19*C19)+(D19*E19)+(L19*M19)+(H19*I19)+(J19*K19)</f>
         <v>827937.01061500004</v>
       </c>
       <c r="O19">
@@ -6992,23 +6903,23 @@
         <v>243928.95</v>
       </c>
       <c r="Q19" s="115">
-        <v>10279.69</v>
+        <v>10186.83</v>
       </c>
       <c r="R19" s="127">
-        <f t="shared" si="14"/>
-        <v>-6.9330884491651812E-3</v>
+        <f t="shared" si="12"/>
+        <v>-9.1156915350507628E-3</v>
       </c>
       <c r="S19" s="116">
-        <f t="shared" ref="S19:S24" si="20">(N19/$N$62)-1</f>
+        <f t="shared" ref="S19" si="15">(N19/$N$63)-1</f>
         <v>0.56083519064718579</v>
       </c>
       <c r="T19" s="114">
-        <f t="shared" ref="T19:T24" si="21">(A19-$A$62)</f>
-        <v>87</v>
+        <f t="shared" ref="T19" si="16">(A19-$A$63)</f>
+        <v>88</v>
       </c>
       <c r="U19" s="116">
-        <f>((N19/$N$62)-1)/T19*30</f>
-        <v>0.19339144505075373</v>
+        <f>((N19/$N$63)-1)/T19*30</f>
+        <v>0.1911938149933588</v>
       </c>
       <c r="V19" s="116"/>
       <c r="W19" s="116"/>
@@ -7029,462 +6940,462 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="117">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B20">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C20">
-        <v>31.783300000000001</v>
+        <v>31.457999999999998</v>
       </c>
       <c r="D20">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E20">
-        <v>34.557899999999997</v>
+        <v>34.078499999999998</v>
       </c>
       <c r="F20" s="112">
         <v>156</v>
       </c>
       <c r="G20">
-        <v>2330.9299999999998</v>
+        <v>2320.73</v>
       </c>
       <c r="H20" s="199">
         <v>7500</v>
       </c>
       <c r="I20" s="199">
-        <v>24.06</v>
+        <v>23.77</v>
       </c>
       <c r="J20">
         <v>210</v>
       </c>
       <c r="K20" s="137">
-        <v>654.52437399999997</v>
+        <v>656.34613999999999</v>
       </c>
       <c r="L20">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M20">
-        <v>0.79747299999999999</v>
+        <v>0.831233</v>
       </c>
       <c r="N20" s="113">
-        <f t="shared" ref="N20" si="22">(F20*G20)+(B20*C20)+(D20*E20)+(L20*M20)+(H20*I20)+(J20*K20)</f>
-        <v>827616.08476100001</v>
+        <f t="shared" ref="N20" si="17">(F20*G20)+(B20*C20)+(D20*E20)+(L20*M20)+(H20*I20)+(J20*K20)</f>
+        <v>827937.01061500004</v>
       </c>
       <c r="O20">
-        <v>148.06</v>
+        <v>148.11000000000001</v>
       </c>
       <c r="P20">
-        <v>243565.65</v>
+        <v>243928.95</v>
       </c>
       <c r="Q20" s="115">
-        <v>10350.959999999999</v>
+        <v>10279.69</v>
       </c>
       <c r="R20" s="127">
-        <f t="shared" si="14"/>
-        <v>-1.3138877939824489E-3</v>
+        <f t="shared" si="12"/>
+        <v>-6.9330884491651812E-3</v>
       </c>
       <c r="S20" s="116">
-        <f t="shared" si="20"/>
-        <v>0.56023017799514885</v>
+        <f t="shared" ref="S20:S25" si="18">(N20/$N$63)-1</f>
+        <v>0.56083519064718579</v>
       </c>
       <c r="T20" s="114">
-        <f t="shared" si="21"/>
-        <v>86</v>
+        <f t="shared" ref="T20:T25" si="19">(A20-$A$63)</f>
+        <v>87</v>
       </c>
       <c r="U20" s="116">
-        <f>((N20/$N$62)-1)/T20*30</f>
-        <v>0.19542913185877286</v>
+        <f>((N20/$N$63)-1)/T20*30</f>
+        <v>0.19339144505075373</v>
       </c>
       <c r="V20" s="116"/>
       <c r="W20" s="116"/>
       <c r="X20" s="134"/>
       <c r="Y20" s="134">
-        <v>29.06</v>
+        <v>27.46</v>
       </c>
       <c r="Z20" s="134"/>
       <c r="AA20" s="134">
-        <v>24.48</v>
+        <v>23.46</v>
       </c>
       <c r="AB20">
         <v>10</v>
       </c>
       <c r="AC20" s="115">
-        <v>119</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="117">
-        <v>45447</v>
+        <v>45448</v>
       </c>
       <c r="B21">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C21">
-        <v>31.6645</v>
+        <v>31.783300000000001</v>
       </c>
       <c r="D21">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E21">
-        <v>34.409799999999997</v>
+        <v>34.557899999999997</v>
       </c>
       <c r="F21" s="112">
         <v>156</v>
       </c>
       <c r="G21">
-        <v>2319.39</v>
+        <v>2330.9299999999998</v>
       </c>
       <c r="H21" s="199">
         <v>7500</v>
       </c>
       <c r="I21" s="199">
-        <v>23.89</v>
+        <v>24.06</v>
       </c>
       <c r="J21">
         <v>210</v>
       </c>
       <c r="K21" s="137">
-        <v>653.60767299999998</v>
+        <v>654.52437399999997</v>
       </c>
       <c r="L21">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M21">
-        <v>0.79912700000000003</v>
+        <v>0.79747299999999999</v>
       </c>
       <c r="N21" s="113">
-        <f t="shared" ref="N21" si="23">(F21*G21)+(B21*C21)+(D21*E21)+(L21*M21)+(H21*I21)+(J21*K21)</f>
-        <v>824375.53283199994</v>
+        <f t="shared" ref="N21" si="20">(F21*G21)+(B21*C21)+(D21*E21)+(L21*M21)+(H21*I21)+(J21*K21)</f>
+        <v>827616.08476100001</v>
       </c>
       <c r="O21">
-        <v>146.71</v>
+        <v>148.06</v>
       </c>
       <c r="P21">
-        <v>241190.1</v>
+        <v>243565.65</v>
       </c>
       <c r="Q21" s="115">
-        <v>10364.56</v>
+        <v>10350.959999999999</v>
       </c>
       <c r="R21" s="127">
-        <f t="shared" si="14"/>
-        <v>-3.4656560432859695E-3</v>
+        <f t="shared" si="12"/>
+        <v>-1.3138877939824489E-3</v>
       </c>
       <c r="S21" s="116">
-        <f t="shared" si="20"/>
-        <v>0.55412105686267799</v>
+        <f t="shared" si="18"/>
+        <v>0.56023017799514885</v>
       </c>
       <c r="T21" s="114">
-        <f t="shared" si="21"/>
-        <v>85</v>
+        <f t="shared" si="19"/>
+        <v>86</v>
       </c>
       <c r="U21" s="116">
-        <f>((N21/$N$62)-1)/T21*30</f>
-        <v>0.1955721377162393</v>
+        <f>((N21/$N$63)-1)/T21*30</f>
+        <v>0.19542913185877286</v>
       </c>
       <c r="V21" s="116"/>
       <c r="W21" s="116"/>
       <c r="X21" s="134"/>
       <c r="Y21" s="134">
-        <v>30.58</v>
+        <v>29.06</v>
       </c>
       <c r="Z21" s="134"/>
       <c r="AA21" s="134">
-        <v>26.14</v>
+        <v>24.48</v>
       </c>
       <c r="AB21">
         <v>10</v>
       </c>
       <c r="AC21" s="115">
-        <v>114.6</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:29">
       <c r="A22" s="117">
-        <v>45443</v>
+        <v>45447</v>
       </c>
       <c r="B22">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C22">
-        <v>31.576599999999999</v>
+        <v>31.6645</v>
       </c>
       <c r="D22">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E22">
-        <v>34.157400000000003</v>
+        <v>34.409799999999997</v>
       </c>
       <c r="F22" s="112">
         <v>156</v>
       </c>
       <c r="G22">
-        <v>2324.5500000000002</v>
+        <v>2319.39</v>
       </c>
       <c r="H22" s="199">
         <v>7500</v>
       </c>
       <c r="I22" s="199">
-        <v>24.04</v>
+        <v>23.89</v>
       </c>
       <c r="J22">
         <v>210</v>
       </c>
       <c r="K22" s="137">
-        <v>649.96368099999995</v>
+        <v>653.60767299999998</v>
       </c>
       <c r="L22">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M22">
-        <v>0.80517899999999998</v>
+        <v>0.79912700000000003</v>
       </c>
       <c r="N22" s="113">
-        <f t="shared" ref="N22" si="24">(F22*G22)+(B22*C22)+(D22*E22)+(L22*M22)+(H22*I22)+(J22*K22)</f>
-        <v>826117.91523599997</v>
+        <f t="shared" ref="N22" si="21">(F22*G22)+(B22*C22)+(D22*E22)+(L22*M22)+(H22*I22)+(J22*K22)</f>
+        <v>824375.53283199994</v>
       </c>
       <c r="O22">
-        <v>147.47</v>
+        <v>146.71</v>
       </c>
       <c r="P22">
-        <v>241854.59</v>
+        <v>241190.1</v>
       </c>
       <c r="Q22" s="115">
-        <v>10400.48</v>
+        <v>10364.56</v>
       </c>
       <c r="R22" s="127">
-        <f t="shared" si="14"/>
-        <v>-7.7707951940679809E-3</v>
+        <f t="shared" si="12"/>
+        <v>-3.4656560432859695E-3</v>
       </c>
       <c r="S22" s="116">
-        <f t="shared" si="20"/>
-        <v>0.55740581371840481</v>
+        <f t="shared" si="18"/>
+        <v>0.55412105686267799</v>
       </c>
       <c r="T22" s="114">
-        <f t="shared" si="21"/>
-        <v>81</v>
+        <f t="shared" si="19"/>
+        <v>85</v>
       </c>
       <c r="U22" s="116">
-        <f>((N22/$N$62)-1)/T22*30</f>
-        <v>0.20644659767348328</v>
+        <f>((N22/$N$63)-1)/T22*30</f>
+        <v>0.1955721377162393</v>
       </c>
       <c r="V22" s="116"/>
       <c r="W22" s="116"/>
       <c r="X22" s="134"/>
       <c r="Y22" s="134">
-        <v>27.94</v>
+        <v>30.58</v>
       </c>
       <c r="Z22" s="134"/>
       <c r="AA22" s="134">
-        <v>24.08</v>
+        <v>26.14</v>
       </c>
       <c r="AB22">
         <v>10</v>
       </c>
       <c r="AC22" s="115">
-        <v>116</v>
+        <v>114.6</v>
       </c>
     </row>
     <row r="23" spans="1:29">
       <c r="A23" s="117">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="B23">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C23">
-        <v>31.554500000000001</v>
+        <v>31.576599999999999</v>
       </c>
       <c r="D23">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E23">
-        <v>34.104100000000003</v>
+        <v>34.157400000000003</v>
       </c>
       <c r="F23" s="112">
         <v>156</v>
       </c>
       <c r="G23">
-        <v>2317.36</v>
+        <v>2324.5500000000002</v>
       </c>
       <c r="H23" s="199">
         <v>7500</v>
       </c>
       <c r="I23" s="199">
-        <v>24</v>
+        <v>24.04</v>
       </c>
       <c r="J23">
         <v>210</v>
       </c>
       <c r="K23" s="137">
-        <v>649.05997200000002</v>
+        <v>649.96368099999995</v>
       </c>
       <c r="L23">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M23">
-        <v>0.78746400000000005</v>
+        <v>0.80517899999999998</v>
       </c>
       <c r="N23" s="113">
-        <f t="shared" ref="N23" si="25">(F23*G23)+(B23*C23)+(D23*E23)+(L23*M23)+(H23*I23)+(J23*K23)</f>
-        <v>822250.4282790001</v>
+        <f t="shared" ref="N23" si="22">(F23*G23)+(B23*C23)+(D23*E23)+(L23*M23)+(H23*I23)+(J23*K23)</f>
+        <v>826117.91523599997</v>
       </c>
       <c r="O23">
-        <v>145.25</v>
+        <v>147.47</v>
       </c>
       <c r="P23">
-        <v>238057.84</v>
+        <v>241854.59</v>
       </c>
       <c r="Q23" s="115">
-        <v>10481.299999999999</v>
+        <v>10400.48</v>
       </c>
       <c r="R23" s="127">
-        <f t="shared" si="14"/>
-        <v>-3.2018928949655301E-3</v>
+        <f t="shared" si="12"/>
+        <v>-7.7707951940679809E-3</v>
       </c>
       <c r="S23" s="116">
-        <f t="shared" si="20"/>
-        <v>0.55011478835722394</v>
+        <f t="shared" si="18"/>
+        <v>0.55740581371840481</v>
       </c>
       <c r="T23" s="114">
-        <f t="shared" si="21"/>
-        <v>80</v>
+        <f t="shared" si="19"/>
+        <v>81</v>
       </c>
       <c r="U23" s="116">
-        <f>((N23/$N$62)-1)/T23*30</f>
-        <v>0.20629304563395898</v>
+        <f>((N23/$N$63)-1)/T23*30</f>
+        <v>0.20644659767348328</v>
       </c>
       <c r="V23" s="116"/>
       <c r="W23" s="116"/>
       <c r="X23" s="134"/>
       <c r="Y23" s="134">
-        <v>28.24</v>
+        <v>27.94</v>
       </c>
       <c r="Z23" s="134"/>
       <c r="AA23" s="134">
-        <v>24.78</v>
+        <v>24.08</v>
       </c>
       <c r="AB23">
         <v>10</v>
       </c>
       <c r="AC23" s="115">
-        <v>119.1</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:29">
       <c r="A24" s="117">
-        <v>45441</v>
+        <v>45442</v>
       </c>
       <c r="B24">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C24">
-        <v>31.4527</v>
+        <v>31.554500000000001</v>
       </c>
       <c r="D24">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E24">
-        <v>34.006700000000002</v>
+        <v>34.104100000000003</v>
       </c>
       <c r="F24" s="112">
         <v>156</v>
       </c>
       <c r="G24">
-        <v>2331.79</v>
+        <v>2317.36</v>
       </c>
       <c r="H24" s="199">
         <v>7500</v>
       </c>
       <c r="I24" s="199">
-        <v>23.99</v>
+        <v>24</v>
       </c>
       <c r="J24">
         <v>210</v>
       </c>
-      <c r="K24">
-        <v>648.15704900000003</v>
+      <c r="K24" s="137">
+        <v>649.05997200000002</v>
       </c>
       <c r="L24">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M24">
-        <v>0.81522399999999995</v>
+        <v>0.78746400000000005</v>
       </c>
       <c r="N24" s="113">
-        <f t="shared" ref="N24" si="26">(F24*G24)+(B24*C24)+(D24*E24)+(L24*M24)+(H24*I24)+(J24*K24)</f>
-        <v>827562.53462299996</v>
+        <f t="shared" ref="N24" si="23">(F24*G24)+(B24*C24)+(D24*E24)+(L24*M24)+(H24*I24)+(J24*K24)</f>
+        <v>822250.4282790001</v>
       </c>
       <c r="O24">
-        <v>148.58000000000001</v>
+        <v>145.25</v>
       </c>
       <c r="P24">
-        <v>243375.9</v>
+        <v>238057.84</v>
       </c>
       <c r="Q24" s="115">
-        <v>10514.86</v>
+        <v>10481.299999999999</v>
       </c>
       <c r="R24" s="127">
-        <f t="shared" si="14"/>
-        <v>-1.5466682390445463E-2</v>
+        <f t="shared" si="12"/>
+        <v>-3.2018928949655301E-3</v>
       </c>
       <c r="S24" s="116">
-        <f t="shared" si="20"/>
-        <v>0.56012922473568239</v>
+        <f t="shared" si="18"/>
+        <v>0.55011478835722394</v>
       </c>
       <c r="T24" s="114">
-        <f t="shared" si="21"/>
-        <v>79</v>
+        <f t="shared" si="19"/>
+        <v>80</v>
       </c>
       <c r="U24" s="116">
-        <f>((N24/$N$62)-1)/T24*30</f>
-        <v>0.21270730053253761</v>
+        <f>((N24/$N$63)-1)/T24*30</f>
+        <v>0.20629304563395898</v>
       </c>
       <c r="V24" s="116"/>
       <c r="W24" s="116"/>
       <c r="X24" s="134"/>
       <c r="Y24" s="134">
-        <v>28.18</v>
+        <v>28.24</v>
       </c>
       <c r="Z24" s="134"/>
       <c r="AA24" s="134">
-        <v>24.8</v>
+        <v>24.78</v>
       </c>
       <c r="AB24">
         <v>10</v>
       </c>
       <c r="AC24" s="115">
-        <v>119.6</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
       <c r="A25" s="117">
-        <v>45440</v>
+        <v>45441</v>
       </c>
       <c r="B25">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C25">
         <v>31.4527</v>
       </c>
       <c r="D25">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E25">
@@ -7506,43 +7417,43 @@
         <v>210</v>
       </c>
       <c r="K25">
-        <v>647.25598100000002</v>
+        <v>648.15704900000003</v>
       </c>
       <c r="L25">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M25">
-        <v>0.86140000000000005</v>
+        <v>0.81522399999999995</v>
       </c>
       <c r="N25" s="113">
-        <f t="shared" si="0"/>
-        <v>833145.31034299999</v>
+        <f t="shared" ref="N25" si="24">(F25*G25)+(B25*C25)+(D25*E25)+(L25*M25)+(H25*I25)+(J25*K25)</f>
+        <v>827562.53462299996</v>
       </c>
       <c r="O25">
-        <v>153.71</v>
+        <v>148.58000000000001</v>
       </c>
       <c r="P25">
-        <v>251476.74</v>
+        <v>243375.9</v>
       </c>
       <c r="Q25" s="115">
-        <v>10677.49</v>
+        <v>10514.86</v>
       </c>
       <c r="R25" s="127">
-        <f t="shared" si="14"/>
-        <v>1.9227365232841187E-3</v>
+        <f t="shared" si="12"/>
+        <v>-1.5466682390445463E-2</v>
       </c>
       <c r="S25" s="116">
-        <f t="shared" ref="S25" si="27">(N25/$N$62)-1</f>
-        <v>0.57065392974771467</v>
+        <f t="shared" si="18"/>
+        <v>0.56012922473568239</v>
       </c>
       <c r="T25" s="114">
-        <f t="shared" ref="T25" si="28">(A25-$A$62)</f>
-        <v>78</v>
+        <f t="shared" si="19"/>
+        <v>79</v>
       </c>
       <c r="U25" s="116">
-        <f>((N25/$N$62)-1)/T25*30</f>
-        <v>0.21948228067219797</v>
+        <f>((N25/$N$63)-1)/T25*30</f>
+        <v>0.21270730053253761</v>
       </c>
       <c r="V25" s="116"/>
       <c r="W25" s="116"/>
@@ -7563,42 +7474,42 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" s="117">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="B26">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C26">
-        <v>31.436</v>
+        <v>31.4527</v>
       </c>
       <c r="D26">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E26">
-        <v>34.100200000000001</v>
+        <v>34.006700000000002</v>
       </c>
       <c r="F26" s="112">
         <v>156</v>
       </c>
       <c r="G26">
-        <v>2331.41</v>
+        <v>2331.79</v>
       </c>
       <c r="H26" s="199">
         <v>7500</v>
       </c>
       <c r="I26" s="199">
-        <v>24.32</v>
+        <v>23.99</v>
       </c>
       <c r="J26">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="K26">
-        <v>646.30405299999995</v>
+        <v>647.25598100000002</v>
       </c>
       <c r="L26">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M26">
@@ -7606,7 +7517,7 @@
       </c>
       <c r="N26" s="113">
         <f t="shared" si="0"/>
-        <v>719037.96498799999</v>
+        <v>833145.31034299999</v>
       </c>
       <c r="O26">
         <v>153.71</v>
@@ -7615,354 +7526,354 @@
         <v>251476.74</v>
       </c>
       <c r="Q26" s="115">
-        <v>10656.96</v>
+        <v>10677.49</v>
       </c>
       <c r="R26" s="127">
-        <f t="shared" si="14"/>
-        <v>-1.8476188331382204E-3</v>
+        <f t="shared" si="12"/>
+        <v>1.9227365232841187E-3</v>
       </c>
       <c r="S26" s="116">
-        <f t="shared" ref="S26" si="29">(N26/$N$62)-1</f>
-        <v>0.35553761309807119</v>
+        <f t="shared" ref="S26" si="25">(N26/$N$63)-1</f>
+        <v>0.57065392974771467</v>
       </c>
       <c r="T26" s="114">
-        <f t="shared" ref="T26" si="30">(A26-$A$62)</f>
-        <v>77</v>
+        <f t="shared" ref="T26" si="26">(A26-$A$63)</f>
+        <v>78</v>
       </c>
       <c r="U26" s="116">
-        <f>((N26/$N$62)-1)/T26*30</f>
-        <v>0.13852114796028747</v>
+        <f>((N26/$N$63)-1)/T26*30</f>
+        <v>0.21948228067219797</v>
       </c>
       <c r="V26" s="116"/>
       <c r="W26" s="116"/>
       <c r="X26" s="134"/>
       <c r="Y26" s="134">
-        <v>32.36</v>
+        <v>28.18</v>
       </c>
       <c r="Z26" s="134"/>
       <c r="AA26" s="134">
-        <v>23.08</v>
+        <v>24.8</v>
       </c>
       <c r="AB26">
         <v>10</v>
       </c>
       <c r="AC26" s="115">
-        <v>124</v>
+        <v>119.6</v>
       </c>
     </row>
     <row r="27" spans="1:29">
       <c r="A27" s="117">
-        <v>45435</v>
+        <v>45439</v>
       </c>
       <c r="B27">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C27">
-        <v>31.4588</v>
+        <v>31.436</v>
       </c>
       <c r="D27">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E27">
-        <v>34.044699999999999</v>
+        <v>34.100200000000001</v>
       </c>
       <c r="F27" s="112">
         <v>156</v>
       </c>
       <c r="G27">
-        <v>2363.8000000000002</v>
+        <v>2331.41</v>
       </c>
       <c r="H27" s="199">
         <v>7500</v>
       </c>
       <c r="I27" s="199">
-        <v>24.45</v>
+        <v>24.32</v>
       </c>
       <c r="J27">
         <v>30</v>
       </c>
       <c r="K27">
-        <v>642.69199700000001</v>
+        <v>646.30405299999995</v>
       </c>
       <c r="L27">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M27">
-        <v>0.87326400000000004</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N27" s="113">
         <f t="shared" si="0"/>
-        <v>726447.88086300006</v>
+        <v>719037.96498799999</v>
       </c>
       <c r="O27">
-        <v>158.78</v>
+        <v>153.71</v>
       </c>
       <c r="P27">
-        <v>259129.45</v>
+        <v>251476.74</v>
       </c>
       <c r="Q27" s="115">
-        <v>10676.65</v>
+        <v>10656.96</v>
       </c>
       <c r="R27" s="127">
-        <f t="shared" si="14"/>
-        <v>-1.4329401076180304E-2</v>
+        <f t="shared" si="12"/>
+        <v>-1.8476188331382204E-3</v>
       </c>
       <c r="S27" s="116">
-        <f>(N27/$N$62)-1</f>
-        <v>0.36950686113161924</v>
+        <f t="shared" ref="S27" si="27">(N27/$N$63)-1</f>
+        <v>0.35553761309807119</v>
       </c>
       <c r="T27" s="114">
-        <f>(A27-$A$62)</f>
-        <v>73</v>
+        <f t="shared" ref="T27" si="28">(A27-$A$63)</f>
+        <v>77</v>
       </c>
       <c r="U27" s="116">
-        <f>((N27/$N$62)-1)/T27*30</f>
-        <v>0.15185213471162434</v>
+        <f>((N27/$N$63)-1)/T27*30</f>
+        <v>0.13852114796028747</v>
       </c>
       <c r="V27" s="116"/>
       <c r="W27" s="116"/>
       <c r="X27" s="134"/>
       <c r="Y27" s="134">
-        <v>34.299999999999997</v>
+        <v>32.36</v>
       </c>
       <c r="Z27" s="134"/>
       <c r="AA27" s="134">
-        <v>27.92</v>
+        <v>23.08</v>
       </c>
       <c r="AB27">
         <v>10</v>
       </c>
       <c r="AC27" s="115">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:29">
       <c r="A28" s="117">
-        <v>45433</v>
+        <v>45435</v>
       </c>
       <c r="B28">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C28">
-        <v>31.469899999999999</v>
+        <v>31.4588</v>
       </c>
       <c r="D28">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E28">
-        <v>34.182699999999997</v>
+        <v>34.044699999999999</v>
       </c>
       <c r="F28" s="112">
         <v>156</v>
       </c>
       <c r="G28">
-        <v>2416.92</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="H28" s="199">
         <v>7500</v>
       </c>
       <c r="I28" s="199">
-        <v>24.91</v>
+        <v>24.45</v>
       </c>
       <c r="J28">
         <v>30</v>
       </c>
       <c r="K28">
-        <v>641.00899600000002</v>
+        <v>642.69199700000001</v>
       </c>
       <c r="L28">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M28">
-        <v>0.86580400000000002</v>
+        <v>0.87326400000000004</v>
       </c>
       <c r="N28" s="113">
         <f t="shared" si="0"/>
-        <v>737258.36645300011</v>
+        <v>726447.88086300006</v>
       </c>
       <c r="O28">
-        <v>165.69</v>
+        <v>158.78</v>
       </c>
       <c r="P28">
-        <v>269993.23</v>
+        <v>259129.45</v>
       </c>
       <c r="Q28" s="115">
-        <v>10829.64</v>
+        <v>10676.65</v>
       </c>
       <c r="R28" s="127">
-        <f t="shared" si="14"/>
-        <v>8.3169892997366768E-3</v>
+        <f t="shared" si="12"/>
+        <v>-1.4329401076180304E-2</v>
       </c>
       <c r="S28" s="116">
-        <f>(N28/$N$62)-1</f>
-        <v>0.38988689743936056</v>
+        <f>(N28/$N$63)-1</f>
+        <v>0.36950686113161924</v>
       </c>
       <c r="T28" s="114">
-        <f>(A28-$A$62)</f>
-        <v>71</v>
+        <f>(A28-$A$63)</f>
+        <v>73</v>
       </c>
       <c r="U28" s="116">
-        <f>((N28/$N$62)-1)/T28*30</f>
-        <v>0.16474094258001151</v>
+        <f>((N28/$N$63)-1)/T28*30</f>
+        <v>0.15185213471162434</v>
       </c>
       <c r="V28" s="116"/>
       <c r="W28" s="116"/>
       <c r="X28" s="134"/>
       <c r="Y28" s="134">
-        <v>34.799999999999997</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="Z28" s="134"/>
       <c r="AA28" s="134">
-        <v>28.52</v>
+        <v>27.92</v>
       </c>
       <c r="AB28">
         <v>10</v>
       </c>
       <c r="AC28" s="115">
-        <v>123.5</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:29">
       <c r="A29" s="117">
-        <v>45426</v>
+        <v>45433</v>
       </c>
       <c r="B29">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C29">
-        <v>31.5244</v>
+        <v>31.469899999999999</v>
       </c>
       <c r="D29">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E29">
-        <v>34.005400000000002</v>
+        <v>34.182699999999997</v>
       </c>
       <c r="F29" s="112">
         <v>156</v>
       </c>
       <c r="G29">
-        <v>2344.5700000000002</v>
+        <v>2416.92</v>
       </c>
       <c r="H29" s="199">
         <v>7500</v>
       </c>
       <c r="I29" s="199">
-        <v>24.41</v>
+        <v>24.91</v>
       </c>
       <c r="J29">
         <v>30</v>
       </c>
       <c r="K29">
-        <v>634.98375399999998</v>
+        <v>641.00899600000002</v>
       </c>
       <c r="L29">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M29">
-        <v>0.84950000000000003</v>
+        <v>0.86580400000000002</v>
       </c>
       <c r="N29" s="113">
         <f t="shared" si="0"/>
-        <v>720006.41536600015</v>
+        <v>737258.36645300011</v>
       </c>
       <c r="O29">
-        <v>158.43</v>
+        <v>165.69</v>
       </c>
       <c r="P29">
-        <v>256973.54</v>
+        <v>269993.23</v>
       </c>
       <c r="Q29" s="115">
-        <v>10739.57</v>
+        <v>10829.64</v>
       </c>
       <c r="R29" s="127">
-        <f t="shared" si="14"/>
-        <v>5.0241303888330702E-2</v>
+        <f t="shared" si="12"/>
+        <v>8.3169892997366768E-3</v>
       </c>
       <c r="S29" s="116">
-        <f>(N29/$N$62)-1</f>
-        <v>0.35736334550403681</v>
+        <f>(N29/$N$63)-1</f>
+        <v>0.38988689743936056</v>
       </c>
       <c r="T29" s="114">
-        <f>(A29-$A$62)</f>
-        <v>64</v>
+        <f>(A29-$A$63)</f>
+        <v>71</v>
       </c>
       <c r="U29" s="116">
-        <f>((N29/$N$62)-1)/T29*30</f>
-        <v>0.16751406820501724</v>
+        <f>((N29/$N$63)-1)/T29*30</f>
+        <v>0.16474094258001151</v>
       </c>
       <c r="V29" s="116"/>
       <c r="W29" s="116"/>
       <c r="X29" s="134"/>
       <c r="Y29" s="134">
-        <v>35.86</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Z29" s="134"/>
       <c r="AA29" s="134">
-        <v>30.2</v>
+        <v>28.52</v>
       </c>
       <c r="AB29">
         <v>10</v>
       </c>
       <c r="AC29" s="115">
-        <v>120.1</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="30" spans="1:29">
       <c r="A30" s="117">
-        <v>45425</v>
+        <v>45426</v>
       </c>
       <c r="B30">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C30">
-        <v>31.371600000000001</v>
+        <v>31.5244</v>
       </c>
       <c r="D30">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E30">
-        <v>33.871899999999997</v>
+        <v>34.005400000000002</v>
       </c>
       <c r="F30" s="112">
         <v>156</v>
       </c>
       <c r="G30">
-        <v>2341.31</v>
+        <v>2344.5700000000002</v>
       </c>
       <c r="H30" s="199">
         <v>7500</v>
       </c>
       <c r="I30" s="199">
-        <v>24.47</v>
+        <v>24.41</v>
       </c>
       <c r="J30">
         <v>30</v>
       </c>
       <c r="K30">
-        <v>634.10149999999999</v>
+        <v>634.98375399999998</v>
       </c>
       <c r="L30">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M30">
-        <v>0.88511899999999999</v>
+        <v>0.84950000000000003</v>
       </c>
       <c r="N30" s="113">
-        <f t="shared" ref="N30:N38" si="31">(F30*G30)+(B30*C30)+(D30*E30)+(L30*M30)+(H30*I30)+(J30*K30)</f>
-        <v>724161.16908100003</v>
+        <f t="shared" si="0"/>
+        <v>720006.41536600015</v>
       </c>
       <c r="O30">
         <v>158.43</v>
@@ -7971,23 +7882,23 @@
         <v>256973.54</v>
       </c>
       <c r="Q30" s="115">
-        <v>10200</v>
+        <v>10739.57</v>
       </c>
       <c r="R30" s="127">
-        <f t="shared" si="14"/>
-        <v>-6.7235294117646838E-3</v>
+        <f t="shared" si="12"/>
+        <v>5.0241303888330702E-2</v>
       </c>
       <c r="S30" s="116">
-        <f>(N30/$N$62)-1</f>
-        <v>0.36519592905049159</v>
+        <f>(N30/$N$63)-1</f>
+        <v>0.35736334550403681</v>
       </c>
       <c r="T30" s="114">
-        <f>(A30-$A$62)</f>
-        <v>63</v>
+        <f>(A30-$A$63)</f>
+        <v>64</v>
       </c>
       <c r="U30" s="116">
-        <f>((N30/$N$62)-1)/T30*30</f>
-        <v>0.17390282335737695</v>
+        <f>((N30/$N$63)-1)/T30*30</f>
+        <v>0.16751406820501724</v>
       </c>
       <c r="V30" s="116"/>
       <c r="W30" s="116"/>
@@ -8008,139 +7919,139 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" s="117">
-        <v>45421</v>
+        <v>45425</v>
       </c>
       <c r="B31">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C31">
-        <v>31.712</v>
+        <v>31.371600000000001</v>
       </c>
       <c r="D31">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E31">
-        <v>34.055500000000002</v>
+        <v>33.871899999999997</v>
       </c>
       <c r="F31" s="112">
         <v>156</v>
       </c>
       <c r="G31">
-        <v>2333.16</v>
+        <v>2341.31</v>
       </c>
       <c r="H31" s="199">
         <v>7500</v>
       </c>
       <c r="I31" s="199">
-        <v>24.39</v>
+        <v>24.47</v>
       </c>
       <c r="J31">
         <v>30</v>
       </c>
       <c r="K31">
-        <v>622.84294799999998</v>
+        <v>634.10149999999999</v>
       </c>
       <c r="L31">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M31">
-        <v>0.90642500000000004</v>
+        <v>0.88511899999999999</v>
       </c>
       <c r="N31" s="113">
-        <f t="shared" si="31"/>
-        <v>725052.22388499998</v>
+        <f t="shared" ref="N31:N39" si="29">(F31*G31)+(B31*C31)+(D31*E31)+(L31*M31)+(H31*I31)+(J31*K31)</f>
+        <v>724161.16908100003</v>
       </c>
       <c r="O31">
-        <v>167.1</v>
+        <v>158.43</v>
       </c>
       <c r="P31">
-        <v>268201.53000000003</v>
+        <v>256973.54</v>
       </c>
       <c r="Q31" s="115">
-        <v>10268.58</v>
+        <v>10200</v>
       </c>
       <c r="R31" s="127">
-        <f t="shared" si="14"/>
-        <v>2.1701150499874422E-2</v>
+        <f t="shared" si="12"/>
+        <v>-6.7235294117646838E-3</v>
       </c>
       <c r="S31" s="116">
-        <f>(N31/$N$62)-1</f>
-        <v>0.36687575454089361</v>
+        <f>(N31/$N$63)-1</f>
+        <v>0.36519592905049159</v>
       </c>
       <c r="T31" s="114">
-        <f>(A31-$A$62)</f>
-        <v>59</v>
+        <f>(A31-$A$63)</f>
+        <v>63</v>
       </c>
       <c r="U31" s="116">
-        <f>((N31/$N$62)-1)/T31*30</f>
-        <v>0.18654699383435269</v>
+        <f>((N31/$N$63)-1)/T31*30</f>
+        <v>0.17390282335737695</v>
       </c>
       <c r="V31" s="116"/>
       <c r="W31" s="116"/>
       <c r="X31" s="134"/>
       <c r="Y31" s="134">
-        <v>37.4</v>
+        <v>35.86</v>
       </c>
       <c r="Z31" s="134"/>
       <c r="AA31" s="134">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="AB31">
         <v>10</v>
       </c>
       <c r="AC31" s="115">
-        <v>127.4</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
       <c r="A32" s="117">
-        <v>45412</v>
+        <v>45421</v>
       </c>
       <c r="B32">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C32">
-        <v>31.771699999999999</v>
+        <v>31.712</v>
       </c>
       <c r="D32">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E32">
-        <v>34.014699999999998</v>
+        <v>34.055500000000002</v>
       </c>
       <c r="F32" s="112">
         <v>156</v>
       </c>
       <c r="G32">
-        <v>2341.2800000000002</v>
+        <v>2333.16</v>
       </c>
       <c r="H32" s="199">
         <v>7500</v>
       </c>
       <c r="I32" s="199">
-        <v>24.71</v>
+        <v>24.39</v>
       </c>
       <c r="J32">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="K32">
         <v>622.84294799999998</v>
       </c>
       <c r="L32">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M32">
-        <v>0.90242599999999995</v>
+        <v>0.90642500000000004</v>
       </c>
       <c r="N32" s="113">
-        <f t="shared" si="31"/>
-        <v>769379.83326099999</v>
+        <f t="shared" si="29"/>
+        <v>725052.22388499998</v>
       </c>
       <c r="O32">
         <v>167.1</v>
@@ -8149,29 +8060,29 @@
         <v>268201.53000000003</v>
       </c>
       <c r="Q32" s="115">
-        <v>10045.74</v>
+        <v>10268.58</v>
       </c>
       <c r="R32" s="127">
-        <f t="shared" si="14"/>
-        <v>1.2952754102733999E-2</v>
+        <f t="shared" si="12"/>
+        <v>2.1701150499874422E-2</v>
       </c>
       <c r="S32" s="116">
-        <f t="shared" ref="S32" si="32">(N32/$N$62)-1</f>
-        <v>0.45044261016428133</v>
+        <f>(N32/$N$63)-1</f>
+        <v>0.36687575454089361</v>
       </c>
       <c r="T32" s="114">
-        <f t="shared" ref="T32" si="33">(A32-$A$62)</f>
-        <v>50</v>
+        <f>(A32-$A$63)</f>
+        <v>59</v>
       </c>
       <c r="U32" s="116">
-        <f>((N32/$N$62)-1)/T32*30</f>
-        <v>0.27026556609856883</v>
+        <f>((N32/$N$63)-1)/T32*30</f>
+        <v>0.18654699383435269</v>
       </c>
       <c r="V32" s="116"/>
       <c r="W32" s="116"/>
       <c r="X32" s="134"/>
       <c r="Y32" s="134">
-        <v>37.39</v>
+        <v>37.4</v>
       </c>
       <c r="Z32" s="134"/>
       <c r="AA32" s="134">
@@ -8181,106 +8092,111 @@
         <v>10</v>
       </c>
       <c r="AC32" s="115">
-        <v>125.1</v>
+        <v>127.4</v>
       </c>
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="117">
-        <v>45411</v>
+        <v>45412</v>
       </c>
       <c r="B33">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C33">
-        <v>31.948</v>
+        <v>31.771699999999999</v>
       </c>
       <c r="D33">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E33">
-        <v>34.280099999999997</v>
+        <v>34.014699999999998</v>
       </c>
       <c r="F33" s="112">
         <v>156</v>
       </c>
       <c r="G33">
-        <v>2384.1799999999998</v>
+        <v>2341.2800000000002</v>
       </c>
       <c r="H33" s="199">
-        <v>5000</v>
+        <v>7500</v>
       </c>
       <c r="I33" s="199">
-        <v>24.91</v>
+        <v>24.71</v>
+      </c>
+      <c r="J33">
+        <v>96</v>
+      </c>
+      <c r="K33">
+        <v>622.84294799999998</v>
       </c>
       <c r="L33">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M33">
-        <v>0.89855499999999999</v>
+        <v>0.90242599999999995</v>
       </c>
       <c r="N33" s="113">
-        <f t="shared" si="31"/>
-        <v>655301.58439900004</v>
+        <f t="shared" si="29"/>
+        <v>769379.83326099999</v>
       </c>
       <c r="O33">
-        <v>167.61</v>
+        <v>167.1</v>
       </c>
       <c r="P33">
-        <v>269021.68</v>
+        <v>268201.53000000003</v>
       </c>
       <c r="Q33" s="115">
-        <v>9915.6200000000008</v>
+        <v>10045.74</v>
       </c>
       <c r="R33" s="127">
-        <f t="shared" ref="R33:R39" si="34">(1-(Q34/Q33))</f>
-        <v>2.5330740790792672E-2</v>
+        <f t="shared" si="12"/>
+        <v>1.2952754102733999E-2</v>
       </c>
       <c r="S33" s="116">
-        <f t="shared" ref="S33:S62" si="35">(N33/$N$62)-1</f>
-        <v>0.23538114651627517</v>
+        <f t="shared" ref="S33" si="30">(N33/$N$63)-1</f>
+        <v>0.45044261016428133</v>
       </c>
       <c r="T33" s="114">
-        <f t="shared" ref="T33:T62" si="36">(A33-$A$62)</f>
-        <v>49</v>
+        <f t="shared" ref="T33" si="31">(A33-$A$63)</f>
+        <v>50</v>
       </c>
       <c r="U33" s="116">
-        <f>((N33/$N$62)-1)/T33*30</f>
-        <v>0.14411090603037255</v>
+        <f>((N33/$N$63)-1)/T33*30</f>
+        <v>0.27026556609856883</v>
       </c>
       <c r="V33" s="116"/>
       <c r="W33" s="116"/>
-      <c r="X33" s="112">
-        <v>35</v>
-      </c>
-      <c r="Y33" s="128">
-        <f>Y36</f>
+      <c r="X33" s="134"/>
+      <c r="Y33" s="134">
         <v>37.39</v>
       </c>
-      <c r="Z33" s="112">
-        <v>40</v>
-      </c>
-      <c r="AA33" s="128">
-        <f>AA36</f>
+      <c r="Z33" s="134"/>
+      <c r="AA33" s="134">
         <v>30.5</v>
       </c>
-      <c r="AB33"/>
+      <c r="AB33">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="115">
+        <v>125.1</v>
+      </c>
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="117">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B34">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C34">
         <v>31.948</v>
       </c>
       <c r="D34">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E34">
@@ -8293,21 +8209,21 @@
         <v>2384.1799999999998</v>
       </c>
       <c r="H34" s="199">
-        <v>2500</v>
+        <v>5000</v>
       </c>
       <c r="I34" s="199">
-        <v>25.11</v>
+        <v>24.91</v>
       </c>
       <c r="L34">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M34">
-        <v>0.89607400000000004</v>
+        <v>0.89855499999999999</v>
       </c>
       <c r="N34" s="113">
-        <f t="shared" si="31"/>
-        <v>593216.45939900004</v>
+        <f t="shared" si="29"/>
+        <v>655301.58439900004</v>
       </c>
       <c r="O34">
         <v>167.61</v>
@@ -8316,195 +8232,198 @@
         <v>269021.68</v>
       </c>
       <c r="Q34" s="115">
-        <v>9664.4500000000007</v>
+        <v>9915.6200000000008</v>
       </c>
       <c r="R34" s="127">
-        <f t="shared" si="34"/>
-        <v>-5.7478697701369708E-3</v>
+        <f t="shared" ref="R34:R40" si="32">(1-(Q35/Q34))</f>
+        <v>2.5330740790792672E-2</v>
       </c>
       <c r="S34" s="116">
-        <f t="shared" si="35"/>
-        <v>0.11833764360082077</v>
+        <f t="shared" ref="S34:S63" si="33">(N34/$N$63)-1</f>
+        <v>0.23538114651627517</v>
       </c>
       <c r="T34" s="114">
-        <f t="shared" si="36"/>
-        <v>46</v>
+        <f t="shared" ref="T34:T63" si="34">(A34-$A$63)</f>
+        <v>49</v>
       </c>
       <c r="U34" s="116">
-        <f>((N34/$N$62)-1)/T34*30</f>
-        <v>7.7176724087491808E-2</v>
+        <f>((N34/$N$63)-1)/T34*30</f>
+        <v>0.14411090603037255</v>
       </c>
       <c r="V34" s="116"/>
       <c r="W34" s="116"/>
-      <c r="X34" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y34" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z34" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA34" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB34">
-        <v>10</v>
-      </c>
-      <c r="AC34" s="115">
-        <v>148.5</v>
-      </c>
+      <c r="X34" s="112">
+        <v>35</v>
+      </c>
+      <c r="Y34" s="128">
+        <f>Y37</f>
+        <v>37.39</v>
+      </c>
+      <c r="Z34" s="112">
+        <v>40</v>
+      </c>
+      <c r="AA34" s="128">
+        <f>AA37</f>
+        <v>30.5</v>
+      </c>
+      <c r="AB34"/>
     </row>
     <row r="35" spans="1:29">
       <c r="A35" s="117">
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="B35">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C35">
-        <v>32.0291</v>
+        <v>31.948</v>
       </c>
       <c r="D35">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E35">
-        <v>34.322299999999998</v>
+        <v>34.280099999999997</v>
       </c>
       <c r="F35" s="112">
         <v>156</v>
       </c>
       <c r="G35">
-        <v>2368.4699999999998</v>
+        <v>2384.1799999999998</v>
+      </c>
+      <c r="H35" s="199">
+        <v>2500</v>
+      </c>
+      <c r="I35" s="199">
+        <v>25.11</v>
       </c>
       <c r="L35">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M35">
-        <v>0.90609700000000004</v>
+        <v>0.89607400000000004</v>
       </c>
       <c r="N35" s="113">
-        <f t="shared" si="31"/>
-        <v>529347.18337699992</v>
+        <f t="shared" si="29"/>
+        <v>593216.45939900004</v>
       </c>
       <c r="O35">
-        <v>167.13</v>
+        <v>167.61</v>
       </c>
       <c r="P35">
-        <v>268083.81</v>
+        <v>269021.68</v>
       </c>
       <c r="Q35" s="115">
-        <v>9720</v>
+        <v>9664.4500000000007</v>
       </c>
       <c r="R35" s="127">
+        <f t="shared" si="32"/>
+        <v>-5.7478697701369708E-3</v>
+      </c>
+      <c r="S35" s="116">
+        <f t="shared" si="33"/>
+        <v>0.11833764360082077</v>
+      </c>
+      <c r="T35" s="114">
         <f t="shared" si="34"/>
-        <v>-2.1502057613176362E-4</v>
-      </c>
-      <c r="S35" s="116">
-        <f t="shared" si="35"/>
-        <v>-2.0693587896702947E-3</v>
-      </c>
-      <c r="T35" s="114">
-        <f t="shared" si="36"/>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U35" s="116">
-        <f>((N35/$N$62)-1)/T35*30</f>
-        <v>-1.379572526446863E-3</v>
+        <f>((N35/$N$63)-1)/T35*30</f>
+        <v>7.7176724087491808E-2</v>
       </c>
       <c r="V35" s="116"/>
       <c r="W35" s="116"/>
-      <c r="X35" s="112"/>
-      <c r="Y35" s="130" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z35" s="112"/>
-      <c r="AA35" s="130" t="s">
-        <v>69</v>
+      <c r="X35" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y35" s="129" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z35" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA35" s="129" t="s">
+        <v>68</v>
       </c>
       <c r="AB35">
         <v>10</v>
       </c>
       <c r="AC35" s="115">
-        <v>135</v>
+        <v>148.5</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="117">
-        <v>45406</v>
+        <v>45407</v>
       </c>
       <c r="B36">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C36">
-        <v>31.928699999999999</v>
+        <v>32.0291</v>
       </c>
       <c r="D36">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E36">
-        <v>33.972000000000001</v>
+        <v>34.322299999999998</v>
       </c>
       <c r="F36" s="112">
         <v>156</v>
       </c>
       <c r="G36">
-        <v>2380.13</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="L36">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M36">
-        <v>0.88805999999999996</v>
+        <v>0.90609700000000004</v>
       </c>
       <c r="N36" s="113">
-        <f t="shared" si="31"/>
-        <v>528687.28128</v>
+        <f t="shared" si="29"/>
+        <v>529347.18337699992</v>
       </c>
       <c r="O36">
-        <v>166.96</v>
+        <v>167.13</v>
       </c>
       <c r="P36">
-        <v>267307.03000000003</v>
+        <v>268083.81</v>
       </c>
       <c r="Q36" s="115">
-        <v>9722.09</v>
+        <v>9720</v>
       </c>
       <c r="R36" s="127">
+        <f t="shared" si="32"/>
+        <v>-2.1502057613176362E-4</v>
+      </c>
+      <c r="S36" s="116">
+        <f t="shared" si="33"/>
+        <v>-2.0693587896702947E-3</v>
+      </c>
+      <c r="T36" s="114">
         <f t="shared" si="34"/>
-        <v>7.927307811386175E-3</v>
-      </c>
-      <c r="S36" s="116">
-        <f t="shared" si="35"/>
-        <v>-3.3134128688740994E-3</v>
-      </c>
-      <c r="T36" s="114">
-        <f t="shared" si="36"/>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U36" s="116">
-        <f>((N36/$N$62)-1)/T36*30</f>
-        <v>-2.259145137868704E-3</v>
+        <f>((N36/$N$63)-1)/T36*30</f>
+        <v>-1.379572526446863E-3</v>
       </c>
       <c r="V36" s="116"/>
       <c r="W36" s="116"/>
-      <c r="X36" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y36" s="131">
-        <v>37.39</v>
-      </c>
-      <c r="Z36" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA36" s="131">
-        <v>30.5</v>
+      <c r="X36" s="112"/>
+      <c r="Y36" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z36" s="112"/>
+      <c r="AA36" s="130" t="s">
+        <v>69</v>
       </c>
       <c r="AB36">
         <v>10</v>
@@ -8515,17 +8434,17 @@
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="117">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="B37">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C37">
         <v>31.928699999999999</v>
       </c>
       <c r="D37">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E37">
@@ -8538,14 +8457,14 @@
         <v>2380.13</v>
       </c>
       <c r="L37">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M37">
         <v>0.88805999999999996</v>
       </c>
       <c r="N37" s="113">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>528687.28128</v>
       </c>
       <c r="O37">
@@ -8555,338 +8474,346 @@
         <v>267307.03000000003</v>
       </c>
       <c r="Q37" s="115">
-        <v>9645.02</v>
+        <v>9722.09</v>
       </c>
       <c r="R37" s="127">
+        <f t="shared" si="32"/>
+        <v>7.927307811386175E-3</v>
+      </c>
+      <c r="S37" s="116">
+        <f t="shared" si="33"/>
+        <v>-3.3134128688740994E-3</v>
+      </c>
+      <c r="T37" s="114">
         <f t="shared" si="34"/>
-        <v>-5.0222809283961833E-3</v>
-      </c>
-      <c r="S37" s="116">
-        <f t="shared" si="35"/>
-        <v>-3.3134128688740994E-3</v>
-      </c>
-      <c r="T37" s="114">
-        <f t="shared" si="36"/>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U37" s="116">
-        <f>((N37/$N$62)-1)/T37*30</f>
-        <v>-2.3667234777672141E-3</v>
+        <f>((N37/$N$63)-1)/T37*30</f>
+        <v>-2.259145137868704E-3</v>
       </c>
       <c r="V37" s="116"/>
       <c r="W37" s="116"/>
-      <c r="X37" s="112"/>
-      <c r="Y37" s="116" t="e">
+      <c r="X37" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y37" s="131">
+        <v>37.39</v>
+      </c>
+      <c r="Z37" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA37" s="131">
+        <v>30.5</v>
+      </c>
+      <c r="AB37">
+        <v>10</v>
+      </c>
+      <c r="AC37" s="115">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
+      <c r="A38" s="117">
+        <v>45404</v>
+      </c>
+      <c r="B38">
+        <f>B70</f>
+        <v>1110</v>
+      </c>
+      <c r="C38">
+        <v>31.928699999999999</v>
+      </c>
+      <c r="D38">
+        <f>D70</f>
+        <v>321.99</v>
+      </c>
+      <c r="E38">
+        <v>33.972000000000001</v>
+      </c>
+      <c r="F38" s="112">
+        <v>156</v>
+      </c>
+      <c r="G38">
+        <v>2380.13</v>
+      </c>
+      <c r="L38">
+        <f>L70</f>
+        <v>125000</v>
+      </c>
+      <c r="M38">
+        <v>0.88805999999999996</v>
+      </c>
+      <c r="N38" s="113">
+        <f t="shared" si="29"/>
+        <v>528687.28128</v>
+      </c>
+      <c r="O38">
+        <v>166.96</v>
+      </c>
+      <c r="P38">
+        <v>267307.03000000003</v>
+      </c>
+      <c r="Q38" s="115">
+        <v>9645.02</v>
+      </c>
+      <c r="R38" s="127">
+        <f t="shared" si="32"/>
+        <v>-5.0222809283961833E-3</v>
+      </c>
+      <c r="S38" s="116">
+        <f t="shared" si="33"/>
+        <v>-3.3134128688740994E-3</v>
+      </c>
+      <c r="T38" s="114">
+        <f t="shared" si="34"/>
+        <v>42</v>
+      </c>
+      <c r="U38" s="116">
+        <f>((N38/$N$63)-1)/T38*30</f>
+        <v>-2.3667234777672141E-3</v>
+      </c>
+      <c r="V38" s="116"/>
+      <c r="W38" s="116"/>
+      <c r="X38" s="112"/>
+      <c r="Y38" s="116" t="e">
         <f>Sayfa2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Z37" s="112"/>
-      <c r="AA37" s="116" t="e">
+      <c r="Z38" s="112"/>
+      <c r="AA38" s="116" t="e">
         <f>Sayfa2!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="AB37" s="112">
+      <c r="AB38" s="112">
         <v>10</v>
       </c>
-      <c r="AC37" s="128">
+      <c r="AC38" s="128">
         <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29">
-      <c r="A38" s="117">
-        <v>45401</v>
-      </c>
-      <c r="B38">
-        <f>B69</f>
-        <v>1110</v>
-      </c>
-      <c r="C38">
-        <v>31.803999999999998</v>
-      </c>
-      <c r="D38">
-        <f>D69</f>
-        <v>321.99</v>
-      </c>
-      <c r="E38">
-        <v>33.928400000000003</v>
-      </c>
-      <c r="F38" s="112">
-        <v>156</v>
-      </c>
-      <c r="G38">
-        <v>2427.62</v>
-      </c>
-      <c r="L38">
-        <f>L69</f>
-        <v>125000</v>
-      </c>
-      <c r="M38">
-        <v>0.87351800000000002</v>
-      </c>
-      <c r="N38" s="113">
-        <f t="shared" si="31"/>
-        <v>534125.51551599998</v>
-      </c>
-      <c r="O38">
-        <v>170.57</v>
-      </c>
-      <c r="P38">
-        <v>272736.27</v>
-      </c>
-      <c r="Q38" s="115">
-        <v>9693.4599999999991</v>
-      </c>
-      <c r="R38" s="127">
-        <f t="shared" si="34"/>
-        <v>1.4091975414350921E-3</v>
-      </c>
-      <c r="S38" s="116">
-        <f t="shared" si="35"/>
-        <v>6.9388010818296486E-3</v>
-      </c>
-      <c r="T38" s="114">
-        <f t="shared" si="36"/>
-        <v>39</v>
-      </c>
-      <c r="U38" s="116">
-        <f>((N38/$N$62)-1)/T38*30</f>
-        <v>5.3375392937151144E-3</v>
-      </c>
-      <c r="V38" s="116"/>
-      <c r="W38" s="116"/>
-      <c r="X38" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y38" s="115">
-        <f>Y36*X33</f>
-        <v>1308.6500000000001</v>
-      </c>
-      <c r="Z38" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA38" s="115">
-        <f>AA36*Z33</f>
-        <v>1220</v>
-      </c>
-      <c r="AB38" s="112" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC38" s="129" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="117">
-        <v>45397</v>
+        <v>45401</v>
       </c>
       <c r="B39">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C39">
-        <v>31.863399999999999</v>
+        <v>31.803999999999998</v>
       </c>
       <c r="D39">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E39">
-        <v>33.963099999999997</v>
+        <v>33.928400000000003</v>
       </c>
       <c r="F39" s="112">
         <v>156</v>
       </c>
       <c r="G39">
-        <v>2387.5100000000002</v>
+        <v>2427.62</v>
       </c>
       <c r="L39">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M39">
-        <v>0.89791399999999999</v>
+        <v>0.87351800000000002</v>
       </c>
       <c r="N39" s="113">
-        <f t="shared" ref="N39:N74" si="37">(F39*G39)+(B39*C39)+(D39*E39)+(L39*M39)+(H39*I39)</f>
-        <v>530994.96256900008</v>
+        <f t="shared" si="29"/>
+        <v>534125.51551599998</v>
       </c>
       <c r="O39">
-        <v>169.14</v>
+        <v>170.57</v>
       </c>
       <c r="P39">
-        <v>269604.92</v>
+        <v>272736.27</v>
       </c>
       <c r="Q39" s="115">
-        <v>9679.7999999999993</v>
+        <v>9693.4599999999991</v>
       </c>
       <c r="R39" s="127">
+        <f t="shared" si="32"/>
+        <v>1.4091975414350921E-3</v>
+      </c>
+      <c r="S39" s="116">
+        <f t="shared" si="33"/>
+        <v>6.9388010818296486E-3</v>
+      </c>
+      <c r="T39" s="114">
         <f t="shared" si="34"/>
-        <v>-1.3880452075456073E-2</v>
-      </c>
-      <c r="S39" s="116">
-        <f t="shared" si="35"/>
-        <v>1.0370511380362046E-3</v>
-      </c>
-      <c r="T39" s="114">
-        <f t="shared" si="36"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U39" s="116">
-        <f>((N39/$N$62)-1)/T39*30</f>
-        <v>8.8890097545960402E-4</v>
+        <f>((N39/$N$63)-1)/T39*30</f>
+        <v>5.3375392937151144E-3</v>
       </c>
       <c r="V39" s="116"/>
       <c r="W39" s="116"/>
-      <c r="X39" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y39" s="132">
-        <f>(X33*Y5)-(X33*Y36)</f>
-        <v>-395.15000000000009</v>
-      </c>
-      <c r="Z39" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA39" s="132">
-        <f>(Z33*AA5)-(Z33*AA36)</f>
-        <v>-354.4</v>
-      </c>
-      <c r="AC39" s="130" t="s">
-        <v>69</v>
+      <c r="X39" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y39" s="115">
+        <f>Y37*X34</f>
+        <v>1308.6500000000001</v>
+      </c>
+      <c r="Z39" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA39" s="115">
+        <f>AA37*Z34</f>
+        <v>1220</v>
+      </c>
+      <c r="AB39" s="112" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC39" s="129" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="117">
-        <v>45391</v>
+        <v>45397</v>
       </c>
       <c r="B40">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C40">
-        <v>31.412299999999998</v>
+        <v>31.863399999999999</v>
       </c>
       <c r="D40">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E40">
-        <v>34.091799999999999</v>
+        <v>33.963099999999997</v>
       </c>
       <c r="F40" s="112">
         <v>156</v>
       </c>
       <c r="G40">
-        <v>2352.21</v>
+        <v>2387.5100000000002</v>
       </c>
       <c r="L40">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M40">
-        <v>0.89529800000000004</v>
+        <v>0.89791399999999999</v>
       </c>
       <c r="N40" s="113">
-        <f t="shared" si="37"/>
-        <v>524701.88168200001</v>
+        <f t="shared" ref="N40:N75" si="35">(F40*G40)+(B40*C40)+(D40*E40)+(L40*M40)+(H40*I40)</f>
+        <v>530994.96256900008</v>
       </c>
       <c r="O40">
-        <v>165.81</v>
+        <v>169.14</v>
       </c>
       <c r="P40">
-        <v>263308.84999999998</v>
+        <v>269604.92</v>
       </c>
       <c r="Q40" s="115">
-        <v>9814.16</v>
+        <v>9679.7999999999993</v>
       </c>
       <c r="R40" s="127">
-        <f t="shared" ref="R40:R41" si="38">(1-(Q41/Q40))</f>
-        <v>5.8558246452063978E-3</v>
+        <f t="shared" si="32"/>
+        <v>-1.3880452075456073E-2</v>
       </c>
       <c r="S40" s="116">
-        <f t="shared" si="35"/>
-        <v>-1.0826728328378388E-2</v>
+        <f t="shared" si="33"/>
+        <v>1.0370511380362046E-3</v>
       </c>
       <c r="T40" s="114">
-        <f t="shared" si="36"/>
-        <v>29</v>
+        <f t="shared" si="34"/>
+        <v>35</v>
       </c>
       <c r="U40" s="116">
-        <f>((N40/$N$62)-1)/T40*30</f>
-        <v>-1.1200063787977641E-2</v>
+        <f>((N40/$N$63)-1)/T40*30</f>
+        <v>8.8890097545960402E-4</v>
       </c>
       <c r="V40" s="116"/>
       <c r="W40" s="116"/>
-      <c r="X40" s="116"/>
-      <c r="Y40" s="116"/>
-      <c r="Z40" s="116"/>
-      <c r="AA40" s="116"/>
-      <c r="AB40" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC40" s="131">
-        <v>135</v>
+      <c r="X40" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y40" s="132">
+        <f>(X34*Y5)-(X34*Y37)</f>
+        <v>-403.55000000000007</v>
+      </c>
+      <c r="Z40" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA40" s="132">
+        <f>(Z34*AA5)-(Z34*AA37)</f>
+        <v>-364.80000000000007</v>
+      </c>
+      <c r="AC40" s="130" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="117">
-        <v>45390</v>
+        <v>45391</v>
       </c>
       <c r="B41">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C41">
-        <v>31.5198</v>
+        <v>31.412299999999998</v>
       </c>
       <c r="D41">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E41">
-        <v>34.154899999999998</v>
+        <v>34.091799999999999</v>
       </c>
       <c r="F41" s="112">
         <v>156</v>
       </c>
       <c r="G41">
-        <v>2344.37</v>
+        <v>2352.21</v>
       </c>
       <c r="L41">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M41">
-        <v>0.818581</v>
+        <v>0.89529800000000004</v>
       </c>
       <c r="N41" s="113">
-        <f t="shared" si="37"/>
-        <v>514028.85925099999</v>
+        <f t="shared" si="35"/>
+        <v>524701.88168200001</v>
       </c>
       <c r="O41">
-        <v>159.19</v>
+        <v>165.81</v>
       </c>
       <c r="P41">
-        <v>252634.37</v>
+        <v>263308.84999999998</v>
       </c>
       <c r="Q41" s="115">
-        <v>9756.69</v>
+        <v>9814.16</v>
       </c>
       <c r="R41" s="127">
-        <f t="shared" si="38"/>
-        <v>1.4129791968382821E-2</v>
+        <f t="shared" ref="R41:R42" si="36">(1-(Q42/Q41))</f>
+        <v>5.8558246452063978E-3</v>
       </c>
       <c r="S41" s="116">
-        <f t="shared" si="35"/>
-        <v>-3.0947617704367603E-2</v>
+        <f t="shared" si="33"/>
+        <v>-1.0826728328378388E-2</v>
       </c>
       <c r="T41" s="114">
-        <f t="shared" si="36"/>
-        <v>28</v>
+        <f t="shared" si="34"/>
+        <v>29</v>
       </c>
       <c r="U41" s="116">
-        <f>((N41/$N$62)-1)/T41*30</f>
-        <v>-3.3158161826108146E-2</v>
+        <f>((N41/$N$63)-1)/T41*30</f>
+        <v>-1.1200063787977641E-2</v>
       </c>
       <c r="V41" s="116"/>
       <c r="W41" s="116"/>
@@ -8894,70 +8821,72 @@
       <c r="Y41" s="116"/>
       <c r="Z41" s="116"/>
       <c r="AA41" s="116"/>
-      <c r="AC41" s="116">
-        <f>Sayfa2!K4</f>
-        <v>0</v>
+      <c r="AB41" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC41" s="131">
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="117">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B42">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C42">
-        <v>31.407</v>
+        <v>31.5198</v>
       </c>
       <c r="D42">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E42">
-        <v>34.038899999999998</v>
+        <v>34.154899999999998</v>
       </c>
       <c r="F42" s="112">
         <v>156</v>
       </c>
       <c r="G42">
-        <v>2289.27</v>
+        <v>2344.37</v>
       </c>
       <c r="L42">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M42">
-        <v>0.82424600000000003</v>
+        <v>0.818581</v>
       </c>
       <c r="N42" s="113">
-        <f t="shared" si="37"/>
-        <v>505978.825411</v>
+        <f t="shared" si="35"/>
+        <v>514028.85925099999</v>
       </c>
       <c r="O42">
-        <v>154.41</v>
+        <v>159.19</v>
       </c>
       <c r="P42">
-        <v>244587.02</v>
+        <v>252634.37</v>
       </c>
       <c r="Q42" s="115">
-        <v>9618.83</v>
+        <v>9756.69</v>
       </c>
       <c r="R42" s="127">
-        <f t="shared" ref="R42:R73" si="39">(1-(Q43/Q42))</f>
-        <v>5.0921993631241946E-2</v>
+        <f t="shared" si="36"/>
+        <v>1.4129791968382821E-2</v>
       </c>
       <c r="S42" s="116">
-        <f t="shared" si="35"/>
-        <v>-4.6123622572225242E-2</v>
+        <f t="shared" si="33"/>
+        <v>-3.0947617704367603E-2</v>
       </c>
       <c r="T42" s="114">
-        <f t="shared" si="36"/>
-        <v>25</v>
+        <f t="shared" si="34"/>
+        <v>28</v>
       </c>
       <c r="U42" s="116">
-        <f>((N42/$N$62)-1)/T42*30</f>
-        <v>-5.5348347086670288E-2</v>
+        <f>((N42/$N$63)-1)/T42*30</f>
+        <v>-3.3158161826108146E-2</v>
       </c>
       <c r="V42" s="116"/>
       <c r="W42" s="116"/>
@@ -8965,73 +8894,70 @@
       <c r="Y42" s="116"/>
       <c r="Z42" s="116"/>
       <c r="AA42" s="116"/>
-      <c r="AB42" s="112" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC42" s="115">
-        <f>AC40*AB37</f>
-        <v>1350</v>
+      <c r="AC42" s="116">
+        <f>Sayfa2!K4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="117">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B43">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C43">
-        <v>31.399799999999999</v>
+        <v>31.407</v>
       </c>
       <c r="D43">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E43">
-        <v>34.053100000000001</v>
+        <v>34.038899999999998</v>
       </c>
       <c r="F43" s="112">
         <v>156</v>
       </c>
       <c r="G43">
-        <v>2292.5700000000002</v>
+        <v>2289.27</v>
       </c>
       <c r="L43">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M43">
-        <v>0.82913899999999996</v>
+        <v>0.82424600000000003</v>
       </c>
       <c r="N43" s="113">
-        <f t="shared" si="37"/>
-        <v>507101.83066900005</v>
+        <f t="shared" si="35"/>
+        <v>505978.825411</v>
       </c>
       <c r="O43">
-        <v>155.22</v>
+        <v>154.41</v>
       </c>
       <c r="P43">
-        <v>245709.7</v>
+        <v>244587.02</v>
       </c>
       <c r="Q43" s="115">
-        <v>9129.02</v>
+        <v>9618.83</v>
       </c>
       <c r="R43" s="127">
-        <f t="shared" si="39"/>
-        <v>2.0070062284889389E-2</v>
+        <f t="shared" ref="R43:R74" si="37">(1-(Q44/Q43))</f>
+        <v>5.0921993631241946E-2</v>
       </c>
       <c r="S43" s="116">
-        <f t="shared" si="35"/>
-        <v>-4.4006521749946126E-2</v>
+        <f t="shared" si="33"/>
+        <v>-4.6123622572225242E-2</v>
       </c>
       <c r="T43" s="114">
-        <f t="shared" si="36"/>
-        <v>24</v>
+        <f t="shared" si="34"/>
+        <v>25</v>
       </c>
       <c r="U43" s="116">
-        <f>((N43/$N$62)-1)/T43*30</f>
-        <v>-5.5008152187432657E-2</v>
+        <f>((N43/$N$63)-1)/T43*30</f>
+        <v>-5.5348347086670288E-2</v>
       </c>
       <c r="V43" s="116"/>
       <c r="W43" s="116"/>
@@ -9039,27 +8965,27 @@
       <c r="Y43" s="116"/>
       <c r="Z43" s="116"/>
       <c r="AA43" s="116"/>
-      <c r="AB43" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AC43" s="132">
-        <f>(AB10*AC5)-(AB10*AC40)</f>
-        <v>-108</v>
+      <c r="AB43" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC43" s="115">
+        <f>AC41*AB38</f>
+        <v>1350</v>
       </c>
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="117">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="B44">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C44">
         <v>31.399799999999999</v>
       </c>
       <c r="D44">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E44">
@@ -9072,14 +8998,14 @@
         <v>2292.5700000000002</v>
       </c>
       <c r="L44">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M44">
         <v>0.82913899999999996</v>
       </c>
       <c r="N44" s="113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>507101.83066900005</v>
       </c>
       <c r="O44">
@@ -9089,23 +9015,23 @@
         <v>245709.7</v>
       </c>
       <c r="Q44" s="115">
-        <v>8945.7999999999993</v>
+        <v>9129.02</v>
       </c>
       <c r="R44" s="127">
-        <f t="shared" si="39"/>
-        <v>-1.0627333497283731E-2</v>
+        <f t="shared" si="37"/>
+        <v>2.0070062284889389E-2</v>
       </c>
       <c r="S44" s="116">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T44" s="114">
-        <f t="shared" si="36"/>
-        <v>23</v>
+        <f t="shared" si="34"/>
+        <v>24</v>
       </c>
       <c r="U44" s="116">
-        <f t="shared" ref="U44:U75" si="40">((N44/$N$62)-1)/T44*30</f>
-        <v>-5.7399810978190594E-2</v>
+        <f>((N44/$N$63)-1)/T44*30</f>
+        <v>-5.5008152187432657E-2</v>
       </c>
       <c r="V44" s="116"/>
       <c r="W44" s="116"/>
@@ -9113,68 +9039,73 @@
       <c r="Y44" s="116"/>
       <c r="Z44" s="116"/>
       <c r="AA44" s="116"/>
-      <c r="AB44" s="133"/>
-      <c r="AC44" s="134"/>
+      <c r="AB44" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC44" s="132">
+        <f>(AB11*AC5)-(AB11*AC41)</f>
+        <v>-125</v>
+      </c>
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="117">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="B45">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C45">
-        <v>31.536899999999999</v>
+        <v>31.399799999999999</v>
       </c>
       <c r="D45">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E45">
-        <v>33.958799999999997</v>
+        <v>34.053100000000001</v>
       </c>
       <c r="F45" s="112">
         <v>156</v>
       </c>
       <c r="G45">
-        <v>2287.73</v>
+        <v>2292.5700000000002</v>
       </c>
       <c r="L45">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M45">
-        <v>0.85561100000000001</v>
+        <v>0.82913899999999996</v>
       </c>
       <c r="N45" s="113">
+        <f t="shared" si="35"/>
+        <v>507101.83066900005</v>
+      </c>
+      <c r="O45">
+        <v>155.22</v>
+      </c>
+      <c r="P45">
+        <v>245709.7</v>
+      </c>
+      <c r="Q45" s="115">
+        <v>8945.7999999999993</v>
+      </c>
+      <c r="R45" s="127">
         <f t="shared" si="37"/>
-        <v>509777.60801200004</v>
-      </c>
-      <c r="O45">
-        <v>157.11000000000001</v>
-      </c>
-      <c r="P45">
-        <v>248387.66</v>
-      </c>
-      <c r="Q45" s="115">
-        <v>9040.8700000000008</v>
-      </c>
-      <c r="R45" s="127">
-        <f t="shared" si="39"/>
-        <v>-1.2904731513670775E-2</v>
+        <v>-1.0627333497283731E-2</v>
       </c>
       <c r="S45" s="116">
-        <f t="shared" si="35"/>
-        <v>-3.8962119354903346E-2</v>
+        <f t="shared" si="33"/>
+        <v>-4.4006521749946126E-2</v>
       </c>
       <c r="T45" s="114">
-        <f t="shared" si="36"/>
-        <v>22</v>
+        <f t="shared" si="34"/>
+        <v>23</v>
       </c>
       <c r="U45" s="116">
-        <f t="shared" si="40"/>
-        <v>-5.3130162756686382E-2</v>
+        <f t="shared" ref="U45:U62" si="38">((N45/$N$63)-1)/T45*30</f>
+        <v>-5.7399810978190594E-2</v>
       </c>
       <c r="V45" s="116"/>
       <c r="W45" s="116"/>
@@ -9187,63 +9118,63 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="117">
-        <v>45383</v>
+        <v>45384</v>
       </c>
       <c r="B46">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C46">
-        <v>31.879300000000001</v>
+        <v>31.536899999999999</v>
       </c>
       <c r="D46">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E46">
-        <v>34.391399999999997</v>
+        <v>33.958799999999997</v>
       </c>
       <c r="F46" s="112">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G46">
-        <v>2308.4299999999998</v>
+        <v>2287.73</v>
       </c>
       <c r="L46">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M46">
-        <v>0.88097599999999998</v>
+        <v>0.85561100000000001</v>
       </c>
       <c r="N46" s="113">
+        <f t="shared" si="35"/>
+        <v>509777.60801200004</v>
+      </c>
+      <c r="O46">
+        <v>157.11000000000001</v>
+      </c>
+      <c r="P46">
+        <v>248387.66</v>
+      </c>
+      <c r="Q46" s="115">
+        <v>9040.8700000000008</v>
+      </c>
+      <c r="R46" s="127">
         <f t="shared" si="37"/>
-        <v>528238.93988600001</v>
-      </c>
-      <c r="O46">
-        <v>161.66</v>
-      </c>
-      <c r="P46">
-        <v>255424.81</v>
-      </c>
-      <c r="Q46" s="115">
-        <v>9157.5400000000009</v>
-      </c>
-      <c r="R46" s="127">
-        <f t="shared" si="39"/>
-        <v>1.6532824317448958E-3</v>
+        <v>-1.2904731513670775E-2</v>
       </c>
       <c r="S46" s="116">
-        <f t="shared" si="35"/>
-        <v>-4.1586305801334378E-3</v>
+        <f t="shared" si="33"/>
+        <v>-3.8962119354903346E-2</v>
       </c>
       <c r="T46" s="114">
-        <f t="shared" si="36"/>
-        <v>21</v>
+        <f t="shared" si="34"/>
+        <v>22</v>
       </c>
       <c r="U46" s="116">
-        <f t="shared" si="40"/>
-        <v>-5.9409008287620545E-3</v>
+        <f t="shared" si="38"/>
+        <v>-5.3130162756686382E-2</v>
       </c>
       <c r="V46" s="116"/>
       <c r="W46" s="116"/>
@@ -9256,17 +9187,17 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="117">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="B47">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C47">
         <v>31.879300000000001</v>
       </c>
       <c r="D47">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E47">
@@ -9279,14 +9210,14 @@
         <v>2308.4299999999998</v>
       </c>
       <c r="L47">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M47">
         <v>0.88097599999999998</v>
       </c>
       <c r="N47" s="113">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>528238.93988600001</v>
       </c>
       <c r="O47">
@@ -9296,23 +9227,23 @@
         <v>255424.81</v>
       </c>
       <c r="Q47" s="115">
-        <v>9142.4</v>
+        <v>9157.5400000000009</v>
       </c>
       <c r="R47" s="127">
-        <f t="shared" si="39"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>1.6532824317448958E-3</v>
       </c>
       <c r="S47" s="116">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T47" s="114">
-        <f t="shared" si="36"/>
-        <v>19</v>
+        <f t="shared" si="34"/>
+        <v>21</v>
       </c>
       <c r="U47" s="116">
-        <f t="shared" si="40"/>
-        <v>-6.5662588107370072E-3</v>
+        <f t="shared" si="38"/>
+        <v>-5.9409008287620545E-3</v>
       </c>
       <c r="V47" s="116"/>
       <c r="W47" s="116"/>
@@ -9325,63 +9256,63 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="117">
-        <v>45380</v>
+        <v>45381</v>
       </c>
       <c r="B48">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C48">
-        <v>31.8308</v>
+        <v>31.879300000000001</v>
       </c>
       <c r="D48">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E48">
-        <v>34.369900000000001</v>
+        <v>34.391399999999997</v>
       </c>
       <c r="F48" s="112">
         <v>161</v>
       </c>
       <c r="G48">
-        <v>2273.3200000000002</v>
+        <v>2308.4299999999998</v>
       </c>
       <c r="L48">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M48">
-        <v>0.85243100000000005</v>
+        <v>0.88097599999999998</v>
       </c>
       <c r="N48" s="113">
-        <f t="shared" si="37"/>
-        <v>518957.34710100002</v>
+        <f t="shared" si="35"/>
+        <v>528238.93988600001</v>
       </c>
       <c r="O48">
-        <v>156.08000000000001</v>
+        <v>161.66</v>
       </c>
       <c r="P48">
-        <v>246143.72</v>
+        <v>255424.81</v>
       </c>
       <c r="Q48" s="115">
         <v>9142.4</v>
       </c>
       <c r="R48" s="127">
-        <f t="shared" si="39"/>
-        <v>6.8286226811340445E-3</v>
+        <f t="shared" si="37"/>
+        <v>0</v>
       </c>
       <c r="S48" s="116">
-        <f t="shared" si="35"/>
-        <v>-2.165638277425741E-2</v>
+        <f t="shared" si="33"/>
+        <v>-4.1586305801334378E-3</v>
       </c>
       <c r="T48" s="114">
-        <f t="shared" si="36"/>
-        <v>18</v>
+        <f t="shared" si="34"/>
+        <v>19</v>
       </c>
       <c r="U48" s="116">
-        <f t="shared" si="40"/>
-        <v>-3.6093971290429017E-2</v>
+        <f t="shared" si="38"/>
+        <v>-6.5662588107370072E-3</v>
       </c>
       <c r="V48" s="116"/>
       <c r="W48" s="116"/>
@@ -9394,63 +9325,63 @@
     </row>
     <row r="49" spans="1:39">
       <c r="A49" s="117">
-        <v>45379</v>
+        <v>45380</v>
       </c>
       <c r="B49">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C49">
-        <v>31.870699999999999</v>
+        <v>31.8308</v>
       </c>
       <c r="D49">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E49">
-        <v>34.480800000000002</v>
+        <v>34.369900000000001</v>
       </c>
       <c r="F49" s="112">
         <v>161</v>
       </c>
       <c r="G49">
-        <v>2240.09</v>
+        <v>2273.3200000000002</v>
       </c>
       <c r="L49">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M49">
-        <v>0.86473199999999995</v>
+        <v>0.85243100000000005</v>
       </c>
       <c r="N49" s="113">
+        <f t="shared" si="35"/>
+        <v>518957.34710100002</v>
+      </c>
+      <c r="O49">
+        <v>156.08000000000001</v>
+      </c>
+      <c r="P49">
+        <v>246143.72</v>
+      </c>
+      <c r="Q49" s="115">
+        <v>9142.4</v>
+      </c>
+      <c r="R49" s="127">
         <f t="shared" si="37"/>
-        <v>515224.93979200005</v>
-      </c>
-      <c r="O49">
-        <v>153.81</v>
-      </c>
-      <c r="P49">
-        <v>242408.74</v>
-      </c>
-      <c r="Q49" s="115">
-        <v>9079.9699999999993</v>
-      </c>
-      <c r="R49" s="127">
-        <f t="shared" si="39"/>
-        <v>3.0093711763364839E-2</v>
+        <v>6.8286226811340445E-3</v>
       </c>
       <c r="S49" s="116">
-        <f t="shared" si="35"/>
-        <v>-2.8692754622628547E-2</v>
+        <f t="shared" si="33"/>
+        <v>-2.165638277425741E-2</v>
       </c>
       <c r="T49" s="114">
-        <f t="shared" si="36"/>
-        <v>17</v>
+        <f t="shared" si="34"/>
+        <v>18</v>
       </c>
       <c r="U49" s="116">
-        <f t="shared" si="40"/>
-        <v>-5.0634272863462143E-2</v>
+        <f t="shared" si="38"/>
+        <v>-3.6093971290429017E-2</v>
       </c>
       <c r="V49" s="116"/>
       <c r="W49" s="116"/>
@@ -9463,63 +9394,63 @@
     </row>
     <row r="50" spans="1:39">
       <c r="A50" s="117">
-        <v>45378</v>
+        <v>45379</v>
       </c>
       <c r="B50">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C50">
-        <v>31.821999999999999</v>
+        <v>31.870699999999999</v>
       </c>
       <c r="D50">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E50">
-        <v>34.5045</v>
+        <v>34.480800000000002</v>
       </c>
       <c r="F50" s="112">
         <v>161</v>
       </c>
       <c r="G50">
-        <v>2227.25</v>
+        <v>2240.09</v>
       </c>
       <c r="L50">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M50">
-        <v>0.85899999999999999</v>
+        <v>0.86473199999999995</v>
       </c>
       <c r="N50" s="113">
+        <f t="shared" si="35"/>
+        <v>515224.93979200005</v>
+      </c>
+      <c r="O50">
+        <v>153.81</v>
+      </c>
+      <c r="P50">
+        <v>242408.74</v>
+      </c>
+      <c r="Q50" s="115">
+        <v>9079.9699999999993</v>
+      </c>
+      <c r="R50" s="127">
         <f t="shared" si="37"/>
-        <v>512394.77395499998</v>
-      </c>
-      <c r="O50">
-        <v>154.24</v>
-      </c>
-      <c r="P50">
-        <v>242616.68</v>
-      </c>
-      <c r="Q50" s="115">
-        <v>8806.7199999999993</v>
-      </c>
-      <c r="R50" s="127">
-        <f t="shared" si="39"/>
-        <v>-7.4942770974972817E-5</v>
+        <v>3.0093711763364839E-2</v>
       </c>
       <c r="S50" s="116">
-        <f t="shared" si="35"/>
-        <v>-3.4028211761422011E-2</v>
+        <f t="shared" si="33"/>
+        <v>-2.8692754622628547E-2</v>
       </c>
       <c r="T50" s="114">
-        <f t="shared" si="36"/>
-        <v>16</v>
+        <f t="shared" si="34"/>
+        <v>17</v>
       </c>
       <c r="U50" s="116">
-        <f t="shared" si="40"/>
-        <v>-6.3802897052666271E-2</v>
+        <f t="shared" si="38"/>
+        <v>-5.0634272863462143E-2</v>
       </c>
       <c r="V50" s="116"/>
       <c r="W50" s="116"/>
@@ -9532,21 +9463,21 @@
     </row>
     <row r="51" spans="1:39">
       <c r="A51" s="117">
-        <v>45377</v>
+        <v>45378</v>
       </c>
       <c r="B51">
         <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C51">
-        <v>31.530999999999999</v>
+        <v>31.821999999999999</v>
       </c>
       <c r="D51">
         <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E51">
-        <v>34.125900000000001</v>
+        <v>34.5045</v>
       </c>
       <c r="F51" s="112">
         <v>161</v>
@@ -9559,11 +9490,11 @@
         <v>125000</v>
       </c>
       <c r="M51">
-        <v>0.890316</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="N51" s="113">
-        <f t="shared" si="37"/>
-        <v>515864.35854099999</v>
+        <f t="shared" si="35"/>
+        <v>512394.77395499998</v>
       </c>
       <c r="O51">
         <v>154.24</v>
@@ -9572,23 +9503,23 @@
         <v>242616.68</v>
       </c>
       <c r="Q51" s="115">
-        <v>8807.3799999999992</v>
+        <v>8806.7199999999993</v>
       </c>
       <c r="R51" s="127">
-        <f t="shared" si="39"/>
-        <v>-2.5206133946758191E-2</v>
+        <f t="shared" si="37"/>
+        <v>-7.4942770974972817E-5</v>
       </c>
       <c r="S51" s="116">
-        <f t="shared" si="35"/>
-        <v>-2.7487315957364089E-2</v>
+        <f t="shared" si="33"/>
+        <v>-3.4028211761422011E-2</v>
       </c>
       <c r="T51" s="114">
-        <f t="shared" si="36"/>
-        <v>15</v>
+        <f t="shared" si="34"/>
+        <v>16</v>
       </c>
       <c r="U51" s="116">
-        <f t="shared" si="40"/>
-        <v>-5.4974631914728178E-2</v>
+        <f t="shared" si="38"/>
+        <v>-6.3802897052666271E-2</v>
       </c>
       <c r="V51" s="116"/>
       <c r="W51" s="116"/>
@@ -9601,63 +9532,63 @@
     </row>
     <row r="52" spans="1:39">
       <c r="A52" s="117">
-        <v>45376</v>
+        <v>45377</v>
       </c>
       <c r="B52">
-        <f>B69</f>
+        <f>B71</f>
         <v>1110</v>
       </c>
       <c r="C52">
-        <v>31.786200000000001</v>
+        <v>31.530999999999999</v>
       </c>
       <c r="D52">
-        <f>D69</f>
+        <f>D71</f>
         <v>321.99</v>
       </c>
       <c r="E52">
-        <v>34.386299999999999</v>
+        <v>34.125900000000001</v>
       </c>
       <c r="F52" s="112">
         <v>161</v>
       </c>
       <c r="G52">
-        <v>2214.31</v>
+        <v>2227.25</v>
       </c>
       <c r="L52">
-        <f>L69</f>
+        <f>L71</f>
         <v>125000</v>
       </c>
       <c r="M52">
-        <v>0.91889100000000001</v>
+        <v>0.890316</v>
       </c>
       <c r="N52" s="113">
+        <f t="shared" si="35"/>
+        <v>515864.35854099999</v>
+      </c>
+      <c r="O52">
+        <v>154.24</v>
+      </c>
+      <c r="P52">
+        <v>242616.68</v>
+      </c>
+      <c r="Q52" s="115">
+        <v>8807.3799999999992</v>
+      </c>
+      <c r="R52" s="127">
         <f t="shared" si="37"/>
-        <v>517720.01173699996</v>
-      </c>
-      <c r="O52">
-        <v>155.99</v>
-      </c>
-      <c r="P52">
-        <v>244906</v>
-      </c>
-      <c r="Q52" s="115">
-        <v>9029.3799999999992</v>
-      </c>
-      <c r="R52" s="127">
-        <f t="shared" si="39"/>
-        <v>-9.0947551216142841E-3</v>
+        <v>-2.5206133946758191E-2</v>
       </c>
       <c r="S52" s="116">
-        <f t="shared" si="35"/>
-        <v>-2.3989019863797534E-2</v>
+        <f t="shared" si="33"/>
+        <v>-2.7487315957364089E-2</v>
       </c>
       <c r="T52" s="114">
-        <f t="shared" si="36"/>
-        <v>14</v>
+        <f t="shared" si="34"/>
+        <v>15</v>
       </c>
       <c r="U52" s="116">
-        <f t="shared" si="40"/>
-        <v>-5.1405042565280425E-2</v>
+        <f t="shared" si="38"/>
+        <v>-5.4974631914728178E-2</v>
       </c>
       <c r="V52" s="116"/>
       <c r="W52" s="116"/>
@@ -9670,63 +9601,63 @@
     </row>
     <row r="53" spans="1:39">
       <c r="A53" s="117">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B53">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C53">
-        <v>31.710699999999999</v>
+        <v>31.786200000000001</v>
       </c>
       <c r="D53">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E53">
-        <v>34.336300000000001</v>
+        <v>34.386299999999999</v>
       </c>
       <c r="F53" s="112">
         <v>161</v>
       </c>
       <c r="G53">
-        <v>2212.11</v>
+        <v>2214.31</v>
       </c>
       <c r="L53">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M53">
-        <v>0.93062100000000003</v>
+        <v>0.91889100000000001</v>
       </c>
       <c r="N53" s="113">
+        <f t="shared" si="35"/>
+        <v>517720.01173699996</v>
+      </c>
+      <c r="O53">
+        <v>155.99</v>
+      </c>
+      <c r="P53">
+        <v>244906</v>
+      </c>
+      <c r="Q53" s="115">
+        <v>9029.3799999999992</v>
+      </c>
+      <c r="R53" s="127">
         <f t="shared" si="37"/>
-        <v>518732.15723700001</v>
-      </c>
-      <c r="O53">
-        <v>156.63999999999999</v>
-      </c>
-      <c r="P53">
-        <v>245919.31</v>
-      </c>
-      <c r="Q53">
-        <v>9111.5</v>
-      </c>
-      <c r="R53" s="127">
-        <f t="shared" si="39"/>
-        <v>-3.2047412610438641E-3</v>
+        <v>-9.0947551216142841E-3</v>
       </c>
       <c r="S53" s="116">
-        <f t="shared" si="35"/>
-        <v>-2.2080912973779676E-2</v>
+        <f t="shared" si="33"/>
+        <v>-2.3989019863797534E-2</v>
       </c>
       <c r="T53" s="114">
-        <f t="shared" si="36"/>
-        <v>11</v>
+        <f t="shared" si="34"/>
+        <v>14</v>
       </c>
       <c r="U53" s="116">
-        <f t="shared" si="40"/>
-        <v>-6.0220671746671839E-2</v>
+        <f t="shared" si="38"/>
+        <v>-5.1405042565280425E-2</v>
       </c>
       <c r="V53" s="116"/>
       <c r="W53" s="116"/>
@@ -9739,63 +9670,63 @@
     </row>
     <row r="54" spans="1:39">
       <c r="A54" s="117">
-        <v>45372</v>
+        <v>45373</v>
       </c>
       <c r="B54">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C54">
-        <v>32.063899999999997</v>
+        <v>31.710699999999999</v>
       </c>
       <c r="D54">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E54">
-        <v>35.065100000000001</v>
+        <v>34.336300000000001</v>
       </c>
       <c r="F54" s="112">
         <v>161</v>
       </c>
       <c r="G54">
-        <v>2267.61</v>
+        <v>2212.11</v>
       </c>
       <c r="L54">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M54">
-        <v>0.94166499999999997</v>
+        <v>0.93062100000000003</v>
       </c>
       <c r="N54" s="113">
+        <f t="shared" si="35"/>
+        <v>518732.15723700001</v>
+      </c>
+      <c r="O54">
+        <v>156.63999999999999</v>
+      </c>
+      <c r="P54">
+        <v>245919.31</v>
+      </c>
+      <c r="Q54">
+        <v>9111.5</v>
+      </c>
+      <c r="R54" s="127">
         <f t="shared" si="37"/>
-        <v>529674.87554899999</v>
-      </c>
-      <c r="O54">
-        <v>163.91</v>
-      </c>
-      <c r="P54">
-        <v>256845.12</v>
-      </c>
-      <c r="Q54" s="115">
-        <v>9140.7000000000007</v>
-      </c>
-      <c r="R54" s="127">
-        <f t="shared" si="39"/>
-        <v>2.0302602645311585E-2</v>
+        <v>-3.2047412610438641E-3</v>
       </c>
       <c r="S54" s="116">
-        <f t="shared" si="35"/>
-        <v>-1.4515902067954167E-3</v>
+        <f t="shared" si="33"/>
+        <v>-2.2080912973779676E-2</v>
       </c>
       <c r="T54" s="114">
-        <f t="shared" si="36"/>
-        <v>10</v>
+        <f t="shared" si="34"/>
+        <v>11</v>
       </c>
       <c r="U54" s="116">
-        <f t="shared" si="40"/>
-        <v>-4.3547706203862502E-3</v>
+        <f t="shared" si="38"/>
+        <v>-6.0220671746671839E-2</v>
       </c>
       <c r="V54" s="116"/>
       <c r="W54" s="116"/>
@@ -9808,63 +9739,63 @@
     </row>
     <row r="55" spans="1:39">
       <c r="A55" s="117">
-        <v>45371</v>
+        <v>45372</v>
       </c>
       <c r="B55">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C55">
-        <v>32.028799999999997</v>
+        <v>32.063899999999997</v>
       </c>
       <c r="D55">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E55">
-        <v>34.808799999999998</v>
+        <v>35.065100000000001</v>
       </c>
       <c r="F55" s="112">
         <v>161</v>
       </c>
       <c r="G55">
-        <v>2220.92</v>
+        <v>2267.61</v>
       </c>
       <c r="L55">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M55">
-        <v>0.93470600000000004</v>
+        <v>0.94166499999999997</v>
       </c>
       <c r="N55" s="113">
+        <f t="shared" si="35"/>
+        <v>529674.87554899999</v>
+      </c>
+      <c r="O55">
+        <v>163.91</v>
+      </c>
+      <c r="P55">
+        <v>256845.12</v>
+      </c>
+      <c r="Q55" s="115">
+        <v>9140.7000000000007</v>
+      </c>
+      <c r="R55" s="127">
         <f t="shared" si="37"/>
-        <v>521166.42351200001</v>
-      </c>
-      <c r="O55">
-        <v>158.47999999999999</v>
-      </c>
-      <c r="P55">
-        <v>248342.62</v>
-      </c>
-      <c r="Q55" s="115">
-        <v>8955.1200000000008</v>
-      </c>
-      <c r="R55" s="127">
-        <f t="shared" si="39"/>
-        <v>2.8184993612594411E-3</v>
+        <v>2.0302602645311585E-2</v>
       </c>
       <c r="S55" s="116">
-        <f t="shared" si="35"/>
-        <v>-1.7491809676412506E-2</v>
+        <f t="shared" si="33"/>
+        <v>-1.4515902067954167E-3</v>
       </c>
       <c r="T55" s="114">
-        <f t="shared" si="36"/>
-        <v>9</v>
+        <f t="shared" si="34"/>
+        <v>10</v>
       </c>
       <c r="U55" s="116">
-        <f t="shared" si="40"/>
-        <v>-5.8306032254708352E-2</v>
+        <f t="shared" si="38"/>
+        <v>-4.3547706203862502E-3</v>
       </c>
       <c r="V55" s="116"/>
       <c r="W55" s="116"/>
@@ -9877,63 +9808,63 @@
     </row>
     <row r="56" spans="1:39">
       <c r="A56" s="117">
-        <v>45370</v>
+        <v>45371</v>
       </c>
       <c r="B56">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C56">
-        <v>32.087800000000001</v>
+        <v>32.028799999999997</v>
       </c>
       <c r="D56">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E56">
-        <v>34.799100000000003</v>
+        <v>34.808799999999998</v>
       </c>
       <c r="F56" s="112">
         <v>161</v>
       </c>
       <c r="G56">
-        <v>2219.02</v>
+        <v>2220.92</v>
       </c>
       <c r="L56">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M56">
-        <v>0.90033600000000003</v>
+        <v>0.93470600000000004</v>
       </c>
       <c r="N56" s="113">
+        <f t="shared" si="35"/>
+        <v>521166.42351200001</v>
+      </c>
+      <c r="O56">
+        <v>158.47999999999999</v>
+      </c>
+      <c r="P56">
+        <v>248342.62</v>
+      </c>
+      <c r="Q56" s="115">
+        <v>8955.1200000000008</v>
+      </c>
+      <c r="R56" s="127">
         <f t="shared" si="37"/>
-        <v>516626.64020899998</v>
-      </c>
-      <c r="O56">
-        <v>155.59</v>
-      </c>
-      <c r="P56">
-        <v>243803.06</v>
-      </c>
-      <c r="Q56" s="115">
-        <v>8929.8799999999992</v>
-      </c>
-      <c r="R56" s="127">
-        <f t="shared" si="39"/>
-        <v>2.3714764364134666E-2</v>
+        <v>2.8184993612594411E-3</v>
       </c>
       <c r="S56" s="116">
-        <f t="shared" si="35"/>
-        <v>-2.6050254879836254E-2</v>
+        <f t="shared" si="33"/>
+        <v>-1.7491809676412506E-2</v>
       </c>
       <c r="T56" s="114">
-        <f t="shared" si="36"/>
-        <v>8</v>
+        <f t="shared" si="34"/>
+        <v>9</v>
       </c>
       <c r="U56" s="116">
-        <f t="shared" si="40"/>
-        <v>-9.7688455799385954E-2</v>
+        <f t="shared" si="38"/>
+        <v>-5.8306032254708352E-2</v>
       </c>
       <c r="V56" s="116"/>
       <c r="W56" s="116"/>
@@ -9943,72 +9874,66 @@
       <c r="AA56" s="116"/>
       <c r="AB56" s="133"/>
       <c r="AC56" s="134"/>
-      <c r="AL56">
-        <v>68</v>
-      </c>
-      <c r="AM56">
-        <v>19.690000000000001</v>
-      </c>
     </row>
     <row r="57" spans="1:39">
       <c r="A57" s="117">
-        <v>45369</v>
+        <v>45370</v>
       </c>
       <c r="B57">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C57">
-        <v>31.9499</v>
+        <v>32.087800000000001</v>
       </c>
       <c r="D57">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E57">
-        <v>34.8125</v>
+        <v>34.799100000000003</v>
       </c>
       <c r="F57" s="112">
         <v>161</v>
       </c>
       <c r="G57">
-        <v>2212.35</v>
+        <v>2219.02</v>
       </c>
       <c r="L57">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M57">
-        <v>0.93887900000000002</v>
+        <v>0.90033600000000003</v>
       </c>
       <c r="N57" s="113">
+        <f t="shared" si="35"/>
+        <v>516626.64020899998</v>
+      </c>
+      <c r="O57">
+        <v>155.59</v>
+      </c>
+      <c r="P57">
+        <v>243803.06</v>
+      </c>
+      <c r="Q57" s="115">
+        <v>8929.8799999999992</v>
+      </c>
+      <c r="R57" s="127">
         <f t="shared" si="37"/>
-        <v>520221.89087499998</v>
-      </c>
-      <c r="O57">
-        <v>155.44</v>
-      </c>
-      <c r="P57">
-        <v>247623.17</v>
-      </c>
-      <c r="Q57" s="115">
-        <v>8718.11</v>
-      </c>
-      <c r="R57" s="127">
-        <f t="shared" si="39"/>
-        <v>-1.2685088855267868E-2</v>
+        <v>2.3714764364134666E-2</v>
       </c>
       <c r="S57" s="116">
-        <f t="shared" si="35"/>
-        <v>-1.9272452116166794E-2</v>
+        <f t="shared" si="33"/>
+        <v>-2.6050254879836254E-2</v>
       </c>
       <c r="T57" s="114">
-        <f t="shared" si="36"/>
-        <v>7</v>
+        <f t="shared" si="34"/>
+        <v>8</v>
       </c>
       <c r="U57" s="116">
-        <f t="shared" si="40"/>
-        <v>-8.2596223355000553E-2</v>
+        <f t="shared" si="38"/>
+        <v>-9.7688455799385954E-2</v>
       </c>
       <c r="V57" s="116"/>
       <c r="W57" s="116"/>
@@ -10022,68 +9947,68 @@
         <v>68</v>
       </c>
       <c r="AM57">
-        <v>22.96</v>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:39">
       <c r="A58" s="117">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B58">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C58">
-        <v>31.796299999999999</v>
+        <v>31.9499</v>
       </c>
       <c r="D58">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E58">
-        <v>34.619700000000002</v>
+        <v>34.8125</v>
       </c>
       <c r="F58" s="112">
         <v>161</v>
       </c>
       <c r="G58">
-        <v>2213.54</v>
+        <v>2212.35</v>
       </c>
       <c r="L58">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M58">
-        <v>0.94838599999999995</v>
+        <v>0.93887900000000002</v>
       </c>
       <c r="N58" s="113">
+        <f t="shared" si="35"/>
+        <v>520221.89087499998</v>
+      </c>
+      <c r="O58">
+        <v>155.44</v>
+      </c>
+      <c r="P58">
+        <v>247623.17</v>
+      </c>
+      <c r="Q58" s="115">
+        <v>8718.11</v>
+      </c>
+      <c r="R58" s="127">
         <f t="shared" si="37"/>
-        <v>521369.280203</v>
-      </c>
-      <c r="O58">
-        <v>156.13</v>
-      </c>
-      <c r="P58">
-        <v>248712.47</v>
-      </c>
-      <c r="Q58" s="115">
-        <v>8828.7000000000007</v>
-      </c>
-      <c r="R58" s="127">
-        <f t="shared" si="39"/>
-        <v>-6.2092946866469934E-3</v>
+        <v>-1.2685088855267868E-2</v>
       </c>
       <c r="S58" s="116">
-        <f t="shared" si="35"/>
-        <v>-1.7109382199549383E-2</v>
+        <f t="shared" si="33"/>
+        <v>-1.9272452116166794E-2</v>
       </c>
       <c r="T58" s="114">
-        <f t="shared" si="36"/>
-        <v>4</v>
+        <f t="shared" si="34"/>
+        <v>7</v>
       </c>
       <c r="U58" s="116">
-        <f t="shared" si="40"/>
-        <v>-0.12832036649662037</v>
+        <f t="shared" si="38"/>
+        <v>-8.2596223355000553E-2</v>
       </c>
       <c r="V58" s="116"/>
       <c r="W58" s="116"/>
@@ -10097,68 +10022,68 @@
         <v>68</v>
       </c>
       <c r="AM58">
-        <v>22.04</v>
+        <v>22.96</v>
       </c>
     </row>
     <row r="59" spans="1:39">
       <c r="A59" s="117">
-        <v>45365</v>
+        <v>45366</v>
       </c>
       <c r="B59">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C59">
-        <v>31.775700000000001</v>
+        <v>31.796299999999999</v>
       </c>
       <c r="D59">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E59">
-        <v>34.762500000000003</v>
+        <v>34.619700000000002</v>
       </c>
       <c r="F59" s="112">
         <v>161</v>
       </c>
       <c r="G59">
-        <v>2222.88</v>
+        <v>2213.54</v>
       </c>
       <c r="L59">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M59">
-        <v>0.95100700000000005</v>
+        <v>0.94838599999999995</v>
       </c>
       <c r="N59" s="113">
+        <f t="shared" si="35"/>
+        <v>521369.280203</v>
+      </c>
+      <c r="O59">
+        <v>156.13</v>
+      </c>
+      <c r="P59">
+        <v>248712.47</v>
+      </c>
+      <c r="Q59" s="115">
+        <v>8828.7000000000007</v>
+      </c>
+      <c r="R59" s="127">
         <f t="shared" si="37"/>
-        <v>523223.75937500002</v>
-      </c>
-      <c r="O59">
-        <v>157.21</v>
-      </c>
-      <c r="P59">
-        <v>250427.64</v>
-      </c>
-      <c r="Q59" s="115">
-        <v>8883.52</v>
-      </c>
-      <c r="R59" s="127">
-        <f t="shared" si="39"/>
-        <v>-3.0066910413888426E-3</v>
+        <v>-6.2092946866469934E-3</v>
       </c>
       <c r="S59" s="116">
-        <f t="shared" si="35"/>
-        <v>-1.3613299387851274E-2</v>
+        <f t="shared" si="33"/>
+        <v>-1.7109382199549383E-2</v>
       </c>
       <c r="T59" s="114">
-        <f t="shared" si="36"/>
-        <v>3</v>
+        <f t="shared" si="34"/>
+        <v>4</v>
       </c>
       <c r="U59" s="116">
-        <f t="shared" si="40"/>
-        <v>-0.13613299387851274</v>
+        <f t="shared" si="38"/>
+        <v>-0.12832036649662037</v>
       </c>
       <c r="V59" s="116"/>
       <c r="W59" s="116"/>
@@ -10172,68 +10097,68 @@
         <v>68</v>
       </c>
       <c r="AM59">
-        <v>20.399999999999999</v>
+        <v>22.04</v>
       </c>
     </row>
     <row r="60" spans="1:39">
       <c r="A60" s="117">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B60">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C60">
-        <v>32</v>
+        <v>31.775700000000001</v>
       </c>
       <c r="D60">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E60">
-        <v>35</v>
+        <v>34.762500000000003</v>
       </c>
       <c r="F60" s="112">
         <v>161</v>
       </c>
       <c r="G60">
-        <v>2220.3200000000002</v>
+        <v>2222.88</v>
       </c>
       <c r="L60">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M60">
-        <v>0.957233</v>
+        <v>0.95100700000000005</v>
       </c>
       <c r="N60" s="113">
+        <f t="shared" si="35"/>
+        <v>523223.75937500002</v>
+      </c>
+      <c r="O60">
+        <v>157.21</v>
+      </c>
+      <c r="P60">
+        <v>250427.64</v>
+      </c>
+      <c r="Q60" s="115">
+        <v>8883.52</v>
+      </c>
+      <c r="R60" s="127">
         <f t="shared" si="37"/>
-        <v>523915.29500000004</v>
-      </c>
-      <c r="O60">
-        <v>160.79</v>
-      </c>
-      <c r="P60">
-        <v>250989.9</v>
-      </c>
-      <c r="Q60" s="115">
-        <v>8910.23</v>
-      </c>
-      <c r="R60" s="127">
-        <f t="shared" si="39"/>
-        <v>-1.7822211098927898E-2</v>
+        <v>-3.0066910413888426E-3</v>
       </c>
       <c r="S60" s="116">
-        <f t="shared" si="35"/>
-        <v>-1.2309609463077242E-2</v>
+        <f t="shared" si="33"/>
+        <v>-1.3613299387851274E-2</v>
       </c>
       <c r="T60" s="114">
-        <f t="shared" si="36"/>
-        <v>2</v>
+        <f t="shared" si="34"/>
+        <v>3</v>
       </c>
       <c r="U60" s="116">
-        <f t="shared" si="40"/>
-        <v>-0.18464414194615864</v>
+        <f t="shared" si="38"/>
+        <v>-0.13613299387851274</v>
       </c>
       <c r="V60" s="116"/>
       <c r="W60" s="116"/>
@@ -10247,26 +10172,26 @@
         <v>68</v>
       </c>
       <c r="AM60">
-        <v>18.22</v>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:39">
       <c r="A61" s="117">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="B61">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C61">
-        <v>31.516400000000001</v>
+        <v>32</v>
       </c>
       <c r="D61">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E61">
-        <v>34.463200000000001</v>
+        <v>35</v>
       </c>
       <c r="F61" s="112">
         <v>161</v>
@@ -10275,40 +10200,40 @@
         <v>2220.3200000000002</v>
       </c>
       <c r="L61">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M61">
-        <v>0.979213</v>
+        <v>0.957233</v>
       </c>
       <c r="N61" s="113">
+        <f t="shared" si="35"/>
+        <v>523915.29500000004</v>
+      </c>
+      <c r="O61">
+        <v>160.79</v>
+      </c>
+      <c r="P61">
+        <v>250989.9</v>
+      </c>
+      <c r="Q61" s="115">
+        <v>8910.23</v>
+      </c>
+      <c r="R61" s="127">
         <f t="shared" si="37"/>
-        <v>525953.15476800012</v>
-      </c>
-      <c r="O61">
-        <v>161.94999999999999</v>
-      </c>
-      <c r="P61">
-        <v>252645.61</v>
-      </c>
-      <c r="Q61" s="115">
-        <v>9069.0300000000007</v>
-      </c>
-      <c r="R61" s="127">
-        <f t="shared" si="39"/>
-        <v>-6.8684302510850781E-3</v>
+        <v>-1.7822211098927898E-2</v>
       </c>
       <c r="S61" s="116">
-        <f t="shared" si="35"/>
-        <v>-8.4678157049555836E-3</v>
+        <f t="shared" si="33"/>
+        <v>-1.2309609463077242E-2</v>
       </c>
       <c r="T61" s="114">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <f t="shared" si="34"/>
+        <v>2</v>
       </c>
       <c r="U61" s="116">
-        <f t="shared" si="40"/>
-        <v>-0.25403447114866751</v>
+        <f t="shared" si="38"/>
+        <v>-0.18464414194615864</v>
       </c>
       <c r="V61" s="116"/>
       <c r="W61" s="116"/>
@@ -10322,66 +10247,69 @@
         <v>68</v>
       </c>
       <c r="AM61">
-        <v>16.57</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="62" spans="1:39">
       <c r="A62" s="117">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B62">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C62">
-        <v>31.571400000000001</v>
+        <v>31.516400000000001</v>
       </c>
       <c r="D62">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E62">
-        <v>34.558100000000003</v>
+        <v>34.463200000000001</v>
       </c>
       <c r="F62" s="112">
         <v>161</v>
       </c>
       <c r="G62">
-        <v>2232.66</v>
+        <v>2220.3200000000002</v>
       </c>
       <c r="L62">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M62">
-        <v>0.99851990000000002</v>
-      </c>
-      <c r="N62" s="200">
+        <v>0.979213</v>
+      </c>
+      <c r="N62" s="113">
+        <f t="shared" si="35"/>
+        <v>525953.15476800012</v>
+      </c>
+      <c r="O62">
+        <v>161.94999999999999</v>
+      </c>
+      <c r="P62">
+        <v>252645.61</v>
+      </c>
+      <c r="Q62" s="115">
+        <v>9069.0300000000007</v>
+      </c>
+      <c r="R62" s="127">
         <f t="shared" si="37"/>
-        <v>530444.86411900003</v>
-      </c>
-      <c r="O62">
-        <v>164.91</v>
-      </c>
-      <c r="P62">
-        <v>257088.48</v>
-      </c>
-      <c r="Q62" s="115">
-        <v>9131.32</v>
-      </c>
-      <c r="R62" s="127">
-        <f t="shared" si="39"/>
-        <v>-2.6283166070184549E-3</v>
+        <v>-6.8684302510850781E-3</v>
       </c>
       <c r="S62" s="116">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>-8.4678157049555836E-3</v>
       </c>
       <c r="T62" s="114">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="U62" s="116"/>
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="U62" s="116">
+        <f t="shared" si="38"/>
+        <v>-0.25403447114866751</v>
+      </c>
       <c r="V62" s="116"/>
       <c r="W62" s="116"/>
       <c r="X62" s="116"/>
@@ -10390,72 +10318,69 @@
       <c r="AA62" s="116"/>
       <c r="AB62" s="133"/>
       <c r="AC62" s="134"/>
-      <c r="AH62">
-        <v>12</v>
-      </c>
-      <c r="AI62">
-        <v>41.58</v>
-      </c>
-      <c r="AJ62">
-        <f>AJ69</f>
-        <v>15</v>
-      </c>
-      <c r="AK62">
-        <v>55.55</v>
-      </c>
       <c r="AL62">
         <v>68</v>
       </c>
       <c r="AM62">
-        <v>15.07</v>
+        <v>16.57</v>
       </c>
     </row>
     <row r="63" spans="1:39">
       <c r="A63" s="117">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B63">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C63">
-        <v>31.402999999999999</v>
+        <v>31.571400000000001</v>
       </c>
       <c r="D63">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E63">
-        <v>34.3643</v>
+        <v>34.558100000000003</v>
       </c>
       <c r="F63" s="112">
         <v>161</v>
       </c>
       <c r="G63">
-        <v>2198.16</v>
+        <v>2232.66</v>
       </c>
       <c r="L63">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M63">
-        <v>0.99115900000000001</v>
-      </c>
-      <c r="N63" s="113">
+        <v>0.99851990000000002</v>
+      </c>
+      <c r="N63" s="200">
+        <f t="shared" si="35"/>
+        <v>530444.86411900003</v>
+      </c>
+      <c r="O63">
+        <v>164.91</v>
+      </c>
+      <c r="P63">
+        <v>257088.48</v>
+      </c>
+      <c r="Q63" s="115">
+        <v>9131.32</v>
+      </c>
+      <c r="R63" s="127">
         <f t="shared" si="37"/>
-        <v>523720.92595699994</v>
-      </c>
-      <c r="O63">
-        <v>160.9</v>
-      </c>
-      <c r="Q63" s="115">
-        <v>9155.32</v>
-      </c>
-      <c r="R63" s="127">
-        <f t="shared" si="39"/>
-        <v>1.1047128882442081E-2</v>
-      </c>
-      <c r="S63" s="116"/>
+        <v>-2.6283166070184549E-3</v>
+      </c>
+      <c r="S63" s="116">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="114">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
       <c r="U63" s="116"/>
       <c r="V63" s="116"/>
       <c r="W63" s="116"/>
@@ -10469,66 +10394,66 @@
         <v>12</v>
       </c>
       <c r="AI63">
-        <v>37.799999999999997</v>
+        <v>41.58</v>
       </c>
       <c r="AJ63">
-        <f>AJ69</f>
+        <f>AJ70</f>
         <v>15</v>
       </c>
       <c r="AK63">
-        <v>57.75</v>
+        <v>55.55</v>
       </c>
       <c r="AL63">
         <v>68</v>
       </c>
       <c r="AM63">
-        <v>13.7</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="64" spans="1:39">
       <c r="A64" s="117">
-        <v>45358</v>
+        <v>45359</v>
       </c>
       <c r="B64">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C64">
-        <v>31.297000000000001</v>
+        <v>31.402999999999999</v>
       </c>
       <c r="D64">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E64">
-        <v>34.110599999999998</v>
+        <v>34.3643</v>
       </c>
       <c r="F64" s="112">
         <v>161</v>
       </c>
       <c r="G64">
-        <v>2184.79</v>
+        <v>2198.16</v>
       </c>
       <c r="L64">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M64">
-        <v>0.945214</v>
+        <v>0.99115900000000001</v>
       </c>
       <c r="N64" s="113">
+        <f t="shared" si="35"/>
+        <v>523720.92595699994</v>
+      </c>
+      <c r="O64">
+        <v>160.9</v>
+      </c>
+      <c r="Q64" s="115">
+        <v>9155.32</v>
+      </c>
+      <c r="R64" s="127">
         <f t="shared" si="37"/>
-        <v>515625.882094</v>
-      </c>
-      <c r="O64">
-        <v>155.75</v>
-      </c>
-      <c r="Q64" s="115">
-        <v>9054.18</v>
-      </c>
-      <c r="R64" s="127">
-        <f t="shared" si="39"/>
-        <v>3.4194151209717583E-2</v>
+        <v>1.1047128882442081E-2</v>
       </c>
       <c r="S64" s="116"/>
       <c r="U64" s="116"/>
@@ -10544,66 +10469,66 @@
         <v>12</v>
       </c>
       <c r="AI64">
-        <v>34.380000000000003</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="AJ64">
-        <f>AJ69</f>
+        <f>AJ70</f>
         <v>15</v>
       </c>
       <c r="AK64">
-        <v>63.1</v>
+        <v>57.75</v>
       </c>
       <c r="AL64">
         <v>68</v>
       </c>
       <c r="AM64">
-        <v>12.46</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="65" spans="1:39">
       <c r="A65" s="117">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B65">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C65">
-        <v>31.293399999999998</v>
+        <v>31.297000000000001</v>
       </c>
       <c r="D65">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E65">
-        <v>34.006500000000003</v>
+        <v>34.110599999999998</v>
       </c>
       <c r="F65" s="112">
         <v>161</v>
       </c>
       <c r="G65">
-        <v>2150.9</v>
+        <v>2184.79</v>
       </c>
       <c r="L65">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M65">
-        <v>0.99397100000000005</v>
+        <v>0.945214</v>
       </c>
       <c r="N65" s="113">
+        <f t="shared" si="35"/>
+        <v>515625.882094</v>
+      </c>
+      <c r="O65">
+        <v>155.75</v>
+      </c>
+      <c r="Q65" s="115">
+        <v>9054.18</v>
+      </c>
+      <c r="R65" s="127">
         <f t="shared" si="37"/>
-        <v>516226.70193500002</v>
-      </c>
-      <c r="O65">
-        <v>156.16</v>
-      </c>
-      <c r="Q65" s="115">
-        <v>8744.58</v>
-      </c>
-      <c r="R65" s="127">
-        <f t="shared" si="39"/>
-        <v>-1.3258498407013208E-2</v>
+        <v>3.4194151209717583E-2</v>
       </c>
       <c r="S65" s="116"/>
       <c r="U65" s="116"/>
@@ -10615,77 +10540,70 @@
       <c r="AA65" s="116"/>
       <c r="AB65" s="133"/>
       <c r="AC65" s="134"/>
-      <c r="AF65">
-        <f>AF69</f>
-        <v>57</v>
-      </c>
-      <c r="AG65">
-        <v>580.05924800000003</v>
-      </c>
       <c r="AH65">
         <v>12</v>
       </c>
       <c r="AI65">
-        <v>31.26</v>
+        <v>34.380000000000003</v>
       </c>
       <c r="AJ65">
-        <f>AJ69</f>
+        <f>AJ70</f>
         <v>15</v>
       </c>
       <c r="AK65">
-        <v>57.4</v>
+        <v>63.1</v>
       </c>
       <c r="AL65">
         <v>68</v>
       </c>
       <c r="AM65">
-        <v>11.33</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="66" spans="1:39">
       <c r="A66" s="117">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B66">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C66">
-        <v>31.079899999999999</v>
+        <v>31.293399999999998</v>
       </c>
       <c r="D66">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E66">
-        <v>33.721699999999998</v>
+        <v>34.006500000000003</v>
       </c>
       <c r="F66" s="112">
         <v>161</v>
       </c>
       <c r="G66">
-        <v>2116.34</v>
+        <v>2150.9</v>
       </c>
       <c r="L66">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M66">
-        <v>1.0160309999999999</v>
+        <v>0.99397100000000005</v>
       </c>
       <c r="N66" s="113">
+        <f t="shared" si="35"/>
+        <v>516226.70193500002</v>
+      </c>
+      <c r="O66">
+        <v>156.16</v>
+      </c>
+      <c r="Q66" s="115">
+        <v>8744.58</v>
+      </c>
+      <c r="R66" s="127">
         <f t="shared" si="37"/>
-        <v>513091.35418300005</v>
-      </c>
-      <c r="O66">
-        <v>154.22999999999999</v>
-      </c>
-      <c r="Q66" s="115">
-        <v>8860.52</v>
-      </c>
-      <c r="R66" s="127">
-        <f t="shared" si="39"/>
-        <v>-5.319100910555985E-3</v>
+        <v>-1.3258498407013208E-2</v>
       </c>
       <c r="S66" s="116"/>
       <c r="U66" s="116"/>
@@ -10697,33 +10615,25 @@
       <c r="AA66" s="116"/>
       <c r="AB66" s="133"/>
       <c r="AC66" s="134"/>
-      <c r="AD66">
-        <f>AD69</f>
-        <v>36</v>
-      </c>
-      <c r="AE66" s="135">
-        <v>38.15</v>
-      </c>
       <c r="AF66">
-        <f>AF69</f>
+        <f>AF70</f>
         <v>57</v>
       </c>
       <c r="AG66">
-        <v>579.361718</v>
+        <v>580.05924800000003</v>
       </c>
       <c r="AH66">
-        <f>AH69</f>
         <v>12</v>
       </c>
       <c r="AI66">
-        <v>28.42</v>
+        <v>31.26</v>
       </c>
       <c r="AJ66">
-        <f>AJ69</f>
+        <f>AJ70</f>
         <v>15</v>
       </c>
       <c r="AK66">
-        <v>52.2</v>
+        <v>57.4</v>
       </c>
       <c r="AL66">
         <v>68</v>
@@ -10734,45 +10644,48 @@
     </row>
     <row r="67" spans="1:39">
       <c r="A67" s="117">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B67">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C67">
-        <v>30.905999999999999</v>
+        <v>31.079899999999999</v>
       </c>
       <c r="D67">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E67">
-        <v>33.542299999999997</v>
+        <v>33.721699999999998</v>
       </c>
       <c r="F67" s="112">
         <v>161</v>
       </c>
       <c r="G67">
-        <v>2072.52</v>
+        <v>2116.34</v>
       </c>
       <c r="L67">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M67">
-        <v>1.041954</v>
+        <v>1.0160309999999999</v>
       </c>
       <c r="N67" s="113">
+        <f t="shared" si="35"/>
+        <v>513091.35418300005</v>
+      </c>
+      <c r="O67">
+        <v>154.22999999999999</v>
+      </c>
+      <c r="Q67" s="115">
+        <v>8860.52</v>
+      </c>
+      <c r="R67" s="127">
         <f t="shared" si="37"/>
-        <v>509025.91517699993</v>
-      </c>
-      <c r="Q67" s="115">
-        <v>8907.65</v>
-      </c>
-      <c r="R67" s="127">
-        <f t="shared" si="39"/>
-        <v>-2.1273848882702007E-2</v>
+        <v>-5.319100910555985E-3</v>
       </c>
       <c r="S67" s="116"/>
       <c r="U67" s="116"/>
@@ -10785,32 +10698,32 @@
       <c r="AB67" s="133"/>
       <c r="AC67" s="134"/>
       <c r="AD67">
-        <f>AD69</f>
+        <f>AD70</f>
         <v>36</v>
       </c>
-      <c r="AE67">
-        <v>34.659999999999997</v>
+      <c r="AE67" s="135">
+        <v>38.15</v>
       </c>
       <c r="AF67">
-        <f>AF69</f>
+        <f>AF70</f>
         <v>57</v>
       </c>
       <c r="AG67">
-        <v>578.66060300000004</v>
+        <v>579.361718</v>
       </c>
       <c r="AH67">
-        <f>AH69</f>
+        <f>AH70</f>
         <v>12</v>
       </c>
       <c r="AI67">
-        <v>25.84</v>
+        <v>28.42</v>
       </c>
       <c r="AJ67">
-        <f>AJ69</f>
+        <f>AJ70</f>
         <v>15</v>
       </c>
       <c r="AK67">
-        <v>47.46</v>
+        <v>52.2</v>
       </c>
       <c r="AL67">
         <v>68</v>
@@ -10821,45 +10734,45 @@
     </row>
     <row r="68" spans="1:39">
       <c r="A68" s="117">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B68">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C68">
-        <v>30.7361</v>
+        <v>30.905999999999999</v>
       </c>
       <c r="D68">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E68">
-        <v>33.225700000000003</v>
+        <v>33.542299999999997</v>
       </c>
       <c r="F68" s="112">
         <v>161</v>
       </c>
       <c r="G68">
-        <v>2018.91</v>
+        <v>2072.52</v>
       </c>
       <c r="L68">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M68">
-        <v>1.034036</v>
+        <v>1.041954</v>
       </c>
       <c r="N68" s="113">
+        <f t="shared" si="35"/>
+        <v>509025.91517699993</v>
+      </c>
+      <c r="Q68" s="115">
+        <v>8907.65</v>
+      </c>
+      <c r="R68" s="127">
         <f t="shared" si="37"/>
-        <v>499114.42414299998</v>
-      </c>
-      <c r="Q68" s="115">
-        <v>9097.15</v>
-      </c>
-      <c r="R68" s="127">
-        <f t="shared" si="39"/>
-        <v>-1.0612114783201454E-2</v>
+        <v>-2.1273848882702007E-2</v>
       </c>
       <c r="S68" s="116"/>
       <c r="U68" s="116"/>
@@ -10872,32 +10785,32 @@
       <c r="AB68" s="133"/>
       <c r="AC68" s="134"/>
       <c r="AD68">
-        <f>AD69</f>
+        <f>AD70</f>
         <v>36</v>
       </c>
       <c r="AE68">
-        <v>31.52</v>
+        <v>34.659999999999997</v>
       </c>
       <c r="AF68">
-        <f>AF69</f>
+        <f>AF70</f>
         <v>57</v>
       </c>
       <c r="AG68">
-        <v>576.58807100000001</v>
+        <v>578.66060300000004</v>
       </c>
       <c r="AH68">
-        <f>AH69</f>
+        <f>AH70</f>
         <v>12</v>
       </c>
       <c r="AI68">
-        <v>23.5</v>
+        <v>25.84</v>
       </c>
       <c r="AJ68">
-        <f>AJ69</f>
+        <f>AJ70</f>
         <v>15</v>
       </c>
       <c r="AK68">
-        <v>43.16</v>
+        <v>47.46</v>
       </c>
       <c r="AL68">
         <v>68</v>
@@ -10908,7 +10821,7 @@
     </row>
     <row r="69" spans="1:39">
       <c r="A69" s="117">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B69">
         <f>B70</f>
@@ -10935,26 +10848,35 @@
         <v>125000</v>
       </c>
       <c r="M69">
-        <v>1.010337</v>
+        <v>1.034036</v>
       </c>
       <c r="N69" s="113">
+        <f t="shared" si="35"/>
+        <v>499114.42414299998</v>
+      </c>
+      <c r="Q69" s="115">
+        <v>9097.15</v>
+      </c>
+      <c r="R69" s="127">
         <f t="shared" si="37"/>
-        <v>496152.04914299998</v>
-      </c>
-      <c r="Q69" s="115">
-        <v>9193.69</v>
-      </c>
-      <c r="R69" s="127">
-        <f t="shared" si="39"/>
-        <v>1.428479750785594E-2</v>
-      </c>
-      <c r="S69" s="127"/>
+        <v>-1.0612114783201454E-2</v>
+      </c>
+      <c r="S69" s="116"/>
+      <c r="U69" s="116"/>
+      <c r="V69" s="116"/>
+      <c r="W69" s="116"/>
+      <c r="X69" s="116"/>
+      <c r="Y69" s="116"/>
+      <c r="Z69" s="116"/>
+      <c r="AA69" s="116"/>
+      <c r="AB69" s="133"/>
+      <c r="AC69" s="134"/>
       <c r="AD69">
         <f>AD70</f>
         <v>36</v>
       </c>
       <c r="AE69">
-        <v>28.66</v>
+        <v>31.52</v>
       </c>
       <c r="AF69">
         <f>AF70</f>
@@ -10968,30 +10890,35 @@
         <v>12</v>
       </c>
       <c r="AI69">
-        <v>21.38</v>
+        <v>23.5</v>
       </c>
       <c r="AJ69">
+        <f>AJ70</f>
         <v>15</v>
       </c>
       <c r="AK69">
-        <v>39.24</v>
-      </c>
-      <c r="AM69" s="129">
-        <f>AM68</f>
+        <v>43.16</v>
+      </c>
+      <c r="AL69">
+        <v>68</v>
+      </c>
+      <c r="AM69">
         <v>11.33</v>
       </c>
     </row>
     <row r="70" spans="1:39">
       <c r="A70" s="117">
-        <v>45350</v>
+        <v>45351</v>
       </c>
       <c r="B70">
+        <f>B71</f>
         <v>1110</v>
       </c>
       <c r="C70">
         <v>30.7361</v>
       </c>
       <c r="D70">
+        <f>D71</f>
         <v>321.99</v>
       </c>
       <c r="E70">
@@ -11004,21 +10931,22 @@
         <v>2018.91</v>
       </c>
       <c r="L70">
+        <f>L71</f>
         <v>125000</v>
       </c>
       <c r="M70">
-        <v>1.067704</v>
+        <v>1.010337</v>
       </c>
       <c r="N70" s="113">
+        <f t="shared" si="35"/>
+        <v>496152.04914299998</v>
+      </c>
+      <c r="Q70" s="115">
+        <v>9193.69</v>
+      </c>
+      <c r="R70" s="127">
         <f t="shared" si="37"/>
-        <v>503322.92414299998</v>
-      </c>
-      <c r="Q70" s="115">
-        <v>9062.36</v>
-      </c>
-      <c r="R70" s="127">
-        <f t="shared" si="39"/>
-        <v>-1.292378585710563E-2</v>
+        <v>1.428479750785594E-2</v>
       </c>
       <c r="S70" s="127"/>
       <c r="AD70">
@@ -11026,31 +10954,36 @@
         <v>36</v>
       </c>
       <c r="AE70">
-        <v>26.06</v>
+        <v>28.66</v>
       </c>
       <c r="AF70">
+        <f>AF71</f>
         <v>57</v>
       </c>
       <c r="AG70">
         <v>576.58807100000001</v>
       </c>
       <c r="AH70">
+        <f>AH71</f>
         <v>12</v>
       </c>
       <c r="AI70">
-        <v>19.45</v>
-      </c>
-      <c r="AK70" s="129">
-        <f>AK69</f>
+        <v>21.38</v>
+      </c>
+      <c r="AJ70">
+        <v>15</v>
+      </c>
+      <c r="AK70">
         <v>39.24</v>
       </c>
-      <c r="AM70" s="129" t="s">
-        <v>69</v>
+      <c r="AM70" s="129">
+        <f>AM69</f>
+        <v>11.33</v>
       </c>
     </row>
     <row r="71" spans="1:39">
       <c r="A71" s="117">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B71">
         <v>1110</v>
@@ -11070,29 +11003,30 @@
       <c r="G71">
         <v>2018.91</v>
       </c>
-      <c r="L71" s="199">
-        <v>75000</v>
+      <c r="L71">
+        <v>125000</v>
       </c>
       <c r="M71">
-        <v>1.064435</v>
+        <v>1.067704</v>
       </c>
       <c r="N71" s="113">
+        <f t="shared" si="35"/>
+        <v>503322.92414299998</v>
+      </c>
+      <c r="Q71" s="115">
+        <v>9062.36</v>
+      </c>
+      <c r="R71" s="127">
         <f t="shared" si="37"/>
-        <v>449692.54914299998</v>
-      </c>
-      <c r="Q71" s="115">
-        <v>9179.48</v>
-      </c>
-      <c r="R71" s="127">
-        <f t="shared" si="39"/>
-        <v>-1.6847359545420826E-2</v>
+        <v>-1.292378585710563E-2</v>
       </c>
       <c r="S71" s="127"/>
       <c r="AD71">
+        <f>AD72</f>
         <v>36</v>
       </c>
       <c r="AE71">
-        <v>23.7</v>
+        <v>26.06</v>
       </c>
       <c r="AF71">
         <v>57</v>
@@ -11100,20 +11034,23 @@
       <c r="AG71">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI71" s="129">
-        <f>AI70</f>
+      <c r="AH71">
+        <v>12</v>
+      </c>
+      <c r="AI71">
         <v>19.45</v>
       </c>
-      <c r="AK71" s="129" t="s">
+      <c r="AK71" s="129">
+        <f>AK70</f>
+        <v>39.24</v>
+      </c>
+      <c r="AM71" s="129" t="s">
         <v>69</v>
-      </c>
-      <c r="AM71" s="130" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:39">
       <c r="A72" s="117">
-        <v>45348</v>
+        <v>45349</v>
       </c>
       <c r="B72">
         <v>1110</v>
@@ -11133,30 +11070,29 @@
       <c r="G72">
         <v>2018.91</v>
       </c>
-      <c r="L72">
-        <f>L73</f>
-        <v>50000</v>
+      <c r="L72" s="199">
+        <v>75000</v>
       </c>
       <c r="M72">
-        <v>1.0192399999999999</v>
+        <v>1.064435</v>
       </c>
       <c r="N72" s="113">
+        <f t="shared" si="35"/>
+        <v>449692.54914299998</v>
+      </c>
+      <c r="Q72" s="115">
+        <v>9179.48</v>
+      </c>
+      <c r="R72" s="127">
         <f t="shared" si="37"/>
-        <v>420821.92414299998</v>
-      </c>
-      <c r="Q72" s="115">
-        <v>9334.1299999999992</v>
-      </c>
-      <c r="R72" s="127">
-        <f t="shared" si="39"/>
-        <v>-4.2928478604864484E-3</v>
+        <v>-1.6847359545420826E-2</v>
       </c>
       <c r="S72" s="127"/>
       <c r="AD72">
         <v>36</v>
       </c>
       <c r="AE72">
-        <v>21.56</v>
+        <v>23.7</v>
       </c>
       <c r="AF72">
         <v>57</v>
@@ -11164,20 +11100,20 @@
       <c r="AG72">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI72" s="129" t="s">
+      <c r="AI72" s="129">
+        <f>AI71</f>
+        <v>19.45</v>
+      </c>
+      <c r="AK72" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="AK72" s="130" t="s">
+      <c r="AM72" s="130" t="s">
         <v>68</v>
-      </c>
-      <c r="AM72" s="130">
-        <f>AM5</f>
-        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:39">
       <c r="A73" s="117">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B73">
         <v>1110</v>
@@ -11198,28 +11134,29 @@
         <v>2018.91</v>
       </c>
       <c r="L73">
+        <f>L74</f>
         <v>50000</v>
       </c>
       <c r="M73">
-        <v>1.0032049999999999</v>
+        <v>1.0192399999999999</v>
       </c>
       <c r="N73" s="113">
+        <f t="shared" si="35"/>
+        <v>420821.92414299998</v>
+      </c>
+      <c r="Q73" s="115">
+        <v>9334.1299999999992</v>
+      </c>
+      <c r="R73" s="127">
         <f t="shared" si="37"/>
-        <v>420020.17414299998</v>
-      </c>
-      <c r="Q73" s="115">
-        <v>9374.2000000000007</v>
-      </c>
-      <c r="R73" s="127">
-        <f t="shared" si="39"/>
-        <v>2.8834460540633211E-3</v>
+        <v>-4.2928478604864484E-3</v>
       </c>
       <c r="S73" s="127"/>
       <c r="AD73">
         <v>36</v>
       </c>
       <c r="AE73">
-        <v>19.600000000000001</v>
+        <v>21.56</v>
       </c>
       <c r="AF73">
         <v>57</v>
@@ -11227,132 +11164,195 @@
       <c r="AG73">
         <v>576.58807100000001</v>
       </c>
-      <c r="AI73" s="130" t="s">
+      <c r="AI73" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK73" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="AK73" s="130">
-        <v>55.5</v>
-      </c>
-      <c r="AM73" s="116">
-        <f>(AM72-AM68)/AM68</f>
-        <v>0.73786407766990303</v>
+      <c r="AM73" s="130">
+        <f>AM5</f>
+        <v>19.690000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:39">
-      <c r="A74" s="198">
-        <v>45344</v>
-      </c>
-      <c r="L74" s="199">
+      <c r="A74" s="117">
+        <v>45345</v>
+      </c>
+      <c r="B74">
+        <v>1110</v>
+      </c>
+      <c r="C74">
+        <v>30.7361</v>
+      </c>
+      <c r="D74">
+        <v>321.99</v>
+      </c>
+      <c r="E74">
+        <v>33.225700000000003</v>
+      </c>
+      <c r="F74" s="112">
+        <v>161</v>
+      </c>
+      <c r="G74">
+        <v>2018.91</v>
+      </c>
+      <c r="L74">
         <v>50000</v>
       </c>
       <c r="M74">
         <v>1.0032049999999999</v>
       </c>
       <c r="N74" s="113">
+        <f t="shared" si="35"/>
+        <v>420020.17414299998</v>
+      </c>
+      <c r="Q74" s="115">
+        <v>9374.2000000000007</v>
+      </c>
+      <c r="R74" s="127">
         <f t="shared" si="37"/>
-        <v>50160.249999999993</v>
-      </c>
-      <c r="Q74" s="115">
-        <v>9347.17</v>
-      </c>
+        <v>2.8834460540633211E-3</v>
+      </c>
+      <c r="S74" s="127"/>
       <c r="AD74">
         <v>36</v>
       </c>
       <c r="AE74">
-        <v>17.82</v>
-      </c>
-      <c r="AI74" s="130">
-        <v>45.72</v>
-      </c>
-      <c r="AK74" s="116">
-        <f>(AK73-AK69)/AK69</f>
-        <v>0.41437308868501521</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF74">
+        <v>57</v>
+      </c>
+      <c r="AG74">
+        <v>576.58807100000001</v>
+      </c>
+      <c r="AI74" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK74" s="130">
+        <v>55.5</v>
+      </c>
+      <c r="AM74" s="116">
+        <f>(AM73-AM69)/AM69</f>
+        <v>0.73786407766990303</v>
       </c>
     </row>
     <row r="75" spans="1:39">
+      <c r="A75" s="198">
+        <v>45344</v>
+      </c>
+      <c r="L75" s="199">
+        <v>50000</v>
+      </c>
       <c r="M75">
-        <v>0.93849000000000005</v>
+        <v>1.0032049999999999</v>
+      </c>
+      <c r="N75" s="113">
+        <f t="shared" si="35"/>
+        <v>50160.249999999993</v>
+      </c>
+      <c r="Q75" s="115">
+        <v>9347.17</v>
       </c>
       <c r="AD75">
         <v>36</v>
       </c>
-      <c r="AE75" s="129">
-        <v>15.3</v>
-      </c>
-      <c r="AI75" s="116">
-        <f>(AI74-AI70)/AI70</f>
-        <v>1.3506426735218509</v>
-      </c>
-      <c r="AM75" s="132">
-        <f>(AL68*AM72)-(AL56*AM68)</f>
-        <v>568.48</v>
+      <c r="AE75">
+        <v>17.82</v>
+      </c>
+      <c r="AI75" s="130">
+        <v>45.72</v>
+      </c>
+      <c r="AK75" s="116">
+        <f>(AK74-AK70)/AK70</f>
+        <v>0.41437308868501521</v>
       </c>
     </row>
     <row r="76" spans="1:39">
       <c r="M76">
-        <v>0.91198999999999997</v>
-      </c>
-      <c r="R76" s="136">
-        <f>SUM(R10:R75)</f>
-        <v>0.16013977335880647</v>
-      </c>
-      <c r="S76" s="136"/>
-      <c r="AE76" s="129" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ76" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="AK76" s="132">
-        <f>(AJ69*AK73)-(AJ10*AK69)</f>
-        <v>832.5</v>
+        <v>0.93849000000000005</v>
+      </c>
+      <c r="AD76">
+        <v>36</v>
+      </c>
+      <c r="AE76" s="129">
+        <v>15.3</v>
+      </c>
+      <c r="AI76" s="116">
+        <f>(AI75-AI71)/AI71</f>
+        <v>1.3506426735218509</v>
+      </c>
+      <c r="AM76" s="132">
+        <f>(AL69*AM73)-(AL57*AM69)</f>
+        <v>568.48</v>
       </c>
     </row>
     <row r="77" spans="1:39">
       <c r="M77">
-        <v>0.90268000000000004</v>
-      </c>
-      <c r="AE77" s="130" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH77" s="132" t="s">
+        <v>0.91198999999999997</v>
+      </c>
+      <c r="R77" s="136">
+        <f>SUM(R11:R76)</f>
+        <v>0.16013977335880647</v>
+      </c>
+      <c r="S77" s="136"/>
+      <c r="AE77" s="129" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ77" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AI77" s="132">
-        <f>(AH70*AI74)-(AH10*AI70)</f>
-        <v>548.64</v>
+      <c r="AK77" s="132">
+        <f>(AJ70*AK74)-(AJ11*AK70)</f>
+        <v>832.5</v>
       </c>
     </row>
     <row r="78" spans="1:39">
       <c r="M78">
-        <v>0.89847999999999995</v>
-      </c>
-      <c r="AD78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE78" s="130">
-        <v>38</v>
+        <v>0.90268000000000004</v>
+      </c>
+      <c r="AE78" s="130" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH78" s="132" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI78" s="132">
+        <f>(AH71*AI75)-(AH11*AI71)</f>
+        <v>548.64</v>
       </c>
     </row>
     <row r="79" spans="1:39">
       <c r="M79">
+        <v>0.89847999999999995</v>
+      </c>
+      <c r="AD79" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE79" s="130">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39">
+      <c r="M80">
         <v>0.88783999999999996</v>
       </c>
-      <c r="AE79" s="116">
+      <c r="AE80" s="116">
         <f>Sayfa2!M59</f>
         <v>1.3456790123456792</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
-      <c r="M80">
+    <row r="81" spans="13:31">
+      <c r="M81">
         <v>0.86724999999999997</v>
       </c>
     </row>
-    <row r="81" spans="30:31">
-      <c r="AD81" s="132" t="s">
+    <row r="82" spans="13:31">
+      <c r="AD82" s="132" t="s">
         <v>72</v>
       </c>
-      <c r="AE81" s="132">
+      <c r="AE82" s="132">
         <f>(38*36)-(36*16.2)</f>
         <v>784.80000000000007</v>
       </c>

--- a/05-24-YTRMson.xlsx
+++ b/05-24-YTRMson.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\tdy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B4C660-65C2-49B1-821B-499D08BD8F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58318C05-6EA7-4085-8A6B-C96E3034D342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="30" windowWidth="9570" windowHeight="7170" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa2" sheetId="1" r:id="rId1"/>
@@ -1140,7 +1140,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1412,6 +1412,7 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="14" fillId="13" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Accent 1 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -2034,11 +2035,11 @@
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="13">
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="K2" s="14">
         <f>SUM(K5:K6)</f>
-        <v>255107.37235600001</v>
+        <v>279202.95135600003</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2047,11 +2048,11 @@
       </c>
       <c r="C3" s="3">
         <f>B2-B3</f>
-        <v>1678</v>
+        <v>1696</v>
       </c>
       <c r="D3" s="3">
         <f>K2/C3</f>
-        <v>152.03061523003575</v>
+        <v>164.62438169575475</v>
       </c>
       <c r="L3" s="15"/>
     </row>
@@ -2084,24 +2085,24 @@
       <c r="H5" s="28"/>
       <c r="I5" s="29">
         <f>SUM(I11:I36)</f>
-        <v>793882.18689999997</v>
+        <v>818380.86589999998</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25">
         <f>SUBTOTAL(109,K10:K37)</f>
-        <v>230030.83446499999</v>
+        <v>254126.41346500002</v>
       </c>
       <c r="L5" s="30">
         <f>K5/E5</f>
-        <v>0.41701200775512226</v>
+        <v>0.46069374198949958</v>
       </c>
       <c r="M5" s="31">
         <f>SUBTOTAL(101,M10:M28)</f>
-        <v>-0.12845456184939683</v>
+        <v>-0.1065057648455936</v>
       </c>
       <c r="N5" s="31">
         <f>SUBTOTAL(101,N10:N28)</f>
-        <v>-4.5041240357979323E-2</v>
+        <v>-3.1303814304734466E-2</v>
       </c>
       <c r="O5" s="32"/>
     </row>
@@ -2256,7 +2257,7 @@
       <c r="N11" s="59"/>
       <c r="O11" s="60">
         <f>SUM(O12:O37)</f>
-        <v>230030.83446499999</v>
+        <v>254126.41346500005</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -2278,7 +2279,7 @@
       </c>
       <c r="F15" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G15" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2286,31 +2287,31 @@
       </c>
       <c r="H15" s="64">
         <f>Sayfa4!AA5</f>
-        <v>21.38</v>
+        <v>22.22</v>
       </c>
       <c r="I15" s="51">
         <f>Sayfa2!$H15*Sayfa2!$G15</f>
-        <v>855.19999999999993</v>
+        <v>888.8</v>
       </c>
       <c r="J15" s="46">
         <f>H15-D15</f>
-        <v>-9.120000000000001</v>
+        <v>-8.2800000000000011</v>
       </c>
       <c r="K15" s="65">
         <f>Sayfa2!$J15*Sayfa2!$C15</f>
-        <v>-364.80000000000007</v>
+        <v>-331.20000000000005</v>
       </c>
       <c r="L15" s="66">
         <f>F15-B15</f>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M15" s="116">
         <f>K15/E15</f>
-        <v>-0.29901639344262299</v>
+        <v>-0.27147540983606561</v>
       </c>
       <c r="N15" s="116">
         <f>M15/L15*30</f>
-        <v>-0.1300071275837491</v>
+        <v>-9.3612210288298484E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -2332,7 +2333,7 @@
       </c>
       <c r="F16" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G16" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2340,31 +2341,31 @@
       </c>
       <c r="H16" s="64">
         <f>Sayfa4!Y5</f>
-        <v>25.86</v>
+        <v>26.68</v>
       </c>
       <c r="I16" s="51">
         <f>Sayfa2!$H16*Sayfa2!$G16</f>
-        <v>905.1</v>
+        <v>933.8</v>
       </c>
       <c r="J16" s="46">
         <f>H16-D16</f>
-        <v>-11.530000000000001</v>
+        <v>-10.71</v>
       </c>
       <c r="K16" s="65">
         <f>Sayfa2!$J16*Sayfa2!$C16</f>
-        <v>-403.55000000000007</v>
+        <v>-374.85</v>
       </c>
       <c r="L16" s="66">
         <f>F16-B16</f>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M16" s="116">
         <f>K16/E16</f>
-        <v>-0.30837122225193903</v>
+        <v>-0.28644022465899971</v>
       </c>
       <c r="N16" s="116">
         <f>M16/L16*30</f>
-        <v>-0.1340744444573648</v>
+        <v>-9.8772491261724035E-2</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2386,7 +2387,7 @@
       </c>
       <c r="F17" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G17" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2394,31 +2395,31 @@
       </c>
       <c r="H17" s="64">
         <f>Sayfa4!AC5</f>
-        <v>122.5</v>
+        <v>119.1</v>
       </c>
       <c r="I17" s="51">
         <f>Sayfa2!$H17*Sayfa2!$G17</f>
-        <v>1225</v>
+        <v>1191</v>
       </c>
       <c r="J17" s="46">
         <f>H17-D17</f>
-        <v>-12.5</v>
+        <v>-15.900000000000006</v>
       </c>
       <c r="K17" s="65">
         <f>Sayfa2!$J17*Sayfa2!$C17</f>
-        <v>-125</v>
+        <v>-159.00000000000006</v>
       </c>
       <c r="L17" s="66">
         <f>F17-B17</f>
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="M17" s="116">
         <f>K17/E17</f>
-        <v>-9.2592592592592587E-2</v>
+        <v>-0.11777777777777781</v>
       </c>
       <c r="N17" s="116">
         <f>M17/L17*30</f>
-        <v>-3.6075036075036072E-2</v>
+        <v>-3.7192982456140361E-2</v>
       </c>
       <c r="O17" s="68"/>
     </row>
@@ -2445,7 +2446,7 @@
       </c>
       <c r="F19" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G19" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2469,7 +2470,7 @@
       </c>
       <c r="L19" s="66">
         <f>F19-B19</f>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M19" s="116">
         <f>K19/E19</f>
@@ -2477,7 +2478,7 @@
       </c>
       <c r="N19" s="116">
         <f>M19/L19*30</f>
-        <v>1.0276206089872369E-2</v>
+        <v>7.1410923675384267E-3</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2499,7 +2500,7 @@
       </c>
       <c r="F21" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G21" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2507,31 +2508,31 @@
       </c>
       <c r="H21" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.46</v>
+        <v>24.85</v>
       </c>
       <c r="I21" s="51">
         <f>Sayfa2!$H21*Sayfa2!$G21</f>
-        <v>61150</v>
+        <v>62125</v>
       </c>
       <c r="J21" s="46">
         <f>H21-D21</f>
-        <v>-0.25</v>
+        <v>0.14000000000000057</v>
       </c>
       <c r="K21" s="65">
         <f>Sayfa2!$J21*Sayfa2!$C21</f>
-        <v>-625</v>
+        <v>350.00000000000142</v>
       </c>
       <c r="L21" s="66">
         <f>F21-B21</f>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M21" s="116">
         <f>K21/E21</f>
-        <v>-1.0117361392148928E-2</v>
+        <v>5.6657223796034223E-3</v>
       </c>
       <c r="N21" s="116">
         <f>M21/L21*30</f>
-        <v>-4.3988527791951866E-3</v>
+        <v>1.953697372277042E-3</v>
       </c>
       <c r="O21" s="68"/>
       <c r="P21" s="69">
@@ -2580,7 +2581,7 @@
       </c>
       <c r="F23" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G23" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2588,31 +2589,31 @@
       </c>
       <c r="H23" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.46</v>
+        <v>24.85</v>
       </c>
       <c r="I23" s="51">
         <f>Sayfa2!$H23*Sayfa2!$G23</f>
-        <v>61150</v>
+        <v>62125</v>
       </c>
       <c r="J23" s="46">
         <f>H23-D23</f>
-        <v>-0.44999999999999929</v>
+        <v>-5.9999999999998721E-2</v>
       </c>
       <c r="K23" s="65">
         <f>Sayfa2!$J23*Sayfa2!$C23</f>
-        <v>-1124.9999999999982</v>
+        <v>-149.99999999999682</v>
       </c>
       <c r="L23" s="66">
         <f>F23-B23</f>
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="M23" s="67">
         <f>K23/E23</f>
-        <v>-1.8065034122842202E-2</v>
+        <v>-2.4086712163789133E-3</v>
       </c>
       <c r="N23" s="116">
         <f>M23/L23*30</f>
-        <v>-7.7421574812180857E-3</v>
+        <v>-8.2113791467462954E-4</v>
       </c>
       <c r="O23" s="68"/>
       <c r="P23" s="69">
@@ -2661,7 +2662,7 @@
       </c>
       <c r="F25" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G25" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2669,31 +2670,31 @@
       </c>
       <c r="H25" s="64">
         <f>Sayfa4!I5</f>
-        <v>24.46</v>
+        <v>24.85</v>
       </c>
       <c r="I25" s="51">
         <f>Sayfa2!$H25*Sayfa2!$G25</f>
-        <v>61150</v>
+        <v>62125</v>
       </c>
       <c r="J25" s="46">
         <f>H25-D25</f>
-        <v>-0.66000000000000014</v>
+        <v>-0.26999999999999957</v>
       </c>
       <c r="K25" s="65">
         <f>Sayfa2!$J25*Sayfa2!$C25</f>
-        <v>-1650.0000000000005</v>
+        <v>-674.99999999999898</v>
       </c>
       <c r="L25" s="66">
         <f>F25-B25</f>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="M25" s="67">
         <f>K25/E25</f>
-        <v>-2.6273885350318479E-2</v>
+        <v>-1.0748407643312086E-2</v>
       </c>
       <c r="N25" s="116">
         <f>M25/L25*30</f>
-        <v>-1.0797487130267869E-2</v>
+        <v>-3.5434310912017862E-3</v>
       </c>
       <c r="O25" s="68"/>
       <c r="P25" s="69">
@@ -2742,7 +2743,7 @@
       </c>
       <c r="F27" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G27" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2750,31 +2751,31 @@
       </c>
       <c r="H27" s="64">
         <f>Sayfa4!M5</f>
-        <v>0.81822300000000003</v>
+        <v>0.88344500000000004</v>
       </c>
       <c r="I27" s="51">
         <f>Sayfa2!$H27*Sayfa2!$G27</f>
-        <v>61366.725000000006</v>
+        <v>66258.375</v>
       </c>
       <c r="J27" s="46">
         <f>H27-D27</f>
-        <v>-0.24621199999999999</v>
+        <v>-0.18098999999999998</v>
       </c>
       <c r="K27" s="65">
         <f>Sayfa2!$J27*Sayfa2!$C27</f>
-        <v>-18465.899999999998</v>
+        <v>-13574.249999999998</v>
       </c>
       <c r="L27" s="66">
         <f>F27-B27</f>
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="M27" s="67">
         <f>K27/E27</f>
-        <v>-0.23130768905569618</v>
+        <v>-0.17003386773264687</v>
       </c>
       <c r="N27" s="116">
         <f>M27/L27*30</f>
-        <v>-5.2174666704292369E-2</v>
+        <v>-3.378156312569143E-2</v>
       </c>
       <c r="O27" s="68"/>
     </row>
@@ -2797,7 +2798,7 @@
       </c>
       <c r="F28" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G28" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -2805,35 +2806,35 @@
       </c>
       <c r="H28" s="64">
         <f>H27</f>
-        <v>0.81822300000000003</v>
+        <v>0.88344500000000004</v>
       </c>
       <c r="I28" s="51">
         <f>Sayfa2!$H28*Sayfa2!$G28</f>
-        <v>40911.15</v>
+        <v>44172.25</v>
       </c>
       <c r="J28" s="46">
         <f>H28-D28</f>
-        <v>-0.18498199999999987</v>
+        <v>-0.11975999999999987</v>
       </c>
       <c r="K28" s="65">
         <f>Sayfa2!$J28*Sayfa2!$C28</f>
-        <v>-9249.0999999999931</v>
+        <v>-5987.9999999999936</v>
       </c>
       <c r="L28" s="66">
         <f>F28-B28</f>
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="M28" s="67">
         <f>K28/E28</f>
-        <v>-0.18439102675923655</v>
+        <v>-0.11937739544759036</v>
       </c>
       <c r="N28" s="116">
         <f>M28/L28*30</f>
-        <v>-4.0377597100562747E-2</v>
+        <v>-2.3105302344694909E-2</v>
       </c>
       <c r="O28" s="70">
         <f>SUM(K13:K28)</f>
-        <v>-31173.568534999991</v>
+        <v>-20067.518534999988</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -2872,50 +2873,50 @@
       </c>
       <c r="F30" s="62">
         <f t="shared" ref="F30:F46" si="0">$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G30" s="63">
         <v>50</v>
       </c>
       <c r="H30" s="64">
         <f>Sayfa4!G11</f>
-        <v>2368.4299999999998</v>
+        <v>2449.0500000000002</v>
       </c>
       <c r="I30" s="51">
         <f>Sayfa2!$H30*Sayfa2!$G30</f>
-        <v>118421.49999999999</v>
+        <v>122452.50000000001</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" ref="J30:J36" si="1">H30-D30</f>
-        <v>541.89999999999986</v>
+        <v>622.52000000000021</v>
       </c>
       <c r="K30" s="65">
         <f>Sayfa2!$J30*Sayfa2!$C30</f>
-        <v>24385.499999999993</v>
+        <v>28013.400000000009</v>
       </c>
       <c r="L30" s="66">
         <f t="shared" ref="L30:L36" si="2">F30-B30</f>
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="M30" s="67">
         <f t="shared" ref="M30:M36" si="3">K30/E30</f>
-        <v>0.29668278101098794</v>
+        <v>0.34082111982830843</v>
       </c>
       <c r="N30" s="116">
         <f t="shared" ref="N30:N36" si="4">M30/L30*30</f>
-        <v>3.3971310802784885E-2</v>
+        <v>3.6516548553033046E-2</v>
       </c>
       <c r="O30" s="68"/>
       <c r="P30" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>118421.49999999999</v>
+        <v>122452.50000000001</v>
       </c>
       <c r="Q30" s="1">
         <v>2000</v>
       </c>
       <c r="R30" s="1">
         <f>P30/Q30</f>
-        <v>59.21074999999999</v>
+        <v>61.226250000000007</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -2937,50 +2938,50 @@
       </c>
       <c r="F31" s="62">
         <f t="shared" si="0"/>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G31" s="63">
         <v>11</v>
       </c>
       <c r="H31" s="64">
         <f>H30</f>
-        <v>2368.4299999999998</v>
+        <v>2449.0500000000002</v>
       </c>
       <c r="I31" s="51">
         <f>Sayfa2!$H31*Sayfa2!$G31</f>
-        <v>26052.73</v>
+        <v>26939.550000000003</v>
       </c>
       <c r="J31" s="46">
         <f t="shared" si="1"/>
-        <v>1966.33</v>
+        <v>2046.9500000000003</v>
       </c>
       <c r="K31" s="65">
         <f>Sayfa2!$J31*Sayfa2!$C31</f>
-        <v>21629.629999999997</v>
+        <v>22516.450000000004</v>
       </c>
       <c r="L31" s="66">
         <f t="shared" si="2"/>
-        <v>1237</v>
+        <v>1255</v>
       </c>
       <c r="M31" s="67">
         <f t="shared" si="3"/>
-        <v>4.8901517035563282</v>
+        <v>5.0906490922656058</v>
       </c>
       <c r="N31" s="116">
         <f t="shared" si="4"/>
-        <v>0.11859705020750998</v>
+        <v>0.12168882292268379</v>
       </c>
       <c r="O31" s="68"/>
       <c r="P31" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>26052.73</v>
+        <v>26939.550000000003</v>
       </c>
       <c r="Q31" s="1">
         <v>2000</v>
       </c>
       <c r="R31" s="1">
         <f>P31/Q31</f>
-        <v>13.026365</v>
+        <v>13.469775000000002</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3002,50 +3003,50 @@
       </c>
       <c r="F32" s="62">
         <f t="shared" si="0"/>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G32" s="63">
         <v>50</v>
       </c>
       <c r="H32" s="64">
         <f>H31</f>
-        <v>2368.4299999999998</v>
+        <v>2449.0500000000002</v>
       </c>
       <c r="I32" s="51">
         <f>Sayfa2!$H32*Sayfa2!$G32</f>
-        <v>118421.49999999999</v>
+        <v>122452.50000000001</v>
       </c>
       <c r="J32" s="46">
         <f t="shared" si="1"/>
-        <v>1899.5699999999997</v>
+        <v>1980.19</v>
       </c>
       <c r="K32" s="65">
         <f>Sayfa2!$J32*Sayfa2!$C32</f>
-        <v>94978.499999999985</v>
+        <v>99009.5</v>
       </c>
       <c r="L32" s="66">
         <f t="shared" si="2"/>
-        <v>1397</v>
+        <v>1415</v>
       </c>
       <c r="M32" s="67">
         <f t="shared" si="3"/>
-        <v>4.0514652561532225</v>
+        <v>4.2234142387919631</v>
       </c>
       <c r="N32" s="116">
         <f t="shared" si="4"/>
-        <v>8.7003548807871631E-2</v>
+        <v>8.9542351352479788E-2</v>
       </c>
       <c r="O32" s="68"/>
       <c r="P32" s="6">
         <f>Tablo2[[#This Row],[Tutar3]]</f>
-        <v>118421.49999999999</v>
+        <v>122452.50000000001</v>
       </c>
       <c r="Q32" s="1">
         <v>2000</v>
       </c>
       <c r="R32" s="1">
         <f>P32/Q32</f>
-        <v>59.21074999999999</v>
+        <v>61.226250000000007</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -3067,7 +3068,7 @@
       </c>
       <c r="F33" s="62">
         <f t="shared" si="0"/>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G33" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3075,36 +3076,36 @@
       </c>
       <c r="H33" s="64">
         <f>H32</f>
-        <v>2368.4299999999998</v>
+        <v>2449.0500000000002</v>
       </c>
       <c r="I33" s="51">
         <f>Sayfa2!$H33*Sayfa2!$G33</f>
-        <v>59210.749999999993</v>
+        <v>61226.250000000007</v>
       </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>1968.56</v>
+        <v>2049.1800000000003</v>
       </c>
       <c r="K33" s="65">
         <f>Sayfa2!$J33*Sayfa2!$C33</f>
-        <v>49214</v>
+        <v>51229.500000000007</v>
       </c>
       <c r="L33" s="66">
         <f t="shared" si="2"/>
-        <v>1461</v>
+        <v>1479</v>
       </c>
       <c r="M33" s="67">
         <f t="shared" si="3"/>
-        <v>4.922999974991872</v>
+        <v>5.1246155000375131</v>
       </c>
       <c r="N33" s="116">
         <f t="shared" si="4"/>
-        <v>0.1010882951743711</v>
+        <v>0.10394757606566965</v>
       </c>
       <c r="O33" s="68"/>
       <c r="R33" s="1">
         <f>SUM(R30:R32)</f>
-        <v>131.44786499999998</v>
+        <v>135.92227500000001</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F34" s="62">
         <f t="shared" si="0"/>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G34" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3134,31 +3135,31 @@
       </c>
       <c r="H34" s="64">
         <f>H33</f>
-        <v>2368.4299999999998</v>
+        <v>2449.0500000000002</v>
       </c>
       <c r="I34" s="51">
         <f>Sayfa2!$H34*Sayfa2!$G34</f>
-        <v>56842.319999999992</v>
+        <v>58777.200000000004</v>
       </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>2094.62</v>
+        <v>2175.2400000000002</v>
       </c>
       <c r="K34" s="65">
         <f>Sayfa2!$J34*Sayfa2!$C34</f>
-        <v>50270.879999999997</v>
+        <v>52205.760000000009</v>
       </c>
       <c r="L34" s="66">
         <f t="shared" si="2"/>
-        <v>1678</v>
+        <v>1696</v>
       </c>
       <c r="M34" s="67">
         <f t="shared" si="3"/>
-        <v>7.6499032175596202</v>
+        <v>7.9443409663635371</v>
       </c>
       <c r="N34" s="116">
         <f t="shared" si="4"/>
-        <v>0.13676823392538057</v>
+        <v>0.14052489916916633</v>
       </c>
       <c r="O34" s="68"/>
     </row>
@@ -3181,7 +3182,7 @@
       </c>
       <c r="F35" s="62">
         <f t="shared" si="0"/>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G35" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3189,40 +3190,40 @@
       </c>
       <c r="H35" s="64">
         <f>H34</f>
-        <v>2368.4299999999998</v>
+        <v>2449.0500000000002</v>
       </c>
       <c r="I35" s="51">
         <f>Sayfa2!$H35*Sayfa2!$G35</f>
-        <v>2368.4299999999998</v>
+        <v>2449.0500000000002</v>
       </c>
       <c r="J35" s="46">
         <f t="shared" si="1"/>
-        <v>2130.8399999999997</v>
+        <v>2211.46</v>
       </c>
       <c r="K35" s="65">
         <f>Sayfa2!$J35*Sayfa2!$C35</f>
-        <v>2130.8399999999997</v>
+        <v>2211.46</v>
       </c>
       <c r="L35" s="66">
         <f t="shared" si="2"/>
-        <v>1678</v>
+        <v>1696</v>
       </c>
       <c r="M35" s="67">
         <f t="shared" si="3"/>
-        <v>8.9685592827980969</v>
+        <v>9.3078833284229141</v>
       </c>
       <c r="N35" s="116">
         <f t="shared" si="4"/>
-        <v>0.1603437297282139</v>
+        <v>0.16464416264899023</v>
       </c>
       <c r="O35" s="68"/>
       <c r="P35" s="6">
         <f>SUM(P30:P34)</f>
-        <v>262895.73</v>
+        <v>271844.55000000005</v>
       </c>
       <c r="R35" s="1">
         <f>P35/2220.32</f>
-        <v>118.40443269438637</v>
+        <v>122.43485173308353</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -3244,7 +3245,7 @@
       </c>
       <c r="F36" s="62">
         <f t="shared" si="0"/>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G36" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3252,43 +3253,43 @@
       </c>
       <c r="H36" s="64">
         <f>Sayfa4!C5</f>
-        <v>31.752300000000002</v>
+        <v>32.124200000000002</v>
       </c>
       <c r="I36" s="51">
         <f>Sayfa2!$H36*Sayfa2!$G36</f>
-        <v>35245.053</v>
+        <v>35657.862000000001</v>
       </c>
       <c r="J36" s="46">
         <f t="shared" si="1"/>
-        <v>16.752300000000002</v>
+        <v>17.124200000000002</v>
       </c>
       <c r="K36" s="65">
         <f>Sayfa2!$J36*Sayfa2!$C36</f>
-        <v>18595.053000000004</v>
+        <v>19007.862000000001</v>
       </c>
       <c r="L36" s="66">
         <f t="shared" si="2"/>
-        <v>707</v>
+        <v>725</v>
       </c>
       <c r="M36" s="67">
         <f t="shared" si="3"/>
-        <v>1.1168200000000001</v>
+        <v>1.1416133333333334</v>
       </c>
       <c r="N36" s="116">
         <f t="shared" si="4"/>
-        <v>4.7389816124469596E-2</v>
+        <v>4.7239172413793107E-2</v>
       </c>
       <c r="O36" s="70">
         <f>SUM(K30:K36)</f>
-        <v>261204.40299999999</v>
+        <v>274193.93200000003</v>
       </c>
       <c r="P36" s="6">
         <f>SUM(P35:P35)</f>
-        <v>262895.73</v>
+        <v>271844.55000000005</v>
       </c>
       <c r="R36" s="1">
         <f>P36/2000</f>
-        <v>131.44786499999998</v>
+        <v>135.92227500000001</v>
       </c>
       <c r="T36" s="1" t="e">
         <f>P35/#REF!</f>
@@ -3334,7 +3335,7 @@
       <c r="N39" s="116"/>
       <c r="R39" s="1">
         <f>R36*2220.32</f>
-        <v>291856.32361679996</v>
+        <v>301790.94562800007</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -3499,7 +3500,7 @@
       </c>
       <c r="F44" s="62">
         <f t="shared" si="0"/>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G44" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3522,7 +3523,7 @@
       </c>
       <c r="L44" s="66">
         <f t="shared" ref="L44" si="6">F44-B44</f>
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="M44" s="67">
         <f t="shared" ref="M44" si="7">K44/E44</f>
@@ -3530,7 +3531,7 @@
       </c>
       <c r="N44" s="116">
         <f t="shared" ref="N44" si="8">M44/L44*30</f>
-        <v>3.7424605458067646E-2</v>
+        <v>3.6482447558423982E-2</v>
       </c>
       <c r="O44" s="70"/>
     </row>
@@ -3553,7 +3554,7 @@
       </c>
       <c r="F45" s="62">
         <f t="shared" si="0"/>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G45" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="L45" s="66">
         <f>F45-B45</f>
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="M45" s="67">
         <f>K45/E45</f>
@@ -3584,7 +3585,7 @@
       </c>
       <c r="N45" s="116">
         <f>M45/L45*30</f>
-        <v>3.858308901236783E-2</v>
+        <v>3.7611766491776756E-2</v>
       </c>
       <c r="O45" s="70"/>
     </row>
@@ -3607,7 +3608,7 @@
       </c>
       <c r="F46" s="62">
         <f t="shared" si="0"/>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G46" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -3630,7 +3631,7 @@
       </c>
       <c r="L46" s="66">
         <f>F46-B46</f>
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="M46" s="67">
         <f>K46/E46</f>
@@ -4539,7 +4540,7 @@
       </c>
       <c r="F73" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G73" s="63">
         <f>Tablo2[[#This Row],[adet]]</f>
@@ -4562,7 +4563,7 @@
       </c>
       <c r="L73" s="66">
         <f>F73-B73</f>
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="M73" s="116">
         <f>K73/E73</f>
@@ -4570,7 +4571,7 @@
       </c>
       <c r="N73" s="116">
         <f>M73/L73*30</f>
-        <v>1.0276206089872369E-2</v>
+        <v>7.1410923675384267E-3</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4592,7 +4593,7 @@
       </c>
       <c r="F74" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G74" s="63">
         <v>3</v>
@@ -4614,7 +4615,7 @@
       </c>
       <c r="L74" s="66">
         <f>F74-B74</f>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M74" s="116">
         <f>K74/E74</f>
@@ -4622,7 +4623,7 @@
       </c>
       <c r="N74" s="116">
         <f>M74/L74*30</f>
-        <v>2.3387284489879642E-2</v>
+        <v>1.854853597473213E-2</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4644,7 +4645,7 @@
       </c>
       <c r="F75" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G75" s="63">
         <v>12</v>
@@ -4666,7 +4667,7 @@
       </c>
       <c r="L75" s="66">
         <f>F75-B75</f>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M75" s="116">
         <f>K75/E75</f>
@@ -4674,7 +4675,7 @@
       </c>
       <c r="N75" s="116">
         <f>M75/L75*30</f>
-        <v>2.1475666432855471E-2</v>
+        <v>1.7032425101919858E-2</v>
       </c>
       <c r="O75" s="102"/>
     </row>
@@ -4697,7 +4698,7 @@
       </c>
       <c r="F76" s="62">
         <f>$B$2</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="G76" s="63">
         <v>15</v>
@@ -4719,7 +4720,7 @@
       </c>
       <c r="L76" s="66">
         <f>F76-B76</f>
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="M76" s="116">
         <f>K76/E76</f>
@@ -4727,7 +4728,7 @@
       </c>
       <c r="N76" s="116">
         <f>M76/L76*30</f>
-        <v>2.1475666432855471E-2</v>
+        <v>1.7032425101919858E-2</v>
       </c>
       <c r="O76" s="102"/>
     </row>
@@ -5930,12 +5931,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AM82"/>
+  <dimension ref="A4:AM83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
-      <selection pane="topRight" activeCell="A11" sqref="A11"/>
+      <selection pane="topRight" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -5987,23 +5988,23 @@
     <row r="5" spans="1:39">
       <c r="A5" s="117">
         <f>A11</f>
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="C5">
         <f>C11</f>
-        <v>31.752300000000002</v>
+        <v>32.124200000000002</v>
       </c>
       <c r="E5">
         <f>E11</f>
-        <v>34.092399999999998</v>
+        <v>34.877200000000002</v>
       </c>
       <c r="G5">
         <f>G11</f>
-        <v>2368.4299999999998</v>
+        <v>2449.0500000000002</v>
       </c>
       <c r="I5">
         <f>I11</f>
-        <v>24.46</v>
+        <v>24.85</v>
       </c>
       <c r="K5">
         <f>K11</f>
@@ -6011,27 +6012,27 @@
       </c>
       <c r="M5">
         <f>M11</f>
-        <v>0.81822300000000003</v>
+        <v>0.88344500000000004</v>
       </c>
       <c r="O5" s="115">
         <f>Sayfa2!D3</f>
-        <v>152.03061523003575</v>
+        <v>164.62438169575475</v>
       </c>
       <c r="P5" s="118">
         <f>Sayfa2!K2</f>
-        <v>255107.37235600001</v>
+        <v>279202.95135600003</v>
       </c>
       <c r="Y5" s="115">
         <f>Y11</f>
-        <v>25.86</v>
+        <v>26.68</v>
       </c>
       <c r="AA5" s="115">
         <f>AA11</f>
-        <v>21.38</v>
+        <v>22.22</v>
       </c>
       <c r="AC5" s="115">
         <f>AC11</f>
-        <v>122.5</v>
+        <v>119.1</v>
       </c>
       <c r="AE5">
         <f>AE11</f>
@@ -6050,7 +6051,7 @@
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>AM57</f>
+        <f>AM58</f>
         <v>19.690000000000001</v>
       </c>
     </row>
@@ -6139,33 +6140,33 @@
     </row>
     <row r="11" spans="1:39">
       <c r="A11" s="117">
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="B11">
-        <f>B69</f>
+        <f>B70</f>
         <v>1110</v>
       </c>
       <c r="C11">
-        <v>31.752300000000002</v>
+        <v>32.124200000000002</v>
       </c>
       <c r="D11">
-        <f>D69</f>
+        <f>D70</f>
         <v>321.99</v>
       </c>
       <c r="E11">
-        <v>34.092399999999998</v>
+        <v>34.877200000000002</v>
       </c>
       <c r="F11" s="112">
         <v>156</v>
       </c>
       <c r="G11">
-        <v>2368.4299999999998</v>
+        <v>2449.0500000000002</v>
       </c>
       <c r="H11" s="199">
         <v>7500</v>
       </c>
       <c r="I11" s="199">
-        <v>24.46</v>
+        <v>24.85</v>
       </c>
       <c r="J11">
         <v>210</v>
@@ -6174,71 +6175,71 @@
         <v>684.04080099999999</v>
       </c>
       <c r="L11">
-        <f>L69</f>
+        <f>L70</f>
         <v>125000</v>
       </c>
       <c r="M11">
-        <v>0.81822300000000003</v>
+        <v>0.88344500000000004</v>
       </c>
       <c r="N11" s="113">
-        <f t="shared" ref="N11:N30" si="0">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
-        <v>845073.98808599985</v>
+        <f t="shared" ref="N11:N31" si="0">(F11*G11)+(B11*C11)+(D11*E11)+(L11*M11)+(H11*I11)+(J11*K11)</f>
+        <v>869393.96483800001</v>
       </c>
       <c r="O11">
-        <v>152.03</v>
+        <v>164.62</v>
       </c>
       <c r="P11">
-        <v>255107.37</v>
+        <v>279202.95</v>
       </c>
       <c r="Q11" s="115">
         <v>10446.24</v>
       </c>
       <c r="R11" s="127">
-        <f>(1-(Q16/Q11))</f>
+        <f>(1-(Q17/Q11))</f>
         <v>-2.4008638514909642E-3</v>
       </c>
       <c r="S11" s="116">
-        <f>(N11/$N$63)-1</f>
-        <v>0.59314199316371541</v>
+        <f>(N11/$N$64)-1</f>
+        <v>0.63899025826548517</v>
       </c>
       <c r="T11" s="114">
-        <f>(A11-$A$63)</f>
-        <v>119</v>
+        <f>(A11-$A$64)</f>
+        <v>137</v>
       </c>
       <c r="U11" s="116">
-        <f>((N11/$N$63)-1)/T11*30</f>
-        <v>0.14953159491522239</v>
+        <f t="shared" ref="U11:U45" si="1">((N11/$N$64)-1)/T11*30</f>
+        <v>0.13992487407273399</v>
       </c>
       <c r="V11" s="116"/>
       <c r="W11" s="116"/>
       <c r="X11" s="134"/>
       <c r="Y11" s="134">
-        <v>25.86</v>
+        <v>26.68</v>
       </c>
       <c r="Z11" s="134"/>
       <c r="AA11" s="134">
-        <v>21.38</v>
+        <v>22.22</v>
       </c>
       <c r="AB11">
         <v>10</v>
       </c>
       <c r="AC11" s="115">
-        <v>122.5</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="A12" s="117">
-        <v>45475</v>
+        <v>45481</v>
       </c>
       <c r="B12">
-        <f>B70</f>
+        <f>B71</f>
         <v>1110</v>
       </c>
       <c r="C12">
         <v>31.752300000000002</v>
       </c>
       <c r="D12">
-        <f>D70</f>
+        <f>D71</f>
         <v>321.99</v>
       </c>
       <c r="E12">
@@ -6254,169 +6255,169 @@
         <v>7500</v>
       </c>
       <c r="I12" s="199">
-        <v>24.22</v>
+        <v>24.46</v>
       </c>
       <c r="J12">
         <v>210</v>
       </c>
       <c r="K12" s="137">
-        <v>679.37461900000005</v>
+        <v>684.04080099999999</v>
       </c>
       <c r="L12">
-        <f>L70</f>
+        <f>L71</